--- a/ativos.xlsx
+++ b/ativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebili\github\cotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A3B434-A600-4A61-93CE-732129491436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACBF34A-75A0-4473-8A8C-7049AA410515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="50">
+  <futureMetadata name="XLRICHVALUE" count="71">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -152,70 +152,70 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="48"/>
+          <xlrd:rvb i="44"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="51"/>
+          <xlrd:rvb i="47"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="54"/>
+          <xlrd:rvb i="50"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="57"/>
+          <xlrd:rvb i="53"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="60"/>
+          <xlrd:rvb i="56"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="63"/>
+          <xlrd:rvb i="59"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="66"/>
+          <xlrd:rvb i="62"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="69"/>
+          <xlrd:rvb i="65"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="72"/>
+          <xlrd:rvb i="68"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="75"/>
+          <xlrd:rvb i="71"/>
         </ext>
       </extLst>
     </bk>
@@ -401,13 +401,160 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="156"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="159"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="162"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="165"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="168"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="171"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="174"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="177"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="180"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="183"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="186"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="189"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="192"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="195"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="198"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="201"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="204"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="207"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="210"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="213"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="216"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="50">
+  <valueMetadata count="71">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -557,6 +704,69 @@
     </bk>
     <bk>
       <rc t="2" v="49"/>
+    </bk>
+    <bk>
+      <rc t="2" v="50"/>
+    </bk>
+    <bk>
+      <rc t="2" v="51"/>
+    </bk>
+    <bk>
+      <rc t="2" v="52"/>
+    </bk>
+    <bk>
+      <rc t="2" v="53"/>
+    </bk>
+    <bk>
+      <rc t="2" v="54"/>
+    </bk>
+    <bk>
+      <rc t="2" v="55"/>
+    </bk>
+    <bk>
+      <rc t="2" v="56"/>
+    </bk>
+    <bk>
+      <rc t="2" v="57"/>
+    </bk>
+    <bk>
+      <rc t="2" v="58"/>
+    </bk>
+    <bk>
+      <rc t="2" v="59"/>
+    </bk>
+    <bk>
+      <rc t="2" v="60"/>
+    </bk>
+    <bk>
+      <rc t="2" v="61"/>
+    </bk>
+    <bk>
+      <rc t="2" v="62"/>
+    </bk>
+    <bk>
+      <rc t="2" v="63"/>
+    </bk>
+    <bk>
+      <rc t="2" v="64"/>
+    </bk>
+    <bk>
+      <rc t="2" v="65"/>
+    </bk>
+    <bk>
+      <rc t="2" v="66"/>
+    </bk>
+    <bk>
+      <rc t="2" v="67"/>
+    </bk>
+    <bk>
+      <rc t="2" v="68"/>
+    </bk>
+    <bk>
+      <rc t="2" v="69"/>
+    </bk>
+    <bk>
+      <rc t="2" v="70"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -584,8 +794,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -648,12 +857,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -693,27 +914,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -730,9 +943,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -742,29 +952,67 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -782,16 +1030,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -938,7 +1176,160 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="154">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="217">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=aplvfr&amp;q=BVMF%3aALPA4&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>aplvfr</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>ALPARGATAS S.A. (BVMF:ALPA4)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>23.89</v>
+    <v>6.81</v>
+    <v>BVMF</v>
+    <v>683062200</v>
+    <v>10.54</v>
+    <v>1907</v>
+    <v>10.32</v>
+    <v>1.0880000000000001</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>7195475000</v>
+    <v>A Alpargatas SA, antiga São Paulo Alpargatas SA, é uma empresa com sede no Brasil que se dedica à produção de calçados, vestuário e artigos esportivos. A Companhia fabrica e comercializa calçados e seus componentes; confecções; produtos têxteis; couro, resina e produtos de borracha natural ou artificial e artigos esportivos. O portfólio de marcas da Companhia inclui Havaianas e Dupe, que fabrica sandálias; Sete Leguas, oferecendo botas de borracha; Timberland, fornecimento de vestuário e calçado para exterior; Topper e Mizuno, com produção de artigos esportivos, calçados e roupas, e Osklen, marca de moda. A empresa também vende produtos esportivos por meio da rede de lojas Meggashop. Opera por meio de diversas subsidiárias no Brasil, Argentina, Estados Unidos, Espanha e França, entre outras. A Companhia é controlada por um grupo de investidores (Consórcio), formado pela Brasil Warrant Administração de Bens e Empresas SA, uma unidade do Grupo Moreira Salles, Itausa Investimentos Itau SA e Cambuhy Investimentos Ltda.</v>
+    <v>BVMF</v>
+    <v>10.4</v>
+    <v>17000</v>
+    <v>45072.947916666664</v>
+    <v>0</v>
+    <v>11534600</v>
+    <v>BRL</v>
+    <v>ALPARGATAS S.A.</v>
+    <v>ALPARGATAS S.A.</v>
+    <v>10.45</v>
+    <v>10.39</v>
+    <v>Av. das Nacoes Unidas, 14.261, Vila Gertrudes, SAO PAULO, SAO PAULO, 04.794-000 BR</v>
+    <v>Textiles &amp; Apparel</v>
+    <v>ALPA4</v>
+    <v>Ações</v>
+    <v>ALPARGATAS S.A. (BVMF:ALPA4)</v>
+    <v>-0.01</v>
+    <v>-9.6150000000000001E-4</v>
+    <v>4971000</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=br6c3m&amp;q=BVMF%3aALSO3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>br6c3m</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>ALIANSCE SONAE SHOPPING CENTERS S.A. (BVMF:ALSO3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>22.13</v>
+    <v>14.92</v>
+    <v>BVMF</v>
+    <v>573936900</v>
+    <v>21.69</v>
+    <v>2003</v>
+    <v>20.98</v>
+    <v>1.2397</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>12236330000</v>
+    <v>A Aliansce Sonae Shopping Centers SA, anteriormente conhecida como Sonae Sierra Brasil SA, é uma empresa sediada no Brasil que se dedica principalmente ao desenvolvimento e operação de shopping centers no Brasil. Por meio de suas subsidiárias, a Companhia atua no desenvolvimento de projetos de shopping centers, construção de edifícios comerciais, gestão de imóveis comerciais, serviços de corretagem, locação de espaços para varejistas, locação de espaços comerciais para publicidade e promoção e operação de estacionamentos. A Companhia possui subsidiárias como Sierra Investimentos Brasil Ltda e Unishopping Administradora Ltda., Através das quais opera diversos centros comerciais no Brasil, incluindo o Parque D Pedro, o Metrópole, Manauara, Penha, Tivoli, Campo Limpo e Franca, entre outros. É uma subsidiária da Sierra Brazil 1 BV.</v>
+    <v>BVMF</v>
+    <v>21.14</v>
+    <v>440</v>
+    <v>45072.947939814818</v>
+    <v>3</v>
+    <v>5487820</v>
+    <v>BRL</v>
+    <v>ALIANSCE SONAE SHOPPING CENTERS S.A.</v>
+    <v>ALIANSCE SONAE SHOPPING CENTERS S.A.</v>
+    <v>21.32</v>
+    <v>21.32</v>
+    <v>R Dias Ferreira 00190 Sal 301, Leblon, RIO DE JANEIRO, RIO DE JANEIRO, 22.431-050 BR</v>
+    <v>Real Estate Operations</v>
+    <v>ALSO3</v>
+    <v>Ações</v>
+    <v>ALIANSCE SONAE SHOPPING CENTERS S.A. (BVMF:ALSO3)</v>
+    <v>0.18</v>
+    <v>8.515E-3</v>
+    <v>3071500</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bzt9p2&amp;q=BVMF%3aASAI3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>bzt9p2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>SENDAS DISTRIBUIDORA S/A (BVMF:ASAI3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>21.27</v>
+    <v>10.38</v>
+    <v>BVMF</v>
+    <v>1349225000</v>
+    <v>11.75</v>
+    <v>2003</v>
+    <v>11.12</v>
+    <v>0.80700000000000005</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>15381170000</v>
+    <v>A Sendas Distribuidora SA, também conhecida como Assai Atacadista, é uma empresa com sede no Brasil que atua principalmente no setor de distribuição de alimentos. As atividades da Empresa estão divididas em dois segmentos operacionais: Cash &amp; Carry e Varejo. Por meio do segmento de Cash &amp; Carry, a Companhia oferece alimentos, artigos de bazar e outros produtos para o atacado, por meio de lojas de autoatendimento operadas no Brasil com a marca Assai. O segmento de Varejo inclui operações de hipermercados, supermercados e lojas de conveniência sob as seguintes marcas: Exito, Carulla, Surtimaorista, Surtimax, Super Inter e Viva Malls na Colômbia; Devoto, Disco e Geant no Uruguai; e Libertad, Mini Libertad e Paseo Libertad Malls na Argentina.</v>
+    <v>BVMF</v>
+    <v>11.63</v>
+    <v>76000</v>
+    <v>45072.947916666664</v>
+    <v>6</v>
+    <v>14913510</v>
+    <v>BRL</v>
+    <v>SENDAS DISTRIBUIDORA S/A</v>
+    <v>SENDAS DISTRIBUIDORA S/A</v>
+    <v>11.75</v>
+    <v>11.4</v>
+    <v>Avenida Ayrton Senna, 6.000 Jacarepagua, RIO DE JANEIRO, RIO DE JANEIRO, 22.775-005 BR</v>
+    <v>Food &amp; Drug Retailing</v>
+    <v>ASAI3</v>
+    <v>Ações</v>
+    <v>SENDAS DISTRIBUIDORA S/A (BVMF:ASAI3)</v>
+    <v>-0.23</v>
+    <v>-1.9776000000000002E-2</v>
+    <v>33045700</v>
+  </rv>
+  <rv s="2">
+    <v>7</v>
+  </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=aplxpr&amp;q=BVMF%3aAZUL4&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -956,39 +1347,90 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>21.78</v>
+    <v>21.44</v>
     <v>6.71</v>
     <v>BVMF</v>
     <v>335623400</v>
-    <v>16.07</v>
+    <v>16.52</v>
     <v>2008</v>
-    <v>15.11</v>
-    <v>1.9368000000000001</v>
+    <v>15.73</v>
+    <v>1.972</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5225656338</v>
+    <v>5380043000</v>
     <v>A Azul S.A. é uma empresa brasileira dedicada à prestação de serviços de transporte de passageiros. A Companhia atua principalmente como operadora de companhia aérea sob a marca Azul, fornecendo voos regulares entre diversas cidades do Brasil, incluindo São Paulo, Brasília, Rio de Janeiro, Belo Horizonte, Porto Alegre, Curitiba, Fortaleza e Salvador, entre outros. Além disso, sua rede aérea compreende rotas internacionais para os Estados Unidos, Europa e outros países da América Latina. Por meio de seu negócio de pacotes de viagens, a Azul Viagens, além de passagens aéreas, a Companhia oferece acomodações, transfers, passeios e aluguel de veículos. Sua oferta inclui também o Azul Cargo Express, um serviço de transporte de carga agendado com entrega de aeroporto a aeroporto e porta a porta. A Companhia possui várias subsidiárias, como a Azul Linhas Aéreas Brasileiras SA, que opera todas as atividades de voo e TudoAzul SA, que gerencia o programa de fidelidade.</v>
     <v>BVMF</v>
-    <v>14.69</v>
+    <v>15.6</v>
     <v>13651</v>
-    <v>45071.798414351855</v>
-    <v>0</v>
-    <v>19981000</v>
+    <v>45072.947916666664</v>
+    <v>9</v>
+    <v>20038400</v>
     <v>BRL</v>
     <v>Azul S.A.</v>
     <v>Azul S.A.</v>
-    <v>15.11</v>
-    <v>15.57</v>
+    <v>15.85</v>
+    <v>16.03</v>
     <v>Avenida Marcos Penteado de Ulhoa Rodrigues 939 8 andar, Tambore, BARUERI, SAO PAULO, 06.460-040 BR</v>
     <v>Passenger Transportation Services</v>
     <v>AZUL4</v>
     <v>Ações</v>
     <v>Azul S.A. (BVMF:AZUL4)</v>
-    <v>0.88</v>
-    <v>5.9905E-2</v>
-    <v>16433600</v>
+    <v>0.43</v>
+    <v>2.7564000000000002E-2</v>
+    <v>17223000</v>
   </rv>
   <rv s="2">
-    <v>1</v>
+    <v>10</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=azh5a2&amp;q=BVMF%3aB3SA3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>azh5a2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>B3 S.A. - Brasil, Bolsa, Balcão (BVMF:B3SA3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>15.73</v>
+    <v>9.5</v>
+    <v>BVMF</v>
+    <v>6099000000</v>
+    <v>13.78</v>
+    <v>2007</v>
+    <v>13.35</v>
+    <v>1.1378999999999999</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>83312340000</v>
+    <v>B3 SA Brasil Bolsa Balcão, anteriormente BM &amp; F Bovespa SA Bolsa de Valores Mercadorias e Futuros, é uma fornecedora de infra-estruturaa de mercado financeiro no Brasil. As ofertas de serviços da Companhia varia entre negociação cambial, compensação e outros serviços pós-negociação e registro de transações de balcão (OTC). A Companhia também fornece um serviço de listagem e atua como depósito central de valores mobiliários (CSD). Desenvolve soluções de software e oferece serviços de licenciamento de índice. Seu negócio está dividido em quatro segmentos: Bovespa, que abrange a negociação, compensação e liquidação de ações e derivativos patrimoniais; BM &amp; F, que abrange a negociação, compensação e liquidação de derivativos financeiros e de mercadorias (commodities); Cetip Securities (Cetip UTVM), cobrindo os sistemas de registro, compensação, liquidação e custódia de títulos de renda fixa e derivados OTC e Cetip Financing (Cetip UFIN), que fornece um sistema eletrônico privado integrado para registro de empréstimos de veículos e imóveis.</v>
+    <v>BVMF</v>
+    <v>13.18</v>
+    <v>2135</v>
+    <v>45072.947916666664</v>
+    <v>12</v>
+    <v>47793730</v>
+    <v>BRL</v>
+    <v>B3 S.A. - Brasil, Bolsa, Balcão</v>
+    <v>B3 S.A. - Brasil, Bolsa, Balcão</v>
+    <v>13.5</v>
+    <v>13.66</v>
+    <v>Praca Antonio Prado, 48 7 andar, Centro, SAO PAULO, SAO PAULO, 01.010-901 BR</v>
+    <v>Investment Banking &amp; Investment Services</v>
+    <v>B3SA3</v>
+    <v>Ações</v>
+    <v>B3 S.A. - Brasil, Bolsa, Balcão (BVMF:B3SA3)</v>
+    <v>0.48</v>
+    <v>3.6419E-2</v>
+    <v>39014000</v>
+  </rv>
+  <rv s="2">
+    <v>13</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bqkr3m&amp;q=BVMF%3aBARI11&amp;form=skydnc</v>
@@ -1010,25 +1452,25 @@
     <v>90.66</v>
     <v>75.81</v>
     <v>BVMF</v>
-    <v>83.68</v>
-    <v>82.66</v>
+    <v>84.31</v>
+    <v>83.01</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>83</v>
-    <v>45071.798437500001</v>
-    <v>3</v>
+    <v>82.8</v>
+    <v>45072.947962962964</v>
+    <v>15</v>
     <v>BRL</v>
     <v>FII BARIGUI RENDI CF</v>
-    <v>83.2</v>
-    <v>82.89</v>
+    <v>84.31</v>
+    <v>83.85</v>
     <v>BARI11</v>
     <v>Fundos mais negociados</v>
     <v>FII BARIGUI RENDI CF (BVMF:BARI11)</v>
-    <v>-0.11</v>
-    <v>-1.325E-3</v>
-    <v>5484</v>
+    <v>1.05</v>
+    <v>1.2681E-2</v>
+    <v>3780</v>
   </rv>
   <rv s="2">
-    <v>4</v>
+    <v>16</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=aplygh&amp;q=BVMF%3aBBAS3&amp;form=skydnc</v>
@@ -1051,35 +1493,35 @@
     <v>29.24</v>
     <v>BVMF</v>
     <v>2865417000</v>
-    <v>45.4</v>
+    <v>45.32</v>
     <v>1808</v>
-    <v>44.67</v>
-    <v>1.1823999999999999</v>
+    <v>44.15</v>
+    <v>1.1757</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>128342027430</v>
+    <v>127224500000</v>
     <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
     <v>BVMF</v>
-    <v>44.64</v>
+    <v>44.66</v>
     <v>85953</v>
-    <v>45071.798498460157</v>
-    <v>6</v>
-    <v>15053850</v>
+    <v>45072.947916666664</v>
+    <v>18</v>
+    <v>14866630</v>
     <v>BRL</v>
     <v>BANCO DO BRASIL S.A.</v>
     <v>BANCO DO BRASIL S.A.</v>
-    <v>45</v>
-    <v>44.79</v>
+    <v>45.25</v>
+    <v>44.4</v>
     <v>SAUN QD 5 LT B, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Banking Services</v>
     <v>BBAS3</v>
     <v>Ações</v>
     <v>BANCO DO BRASIL S.A. (BVMF:BBAS3)</v>
-    <v>0.15</v>
-    <v>3.3600000000000001E-3</v>
-    <v>9558700</v>
+    <v>-0.26</v>
+    <v>-5.8220000000000008E-3</v>
+    <v>9577000</v>
   </rv>
   <rv s="2">
-    <v>7</v>
+    <v>19</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=aplz4c&amp;q=BVMF%3aBBSE3&amp;form=skydnc</v>
@@ -1102,35 +1544,35 @@
     <v>22.19</v>
     <v>BVMF</v>
     <v>2000000000</v>
-    <v>31.95</v>
+    <v>32.14</v>
     <v>2012</v>
-    <v>31.32</v>
-    <v>0.67920000000000003</v>
+    <v>31.68</v>
+    <v>0.67100000000000004</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>63540000000</v>
+    <v>63800000000</v>
     <v>A BB Seguridade Participações S.A. é uma empresa brasileira que atua no setor de seguros. As atividades da empresa se dividem em dois segmentos: Seguros e Corretagem. A divisão Seguros oferece seguros de vida, propriedade e acidentes, veículos, riscos especiais, financeiro e transporte, planos odontológicos, de previdência privada e de capitalização, bem como resseguro. A divisão Corretagem concentra-se na corretagem de seguros, gestão dos planos de previdência e capitalização, bem como na promoção de produtos de seguros e resseguros. Além disso, presta consultoria relacionada à seleção de seguros. As subsidiárias da empresa incluem a BB Seguros Participações S.A. e a BB Cor Participações S.A. A empresa é controlada pelo BANCO DO BRASIL S.A.</v>
     <v>BVMF</v>
-    <v>31.37</v>
+    <v>31.81</v>
     <v>223</v>
-    <v>45071.798521168748</v>
-    <v>9</v>
-    <v>7368650</v>
+    <v>45072.947916666664</v>
+    <v>21</v>
+    <v>8482240</v>
     <v>BRL</v>
     <v>BB Seguridade Participações S.A.</v>
     <v>BB Seguridade Participações S.A.</v>
-    <v>31.5</v>
-    <v>31.77</v>
+    <v>32</v>
+    <v>31.9</v>
     <v>SAUN, Quadra 05, Bloco B, 3 andar Edificio Banco do Br, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Insurance</v>
     <v>BBSE3</v>
     <v>Ações</v>
     <v>BB Seguridade Participações S.A. (BVMF:BBSE3)</v>
-    <v>0.4</v>
-    <v>1.2750999999999998E-2</v>
-    <v>7353200</v>
+    <v>0.09</v>
+    <v>2.8289999999999999E-3</v>
+    <v>5439100</v>
   </rv>
   <rv s="2">
-    <v>10</v>
+    <v>22</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c1v2gh&amp;q=BVMF%3aBDIF11&amp;form=skydnc</v>
@@ -1152,25 +1594,25 @@
     <v>100.01</v>
     <v>82</v>
     <v>BVMF</v>
-    <v>87.64</v>
-    <v>87</v>
+    <v>88.16</v>
+    <v>87.57</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>87.3</v>
-    <v>45071.798463680469</v>
-    <v>12</v>
+    <v>87.65</v>
+    <v>45072.947928240741</v>
+    <v>24</v>
     <v>BRL</v>
     <v>BTG PACTUAL DIV INFR FIC FII INFRA RF</v>
-    <v>87.06</v>
-    <v>87.12</v>
+    <v>87.9</v>
+    <v>87.88</v>
     <v>BDIF11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL DIV INFR FIC FII INFRA RF (BVMF:BDIF11)</v>
-    <v>-0.18</v>
-    <v>-2.062E-3</v>
-    <v>8084</v>
+    <v>0.23</v>
+    <v>2.624E-3</v>
+    <v>8163</v>
   </rv>
   <rv s="2">
-    <v>13</v>
+    <v>25</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c3o9ur&amp;q=BVMF%3aBIDB11&amp;form=skydnc</v>
@@ -1192,25 +1634,107 @@
     <v>91.99</v>
     <v>83.5</v>
     <v>BVMF</v>
+    <v>90</v>
+    <v>88.83</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>88.95</v>
-    <v>88.74</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>88.94</v>
-    <v>45071.785045173434</v>
-    <v>15</v>
+    <v>45072.947928240741</v>
+    <v>27</v>
     <v>BRL</v>
     <v>INTER INFRA FIC RENDA FIXA CREDIT CF</v>
-    <v>88.93</v>
     <v>88.95</v>
+    <v>90</v>
     <v>BIDB11</v>
     <v>Fundos mais negociados</v>
     <v>INTER INFRA FIC RENDA FIXA CREDIT CF (BVMF:BIDB11)</v>
-    <v>0.01</v>
-    <v>1.1239999999999999E-4</v>
-    <v>700</v>
+    <v>1.05</v>
+    <v>1.1803999999999999E-2</v>
+    <v>1027</v>
   </rv>
   <rv s="2">
-    <v>16</v>
+    <v>28</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bgmb3m&amp;q=BVMF%3aBOVA11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="4">
+    <v>pt-BR</v>
+    <v>bgmb3m</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>10</v>
+    <v>11</v>
+    <v>iShares Ibovespa Fundo Indice (BVMF:BOVA11)</v>
+    <v>8</v>
+    <v>12</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>116.61</v>
+    <v>91.9</v>
+    <v>BVMF</v>
+    <v>108.17</v>
+    <v>106.3</v>
+    <v>0.99819999999999998</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>12877822988</v>
+    <v>106.55</v>
+    <v>45072.947916666664</v>
+    <v>30</v>
+    <v>BRL</v>
+    <v>iShares Ibovespa Fundo Indice</v>
+    <v>108</v>
+    <v>107.51</v>
+    <v>BOVA11</v>
+    <v>Fundos mais negociados</v>
+    <v>iShares Ibovespa Fundo Indice (BVMF:BOVA11)</v>
+    <v>0.96</v>
+    <v>9.0100000000000006E-3</v>
+    <v>7602318</v>
+  </rv>
+  <rv s="2">
+    <v>31</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apm327&amp;q=BVMF%3aBPAC11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>pt-BR</v>
+    <v>apm327</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>6</v>
+    <v>7</v>
+    <v>BCO BTG PACTUAL UNT (BVMF:BPAC11)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>29.52</v>
+    <v>17.93</v>
+    <v>BVMF</v>
+    <v>28.11</v>
+    <v>26.56</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>26.87</v>
+    <v>45072.947916666664</v>
+    <v>33</v>
+    <v>BRL</v>
+    <v>BCO BTG PACTUAL UNT</v>
+    <v>27.25</v>
+    <v>27.14</v>
+    <v>BPAC11</v>
+    <v>Fundos mais negociados</v>
+    <v>BCO BTG PACTUAL UNT (BVMF:BPAC11)</v>
+    <v>0.27</v>
+    <v>1.0048E-2</v>
+    <v>19146300</v>
+  </rv>
+  <rv s="2">
+    <v>34</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apm3ar&amp;q=BVMF%3aBPAN4&amp;form=skydnc</v>
@@ -1229,39 +1753,39 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>8.1</v>
+    <v>7.96</v>
     <v>4.57</v>
     <v>BVMF</v>
     <v>615638600</v>
-    <v>6.6</v>
+    <v>6.68</v>
     <v>1966</v>
-    <v>6.4</v>
-    <v>1.4260999999999999</v>
+    <v>6.47</v>
+    <v>1.4358</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>3989338128</v>
+    <v>4081684000</v>
     <v>O BANCO PAN S.A., anteriormente Banco Panamericano S.A., é um banco comercial brasileiro. O Banco oferece uma variedade de serviços e produtos financeiros, incluindo empréstimos ao consumidor, leasing de veículos de passageiros e financiamento de vendas, entre outros. A empresa atua através de cinco segmentos principais: Financeiro, que oferece créditos ao consumidor, cartões de crédito, leasing e serviços de investimento; Consórcio, que se dedica à gestão de bens de terceiros, como automóveis, motocicletas, aparelhos eletrônicos e imóveis; Securitização de recebíveis; Promoção de vendas; e Outros. A empresa oferece seus serviços para clientes individuais e corporativos.</v>
     <v>BVMF</v>
-    <v>6.4</v>
+    <v>6.48</v>
     <v>2433</v>
-    <v>45071.79838727969</v>
-    <v>18</v>
-    <v>2116130</v>
+    <v>45072.947916666664</v>
+    <v>36</v>
+    <v>2370500</v>
     <v>BRL</v>
     <v>BANCO PAN S.A.</v>
     <v>BANCO PAN S.A.</v>
-    <v>6.46</v>
-    <v>6.48</v>
+    <v>6.52</v>
+    <v>6.63</v>
     <v>Avenida Paulista, 1374 16 andar, Bela Vista, SAO PAULO, SAO PAULO, 01.310-100 BR</v>
     <v>Banking Services</v>
     <v>BPAN4</v>
     <v>Ações</v>
     <v>BANCO PAN S.A. (BVMF:BPAN4)</v>
-    <v>0.08</v>
-    <v>1.2500000000000001E-2</v>
-    <v>4080300</v>
+    <v>0.15</v>
+    <v>2.3147999999999998E-2</v>
+    <v>2322400</v>
   </rv>
   <rv s="2">
-    <v>19</v>
+    <v>37</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apm3rw&amp;q=BVMF%3aBRCR11&amp;form=skydnc</v>
@@ -1283,25 +1807,76 @@
     <v>66.72</v>
     <v>49.47</v>
     <v>BVMF</v>
-    <v>59.8</v>
-    <v>58.77</v>
+    <v>59.37</v>
+    <v>58.05</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>59.48</v>
-    <v>45071.798460648148</v>
-    <v>21</v>
+    <v>58.8</v>
+    <v>45072.947962962964</v>
+    <v>39</v>
     <v>BRL</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
-    <v>59.5</v>
-    <v>58.82</v>
+    <v>58.84</v>
+    <v>58.49</v>
     <v>BRCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
-    <v>-0.66</v>
-    <v>-1.1096E-2</v>
-    <v>27721</v>
+    <v>-0.31</v>
+    <v>-5.2719999999999998E-3</v>
+    <v>29281</v>
   </rv>
   <rv s="2">
-    <v>22</v>
+    <v>40</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apm4r7&amp;q=BVMF%3aBRKM5&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apm4r7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>BRASKEM S.A. (BVMF:BRKM5)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>46.96</v>
+    <v>16.47</v>
+    <v>BVMF</v>
+    <v>797207800</v>
+    <v>23.49</v>
+    <v>1972</v>
+    <v>22.82</v>
+    <v>0.80740000000000001</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>18435480000</v>
+    <v>A Braskem S.A. produz resinas termoplásticas. Os segmentos da Companhia são Petroquímicos Básicos, Poliolefinas, Vinílicos, Estados Unidos e Europa e Distribuição Química. Também se dedica à importação e exportação de produtos químicos, petroquímicos e combustíveis, produção, fornecimento e venda de utilidades como vapor, água, ar comprimido, gases industriais, prestação de serviços industriais e produção, fornecimento e venda de Energia elétrica. Também investe em outras empresas, seja como sócia ou como acionista. Opera mais de 40 unidades industriais, das quais mais de 30 estão localizadas nos estados brasileiros de Alagoas, Bahia, Rio de Janeiro, Rio Grande do Sul e São Paulo; mais de cinco estão localizadas nos Estados Unidos, nos estados da Pensilvânia, Texas e West Virginia, e mais de duas estão localizadas na Alemanha, nas cidades de Wesseling e Schkopau. Essas unidades produzem resinas termoplásticas - polietileno, polipropileno e cloreto de polivinila, além de petroquímicos básicos.</v>
+    <v>BVMF</v>
+    <v>23.04</v>
+    <v>8126</v>
+    <v>45072.947916666664</v>
+    <v>42</v>
+    <v>5481120</v>
+    <v>BRL</v>
+    <v>BRASKEM S.A.</v>
+    <v>BRASKEM S.A.</v>
+    <v>23.49</v>
+    <v>22.97</v>
+    <v>Rua Eteno, N 1561, Polo petroquimico, Copec, CAMACARI, BAHIA, 42.816-200 BR</v>
+    <v>Chemicals</v>
+    <v>BRKM5</v>
+    <v>Ações</v>
+    <v>BRASKEM S.A. (BVMF:BRKM5)</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-3.0380000000000003E-3</v>
+    <v>3194400</v>
+  </rv>
+  <rv s="2">
+    <v>43</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apm5c7&amp;q=BVMF%3aBRSR6&amp;form=skydnc</v>
@@ -1324,35 +1899,35 @@
     <v>8.4499999999999993</v>
     <v>BVMF</v>
     <v>408974500</v>
-    <v>12.01</v>
+    <v>12.14</v>
     <v>1928</v>
-    <v>11.73</v>
-    <v>1.0421</v>
+    <v>11.92</v>
+    <v>1.0497000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>4942837000</v>
+    <v>5136763000</v>
     <v>O Banco do Estado do Rio Grande do Sul S.A. é um banco comercial brasileiro que presta serviços bancários pessoais e corporativos. O Banrisul oferece uma variedade de produtos e serviços financeiros, como empréstimos pessoais e imobiliários, cartões de crédito e de débito, corretagem de títulos, gestão de portfólio, locação de veículos e equipamentos, serviços de investimento, apoio ao comércio internacional, e seguros de vida e patrimonial, entre outros.</v>
     <v>BVMF</v>
-    <v>11.68</v>
+    <v>12</v>
     <v>8804</v>
-    <v>45071.798483796294</v>
-    <v>24</v>
-    <v>1956680</v>
+    <v>45072.947916666664</v>
+    <v>45</v>
+    <v>2129920</v>
     <v>BRL</v>
     <v>Banco do Estado do Rio Grande do Sul S.A.</v>
     <v>Banco do Estado do Rio Grande do Sul S.A.</v>
-    <v>11.79</v>
-    <v>11.98</v>
+    <v>12.07</v>
+    <v>12.09</v>
     <v>Rua Capitao Montanha, 177, Centro, PORTO ALEGRE, RIO GRANDE DO SUL, 90.018-900 BR</v>
     <v>Banking Services</v>
     <v>BRSR6</v>
     <v>Ações</v>
     <v>Banco do Estado do Rio Grande do Sul S.A. (BVMF:BRSR6)</v>
-    <v>0.3</v>
-    <v>2.5684999999999999E-2</v>
-    <v>2712500</v>
+    <v>0.09</v>
+    <v>7.4999999999999997E-3</v>
+    <v>2645400</v>
   </rv>
   <rv s="2">
-    <v>25</v>
+    <v>46</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bgmcyc&amp;q=BVMF%3aFEXC11&amp;form=skydnc</v>
@@ -1374,25 +1949,25 @@
     <v>9.5500000000000007</v>
     <v>8.1300000000000008</v>
     <v>BVMF</v>
-    <v>9.31</v>
-    <v>9.1999999999999993</v>
+    <v>9.33</v>
+    <v>9.2200000000000006</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.1999999999999993</v>
-    <v>45071.798504687496</v>
-    <v>27</v>
+    <v>9.23</v>
+    <v>45072.947962962964</v>
+    <v>48</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII BTG PACTUAL FUNDO DE CRI CF</v>
     <v>9.2799999999999994</v>
-    <v>9.26</v>
+    <v>9.33</v>
     <v>BTCI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII BTG PACTUAL FUNDO DE CRI CF (BVMF:BTCI11)</v>
-    <v>0.06</v>
-    <v>6.522E-3</v>
-    <v>181587</v>
+    <v>0.1</v>
+    <v>1.0834E-2</v>
+    <v>202656</v>
   </rv>
   <rv s="2">
-    <v>28</v>
+    <v>49</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bswvm7&amp;q=BVMF%3aBTLG11&amp;form=skydnc</v>
@@ -1415,24 +1990,24 @@
     <v>88.29</v>
     <v>BVMF</v>
     <v>98.34</v>
-    <v>97.59</v>
+    <v>97.91</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>97.8</v>
-    <v>45071.798425925925</v>
-    <v>30</v>
+    <v>98.01</v>
+    <v>45072.947962962964</v>
+    <v>51</v>
     <v>BRL</v>
     <v>BTG PACTUAL LOGISTICA FDO INV IMOB - FII ETF</v>
-    <v>97.98</v>
-    <v>97.94</v>
+    <v>98</v>
+    <v>98.22</v>
     <v>BTLG11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL LOGISTICA FDO INV IMOB - FII ETF (BVMF:BTLG11)</v>
-    <v>0.14000000000000001</v>
-    <v>1.431E-3</v>
-    <v>24107</v>
+    <v>0.21</v>
+    <v>2.1429999999999999E-3</v>
+    <v>190546</v>
   </rv>
   <rv s="2">
-    <v>31</v>
+    <v>52</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c2vnkr&amp;q=BVMF%3aBTRA11&amp;form=skydnc</v>
@@ -1451,28 +2026,28 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>93.21</v>
-    <v>68.400000000000006</v>
-    <v>BVMF</v>
-    <v>79.5</v>
-    <v>78.569999999999993</v>
+    <v>92.28</v>
+    <v>67.72</v>
+    <v>BVMF</v>
+    <v>79.97</v>
+    <v>78.84</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>79.180000000000007</v>
-    <v>45071.797662037039</v>
-    <v>33</v>
+    <v>79.05</v>
+    <v>45072.947962962964</v>
+    <v>54</v>
     <v>BRL</v>
     <v>FII BTG PACTUAL TERRAS AGRICOLAS CEF</v>
-    <v>79.02</v>
-    <v>79.28</v>
+    <v>79.5</v>
+    <v>79.89</v>
     <v>BTRA11</v>
     <v>Fundos mais negociados</v>
     <v>FII BTG PACTUAL TERRAS AGRICOLAS CEF (BVMF:BTRA11)</v>
-    <v>0.1</v>
-    <v>1.263E-3</v>
-    <v>6252</v>
+    <v>0.84</v>
+    <v>1.0626E-2</v>
+    <v>5468</v>
   </rv>
   <rv s="2">
-    <v>34</v>
+    <v>55</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=btju4c&amp;q=BVMF%3aCACR11&amp;form=skydnc</v>
@@ -1491,28 +2066,28 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>106</v>
+    <v>106.47</v>
     <v>84.46</v>
     <v>BVMF</v>
-    <v>105.99</v>
-    <v>105.59</v>
+    <v>106.47</v>
+    <v>105.9</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>105.8</v>
-    <v>45071.795972222222</v>
-    <v>36</v>
+    <v>105.98</v>
+    <v>45072.947962962964</v>
+    <v>57</v>
     <v>BRL</v>
     <v>SUPERNOVA FII- RECEB IMOB.</v>
-    <v>105.8</v>
-    <v>105.97</v>
+    <v>106</v>
+    <v>106.2</v>
     <v>CACR11</v>
     <v>Fundos mais negociados</v>
     <v>SUPERNOVA FII- RECEB IMOB. (BVMF:CACR11)</v>
-    <v>0.17</v>
-    <v>1.6070000000000001E-3</v>
-    <v>1755</v>
+    <v>0.22</v>
+    <v>2.0760000000000002E-3</v>
+    <v>3954</v>
   </rv>
   <rv s="2">
-    <v>37</v>
+    <v>58</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apmcfr&amp;q=BVMF%3aCSAN3&amp;form=skydnc</v>
@@ -1535,35 +2110,187 @@
     <v>13.09</v>
     <v>BVMF</v>
     <v>1874071000</v>
-    <v>15.93</v>
+    <v>15.83</v>
     <v>1966</v>
-    <v>15.4</v>
-    <v>1.0539000000000001</v>
+    <v>15.22</v>
+    <v>1.0498000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>29385433280</v>
+    <v>29066840000</v>
     <v>A Cosan SA, anteriormente conhecida como Cosan SA Indústria e Comércio, é uma empresa sediada no Brasil que atua principalmente no setor de marketing de petróleo. As atividades da Companhia estão divididas em seis segmentos de negócios: Raizen Energia, que produz e distribui derivados de cana-de-açúcar, como açúcar bruto e etanol hidratado, e co-gera energia a partir do bagaço de cana; Raizen Combustiveis, que distribui combustível, principalmente através de uma rede de postos de gasolina sob a marca Shell; Comgas, que se concentra na distribuição de gás natural no estado de São Paulo, Brasil; Radar, responsável pela compra, venda, gerenciamento e arrendamento de terras agrícolas; Lubrificantes, que fabrica e vende lubrificantes sob a marca Mobil no mercado latino-americano, bem como a marca Comma no mercado europeu e asiático, e Outros, que inclui investimentos em outros negócios. A Companhia é uma subsidiária da Cosan Ltd.</v>
     <v>BVMF</v>
-    <v>15.63</v>
+    <v>15.58</v>
     <v>53498</v>
-    <v>45071.798518911717</v>
-    <v>39</v>
-    <v>9444450</v>
+    <v>45072.947916666664</v>
+    <v>60</v>
+    <v>8878540</v>
     <v>BRL</v>
     <v>COSAN S.A.</v>
     <v>COSAN S.A.</v>
-    <v>15.82</v>
-    <v>15.68</v>
+    <v>15.77</v>
+    <v>15.51</v>
     <v>Av. Brigadeiro Faria Lima, 4.100 / 15 andar, Itaim Bibi, SAO PAULO, SAO PAULO, 04.538-132 BR</v>
     <v>Oil &amp; Gas</v>
     <v>CSAN3</v>
     <v>Ações</v>
     <v>COSAN S.A. (BVMF:CSAN3)</v>
-    <v>0.05</v>
-    <v>3.199E-3</v>
-    <v>7166800</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-4.4929999999999996E-3</v>
+    <v>9016600</v>
   </rv>
   <rv s="2">
-    <v>40</v>
+    <v>61</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apmdz2&amp;q=BVMF%3aCVCB3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apmdz2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>CVC Brasil Operadora e Agência de Viagens S.A. (BVMF:CVCB3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>11.78</v>
+    <v>2.52</v>
+    <v>BVMF</v>
+    <v>277247300</v>
+    <v>3.03</v>
+    <v>2009</v>
+    <v>2.71</v>
+    <v>2.1589</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>826197000</v>
+    <v>A CVC Brasil Operadora e Agência de Viagens SA é uma empresa sediada no Brasil, envolvida no setor de turismo. A Companhia oferece pacotes turísticos nacionais e internacionais, cruzeiros, estadias em hotéis e resorts, passagens aéreas e passeios turísticos. Seus pacotes de viagem combinam passagens aéreas, transporte terrestre, acomodações, seguro de viagem, guias turísticos e outros serviços complementares de viagem. Além disso, organiza intercâmbios internacionais, acampamentos de idiomas e viagens para adolescentes. A Companhia vende produtos e serviços através de lojas próprias, plataformas de distribuição online e agentes independentes autorizados. Seus destinos incluem principalmente a Europa e as Américas. A Companhia possui várias subsidiárias no Brasil e na Argentina, como CVC Serviços Agencia de Viagens Ltda e CVC Turismo SAU, entre outras.</v>
+    <v>BVMF</v>
+    <v>2.68</v>
+    <v>2000</v>
+    <v>45072.947916666664</v>
+    <v>63</v>
+    <v>25421920</v>
+    <v>BRL</v>
+    <v>CVC Brasil Operadora e Agência de Viagens S.A.</v>
+    <v>CVC Brasil Operadora e Agência de Viagens S.A.</v>
+    <v>2.71</v>
+    <v>2.98</v>
+    <v>Rua da Catequese, 227, 11 andar, sala 111, Bairro Jardim, SANTO ANDRE, SAO PAULO, 09.090-401 BR</v>
+    <v>Hotels &amp; Entertainment Services</v>
+    <v>CVCB3</v>
+    <v>Ações</v>
+    <v>CVC Brasil Operadora e Agência de Viagens S.A. (BVMF:CVCB3)</v>
+    <v>0.3</v>
+    <v>0.11194000000000001</v>
+    <v>47301100</v>
+  </rv>
+  <rv s="2">
+    <v>64</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apmeec&amp;q=BVMF%3aCYRE3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>pt-BR</v>
+    <v>apmeec</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>13</v>
+    <v>14</v>
+    <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações (BVMF:CYRE3)</v>
+    <v>3</v>
+    <v>15</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>19.940000000000001</v>
+    <v>11.16</v>
+    <v>BVMF</v>
+    <v>399742800</v>
+    <v>19.059999999999999</v>
+    <v>1993</v>
+    <v>18.690000000000001</v>
+    <v>1.6551</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>7519162000</v>
+    <v>A Cyrela Brazil Realty S.A. Empreendimentos e Participações, anteriormente denominada Cyrela Brasil Realty SA Empreendimentos e Participações, é uma empresa brasileira envolvida no setor imobiliário. A Empresa está envolvida principalmente na construção, incorporação, corretagem e venda de imóveis residenciais. Além disso, ela fornece serviços de desmembramento de terrenos e serviços complementares para seus clientes. Em 31 de dezembro de 2011, a Empresa possuía diversas subsidiárias, incluindo a ABC Realty de Investimento Imobiliário Ltda., a Andorra Empreendimentos Imobiliários Ltda., a BR-Serviços e Investimentos Ltda.-Bahamas, a Barão de Miracema Empreendimentos Imobiliários Ltda., a Boa Vista Empreendimentos Imobiliários Spe Ltda., a Bretanha Empreendimentos Imobiliários Ltda. e a Cabo Frio Empreendimentos Imobiliários Ltda., entre outras.</v>
+    <v>BVMF</v>
+    <v>18.71</v>
+    <v>45072.947939814818</v>
+    <v>66</v>
+    <v>6159710</v>
+    <v>BRL</v>
+    <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações</v>
+    <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações</v>
+    <v>18.98</v>
+    <v>18.809999999999999</v>
+    <v>Rua do Rocio,109, 2 andar, Vila Olimpia, SAO PAULO, SAO PAULO, 04.552-000 BR</v>
+    <v>Real Estate Operations</v>
+    <v>CYRE3</v>
+    <v>Ações</v>
+    <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações (BVMF:CYRE3)</v>
+    <v>0.1</v>
+    <v>5.3449999999999999E-3</v>
+    <v>7508800</v>
+  </rv>
+  <rv s="2">
+    <v>67</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apmeyc&amp;q=BVMF%3aDIRR3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apmeyc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>DIRECIONAL ENGENHARIA S.A. (BVMF:DIRR3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>17.84</v>
+    <v>8.26</v>
+    <v>BVMF</v>
+    <v>150000000</v>
+    <v>17.84</v>
+    <v>1981</v>
+    <v>17.399999999999999</v>
+    <v>1.3416999999999999</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>2643000000</v>
+    <v>A DIRECIONAL ENGENHARIA S.A. é uma empresa do setor imobiliário residencial estabelecida no Brasil. A empresa se concentra no desenvolvimento e na construção de projetos habitacionais residenciais, com foco no segmento de baixa renda. Constrói principalmente casas multifamiliares, que formam um bairro residencial. A empresa desenvolve suas atividades por meio de parcerias especiais (SCPs) e entidades com finalidade especial (SPEs), que atuam exclusivamente no setor imobiliário. Opera nos seguintes estados do Brasil, dentre outros: Rio de Janeiro, São Paulo, Rio Grande do Sul, Minas Gerais, Pará e Amazonas. A empresa detém inúmeras subsidiárias, como a Direcional Taguatinga Engenharia Ltda., Ametista Empreendimentos Imobiliários Ltda. e Malaquita Empreendimentos Imobiliários Ltda.</v>
+    <v>BVMF</v>
+    <v>17.350000000000001</v>
+    <v>745</v>
+    <v>45072.947939814818</v>
+    <v>69</v>
+    <v>2074140</v>
+    <v>BRL</v>
+    <v>DIRECIONAL ENGENHARIA S.A.</v>
+    <v>DIRECIONAL ENGENHARIA S.A.</v>
+    <v>17.48</v>
+    <v>17.62</v>
+    <v>Rua dos Otoni, 177, Santa Efigenia, BELO HORIZONTE, MINAS GERAIS, 30.150-270 BR</v>
+    <v>Real Estate Operations</v>
+    <v>DIRR3</v>
+    <v>Ações</v>
+    <v>DIRECIONAL ENGENHARIA S.A. (BVMF:DIRR3)</v>
+    <v>0.27</v>
+    <v>1.5561999999999999E-2</v>
+    <v>2070200</v>
+  </rv>
+  <rv s="2">
+    <v>70</v>
   </rv>
   <rv s="0">
     <v>https://creativecommons.org/licenses/by-sa/3.0</v>
@@ -1573,14 +2300,14 @@
     <v>http://en.wikipedia.org/wiki/Eletrobras</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="4">
-    <v>42</v>
-    <v>43</v>
-  </rv>
-  <rv s="5">
-    <v>15</v>
+  <rv s="6">
+    <v>72</v>
+    <v>73</v>
+  </rv>
+  <rv s="7">
+    <v>21</v>
     <v>https://www.bing.com/th?id=AMMS_47d2a68313bf3c91f117037b98f07a39&amp;qlt=95</v>
-    <v>44</v>
+    <v>74</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=eletrobras</v>
     <v>Image of Centrais Elétricas Brasileiras S.A.</v>
@@ -1589,53 +2316,104 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=apmh9c&amp;q=BVMF%3aELET6&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="6">
+  <rv s="8">
     <v>pt-BR</v>
     <v>apmh9c</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
-    <v>10</v>
-    <v>11</v>
+    <v>16</v>
+    <v>17</v>
     <v>Centrais Elétricas Brasileiras S.A. (BVMF:ELET6)</v>
-    <v>13</v>
-    <v>14</v>
+    <v>19</v>
+    <v>20</v>
     <v>Finance</v>
     <v>5</v>
     <v>53.93</v>
     <v>31.35</v>
     <v>BVMF</v>
     <v>2301228000</v>
-    <v>40.68</v>
+    <v>40.29</v>
     <v>1962</v>
-    <v>39.54</v>
-    <v>1.1749000000000001</v>
+    <v>38.82</v>
+    <v>1.1729000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>81798440000</v>
+    <v>82767700000</v>
     <v>A Centrais Elétricas Brasileiras S.A. é uma empresa de energia elétrica. A Empresa atua nos segmentos de geração, transmissão, distribuição e comercialização. A Empresa opera por intermédio de várias empresas, incluindo a holding Eletrobrás, CGTEE, Chesf, Eletronorte, Eletronuclear, Eletrosul, Furnas, Amazonas Energia, Distribuição Acre, Distribuição Alagoas, Distribuição Piauí, Distribuição Rondônia, Distribuição Roraima e metade do capital da Itaipu Binacional. A Empresa tem uma capacidade total instalada para geração de mais de 44.150 megawatts. Possui uma rede nacional de linhas de transmissão de aproximadamente 60.500 quilômetros de extensão. A Usina Megawatt Solar da Eletrobrás Eletrosul tem mais de 4.000 painéis fotovoltaicos, totalizando uma área de aproximadamente 8.300 metros quadrados. A Usina Megawatt Solar da Eletrobrás Eletrosul tem uma capacidade instalada de aproximadamente 1 megawatt-pico (MWp), e a Usina Megawatt Solar pode produzir aproximadamente 1,2 gigawatt/hora (GWh).</v>
     <v>BVMF</v>
-    <v>38.89</v>
+    <v>39.76</v>
     <v>9529</v>
-    <v>45071.798495370371</v>
-    <v>45</v>
-    <v>46</v>
-    <v>2969970</v>
+    <v>45072.947916666664</v>
+    <v>75</v>
+    <v>76</v>
+    <v>2913610</v>
     <v>BRL</v>
     <v>Centrais Elétricas Brasileiras S.A.</v>
     <v>Centrais Elétricas Brasileiras S.A.</v>
-    <v>39.99</v>
-    <v>39.81</v>
+    <v>40.1</v>
+    <v>39.32</v>
     <v>Rua da Quitanda, 196 Lj A, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.091-005 BR</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>ELET6</v>
     <v>Ações</v>
     <v>Centrais Elétricas Brasileiras S.A. (BVMF:ELET6)</v>
-    <v>0.92</v>
-    <v>2.3656E-2</v>
-    <v>2514400</v>
+    <v>-0.44</v>
+    <v>-1.1065999999999999E-2</v>
+    <v>1652500</v>
   </rv>
   <rv s="2">
-    <v>47</v>
+    <v>77</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apmik2&amp;q=BVMF%3aEQTL3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apmik2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>EQUATORIAL ENERGIA S.A. (BVMF:EQTL3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>30.06</v>
+    <v>21.56</v>
+    <v>BVMF</v>
+    <v>1144722000</v>
+    <v>29.46</v>
+    <v>1999</v>
+    <v>28.72</v>
+    <v>0.93989999999999996</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>33082460000</v>
+    <v>A Equatorial Energia SA (Equatorial) é uma empresa sediada no Brasil que atua no setor de energia. A Companhia tem participação acionária em outras empresas, todas no ramo de energia elétrica, principalmente com operações relacionadas à geração ou distribuição de energia elétrica. As atividades da Companhia estão divididas em quatro segmentos: distribuição, responsável pela distribuição de energia nos estados do Maranhão e Pará; geração, gerando eletricidade por meio de usinas termoelétricas; serviços/vendas, oferecendo comercialização de energia elétrica, serviços de faturamento, bem como manutenção de instalações elétricas, entre outros; e gestão central, incluindo de operações corporativas e administrativas. A Companhia opera por meio de várias subsidiárias, como a Companhia Energética do Maranhão (CEMAR), a Centrais Elétricas do Pará S.A. (CELPA), Geradora de Energia do Norte S.A. (Getamar), a Companhia Energética do Piauí e a Equatorial Soluções S.A.</v>
+    <v>BVMF</v>
+    <v>28.97</v>
+    <v>1178</v>
+    <v>45072.947916666664</v>
+    <v>79</v>
+    <v>7879640</v>
+    <v>BRL</v>
+    <v>EQUATORIAL ENERGIA S.A.</v>
+    <v>EQUATORIAL ENERGIA S.A.</v>
+    <v>29.29</v>
+    <v>28.9</v>
+    <v>Alameda A, Quadra SQS, n 100, Loteamento Quitandinha,Anexo A, sala 31, Altos do Calhau, SAO LUIS, MARANHAO, 65.070-900 BR</v>
+    <v>Electrical Utilities &amp; IPPs</v>
+    <v>EQTL3</v>
+    <v>Ações</v>
+    <v>EQUATORIAL ENERGIA S.A. (BVMF:EQTL3)</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-2.4160000000000002E-3</v>
+    <v>7105200</v>
+  </rv>
+  <rv s="2">
+    <v>80</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c4uixm&amp;q=BVMF%3aFGAA11&amp;form=skydnc</v>
@@ -1657,25 +2435,25 @@
     <v>10.84</v>
     <v>9.44</v>
     <v>BVMF</v>
-    <v>9.77</v>
-    <v>9.5500000000000007</v>
+    <v>9.67</v>
+    <v>9.57</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.61</v>
-    <v>45071.798445751563</v>
-    <v>49</v>
+    <v>9.66</v>
+    <v>45072.947928240741</v>
+    <v>82</v>
     <v>BRL</v>
     <v>FGAGRO FII FIAGRO CF</v>
-    <v>9.6</v>
-    <v>9.61</v>
+    <v>9.66</v>
+    <v>9.64</v>
     <v>FGAA11</v>
     <v>Fundos mais negociados</v>
     <v>FGAGRO FII FIAGRO CF (BVMF:FGAA11)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>86933</v>
+    <v>-0.02</v>
+    <v>-2.0699999999999998E-3</v>
+    <v>186706</v>
   </rv>
   <rv s="2">
-    <v>50</v>
+    <v>83</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apmlc7&amp;q=BVMF%3aFLRY3&amp;form=skydnc</v>
@@ -1698,35 +2476,35 @@
     <v>13.45</v>
     <v>BVMF</v>
     <v>367197100</v>
-    <v>16.850000000000001</v>
+    <v>16.899999999999999</v>
     <v>1964</v>
-    <v>16.440000000000001</v>
-    <v>0.64629999999999999</v>
+    <v>16.39</v>
+    <v>0.65269999999999995</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>6128519599</v>
+    <v>6051408000</v>
     <v>A Fleury SA é uma empresa sediada no Brasil que presta serviços de laboratório médico. As atividades da Companhia estão divididas em três linhas de negócios: Centros de Atendimento ao Paciente (PSC), B2B e Diagnóstico Odontológico. A divisão PCS oferece diagnóstico médico privado. A divisão B2B é responsável pela análise clínica e diagnóstico por imagem em hospitais parceiros, além de testes para laboratórios, hospitais e clínicas em todo o Brasil. A divisão de Diagnóstico Odontológico fornece imagens de diagnóstico odontológico por meio da Papaiz Associados Diagnosticos por Imagem SA, uma joint venture com a Odontoprev SA. A Companhia opera através de várias marcas, como Fleury Medicina e Saúde, Clínica Felippe Mattoso e Weinmann, a + Medicina Diagnóstica, Diagnoson a +, Diagmax e Inlab, entre outras.</v>
     <v>BVMF</v>
-    <v>16.38</v>
+    <v>16.690000000000001</v>
     <v>16700</v>
-    <v>45071.798498448436</v>
-    <v>52</v>
-    <v>3523080</v>
+    <v>45072.947939814818</v>
+    <v>85</v>
+    <v>3817540</v>
     <v>BRL</v>
     <v>Fleury S.A.</v>
     <v>Fleury S.A.</v>
-    <v>16.72</v>
-    <v>16.690000000000001</v>
+    <v>16.87</v>
+    <v>16.48</v>
     <v>Av. General Valdomiro de Lima, 508, Jabaquara, SAO PAULO, SAO PAULO, 04.344-070 BR</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>FLRY3</v>
     <v>Ações</v>
     <v>Fleury S.A. (BVMF:FLRY3)</v>
-    <v>0.31</v>
-    <v>1.8926000000000002E-2</v>
-    <v>2913500</v>
+    <v>-0.21</v>
+    <v>-1.2581999999999999E-2</v>
+    <v>3140000</v>
   </rv>
   <rv s="2">
-    <v>53</v>
+    <v>86</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c4jjar&amp;q=BVMF%3aGAME11&amp;form=skydnc</v>
@@ -1751,22 +2529,22 @@
     <v>8.6199999999999992</v>
     <v>8.6</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>8.6</v>
-    <v>45071.797566446097</v>
-    <v>55</v>
+    <v>8.6199999999999992</v>
+    <v>45072.947962962964</v>
+    <v>88</v>
     <v>BRL</v>
     <v>FII GUARDIAN MULTIESTRATEGIA I CF</v>
     <v>8.6199999999999992</v>
-    <v>8.6</v>
+    <v>8.6199999999999992</v>
     <v>GAME11</v>
     <v>Fundos mais negociados</v>
     <v>FII GUARDIAN MULTIESTRATEGIA I CF (BVMF:GAME11)</v>
     <v>0</v>
     <v>0</v>
-    <v>12222</v>
+    <v>9908</v>
   </rv>
   <rv s="2">
-    <v>56</v>
+    <v>89</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c4xgyc&amp;q=BVMF%3aGCRA11&amp;form=skydnc</v>
@@ -1789,24 +2567,24 @@
     <v>89</v>
     <v>BVMF</v>
     <v>93.62</v>
-    <v>93.45</v>
+    <v>93.31</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>93.46</v>
-    <v>45071.79791666667</v>
-    <v>58</v>
+    <v>93.3</v>
+    <v>45072.831458333334</v>
+    <v>91</v>
     <v>BRL</v>
     <v>GALAPAGOS CAPITAL INV E PARTICIP CEF</v>
     <v>93.62</v>
-    <v>93.62</v>
+    <v>93.54</v>
     <v>GCRA11</v>
     <v>Fundos mais negociados</v>
     <v>GALAPAGOS CAPITAL INV E PARTICIP CEF (BVMF:GCRA11)</v>
-    <v>0.16</v>
-    <v>1.712E-3</v>
-    <v>1486</v>
+    <v>0.24</v>
+    <v>2.5719999999999996E-3</v>
+    <v>604</v>
   </rv>
   <rv s="2">
-    <v>59</v>
+    <v>92</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c1t9lh&amp;q=BVMF%3aGCRI11&amp;form=skydnc</v>
@@ -1828,25 +2606,177 @@
     <v>91.92</v>
     <v>83.15</v>
     <v>BVMF</v>
-    <v>90.14</v>
-    <v>88.54</v>
+    <v>91.79</v>
+    <v>89.23</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>88.69</v>
-    <v>45071.792361111111</v>
-    <v>61</v>
+    <v>89.14</v>
+    <v>45072.947962962964</v>
+    <v>94</v>
     <v>BRL</v>
     <v>GALAPAGOS RECEBIVEIS IMOB FII CF</v>
-    <v>89.69</v>
-    <v>89.4</v>
+    <v>89.38</v>
+    <v>89.48</v>
     <v>GCRI11</v>
     <v>Fundos mais negociados</v>
     <v>GALAPAGOS RECEBIVEIS IMOB FII CF (BVMF:GCRI11)</v>
-    <v>0.71</v>
-    <v>8.005E-3</v>
-    <v>2551</v>
+    <v>0.34</v>
+    <v>3.8140000000000001E-3</v>
+    <v>3549</v>
   </rv>
   <rv s="2">
-    <v>62</v>
+    <v>95</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apmnm7&amp;q=BVMF%3aGGBR4&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apmnm7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>GERDAU S.A. (BVMF:GGBR4)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>31.36</v>
+    <v>17.809999999999999</v>
+    <v>BVMF</v>
+    <v>1757067000</v>
+    <v>25.16</v>
+    <v>1961</v>
+    <v>24.73</v>
+    <v>1.0730999999999999</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>41808600000</v>
+    <v>A Gerdau S.A. (Gerdau) é uma fabricante de aços longos nas Américas do Norte e do Sul. A Companhia atua na produção e comercialização de produtos siderúrgicos em geral, através de suas usinas localizadas na Argentina, Brasil, Canadá, Chile, Colômbia, Espanha, Estados Unidos, Guatemala, Índia, México, Peru, República Dominicana, Uruguai e Venezuela. Seus segmentos são Operações Brasil, que incluem operações de ferro e aço no Brasil, com exceção de Aços Especiais, e a operação de carvão metalúrgico e coque na Colômbia; Operações na América do Norte, que incluem todas as operações na América do Norte, exceto as do México e Aços Especiais; Operações na América do Sul, que incluem todas as operações na América do Sul, exceto Brasil e a operação de carvão metalúrgico e coque na Colômbia; e Operações Aços Especiais, incluindo operações de aços especiais no Brasil, Espanha, Estados Unidos e Índia. Fornece aos seus clientes uma gama de produtos, incluindo produtos semi-acabados de minério de ferro.</v>
+    <v>BVMF</v>
+    <v>24.21</v>
+    <v>40061</v>
+    <v>45072.947916666664</v>
+    <v>97</v>
+    <v>12268240</v>
+    <v>BRL</v>
+    <v>GERDAU S.A.</v>
+    <v>GERDAU S.A.</v>
+    <v>24.82</v>
+    <v>24.96</v>
+    <v>Avenida Doutora Ruth Cardoso, 8.501, 8 andar, Pinheiros, SAO PAULO, SAO PAULO, 05.425-070 BR</v>
+    <v>Metals &amp; Mining</v>
+    <v>GGBR4</v>
+    <v>Ações</v>
+    <v>GERDAU S.A. (BVMF:GGBR4)</v>
+    <v>0.75</v>
+    <v>3.0979E-2</v>
+    <v>11967200</v>
+  </rv>
+  <rv s="2">
+    <v>98</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apmo1h&amp;q=BVMF%3aGOAU4&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apmo1h</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>METALURGICA GERDAU S.A. (BVMF:GOAU4)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>14.29</v>
+    <v>8.18</v>
+    <v>BVMF</v>
+    <v>1033841000</v>
+    <v>11.75</v>
+    <v>1901</v>
+    <v>11.49</v>
+    <v>1.1244000000000001</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>11835520000</v>
+    <v>A Metalúrgica Gerdau S.A., anteriormente Metalúrgica Hugo Gerdau S.A., é uma empresa brasileira que se dedica ao setor de produção de aço. A Empresa se concentra na fabricação de itens de aço longo e plano, essencialmente através do processo de fabricação em fornos elétricos, a partir de sucata de metal e ferro-gusa comprado, bem como na produção de aço a partir de minério de ferro em alto-forno e por redução direta. Suas atividades se dividem em quatro segmentos: Operações no Brasil, Operações na América do Norte, Operações na América Latina e Unidade de aço especial. Seus produtos são distribuídos em diversos setores, como da construção civil, agricultura e indústria automotiva, e a Empresa opera fábricas no Brasil, Argentina, Chile, Colômbia, México, Peru, Venezuela, Estados Unidos, Canadá, Espanha e Índia, entre outros.</v>
+    <v>BVMF</v>
+    <v>11.31</v>
+    <v>45000</v>
+    <v>45072.947916666664</v>
+    <v>100</v>
+    <v>7302540</v>
+    <v>BRL</v>
+    <v>METALURGICA GERDAU S.A.</v>
+    <v>METALURGICA GERDAU S.A.</v>
+    <v>11.53</v>
+    <v>11.66</v>
+    <v>Avenida Doutora Ruth Cardoso, 8.501,8 andar, Pinheiros, SAO PAULO, SAO PAULO, 05.425-070 BR</v>
+    <v>Metals &amp; Mining</v>
+    <v>GOAU4</v>
+    <v>Ações</v>
+    <v>METALURGICA GERDAU S.A. (BVMF:GOAU4)</v>
+    <v>0.35</v>
+    <v>3.0945999999999998E-2</v>
+    <v>9076100</v>
+  </rv>
+  <rv s="2">
+    <v>101</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=azs2pr&amp;q=BVMF%3aHAPV3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>pt-BR</v>
+    <v>azs2pr</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>13</v>
+    <v>14</v>
+    <v>Hapvida Participações e Investimentos S/A (BVMF:HAPV3)</v>
+    <v>3</v>
+    <v>15</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>8.65</v>
+    <v>1.93</v>
+    <v>BVMF</v>
+    <v>7473595000</v>
+    <v>4.03</v>
+    <v>2001</v>
+    <v>3.81</v>
+    <v>1.1480999999999999</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>29147020000</v>
+    <v>Hapvida Participacoes e Investimentos SA (Hapvida) é uma holding brasileira de saúde. A Companhia e suas controladas têm como atividades principais a cobertura de custos de assistência médica, hospitalar e odontológica de seus associados, a prestação de serviços médicos, hospitalares e odontológicos e exames e diagnósticos por imagem. A Hapvida tem diferentes instalações de saúde, como hospitais, clínicas ou unidades de diagnóstico por imagem. A Companhia opera no Nordeste do Brasil, em mais de 10 estados, como Alagoas, Amazonas, Bahia, Pernambuco, Rio Grande do Norte, Sergipe, entre outros.</v>
+    <v>BVMF</v>
+    <v>3.94</v>
+    <v>45072.947916666664</v>
+    <v>103</v>
+    <v>143911450</v>
+    <v>BRL</v>
+    <v>Hapvida Participações e Investimentos S/A</v>
+    <v>Hapvida Participações e Investimentos S/A</v>
+    <v>3.99</v>
+    <v>3.9</v>
+    <v>Avenida Heraclito Graca n 406, Centro, FORTALEZA, CEARA, 60.140-060 BR</v>
+    <v>Healthcare Providers &amp; Services</v>
+    <v>HAPV3</v>
+    <v>Ações</v>
+    <v>Hapvida Participações e Investimentos S/A (BVMF:HAPV3)</v>
+    <v>-0.04</v>
+    <v>-1.0152000000000001E-2</v>
+    <v>85640100</v>
+  </rv>
+  <rv s="2">
+    <v>104</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apmqh7&amp;q=BVMF%3aHGLG11&amp;form=skydnc</v>
@@ -1868,25 +2798,25 @@
     <v>164.49</v>
     <v>142.03</v>
     <v>BVMF</v>
-    <v>159.66</v>
-    <v>158.83000000000001</v>
+    <v>159.99</v>
+    <v>158.99</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>158.81</v>
-    <v>45071.798490428126</v>
-    <v>64</v>
+    <v>159.71</v>
+    <v>45072.947962962964</v>
+    <v>106</v>
     <v>BRL</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF</v>
-    <v>158.85</v>
-    <v>159.66</v>
+    <v>159.80000000000001</v>
+    <v>159.5</v>
     <v>HGLG11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF (BVMF:HGLG11)</v>
-    <v>0.85</v>
-    <v>5.352E-3</v>
-    <v>54271</v>
+    <v>-0.21</v>
+    <v>-1.315E-3</v>
+    <v>49959</v>
   </rv>
   <rv s="2">
-    <v>65</v>
+    <v>107</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bgmff2&amp;q=BVMF%3aHGRU11&amp;form=skydnc</v>
@@ -1906,27 +2836,27 @@
     <v>Finance</v>
     <v>5</v>
     <v>125</v>
-    <v>105</v>
+    <v>105.19</v>
     <v>BVMF</v>
     <v>125</v>
-    <v>122.11</v>
+    <v>123.57</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>122.28</v>
-    <v>45071.798492742972</v>
-    <v>67</v>
+    <v>124.55</v>
+    <v>45072.947962962964</v>
+    <v>109</v>
     <v>BRL</v>
     <v>CSHG RENDA URBANA FII CF</v>
-    <v>123.2</v>
-    <v>125</v>
+    <v>124.79</v>
+    <v>124.83</v>
     <v>HGRU11</v>
     <v>Fundos mais negociados</v>
     <v>CSHG RENDA URBANA FII CF (BVMF:HGRU11)</v>
-    <v>2.72</v>
-    <v>2.2244E-2</v>
-    <v>34428</v>
+    <v>0.28000000000000003</v>
+    <v>2.248E-3</v>
+    <v>26259</v>
   </rv>
   <rv s="2">
-    <v>68</v>
+    <v>110</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bx6xoc&amp;q=BVMF%3aHSLG11&amp;form=skydnc</v>
@@ -1948,25 +2878,25 @@
     <v>93.28</v>
     <v>72.510000000000005</v>
     <v>BVMF</v>
-    <v>87.93</v>
-    <v>86.91</v>
+    <v>88.49</v>
+    <v>87.48</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>86.5</v>
-    <v>45071.798445497654</v>
-    <v>70</v>
+    <v>87.5</v>
+    <v>45072.947962962964</v>
+    <v>112</v>
     <v>BRL</v>
     <v>HSI LOGISTICA FDO INV IMOB CF</v>
-    <v>87.37</v>
-    <v>87.5</v>
+    <v>88.47</v>
+    <v>87.59</v>
     <v>HSLG11</v>
     <v>Fundos mais negociados</v>
     <v>HSI LOGISTICA FDO INV IMOB CF (BVMF:HSLG11)</v>
-    <v>1</v>
-    <v>1.1560999999999998E-2</v>
-    <v>4148</v>
+    <v>0.09</v>
+    <v>1.029E-3</v>
+    <v>8644</v>
   </rv>
   <rv s="2">
-    <v>71</v>
+    <v>113</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bra7u2&amp;q=BVMF%3aHSML11&amp;form=skydnc</v>
@@ -1988,25 +2918,25 @@
     <v>89.35</v>
     <v>69.66</v>
     <v>BVMF</v>
-    <v>86.84</v>
-    <v>85.72</v>
+    <v>88</v>
+    <v>86.04</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>85.98</v>
-    <v>45071.798384270311</v>
-    <v>73</v>
+    <v>86.5</v>
+    <v>45072.947962962964</v>
+    <v>115</v>
     <v>BRL</v>
     <v>HSI MALLS FI IMOBILIARIO ETF</v>
-    <v>85.98</v>
-    <v>86.75</v>
+    <v>86.5</v>
+    <v>87.78</v>
     <v>HSML11</v>
     <v>Fundos mais negociados</v>
     <v>HSI MALLS FI IMOBILIARIO ETF (BVMF:HSML11)</v>
-    <v>0.77</v>
-    <v>8.9559999999999987E-3</v>
-    <v>22818</v>
+    <v>1.28</v>
+    <v>1.4798E-2</v>
+    <v>37311</v>
   </rv>
   <rv s="2">
-    <v>74</v>
+    <v>116</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c356ar&amp;q=BVMF%3aIBCR11&amp;form=skydnc</v>
@@ -2028,25 +2958,25 @@
     <v>86.06</v>
     <v>66.64</v>
     <v>BVMF</v>
-    <v>76.599999999999994</v>
-    <v>75.64</v>
+    <v>77.599999999999994</v>
+    <v>75.88</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>75.569999999999993</v>
-    <v>45071.797997685186</v>
-    <v>76</v>
+    <v>76.59</v>
+    <v>45072.947962962964</v>
+    <v>118</v>
     <v>BRL</v>
     <v>FDO DE INV IMOBILIARIO DE CRI INTEGRAL BREI CF</v>
-    <v>76.599999999999994</v>
-    <v>75.73</v>
+    <v>76.59</v>
+    <v>76.98</v>
     <v>IBCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO DE INV IMOBILIARIO DE CRI INTEGRAL BREI CF (BVMF:IBCR11)</v>
-    <v>0.16</v>
-    <v>2.117E-3</v>
-    <v>242</v>
+    <v>0.39</v>
+    <v>5.0920000000000002E-3</v>
+    <v>5686</v>
   </rv>
   <rv s="2">
-    <v>77</v>
+    <v>119</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bv4hlh&amp;q=BVMF%3aIFRA11&amp;form=skydnc</v>
@@ -2068,25 +2998,25 @@
     <v>110.96</v>
     <v>93.63</v>
     <v>BVMF</v>
-    <v>102.83</v>
-    <v>100</v>
+    <v>102.7</v>
+    <v>102.01</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>100.18</v>
-    <v>45071.798444050779</v>
-    <v>79</v>
+    <v>102.3</v>
+    <v>45072.947928240741</v>
+    <v>121</v>
     <v>BRL</v>
     <v>ITAU FDO INV EM COTAS DE FIDC DE INFRAESTRUTURA</v>
-    <v>100.4</v>
-    <v>102.43</v>
+    <v>102.09</v>
+    <v>102.42</v>
     <v>IFRA11</v>
     <v>Fundos mais negociados</v>
     <v>ITAU FDO INV EM COTAS DE FIDC DE INFRAESTRUTURA (BVMF:IFRA11)</v>
-    <v>2.25</v>
-    <v>2.2460000000000001E-2</v>
-    <v>19775</v>
+    <v>0.12</v>
+    <v>1.173E-3</v>
+    <v>7466</v>
   </rv>
   <rv s="2">
-    <v>80</v>
+    <v>122</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apms77&amp;q=BVMF%3aITSA4&amp;form=skydnc</v>
@@ -2109,35 +3039,35 @@
     <v>6.87</v>
     <v>BVMF</v>
     <v>9701410000</v>
-    <v>9.09</v>
+    <v>9.16</v>
     <v>1966</v>
-    <v>8.94</v>
-    <v>1.0113000000000001</v>
+    <v>8.92</v>
+    <v>1.008</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>86575920000</v>
+    <v>87385380000</v>
     <v>Itausa Investimentos Itau SA é uma empresa sediada no Brasil e tem como atividade principal o setor bancário. As atividades da Companhia estão divididas em dois segmentos de negócios: Financeiro e Industrial. A divisão Financeiral concentra-se na gestão do Itau Unibanco Holding SA, uma instituição bancária que oferece produtos e serviços financeiros, como empréstimos, cartões de crédito, contas correntes, apólices de seguros, ferramentas de investimento, corretagem de valores mobiliários, consultoria de tesouraria e investimentos para clientes individuais e empresas. A divisão Industrial é responsável pela operação da Itautec SA, que fabrica equipamentos de automação comercial e bancária, além de prestar serviços de tecnologia da informação (TI); Duratex SA, que produz painéis de madeira, louças sanitárias e metais sanitários, e Alpargatas, que produz calçados sob as marcas Juntas, Havaianas e Dupe, entre outros.</v>
     <v>BVMF</v>
-    <v>8.9</v>
+    <v>9.0299999999999994</v>
     <v>127000</v>
-    <v>45071.798508853906</v>
-    <v>82</v>
-    <v>20975910</v>
+    <v>45072.947916666664</v>
+    <v>124</v>
+    <v>21125330</v>
     <v>BRL</v>
     <v>ITAUSA S.A.</v>
     <v>ITAUSA S.A.</v>
-    <v>9</v>
-    <v>9.0399999999999991</v>
+    <v>9.1</v>
+    <v>8.98</v>
     <v>Avenida Paulista, 1938, 5Th Floor, Bela Vista, SAO PAULO, SAO PAULO, 01.310-200 BR</v>
     <v>Banking Services</v>
     <v>ITSA4</v>
     <v>Ações</v>
     <v>ITAUSA S.A. (BVMF:ITSA4)</v>
-    <v>0.14000000000000001</v>
-    <v>1.5730000000000001E-2</v>
-    <v>15106100</v>
+    <v>-0.05</v>
+    <v>-5.5369999999999994E-3</v>
+    <v>14770000</v>
   </rv>
   <rv s="2">
-    <v>83</v>
+    <v>125</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c4bnm7&amp;q=BVMF%3aJGPX11&amp;form=skydnc</v>
@@ -2159,25 +3089,25 @@
     <v>99.99</v>
     <v>93.03</v>
     <v>BVMF</v>
-    <v>97.3</v>
-    <v>96.24</v>
+    <v>97.5</v>
+    <v>96.55</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>96.92</v>
-    <v>45071.797800925924</v>
-    <v>85</v>
+    <v>97.25</v>
+    <v>45072.947928240741</v>
+    <v>127</v>
     <v>BRL</v>
     <v>FI DAS CADEIAS PROD AGRO JGP CRED CEF</v>
-    <v>96.98</v>
-    <v>97.25</v>
+    <v>96.55</v>
+    <v>97.1</v>
     <v>JGPX11</v>
     <v>Fundos mais negociados</v>
     <v>FI DAS CADEIAS PROD AGRO JGP CRED CEF (BVMF:JGPX11)</v>
-    <v>0.33</v>
-    <v>3.405E-3</v>
-    <v>8621</v>
+    <v>-0.15</v>
+    <v>-1.542E-3</v>
+    <v>460</v>
   </rv>
   <rv s="2">
-    <v>86</v>
+    <v>128</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c4nxtc&amp;q=BVMF%3aJURO11&amp;form=skydnc</v>
@@ -2199,25 +3129,25 @@
     <v>110</v>
     <v>90.46</v>
     <v>BVMF</v>
-    <v>101.82</v>
-    <v>101</v>
+    <v>102.1</v>
+    <v>101.2</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>101.42</v>
-    <v>45071.798478772653</v>
-    <v>88</v>
+    <v>101.54</v>
+    <v>45072.947928240741</v>
+    <v>130</v>
     <v>BRL</v>
     <v>SPARTA INFRA FIC FI INFRA RF CP</v>
-    <v>101.5</v>
-    <v>101.51</v>
+    <v>101.3</v>
+    <v>101.99</v>
     <v>JURO11</v>
     <v>Fundos mais negociados</v>
     <v>SPARTA INFRA FIC FI INFRA RF CP (BVMF:JURO11)</v>
-    <v>0.09</v>
-    <v>8.8739999999999999E-4</v>
-    <v>12636</v>
+    <v>0.45</v>
+    <v>4.4320000000000002E-3</v>
+    <v>11505</v>
   </rv>
   <rv s="2">
-    <v>89</v>
+    <v>131</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bv5u1h&amp;q=BVMF%3aKDIF11&amp;form=skydnc</v>
@@ -2239,25 +3169,25 @@
     <v>138.99</v>
     <v>123.12</v>
     <v>BVMF</v>
-    <v>131.72</v>
-    <v>129.5</v>
+    <v>131.65</v>
+    <v>129.55000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>129.5</v>
-    <v>45071.798460648148</v>
-    <v>91</v>
+    <v>130</v>
+    <v>45072.947928240741</v>
+    <v>133</v>
     <v>BRL</v>
     <v>KINEA INFRA FDO INV EM COTAS DE FIDC IE</v>
-    <v>129.96</v>
-    <v>131.30000000000001</v>
+    <v>131.49</v>
+    <v>130.04</v>
     <v>KDIF11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA INFRA FDO INV EM COTAS DE FIDC IE (BVMF:KDIF11)</v>
-    <v>1.8</v>
-    <v>1.3899999999999999E-2</v>
-    <v>25709</v>
+    <v>0.04</v>
+    <v>3.077E-4</v>
+    <v>18183</v>
   </rv>
   <rv s="2">
-    <v>92</v>
+    <v>134</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apmtnm&amp;q=BVMF%3aKEPL3&amp;form=skydnc</v>
@@ -2280,35 +3210,35 @@
     <v>6</v>
     <v>BVMF</v>
     <v>179720100</v>
-    <v>8.2799999999999994</v>
+    <v>8.75</v>
     <v>1936</v>
-    <v>7.92</v>
-    <v>0.9173</v>
+    <v>8.18</v>
+    <v>0.93630000000000002</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1446746805</v>
+    <v>1565362000</v>
     <v>A Kepler Weber S.A., anteriormente Kepler Weber S.A. Indústria Comércio Importação e Exportação, é uma empresa brasileira que se dedica essencialmente à produção de sistemas de armazenamento de grãos. Através de suas subsidiárias, a Empresa atua no desenvolvimento, fabricação e distribuição de equipamentos para armazenamento e conservação de grãos. O portfólio da Empresa inclui silos metálicos, com fundo em forma de funil ou plano, secadores, máquinas de limpeza e pré-limpeza de grãos e transportadores de grãos, entre outros. A Empresa também desenvolve e produz sistemas e equipamentos para terminais portuários e estocagem de malte. Além disso, a Kepler Weber fornece peças de reposição e serviços de reparação e manutenção para seus produtos. Em 31 de dezembro de 2011, as subsidiárias da Empresa eram a Kepler Weber Industrial S.A. e a Kepler Weber Peças e Serviços Ltda.</v>
     <v>BVMF</v>
-    <v>7.9</v>
+    <v>8.08</v>
     <v>1925</v>
-    <v>45071.798358286716</v>
-    <v>94</v>
-    <v>1971400</v>
+    <v>45072.947962962964</v>
+    <v>136</v>
+    <v>2042800</v>
     <v>BRL</v>
     <v>Kepler Weber S.A.</v>
     <v>Kepler Weber S.A.</v>
-    <v>8</v>
-    <v>8.0500000000000007</v>
+    <v>8.18</v>
+    <v>8.7100000000000009</v>
     <v>Rua do Rocio n 84, 3 andar, Vila Olimpia, SAO PAULO, SAO PAULO, 04.552-000 BR</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>KEPL3</v>
     <v>Ações</v>
     <v>Kepler Weber S.A. (BVMF:KEPL3)</v>
-    <v>0.15</v>
-    <v>1.8987E-2</v>
-    <v>1571500</v>
+    <v>0.63</v>
+    <v>7.7969999999999998E-2</v>
+    <v>2689300</v>
   </rv>
   <rv s="2">
-    <v>95</v>
+    <v>137</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c4w2z2&amp;q=BVMF%3aKNCA11&amp;form=skydnc</v>
@@ -2330,25 +3260,25 @@
     <v>113.68</v>
     <v>102.5</v>
     <v>BVMF</v>
-    <v>106.82</v>
-    <v>105.64</v>
+    <v>106.43</v>
+    <v>105.74</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>106.66</v>
-    <v>45071.798451446091</v>
-    <v>97</v>
+    <v>105.74</v>
+    <v>45072.947928240741</v>
+    <v>139</v>
     <v>BRL</v>
     <v>KINEA CREDITO AGRO FIAGRO IMOB CEF</v>
-    <v>106.7</v>
-    <v>105.75</v>
+    <v>105.74</v>
+    <v>105.97</v>
     <v>KNCA11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA CREDITO AGRO FIAGRO IMOB CEF (BVMF:KNCA11)</v>
-    <v>-0.91</v>
-    <v>-8.5319999999999997E-3</v>
-    <v>12638</v>
+    <v>0.23</v>
+    <v>2.1749999999999999E-3</v>
+    <v>15273</v>
   </rv>
   <rv s="2">
-    <v>98</v>
+    <v>140</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bwrbzr&amp;q=BVMF%3aKNSC11&amp;form=skydnc</v>
@@ -2367,78 +3297,78 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>88.95</v>
+    <v>90</v>
     <v>78.040000000000006</v>
     <v>BVMF</v>
-    <v>88.5</v>
-    <v>87.99</v>
+    <v>90</v>
+    <v>88.15</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>88.2</v>
-    <v>45071.798425925925</v>
-    <v>100</v>
+    <v>88.48</v>
+    <v>45072.947962962964</v>
+    <v>142</v>
     <v>BRL</v>
     <v>KINEA SECURITIES FDO DE INV IMOB CF</v>
-    <v>88.2</v>
-    <v>88.45</v>
+    <v>88.5</v>
+    <v>89.44</v>
     <v>KNSC11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA SECURITIES FDO DE INV IMOB CF (BVMF:KNSC11)</v>
-    <v>0.25</v>
-    <v>2.8339999999999997E-3</v>
-    <v>18984</v>
+    <v>0.96</v>
+    <v>1.085E-2</v>
+    <v>36826</v>
   </rv>
   <rv s="2">
-    <v>101</v>
+    <v>143</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c2vjhw&amp;q=BVMF%3aLVTC3&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="7">
+  <rv s="5">
     <v>pt-BR</v>
     <v>c2vjhw</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
-    <v>16</v>
-    <v>17</v>
+    <v>13</v>
+    <v>14</v>
     <v>Livetech da Bahia Indústria e Comércio S.A. (BVMF:LVTC3)</v>
     <v>3</v>
-    <v>18</v>
+    <v>15</v>
     <v>Finance</v>
     <v>5</v>
     <v>9.26</v>
     <v>4.66</v>
     <v>BVMF</v>
     <v>64663060</v>
-    <v>5.42</v>
+    <v>5.5</v>
     <v>2003</v>
-    <v>5.18</v>
+    <v>5.37</v>
     <v>1.4610000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>345947371</v>
+    <v>355000200</v>
     <v>A Livetech da Bahia Industria e Comercio SA (WDC Networks) é uma empresa de fornecimento de equipamentos e de soluções de Telecom, Tecnologia da Informação (TI), e Energia Solar sediada no Brasil que atende uma variada gama de clientes nacionalmente e na Colômbia, Estados Unidos e Panamá. A Companhia desenvolveu um modelo de negócio de locação de equipamentos, transformando Capex em Opex, denominado como TaaS (Technology as a Service). A Companhia fornece serviços e produtos, incluindo infraestrutura de banda larga, câmeras de vigilância, sistemas de controle de acesso, Cibersegurança, data center, automação, e geradores de energia solar.</v>
     <v>BVMF</v>
-    <v>5.18</v>
-    <v>45071.798495370371</v>
-    <v>103</v>
-    <v>101070</v>
+    <v>5.42</v>
+    <v>45072.947962962964</v>
+    <v>145</v>
+    <v>100560</v>
     <v>BRL</v>
     <v>Livetech da Bahia Indústria e Comércio S.A.</v>
     <v>Livetech da Bahia Indústria e Comércio S.A.</v>
-    <v>5.32</v>
-    <v>5.35</v>
+    <v>5.43</v>
+    <v>5.49</v>
     <v>Rodovia BA-262, Ilheus x Urucuca, s/n, Km 2,8 Quadra A, Polo de Informatica, Iguape, ILHEUS, BAHIA, 45.658-335 BR</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>LVTC3</v>
     <v>Ações</v>
     <v>Livetech da Bahia Indústria e Comércio S.A. (BVMF:LVTC3)</v>
-    <v>0.17</v>
-    <v>3.2819000000000001E-2</v>
-    <v>91500</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.2915000000000001E-2</v>
+    <v>74100</v>
   </rv>
   <rv s="2">
-    <v>104</v>
+    <v>146</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=buh7oc&amp;q=BVMF%3aMORE11&amp;form=skydnc</v>
@@ -2460,25 +3390,76 @@
     <v>71.540000000000006</v>
     <v>57.7</v>
     <v>BVMF</v>
-    <v>66.239999999999995</v>
-    <v>64.540000000000006</v>
+    <v>66.709999999999994</v>
+    <v>65.84</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>65.099999999999994</v>
-    <v>45071.797453437503</v>
-    <v>106</v>
+    <v>66.14</v>
+    <v>45072.947962962964</v>
+    <v>148</v>
     <v>BRL</v>
     <v>MORE REAL ESTATE FOF FII</v>
-    <v>65.09</v>
-    <v>66.14</v>
+    <v>66</v>
+    <v>66.53</v>
     <v>MORE11</v>
     <v>Fundos mais negociados</v>
     <v>MORE REAL ESTATE FOF FII (BVMF:MORE11)</v>
-    <v>1.04</v>
-    <v>1.5975E-2</v>
-    <v>3107</v>
+    <v>0.39</v>
+    <v>5.8970000000000003E-3</v>
+    <v>3806</v>
   </rv>
   <rv s="2">
-    <v>107</v>
+    <v>149</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=btotsm&amp;q=BVMF%3aMTRE3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>btotsm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A. (BVMF:MTRE3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>5.88</v>
+    <v>3.05</v>
+    <v>BVMF</v>
+    <v>105774800</v>
+    <v>5.34</v>
+    <v>2005</v>
+    <v>5.08</v>
+    <v>1.4370000000000001</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>562722000</v>
+    <v>A Mitre Realty Empreendimentos e Participações SA (Mitre Realty) é uma construtora com sede no Brasil. A Sociedade tem por objeto a incorporação, construção e comercialização de unidades imobiliárias residenciais na Cidade de São Paulo. Seus produtos são divididos em duas linhas: Raizes, voltada para clientes de classe média e Haus Mitre, voltada para clientes de classe média alta. O portfólio da empresa é composto por mais de 20 edifícios que oferecem apartamentos com serviços exclusivos, pontos de acesso e áreas comuns. A Mitre Realty possui várias subsidiárias, como Amaro Bezerra Empreendimentos e Participações Ltda, Mitre Le Champs Empreendimentos e Participações Ltda, Mitre Vendas Corretagem de Imóveis Ltda e MJF Construções Ltda, entre outras.</v>
+    <v>BVMF</v>
+    <v>5.15</v>
+    <v>159</v>
+    <v>45072.947962962964</v>
+    <v>151</v>
+    <v>1503930</v>
+    <v>BRL</v>
+    <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A.</v>
+    <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A.</v>
+    <v>5.15</v>
+    <v>5.32</v>
+    <v>Alameda Santos, 700, 5 Andar, Jardim Paulista, SAO PAULO, SAO PAULO, 01.418-002 BR</v>
+    <v>Homebuilding &amp; Construction Supplies</v>
+    <v>MTRE3</v>
+    <v>Ações</v>
+    <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A. (BVMF:MTRE3)</v>
+    <v>0.17</v>
+    <v>3.3010000000000005E-2</v>
+    <v>550100</v>
+  </rv>
+  <rv s="2">
+    <v>152</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bgmpxm&amp;q=BVMF%3aNCHB11&amp;form=skydnc</v>
@@ -2500,25 +3481,25 @@
     <v>87.2</v>
     <v>74.3</v>
     <v>BVMF</v>
-    <v>86.5</v>
-    <v>85.5</v>
+    <v>86.45</v>
+    <v>86.04</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>85.69</v>
-    <v>45071.797418981485</v>
-    <v>109</v>
+    <v>85.93</v>
+    <v>45072.947962962964</v>
+    <v>154</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII NCH BRASIL RECEBIVEIS IMOB CF</v>
-    <v>85.66</v>
-    <v>85.93</v>
+    <v>86.37</v>
+    <v>86.38</v>
     <v>NCHB11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII NCH BRASIL RECEBIVEIS IMOB CF (BVMF:NCHB11)</v>
-    <v>0.24</v>
-    <v>2.8010000000000001E-3</v>
-    <v>3864</v>
+    <v>0.45</v>
+    <v>5.2370000000000003E-3</v>
+    <v>2424</v>
   </rv>
   <rv s="2">
-    <v>110</v>
+    <v>155</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apn2kr&amp;q=BVMF%3aOIBR3&amp;form=skydnc</v>
@@ -2541,19 +3522,19 @@
     <v>0.99</v>
     <v>BVMF</v>
     <v>660303800</v>
-    <v>1.05</v>
+    <v>1.04</v>
     <v>1963</v>
     <v>1.02</v>
-    <v>1.4462999999999999</v>
+    <v>1.4356</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>702194600</v>
+    <v>701563800</v>
     <v>Oi SA em Recuperacao Judicial, anteriormente Oi S.A., constituída em 27 de novembro de 1963, é uma prestadora de serviços integrados de telecomunicações no Brasil. A Companhia é uma concessionária de serviços de telefonia fixa comutada (STFC). Atua no fornecimento de STFC como operadora de longa distância local e intra-regional. Seus segmentos incluem Serviços Residenciais, Mobilidade Pessoal e PMEs / Empresas. Oferece uma gama de serviços integrados de telecomunicações que incluem serviços de telefonia fixa e móvel, banda larga, televisão paga (TV), transmissão de dados e provedores de Internet. O segmento de Serviços Residenciais da Companhia é focado na venda de serviços de telefonia fixa, incluindo serviços de voz, serviços de comunicação de dados (banda larga) e televisão paga (TV). O segmento de Mobilidade Pessoal está focado na venda de serviços de telefonia móvel para assinantes e clientes pré-pagos e clientes de banda larga móvel. O segmento de PMEs / Empresas inclui soluções corporativas oferecidas a seus pequenas, médias e grandes empresas.</v>
     <v>BVMF</v>
-    <v>1.03</v>
-    <v>11288</v>
-    <v>45071.798423575783</v>
-    <v>112</v>
-    <v>65160</v>
+    <v>1.02</v>
+    <v>6558</v>
+    <v>45072.947928240741</v>
+    <v>157</v>
+    <v>68260</v>
     <v>BRL</v>
     <v>Oi S.A. – Em Recuperação Judicial</v>
     <v>Oi S.A. – Em Recuperação Judicial</v>
@@ -2564,12 +3545,63 @@
     <v>OIBR3</v>
     <v>Ações</v>
     <v>Oi S.A. – Em Recuperação Judicial (BVMF:OIBR3)</v>
+    <v>0.01</v>
+    <v>9.8040000000000002E-3</v>
+    <v>6186400</v>
+  </rv>
+  <rv s="2">
+    <v>158</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apn4gh&amp;q=BVMF%3aPETR4&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apn4gh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
     <v>0</v>
-    <v>0</v>
-    <v>5536000</v>
+    <v>1</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>30.06</v>
+    <v>16.52</v>
+    <v>BVMF</v>
+    <v>13044500000</v>
+    <v>26.91</v>
+    <v>1953</v>
+    <v>26.53</v>
+    <v>1.4388000000000001</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>373706100000</v>
+    <v>A PETRÓLEO BRASILEIRO S.A. - PETROBRAS é uma empresa especializada na indústria de petróleo, gás natural e energia. A Empresa está envolvida na prospecção, perfuração, refinação, transformação, comercialização e transporte de petróleo bruto proveniente da produção de campos petrolíferos onshore e offshore e de xisto ou outras rochas. Seus segmentos incluem Exploração e Produção, que abrange as atividades de exploração, desenvolvimento e produção de petróleo bruto, gás natural líquido e gás natural; Refinação, Transporte e Marketing, que abrange as atividades de refinação, logística, transporte e comercialização de petróleo, exportação de etanol e extração e processamento de xistos; Gás e Energia, que se dedica ao transporte e comercialização de gás natural produzido no Brasil e gás natural importado; Biocombustíveis, que abrange as atividades de produção de biodiesel e seus co-produtos, e atividades relacionadas ao etanol; Distribuição, que inclui as atividades de sua subsidiária Petrobras Distribuidora S.A. e Corporativa.</v>
+    <v>BVMF</v>
+    <v>26.45</v>
+    <v>45149</v>
+    <v>45072.947916666664</v>
+    <v>160</v>
+    <v>75308720</v>
+    <v>BRL</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras)</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras)</v>
+    <v>26.81</v>
+    <v>26.8</v>
+    <v>Av. Republica do Chile, n 65, 24 andar, Centro, Rio de Janeiro, RIO DE JANEIRO, 20.031-912 BR</v>
+    <v>Oil &amp; Gas</v>
+    <v>PETR4</v>
+    <v>Ações</v>
+    <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
+    <v>0.35</v>
+    <v>1.3233E-2</v>
+    <v>39809900</v>
   </rv>
   <rv s="2">
-    <v>113</v>
+    <v>161</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bsryjc&amp;q=BVMF%3aQAGR11&amp;form=skydnc</v>
@@ -2588,28 +3620,28 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>45</v>
+    <v>45.09</v>
     <v>39.56</v>
     <v>BVMF</v>
-    <v>44.9</v>
-    <v>44.37</v>
+    <v>45.09</v>
+    <v>44.73</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>44.8</v>
-    <v>45071.798310185186</v>
-    <v>115</v>
+    <v>44.75</v>
+    <v>45072.947962962964</v>
+    <v>163</v>
     <v>BRL</v>
     <v>QUASAR AGRO - FDO INV. IMOB. ETF</v>
-    <v>44.85</v>
-    <v>44.65</v>
+    <v>44.76</v>
+    <v>45.09</v>
     <v>QAGR11</v>
     <v>Fundos mais negociados</v>
     <v>QUASAR AGRO - FDO INV. IMOB. ETF (BVMF:QAGR11)</v>
-    <v>-0.15</v>
-    <v>-3.3479999999999998E-3</v>
-    <v>3654</v>
+    <v>0.34</v>
+    <v>7.5980000000000006E-3</v>
+    <v>2687</v>
   </rv>
   <rv s="2">
-    <v>116</v>
+    <v>164</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=buizm7&amp;q=BVMF%3aRBHG11&amp;form=skydnc</v>
@@ -2628,28 +3660,28 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>83.95</v>
+    <v>84.95</v>
     <v>71.87</v>
     <v>BVMF</v>
-    <v>82.38</v>
-    <v>81.99</v>
+    <v>84.95</v>
+    <v>82.04</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>82.34</v>
-    <v>45071.798136574071</v>
-    <v>118</v>
+    <v>83.6</v>
+    <v>45072.947962962964</v>
+    <v>166</v>
     <v>BRL</v>
     <v>RIO BRAVO CREDITO IMOB IV FII</v>
-    <v>82.34</v>
-    <v>82.15</v>
+    <v>83.18</v>
+    <v>82.6</v>
     <v>RBHG11</v>
     <v>Fundos mais negociados</v>
     <v>RIO BRAVO CREDITO IMOB IV FII (BVMF:RBHG11)</v>
-    <v>-0.19</v>
-    <v>-2.3080000000000002E-3</v>
-    <v>5627</v>
+    <v>-1</v>
+    <v>-1.1961999999999999E-2</v>
+    <v>13756</v>
   </rv>
   <rv s="2">
-    <v>119</v>
+    <v>167</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bjm5yc&amp;q=BVMF%3aRBRP11&amp;form=skydnc</v>
@@ -2671,25 +3703,25 @@
     <v>61.96</v>
     <v>43.1</v>
     <v>BVMF</v>
-    <v>58.2</v>
-    <v>55.13</v>
+    <v>58</v>
+    <v>56.05</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>55.06</v>
-    <v>45071.79791666667</v>
-    <v>121</v>
+    <v>57.1</v>
+    <v>45072.947962962964</v>
+    <v>169</v>
     <v>BRL</v>
     <v>FDO INV IMOB RBR PROPERTIES CF</v>
-    <v>56.48</v>
-    <v>56.85</v>
+    <v>56.71</v>
+    <v>56.5</v>
     <v>RBRP11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB RBR PROPERTIES CF (BVMF:RBRP11)</v>
-    <v>1.79</v>
-    <v>3.2509999999999997E-2</v>
-    <v>21296</v>
+    <v>-0.6</v>
+    <v>-1.0508E-2</v>
+    <v>76750</v>
   </rv>
   <rv s="2">
-    <v>122</v>
+    <v>170</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bjm627&amp;q=BVMF%3aRBRR11&amp;form=skydnc</v>
@@ -2711,25 +3743,25 @@
     <v>91.8</v>
     <v>75.44</v>
     <v>BVMF</v>
-    <v>91.25</v>
-    <v>89.1</v>
+    <v>91.5</v>
+    <v>89.43</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.32</v>
-    <v>45071.798490323439</v>
-    <v>124</v>
+    <v>90.43</v>
+    <v>45072.947962962964</v>
+    <v>172</v>
     <v>BRL</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF</v>
-    <v>89.5</v>
-    <v>91</v>
+    <v>90.43</v>
+    <v>90.21</v>
     <v>RBRR11</v>
     <v>Fundos mais negociados</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF (BVMF:RBRR11)</v>
-    <v>1.68</v>
-    <v>1.8808999999999999E-2</v>
-    <v>52380</v>
+    <v>-0.22</v>
+    <v>-2.4329999999999998E-3</v>
+    <v>31090</v>
   </rv>
   <rv s="2">
-    <v>125</v>
+    <v>173</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apmka2&amp;q=BVMF%3aRCRB11&amp;form=skydnc</v>
@@ -2751,25 +3783,75 @@
     <v>143.74</v>
     <v>103.64</v>
     <v>BVMF</v>
-    <v>136.9</v>
-    <v>131.5</v>
+    <v>138.22999999999999</v>
+    <v>135</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>133</v>
-    <v>45071.798242846875</v>
-    <v>127</v>
+    <v>134.99</v>
+    <v>45072.947962962964</v>
+    <v>175</v>
     <v>BRL</v>
     <v>FDO INV IMOB RIO BRAVO RENDA COR ETF</v>
-    <v>133</v>
-    <v>135.4</v>
+    <v>135</v>
+    <v>137.99</v>
     <v>RCRB11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB RIO BRAVO RENDA COR ETF (BVMF:RCRB11)</v>
-    <v>2.4</v>
-    <v>1.8044999999999999E-2</v>
-    <v>1448</v>
+    <v>3</v>
+    <v>2.2224000000000001E-2</v>
+    <v>3003</v>
   </rv>
   <rv s="2">
-    <v>128</v>
+    <v>176</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bwn8hw&amp;q=BVMF%3aRRRP3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>pt-BR</v>
+    <v>bwn8hw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>13</v>
+    <v>14</v>
+    <v>3R Petroleum Óleo e Gás S.A. (BVMF:RRRP3)</v>
+    <v>3</v>
+    <v>15</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>50.78</v>
+    <v>25.94</v>
+    <v>BVMF</v>
+    <v>239897400</v>
+    <v>31.67</v>
+    <v>2010</v>
+    <v>30.18</v>
+    <v>1.7050000000000001</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>7364852000</v>
+    <v>A 3R Petroleum Oleo e Gas SA, anteriormente conhecida como Ouro Preto Oleo e Gas SA, é uma empresa com sede no Brasil que atua no setor de petróleo e gás. A Empresa é uma holding que investe em empresas que atuam na exploração, produção e comercialização de petróleo e seus derivados, gás natural e outros hidrocarbonetos fluidos. A empresa se concentra no redesenvolvimento e revitalização de campos de produção maduros localizados em terra (onshore) e em águas rasas. A Firma possui diversas subsidiárias, tais como SPE 3R Petroleum SA, SPE Fazenda Belém SA, SPE Rio Ventura SA, Ouro Preto Energia Onshore SA e OP Energia Ltda e OP Pescada Oleo e Gas Ltda. Por meio de suas controladas, a Companhia atua nos estados da Bahia, Rio Grande do Norte e Ceará.</v>
+    <v>BVMF</v>
+    <v>31.24</v>
+    <v>45072.947939814818</v>
+    <v>178</v>
+    <v>8780850</v>
+    <v>BRL</v>
+    <v>3R Petroleum Óleo e Gás S.A.</v>
+    <v>3R Petroleum Óleo e Gás S.A.</v>
+    <v>31.51</v>
+    <v>30.7</v>
+    <v>Rua Visconde de Ouro Preto, 5 Sala 601, Botafogo, Rio De Janeiro, RIO DE JANEIRO, 22.250-180 BR</v>
+    <v>Oil &amp; Gas</v>
+    <v>RRRP3</v>
+    <v>Ações</v>
+    <v>3R Petroleum Óleo e Gás S.A. (BVMF:RRRP3)</v>
+    <v>-0.54</v>
+    <v>-1.7285999999999999E-2</v>
+    <v>6499900</v>
+  </rv>
+  <rv s="2">
+    <v>179</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c5gxf2&amp;q=BVMF%3aRURA11&amp;form=skydnc</v>
@@ -2792,24 +3874,24 @@
     <v>9.8000000000000007</v>
     <v>BVMF</v>
     <v>10.35</v>
-    <v>10.15</v>
+    <v>10.23</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>10.33</v>
-    <v>45071.798437673438</v>
-    <v>130</v>
+    <v>10.24</v>
+    <v>45072.947928240741</v>
+    <v>181</v>
     <v>BRL</v>
     <v>ITAU ASSET RURAL FIAGRO CF</v>
-    <v>10.34</v>
     <v>10.27</v>
+    <v>10.31</v>
     <v>RURA11</v>
     <v>Fundos mais negociados</v>
     <v>ITAU ASSET RURAL FIAGRO CF (BVMF:RURA11)</v>
-    <v>-0.06</v>
-    <v>-5.8079999999999998E-3</v>
-    <v>181603</v>
+    <v>7.0000000000000007E-2</v>
+    <v>6.8360000000000001E-3</v>
+    <v>119034</v>
   </rv>
   <rv s="2">
-    <v>131</v>
+    <v>182</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=ay1qfr&amp;q=BVMF%3aSAPR11&amp;form=skydnc</v>
@@ -2831,25 +3913,118 @@
     <v>21.19</v>
     <v>15.44</v>
     <v>BVMF</v>
-    <v>21.18</v>
-    <v>20.73</v>
+    <v>21.19</v>
+    <v>20.64</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>20.79</v>
-    <v>45071.798414351855</v>
-    <v>133</v>
+    <v>21.04</v>
+    <v>45072.947928240741</v>
+    <v>184</v>
     <v>BRL</v>
     <v>CIA SANEAMENTO DO PARANA UNT</v>
-    <v>20.8</v>
-    <v>21.02</v>
+    <v>21.17</v>
+    <v>20.87</v>
     <v>SAPR11</v>
     <v>Fundos mais negociados</v>
     <v>CIA SANEAMENTO DO PARANA UNT (BVMF:SAPR11)</v>
-    <v>0.23</v>
-    <v>1.1063E-2</v>
-    <v>682700</v>
+    <v>-0.17</v>
+    <v>-8.0800000000000004E-3</v>
+    <v>1075000</v>
   </rv>
   <rv s="2">
-    <v>134</v>
+    <v>185</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bpryr7&amp;q=BVMF%3aSBFG3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>bpryr7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>GRUPO SBF S.A. (BVMF:SBFG3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>25.55</v>
+    <v>6.82</v>
+    <v>BVMF</v>
+    <v>243596100</v>
+    <v>10.31</v>
+    <v>2011</v>
+    <v>9.85</v>
+    <v>1.534</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>2450577000</v>
+    <v>O Grupo SBF SA é uma empresa sediada no Brasil que atua no setor de vestuário e vestuário. A empresa é especializada no varejo de roupas através de uma rede de lojas, bem como através do seu site na Internet. A Companhia oferece diferentes tipos de produtos dividindo-os em: esportes, homens, mulheres, crianças, calçados, acessórios, equipamentos e suplementos, entre outros. A Companhia também oferece seus produtos outlet, em uma seção especial onde oferece produtos antigos com desconto no preço. É vendido em mais de 180 lojas em regiões como Espírito Santo, São Paulo, Amazonas e Rio de Janeiro, dentro do território brasileiro. Também opera um serviço de personal trainer on-line chamado Bora.</v>
+    <v>BVMF</v>
+    <v>9.7200000000000006</v>
+    <v>8196</v>
+    <v>45072.947962962964</v>
+    <v>187</v>
+    <v>1850420</v>
+    <v>BRL</v>
+    <v>GRUPO SBF S.A.</v>
+    <v>GRUPO SBF S.A.</v>
+    <v>9.89</v>
+    <v>10.06</v>
+    <v>Av Dra Ruth Cardoso 7221 Andar Ed Birman 3, Pinheiros, PINHEIROS, SAO PAULO, 05.425-902 BR</v>
+    <v>Specialty Retailers</v>
+    <v>SBFG3</v>
+    <v>Ações</v>
+    <v>GRUPO SBF S.A. (BVMF:SBFG3)</v>
+    <v>0.34</v>
+    <v>3.4979000000000003E-2</v>
+    <v>3548700</v>
+  </rv>
+  <rv s="2">
+    <v>188</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bjm7ww&amp;q=BVMF%3aSMAL11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="4">
+    <v>pt-BR</v>
+    <v>bjm7ww</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>10</v>
+    <v>11</v>
+    <v>IShares BM&amp;FBovespa Small Cap (BVMF:SMAL11)</v>
+    <v>8</v>
+    <v>12</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>117.5</v>
+    <v>83</v>
+    <v>BVMF</v>
+    <v>102.35</v>
+    <v>100.48</v>
+    <v>1.1407</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>2698255668</v>
+    <v>100.67</v>
+    <v>45072.947916666664</v>
+    <v>190</v>
+    <v>BRL</v>
+    <v>IShares BM&amp;FBovespa Small Cap</v>
+    <v>101.8</v>
+    <v>101.45</v>
+    <v>SMAL11</v>
+    <v>Fundos mais negociados</v>
+    <v>IShares BM&amp;FBovespa Small Cap (BVMF:SMAL11)</v>
+    <v>0.78</v>
+    <v>7.7480000000000005E-3</v>
+    <v>3025647</v>
+  </rv>
+  <rv s="2">
+    <v>191</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bvkmhw&amp;q=BVMF%3aURPR11&amp;form=skydnc</v>
@@ -2871,76 +4046,77 @@
     <v>101</v>
     <v>85.96</v>
     <v>BVMF</v>
-    <v>96.7</v>
-    <v>96.1</v>
+    <v>97.2</v>
+    <v>96.18</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>96.52</v>
-    <v>45071.79724537037</v>
-    <v>136</v>
+    <v>96.15</v>
+    <v>45072.947962962964</v>
+    <v>193</v>
     <v>BRL</v>
     <v>URCA PRIME RENDA FII CF</v>
-    <v>96.55</v>
-    <v>96.41</v>
+    <v>96.3</v>
+    <v>96.83</v>
     <v>URPR11</v>
     <v>Fundos mais negociados</v>
     <v>URCA PRIME RENDA FII CF (BVMF:URPR11)</v>
-    <v>-0.11</v>
-    <v>-1.14E-3</v>
-    <v>19258</v>
+    <v>0.68</v>
+    <v>7.0720000000000002E-3</v>
+    <v>22778</v>
   </rv>
   <rv s="2">
-    <v>137</v>
+    <v>194</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnjsm&amp;q=BVMF%3aVALE3&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
+  <rv s="9">
     <v>pt-BR</v>
     <v>apnjsm</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
-    <v>0</v>
-    <v>1</v>
+    <v>22</v>
+    <v>23</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
     <v>3</v>
-    <v>4</v>
+    <v>24</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>25</v>
     <v>96.18</v>
     <v>60.37</v>
     <v>BVMF</v>
     <v>4539008000</v>
-    <v>65.8</v>
+    <v>67.040000000000006</v>
     <v>1943</v>
-    <v>64.78</v>
-    <v>0.54190000000000005</v>
+    <v>65.91</v>
+    <v>0.53359999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>294445448960</v>
+    <v>301072400000</v>
     <v>A Vale S.A. é uma produtora global de minério de ferro e pelotas de minério de ferro, principais matérias-primas para a produção de aço e produtora de níquel. A Companhia também produz cobre, carvão metalúrgico e térmico, potássio, fosfatos e outros nutrientes fertilizantes, minério de manganês, ferroligas, metais do grupo da platina, ouro, prata e cobalto. Os segmentos da Companhia incluem minerais Ferrosos, que engloba a produção e extração de minerais ferrosos, como finos de minério de ferro, pelotas de minério de ferro e seus serviços de logística, manganês e ferroligas e outros produtos e serviços ferrosos; Carvão, que compreende a extração de carvão metalúrgico e térmico e seus serviços logísticos; Metais básicos, que incluem a produção e extração de minerais não-ferrosos, e são apresentados como níquel e seus derivados, e cobre (concentrado de cobre), e Outros, que engloba as vendas e despesas de outros produtos, serviços e investimentos em joint ventures e associar em outros negócios.</v>
     <v>BVMF</v>
-    <v>65.05</v>
+    <v>64.849999999999994</v>
     <v>64516</v>
-    <v>45071.798521157034</v>
-    <v>139</v>
-    <v>26882240</v>
+    <v>45072.947916666664</v>
+    <v>196</v>
+    <v>27802720</v>
     <v>BRL</v>
     <v>VALE S.A.</v>
     <v>VALE S.A.</v>
-    <v>65.8</v>
-    <v>64.87</v>
+    <v>66.75</v>
+    <v>66.33</v>
+    <v>66.95</v>
     <v>Pr Botafogo 00186 Sal 1101 Sal 1601 Sal 1701 Sal 1801, Botafogo, RIO DE JANEIRO, RIO DE JANEIRO, 22.250-145 BR</v>
     <v>Metals &amp; Mining</v>
     <v>VALE3</v>
     <v>Ações</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
-    <v>-0.18</v>
-    <v>-2.7669999999999999E-3</v>
-    <v>29161600</v>
+    <v>1.48</v>
+    <v>2.2821999999999999E-2</v>
+    <v>38148200</v>
   </rv>
   <rv s="2">
-    <v>140</v>
+    <v>197</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bpiutc&amp;q=BVMF%3aVILG11&amp;form=skydnc</v>
@@ -2963,24 +4139,24 @@
     <v>81.95</v>
     <v>BVMF</v>
     <v>98.7</v>
-    <v>97.45</v>
+    <v>98.17</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>98.04</v>
-    <v>45071.798455046097</v>
-    <v>142</v>
+    <v>98.7</v>
+    <v>45072.947962962964</v>
+    <v>199</v>
     <v>BRL</v>
     <v>FII VINCILOG ETF</v>
-    <v>98.04</v>
-    <v>98.6</v>
+    <v>98.7</v>
+    <v>98.58</v>
     <v>VILG11</v>
     <v>Fundos mais negociados</v>
     <v>FII VINCILOG ETF (BVMF:VILG11)</v>
-    <v>0.56000000000000005</v>
-    <v>5.7120000000000001E-3</v>
-    <v>14388</v>
+    <v>-0.12</v>
+    <v>-1.2160000000000001E-3</v>
+    <v>16090</v>
   </rv>
   <rv s="2">
-    <v>143</v>
+    <v>200</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnkdm&amp;q=BVMF%3aVIVT3&amp;form=skydnc</v>
@@ -3003,35 +4179,137 @@
     <v>34.78</v>
     <v>BVMF</v>
     <v>1663557000</v>
-    <v>42.18</v>
+    <v>42.45</v>
     <v>1998</v>
-    <v>41.31</v>
-    <v>0.13830000000000001</v>
+    <v>41.84</v>
+    <v>0.1401</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>70069020840</v>
+    <v>69653120000</v>
     <v>A Telefonica Brasil S.A. é uma empresa de telecomunicações móveis no Brasil que oferece serviços móveis pós-pagos. A Companhia também atua como empresa de telecomunicações fixas no estado de São Paulo. A empresa comercializa seus serviços móveis sob a marca Vivo. Oferece aos seus clientes um portfólio de produtos, incluindo voz móvel e fixa, dados móveis, banda larga fixa, banda larga ultra-rápida, televisão por assinatura, tecnologia da informação e serviços digitais. Suas operações consistem em serviços de telefonia fixa local e de longa distância; serviços móveis, incluindo serviços de valor agregado; serviços de dados, incluindo serviços de banda larga e serviços de dados móveis; Serviços de televisão por assinatura direto para casa (DTH), televisão por protocolo de Internet (IPTV) e cabo; serviços de rede, como aluguel de instalações, bem como outros serviços; serviços de atacado, incluindo interconexão; serviços digitais; serviços projetados especificamente para clientes corporativos e a venda de dispositivos e acessórios sem fio.</v>
     <v>BVMF</v>
-    <v>41.22</v>
+    <v>42.16</v>
     <v>33000</v>
-    <v>45071.79849641172</v>
-    <v>145</v>
-    <v>1942630</v>
+    <v>45072.947939814818</v>
+    <v>202</v>
+    <v>2095620</v>
     <v>BRL</v>
     <v>TELEFÔNICA BRASIL S.A.</v>
     <v>TELEFÔNICA BRASIL S.A.</v>
-    <v>41.86</v>
-    <v>42.12</v>
+    <v>42.43</v>
+    <v>41.87</v>
     <v>Av Engenheiro Luis Carlos Berrini, 1376 32 andar, Cidade Moncoes, SAO PAULO, SAO PAULO, 04.571-936 BR</v>
     <v>Telecommunications Services</v>
     <v>VIVT3</v>
     <v>Ações</v>
     <v>TELEFÔNICA BRASIL S.A. (BVMF:VIVT3)</v>
-    <v>0.9</v>
-    <v>2.1833999999999999E-2</v>
-    <v>2032200</v>
+    <v>-0.28999999999999998</v>
+    <v>-6.8789999999999997E-3</v>
+    <v>1700800</v>
   </rv>
   <rv s="2">
-    <v>146</v>
+    <v>203</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apnl4c&amp;q=BVMF%3aVULC3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apnl4c</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>VULCABRAS S.A. (BVMF:VULC3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>15.87</v>
+    <v>9.41</v>
+    <v>BVMF</v>
+    <v>245916200</v>
+    <v>15.87</v>
+    <v>1952</v>
+    <v>15.54</v>
+    <v>1.0996999999999999</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>3855967000</v>
+    <v>A VULCABRAS AZALEIA S/A é uma holding com sede no Brasil, que se dedica principalmente à fabricação de calçados. A Empresa está envolvida na produção e comercialização de calçados esportivos e profissionais masculinos e femininos, bem como na fabricação de vestuário. A Empresa vende seus produtos sob várias marcas, incluindo Azaleia, Dijean, Funny, Opanka, Olympikus e Vulcabras. A Empresa também produz sapatos e roupas para a marca Reebok. Além disso, a Empresa fabrica, sob a marca Botas Vulcabras, botas de segurança para hospitais, laboratórios, bem como para indústrias de alimentos, construção, mineração, metalurgia e química. A Empresa exporta seus produtos para Argentina, Chile, Colômbia e Peru, entre outros. Em 31 de dezembro de 2011, a subsidiária direta da Empresa era a Vulcabras Azaleia CE Calçados e Artigos Esportivos SA.</v>
+    <v>BVMF</v>
+    <v>15.6</v>
+    <v>23878</v>
+    <v>45072.947928240741</v>
+    <v>205</v>
+    <v>1068980</v>
+    <v>BRL</v>
+    <v>VULCABRAS S.A.</v>
+    <v>VULCABRAS S.A.</v>
+    <v>15.6</v>
+    <v>15.68</v>
+    <v>Av. Antonio Frederico Ozanan,1440, Da Grama, JUNDIAI, SAO PAULO, 13.219-001 BR</v>
+    <v>Textiles &amp; Apparel</v>
+    <v>VULC3</v>
+    <v>Ações</v>
+    <v>VULCABRAS S.A. (BVMF:VULC3)</v>
+    <v>0.08</v>
+    <v>5.1280000000000006E-3</v>
+    <v>307400</v>
+  </rv>
+  <rv s="2">
+    <v>206</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=apnlim&amp;q=BVMF%3aWEGE3&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>pt-BR</v>
+    <v>apnlim</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>WEG S.A. (BVMF:WEGE3)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>42.37</v>
+    <v>22.44</v>
+    <v>BVMF</v>
+    <v>4197318000</v>
+    <v>39.630000000000003</v>
+    <v>1961</v>
+    <v>39.049999999999997</v>
+    <v>0.56589999999999996</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>165836000000</v>
+    <v>A WEG SA é uma holding sediada no Brasil que tem por objetivo principal a fabricação de equipamentos e componentes elétricos. A Companhia atua, juntamente com suas subsidiárias, na fabricação e comercialização de mercadorias, tais como motores elétricos, geradores e transformadores; redutores, redutores de engrenagem, inversores de frequência, motores de partida e dispositivos de manobra; controle e proteção de circuitos elétricos e automação industrial; soluções de tração elétrica (terrestre e marítima); soluções para geração de energia renovável e distribuída, explorando todas as oportunidades em pequenas centrais hidrelétricas e fontes de biomassa térmica, eólica e solar; no-breaks e alternadores para grupos de geradores; subestações elétricas; sistemas de equipamentos elétricos e eletrônicos industriais e tintas e vernizes industriais. Atua no Brasil, Argentina, México, Estados Unidos, Portugal, Áustria, África do Sul, Índia e China. Opera por meio da Bluffton Motor Works LLC.</v>
+    <v>BVMF</v>
+    <v>39.04</v>
+    <v>39137</v>
+    <v>45072.947916666664</v>
+    <v>208</v>
+    <v>5867360</v>
+    <v>BRL</v>
+    <v>WEG S.A.</v>
+    <v>WEG S.A.</v>
+    <v>39.380000000000003</v>
+    <v>39.51</v>
+    <v>Av. Prefeito Waldemar Grubba,3300, Centro, JARAGUA DO SUL, SANTA CATARINA, 89.256-900 BR</v>
+    <v>Machinery, Equipment &amp; Components</v>
+    <v>WEGE3</v>
+    <v>Ações</v>
+    <v>WEG S.A. (BVMF:WEGE3)</v>
+    <v>0.47</v>
+    <v>1.2038999999999999E-2</v>
+    <v>6507700</v>
+  </rv>
+  <rv s="2">
+    <v>209</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnmc7&amp;q=BVMF%3aXPCM11&amp;form=skydnc</v>
@@ -3053,25 +4331,25 @@
     <v>21.93</v>
     <v>11.42</v>
     <v>BVMF</v>
-    <v>14</v>
-    <v>13.55</v>
+    <v>14.1</v>
+    <v>13.89</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>13.55</v>
-    <v>45071.79492085625</v>
-    <v>148</v>
+    <v>13.9</v>
+    <v>45072.947962962964</v>
+    <v>211</v>
     <v>BRL</v>
     <v>FDO INV IMOB XP CORPORATE MACAE ETF</v>
-    <v>13.55</v>
-    <v>13.86</v>
+    <v>13.9</v>
+    <v>14</v>
     <v>XPCM11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB XP CORPORATE MACAE ETF (BVMF:XPCM11)</v>
-    <v>0.31</v>
-    <v>2.2877999999999999E-2</v>
-    <v>2137</v>
+    <v>0.1</v>
+    <v>7.1940000000000007E-3</v>
+    <v>3045</v>
   </rv>
   <rv s="2">
-    <v>149</v>
+    <v>212</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apmipr&amp;q=BVMF%3aYDUQ3&amp;form=skydnc</v>
@@ -3094,41 +4372,41 @@
     <v>6.48</v>
     <v>BVMF</v>
     <v>309088800</v>
-    <v>14.28</v>
+    <v>14.16</v>
     <v>2007</v>
-    <v>13.65</v>
-    <v>1.7841</v>
+    <v>13.66</v>
+    <v>1.8346</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>4265425440</v>
+    <v>4351971000</v>
     <v>A YDUQS Participações SA é uma empresa com sede no Brasil que se dedica à prestação de serviços educacionais. A empresa está focada no desenvolvimento de instituições de ensino superior. Sua gama de serviços abrange cursos presenciais e a distância com programas de pós-graduação e mestrado em administração de empresas (MBA), cursos profissionalizantes, preparatórios para exames, cursos de curta duração, além de treinamentos empresariais para profissionais, entre outros. Os cursos da Companhia oferecem desenvolvimento nas áreas jurídica, gestão, humanidades, saúde e tecnologia. Sua rede educacional é formada por universidades, campi, centros de ensino a distância e faculdades. A Companhia atua no Brasil por meio das marcas: Estácio, UniToledo, Adtalem (IBMEC, Wyden, Damasio Educacional, SJT Med e Clio).</v>
     <v>BVMF</v>
-    <v>13.37</v>
+    <v>13.85</v>
     <v>17882</v>
-    <v>45071.798333333332</v>
-    <v>151</v>
-    <v>8684340</v>
+    <v>45072.947939814818</v>
+    <v>214</v>
+    <v>6439860</v>
     <v>BRL</v>
     <v>YDUQS Participações S.A.</v>
     <v>YDUQS Participações S.A.</v>
-    <v>13.65</v>
-    <v>13.8</v>
+    <v>14.12</v>
+    <v>14.08</v>
     <v>Avenida Venezuela 43 6 andar, Saude, RIO DE JANEIRO, RIO DE JANEIRO, 20.081-311 BR</v>
     <v>School, College &amp; University</v>
     <v>YDUQ3</v>
     <v>Ações</v>
     <v>YDUQS Participações S.A. (BVMF:YDUQ3)</v>
-    <v>0.43</v>
-    <v>3.2162000000000003E-2</v>
-    <v>3597900</v>
+    <v>0.23</v>
+    <v>1.6605999999999999E-2</v>
+    <v>3124300</v>
   </rv>
   <rv s="2">
-    <v>152</v>
+    <v>215</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -3206,6 +4484,84 @@
     <k n="Nome" t="s"/>
     <k n="Pendência"/>
     <k n="Preço"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Variação"/>
+    <k n="Variação (%)"/>
+    <k n="Volume"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_CanonicalPropertyNames" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 semanas de alta"/>
+    <k n="52 semanas de baixa"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Alto"/>
+    <k n="Baixo"/>
+    <k n="Beta"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Capitalização de mercado"/>
+    <k n="Fechamento anterior"/>
+    <k n="Hora da última transação"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Moeda" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Pendência"/>
+    <k n="Preço"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Variação"/>
+    <k n="Variação (%)"/>
+    <k n="Volume"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_CanonicalPropertyNames" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 semanas de alta"/>
+    <k n="52 semanas de baixa"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Ações em circulação"/>
+    <k n="Alto"/>
+    <k n="Ano de incorporação"/>
+    <k n="Baixo"/>
+    <k n="Beta"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Capitalização de mercado"/>
+    <k n="Descrição" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Fechamento anterior"/>
+    <k n="Hora da última transação"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Média de volume"/>
+    <k n="Moeda" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Nome oficial" t="s"/>
+    <k n="Pendência"/>
+    <k n="Preço"/>
+    <k n="Sede" t="s"/>
+    <k n="Setor" t="s"/>
     <k n="Símbolo do ticker" t="s"/>
     <k n="Tipo de instrumento" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3296,6 +4652,7 @@
     <k n="Descrição" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Fechamento anterior"/>
+    <k n="Funcionários"/>
     <k n="Hora da última transação"/>
     <k n="LearnMoreOnLink" t="r"/>
     <k n="Média de volume"/>
@@ -3304,6 +4661,7 @@
     <k n="Nome oficial" t="s"/>
     <k n="Pendência"/>
     <k n="Preço"/>
+    <k n="Preço (Horário prolongado)"/>
     <k n="Sede" t="s"/>
     <k n="Setor" t="s"/>
     <k n="Símbolo do ticker" t="s"/>
@@ -3318,7 +4676,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="4">
+  <spbArrays count="6">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -3396,6 +4754,84 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="33">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">_CanonicalPropertyNames</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Nome</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Preço</v>
+      <v t="s">Bolsa</v>
+      <v t="s">Hora da última transação</v>
+      <v t="s">Símbolo do ticker</v>
+      <v t="s">Abreviatura do câmbio</v>
+      <v t="s">Variação</v>
+      <v t="s">Variação (%)</v>
+      <v t="s">Moeda</v>
+      <v t="s">Fechamento anterior</v>
+      <v t="s">Pendência</v>
+      <v t="s">Alto</v>
+      <v t="s">Baixo</v>
+      <v t="s">52 semanas de alta</v>
+      <v t="s">52 semanas de baixa</v>
+      <v t="s">Volume</v>
+      <v t="s">Capitalização de mercado</v>
+      <v t="s">Beta</v>
+      <v t="s">Tipo de instrumento</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="41">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">_CanonicalPropertyNames</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Nome</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Preço</v>
+      <v t="s">Bolsa</v>
+      <v t="s">Nome oficial</v>
+      <v t="s">Hora da última transação</v>
+      <v t="s">Símbolo do ticker</v>
+      <v t="s">Abreviatura do câmbio</v>
+      <v t="s">Variação</v>
+      <v t="s">Variação (%)</v>
+      <v t="s">Moeda</v>
+      <v t="s">Fechamento anterior</v>
+      <v t="s">Pendência</v>
+      <v t="s">Alto</v>
+      <v t="s">Baixo</v>
+      <v t="s">52 semanas de alta</v>
+      <v t="s">52 semanas de baixa</v>
+      <v t="s">Volume</v>
+      <v t="s">Média de volume</v>
+      <v t="s">Capitalização de mercado</v>
+      <v t="s">Beta</v>
+      <v t="s">Ações em circulação</v>
+      <v t="s">Descrição</v>
+      <v t="s">Sede</v>
+      <v t="s">Setor</v>
+      <v t="s">Tipo de instrumento</v>
+      <v t="s">Ano de incorporação</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
     <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -3441,7 +4877,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="41">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3453,6 +4889,7 @@
       <v t="s">Nome</v>
       <v t="s">_SubLabel</v>
       <v t="s">Preço</v>
+      <v t="s">Preço (Horário prolongado)</v>
       <v t="s">Bolsa</v>
       <v t="s">Nome oficial</v>
       <v t="s">Hora da última transação</v>
@@ -3473,6 +4910,7 @@
       <v t="s">Beta</v>
       <v t="s">Ações em circulação</v>
       <v t="s">Descrição</v>
+      <v t="s">Funcionários</v>
       <v t="s">Sede</v>
       <v t="s">Setor</v>
       <v t="s">Tipo de instrumento</v>
@@ -3485,7 +4923,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="19">
+  <spbData count="26">
     <spb s="0">
       <v>High</v>
       <v>Beta</v>
@@ -3613,30 +5051,20 @@
       <v>High</v>
       <v>Beta</v>
       <v>Name</v>
-      <v>Headquarters</v>
       <v>Low</v>
       <v>Exchange</v>
       <v>Currency</v>
       <v>Price</v>
-      <v>Industry</v>
-      <v>Image</v>
       <v>Volume</v>
       <v>Change</v>
-      <v>Description</v>
       <v>Open</v>
-      <v>ExchangeID</v>
       <v>UniqueName</v>
-      <v>Employees</v>
-      <v>Official name</v>
       <v>Change (%)</v>
       <v>%ProviderInfo</v>
       <v>LearnMoreOnLink</v>
-      <v>Volume average</v>
       <v>Ticker symbol</v>
       <v>52 week high</v>
       <v>52 week low</v>
-      <v>Year incorporated</v>
-      <v>Shares outstanding</v>
       <v>Previous close</v>
       <v>Instrument type</v>
       <v>Exchange abbreviation</v>
@@ -3649,42 +5077,23 @@
       <v>LearnMoreOnLink</v>
     </spb>
     <spb s="10">
-      <v>0</v>
-      <v>0</v>
-    </spb>
-    <spb s="11">
-      <v>12</v>
-      <v>2</v>
-      <v>2</v>
-      <v>2</v>
-      <v>2</v>
-    </spb>
-    <spb s="12">
       <v>1</v>
       <v>2</v>
       <v>3</v>
       <v>1</v>
       <v>1</v>
-      <v>10</v>
       <v>4</v>
       <v>1</v>
       <v>1</v>
-      <v>4</v>
       <v>5</v>
-      <v>4</v>
       <v>6</v>
       <v>1</v>
       <v>1</v>
-      <v>7</v>
-      <v>4</v>
       <v>1</v>
       <v>8</v>
       <v>9</v>
     </spb>
-    <spb s="13">
-      <v>Da plataforma Refinitiv</v>
-    </spb>
-    <spb s="14">
+    <spb s="11">
       <v>High</v>
       <v>Beta</v>
       <v>Name</v>
@@ -3721,7 +5130,7 @@
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
-    <spb s="15">
+    <spb s="12">
       <v>1</v>
       <v>2</v>
       <v>3</v>
@@ -3741,12 +5150,155 @@
       <v>8</v>
       <v>9</v>
     </spb>
+    <spb s="13">
+      <v>High</v>
+      <v>Beta</v>
+      <v>Name</v>
+      <v>Headquarters</v>
+      <v>Low</v>
+      <v>Exchange</v>
+      <v>Currency</v>
+      <v>Price</v>
+      <v>Industry</v>
+      <v>Image</v>
+      <v>Volume</v>
+      <v>Change</v>
+      <v>Description</v>
+      <v>Open</v>
+      <v>ExchangeID</v>
+      <v>UniqueName</v>
+      <v>Employees</v>
+      <v>Official name</v>
+      <v>Change (%)</v>
+      <v>%ProviderInfo</v>
+      <v>LearnMoreOnLink</v>
+      <v>Volume average</v>
+      <v>Ticker symbol</v>
+      <v>52 week high</v>
+      <v>52 week low</v>
+      <v>Year incorporated</v>
+      <v>Shares outstanding</v>
+      <v>Previous close</v>
+      <v>Instrument type</v>
+      <v>Exchange abbreviation</v>
+      <v>Market cap</v>
+      <v>Last trade time</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="14">
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="15">
+      <v>18</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="16">
+      <v>1</v>
+      <v>2</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>10</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>4</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>7</v>
+      <v>4</v>
+      <v>1</v>
+      <v>8</v>
+      <v>9</v>
+    </spb>
+    <spb s="17">
+      <v>Da plataforma Refinitiv</v>
+    </spb>
+    <spb s="18">
+      <v>High</v>
+      <v>Beta</v>
+      <v>Name</v>
+      <v>Headquarters</v>
+      <v>Low</v>
+      <v>Exchange</v>
+      <v>Currency</v>
+      <v>Price</v>
+      <v>Industry</v>
+      <v>Volume</v>
+      <v>Change</v>
+      <v>Description</v>
+      <v>Open</v>
+      <v>ExchangeID</v>
+      <v>UniqueName</v>
+      <v>Employees</v>
+      <v>Official name</v>
+      <v>Change (%)</v>
+      <v>%ProviderInfo</v>
+      <v>LearnMoreOnLink</v>
+      <v>Volume average</v>
+      <v>Ticker symbol</v>
+      <v>52 week high</v>
+      <v>52 week low</v>
+      <v>Year incorporated</v>
+      <v>Shares outstanding</v>
+      <v>Previous close</v>
+      <v>Instrument type</v>
+      <v>Exchange abbreviation</v>
+      <v>Market cap</v>
+      <v>Last trade time</v>
+      <v>Price (Extended hours)</v>
+    </spb>
+    <spb s="1">
+      <v>5</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="19">
+      <v>1</v>
+      <v>2</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>4</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>7</v>
+      <v>4</v>
+      <v>1</v>
+      <v>8</v>
+      <v>9</v>
+      <v>1</v>
+    </spb>
+    <spb s="20">
+      <v xml:space="preserve">no fechamento </v>
+      <v xml:space="preserve">do fechamento anterior </v>
+      <v xml:space="preserve">do fechamento anterior </v>
+      <v>GMT</v>
+      <v>Atraso de 30 minutos</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="16">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="21">
   <s>
     <k n="Alto" t="s"/>
     <k n="Beta" t="s"/>
@@ -3869,6 +5421,99 @@
     <k n="Alto" t="s"/>
     <k n="Beta" t="s"/>
     <k n="Nome" t="s"/>
+    <k n="Baixo" t="s"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Moeda" t="s"/>
+    <k n="Preço" t="s"/>
+    <k n="Volume" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Pendência" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="LearnMoreOnLink" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="52 semanas de alta" t="s"/>
+    <k n="52 semanas de baixa" t="s"/>
+    <k n="Fechamento anterior" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Capitalização de mercado" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+  </s>
+  <s>
+    <k n="Alto" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="Nome" t="i"/>
+    <k n="Baixo" t="i"/>
+    <k n="Preço" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Variação" t="i"/>
+    <k n="Pendência" t="i"/>
+    <k n="Variação (%)" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="52 semanas de alta" t="i"/>
+    <k n="52 semanas de baixa" t="i"/>
+    <k n="Fechamento anterior" t="i"/>
+    <k n="Capitalização de mercado" t="i"/>
+    <k n="Hora da última transação" t="i"/>
+  </s>
+  <s>
+    <k n="Alto" t="s"/>
+    <k n="Beta" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Sede" t="s"/>
+    <k n="Baixo" t="s"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Moeda" t="s"/>
+    <k n="Preço" t="s"/>
+    <k n="Setor" t="s"/>
+    <k n="Volume" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Descrição" t="s"/>
+    <k n="Pendência" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Nome oficial" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="LearnMoreOnLink" t="s"/>
+    <k n="Média de volume" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="52 semanas de alta" t="s"/>
+    <k n="52 semanas de baixa" t="s"/>
+    <k n="Ano de incorporação" t="s"/>
+    <k n="Ações em circulação" t="s"/>
+    <k n="Fechamento anterior" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Capitalização de mercado" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+  </s>
+  <s>
+    <k n="Alto" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="Nome" t="i"/>
+    <k n="Baixo" t="i"/>
+    <k n="Preço" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Variação" t="i"/>
+    <k n="Pendência" t="i"/>
+    <k n="Variação (%)" t="i"/>
+    <k n="Média de volume" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="52 semanas de alta" t="i"/>
+    <k n="52 semanas de baixa" t="i"/>
+    <k n="Ano de incorporação" t="i"/>
+    <k n="Ações em circulação" t="i"/>
+    <k n="Fechamento anterior" t="i"/>
+    <k n="Capitalização de mercado" t="i"/>
+    <k n="Hora da última transação" t="i"/>
+  </s>
+  <s>
+    <k n="Alto" t="s"/>
+    <k n="Beta" t="s"/>
+    <k n="Nome" t="s"/>
     <k n="Sede" t="s"/>
     <k n="Baixo" t="s"/>
     <k n="Bolsa" t="s"/>
@@ -3951,6 +5596,7 @@
     <k n="Pendência" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="UniqueName" t="s"/>
+    <k n="Funcionários" t="s"/>
     <k n="Nome oficial" t="s"/>
     <k n="Variação (%)" t="s"/>
     <k n="%ProviderInfo" t="s"/>
@@ -3966,6 +5612,7 @@
     <k n="Abreviatura do câmbio" t="s"/>
     <k n="Capitalização de mercado" t="s"/>
     <k n="Hora da última transação" t="s"/>
+    <k n="Preço (Horário prolongado)" t="s"/>
   </s>
   <s>
     <k n="Alto" t="i"/>
@@ -3976,6 +5623,7 @@
     <k n="Volume" t="i"/>
     <k n="Variação" t="i"/>
     <k n="Pendência" t="i"/>
+    <k n="Funcionários" t="i"/>
     <k n="Variação (%)" t="i"/>
     <k n="Média de volume" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
@@ -3986,6 +5634,14 @@
     <k n="Fechamento anterior" t="i"/>
     <k n="Capitalização de mercado" t="i"/>
     <k n="Hora da última transação" t="i"/>
+    <k n="Preço (Horário prolongado)" t="i"/>
+  </s>
+  <s>
+    <k n="Preço" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+    <k n="Preço (Horário prolongado)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -4314,20 +5970,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -4339,1130 +5995,1502 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str" cm="1">
         <f t="array" ref="A2">_FV(E2,"Símbolo do ticker",TRUE)</f>
-        <v>AZUL4</v>
-      </c>
-      <c r="B2" s="20">
-        <v>6.79</v>
-      </c>
-      <c r="C2" s="22">
-        <v>43.4</v>
-      </c>
-      <c r="D2" s="24" cm="1">
+        <v>ALPA4</v>
+      </c>
+      <c r="B2" s="15">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15">
+        <v>25</v>
+      </c>
+      <c r="D2" s="14" cm="1">
         <f t="array" ref="D2">_FV(E2,"Preço")</f>
-        <v>15.57</v>
-      </c>
-      <c r="E2" s="9" t="e" vm="1">
+        <v>10.39</v>
+      </c>
+      <c r="E2" s="5" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str" cm="1">
         <f t="array" ref="A3">_FV(E3,"Símbolo do ticker",TRUE)</f>
-        <v>BARI11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>77</v>
-      </c>
-      <c r="C3" s="3">
-        <v>101.26</v>
-      </c>
-      <c r="D3" s="24" cm="1">
+        <v>ALSO3</v>
+      </c>
+      <c r="B3" s="15">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15">
+        <v>25</v>
+      </c>
+      <c r="D3" s="14" cm="1">
         <f t="array" ref="D3">_FV(E3,"Preço")</f>
-        <v>82.89</v>
-      </c>
-      <c r="E3" s="7" t="e" vm="2">
+        <v>21.32</v>
+      </c>
+      <c r="E3" s="5" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str" cm="1">
         <f t="array" ref="A4">_FV(E4,"Símbolo do ticker",TRUE)</f>
-        <v>BBAS3</v>
-      </c>
-      <c r="B4" s="20">
-        <v>30</v>
-      </c>
-      <c r="C4" s="22">
-        <v>45</v>
-      </c>
-      <c r="D4" s="24" cm="1">
+        <v>ASAI3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>10.3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>22</v>
+      </c>
+      <c r="D4" s="14" cm="1">
         <f t="array" ref="D4">_FV(E4,"Preço")</f>
-        <v>44.79</v>
-      </c>
-      <c r="E4" s="9" t="e" vm="3">
+        <v>11.4</v>
+      </c>
+      <c r="E4" s="5" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="str" cm="1">
+      <c r="A5" s="21" t="str" cm="1">
         <f t="array" ref="A5">_FV(E5,"Símbolo do ticker",TRUE)</f>
-        <v>BBSE3</v>
-      </c>
-      <c r="B5" s="20">
-        <v>22.47</v>
-      </c>
-      <c r="C5" s="22">
-        <v>34</v>
-      </c>
-      <c r="D5" s="24" cm="1">
+        <v>AZUL4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>6.79</v>
+      </c>
+      <c r="C5" s="18">
+        <v>43.4</v>
+      </c>
+      <c r="D5" s="19" cm="1">
         <f t="array" ref="D5">_FV(E5,"Preço")</f>
-        <v>31.77</v>
-      </c>
-      <c r="E5" s="9" t="e" vm="4">
+        <v>16.03</v>
+      </c>
+      <c r="E5" s="23" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str" cm="1">
         <f t="array" ref="A6">_FV(E6,"Símbolo do ticker",TRUE)</f>
-        <v>BDIF11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>82</v>
-      </c>
-      <c r="C6" s="3">
-        <v>99.95</v>
-      </c>
-      <c r="D6" s="24" cm="1">
+        <v>B3SA3</v>
+      </c>
+      <c r="B6" s="15">
+        <v>9.85</v>
+      </c>
+      <c r="C6" s="15">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14" cm="1">
         <f t="array" ref="D6">_FV(E6,"Preço")</f>
-        <v>87.12</v>
-      </c>
-      <c r="E6" s="8" t="e" vm="5">
+        <v>13.66</v>
+      </c>
+      <c r="E6" s="5" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str" cm="1">
         <f t="array" ref="A7">_FV(E7,"Símbolo do ticker",TRUE)</f>
-        <v>BIDB11</v>
-      </c>
-      <c r="B7" s="3">
-        <v>84.5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>91.95</v>
-      </c>
-      <c r="D7" s="24" cm="1">
+        <v>BARI11</v>
+      </c>
+      <c r="B7" s="16">
+        <v>77</v>
+      </c>
+      <c r="C7" s="16">
+        <v>101.26</v>
+      </c>
+      <c r="D7" s="14" cm="1">
         <f t="array" ref="D7">_FV(E7,"Preço")</f>
-        <v>88.95</v>
-      </c>
-      <c r="E7" s="8" t="e" vm="6">
+        <v>83.85</v>
+      </c>
+      <c r="E7" s="4" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str" cm="1">
         <f t="array" ref="A8">_FV(E8,"Símbolo do ticker",TRUE)</f>
-        <v>BPAN4</v>
-      </c>
-      <c r="B8" s="20">
-        <v>4.7</v>
-      </c>
-      <c r="C8" s="22">
-        <v>9</v>
-      </c>
-      <c r="D8" s="24" cm="1">
+        <v>BBAS3</v>
+      </c>
+      <c r="B8" s="15">
+        <v>30</v>
+      </c>
+      <c r="C8" s="15">
+        <v>45</v>
+      </c>
+      <c r="D8" s="14" cm="1">
         <f t="array" ref="D8">_FV(E8,"Preço")</f>
-        <v>6.48</v>
-      </c>
-      <c r="E8" s="9" t="e" vm="7">
+        <v>44.4</v>
+      </c>
+      <c r="E8" s="6" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str" cm="1">
         <f t="array" ref="A9">_FV(E9,"Símbolo do ticker",TRUE)</f>
-        <v>BRCR11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="D9" s="24" cm="1">
+        <v>BBSE3</v>
+      </c>
+      <c r="B9" s="15">
+        <v>22.47</v>
+      </c>
+      <c r="C9" s="15">
+        <v>34</v>
+      </c>
+      <c r="D9" s="14" cm="1">
         <f t="array" ref="D9">_FV(E9,"Preço")</f>
-        <v>58.82</v>
-      </c>
-      <c r="E9" s="8" t="e" vm="8">
+        <v>31.9</v>
+      </c>
+      <c r="E9" s="6" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str" cm="1">
         <f t="array" ref="A10">_FV(E10,"Símbolo do ticker",TRUE)</f>
-        <v>BRSR6</v>
-      </c>
-      <c r="B10" s="20">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="C10" s="22">
-        <v>14</v>
-      </c>
-      <c r="D10" s="24" cm="1">
+        <v>BDIF11</v>
+      </c>
+      <c r="B10" s="16">
+        <v>82</v>
+      </c>
+      <c r="C10" s="16">
+        <v>99.95</v>
+      </c>
+      <c r="D10" s="14" cm="1">
         <f t="array" ref="D10">_FV(E10,"Preço")</f>
-        <v>11.98</v>
-      </c>
-      <c r="E10" s="9" t="e" vm="9">
+        <v>87.88</v>
+      </c>
+      <c r="E10" s="5" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str" cm="1">
         <f t="array" ref="A11">_FV(E11,"Símbolo do ticker",TRUE)</f>
-        <v>BTCI11</v>
-      </c>
-      <c r="B11" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9.85</v>
-      </c>
-      <c r="D11" s="24" cm="1">
+        <v>BIDB11</v>
+      </c>
+      <c r="B11" s="16">
+        <v>83.9</v>
+      </c>
+      <c r="C11" s="16">
+        <v>91.95</v>
+      </c>
+      <c r="D11" s="14" cm="1">
         <f t="array" ref="D11">_FV(E11,"Preço")</f>
-        <v>9.26</v>
-      </c>
-      <c r="E11" s="7" t="e" vm="10">
+        <v>90</v>
+      </c>
+      <c r="E11" s="5" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="str" cm="1">
+      <c r="A12" s="26" t="str" cm="1">
         <f t="array" ref="A12">_FV(E12,"Símbolo do ticker",TRUE)</f>
-        <v>BTLG11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>91.4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>104.88</v>
-      </c>
-      <c r="D12" s="24" cm="1">
+        <v>BOVA11</v>
+      </c>
+      <c r="B12" s="27">
+        <v>92</v>
+      </c>
+      <c r="C12" s="27">
+        <v>118</v>
+      </c>
+      <c r="D12" s="28" cm="1">
         <f t="array" ref="D12">_FV(E12,"Preço")</f>
-        <v>97.94</v>
-      </c>
-      <c r="E12" s="9" t="e" vm="11">
+        <v>107.51</v>
+      </c>
+      <c r="E12" s="29" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str" cm="1">
         <f t="array" ref="A13">_FV(E13,"Símbolo do ticker",TRUE)</f>
-        <v>BTRA11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>77</v>
-      </c>
-      <c r="C13" s="3">
-        <v>102</v>
-      </c>
-      <c r="D13" s="24" cm="1">
+        <v>BPAC11</v>
+      </c>
+      <c r="B13" s="15">
+        <v>18.29</v>
+      </c>
+      <c r="C13" s="15">
+        <v>35</v>
+      </c>
+      <c r="D13" s="14" cm="1">
         <f t="array" ref="D13">_FV(E13,"Preço")</f>
-        <v>79.28</v>
-      </c>
-      <c r="E13" s="8" t="e" vm="12">
+        <v>27.14</v>
+      </c>
+      <c r="E13" s="5" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str" cm="1">
         <f t="array" ref="A14">_FV(E14,"Símbolo do ticker",TRUE)</f>
-        <v>CACR11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>95</v>
-      </c>
-      <c r="C14" s="3">
-        <v>107</v>
-      </c>
-      <c r="D14" s="24" cm="1">
+        <v>BPAN4</v>
+      </c>
+      <c r="B14" s="15">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C14" s="15">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14" cm="1">
         <f t="array" ref="D14">_FV(E14,"Preço")</f>
-        <v>105.97</v>
-      </c>
-      <c r="E14" s="7" t="e" vm="13">
+        <v>6.63</v>
+      </c>
+      <c r="E14" s="6" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str" cm="1">
         <f t="array" ref="A15">_FV(E15,"Símbolo do ticker",TRUE)</f>
-        <v>CSAN3</v>
-      </c>
-      <c r="B15" s="20">
-        <v>13.28</v>
-      </c>
-      <c r="C15" s="22">
-        <v>21.49</v>
-      </c>
-      <c r="D15" s="24" cm="1">
+        <v>BRCR11</v>
+      </c>
+      <c r="B15" s="16">
+        <v>50.7</v>
+      </c>
+      <c r="C15" s="16">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D15" s="14" cm="1">
         <f t="array" ref="D15">_FV(E15,"Preço")</f>
-        <v>15.68</v>
-      </c>
-      <c r="E15" s="9" t="e" vm="14">
+        <v>58.49</v>
+      </c>
+      <c r="E15" s="5" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str" cm="1">
         <f t="array" ref="A16">_FV(E16,"Símbolo do ticker",TRUE)</f>
-        <v>ELET6</v>
-      </c>
-      <c r="B16" s="20">
-        <v>31.92</v>
-      </c>
-      <c r="C16" s="22">
-        <v>52.79</v>
-      </c>
-      <c r="D16" s="24" cm="1">
+        <v>BRKM5</v>
+      </c>
+      <c r="B16" s="15">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15">
+        <v>47</v>
+      </c>
+      <c r="D16" s="14" cm="1">
         <f t="array" ref="D16">_FV(E16,"Preço")</f>
-        <v>39.81</v>
-      </c>
-      <c r="E16" s="9" t="e" vm="15">
+        <v>22.97</v>
+      </c>
+      <c r="E16" s="5" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str" cm="1">
         <f t="array" ref="A17">_FV(E17,"Símbolo do ticker",TRUE)</f>
-        <v>FGAA11</v>
-      </c>
-      <c r="B17" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="D17" s="24" cm="1">
+        <v>BRSR6</v>
+      </c>
+      <c r="B17" s="15">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="C17" s="15">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14" cm="1">
         <f t="array" ref="D17">_FV(E17,"Preço")</f>
-        <v>9.61</v>
-      </c>
-      <c r="E17" s="8" t="e" vm="16">
+        <v>12.09</v>
+      </c>
+      <c r="E17" s="6" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str" cm="1">
         <f t="array" ref="A18">_FV(E18,"Símbolo do ticker",TRUE)</f>
-        <v>FLRY3</v>
-      </c>
-      <c r="B18" s="20">
-        <v>13.66</v>
-      </c>
-      <c r="C18" s="22">
-        <v>20</v>
-      </c>
-      <c r="D18" s="24" cm="1">
+        <v>BTCI11</v>
+      </c>
+      <c r="B18" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="C18" s="16">
+        <v>9.85</v>
+      </c>
+      <c r="D18" s="14" cm="1">
         <f t="array" ref="D18">_FV(E18,"Preço")</f>
-        <v>16.690000000000001</v>
-      </c>
-      <c r="E18" s="9" t="e" vm="17">
+        <v>9.33</v>
+      </c>
+      <c r="E18" s="4" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str" cm="1">
         <f t="array" ref="A19">_FV(E19,"Símbolo do ticker",TRUE)</f>
-        <v>GAME11</v>
-      </c>
-      <c r="B19" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10.09</v>
-      </c>
-      <c r="D19" s="24" cm="1">
+        <v>BTLG11</v>
+      </c>
+      <c r="B19" s="16">
+        <v>91.4</v>
+      </c>
+      <c r="C19" s="16">
+        <v>104.88</v>
+      </c>
+      <c r="D19" s="14" cm="1">
         <f t="array" ref="D19">_FV(E19,"Preço")</f>
-        <v>8.6</v>
-      </c>
-      <c r="E19" s="8" t="e" vm="18">
+        <v>98.22</v>
+      </c>
+      <c r="E19" s="6" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str" cm="1">
         <f t="array" ref="A20">_FV(E20,"Símbolo do ticker",TRUE)</f>
-        <v>GCRA11</v>
-      </c>
-      <c r="B20" s="3">
-        <v>91.3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>104</v>
-      </c>
-      <c r="D20" s="24" cm="1">
+        <v>BTRA11</v>
+      </c>
+      <c r="B20" s="16">
+        <v>76.8</v>
+      </c>
+      <c r="C20" s="16">
+        <v>102</v>
+      </c>
+      <c r="D20" s="14" cm="1">
         <f t="array" ref="D20">_FV(E20,"Preço")</f>
-        <v>93.62</v>
-      </c>
-      <c r="E20" s="8" t="e" vm="19">
+        <v>79.89</v>
+      </c>
+      <c r="E20" s="5" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="str" cm="1">
         <f t="array" ref="A21">_FV(E21,"Símbolo do ticker",TRUE)</f>
-        <v>GCRI11</v>
-      </c>
-      <c r="B21" s="3">
-        <v>87.8</v>
-      </c>
-      <c r="C21" s="3">
-        <v>99.6</v>
-      </c>
-      <c r="D21" s="24" cm="1">
+        <v>CACR11</v>
+      </c>
+      <c r="B21" s="16">
+        <v>95</v>
+      </c>
+      <c r="C21" s="16">
+        <v>107</v>
+      </c>
+      <c r="D21" s="14" cm="1">
         <f t="array" ref="D21">_FV(E21,"Preço")</f>
-        <v>89.4</v>
-      </c>
-      <c r="E21" s="7" t="e" vm="20">
+        <v>106.2</v>
+      </c>
+      <c r="E21" s="4" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str" cm="1">
         <f t="array" ref="A22">_FV(E22,"Símbolo do ticker",TRUE)</f>
-        <v>HGLG11</v>
-      </c>
-      <c r="B22" s="3">
-        <v>157</v>
-      </c>
-      <c r="C22" s="3">
-        <v>174</v>
-      </c>
-      <c r="D22" s="24" cm="1">
+        <v>CSAN3</v>
+      </c>
+      <c r="B22" s="15">
+        <v>13.28</v>
+      </c>
+      <c r="C22" s="15">
+        <v>21.49</v>
+      </c>
+      <c r="D22" s="14" cm="1">
         <f t="array" ref="D22">_FV(E22,"Preço")</f>
-        <v>159.66</v>
-      </c>
-      <c r="E22" s="9" t="e" vm="21">
+        <v>15.51</v>
+      </c>
+      <c r="E22" s="6" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="str" cm="1">
+      <c r="A23" s="21" t="str" cm="1">
         <f t="array" ref="A23">_FV(E23,"Símbolo do ticker",TRUE)</f>
-        <v>HGRU11</v>
-      </c>
-      <c r="B23" s="3">
-        <v>114.3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>129.35</v>
-      </c>
-      <c r="D23" s="24" cm="1">
+        <v>CVCB3</v>
+      </c>
+      <c r="B23" s="18">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C23" s="18">
+        <v>12</v>
+      </c>
+      <c r="D23" s="19" cm="1">
         <f t="array" ref="D23">_FV(E23,"Preço")</f>
-        <v>125</v>
-      </c>
-      <c r="E23" s="8" t="e" vm="22">
+        <v>2.98</v>
+      </c>
+      <c r="E23" s="20" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str" cm="1">
         <f t="array" ref="A24">_FV(E24,"Símbolo do ticker",TRUE)</f>
-        <v>HSLG11</v>
-      </c>
-      <c r="B24" s="3">
-        <v>74.3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>98.51</v>
-      </c>
-      <c r="D24" s="24" cm="1">
+        <v>CYRE3</v>
+      </c>
+      <c r="B24" s="15">
+        <v>11.3</v>
+      </c>
+      <c r="C24" s="15">
+        <v>20</v>
+      </c>
+      <c r="D24" s="14" cm="1">
         <f t="array" ref="D24">_FV(E24,"Preço")</f>
-        <v>87.5</v>
-      </c>
-      <c r="E24" s="10" t="e" vm="23">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="E24" s="5" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str" cm="1">
         <f t="array" ref="A25">_FV(E25,"Símbolo do ticker",TRUE)</f>
-        <v>HSML11</v>
-      </c>
-      <c r="B25" s="3">
-        <v>74.150000000000006</v>
-      </c>
-      <c r="C25" s="3">
-        <v>94.85</v>
-      </c>
-      <c r="D25" s="24" cm="1">
+        <v>DIRR3</v>
+      </c>
+      <c r="B25" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C25" s="15">
+        <v>20</v>
+      </c>
+      <c r="D25" s="14" cm="1">
         <f t="array" ref="D25">_FV(E25,"Preço")</f>
-        <v>86.75</v>
-      </c>
-      <c r="E25" s="10" t="e" vm="24">
+        <v>17.62</v>
+      </c>
+      <c r="E25" s="5" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str" cm="1">
         <f t="array" ref="A26">_FV(E26,"Símbolo do ticker",TRUE)</f>
-        <v>IBCR11</v>
-      </c>
-      <c r="B26" s="3">
-        <v>68.7</v>
-      </c>
-      <c r="C26" s="3">
-        <v>96</v>
-      </c>
-      <c r="D26" s="24" cm="1">
+        <v>ELET6</v>
+      </c>
+      <c r="B26" s="15">
+        <v>31.92</v>
+      </c>
+      <c r="C26" s="15">
+        <v>52.79</v>
+      </c>
+      <c r="D26" s="14" cm="1">
         <f t="array" ref="D26">_FV(E26,"Preço")</f>
-        <v>75.73</v>
-      </c>
-      <c r="E26" s="7" t="e" vm="25">
+        <v>39.32</v>
+      </c>
+      <c r="E26" s="6" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str" cm="1">
         <f t="array" ref="A27">_FV(E27,"Símbolo do ticker",TRUE)</f>
-        <v>IFRA11</v>
-      </c>
-      <c r="B27" s="3">
-        <v>93.63</v>
-      </c>
-      <c r="C27" s="3">
-        <v>109</v>
-      </c>
-      <c r="D27" s="24" cm="1">
+        <v>EQTL3</v>
+      </c>
+      <c r="B27" s="15">
+        <v>22</v>
+      </c>
+      <c r="C27" s="15">
+        <v>33</v>
+      </c>
+      <c r="D27" s="14" cm="1">
         <f t="array" ref="D27">_FV(E27,"Preço")</f>
-        <v>102.43</v>
-      </c>
-      <c r="E27" s="8" t="e" vm="26">
+        <v>28.9</v>
+      </c>
+      <c r="E27" s="5" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str" cm="1">
         <f t="array" ref="A28">_FV(E28,"Símbolo do ticker",TRUE)</f>
-        <v>ITSA4</v>
-      </c>
-      <c r="B28" s="20">
-        <v>7.15</v>
-      </c>
-      <c r="C28" s="22">
-        <v>10</v>
-      </c>
-      <c r="D28" s="24" cm="1">
+        <v>FGAA11</v>
+      </c>
+      <c r="B28" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="C28" s="16">
+        <v>10.9</v>
+      </c>
+      <c r="D28" s="14" cm="1">
         <f t="array" ref="D28">_FV(E28,"Preço")</f>
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="E28" s="9" t="e" vm="27">
+        <v>9.64</v>
+      </c>
+      <c r="E28" s="5" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str" cm="1">
         <f t="array" ref="A29">_FV(E29,"Símbolo do ticker",TRUE)</f>
-        <v>JGPX11</v>
-      </c>
-      <c r="B29" s="3">
-        <v>94.3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>98.9</v>
-      </c>
-      <c r="D29" s="24" cm="1">
+        <v>FLRY3</v>
+      </c>
+      <c r="B29" s="15">
+        <v>13.66</v>
+      </c>
+      <c r="C29" s="15">
+        <v>20</v>
+      </c>
+      <c r="D29" s="14" cm="1">
         <f t="array" ref="D29">_FV(E29,"Preço")</f>
-        <v>97.25</v>
-      </c>
-      <c r="E29" s="8" t="e" vm="28">
+        <v>16.48</v>
+      </c>
+      <c r="E29" s="6" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str" cm="1">
         <f t="array" ref="A30">_FV(E30,"Símbolo do ticker",TRUE)</f>
-        <v>JURO11</v>
-      </c>
-      <c r="B30" s="3">
-        <v>96.6</v>
-      </c>
-      <c r="C30" s="3">
-        <v>107.8</v>
-      </c>
-      <c r="D30" s="24" cm="1">
+        <v>GAME11</v>
+      </c>
+      <c r="B30" s="16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C30" s="16">
+        <v>10.09</v>
+      </c>
+      <c r="D30" s="14" cm="1">
         <f t="array" ref="D30">_FV(E30,"Preço")</f>
-        <v>101.51</v>
-      </c>
-      <c r="E30" s="8" t="e" vm="29">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E30" s="5" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str" cm="1">
         <f t="array" ref="A31">_FV(E31,"Símbolo do ticker",TRUE)</f>
-        <v>KDIF11</v>
-      </c>
-      <c r="B31" s="3">
-        <v>123.35</v>
-      </c>
-      <c r="C31" s="3">
-        <v>137</v>
-      </c>
-      <c r="D31" s="24" cm="1">
+        <v>GCRA11</v>
+      </c>
+      <c r="B31" s="16">
+        <v>91.3</v>
+      </c>
+      <c r="C31" s="16">
+        <v>104</v>
+      </c>
+      <c r="D31" s="14" cm="1">
         <f t="array" ref="D31">_FV(E31,"Preço")</f>
-        <v>131.30000000000001</v>
-      </c>
-      <c r="E31" s="8" t="e" vm="30">
+        <v>93.54</v>
+      </c>
+      <c r="E31" s="5" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str" cm="1">
         <f t="array" ref="A32">_FV(E32,"Símbolo do ticker",TRUE)</f>
-        <v>KEPL3</v>
-      </c>
-      <c r="B32" s="20">
-        <v>6.75</v>
-      </c>
-      <c r="C32" s="22">
-        <v>14.5</v>
-      </c>
-      <c r="D32" s="24" cm="1">
+        <v>GCRI11</v>
+      </c>
+      <c r="B32" s="16">
+        <v>87.8</v>
+      </c>
+      <c r="C32" s="16">
+        <v>99.6</v>
+      </c>
+      <c r="D32" s="14" cm="1">
         <f t="array" ref="D32">_FV(E32,"Preço")</f>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E32" s="9" t="e" vm="31">
+        <v>89.48</v>
+      </c>
+      <c r="E32" s="4" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str" cm="1">
         <f t="array" ref="A33">_FV(E33,"Símbolo do ticker",TRUE)</f>
-        <v>KNCA11</v>
-      </c>
-      <c r="B33" s="3">
-        <v>103</v>
-      </c>
-      <c r="C33" s="3">
-        <v>109</v>
-      </c>
-      <c r="D33" s="24" cm="1">
+        <v>GGBR4</v>
+      </c>
+      <c r="B33" s="15">
+        <v>19</v>
+      </c>
+      <c r="C33" s="15">
+        <v>33</v>
+      </c>
+      <c r="D33" s="14" cm="1">
         <f t="array" ref="D33">_FV(E33,"Preço")</f>
-        <v>105.75</v>
-      </c>
-      <c r="E33" s="7" t="e" vm="32">
+        <v>24.96</v>
+      </c>
+      <c r="E33" s="5" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="str" cm="1">
+      <c r="A34" s="3" t="str" cm="1">
         <f t="array" ref="A34">_FV(E34,"Símbolo do ticker",TRUE)</f>
-        <v>KNSC11</v>
-      </c>
-      <c r="B34" s="6">
-        <v>83.5</v>
-      </c>
-      <c r="C34" s="6">
-        <v>94.19</v>
-      </c>
-      <c r="D34" s="24" cm="1">
+        <v>GOAU4</v>
+      </c>
+      <c r="B34" s="24">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C34" s="24">
+        <v>15</v>
+      </c>
+      <c r="D34" s="14" cm="1">
         <f t="array" ref="D34">_FV(E34,"Preço")</f>
-        <v>88.45</v>
-      </c>
-      <c r="E34" s="13" t="e" vm="33">
+        <v>11.66</v>
+      </c>
+      <c r="E34" s="25" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str" cm="1">
         <f t="array" ref="A35">_FV(E35,"Símbolo do ticker",TRUE)</f>
-        <v>LVTC3</v>
-      </c>
-      <c r="B35" s="20">
-        <v>4.92</v>
-      </c>
-      <c r="C35" s="22">
-        <v>8.9</v>
-      </c>
-      <c r="D35" s="24" cm="1">
+        <v>HAPV3</v>
+      </c>
+      <c r="B35" s="15">
+        <v>1.94</v>
+      </c>
+      <c r="C35" s="15">
+        <v>10</v>
+      </c>
+      <c r="D35" s="14" cm="1">
         <f t="array" ref="D35">_FV(E35,"Preço")</f>
-        <v>5.35</v>
-      </c>
-      <c r="E35" s="9" t="e" vm="34">
+        <v>3.9</v>
+      </c>
+      <c r="E35" s="5" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="str" cm="1">
+      <c r="A36" s="21" t="str" cm="1">
         <f t="array" ref="A36">_FV(E36,"Símbolo do ticker",TRUE)</f>
-        <v>MORE11</v>
-      </c>
-      <c r="B36" s="3">
-        <v>59.3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>76.760000000000005</v>
-      </c>
-      <c r="D36" s="24" cm="1">
+        <v>HGLG11</v>
+      </c>
+      <c r="B36" s="22">
+        <v>157</v>
+      </c>
+      <c r="C36" s="22">
+        <v>174</v>
+      </c>
+      <c r="D36" s="19" cm="1">
         <f t="array" ref="D36">_FV(E36,"Preço")</f>
-        <v>66.14</v>
-      </c>
-      <c r="E36" s="11" t="e" vm="35">
+        <v>159.5</v>
+      </c>
+      <c r="E36" s="23" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="15"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="11"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str" cm="1">
         <f t="array" ref="A37">_FV(E37,"Símbolo do ticker",TRUE)</f>
-        <v>NCHB11</v>
-      </c>
-      <c r="B37" s="3">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3">
-        <v>97.91</v>
-      </c>
-      <c r="D37" s="24" cm="1">
+        <v>HGRU11</v>
+      </c>
+      <c r="B37" s="16">
+        <v>114.3</v>
+      </c>
+      <c r="C37" s="16">
+        <v>129.35</v>
+      </c>
+      <c r="D37" s="14" cm="1">
         <f t="array" ref="D37">_FV(E37,"Preço")</f>
-        <v>85.93</v>
-      </c>
-      <c r="E37" s="8" t="e" vm="36">
+        <v>124.83</v>
+      </c>
+      <c r="E37" s="5" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="15"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str" cm="1">
         <f t="array" ref="A38">_FV(E38,"Símbolo do ticker",TRUE)</f>
-        <v>OIBR3</v>
-      </c>
-      <c r="B38" s="20">
-        <v>1</v>
-      </c>
-      <c r="C38" s="22">
-        <v>7.6</v>
-      </c>
-      <c r="D38" s="24" cm="1">
+        <v>HSLG11</v>
+      </c>
+      <c r="B38" s="16">
+        <v>74.3</v>
+      </c>
+      <c r="C38" s="16">
+        <v>98.51</v>
+      </c>
+      <c r="D38" s="14" cm="1">
         <f t="array" ref="D38">_FV(E38,"Preço")</f>
-        <v>1.03</v>
-      </c>
-      <c r="E38" s="9" t="e" vm="37">
+        <v>87.59</v>
+      </c>
+      <c r="E38" s="7" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="15"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="11"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str" cm="1">
         <f t="array" ref="A39">_FV(E39,"Símbolo do ticker",TRUE)</f>
-        <v>QAGR11</v>
-      </c>
-      <c r="B39" s="3">
-        <v>41</v>
-      </c>
-      <c r="C39" s="3">
-        <v>47</v>
-      </c>
-      <c r="D39" s="24" cm="1">
+        <v>HSML11</v>
+      </c>
+      <c r="B39" s="16">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="C39" s="16">
+        <v>94.85</v>
+      </c>
+      <c r="D39" s="14" cm="1">
         <f t="array" ref="D39">_FV(E39,"Preço")</f>
-        <v>44.65</v>
+        <v>87.78</v>
       </c>
       <c r="E39" s="7" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="15"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str" cm="1">
         <f t="array" ref="A40">_FV(E40,"Símbolo do ticker",TRUE)</f>
-        <v>RBHG11</v>
-      </c>
-      <c r="B40" s="3">
-        <v>80</v>
-      </c>
-      <c r="C40" s="3">
-        <v>90.6</v>
-      </c>
-      <c r="D40" s="24" cm="1">
+        <v>IBCR11</v>
+      </c>
+      <c r="B40" s="16">
+        <v>68.7</v>
+      </c>
+      <c r="C40" s="16">
+        <v>96</v>
+      </c>
+      <c r="D40" s="14" cm="1">
         <f t="array" ref="D40">_FV(E40,"Preço")</f>
-        <v>82.15</v>
-      </c>
-      <c r="E40" s="7" t="e" vm="39">
+        <v>76.98</v>
+      </c>
+      <c r="E40" s="4" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="15"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="11"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str" cm="1">
         <f t="array" ref="A41">_FV(E41,"Símbolo do ticker",TRUE)</f>
-        <v>RBRP11</v>
-      </c>
-      <c r="B41" s="3">
-        <v>43.5</v>
-      </c>
-      <c r="C41" s="3">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="D41" s="24" cm="1">
+        <v>IFRA11</v>
+      </c>
+      <c r="B41" s="16">
+        <v>93.63</v>
+      </c>
+      <c r="C41" s="16">
+        <v>109</v>
+      </c>
+      <c r="D41" s="14" cm="1">
         <f t="array" ref="D41">_FV(E41,"Preço")</f>
-        <v>56.85</v>
-      </c>
-      <c r="E41" s="12" t="e" vm="40">
+        <v>102.42</v>
+      </c>
+      <c r="E41" s="5" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="15"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str" cm="1">
         <f t="array" ref="A42">_FV(E42,"Símbolo do ticker",TRUE)</f>
-        <v>RBRR11</v>
-      </c>
-      <c r="B42" s="3">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="C42" s="3">
-        <v>101.9</v>
-      </c>
-      <c r="D42" s="24" cm="1">
+        <v>ITSA4</v>
+      </c>
+      <c r="B42" s="15">
+        <v>7.15</v>
+      </c>
+      <c r="C42" s="15">
+        <v>10</v>
+      </c>
+      <c r="D42" s="14" cm="1">
         <f t="array" ref="D42">_FV(E42,"Preço")</f>
-        <v>91</v>
-      </c>
-      <c r="E42" s="8" t="e" vm="41">
+        <v>8.98</v>
+      </c>
+      <c r="E42" s="6" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="15"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="11"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="str" cm="1">
         <f t="array" ref="A43">_FV(E43,"Símbolo do ticker",TRUE)</f>
-        <v>RCRB11</v>
-      </c>
-      <c r="B43" s="3">
-        <v>107.8</v>
-      </c>
-      <c r="C43" s="3">
-        <v>149</v>
-      </c>
-      <c r="D43" s="24" cm="1">
+        <v>JGPX11</v>
+      </c>
+      <c r="B43" s="16">
+        <v>94.3</v>
+      </c>
+      <c r="C43" s="16">
+        <v>98.9</v>
+      </c>
+      <c r="D43" s="14" cm="1">
         <f t="array" ref="D43">_FV(E43,"Preço")</f>
-        <v>135.4</v>
-      </c>
-      <c r="E43" s="8" t="e" vm="42">
+        <v>97.1</v>
+      </c>
+      <c r="E43" s="5" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="15"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="11"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="str" cm="1">
         <f t="array" ref="A44">_FV(E44,"Símbolo do ticker",TRUE)</f>
-        <v>RURA11</v>
-      </c>
-      <c r="B44" s="3">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="C44" s="3">
-        <v>10.75</v>
-      </c>
-      <c r="D44" s="24" cm="1">
+        <v>JURO11</v>
+      </c>
+      <c r="B44" s="16">
+        <v>96.6</v>
+      </c>
+      <c r="C44" s="16">
+        <v>107.8</v>
+      </c>
+      <c r="D44" s="14" cm="1">
         <f t="array" ref="D44">_FV(E44,"Preço")</f>
-        <v>10.27</v>
-      </c>
-      <c r="E44" s="7" t="e" vm="43">
+        <v>101.99</v>
+      </c>
+      <c r="E44" s="5" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="15"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="11"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="str" cm="1">
         <f t="array" ref="A45">_FV(E45,"Símbolo do ticker",TRUE)</f>
-        <v>SAPR11</v>
-      </c>
-      <c r="B45" s="20">
-        <v>15.8</v>
-      </c>
-      <c r="C45" s="22">
-        <v>22</v>
-      </c>
-      <c r="D45" s="24" cm="1">
+        <v>KDIF11</v>
+      </c>
+      <c r="B45" s="16">
+        <v>123.35</v>
+      </c>
+      <c r="C45" s="16">
+        <v>137</v>
+      </c>
+      <c r="D45" s="14" cm="1">
         <f t="array" ref="D45">_FV(E45,"Preço")</f>
-        <v>21.02</v>
-      </c>
-      <c r="E45" s="9" t="e" vm="44">
+        <v>130.04</v>
+      </c>
+      <c r="E45" s="5" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="15"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="str" cm="1">
         <f t="array" ref="A46">_FV(E46,"Símbolo do ticker",TRUE)</f>
-        <v>URPR11</v>
-      </c>
-      <c r="B46" s="3">
-        <v>87.6</v>
-      </c>
-      <c r="C46" s="3">
-        <v>115</v>
-      </c>
-      <c r="D46" s="24" cm="1">
+        <v>KEPL3</v>
+      </c>
+      <c r="B46" s="15">
+        <v>6.75</v>
+      </c>
+      <c r="C46" s="15">
+        <v>14.5</v>
+      </c>
+      <c r="D46" s="14" cm="1">
         <f t="array" ref="D46">_FV(E46,"Preço")</f>
-        <v>96.41</v>
-      </c>
-      <c r="E46" s="8" t="e" vm="45">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E46" s="6" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="15"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="11"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="str" cm="1">
         <f t="array" ref="A47">_FV(E47,"Símbolo do ticker",TRUE)</f>
-        <v>VALE3</v>
-      </c>
-      <c r="B47" s="20">
-        <v>64.5</v>
-      </c>
-      <c r="C47" s="22">
-        <v>96</v>
-      </c>
-      <c r="D47" s="24" cm="1">
+        <v>KNCA11</v>
+      </c>
+      <c r="B47" s="16">
+        <v>103</v>
+      </c>
+      <c r="C47" s="16">
+        <v>109</v>
+      </c>
+      <c r="D47" s="14" cm="1">
         <f t="array" ref="D47">_FV(E47,"Preço")</f>
-        <v>64.87</v>
-      </c>
-      <c r="E47" s="8" t="e" vm="46">
+        <v>105.97</v>
+      </c>
+      <c r="E47" s="4" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="15"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="11"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="str" cm="1">
         <f t="array" ref="A48">_FV(E48,"Símbolo do ticker",TRUE)</f>
-        <v>VILG11</v>
-      </c>
-      <c r="B48" s="3">
-        <v>83.2</v>
-      </c>
-      <c r="C48" s="3">
-        <v>110.75</v>
-      </c>
-      <c r="D48" s="24" cm="1">
+        <v>KNSC11</v>
+      </c>
+      <c r="B48" s="16">
+        <v>83.5</v>
+      </c>
+      <c r="C48" s="16">
+        <v>94.19</v>
+      </c>
+      <c r="D48" s="14" cm="1">
         <f t="array" ref="D48">_FV(E48,"Preço")</f>
-        <v>98.6</v>
-      </c>
-      <c r="E48" s="10" t="e" vm="47">
+        <v>89.44</v>
+      </c>
+      <c r="E48" s="7" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="15"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="11"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="str" cm="1">
+      <c r="A49" s="21" t="str" cm="1">
         <f t="array" ref="A49">_FV(E49,"Símbolo do ticker",TRUE)</f>
-        <v>VIVT3</v>
-      </c>
-      <c r="B49" s="20">
-        <v>35.47</v>
-      </c>
-      <c r="C49" s="22">
-        <v>52</v>
-      </c>
-      <c r="D49" s="24" cm="1">
+        <v>LVTC3</v>
+      </c>
+      <c r="B49" s="18">
+        <v>4.92</v>
+      </c>
+      <c r="C49" s="18">
+        <v>8.9</v>
+      </c>
+      <c r="D49" s="19" cm="1">
         <f t="array" ref="D49">_FV(E49,"Preço")</f>
-        <v>42.12</v>
-      </c>
-      <c r="E49" s="8" t="e" vm="48">
+        <v>5.49</v>
+      </c>
+      <c r="E49" s="23" t="e" vm="48">
         <v>#VALUE!</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="15"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="11"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="str" cm="1">
         <f t="array" ref="A50">_FV(E50,"Símbolo do ticker",TRUE)</f>
-        <v>XPCM11</v>
-      </c>
-      <c r="B50" s="3">
-        <v>12.23</v>
-      </c>
-      <c r="C50" s="3">
-        <v>21.71</v>
-      </c>
-      <c r="D50" s="24" cm="1">
+        <v>MORE11</v>
+      </c>
+      <c r="B50" s="16">
+        <v>59.3</v>
+      </c>
+      <c r="C50" s="16">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="D50" s="14" cm="1">
         <f t="array" ref="D50">_FV(E50,"Preço")</f>
-        <v>13.86</v>
-      </c>
-      <c r="E50" s="11" t="e" vm="49">
+        <v>66.53</v>
+      </c>
+      <c r="E50" s="8" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="15"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="11"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="str" cm="1">
         <f t="array" ref="A51">_FV(E51,"Símbolo do ticker",TRUE)</f>
+        <v>MTRE3</v>
+      </c>
+      <c r="B51" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="C51" s="15">
+        <v>6</v>
+      </c>
+      <c r="D51" s="14" cm="1">
+        <f t="array" ref="D51">_FV(E51,"Preço")</f>
+        <v>5.32</v>
+      </c>
+      <c r="E51" s="5" t="e" vm="50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="str" cm="1">
+        <f t="array" ref="A52">_FV(E52,"Símbolo do ticker",TRUE)</f>
+        <v>NCHB11</v>
+      </c>
+      <c r="B52" s="16">
+        <v>76</v>
+      </c>
+      <c r="C52" s="16">
+        <v>97.91</v>
+      </c>
+      <c r="D52" s="14" cm="1">
+        <f t="array" ref="D52">_FV(E52,"Preço")</f>
+        <v>86.38</v>
+      </c>
+      <c r="E52" s="5" t="e" vm="51">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="str" cm="1">
+        <f t="array" ref="A53">_FV(E53,"Símbolo do ticker",TRUE)</f>
+        <v>OIBR3</v>
+      </c>
+      <c r="B53" s="15">
+        <v>1</v>
+      </c>
+      <c r="C53" s="15">
+        <v>7.6</v>
+      </c>
+      <c r="D53" s="14" cm="1">
+        <f t="array" ref="D53">_FV(E53,"Preço")</f>
+        <v>1.03</v>
+      </c>
+      <c r="E53" s="6" t="e" vm="52">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="str" cm="1">
+        <f t="array" ref="A54">_FV(E54,"Símbolo do ticker",TRUE)</f>
+        <v>PETR4</v>
+      </c>
+      <c r="B54" s="15">
+        <v>16</v>
+      </c>
+      <c r="C54" s="15">
+        <v>35</v>
+      </c>
+      <c r="D54" s="14" cm="1">
+        <f t="array" ref="D54">_FV(E54,"Preço")</f>
+        <v>26.8</v>
+      </c>
+      <c r="E54" s="5" t="e" vm="53">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="str" cm="1">
+        <f t="array" ref="A55">_FV(E55,"Símbolo do ticker",TRUE)</f>
+        <v>QAGR11</v>
+      </c>
+      <c r="B55" s="16">
+        <v>41</v>
+      </c>
+      <c r="C55" s="16">
+        <v>47</v>
+      </c>
+      <c r="D55" s="14" cm="1">
+        <f t="array" ref="D55">_FV(E55,"Preço")</f>
+        <v>45.09</v>
+      </c>
+      <c r="E55" s="4" t="e" vm="54">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="str" cm="1">
+        <f t="array" ref="A56">_FV(E56,"Símbolo do ticker",TRUE)</f>
+        <v>RBHG11</v>
+      </c>
+      <c r="B56" s="16">
+        <v>80</v>
+      </c>
+      <c r="C56" s="16">
+        <v>90.6</v>
+      </c>
+      <c r="D56" s="14" cm="1">
+        <f t="array" ref="D56">_FV(E56,"Preço")</f>
+        <v>82.6</v>
+      </c>
+      <c r="E56" s="4" t="e" vm="55">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="str" cm="1">
+        <f t="array" ref="A57">_FV(E57,"Símbolo do ticker",TRUE)</f>
+        <v>RBRP11</v>
+      </c>
+      <c r="B57" s="16">
+        <v>43.5</v>
+      </c>
+      <c r="C57" s="16">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D57" s="14" cm="1">
+        <f t="array" ref="D57">_FV(E57,"Preço")</f>
+        <v>56.5</v>
+      </c>
+      <c r="E57" s="9" t="e" vm="56">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="str" cm="1">
+        <f t="array" ref="A58">_FV(E58,"Símbolo do ticker",TRUE)</f>
+        <v>RBRR11</v>
+      </c>
+      <c r="B58" s="16">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C58" s="16">
+        <v>101.9</v>
+      </c>
+      <c r="D58" s="14" cm="1">
+        <f t="array" ref="D58">_FV(E58,"Preço")</f>
+        <v>90.21</v>
+      </c>
+      <c r="E58" s="5" t="e" vm="57">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="str" cm="1">
+        <f t="array" ref="A59">_FV(E59,"Símbolo do ticker",TRUE)</f>
+        <v>RCRB11</v>
+      </c>
+      <c r="B59" s="16">
+        <v>107.8</v>
+      </c>
+      <c r="C59" s="16">
+        <v>149</v>
+      </c>
+      <c r="D59" s="14" cm="1">
+        <f t="array" ref="D59">_FV(E59,"Preço")</f>
+        <v>137.99</v>
+      </c>
+      <c r="E59" s="5" t="e" vm="58">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="str" cm="1">
+        <f t="array" ref="A60">_FV(E60,"Símbolo do ticker",TRUE)</f>
+        <v>RRRP3</v>
+      </c>
+      <c r="B60" s="15">
+        <v>27.15</v>
+      </c>
+      <c r="C60" s="15">
+        <v>55</v>
+      </c>
+      <c r="D60" s="14" cm="1">
+        <f t="array" ref="D60">_FV(E60,"Preço")</f>
+        <v>30.7</v>
+      </c>
+      <c r="E60" s="5" t="e" vm="59">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="str" cm="1">
+        <f t="array" ref="A61">_FV(E61,"Símbolo do ticker",TRUE)</f>
+        <v>RURA11</v>
+      </c>
+      <c r="B61" s="16">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="C61" s="16">
+        <v>10.75</v>
+      </c>
+      <c r="D61" s="14" cm="1">
+        <f t="array" ref="D61">_FV(E61,"Preço")</f>
+        <v>10.31</v>
+      </c>
+      <c r="E61" s="4" t="e" vm="60">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="str" cm="1">
+        <f t="array" ref="A62">_FV(E62,"Símbolo do ticker",TRUE)</f>
+        <v>SAPR11</v>
+      </c>
+      <c r="B62" s="15">
+        <v>15.8</v>
+      </c>
+      <c r="C62" s="15">
+        <v>22</v>
+      </c>
+      <c r="D62" s="14" cm="1">
+        <f t="array" ref="D62">_FV(E62,"Preço")</f>
+        <v>20.87</v>
+      </c>
+      <c r="E62" s="6" t="e" vm="61">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="str" cm="1">
+        <f t="array" ref="A63">_FV(E63,"Símbolo do ticker",TRUE)</f>
+        <v>SBFG3</v>
+      </c>
+      <c r="B63" s="15">
+        <v>7.1</v>
+      </c>
+      <c r="C63" s="15">
+        <v>27</v>
+      </c>
+      <c r="D63" s="14" cm="1">
+        <f t="array" ref="D63">_FV(E63,"Preço")</f>
+        <v>10.06</v>
+      </c>
+      <c r="E63" s="5" t="e" vm="62">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="str" cm="1">
+        <f t="array" ref="A64">_FV(E64,"Símbolo do ticker",TRUE)</f>
+        <v>SMAL11</v>
+      </c>
+      <c r="B64" s="27">
+        <v>83</v>
+      </c>
+      <c r="C64" s="27">
+        <v>115</v>
+      </c>
+      <c r="D64" s="28" cm="1">
+        <f t="array" ref="D64">_FV(E64,"Preço")</f>
+        <v>101.45</v>
+      </c>
+      <c r="E64" s="29" t="e" vm="63">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="str" cm="1">
+        <f t="array" ref="A65">_FV(E65,"Símbolo do ticker",TRUE)</f>
+        <v>URPR11</v>
+      </c>
+      <c r="B65" s="16">
+        <v>87.6</v>
+      </c>
+      <c r="C65" s="16">
+        <v>115</v>
+      </c>
+      <c r="D65" s="14" cm="1">
+        <f t="array" ref="D65">_FV(E65,"Preço")</f>
+        <v>96.83</v>
+      </c>
+      <c r="E65" s="5" t="e" vm="64">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="str" cm="1">
+        <f t="array" ref="A66">_FV(E66,"Símbolo do ticker",TRUE)</f>
+        <v>VALE3</v>
+      </c>
+      <c r="B66" s="15">
+        <v>64.5</v>
+      </c>
+      <c r="C66" s="15">
+        <v>96</v>
+      </c>
+      <c r="D66" s="14" cm="1">
+        <f t="array" ref="D66">_FV(E66,"Preço")</f>
+        <v>66.33</v>
+      </c>
+      <c r="E66" s="5" t="e" vm="65">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="str" cm="1">
+        <f t="array" ref="A67">_FV(E67,"Símbolo do ticker",TRUE)</f>
+        <v>VILG11</v>
+      </c>
+      <c r="B67" s="16">
+        <v>83.2</v>
+      </c>
+      <c r="C67" s="16">
+        <v>110.75</v>
+      </c>
+      <c r="D67" s="14" cm="1">
+        <f t="array" ref="D67">_FV(E67,"Preço")</f>
+        <v>98.58</v>
+      </c>
+      <c r="E67" s="7" t="e" vm="66">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="str" cm="1">
+        <f t="array" ref="A68">_FV(E68,"Símbolo do ticker",TRUE)</f>
+        <v>VIVT3</v>
+      </c>
+      <c r="B68" s="15">
+        <v>35.47</v>
+      </c>
+      <c r="C68" s="15">
+        <v>52</v>
+      </c>
+      <c r="D68" s="14" cm="1">
+        <f t="array" ref="D68">_FV(E68,"Preço")</f>
+        <v>41.87</v>
+      </c>
+      <c r="E68" s="5" t="e" vm="67">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="str" cm="1">
+        <f t="array" ref="A69">_FV(E69,"Símbolo do ticker",TRUE)</f>
+        <v>VULC3</v>
+      </c>
+      <c r="B69" s="15">
+        <v>9.98</v>
+      </c>
+      <c r="C69" s="15">
+        <v>18</v>
+      </c>
+      <c r="D69" s="14" cm="1">
+        <f t="array" ref="D69">_FV(E69,"Preço")</f>
+        <v>15.68</v>
+      </c>
+      <c r="E69" s="5" t="e" vm="68">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="str" cm="1">
+        <f t="array" ref="A70">_FV(E70,"Símbolo do ticker",TRUE)</f>
+        <v>WEGE3</v>
+      </c>
+      <c r="B70" s="15">
+        <v>22</v>
+      </c>
+      <c r="C70" s="15">
+        <v>42</v>
+      </c>
+      <c r="D70" s="14" cm="1">
+        <f t="array" ref="D70">_FV(E70,"Preço")</f>
+        <v>39.51</v>
+      </c>
+      <c r="E70" s="5" t="e" vm="69">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="str" cm="1">
+        <f t="array" ref="A71">_FV(E71,"Símbolo do ticker",TRUE)</f>
+        <v>XPCM11</v>
+      </c>
+      <c r="B71" s="16">
+        <v>12.23</v>
+      </c>
+      <c r="C71" s="16">
+        <v>21.71</v>
+      </c>
+      <c r="D71" s="14" cm="1">
+        <f t="array" ref="D71">_FV(E71,"Preço")</f>
+        <v>14</v>
+      </c>
+      <c r="E71" s="8" t="e" vm="70">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="str" cm="1">
+        <f t="array" ref="A72">_FV(E72,"Símbolo do ticker",TRUE)</f>
         <v>YDUQ3</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B72" s="15">
         <v>6.55</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C72" s="15">
         <v>50.5</v>
       </c>
-      <c r="D51" s="24" cm="1">
-        <f t="array" ref="D51">_FV(E51,"Preço")</f>
-        <v>13.8</v>
-      </c>
-      <c r="E51" s="9" t="e" vm="50">
+      <c r="D72" s="14" cm="1">
+        <f t="array" ref="D72">_FV(E72,"Preço")</f>
+        <v>14.08</v>
+      </c>
+      <c r="E72" s="6" t="e" vm="71">
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="15"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
-    <sortCondition ref="A1:A71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E72">
+    <sortCondition ref="A1:A72"/>
   </sortState>
   <conditionalFormatting sqref="E35">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
@@ -5474,74 +7502,95 @@
       <formula>-0.33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C51">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="C36:C72">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"COMPRAR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:M51">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:M51">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>-0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" display="https://statusinvest.com.br/fiagros/GCRA11" xr:uid="{37867A08-F78A-4F6C-AE22-5529606A07B7}"/>
-    <hyperlink ref="A40" r:id="rId2" display="https://statusinvest.com.br/fundos-imobiliarios/HGCR11" xr:uid="{C57A6842-7B6A-42D7-A134-A228444C6CCF}"/>
-    <hyperlink ref="A19" r:id="rId3" display="https://statusinvest.com.br/fundos-imobiliarios/game11" xr:uid="{D468A2B7-71E9-4926-8E1C-206BBC21689A}"/>
-    <hyperlink ref="A21" r:id="rId4" display="https://statusinvest.com.br/fundos-imobiliarios/GCRI11" xr:uid="{242305FD-7004-4783-9516-F90217130C96}"/>
-    <hyperlink ref="A14" r:id="rId5" display="https://statusinvest.com.br/fundos-imobiliarios/CACR11" xr:uid="{4C532622-0D38-4C86-93B9-63E02B43ECB9}"/>
-    <hyperlink ref="A23" r:id="rId6" display="https://statusinvest.com.br/fundos-imobiliarios/hgru11" xr:uid="{4E9FFD31-8456-4251-BA5A-4F6205393CF3}"/>
-    <hyperlink ref="A41" r:id="rId7" display="https://statusinvest.com.br/fundos-imobiliarios/rbrp11" xr:uid="{C39CC258-8E89-4C26-8DEE-D16885A8A405}"/>
-    <hyperlink ref="A36" r:id="rId8" display="https://statusinvest.com.br/fundos-imobiliarios/more11" xr:uid="{CB801CCB-368F-408A-A583-7E603ADF1F5D}"/>
-    <hyperlink ref="A50" r:id="rId9" display="https://statusinvest.com.br/fundos-imobiliarios/xpcm11" xr:uid="{83CA8420-26D3-4C5A-B66B-05C68309C711}"/>
-    <hyperlink ref="A17" r:id="rId10" display="https://statusinvest.com.br/fiagros/fgaa11" xr:uid="{00025C9C-6A7C-42B7-A77C-CED9AE28FCB2}"/>
-    <hyperlink ref="A43" r:id="rId11" display="https://statusinvest.com.br/fundos-imobiliarios/RCRB11" xr:uid="{3B81E834-8955-4F98-A47E-F0EAB1522405}"/>
-    <hyperlink ref="A31" r:id="rId12" display="https://statusinvest.com.br/fiinfras/kdif11" xr:uid="{525201B5-BAC2-4A07-B3B3-CA010AAB112F}"/>
-    <hyperlink ref="A22" r:id="rId13" display="https://statusinvest.com.br/fundos-imobiliarios/HGLG11" xr:uid="{6B72F58D-76EE-46EC-BA4E-CEA9CD1356B3}"/>
-    <hyperlink ref="A48" r:id="rId14" display="https://statusinvest.com.br/fundos-imobiliarios/VILG11" xr:uid="{B530E056-71ED-406A-BDCF-577711F8BAF6}"/>
-    <hyperlink ref="A6" r:id="rId15" display="https://statusinvest.com.br/fiinfras/bdif11" xr:uid="{929CAF35-5F95-4D9C-B740-9A89A7A3EC2D}"/>
-    <hyperlink ref="A27" r:id="rId16" display="https://statusinvest.com.br/fiinfras/ifra11" xr:uid="{6B02CAB3-5A31-467C-99B9-41244A564962}"/>
-    <hyperlink ref="A33" r:id="rId17" display="https://statusinvest.com.br/fiagros/knca11" xr:uid="{0A2F9697-938B-4CDE-B6FF-97C4F10B5BC7}"/>
-    <hyperlink ref="A44" r:id="rId18" display="https://statusinvest.com.br/fiagros/rura11" xr:uid="{2734B0CE-2173-4B5C-9DA9-FEA46A903CF9}"/>
-    <hyperlink ref="A39" r:id="rId19" display="https://statusinvest.com.br/fundos-imobiliarios/QAGR11" xr:uid="{18AF0959-2CCE-4B44-B953-F5698FADC0D5}"/>
-    <hyperlink ref="A9" r:id="rId20" display="https://statusinvest.com.br/fundos-imobiliarios/BRCR11" xr:uid="{8DAABA98-FEBD-4F54-AF75-9C7BA8E6E5AF}"/>
-    <hyperlink ref="A25" r:id="rId21" display="https://statusinvest.com.br/fundos-imobiliarios/HSML11" xr:uid="{9AA6E87B-4161-434A-BB49-24BC875537B9}"/>
-    <hyperlink ref="A46" r:id="rId22" display="https://statusinvest.com.br/fundos-imobiliarios/URPR11" xr:uid="{A600BD23-1718-43E6-8159-577C95919379}"/>
-    <hyperlink ref="A42" r:id="rId23" display="https://statusinvest.com.br/fundos-imobiliarios/RBRR11" xr:uid="{EDF1B14D-389E-4028-AB5D-B0C9AD515737}"/>
-    <hyperlink ref="A37" r:id="rId24" display="https://statusinvest.com.br/fundos-imobiliarios/NCHB11" xr:uid="{5C3AC67A-06C5-4B8F-B4E2-031E17E4E49C}"/>
-    <hyperlink ref="A34" r:id="rId25" display="https://statusinvest.com.br/fundos-imobiliarios/KNSC11" xr:uid="{2E399481-DB67-4583-A530-CC875A26BF79}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://statusinvest.com.br/fundos-imobiliarios/IBCR11" xr:uid="{CC4B5516-1CFF-4EDF-BC1F-A3DE51595036}"/>
-    <hyperlink ref="A11" r:id="rId27" display="https://statusinvest.com.br/fundos-imobiliarios/BTCI11" xr:uid="{989B0B80-25E4-409C-9198-9C8CA4A7A40C}"/>
-    <hyperlink ref="A3" r:id="rId28" display="https://statusinvest.com.br/fundos-imobiliarios/BARI11" xr:uid="{D95B514D-9EFE-4D76-A950-EE74A3AA0702}"/>
-    <hyperlink ref="A24" r:id="rId29" display="https://statusinvest.com.br/fundos-imobiliarios/HSLG11" xr:uid="{337B5A0D-D5EA-4273-B801-CE72464A6C36}"/>
-    <hyperlink ref="A12" r:id="rId30" display="https://statusinvest.com.br/fundos-imobiliarios/BTLG11" xr:uid="{72EF9BA3-B870-4588-AA92-247E85872037}"/>
-    <hyperlink ref="A30" r:id="rId31" display="https://statusinvest.com.br/fiinfras/juro11" xr:uid="{F8A07419-0E63-45BA-BAC0-F92D165A03E3}"/>
-    <hyperlink ref="A7" r:id="rId32" display="https://statusinvest.com.br/fiinfras/bidb11" xr:uid="{6943DD87-C5C0-4010-BE56-61C490ECB08A}"/>
-    <hyperlink ref="A29" r:id="rId33" display="https://statusinvest.com.br/fiagros/JGPX11" xr:uid="{16E3E585-AD99-4111-A70B-881BC3A4EBE2}"/>
-    <hyperlink ref="A13" r:id="rId34" display="https://statusinvest.com.br/fundos-imobiliarios/BTRA11" xr:uid="{6DBF7909-4C03-4D60-A684-D1D19EF8887D}"/>
-    <hyperlink ref="A2" r:id="rId35" display="https://statusinvest.com.br/acoes/azul4" xr:uid="{EDF8C745-6B43-4592-A0E6-0706B44C914C}"/>
-    <hyperlink ref="A5" r:id="rId36" display="https://statusinvest.com.br/acoes/bbse3" xr:uid="{75263A59-7312-4BD6-8075-5C1C77814BAA}"/>
-    <hyperlink ref="A8" r:id="rId37" display="https://statusinvest.com.br/acoes/bpan4" xr:uid="{DE70F0E2-7CFB-485D-B5F4-FF08EE8BF212}"/>
-    <hyperlink ref="A10" r:id="rId38" display="https://statusinvest.com.br/acoes/brsr6" xr:uid="{9FEA3403-AAB5-4DCC-82C9-7C42E96FA3E6}"/>
-    <hyperlink ref="A28" r:id="rId39" display="https://statusinvest.com.br/acoes/itsa4" xr:uid="{AD38701C-1B6B-4259-823B-7F13DD90C54B}"/>
-    <hyperlink ref="A47" r:id="rId40" display="https://statusinvest.com.br/acoes/vale3" xr:uid="{B9659F77-5F95-46DB-AA9A-FC4573812602}"/>
-    <hyperlink ref="A49" r:id="rId41" display="https://statusinvest.com.br/acoes/vivt3" xr:uid="{7D7B8583-77DA-409E-AAB3-E42308A90AD6}"/>
-    <hyperlink ref="A4" r:id="rId42" display="https://statusinvest.com.br/acoes/bbas3" xr:uid="{0AC3C98A-A3D7-49E7-9AF0-7E4E625ECB4C}"/>
-    <hyperlink ref="A18" r:id="rId43" display="https://statusinvest.com.br/acoes/flry3" xr:uid="{334846D2-C70B-4B11-81DE-8EFC570D9ED0}"/>
-    <hyperlink ref="A32" r:id="rId44" display="https://statusinvest.com.br/acoes/kepl3" xr:uid="{1F8612F6-407D-4249-BF01-90AB4F41E738}"/>
-    <hyperlink ref="A35" r:id="rId45" display="https://statusinvest.com.br/acoes/lvtc3" xr:uid="{5A99156C-9CD7-46D7-A948-04A12F03ECE5}"/>
-    <hyperlink ref="A38" r:id="rId46" display="https://statusinvest.com.br/acoes/oibr3" xr:uid="{39273C70-C106-495D-AA4C-13E1688B2D49}"/>
-    <hyperlink ref="A51" r:id="rId47" display="https://statusinvest.com.br/acoes/yduq3" xr:uid="{9AEBED09-18D6-4F0D-9A89-A6B5577666DB}"/>
-    <hyperlink ref="A15" r:id="rId48" display="https://statusinvest.com.br/acoes/csan3" xr:uid="{4872D92D-C6F6-4F74-9FA6-BB0F636B57E7}"/>
-    <hyperlink ref="A16" r:id="rId49" display="https://statusinvest.com.br/acoes/elet6" xr:uid="{4432EC44-A14E-48AB-9C89-E738CFC30AAA}"/>
-    <hyperlink ref="A45" r:id="rId50" display="https://statusinvest.com.br/acoes/sapr11" xr:uid="{9B6A5FEF-6371-4D46-8683-A633FC987288}"/>
+    <hyperlink ref="A31" r:id="rId1" display="https://statusinvest.com.br/fiagros/GCRA11" xr:uid="{37867A08-F78A-4F6C-AE22-5529606A07B7}"/>
+    <hyperlink ref="A56" r:id="rId2" display="https://statusinvest.com.br/fundos-imobiliarios/rbhg11" xr:uid="{C57A6842-7B6A-42D7-A134-A228444C6CCF}"/>
+    <hyperlink ref="A30" r:id="rId3" display="https://statusinvest.com.br/fundos-imobiliarios/game11" xr:uid="{D468A2B7-71E9-4926-8E1C-206BBC21689A}"/>
+    <hyperlink ref="A32" r:id="rId4" display="https://statusinvest.com.br/fundos-imobiliarios/GCRI11" xr:uid="{242305FD-7004-4783-9516-F90217130C96}"/>
+    <hyperlink ref="A21" r:id="rId5" display="https://statusinvest.com.br/fundos-imobiliarios/CACR11" xr:uid="{4C532622-0D38-4C86-93B9-63E02B43ECB9}"/>
+    <hyperlink ref="A37" r:id="rId6" display="https://statusinvest.com.br/fundos-imobiliarios/hgru11" xr:uid="{4E9FFD31-8456-4251-BA5A-4F6205393CF3}"/>
+    <hyperlink ref="A57" r:id="rId7" display="https://statusinvest.com.br/fundos-imobiliarios/rbrp11" xr:uid="{C39CC258-8E89-4C26-8DEE-D16885A8A405}"/>
+    <hyperlink ref="A50" r:id="rId8" display="https://statusinvest.com.br/fundos-imobiliarios/more11" xr:uid="{CB801CCB-368F-408A-A583-7E603ADF1F5D}"/>
+    <hyperlink ref="A71" r:id="rId9" display="https://statusinvest.com.br/fundos-imobiliarios/xpcm11" xr:uid="{83CA8420-26D3-4C5A-B66B-05C68309C711}"/>
+    <hyperlink ref="A28" r:id="rId10" display="https://statusinvest.com.br/fiagros/fgaa11" xr:uid="{00025C9C-6A7C-42B7-A77C-CED9AE28FCB2}"/>
+    <hyperlink ref="A59" r:id="rId11" display="https://statusinvest.com.br/fundos-imobiliarios/RCRB11" xr:uid="{3B81E834-8955-4F98-A47E-F0EAB1522405}"/>
+    <hyperlink ref="A45" r:id="rId12" display="https://statusinvest.com.br/fiinfras/kdif11" xr:uid="{525201B5-BAC2-4A07-B3B3-CA010AAB112F}"/>
+    <hyperlink ref="A36" r:id="rId13" display="https://statusinvest.com.br/fundos-imobiliarios/HGLG11" xr:uid="{6B72F58D-76EE-46EC-BA4E-CEA9CD1356B3}"/>
+    <hyperlink ref="A67" r:id="rId14" display="https://statusinvest.com.br/fundos-imobiliarios/VILG11" xr:uid="{B530E056-71ED-406A-BDCF-577711F8BAF6}"/>
+    <hyperlink ref="A10" r:id="rId15" display="https://statusinvest.com.br/fiinfras/bdif11" xr:uid="{929CAF35-5F95-4D9C-B740-9A89A7A3EC2D}"/>
+    <hyperlink ref="A41" r:id="rId16" display="https://statusinvest.com.br/fiinfras/ifra11" xr:uid="{6B02CAB3-5A31-467C-99B9-41244A564962}"/>
+    <hyperlink ref="A47" r:id="rId17" display="https://statusinvest.com.br/fiagros/knca11" xr:uid="{0A2F9697-938B-4CDE-B6FF-97C4F10B5BC7}"/>
+    <hyperlink ref="A61" r:id="rId18" display="https://statusinvest.com.br/fiagros/rura11" xr:uid="{2734B0CE-2173-4B5C-9DA9-FEA46A903CF9}"/>
+    <hyperlink ref="A55" r:id="rId19" display="https://statusinvest.com.br/fundos-imobiliarios/QAGR11" xr:uid="{18AF0959-2CCE-4B44-B953-F5698FADC0D5}"/>
+    <hyperlink ref="A15" r:id="rId20" display="https://statusinvest.com.br/fundos-imobiliarios/BRCR11" xr:uid="{8DAABA98-FEBD-4F54-AF75-9C7BA8E6E5AF}"/>
+    <hyperlink ref="A39" r:id="rId21" display="https://statusinvest.com.br/fundos-imobiliarios/HSML11" xr:uid="{9AA6E87B-4161-434A-BB49-24BC875537B9}"/>
+    <hyperlink ref="A65" r:id="rId22" display="https://statusinvest.com.br/fundos-imobiliarios/URPR11" xr:uid="{A600BD23-1718-43E6-8159-577C95919379}"/>
+    <hyperlink ref="A58" r:id="rId23" display="https://statusinvest.com.br/fundos-imobiliarios/RBRR11" xr:uid="{EDF1B14D-389E-4028-AB5D-B0C9AD515737}"/>
+    <hyperlink ref="A52" r:id="rId24" display="https://statusinvest.com.br/fundos-imobiliarios/NCHB11" xr:uid="{5C3AC67A-06C5-4B8F-B4E2-031E17E4E49C}"/>
+    <hyperlink ref="A48" r:id="rId25" display="https://statusinvest.com.br/fundos-imobiliarios/KNSC11" xr:uid="{2E399481-DB67-4583-A530-CC875A26BF79}"/>
+    <hyperlink ref="A40" r:id="rId26" display="https://statusinvest.com.br/fundos-imobiliarios/IBCR11" xr:uid="{CC4B5516-1CFF-4EDF-BC1F-A3DE51595036}"/>
+    <hyperlink ref="A18" r:id="rId27" display="https://statusinvest.com.br/fundos-imobiliarios/BTCI11" xr:uid="{989B0B80-25E4-409C-9198-9C8CA4A7A40C}"/>
+    <hyperlink ref="A7" r:id="rId28" display="https://statusinvest.com.br/fundos-imobiliarios/BARI11" xr:uid="{D95B514D-9EFE-4D76-A950-EE74A3AA0702}"/>
+    <hyperlink ref="A38" r:id="rId29" display="https://statusinvest.com.br/fundos-imobiliarios/HSLG11" xr:uid="{337B5A0D-D5EA-4273-B801-CE72464A6C36}"/>
+    <hyperlink ref="A19" r:id="rId30" display="https://statusinvest.com.br/fundos-imobiliarios/BTLG11" xr:uid="{72EF9BA3-B870-4588-AA92-247E85872037}"/>
+    <hyperlink ref="A44" r:id="rId31" display="https://statusinvest.com.br/fiinfras/juro11" xr:uid="{F8A07419-0E63-45BA-BAC0-F92D165A03E3}"/>
+    <hyperlink ref="A11" r:id="rId32" display="https://statusinvest.com.br/fiinfras/bidb11" xr:uid="{6943DD87-C5C0-4010-BE56-61C490ECB08A}"/>
+    <hyperlink ref="A43" r:id="rId33" display="https://statusinvest.com.br/fiagros/JGPX11" xr:uid="{16E3E585-AD99-4111-A70B-881BC3A4EBE2}"/>
+    <hyperlink ref="A20" r:id="rId34" display="https://statusinvest.com.br/fundos-imobiliarios/BTRA11" xr:uid="{6DBF7909-4C03-4D60-A684-D1D19EF8887D}"/>
+    <hyperlink ref="A5" r:id="rId35" display="https://statusinvest.com.br/acoes/azul4" xr:uid="{EDF8C745-6B43-4592-A0E6-0706B44C914C}"/>
+    <hyperlink ref="A9" r:id="rId36" display="https://statusinvest.com.br/acoes/bbse3" xr:uid="{75263A59-7312-4BD6-8075-5C1C77814BAA}"/>
+    <hyperlink ref="A14" r:id="rId37" display="https://statusinvest.com.br/acoes/bpan4" xr:uid="{DE70F0E2-7CFB-485D-B5F4-FF08EE8BF212}"/>
+    <hyperlink ref="A17" r:id="rId38" display="https://statusinvest.com.br/acoes/brsr6" xr:uid="{9FEA3403-AAB5-4DCC-82C9-7C42E96FA3E6}"/>
+    <hyperlink ref="A42" r:id="rId39" display="https://statusinvest.com.br/acoes/itsa4" xr:uid="{AD38701C-1B6B-4259-823B-7F13DD90C54B}"/>
+    <hyperlink ref="A66" r:id="rId40" display="https://statusinvest.com.br/acoes/vale3" xr:uid="{B9659F77-5F95-46DB-AA9A-FC4573812602}"/>
+    <hyperlink ref="A68" r:id="rId41" display="https://statusinvest.com.br/acoes/vivt3" xr:uid="{7D7B8583-77DA-409E-AAB3-E42308A90AD6}"/>
+    <hyperlink ref="A8" r:id="rId42" display="https://statusinvest.com.br/acoes/bbas3" xr:uid="{0AC3C98A-A3D7-49E7-9AF0-7E4E625ECB4C}"/>
+    <hyperlink ref="A29" r:id="rId43" display="https://statusinvest.com.br/acoes/flry3" xr:uid="{334846D2-C70B-4B11-81DE-8EFC570D9ED0}"/>
+    <hyperlink ref="A46" r:id="rId44" display="https://statusinvest.com.br/acoes/kepl3" xr:uid="{1F8612F6-407D-4249-BF01-90AB4F41E738}"/>
+    <hyperlink ref="A49" r:id="rId45" display="https://statusinvest.com.br/acoes/lvtc3" xr:uid="{5A99156C-9CD7-46D7-A948-04A12F03ECE5}"/>
+    <hyperlink ref="A53" r:id="rId46" display="https://statusinvest.com.br/acoes/oibr3" xr:uid="{39273C70-C106-495D-AA4C-13E1688B2D49}"/>
+    <hyperlink ref="A72" r:id="rId47" display="https://statusinvest.com.br/acoes/yduq3" xr:uid="{9AEBED09-18D6-4F0D-9A89-A6B5577666DB}"/>
+    <hyperlink ref="A22" r:id="rId48" display="https://statusinvest.com.br/acoes/csan3" xr:uid="{4872D92D-C6F6-4F74-9FA6-BB0F636B57E7}"/>
+    <hyperlink ref="A26" r:id="rId49" display="https://statusinvest.com.br/acoes/elet6" xr:uid="{4432EC44-A14E-48AB-9C89-E738CFC30AAA}"/>
+    <hyperlink ref="A62" r:id="rId50" display="https://statusinvest.com.br/acoes/sapr11" xr:uid="{9B6A5FEF-6371-4D46-8683-A633FC987288}"/>
+    <hyperlink ref="A51" r:id="rId51" display="https://statusinvest.com.br/acoes/mtre3" xr:uid="{E2962A99-34B9-4A3E-A6BC-BD7A9E6BD40A}"/>
+    <hyperlink ref="A34" r:id="rId52" display="https://statusinvest.com.br/acoes/yduq3" xr:uid="{C8B692C5-6D12-4398-93F2-BDD2A5DD3F99}"/>
+    <hyperlink ref="A27" r:id="rId53" display="https://statusinvest.com.br/acoes/eqtl3" xr:uid="{ABD703DF-458A-4EB5-9CD8-47267CFC026B}"/>
+    <hyperlink ref="A25" r:id="rId54" display="https://statusinvest.com.br/acoes/dirr3" xr:uid="{455AFD04-B9EC-4601-BCA6-8420E200A748}"/>
+    <hyperlink ref="A13" r:id="rId55" display="https://statusinvest.com.br/acoes/bpac11" xr:uid="{20679E3D-C58A-4C7B-B37D-3A2CCBEC3A93}"/>
+    <hyperlink ref="A6" r:id="rId56" display="https://statusinvest.com.br/acoes/b3sa3" xr:uid="{DDE1A9C9-4750-4C99-A6D5-B9E00894F216}"/>
+    <hyperlink ref="A60" r:id="rId57" display="https://statusinvest.com.br/acoes/rrrp3" xr:uid="{AE8A2F8E-6411-450A-8E6F-1A48CD9359D7}"/>
+    <hyperlink ref="A63" r:id="rId58" display="https://statusinvest.com.br/acoes/sbfg3" xr:uid="{846E3C8E-F09A-4DE2-B881-0E55AADA01C3}"/>
+    <hyperlink ref="A4" r:id="rId59" display="https://statusinvest.com.br/acoes/asai3" xr:uid="{591F7942-6527-482E-B3BF-78E59EDC4D6B}"/>
+    <hyperlink ref="A35" r:id="rId60" display="https://statusinvest.com.br/acoes/HAPV3" xr:uid="{A6693376-7E36-4042-A992-DEFC1A0C6698}"/>
+    <hyperlink ref="A23" r:id="rId61" display="https://statusinvest.com.br/acoes/cvcb3" xr:uid="{1AFCD120-6403-4505-969F-76A060D9E178}"/>
+    <hyperlink ref="A24" r:id="rId62" display="https://statusinvest.com.br/acoes/cyre3" xr:uid="{C6B0D33D-24C4-4F93-93CD-AD093E4F2069}"/>
+    <hyperlink ref="A33" r:id="rId63" display="https://statusinvest.com.br/acoes/ggbr4" xr:uid="{8D8DAD5B-D019-46A4-A4EF-495A52CDABE2}"/>
+    <hyperlink ref="A54" r:id="rId64" display="https://statusinvest.com.br/acoes/petr4" xr:uid="{30A84BFA-32BD-4E92-A833-E257EA0F6365}"/>
+    <hyperlink ref="A69" r:id="rId65" display="https://statusinvest.com.br/acoes/vulc3" xr:uid="{79DA46FF-C296-4EBB-8FBF-586B30460E66}"/>
+    <hyperlink ref="A3" r:id="rId66" display="https://statusinvest.com.br/acoes/also3" xr:uid="{72FCB423-8119-495C-875F-F4B404131D71}"/>
+    <hyperlink ref="A70" r:id="rId67" display="https://statusinvest.com.br/acoes/wege3" xr:uid="{79168ED7-1AA0-4BF5-95AD-AEAC3D9B6922}"/>
+    <hyperlink ref="A2" r:id="rId68" display="https://statusinvest.com.br/acoes/alpa4" xr:uid="{059142EF-4E24-47AC-826D-5CCE10D0D4FF}"/>
+    <hyperlink ref="A16" r:id="rId69" display="https://statusinvest.com.br/acoes/alpa4" xr:uid="{DAD6187A-3AB2-40BC-B943-D6E5A47D4C3C}"/>
+    <hyperlink ref="A64" r:id="rId70" display="https://statusinvest.com.br/etfs/smal11" xr:uid="{FDBE839A-BF3D-414D-B614-927523E17584}"/>
+    <hyperlink ref="A12" r:id="rId71" display="https://statusinvest.com.br/etfs/bova11" xr:uid="{59F123E8-AFFE-4263-B5E3-2BC3C533453D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
--- a/ativos.xlsx
+++ b/ativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebili\github\cotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACBF34A-75A0-4473-8A8C-7049AA410515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E7AD3B-AD57-41DC-90B6-332EB7D1361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="71">
+  <futureMetadata name="XLRICHVALUE" count="72">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -548,13 +548,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="219"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="71">
+  <valueMetadata count="72">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -767,6 +774,9 @@
     </bk>
     <bk>
       <rc t="2" v="70"/>
+    </bk>
+    <bk>
+      <rc t="2" v="71"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -1005,11 +1015,11 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1025,11 +1035,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1176,7 +1186,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="217">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="220">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=aplvfr&amp;q=BVMF%3aALPA4&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -1198,32 +1208,32 @@
     <v>6.81</v>
     <v>BVMF</v>
     <v>683062200</v>
-    <v>10.54</v>
+    <v>10.48</v>
     <v>1907</v>
-    <v>10.32</v>
+    <v>10.3</v>
     <v>1.0880000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>7195475000</v>
     <v>A Alpargatas SA, antiga São Paulo Alpargatas SA, é uma empresa com sede no Brasil que se dedica à produção de calçados, vestuário e artigos esportivos. A Companhia fabrica e comercializa calçados e seus componentes; confecções; produtos têxteis; couro, resina e produtos de borracha natural ou artificial e artigos esportivos. O portfólio de marcas da Companhia inclui Havaianas e Dupe, que fabrica sandálias; Sete Leguas, oferecendo botas de borracha; Timberland, fornecimento de vestuário e calçado para exterior; Topper e Mizuno, com produção de artigos esportivos, calçados e roupas, e Osklen, marca de moda. A empresa também vende produtos esportivos por meio da rede de lojas Meggashop. Opera por meio de diversas subsidiárias no Brasil, Argentina, Estados Unidos, Espanha e França, entre outras. A Companhia é controlada por um grupo de investidores (Consórcio), formado pela Brasil Warrant Administração de Bens e Empresas SA, uma unidade do Grupo Moreira Salles, Itausa Investimentos Itau SA e Cambuhy Investimentos Ltda.</v>
     <v>BVMF</v>
-    <v>10.4</v>
+    <v>10.39</v>
     <v>17000</v>
-    <v>45072.947916666664</v>
+    <v>45075.838835971874</v>
     <v>0</v>
-    <v>11534600</v>
+    <v>11539720</v>
     <v>BRL</v>
     <v>ALPARGATAS S.A.</v>
     <v>ALPARGATAS S.A.</v>
-    <v>10.45</v>
-    <v>10.39</v>
+    <v>10.4</v>
+    <v>10.41</v>
     <v>Av. das Nacoes Unidas, 14.261, Vila Gertrudes, SAO PAULO, SAO PAULO, 04.794-000 BR</v>
     <v>Textiles &amp; Apparel</v>
     <v>ALPA4</v>
     <v>Ações</v>
     <v>ALPARGATAS S.A. (BVMF:ALPA4)</v>
-    <v>-0.01</v>
-    <v>-9.6150000000000001E-4</v>
-    <v>4971000</v>
+    <v>0.02</v>
+    <v>1.9250000000000001E-3</v>
+    <v>2823600</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -1249,32 +1259,32 @@
     <v>14.92</v>
     <v>BVMF</v>
     <v>573936900</v>
-    <v>21.69</v>
+    <v>21.67</v>
     <v>2003</v>
-    <v>20.98</v>
+    <v>21.15</v>
     <v>1.2397</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>12236330000</v>
     <v>A Aliansce Sonae Shopping Centers SA, anteriormente conhecida como Sonae Sierra Brasil SA, é uma empresa sediada no Brasil que se dedica principalmente ao desenvolvimento e operação de shopping centers no Brasil. Por meio de suas subsidiárias, a Companhia atua no desenvolvimento de projetos de shopping centers, construção de edifícios comerciais, gestão de imóveis comerciais, serviços de corretagem, locação de espaços para varejistas, locação de espaços comerciais para publicidade e promoção e operação de estacionamentos. A Companhia possui subsidiárias como Sierra Investimentos Brasil Ltda e Unishopping Administradora Ltda., Através das quais opera diversos centros comerciais no Brasil, incluindo o Parque D Pedro, o Metrópole, Manauara, Penha, Tivoli, Campo Limpo e Franca, entre outros. É uma subsidiária da Sierra Brazil 1 BV.</v>
     <v>BVMF</v>
-    <v>21.14</v>
+    <v>21.32</v>
     <v>440</v>
-    <v>45072.947939814818</v>
+    <v>45075.838799409372</v>
     <v>3</v>
-    <v>5487820</v>
+    <v>5442210</v>
     <v>BRL</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A.</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A.</v>
-    <v>21.32</v>
-    <v>21.32</v>
+    <v>21.33</v>
+    <v>21.55</v>
     <v>R Dias Ferreira 00190 Sal 301, Leblon, RIO DE JANEIRO, RIO DE JANEIRO, 22.431-050 BR</v>
     <v>Real Estate Operations</v>
     <v>ALSO3</v>
     <v>Ações</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A. (BVMF:ALSO3)</v>
-    <v>0.18</v>
-    <v>8.515E-3</v>
-    <v>3071500</v>
+    <v>0.23</v>
+    <v>1.0787999999999999E-2</v>
+    <v>2213800</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -1300,32 +1310,32 @@
     <v>10.38</v>
     <v>BVMF</v>
     <v>1349225000</v>
-    <v>11.75</v>
+    <v>11.69</v>
     <v>2003</v>
-    <v>11.12</v>
+    <v>11.34</v>
     <v>0.80700000000000005</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>15381170000</v>
+    <v>15543072000</v>
     <v>A Sendas Distribuidora SA, também conhecida como Assai Atacadista, é uma empresa com sede no Brasil que atua principalmente no setor de distribuição de alimentos. As atividades da Empresa estão divididas em dois segmentos operacionais: Cash &amp; Carry e Varejo. Por meio do segmento de Cash &amp; Carry, a Companhia oferece alimentos, artigos de bazar e outros produtos para o atacado, por meio de lojas de autoatendimento operadas no Brasil com a marca Assai. O segmento de Varejo inclui operações de hipermercados, supermercados e lojas de conveniência sob as seguintes marcas: Exito, Carulla, Surtimaorista, Surtimax, Super Inter e Viva Malls na Colômbia; Devoto, Disco e Geant no Uruguai; e Libertad, Mini Libertad e Paseo Libertad Malls na Argentina.</v>
     <v>BVMF</v>
-    <v>11.63</v>
+    <v>11.4</v>
     <v>76000</v>
-    <v>45072.947916666664</v>
+    <v>45075.838797082812</v>
     <v>6</v>
-    <v>14913510</v>
+    <v>17523910</v>
     <v>BRL</v>
     <v>SENDAS DISTRIBUIDORA S/A</v>
     <v>SENDAS DISTRIBUIDORA S/A</v>
-    <v>11.75</v>
-    <v>11.4</v>
+    <v>11.34</v>
+    <v>11.52</v>
     <v>Avenida Ayrton Senna, 6.000 Jacarepagua, RIO DE JANEIRO, RIO DE JANEIRO, 22.775-005 BR</v>
     <v>Food &amp; Drug Retailing</v>
     <v>ASAI3</v>
     <v>Ações</v>
     <v>SENDAS DISTRIBUIDORA S/A (BVMF:ASAI3)</v>
-    <v>-0.23</v>
-    <v>-1.9776000000000002E-2</v>
-    <v>33045700</v>
+    <v>0.12</v>
+    <v>1.0526000000000001E-2</v>
+    <v>13585100</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1351,32 +1361,32 @@
     <v>6.71</v>
     <v>BVMF</v>
     <v>335623400</v>
-    <v>16.52</v>
+    <v>16.41</v>
     <v>2008</v>
-    <v>15.73</v>
+    <v>15.86</v>
     <v>1.972</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5380043000</v>
+    <v>5470661420</v>
     <v>A Azul S.A. é uma empresa brasileira dedicada à prestação de serviços de transporte de passageiros. A Companhia atua principalmente como operadora de companhia aérea sob a marca Azul, fornecendo voos regulares entre diversas cidades do Brasil, incluindo São Paulo, Brasília, Rio de Janeiro, Belo Horizonte, Porto Alegre, Curitiba, Fortaleza e Salvador, entre outros. Além disso, sua rede aérea compreende rotas internacionais para os Estados Unidos, Europa e outros países da América Latina. Por meio de seu negócio de pacotes de viagens, a Azul Viagens, além de passagens aéreas, a Companhia oferece acomodações, transfers, passeios e aluguel de veículos. Sua oferta inclui também o Azul Cargo Express, um serviço de transporte de carga agendado com entrega de aeroporto a aeroporto e porta a porta. A Companhia possui várias subsidiárias, como a Azul Linhas Aéreas Brasileiras SA, que opera todas as atividades de voo e TudoAzul SA, que gerencia o programa de fidelidade.</v>
     <v>BVMF</v>
-    <v>15.6</v>
+    <v>16.03</v>
     <v>13651</v>
-    <v>45072.947916666664</v>
+    <v>45075.838634837499</v>
     <v>9</v>
-    <v>20038400</v>
+    <v>19980010</v>
     <v>BRL</v>
     <v>Azul S.A.</v>
     <v>Azul S.A.</v>
-    <v>15.85</v>
-    <v>16.03</v>
+    <v>16.190000000000001</v>
+    <v>16.3</v>
     <v>Avenida Marcos Penteado de Ulhoa Rodrigues 939 8 andar, Tambore, BARUERI, SAO PAULO, 06.460-040 BR</v>
     <v>Passenger Transportation Services</v>
     <v>AZUL4</v>
     <v>Ações</v>
     <v>Azul S.A. (BVMF:AZUL4)</v>
-    <v>0.43</v>
-    <v>2.7564000000000002E-2</v>
-    <v>17223000</v>
+    <v>0.27</v>
+    <v>1.6843E-2</v>
+    <v>9297000</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -1402,32 +1412,32 @@
     <v>9.5</v>
     <v>BVMF</v>
     <v>6099000000</v>
-    <v>13.78</v>
+    <v>13.71</v>
     <v>2007</v>
-    <v>13.35</v>
+    <v>13.45</v>
     <v>1.1378999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>83312340000</v>
+    <v>82519470000</v>
     <v>B3 SA Brasil Bolsa Balcão, anteriormente BM &amp; F Bovespa SA Bolsa de Valores Mercadorias e Futuros, é uma fornecedora de infra-estruturaa de mercado financeiro no Brasil. As ofertas de serviços da Companhia varia entre negociação cambial, compensação e outros serviços pós-negociação e registro de transações de balcão (OTC). A Companhia também fornece um serviço de listagem e atua como depósito central de valores mobiliários (CSD). Desenvolve soluções de software e oferece serviços de licenciamento de índice. Seu negócio está dividido em quatro segmentos: Bovespa, que abrange a negociação, compensação e liquidação de ações e derivativos patrimoniais; BM &amp; F, que abrange a negociação, compensação e liquidação de derivativos financeiros e de mercadorias (commodities); Cetip Securities (Cetip UTVM), cobrindo os sistemas de registro, compensação, liquidação e custódia de títulos de renda fixa e derivados OTC e Cetip Financing (Cetip UFIN), que fornece um sistema eletrônico privado integrado para registro de empréstimos de veículos e imóveis.</v>
     <v>BVMF</v>
-    <v>13.18</v>
+    <v>13.66</v>
     <v>2135</v>
-    <v>45072.947916666664</v>
+    <v>45075.838864351565</v>
     <v>12</v>
-    <v>47793730</v>
+    <v>47176630</v>
     <v>BRL</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão</v>
-    <v>13.5</v>
-    <v>13.66</v>
+    <v>13.65</v>
+    <v>13.53</v>
     <v>Praca Antonio Prado, 48 7 andar, Centro, SAO PAULO, SAO PAULO, 01.010-901 BR</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>B3SA3</v>
     <v>Ações</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão (BVMF:B3SA3)</v>
-    <v>0.48</v>
-    <v>3.6419E-2</v>
-    <v>39014000</v>
+    <v>-0.13</v>
+    <v>-9.5169999999999994E-3</v>
+    <v>13626700</v>
   </rv>
   <rv s="2">
     <v>13</v>
@@ -1452,22 +1462,22 @@
     <v>90.66</v>
     <v>75.81</v>
     <v>BVMF</v>
-    <v>84.31</v>
-    <v>83.01</v>
+    <v>84.75</v>
+    <v>83.3</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>82.8</v>
-    <v>45072.947962962964</v>
+    <v>83.85</v>
+    <v>45075.836805890627</v>
     <v>15</v>
     <v>BRL</v>
     <v>FII BARIGUI RENDI CF</v>
-    <v>84.31</v>
-    <v>83.85</v>
+    <v>84.19</v>
+    <v>84.75</v>
     <v>BARI11</v>
     <v>Fundos mais negociados</v>
     <v>FII BARIGUI RENDI CF (BVMF:BARI11)</v>
-    <v>1.05</v>
-    <v>1.2681E-2</v>
-    <v>3780</v>
+    <v>0.9</v>
+    <v>1.0732999999999999E-2</v>
+    <v>5245</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -1493,32 +1503,32 @@
     <v>29.24</v>
     <v>BVMF</v>
     <v>2865417000</v>
-    <v>45.32</v>
+    <v>44.56</v>
     <v>1808</v>
-    <v>44.15</v>
+    <v>44.01</v>
     <v>1.1757</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>127224500000</v>
+    <v>126995281440</v>
     <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
     <v>BVMF</v>
-    <v>44.66</v>
+    <v>44.4</v>
     <v>85953</v>
-    <v>45072.947916666664</v>
+    <v>45075.838645404685</v>
     <v>18</v>
-    <v>14866630</v>
+    <v>14604790</v>
     <v>BRL</v>
     <v>BANCO DO BRASIL S.A.</v>
     <v>BANCO DO BRASIL S.A.</v>
-    <v>45.25</v>
-    <v>44.4</v>
+    <v>44.56</v>
+    <v>44.32</v>
     <v>SAUN QD 5 LT B, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Banking Services</v>
     <v>BBAS3</v>
     <v>Ações</v>
     <v>BANCO DO BRASIL S.A. (BVMF:BBAS3)</v>
-    <v>-0.26</v>
-    <v>-5.8220000000000008E-3</v>
-    <v>9577000</v>
+    <v>-0.08</v>
+    <v>-1.802E-3</v>
+    <v>3305100</v>
   </rv>
   <rv s="2">
     <v>19</v>
@@ -1544,32 +1554,32 @@
     <v>22.19</v>
     <v>BVMF</v>
     <v>2000000000</v>
-    <v>32.14</v>
+    <v>32.32</v>
     <v>2012</v>
-    <v>31.68</v>
+    <v>31.84</v>
     <v>0.67100000000000004</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>63800000000</v>
+    <v>64180000000</v>
     <v>A BB Seguridade Participações S.A. é uma empresa brasileira que atua no setor de seguros. As atividades da empresa se dividem em dois segmentos: Seguros e Corretagem. A divisão Seguros oferece seguros de vida, propriedade e acidentes, veículos, riscos especiais, financeiro e transporte, planos odontológicos, de previdência privada e de capitalização, bem como resseguro. A divisão Corretagem concentra-se na corretagem de seguros, gestão dos planos de previdência e capitalização, bem como na promoção de produtos de seguros e resseguros. Além disso, presta consultoria relacionada à seleção de seguros. As subsidiárias da empresa incluem a BB Seguros Participações S.A. e a BB Cor Participações S.A. A empresa é controlada pelo BANCO DO BRASIL S.A.</v>
     <v>BVMF</v>
-    <v>31.81</v>
+    <v>31.9</v>
     <v>223</v>
-    <v>45072.947916666664</v>
+    <v>45075.838597152346</v>
     <v>21</v>
-    <v>8482240</v>
+    <v>8773200</v>
     <v>BRL</v>
     <v>BB Seguridade Participações S.A.</v>
     <v>BB Seguridade Participações S.A.</v>
-    <v>32</v>
-    <v>31.9</v>
+    <v>31.99</v>
+    <v>32.090000000000003</v>
     <v>SAUN, Quadra 05, Bloco B, 3 andar Edificio Banco do Br, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Insurance</v>
     <v>BBSE3</v>
     <v>Ações</v>
     <v>BB Seguridade Participações S.A. (BVMF:BBSE3)</v>
-    <v>0.09</v>
-    <v>2.8289999999999999E-3</v>
-    <v>5439100</v>
+    <v>0.19</v>
+    <v>5.9560000000000004E-3</v>
+    <v>2418100</v>
   </rv>
   <rv s="2">
     <v>22</v>
@@ -1594,22 +1604,22 @@
     <v>100.01</v>
     <v>82</v>
     <v>BVMF</v>
-    <v>88.16</v>
-    <v>87.57</v>
+    <v>88.41</v>
+    <v>87.3</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>87.65</v>
-    <v>45072.947928240741</v>
+    <v>87.88</v>
+    <v>45075.836806481253</v>
     <v>24</v>
     <v>BRL</v>
     <v>BTG PACTUAL DIV INFR FIC FII INFRA RF</v>
     <v>87.9</v>
-    <v>87.88</v>
+    <v>87.63</v>
     <v>BDIF11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL DIV INFR FIC FII INFRA RF (BVMF:BDIF11)</v>
-    <v>0.23</v>
-    <v>2.624E-3</v>
-    <v>8163</v>
+    <v>-0.25</v>
+    <v>-2.8449999999999999E-3</v>
+    <v>13845</v>
   </rv>
   <rv s="2">
     <v>25</v>
@@ -1635,21 +1645,21 @@
     <v>83.5</v>
     <v>BVMF</v>
     <v>90</v>
-    <v>88.83</v>
+    <v>88.5</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>88.95</v>
-    <v>45072.947928240741</v>
+    <v>90</v>
+    <v>45075.833333333336</v>
     <v>27</v>
     <v>BRL</v>
     <v>INTER INFRA FIC RENDA FIXA CREDIT CF</v>
-    <v>88.95</v>
+    <v>89.88</v>
     <v>90</v>
     <v>BIDB11</v>
     <v>Fundos mais negociados</v>
     <v>INTER INFRA FIC RENDA FIXA CREDIT CF (BVMF:BIDB11)</v>
-    <v>1.05</v>
-    <v>1.1803999999999999E-2</v>
-    <v>1027</v>
+    <v>0</v>
+    <v>0</v>
+    <v>2766</v>
   </rv>
   <rv s="2">
     <v>28</v>
@@ -1674,24 +1684,24 @@
     <v>116.61</v>
     <v>91.9</v>
     <v>BVMF</v>
-    <v>108.17</v>
-    <v>106.3</v>
+    <v>107.59</v>
+    <v>106.62</v>
     <v>0.99819999999999998</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>12877822988</v>
-    <v>106.55</v>
-    <v>45072.947916666664</v>
+    <v>107.51</v>
+    <v>45075.846503506247</v>
     <v>30</v>
     <v>BRL</v>
     <v>iShares Ibovespa Fundo Indice</v>
-    <v>108</v>
-    <v>107.51</v>
+    <v>107.25</v>
+    <v>106.77</v>
     <v>BOVA11</v>
     <v>Fundos mais negociados</v>
     <v>iShares Ibovespa Fundo Indice (BVMF:BOVA11)</v>
-    <v>0.96</v>
-    <v>9.0100000000000006E-3</v>
-    <v>7602318</v>
+    <v>-0.74</v>
+    <v>-6.8830000000000002E-3</v>
+    <v>6600371</v>
   </rv>
   <rv s="2">
     <v>31</v>
@@ -1716,22 +1726,22 @@
     <v>29.52</v>
     <v>17.93</v>
     <v>BVMF</v>
-    <v>28.11</v>
-    <v>26.56</v>
+    <v>27.56</v>
+    <v>26.94</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>26.87</v>
-    <v>45072.947916666664</v>
+    <v>27.14</v>
+    <v>45075.838577904688</v>
     <v>33</v>
     <v>BRL</v>
     <v>BCO BTG PACTUAL UNT</v>
-    <v>27.25</v>
-    <v>27.14</v>
+    <v>27.21</v>
+    <v>27.3</v>
     <v>BPAC11</v>
     <v>Fundos mais negociados</v>
     <v>BCO BTG PACTUAL UNT (BVMF:BPAC11)</v>
-    <v>0.27</v>
-    <v>1.0048E-2</v>
-    <v>19146300</v>
+    <v>0.16</v>
+    <v>5.8950000000000001E-3</v>
+    <v>7793800</v>
   </rv>
   <rv s="2">
     <v>34</v>
@@ -1753,36 +1763,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>7.96</v>
+    <v>7.94</v>
     <v>4.57</v>
     <v>BVMF</v>
     <v>615638600</v>
-    <v>6.68</v>
+    <v>6.73</v>
     <v>1966</v>
-    <v>6.47</v>
+    <v>6.57</v>
     <v>1.4358</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>4081684000</v>
+    <v>4100153076</v>
     <v>O BANCO PAN S.A., anteriormente Banco Panamericano S.A., é um banco comercial brasileiro. O Banco oferece uma variedade de serviços e produtos financeiros, incluindo empréstimos ao consumidor, leasing de veículos de passageiros e financiamento de vendas, entre outros. A empresa atua através de cinco segmentos principais: Financeiro, que oferece créditos ao consumidor, cartões de crédito, leasing e serviços de investimento; Consórcio, que se dedica à gestão de bens de terceiros, como automóveis, motocicletas, aparelhos eletrônicos e imóveis; Securitização de recebíveis; Promoção de vendas; e Outros. A empresa oferece seus serviços para clientes individuais e corporativos.</v>
     <v>BVMF</v>
-    <v>6.48</v>
+    <v>6.63</v>
     <v>2433</v>
-    <v>45072.947916666664</v>
+    <v>45075.837500057809</v>
     <v>36</v>
-    <v>2370500</v>
+    <v>2498950</v>
     <v>BRL</v>
     <v>BANCO PAN S.A.</v>
     <v>BANCO PAN S.A.</v>
-    <v>6.52</v>
-    <v>6.63</v>
+    <v>6.6</v>
+    <v>6.66</v>
     <v>Avenida Paulista, 1374 16 andar, Bela Vista, SAO PAULO, SAO PAULO, 01.310-100 BR</v>
     <v>Banking Services</v>
     <v>BPAN4</v>
     <v>Ações</v>
     <v>BANCO PAN S.A. (BVMF:BPAN4)</v>
-    <v>0.15</v>
-    <v>2.3147999999999998E-2</v>
-    <v>2322400</v>
+    <v>0.03</v>
+    <v>4.5250000000000004E-3</v>
+    <v>1019900</v>
   </rv>
   <rv s="2">
     <v>37</v>
@@ -1807,22 +1817,22 @@
     <v>66.72</v>
     <v>49.47</v>
     <v>BVMF</v>
-    <v>59.37</v>
-    <v>58.05</v>
+    <v>59.02</v>
+    <v>58.33</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>58.8</v>
-    <v>45072.947962962964</v>
+    <v>58.49</v>
+    <v>45075.836805786719</v>
     <v>39</v>
     <v>BRL</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
-    <v>58.84</v>
     <v>58.49</v>
+    <v>58.56</v>
     <v>BRCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
-    <v>-0.31</v>
-    <v>-5.2719999999999998E-3</v>
-    <v>29281</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.1969999999999999E-3</v>
+    <v>18918</v>
   </rv>
   <rv s="2">
     <v>40</v>
@@ -1848,32 +1858,32 @@
     <v>16.47</v>
     <v>BVMF</v>
     <v>797207800</v>
-    <v>23.49</v>
+    <v>23.34</v>
     <v>1972</v>
-    <v>22.82</v>
+    <v>22.86</v>
     <v>0.80740000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>18435480000</v>
     <v>A Braskem S.A. produz resinas termoplásticas. Os segmentos da Companhia são Petroquímicos Básicos, Poliolefinas, Vinílicos, Estados Unidos e Europa e Distribuição Química. Também se dedica à importação e exportação de produtos químicos, petroquímicos e combustíveis, produção, fornecimento e venda de utilidades como vapor, água, ar comprimido, gases industriais, prestação de serviços industriais e produção, fornecimento e venda de Energia elétrica. Também investe em outras empresas, seja como sócia ou como acionista. Opera mais de 40 unidades industriais, das quais mais de 30 estão localizadas nos estados brasileiros de Alagoas, Bahia, Rio de Janeiro, Rio Grande do Sul e São Paulo; mais de cinco estão localizadas nos Estados Unidos, nos estados da Pensilvânia, Texas e West Virginia, e mais de duas estão localizadas na Alemanha, nas cidades de Wesseling e Schkopau. Essas unidades produzem resinas termoplásticas - polietileno, polipropileno e cloreto de polivinila, além de petroquímicos básicos.</v>
     <v>BVMF</v>
-    <v>23.04</v>
+    <v>22.97</v>
     <v>8126</v>
-    <v>45072.947916666664</v>
+    <v>45075.838707580471</v>
     <v>42</v>
-    <v>5481120</v>
+    <v>5070880</v>
     <v>BRL</v>
     <v>BRASKEM S.A.</v>
     <v>BRASKEM S.A.</v>
-    <v>23.49</v>
-    <v>22.97</v>
+    <v>23.15</v>
+    <v>22.89</v>
     <v>Rua Eteno, N 1561, Polo petroquimico, Copec, CAMACARI, BAHIA, 42.816-200 BR</v>
     <v>Chemicals</v>
     <v>BRKM5</v>
     <v>Ações</v>
     <v>BRASKEM S.A. (BVMF:BRKM5)</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-3.0380000000000003E-3</v>
-    <v>3194400</v>
+    <v>-0.08</v>
+    <v>-3.483E-3</v>
+    <v>1724800</v>
   </rv>
   <rv s="2">
     <v>43</v>
@@ -1895,36 +1905,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>12.18</v>
+    <v>12.44</v>
     <v>8.4499999999999993</v>
     <v>BVMF</v>
     <v>408974500</v>
-    <v>12.14</v>
+    <v>12.44</v>
     <v>1928</v>
-    <v>11.92</v>
+    <v>12.01</v>
     <v>1.0497000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>5136763000</v>
     <v>O Banco do Estado do Rio Grande do Sul S.A. é um banco comercial brasileiro que presta serviços bancários pessoais e corporativos. O Banrisul oferece uma variedade de produtos e serviços financeiros, como empréstimos pessoais e imobiliários, cartões de crédito e de débito, corretagem de títulos, gestão de portfólio, locação de veículos e equipamentos, serviços de investimento, apoio ao comércio internacional, e seguros de vida e patrimonial, entre outros.</v>
     <v>BVMF</v>
-    <v>12</v>
+    <v>12.09</v>
     <v>8804</v>
-    <v>45072.947916666664</v>
+    <v>45075.837500022659</v>
     <v>45</v>
-    <v>2129920</v>
+    <v>1906700</v>
     <v>BRL</v>
     <v>Banco do Estado do Rio Grande do Sul S.A.</v>
     <v>Banco do Estado do Rio Grande do Sul S.A.</v>
-    <v>12.07</v>
-    <v>12.09</v>
+    <v>12.01</v>
+    <v>12.4</v>
     <v>Rua Capitao Montanha, 177, Centro, PORTO ALEGRE, RIO GRANDE DO SUL, 90.018-900 BR</v>
     <v>Banking Services</v>
     <v>BRSR6</v>
     <v>Ações</v>
     <v>Banco do Estado do Rio Grande do Sul S.A. (BVMF:BRSR6)</v>
-    <v>0.09</v>
-    <v>7.4999999999999997E-3</v>
-    <v>2645400</v>
+    <v>0.31</v>
+    <v>2.5640999999999997E-2</v>
+    <v>2166000</v>
   </rv>
   <rv s="2">
     <v>46</v>
@@ -1949,22 +1959,22 @@
     <v>9.5500000000000007</v>
     <v>8.1300000000000008</v>
     <v>BVMF</v>
+    <v>9.35</v>
+    <v>9.2100000000000009</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>9.33</v>
-    <v>9.2200000000000006</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>9.23</v>
-    <v>45072.947962962964</v>
+    <v>45075.83680571719</v>
     <v>48</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII BTG PACTUAL FUNDO DE CRI CF</v>
-    <v>9.2799999999999994</v>
-    <v>9.33</v>
+    <v>9.34</v>
+    <v>9.25</v>
     <v>BTCI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII BTG PACTUAL FUNDO DE CRI CF (BVMF:BTCI11)</v>
-    <v>0.1</v>
-    <v>1.0834E-2</v>
-    <v>202656</v>
+    <v>-0.08</v>
+    <v>-8.574E-3</v>
+    <v>161309</v>
   </rv>
   <rv s="2">
     <v>49</v>
@@ -1989,22 +1999,22 @@
     <v>99.5</v>
     <v>88.29</v>
     <v>BVMF</v>
-    <v>98.34</v>
-    <v>97.91</v>
+    <v>98.11</v>
+    <v>97.22</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>98.01</v>
-    <v>45072.947962962964</v>
+    <v>98.22</v>
+    <v>45075.836806284373</v>
     <v>51</v>
     <v>BRL</v>
     <v>BTG PACTUAL LOGISTICA FDO INV IMOB - FII ETF</v>
-    <v>98</v>
-    <v>98.22</v>
+    <v>97.99</v>
+    <v>97.63</v>
     <v>BTLG11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL LOGISTICA FDO INV IMOB - FII ETF (BVMF:BTLG11)</v>
-    <v>0.21</v>
-    <v>2.1429999999999999E-3</v>
-    <v>190546</v>
+    <v>-0.59</v>
+    <v>-6.0070000000000002E-3</v>
+    <v>30422</v>
   </rv>
   <rv s="2">
     <v>52</v>
@@ -2029,22 +2039,22 @@
     <v>92.28</v>
     <v>67.72</v>
     <v>BVMF</v>
-    <v>79.97</v>
-    <v>78.84</v>
+    <v>79.87</v>
+    <v>78.3</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>79.05</v>
-    <v>45072.947962962964</v>
+    <v>79.89</v>
+    <v>45075.836805751562</v>
     <v>54</v>
     <v>BRL</v>
     <v>FII BTG PACTUAL TERRAS AGRICOLAS CEF</v>
-    <v>79.5</v>
-    <v>79.89</v>
+    <v>79.86</v>
+    <v>78.349999999999994</v>
     <v>BTRA11</v>
     <v>Fundos mais negociados</v>
     <v>FII BTG PACTUAL TERRAS AGRICOLAS CEF (BVMF:BTRA11)</v>
-    <v>0.84</v>
-    <v>1.0626E-2</v>
-    <v>5468</v>
+    <v>-1.54</v>
+    <v>-1.9276999999999999E-2</v>
+    <v>10013</v>
   </rv>
   <rv s="2">
     <v>55</v>
@@ -2066,25 +2076,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>106.47</v>
+    <v>106.5</v>
     <v>84.46</v>
     <v>BVMF</v>
-    <v>106.47</v>
-    <v>105.9</v>
+    <v>106.5</v>
+    <v>106.2</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>105.98</v>
-    <v>45072.947962962964</v>
+    <v>106.2</v>
+    <v>45075.829861111109</v>
     <v>57</v>
     <v>BRL</v>
     <v>SUPERNOVA FII- RECEB IMOB.</v>
-    <v>106</v>
     <v>106.2</v>
+    <v>106.49</v>
     <v>CACR11</v>
     <v>Fundos mais negociados</v>
     <v>SUPERNOVA FII- RECEB IMOB. (BVMF:CACR11)</v>
-    <v>0.22</v>
-    <v>2.0760000000000002E-3</v>
-    <v>3954</v>
+    <v>0.28999999999999998</v>
+    <v>2.7309999999999999E-3</v>
+    <v>1858</v>
   </rv>
   <rv s="2">
     <v>58</v>
@@ -2110,32 +2120,32 @@
     <v>13.09</v>
     <v>BVMF</v>
     <v>1874071000</v>
-    <v>15.83</v>
+    <v>15.58</v>
     <v>1966</v>
-    <v>15.22</v>
+    <v>15.3</v>
     <v>1.0498000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>29066840000</v>
+    <v>28729508430</v>
     <v>A Cosan SA, anteriormente conhecida como Cosan SA Indústria e Comércio, é uma empresa sediada no Brasil que atua principalmente no setor de marketing de petróleo. As atividades da Companhia estão divididas em seis segmentos de negócios: Raizen Energia, que produz e distribui derivados de cana-de-açúcar, como açúcar bruto e etanol hidratado, e co-gera energia a partir do bagaço de cana; Raizen Combustiveis, que distribui combustível, principalmente através de uma rede de postos de gasolina sob a marca Shell; Comgas, que se concentra na distribuição de gás natural no estado de São Paulo, Brasil; Radar, responsável pela compra, venda, gerenciamento e arrendamento de terras agrícolas; Lubrificantes, que fabrica e vende lubrificantes sob a marca Mobil no mercado latino-americano, bem como a marca Comma no mercado europeu e asiático, e Outros, que inclui investimentos em outros negócios. A Companhia é uma subsidiária da Cosan Ltd.</v>
     <v>BVMF</v>
-    <v>15.58</v>
+    <v>15.51</v>
     <v>53498</v>
-    <v>45072.947916666664</v>
+    <v>45075.838733946097</v>
     <v>60</v>
-    <v>8878540</v>
+    <v>9008450</v>
     <v>BRL</v>
     <v>COSAN S.A.</v>
     <v>COSAN S.A.</v>
-    <v>15.77</v>
-    <v>15.51</v>
+    <v>15.56</v>
+    <v>15.33</v>
     <v>Av. Brigadeiro Faria Lima, 4.100 / 15 andar, Itaim Bibi, SAO PAULO, SAO PAULO, 04.538-132 BR</v>
     <v>Oil &amp; Gas</v>
     <v>CSAN3</v>
     <v>Ações</v>
     <v>COSAN S.A. (BVMF:CSAN3)</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-4.4929999999999996E-3</v>
-    <v>9016600</v>
+    <v>-0.18</v>
+    <v>-1.1605000000000001E-2</v>
+    <v>5286400</v>
   </rv>
   <rv s="2">
     <v>61</v>
@@ -2157,36 +2167,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>11.78</v>
+    <v>11.62</v>
     <v>2.52</v>
     <v>BVMF</v>
     <v>277247300</v>
-    <v>3.03</v>
+    <v>3.13</v>
     <v>2009</v>
-    <v>2.71</v>
+    <v>2.9</v>
     <v>2.1589</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>826197000</v>
+    <v>859466630</v>
     <v>A CVC Brasil Operadora e Agência de Viagens SA é uma empresa sediada no Brasil, envolvida no setor de turismo. A Companhia oferece pacotes turísticos nacionais e internacionais, cruzeiros, estadias em hotéis e resorts, passagens aéreas e passeios turísticos. Seus pacotes de viagem combinam passagens aéreas, transporte terrestre, acomodações, seguro de viagem, guias turísticos e outros serviços complementares de viagem. Além disso, organiza intercâmbios internacionais, acampamentos de idiomas e viagens para adolescentes. A Companhia vende produtos e serviços através de lojas próprias, plataformas de distribuição online e agentes independentes autorizados. Seus destinos incluem principalmente a Europa e as Américas. A Companhia possui várias subsidiárias no Brasil e na Argentina, como CVC Serviços Agencia de Viagens Ltda e CVC Turismo SAU, entre outras.</v>
     <v>BVMF</v>
-    <v>2.68</v>
+    <v>2.98</v>
     <v>2000</v>
-    <v>45072.947916666664</v>
+    <v>45075.838724953122</v>
     <v>63</v>
-    <v>25421920</v>
+    <v>29195260</v>
     <v>BRL</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A.</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A.</v>
-    <v>2.71</v>
-    <v>2.98</v>
+    <v>3</v>
+    <v>3.1</v>
     <v>Rua da Catequese, 227, 11 andar, sala 111, Bairro Jardim, SANTO ANDRE, SAO PAULO, 09.090-401 BR</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>CVCB3</v>
     <v>Ações</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A. (BVMF:CVCB3)</v>
-    <v>0.3</v>
-    <v>0.11194000000000001</v>
-    <v>47301100</v>
+    <v>0.12</v>
+    <v>4.0267999999999998E-2</v>
+    <v>38164600</v>
   </rv>
   <rv s="2">
     <v>64</v>
@@ -2212,31 +2222,31 @@
     <v>11.16</v>
     <v>BVMF</v>
     <v>399742800</v>
-    <v>19.059999999999999</v>
+    <v>19.03</v>
     <v>1993</v>
-    <v>18.690000000000001</v>
+    <v>18.62</v>
     <v>1.6551</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7519162000</v>
+    <v>7511167212</v>
     <v>A Cyrela Brazil Realty S.A. Empreendimentos e Participações, anteriormente denominada Cyrela Brasil Realty SA Empreendimentos e Participações, é uma empresa brasileira envolvida no setor imobiliário. A Empresa está envolvida principalmente na construção, incorporação, corretagem e venda de imóveis residenciais. Além disso, ela fornece serviços de desmembramento de terrenos e serviços complementares para seus clientes. Em 31 de dezembro de 2011, a Empresa possuía diversas subsidiárias, incluindo a ABC Realty de Investimento Imobiliário Ltda., a Andorra Empreendimentos Imobiliários Ltda., a BR-Serviços e Investimentos Ltda.-Bahamas, a Barão de Miracema Empreendimentos Imobiliários Ltda., a Boa Vista Empreendimentos Imobiliários Spe Ltda., a Bretanha Empreendimentos Imobiliários Ltda. e a Cabo Frio Empreendimentos Imobiliários Ltda., entre outras.</v>
     <v>BVMF</v>
-    <v>18.71</v>
-    <v>45072.947939814818</v>
+    <v>18.809999999999999</v>
+    <v>45075.838726376562</v>
     <v>66</v>
-    <v>6159710</v>
+    <v>6029400</v>
     <v>BRL</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações</v>
-    <v>18.98</v>
-    <v>18.809999999999999</v>
+    <v>19</v>
+    <v>18.79</v>
     <v>Rua do Rocio,109, 2 andar, Vila Olimpia, SAO PAULO, SAO PAULO, 04.552-000 BR</v>
     <v>Real Estate Operations</v>
     <v>CYRE3</v>
     <v>Ações</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações (BVMF:CYRE3)</v>
-    <v>0.1</v>
-    <v>5.3449999999999999E-3</v>
-    <v>7508800</v>
+    <v>-0.02</v>
+    <v>-1.0630000000000001E-3</v>
+    <v>4253400</v>
   </rv>
   <rv s="2">
     <v>67</v>
@@ -2262,32 +2272,32 @@
     <v>8.26</v>
     <v>BVMF</v>
     <v>150000000</v>
-    <v>17.84</v>
+    <v>17.73</v>
     <v>1981</v>
-    <v>17.399999999999999</v>
+    <v>17.13</v>
     <v>1.3416999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>2643000000</v>
+    <v>2578500000</v>
     <v>A DIRECIONAL ENGENHARIA S.A. é uma empresa do setor imobiliário residencial estabelecida no Brasil. A empresa se concentra no desenvolvimento e na construção de projetos habitacionais residenciais, com foco no segmento de baixa renda. Constrói principalmente casas multifamiliares, que formam um bairro residencial. A empresa desenvolve suas atividades por meio de parcerias especiais (SCPs) e entidades com finalidade especial (SPEs), que atuam exclusivamente no setor imobiliário. Opera nos seguintes estados do Brasil, dentre outros: Rio de Janeiro, São Paulo, Rio Grande do Sul, Minas Gerais, Pará e Amazonas. A empresa detém inúmeras subsidiárias, como a Direcional Taguatinga Engenharia Ltda., Ametista Empreendimentos Imobiliários Ltda. e Malaquita Empreendimentos Imobiliários Ltda.</v>
     <v>BVMF</v>
-    <v>17.350000000000001</v>
+    <v>17.62</v>
     <v>745</v>
-    <v>45072.947939814818</v>
+    <v>45075.837500068752</v>
     <v>69</v>
-    <v>2074140</v>
+    <v>2155330</v>
     <v>BRL</v>
     <v>DIRECIONAL ENGENHARIA S.A.</v>
     <v>DIRECIONAL ENGENHARIA S.A.</v>
-    <v>17.48</v>
-    <v>17.62</v>
+    <v>17.690000000000001</v>
+    <v>17.190000000000001</v>
     <v>Rua dos Otoni, 177, Santa Efigenia, BELO HORIZONTE, MINAS GERAIS, 30.150-270 BR</v>
     <v>Real Estate Operations</v>
     <v>DIRR3</v>
     <v>Ações</v>
     <v>DIRECIONAL ENGENHARIA S.A. (BVMF:DIRR3)</v>
-    <v>0.27</v>
-    <v>1.5561999999999999E-2</v>
-    <v>2070200</v>
+    <v>-0.43</v>
+    <v>-2.4403999999999999E-2</v>
+    <v>1827300</v>
   </rv>
   <rv s="2">
     <v>70</v>
@@ -2333,33 +2343,33 @@
     <v>31.35</v>
     <v>BVMF</v>
     <v>2301228000</v>
-    <v>40.29</v>
+    <v>39.4</v>
     <v>1962</v>
-    <v>38.82</v>
+    <v>38.520000000000003</v>
     <v>1.1729000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>82767700000</v>
     <v>A Centrais Elétricas Brasileiras S.A. é uma empresa de energia elétrica. A Empresa atua nos segmentos de geração, transmissão, distribuição e comercialização. A Empresa opera por intermédio de várias empresas, incluindo a holding Eletrobrás, CGTEE, Chesf, Eletronorte, Eletronuclear, Eletrosul, Furnas, Amazonas Energia, Distribuição Acre, Distribuição Alagoas, Distribuição Piauí, Distribuição Rondônia, Distribuição Roraima e metade do capital da Itaipu Binacional. A Empresa tem uma capacidade total instalada para geração de mais de 44.150 megawatts. Possui uma rede nacional de linhas de transmissão de aproximadamente 60.500 quilômetros de extensão. A Usina Megawatt Solar da Eletrobrás Eletrosul tem mais de 4.000 painéis fotovoltaicos, totalizando uma área de aproximadamente 8.300 metros quadrados. A Usina Megawatt Solar da Eletrobrás Eletrosul tem uma capacidade instalada de aproximadamente 1 megawatt-pico (MWp), e a Usina Megawatt Solar pode produzir aproximadamente 1,2 gigawatt/hora (GWh).</v>
     <v>BVMF</v>
-    <v>39.76</v>
+    <v>39.32</v>
     <v>9529</v>
-    <v>45072.947916666664</v>
+    <v>45075.838749536721</v>
     <v>75</v>
     <v>76</v>
-    <v>2913610</v>
+    <v>2740350</v>
     <v>BRL</v>
     <v>Centrais Elétricas Brasileiras S.A.</v>
     <v>Centrais Elétricas Brasileiras S.A.</v>
-    <v>40.1</v>
-    <v>39.32</v>
+    <v>39.4</v>
+    <v>38.89</v>
     <v>Rua da Quitanda, 196 Lj A, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.091-005 BR</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>ELET6</v>
     <v>Ações</v>
     <v>Centrais Elétricas Brasileiras S.A. (BVMF:ELET6)</v>
-    <v>-0.44</v>
-    <v>-1.1065999999999999E-2</v>
-    <v>1652500</v>
+    <v>-0.43</v>
+    <v>-1.0936E-2</v>
+    <v>1145500</v>
   </rv>
   <rv s="2">
     <v>77</v>
@@ -2385,32 +2395,32 @@
     <v>21.56</v>
     <v>BVMF</v>
     <v>1144722000</v>
-    <v>29.46</v>
+    <v>29.04</v>
     <v>1999</v>
-    <v>28.72</v>
+    <v>28.23</v>
     <v>0.93989999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>33082460000</v>
+    <v>32326949280</v>
     <v>A Equatorial Energia SA (Equatorial) é uma empresa sediada no Brasil que atua no setor de energia. A Companhia tem participação acionária em outras empresas, todas no ramo de energia elétrica, principalmente com operações relacionadas à geração ou distribuição de energia elétrica. As atividades da Companhia estão divididas em quatro segmentos: distribuição, responsável pela distribuição de energia nos estados do Maranhão e Pará; geração, gerando eletricidade por meio de usinas termoelétricas; serviços/vendas, oferecendo comercialização de energia elétrica, serviços de faturamento, bem como manutenção de instalações elétricas, entre outros; e gestão central, incluindo de operações corporativas e administrativas. A Companhia opera por meio de várias subsidiárias, como a Companhia Energética do Maranhão (CEMAR), a Centrais Elétricas do Pará S.A. (CELPA), Geradora de Energia do Norte S.A. (Getamar), a Companhia Energética do Piauí e a Equatorial Soluções S.A.</v>
     <v>BVMF</v>
-    <v>28.97</v>
+    <v>28.9</v>
     <v>1178</v>
-    <v>45072.947916666664</v>
+    <v>45075.838723089844</v>
     <v>79</v>
-    <v>7879640</v>
+    <v>7769090</v>
     <v>BRL</v>
     <v>EQUATORIAL ENERGIA S.A.</v>
     <v>EQUATORIAL ENERGIA S.A.</v>
-    <v>29.29</v>
-    <v>28.9</v>
+    <v>28.85</v>
+    <v>28.24</v>
     <v>Alameda A, Quadra SQS, n 100, Loteamento Quitandinha,Anexo A, sala 31, Altos do Calhau, SAO LUIS, MARANHAO, 65.070-900 BR</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>EQTL3</v>
     <v>Ações</v>
     <v>EQUATORIAL ENERGIA S.A. (BVMF:EQTL3)</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-2.4160000000000002E-3</v>
-    <v>7105200</v>
+    <v>-0.66</v>
+    <v>-2.2837E-2</v>
+    <v>7221400</v>
   </rv>
   <rv s="2">
     <v>80</v>
@@ -2435,22 +2445,22 @@
     <v>10.84</v>
     <v>9.44</v>
     <v>BVMF</v>
-    <v>9.67</v>
-    <v>9.57</v>
+    <v>9.66</v>
+    <v>9.58</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.66</v>
-    <v>45072.947928240741</v>
+    <v>9.64</v>
+    <v>45075.836805844534</v>
     <v>82</v>
     <v>BRL</v>
     <v>FGAGRO FII FIAGRO CF</v>
-    <v>9.66</v>
-    <v>9.64</v>
+    <v>9.65</v>
+    <v>9.65</v>
     <v>FGAA11</v>
     <v>Fundos mais negociados</v>
     <v>FGAGRO FII FIAGRO CF (BVMF:FGAA11)</v>
-    <v>-0.02</v>
-    <v>-2.0699999999999998E-3</v>
-    <v>186706</v>
+    <v>0.01</v>
+    <v>1.0369999999999999E-3</v>
+    <v>133374</v>
   </rv>
   <rv s="2">
     <v>83</v>
@@ -2476,32 +2486,32 @@
     <v>13.45</v>
     <v>BVMF</v>
     <v>367197100</v>
-    <v>16.899999999999999</v>
+    <v>16.510000000000002</v>
     <v>1964</v>
-    <v>16.39</v>
+    <v>16.03</v>
     <v>0.65269999999999995</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>6051408000</v>
+    <v>5911873310</v>
     <v>A Fleury SA é uma empresa sediada no Brasil que presta serviços de laboratório médico. As atividades da Companhia estão divididas em três linhas de negócios: Centros de Atendimento ao Paciente (PSC), B2B e Diagnóstico Odontológico. A divisão PCS oferece diagnóstico médico privado. A divisão B2B é responsável pela análise clínica e diagnóstico por imagem em hospitais parceiros, além de testes para laboratórios, hospitais e clínicas em todo o Brasil. A divisão de Diagnóstico Odontológico fornece imagens de diagnóstico odontológico por meio da Papaiz Associados Diagnosticos por Imagem SA, uma joint venture com a Odontoprev SA. A Companhia opera através de várias marcas, como Fleury Medicina e Saúde, Clínica Felippe Mattoso e Weinmann, a + Medicina Diagnóstica, Diagnoson a +, Diagmax e Inlab, entre outras.</v>
     <v>BVMF</v>
-    <v>16.690000000000001</v>
+    <v>16.48</v>
     <v>16700</v>
-    <v>45072.947939814818</v>
+    <v>45075.838626642966</v>
     <v>85</v>
-    <v>3817540</v>
+    <v>3882890</v>
     <v>BRL</v>
     <v>Fleury S.A.</v>
     <v>Fleury S.A.</v>
-    <v>16.87</v>
-    <v>16.48</v>
+    <v>16.5</v>
+    <v>16.100000000000001</v>
     <v>Av. General Valdomiro de Lima, 508, Jabaquara, SAO PAULO, SAO PAULO, 04.344-070 BR</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>FLRY3</v>
     <v>Ações</v>
     <v>Fleury S.A. (BVMF:FLRY3)</v>
-    <v>-0.21</v>
-    <v>-1.2581999999999999E-2</v>
-    <v>3140000</v>
+    <v>-0.38</v>
+    <v>-2.3058000000000002E-2</v>
+    <v>2769200</v>
   </rv>
   <rv s="2">
     <v>86</v>
@@ -2526,22 +2536,22 @@
     <v>9.07</v>
     <v>8.02</v>
     <v>BVMF</v>
-    <v>8.6199999999999992</v>
-    <v>8.6</v>
+    <v>8.69</v>
+    <v>8.59</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>8.6199999999999992</v>
-    <v>45072.947962962964</v>
+    <v>45075.836806168751</v>
     <v>88</v>
     <v>BRL</v>
     <v>FII GUARDIAN MULTIESTRATEGIA I CF</v>
     <v>8.6199999999999992</v>
-    <v>8.6199999999999992</v>
+    <v>8.67</v>
     <v>GAME11</v>
     <v>Fundos mais negociados</v>
     <v>FII GUARDIAN MULTIESTRATEGIA I CF (BVMF:GAME11)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>9908</v>
+    <v>0.05</v>
+    <v>5.7999999999999996E-3</v>
+    <v>20451</v>
   </rv>
   <rv s="2">
     <v>89</v>
@@ -2566,22 +2576,22 @@
     <v>105.56</v>
     <v>89</v>
     <v>BVMF</v>
-    <v>93.62</v>
-    <v>93.31</v>
+    <v>93.99</v>
+    <v>93.4</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>93.3</v>
-    <v>45072.831458333334</v>
+    <v>93.54</v>
+    <v>45075.824166666665</v>
     <v>91</v>
     <v>BRL</v>
     <v>GALAPAGOS CAPITAL INV E PARTICIP CEF</v>
-    <v>93.62</v>
+    <v>93.54</v>
     <v>93.54</v>
     <v>GCRA11</v>
     <v>Fundos mais negociados</v>
     <v>GALAPAGOS CAPITAL INV E PARTICIP CEF (BVMF:GCRA11)</v>
-    <v>0.24</v>
-    <v>2.5719999999999996E-3</v>
-    <v>604</v>
+    <v>0</v>
+    <v>0</v>
+    <v>3542</v>
   </rv>
   <rv s="2">
     <v>92</v>
@@ -2606,22 +2616,22 @@
     <v>91.92</v>
     <v>83.15</v>
     <v>BVMF</v>
-    <v>91.79</v>
-    <v>89.23</v>
+    <v>91.08</v>
+    <v>89.5</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.14</v>
-    <v>45072.947962962964</v>
+    <v>89.48</v>
+    <v>45075.815439814818</v>
     <v>94</v>
     <v>BRL</v>
     <v>GALAPAGOS RECEBIVEIS IMOB FII CF</v>
-    <v>89.38</v>
-    <v>89.48</v>
+    <v>90.78</v>
+    <v>89.8</v>
     <v>GCRI11</v>
     <v>Fundos mais negociados</v>
     <v>GALAPAGOS RECEBIVEIS IMOB FII CF (BVMF:GCRI11)</v>
-    <v>0.34</v>
-    <v>3.8140000000000001E-3</v>
-    <v>3549</v>
+    <v>0.32</v>
+    <v>3.5759999999999998E-3</v>
+    <v>3146</v>
   </rv>
   <rv s="2">
     <v>95</v>
@@ -2647,32 +2657,32 @@
     <v>17.809999999999999</v>
     <v>BVMF</v>
     <v>1757067000</v>
-    <v>25.16</v>
+    <v>25.47</v>
     <v>1961</v>
-    <v>24.73</v>
+    <v>24.9</v>
     <v>1.0730999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>41808600000</v>
     <v>A Gerdau S.A. (Gerdau) é uma fabricante de aços longos nas Américas do Norte e do Sul. A Companhia atua na produção e comercialização de produtos siderúrgicos em geral, através de suas usinas localizadas na Argentina, Brasil, Canadá, Chile, Colômbia, Espanha, Estados Unidos, Guatemala, Índia, México, Peru, República Dominicana, Uruguai e Venezuela. Seus segmentos são Operações Brasil, que incluem operações de ferro e aço no Brasil, com exceção de Aços Especiais, e a operação de carvão metalúrgico e coque na Colômbia; Operações na América do Norte, que incluem todas as operações na América do Norte, exceto as do México e Aços Especiais; Operações na América do Sul, que incluem todas as operações na América do Sul, exceto Brasil e a operação de carvão metalúrgico e coque na Colômbia; e Operações Aços Especiais, incluindo operações de aços especiais no Brasil, Espanha, Estados Unidos e Índia. Fornece aos seus clientes uma gama de produtos, incluindo produtos semi-acabados de minério de ferro.</v>
     <v>BVMF</v>
-    <v>24.21</v>
+    <v>24.96</v>
     <v>40061</v>
-    <v>45072.947916666664</v>
+    <v>45075.838728378905</v>
     <v>97</v>
-    <v>12268240</v>
+    <v>12267050</v>
     <v>BRL</v>
     <v>GERDAU S.A.</v>
     <v>GERDAU S.A.</v>
-    <v>24.82</v>
-    <v>24.96</v>
+    <v>25.23</v>
+    <v>24.95</v>
     <v>Avenida Doutora Ruth Cardoso, 8.501, 8 andar, Pinheiros, SAO PAULO, SAO PAULO, 05.425-070 BR</v>
     <v>Metals &amp; Mining</v>
     <v>GGBR4</v>
     <v>Ações</v>
     <v>GERDAU S.A. (BVMF:GGBR4)</v>
-    <v>0.75</v>
-    <v>3.0979E-2</v>
-    <v>11967200</v>
+    <v>-0.01</v>
+    <v>-4.0059999999999998E-4</v>
+    <v>4567700</v>
   </rv>
   <rv s="2">
     <v>98</v>
@@ -2698,32 +2708,32 @@
     <v>8.18</v>
     <v>BVMF</v>
     <v>1033841000</v>
-    <v>11.75</v>
+    <v>11.85</v>
     <v>1901</v>
-    <v>11.49</v>
+    <v>11.59</v>
     <v>1.1244000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>11835520000</v>
     <v>A Metalúrgica Gerdau S.A., anteriormente Metalúrgica Hugo Gerdau S.A., é uma empresa brasileira que se dedica ao setor de produção de aço. A Empresa se concentra na fabricação de itens de aço longo e plano, essencialmente através do processo de fabricação em fornos elétricos, a partir de sucata de metal e ferro-gusa comprado, bem como na produção de aço a partir de minério de ferro em alto-forno e por redução direta. Suas atividades se dividem em quatro segmentos: Operações no Brasil, Operações na América do Norte, Operações na América Latina e Unidade de aço especial. Seus produtos são distribuídos em diversos setores, como da construção civil, agricultura e indústria automotiva, e a Empresa opera fábricas no Brasil, Argentina, Chile, Colômbia, México, Peru, Venezuela, Estados Unidos, Canadá, Espanha e Índia, entre outros.</v>
     <v>BVMF</v>
-    <v>11.31</v>
+    <v>11.66</v>
     <v>45000</v>
-    <v>45072.947916666664</v>
+    <v>45075.83872520781</v>
     <v>100</v>
-    <v>7302540</v>
+    <v>7488430</v>
     <v>BRL</v>
     <v>METALURGICA GERDAU S.A.</v>
     <v>METALURGICA GERDAU S.A.</v>
-    <v>11.53</v>
-    <v>11.66</v>
+    <v>11.78</v>
+    <v>11.62</v>
     <v>Avenida Doutora Ruth Cardoso, 8.501,8 andar, Pinheiros, SAO PAULO, SAO PAULO, 05.425-070 BR</v>
     <v>Metals &amp; Mining</v>
     <v>GOAU4</v>
     <v>Ações</v>
     <v>METALURGICA GERDAU S.A. (BVMF:GOAU4)</v>
-    <v>0.35</v>
-    <v>3.0945999999999998E-2</v>
-    <v>9076100</v>
+    <v>-0.04</v>
+    <v>-3.431E-3</v>
+    <v>3563300</v>
   </rv>
   <rv s="2">
     <v>101</v>
@@ -2749,31 +2759,31 @@
     <v>1.93</v>
     <v>BVMF</v>
     <v>7473595000</v>
-    <v>4.03</v>
+    <v>3.98</v>
     <v>2001</v>
-    <v>3.81</v>
+    <v>3.88</v>
     <v>1.1480999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>29147020000</v>
+    <v>29147020500</v>
     <v>Hapvida Participacoes e Investimentos SA (Hapvida) é uma holding brasileira de saúde. A Companhia e suas controladas têm como atividades principais a cobertura de custos de assistência médica, hospitalar e odontológica de seus associados, a prestação de serviços médicos, hospitalares e odontológicos e exames e diagnósticos por imagem. A Hapvida tem diferentes instalações de saúde, como hospitais, clínicas ou unidades de diagnóstico por imagem. A Companhia opera no Nordeste do Brasil, em mais de 10 estados, como Alagoas, Amazonas, Bahia, Pernambuco, Rio Grande do Norte, Sergipe, entre outros.</v>
     <v>BVMF</v>
-    <v>3.94</v>
-    <v>45072.947916666664</v>
+    <v>3.9</v>
+    <v>45075.838565335158</v>
     <v>103</v>
-    <v>143911450</v>
+    <v>142526750</v>
     <v>BRL</v>
     <v>Hapvida Participações e Investimentos S/A</v>
     <v>Hapvida Participações e Investimentos S/A</v>
-    <v>3.99</v>
+    <v>3.95</v>
     <v>3.9</v>
     <v>Avenida Heraclito Graca n 406, Centro, FORTALEZA, CEARA, 60.140-060 BR</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>HAPV3</v>
     <v>Ações</v>
     <v>Hapvida Participações e Investimentos S/A (BVMF:HAPV3)</v>
-    <v>-0.04</v>
-    <v>-1.0152000000000001E-2</v>
-    <v>85640100</v>
+    <v>0</v>
+    <v>0</v>
+    <v>47590800</v>
   </rv>
   <rv s="2">
     <v>104</v>
@@ -2798,22 +2808,22 @@
     <v>164.49</v>
     <v>142.03</v>
     <v>BVMF</v>
-    <v>159.99</v>
-    <v>158.99</v>
+    <v>159.69999999999999</v>
+    <v>159.11000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>159.71</v>
-    <v>45072.947962962964</v>
+    <v>159.5</v>
+    <v>45075.837500392969</v>
     <v>106</v>
     <v>BRL</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF</v>
-    <v>159.80000000000001</v>
     <v>159.5</v>
+    <v>159.34</v>
     <v>HGLG11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF (BVMF:HGLG11)</v>
-    <v>-0.21</v>
-    <v>-1.315E-3</v>
-    <v>49959</v>
+    <v>-0.16</v>
+    <v>-1.003E-3</v>
+    <v>65123</v>
   </rv>
   <rv s="2">
     <v>107</v>
@@ -2836,24 +2846,24 @@
     <v>Finance</v>
     <v>5</v>
     <v>125</v>
-    <v>105.19</v>
+    <v>106.01</v>
     <v>BVMF</v>
     <v>125</v>
-    <v>123.57</v>
+    <v>123.65</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>124.55</v>
-    <v>45072.947962962964</v>
+    <v>124.83</v>
+    <v>45075.8368060875</v>
     <v>109</v>
     <v>BRL</v>
     <v>CSHG RENDA URBANA FII CF</v>
     <v>124.79</v>
-    <v>124.83</v>
+    <v>124.79</v>
     <v>HGRU11</v>
     <v>Fundos mais negociados</v>
     <v>CSHG RENDA URBANA FII CF (BVMF:HGRU11)</v>
-    <v>0.28000000000000003</v>
-    <v>2.248E-3</v>
-    <v>26259</v>
+    <v>-0.04</v>
+    <v>-3.2039999999999998E-4</v>
+    <v>26020</v>
   </rv>
   <rv s="2">
     <v>110</v>
@@ -2878,22 +2888,22 @@
     <v>93.28</v>
     <v>72.510000000000005</v>
     <v>BVMF</v>
-    <v>88.49</v>
-    <v>87.48</v>
+    <v>88.7</v>
+    <v>87.05</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>87.5</v>
-    <v>45072.947962962964</v>
+    <v>87.59</v>
+    <v>45075.836806573439</v>
     <v>112</v>
     <v>BRL</v>
     <v>HSI LOGISTICA FDO INV IMOB CF</v>
-    <v>88.47</v>
-    <v>87.59</v>
+    <v>88.7</v>
+    <v>87.5</v>
     <v>HSLG11</v>
     <v>Fundos mais negociados</v>
     <v>HSI LOGISTICA FDO INV IMOB CF (BVMF:HSLG11)</v>
-    <v>0.09</v>
-    <v>1.029E-3</v>
-    <v>8644</v>
+    <v>-0.09</v>
+    <v>-1.0280000000000001E-3</v>
+    <v>8668</v>
   </rv>
   <rv s="2">
     <v>113</v>
@@ -2918,22 +2928,22 @@
     <v>89.35</v>
     <v>69.66</v>
     <v>BVMF</v>
-    <v>88</v>
-    <v>86.04</v>
+    <v>87.99</v>
+    <v>86.68</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>86.5</v>
-    <v>45072.947962962964</v>
+    <v>87.78</v>
+    <v>45075.836805902341</v>
     <v>115</v>
     <v>BRL</v>
     <v>HSI MALLS FI IMOBILIARIO ETF</v>
-    <v>86.5</v>
-    <v>87.78</v>
+    <v>86.7</v>
+    <v>86.9</v>
     <v>HSML11</v>
     <v>Fundos mais negociados</v>
     <v>HSI MALLS FI IMOBILIARIO ETF (BVMF:HSML11)</v>
-    <v>1.28</v>
-    <v>1.4798E-2</v>
-    <v>37311</v>
+    <v>-0.88</v>
+    <v>-1.0024999999999999E-2</v>
+    <v>28313</v>
   </rv>
   <rv s="2">
     <v>116</v>
@@ -2958,22 +2968,22 @@
     <v>86.06</v>
     <v>66.64</v>
     <v>BVMF</v>
-    <v>77.599999999999994</v>
-    <v>75.88</v>
+    <v>77.290000000000006</v>
+    <v>75.010000000000005</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>76.59</v>
-    <v>45072.947962962964</v>
+    <v>76.98</v>
+    <v>45075.823252314818</v>
     <v>118</v>
     <v>BRL</v>
     <v>FDO DE INV IMOBILIARIO DE CRI INTEGRAL BREI CF</v>
-    <v>76.59</v>
     <v>76.98</v>
+    <v>77</v>
     <v>IBCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO DE INV IMOBILIARIO DE CRI INTEGRAL BREI CF (BVMF:IBCR11)</v>
-    <v>0.39</v>
-    <v>5.0920000000000002E-3</v>
-    <v>5686</v>
+    <v>0.02</v>
+    <v>2.5979999999999997E-4</v>
+    <v>673</v>
   </rv>
   <rv s="2">
     <v>119</v>
@@ -2998,22 +3008,22 @@
     <v>110.96</v>
     <v>93.63</v>
     <v>BVMF</v>
-    <v>102.7</v>
-    <v>102.01</v>
+    <v>102.15</v>
+    <v>101.03</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>102.3</v>
-    <v>45072.947928240741</v>
+    <v>102.42</v>
+    <v>45075.836805995314</v>
     <v>121</v>
     <v>BRL</v>
     <v>ITAU FDO INV EM COTAS DE FIDC DE INFRAESTRUTURA</v>
-    <v>102.09</v>
-    <v>102.42</v>
+    <v>102.15</v>
+    <v>101.03</v>
     <v>IFRA11</v>
     <v>Fundos mais negociados</v>
     <v>ITAU FDO INV EM COTAS DE FIDC DE INFRAESTRUTURA (BVMF:IFRA11)</v>
-    <v>0.12</v>
-    <v>1.173E-3</v>
-    <v>7466</v>
+    <v>-1.39</v>
+    <v>-1.3571999999999999E-2</v>
+    <v>5144</v>
   </rv>
   <rv s="2">
     <v>122</v>
@@ -3039,35 +3049,77 @@
     <v>6.87</v>
     <v>BVMF</v>
     <v>9701410000</v>
-    <v>9.16</v>
+    <v>9.01</v>
     <v>1966</v>
-    <v>8.92</v>
+    <v>8.89</v>
     <v>1.008</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>87385380000</v>
     <v>Itausa Investimentos Itau SA é uma empresa sediada no Brasil e tem como atividade principal o setor bancário. As atividades da Companhia estão divididas em dois segmentos de negócios: Financeiro e Industrial. A divisão Financeiral concentra-se na gestão do Itau Unibanco Holding SA, uma instituição bancária que oferece produtos e serviços financeiros, como empréstimos, cartões de crédito, contas correntes, apólices de seguros, ferramentas de investimento, corretagem de valores mobiliários, consultoria de tesouraria e investimentos para clientes individuais e empresas. A divisão Industrial é responsável pela operação da Itautec SA, que fabrica equipamentos de automação comercial e bancária, além de prestar serviços de tecnologia da informação (TI); Duratex SA, que produz painéis de madeira, louças sanitárias e metais sanitários, e Alpargatas, que produz calçados sob as marcas Juntas, Havaianas e Dupe, entre outros.</v>
     <v>BVMF</v>
-    <v>9.0299999999999994</v>
+    <v>8.98</v>
     <v>127000</v>
-    <v>45072.947916666664</v>
+    <v>45075.838777962497</v>
     <v>124</v>
-    <v>21125330</v>
+    <v>21130520</v>
     <v>BRL</v>
     <v>ITAUSA S.A.</v>
     <v>ITAUSA S.A.</v>
-    <v>9.1</v>
-    <v>8.98</v>
+    <v>8.9499999999999993</v>
+    <v>8.9700000000000006</v>
     <v>Avenida Paulista, 1938, 5Th Floor, Bela Vista, SAO PAULO, SAO PAULO, 01.310-200 BR</v>
     <v>Banking Services</v>
     <v>ITSA4</v>
     <v>Ações</v>
     <v>ITAUSA S.A. (BVMF:ITSA4)</v>
-    <v>-0.05</v>
-    <v>-5.5369999999999994E-3</v>
-    <v>14770000</v>
+    <v>-0.01</v>
+    <v>-1.114E-3</v>
+    <v>9857600</v>
   </rv>
   <rv s="2">
     <v>125</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bgn377&amp;q=BVMF%3aIVVB11&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="4">
+    <v>pt-BR</v>
+    <v>bgn377</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Da plataforma Refinitiv</v>
+    <v>10</v>
+    <v>11</v>
+    <v>iShares S&amp;P 500 FIC FI IE (BVMF:IVVB11)</v>
+    <v>8</v>
+    <v>12</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>243.98</v>
+    <v>204.11</v>
+    <v>BVMF</v>
+    <v>233.39</v>
+    <v>231.01</v>
+    <v>1.0201</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>3105013970</v>
+    <v>231.6</v>
+    <v>45075.846489582815</v>
+    <v>127</v>
+    <v>BRL</v>
+    <v>iShares S&amp;P 500 FIC FI IE</v>
+    <v>231.59</v>
+    <v>233.39</v>
+    <v>IVVB11</v>
+    <v>Fundos mais negociados</v>
+    <v>iShares S&amp;P 500 FIC FI IE (BVMF:IVVB11)</v>
+    <v>1.79</v>
+    <v>7.7290000000000006E-3</v>
+    <v>134926</v>
+  </rv>
+  <rv s="2">
+    <v>128</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c4bnm7&amp;q=BVMF%3aJGPX11&amp;form=skydnc</v>
@@ -3086,28 +3138,28 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>99.99</v>
+    <v>103</v>
     <v>93.03</v>
     <v>BVMF</v>
-    <v>97.5</v>
+    <v>103</v>
     <v>96.55</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>97.25</v>
-    <v>45072.947928240741</v>
-    <v>127</v>
+    <v>97.1</v>
+    <v>45075.892384259256</v>
+    <v>130</v>
     <v>BRL</v>
     <v>FI DAS CADEIAS PROD AGRO JGP CRED CEF</v>
-    <v>96.55</v>
-    <v>97.1</v>
+    <v>97.49</v>
+    <v>97.5</v>
     <v>JGPX11</v>
     <v>Fundos mais negociados</v>
     <v>FI DAS CADEIAS PROD AGRO JGP CRED CEF (BVMF:JGPX11)</v>
-    <v>-0.15</v>
-    <v>-1.542E-3</v>
-    <v>460</v>
+    <v>0.4</v>
+    <v>4.1190000000000003E-3</v>
+    <v>6246</v>
   </rv>
   <rv s="2">
-    <v>128</v>
+    <v>131</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c4nxtc&amp;q=BVMF%3aJURO11&amp;form=skydnc</v>
@@ -3129,25 +3181,25 @@
     <v>110</v>
     <v>90.46</v>
     <v>BVMF</v>
-    <v>102.1</v>
-    <v>101.2</v>
+    <v>102.16</v>
+    <v>101.35</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>101.54</v>
-    <v>45072.947928240741</v>
-    <v>130</v>
+    <v>101.99</v>
+    <v>45075.837500068752</v>
+    <v>133</v>
     <v>BRL</v>
     <v>SPARTA INFRA FIC FI INFRA RF CP</v>
-    <v>101.3</v>
-    <v>101.99</v>
+    <v>102</v>
+    <v>101.58</v>
     <v>JURO11</v>
     <v>Fundos mais negociados</v>
     <v>SPARTA INFRA FIC FI INFRA RF CP (BVMF:JURO11)</v>
-    <v>0.45</v>
-    <v>4.4320000000000002E-3</v>
-    <v>11505</v>
+    <v>-0.41</v>
+    <v>-4.0200000000000001E-3</v>
+    <v>13308</v>
   </rv>
   <rv s="2">
-    <v>131</v>
+    <v>134</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bv5u1h&amp;q=BVMF%3aKDIF11&amp;form=skydnc</v>
@@ -3169,25 +3221,25 @@
     <v>138.99</v>
     <v>123.12</v>
     <v>BVMF</v>
-    <v>131.65</v>
-    <v>129.55000000000001</v>
+    <v>132</v>
+    <v>130.65</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>130</v>
-    <v>45072.947928240741</v>
-    <v>133</v>
+    <v>130.04</v>
+    <v>45075.836806400002</v>
+    <v>136</v>
     <v>BRL</v>
     <v>KINEA INFRA FDO INV EM COTAS DE FIDC IE</v>
-    <v>131.49</v>
-    <v>130.04</v>
+    <v>130.69</v>
+    <v>131.57</v>
     <v>KDIF11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA INFRA FDO INV EM COTAS DE FIDC IE (BVMF:KDIF11)</v>
-    <v>0.04</v>
-    <v>3.077E-4</v>
-    <v>18183</v>
+    <v>1.53</v>
+    <v>1.1766E-2</v>
+    <v>15991</v>
   </rv>
   <rv s="2">
-    <v>134</v>
+    <v>137</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apmtnm&amp;q=BVMF%3aKEPL3&amp;form=skydnc</v>
@@ -3210,35 +3262,35 @@
     <v>6</v>
     <v>BVMF</v>
     <v>179720100</v>
-    <v>8.75</v>
+    <v>8.9</v>
     <v>1936</v>
-    <v>8.18</v>
+    <v>8.65</v>
     <v>0.93630000000000002</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1565362000</v>
+    <v>1565362071</v>
     <v>A Kepler Weber S.A., anteriormente Kepler Weber S.A. Indústria Comércio Importação e Exportação, é uma empresa brasileira que se dedica essencialmente à produção de sistemas de armazenamento de grãos. Através de suas subsidiárias, a Empresa atua no desenvolvimento, fabricação e distribuição de equipamentos para armazenamento e conservação de grãos. O portfólio da Empresa inclui silos metálicos, com fundo em forma de funil ou plano, secadores, máquinas de limpeza e pré-limpeza de grãos e transportadores de grãos, entre outros. A Empresa também desenvolve e produz sistemas e equipamentos para terminais portuários e estocagem de malte. Além disso, a Kepler Weber fornece peças de reposição e serviços de reparação e manutenção para seus produtos. Em 31 de dezembro de 2011, as subsidiárias da Empresa eram a Kepler Weber Industrial S.A. e a Kepler Weber Peças e Serviços Ltda.</v>
     <v>BVMF</v>
-    <v>8.08</v>
+    <v>8.7100000000000009</v>
     <v>1925</v>
-    <v>45072.947962962964</v>
-    <v>136</v>
-    <v>2042800</v>
+    <v>45075.838194964846</v>
+    <v>139</v>
+    <v>2147610</v>
     <v>BRL</v>
     <v>Kepler Weber S.A.</v>
     <v>Kepler Weber S.A.</v>
-    <v>8.18</v>
+    <v>8.8000000000000007</v>
     <v>8.7100000000000009</v>
     <v>Rua do Rocio n 84, 3 andar, Vila Olimpia, SAO PAULO, SAO PAULO, 04.552-000 BR</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>KEPL3</v>
     <v>Ações</v>
     <v>Kepler Weber S.A. (BVMF:KEPL3)</v>
-    <v>0.63</v>
-    <v>7.7969999999999998E-2</v>
-    <v>2689300</v>
+    <v>0</v>
+    <v>0</v>
+    <v>1374300</v>
   </rv>
   <rv s="2">
-    <v>137</v>
+    <v>140</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c4w2z2&amp;q=BVMF%3aKNCA11&amp;form=skydnc</v>
@@ -3260,25 +3312,25 @@
     <v>113.68</v>
     <v>102.5</v>
     <v>BVMF</v>
-    <v>106.43</v>
-    <v>105.74</v>
+    <v>106.5</v>
+    <v>105.36</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>105.74</v>
-    <v>45072.947928240741</v>
-    <v>139</v>
+    <v>105.97</v>
+    <v>45075.837500000001</v>
+    <v>142</v>
     <v>BRL</v>
     <v>KINEA CREDITO AGRO FIAGRO IMOB CEF</v>
-    <v>105.74</v>
-    <v>105.97</v>
+    <v>106</v>
+    <v>106.3</v>
     <v>KNCA11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA CREDITO AGRO FIAGRO IMOB CEF (BVMF:KNCA11)</v>
-    <v>0.23</v>
-    <v>2.1749999999999999E-3</v>
-    <v>15273</v>
+    <v>0.33</v>
+    <v>3.114E-3</v>
+    <v>31916</v>
   </rv>
   <rv s="2">
-    <v>140</v>
+    <v>143</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bwrbzr&amp;q=BVMF%3aKNSC11&amp;form=skydnc</v>
@@ -3301,24 +3353,24 @@
     <v>78.040000000000006</v>
     <v>BVMF</v>
     <v>90</v>
-    <v>88.15</v>
+    <v>88.9</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>88.48</v>
-    <v>45072.947962962964</v>
-    <v>142</v>
+    <v>89.44</v>
+    <v>45075.836806214844</v>
+    <v>145</v>
     <v>BRL</v>
     <v>KINEA SECURITIES FDO DE INV IMOB CF</v>
-    <v>88.5</v>
-    <v>89.44</v>
+    <v>89.4</v>
+    <v>90</v>
     <v>KNSC11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA SECURITIES FDO DE INV IMOB CF (BVMF:KNSC11)</v>
-    <v>0.96</v>
-    <v>1.085E-2</v>
-    <v>36826</v>
+    <v>0.56000000000000005</v>
+    <v>6.2610000000000001E-3</v>
+    <v>19227</v>
   </rv>
   <rv s="2">
-    <v>143</v>
+    <v>146</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c2vjhw&amp;q=BVMF%3aLVTC3&amp;form=skydnc</v>
@@ -3341,34 +3393,34 @@
     <v>4.66</v>
     <v>BVMF</v>
     <v>64663060</v>
-    <v>5.5</v>
+    <v>5.58</v>
     <v>2003</v>
-    <v>5.37</v>
+    <v>5.13</v>
     <v>1.4610000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>355000200</v>
+    <v>360173244</v>
     <v>A Livetech da Bahia Industria e Comercio SA (WDC Networks) é uma empresa de fornecimento de equipamentos e de soluções de Telecom, Tecnologia da Informação (TI), e Energia Solar sediada no Brasil que atende uma variada gama de clientes nacionalmente e na Colômbia, Estados Unidos e Panamá. A Companhia desenvolveu um modelo de negócio de locação de equipamentos, transformando Capex em Opex, denominado como TaaS (Technology as a Service). A Companhia fornece serviços e produtos, incluindo infraestrutura de banda larga, câmeras de vigilância, sistemas de controle de acesso, Cibersegurança, data center, automação, e geradores de energia solar.</v>
     <v>BVMF</v>
-    <v>5.42</v>
-    <v>45072.947962962964</v>
-    <v>145</v>
-    <v>100560</v>
+    <v>5.49</v>
+    <v>45075.833333333336</v>
+    <v>148</v>
+    <v>95670</v>
     <v>BRL</v>
     <v>Livetech da Bahia Indústria e Comércio S.A.</v>
     <v>Livetech da Bahia Indústria e Comércio S.A.</v>
-    <v>5.43</v>
-    <v>5.49</v>
+    <v>5.58</v>
+    <v>5.57</v>
     <v>Rodovia BA-262, Ilheus x Urucuca, s/n, Km 2,8 Quadra A, Polo de Informatica, Iguape, ILHEUS, BAHIA, 45.658-335 BR</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>LVTC3</v>
     <v>Ações</v>
     <v>Livetech da Bahia Indústria e Comércio S.A. (BVMF:LVTC3)</v>
-    <v>7.0000000000000007E-2</v>
-    <v>1.2915000000000001E-2</v>
-    <v>74100</v>
+    <v>0.08</v>
+    <v>1.4572E-2</v>
+    <v>104800</v>
   </rv>
   <rv s="2">
-    <v>146</v>
+    <v>149</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=buh7oc&amp;q=BVMF%3aMORE11&amp;form=skydnc</v>
@@ -3390,25 +3442,25 @@
     <v>71.540000000000006</v>
     <v>57.7</v>
     <v>BVMF</v>
-    <v>66.709999999999994</v>
-    <v>65.84</v>
+    <v>67.39</v>
+    <v>65.459999999999994</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>66.14</v>
-    <v>45072.947962962964</v>
-    <v>148</v>
+    <v>66.53</v>
+    <v>45075.833333333336</v>
+    <v>151</v>
     <v>BRL</v>
     <v>MORE REAL ESTATE FOF FII</v>
-    <v>66</v>
     <v>66.53</v>
+    <v>66.430000000000007</v>
     <v>MORE11</v>
     <v>Fundos mais negociados</v>
     <v>MORE REAL ESTATE FOF FII (BVMF:MORE11)</v>
-    <v>0.39</v>
-    <v>5.8970000000000003E-3</v>
-    <v>3806</v>
+    <v>-0.1</v>
+    <v>-1.503E-3</v>
+    <v>4080</v>
   </rv>
   <rv s="2">
-    <v>149</v>
+    <v>152</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=btotsm&amp;q=BVMF%3aMTRE3&amp;form=skydnc</v>
@@ -3431,35 +3483,35 @@
     <v>3.05</v>
     <v>BVMF</v>
     <v>105774800</v>
-    <v>5.34</v>
+    <v>5.6</v>
     <v>2005</v>
-    <v>5.08</v>
+    <v>5.26</v>
     <v>1.4370000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>562722000</v>
+    <v>584934644</v>
     <v>A Mitre Realty Empreendimentos e Participações SA (Mitre Realty) é uma construtora com sede no Brasil. A Sociedade tem por objeto a incorporação, construção e comercialização de unidades imobiliárias residenciais na Cidade de São Paulo. Seus produtos são divididos em duas linhas: Raizes, voltada para clientes de classe média e Haus Mitre, voltada para clientes de classe média alta. O portfólio da empresa é composto por mais de 20 edifícios que oferecem apartamentos com serviços exclusivos, pontos de acesso e áreas comuns. A Mitre Realty possui várias subsidiárias, como Amaro Bezerra Empreendimentos e Participações Ltda, Mitre Le Champs Empreendimentos e Participações Ltda, Mitre Vendas Corretagem de Imóveis Ltda e MJF Construções Ltda, entre outras.</v>
     <v>BVMF</v>
-    <v>5.15</v>
+    <v>5.32</v>
     <v>159</v>
-    <v>45072.947962962964</v>
-    <v>151</v>
-    <v>1503930</v>
+    <v>45075.838194999997</v>
+    <v>154</v>
+    <v>1474450</v>
     <v>BRL</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A.</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A.</v>
-    <v>5.15</v>
-    <v>5.32</v>
+    <v>5.26</v>
+    <v>5.53</v>
     <v>Alameda Santos, 700, 5 Andar, Jardim Paulista, SAO PAULO, SAO PAULO, 01.418-002 BR</v>
     <v>Homebuilding &amp; Construction Supplies</v>
     <v>MTRE3</v>
     <v>Ações</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A. (BVMF:MTRE3)</v>
-    <v>0.17</v>
-    <v>3.3010000000000005E-2</v>
-    <v>550100</v>
+    <v>0.21</v>
+    <v>3.9474000000000002E-2</v>
+    <v>1211100</v>
   </rv>
   <rv s="2">
-    <v>152</v>
+    <v>155</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bgmpxm&amp;q=BVMF%3aNCHB11&amp;form=skydnc</v>
@@ -3481,25 +3533,25 @@
     <v>87.2</v>
     <v>74.3</v>
     <v>BVMF</v>
-    <v>86.45</v>
-    <v>86.04</v>
+    <v>86.51</v>
+    <v>86</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>85.93</v>
-    <v>45072.947962962964</v>
-    <v>154</v>
+    <v>86.38</v>
+    <v>45075.828958333332</v>
+    <v>157</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII NCH BRASIL RECEBIVEIS IMOB CF</v>
-    <v>86.37</v>
-    <v>86.38</v>
+    <v>86.29</v>
+    <v>86.5</v>
     <v>NCHB11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII NCH BRASIL RECEBIVEIS IMOB CF (BVMF:NCHB11)</v>
-    <v>0.45</v>
-    <v>5.2370000000000003E-3</v>
-    <v>2424</v>
+    <v>0.12</v>
+    <v>1.389E-3</v>
+    <v>2129</v>
   </rv>
   <rv s="2">
-    <v>155</v>
+    <v>158</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apn2kr&amp;q=BVMF%3aOIBR3&amp;form=skydnc</v>
@@ -3519,38 +3571,38 @@
     <v>Finance</v>
     <v>5</v>
     <v>7.6</v>
-    <v>0.99</v>
+    <v>0.97</v>
     <v>BVMF</v>
     <v>660303800</v>
     <v>1.04</v>
     <v>1963</v>
-    <v>1.02</v>
+    <v>0.97</v>
     <v>1.4356</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>701563800</v>
     <v>Oi SA em Recuperacao Judicial, anteriormente Oi S.A., constituída em 27 de novembro de 1963, é uma prestadora de serviços integrados de telecomunicações no Brasil. A Companhia é uma concessionária de serviços de telefonia fixa comutada (STFC). Atua no fornecimento de STFC como operadora de longa distância local e intra-regional. Seus segmentos incluem Serviços Residenciais, Mobilidade Pessoal e PMEs / Empresas. Oferece uma gama de serviços integrados de telecomunicações que incluem serviços de telefonia fixa e móvel, banda larga, televisão paga (TV), transmissão de dados e provedores de Internet. O segmento de Serviços Residenciais da Companhia é focado na venda de serviços de telefonia fixa, incluindo serviços de voz, serviços de comunicação de dados (banda larga) e televisão paga (TV). O segmento de Mobilidade Pessoal está focado na venda de serviços de telefonia móvel para assinantes e clientes pré-pagos e clientes de banda larga móvel. O segmento de PMEs / Empresas inclui soluções corporativas oferecidas a seus pequenas, médias e grandes empresas.</v>
     <v>BVMF</v>
-    <v>1.02</v>
+    <v>1.03</v>
     <v>6558</v>
-    <v>45072.947928240741</v>
-    <v>157</v>
-    <v>68260</v>
+    <v>45075.892627314817</v>
+    <v>160</v>
+    <v>72510</v>
     <v>BRL</v>
     <v>Oi S.A. – Em Recuperação Judicial</v>
     <v>Oi S.A. – Em Recuperação Judicial</v>
-    <v>1.03</v>
-    <v>1.03</v>
+    <v>1.04</v>
+    <v>1.02</v>
     <v>Rua do Lavradio, 71,2 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.230-070 BR</v>
     <v>Telecommunications Services</v>
     <v>OIBR3</v>
     <v>Ações</v>
     <v>Oi S.A. – Em Recuperação Judicial (BVMF:OIBR3)</v>
-    <v>0.01</v>
-    <v>9.8040000000000002E-3</v>
-    <v>6186400</v>
+    <v>-0.01</v>
+    <v>-9.7090000000000006E-3</v>
+    <v>13592800</v>
   </rv>
   <rv s="2">
-    <v>158</v>
+    <v>161</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apn4gh&amp;q=BVMF%3aPETR4&amp;form=skydnc</v>
@@ -3573,35 +3625,35 @@
     <v>16.52</v>
     <v>BVMF</v>
     <v>13044500000</v>
-    <v>26.91</v>
+    <v>26.82</v>
     <v>1953</v>
-    <v>26.53</v>
+    <v>26.56</v>
     <v>1.4388000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>373706100000</v>
     <v>A PETRÓLEO BRASILEIRO S.A. - PETROBRAS é uma empresa especializada na indústria de petróleo, gás natural e energia. A Empresa está envolvida na prospecção, perfuração, refinação, transformação, comercialização e transporte de petróleo bruto proveniente da produção de campos petrolíferos onshore e offshore e de xisto ou outras rochas. Seus segmentos incluem Exploração e Produção, que abrange as atividades de exploração, desenvolvimento e produção de petróleo bruto, gás natural líquido e gás natural; Refinação, Transporte e Marketing, que abrange as atividades de refinação, logística, transporte e comercialização de petróleo, exportação de etanol e extração e processamento de xistos; Gás e Energia, que se dedica ao transporte e comercialização de gás natural produzido no Brasil e gás natural importado; Biocombustíveis, que abrange as atividades de produção de biodiesel e seus co-produtos, e atividades relacionadas ao etanol; Distribuição, que inclui as atividades de sua subsidiária Petrobras Distribuidora S.A. e Corporativa.</v>
     <v>BVMF</v>
-    <v>26.45</v>
+    <v>26.8</v>
     <v>45149</v>
-    <v>45072.947916666664</v>
-    <v>160</v>
-    <v>75308720</v>
+    <v>45075.838811029687</v>
+    <v>163</v>
+    <v>67584690</v>
     <v>BRL</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
-    <v>26.81</v>
-    <v>26.8</v>
+    <v>26.75</v>
+    <v>26.69</v>
     <v>Av. Republica do Chile, n 65, 24 andar, Centro, Rio de Janeiro, RIO DE JANEIRO, 20.031-912 BR</v>
     <v>Oil &amp; Gas</v>
     <v>PETR4</v>
     <v>Ações</v>
     <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
-    <v>0.35</v>
-    <v>1.3233E-2</v>
-    <v>39809900</v>
+    <v>-0.11</v>
+    <v>-4.104E-3</v>
+    <v>17917700</v>
   </rv>
   <rv s="2">
-    <v>161</v>
+    <v>164</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bsryjc&amp;q=BVMF%3aQAGR11&amp;form=skydnc</v>
@@ -3624,24 +3676,24 @@
     <v>39.56</v>
     <v>BVMF</v>
     <v>45.09</v>
-    <v>44.73</v>
+    <v>44.91</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>44.75</v>
-    <v>45072.947962962964</v>
-    <v>163</v>
+    <v>45.09</v>
+    <v>45075.828344907408</v>
+    <v>166</v>
     <v>BRL</v>
     <v>QUASAR AGRO - FDO INV. IMOB. ETF</v>
-    <v>44.76</v>
-    <v>45.09</v>
+    <v>45</v>
+    <v>45.05</v>
     <v>QAGR11</v>
     <v>Fundos mais negociados</v>
     <v>QUASAR AGRO - FDO INV. IMOB. ETF (BVMF:QAGR11)</v>
-    <v>0.34</v>
-    <v>7.5980000000000006E-3</v>
-    <v>2687</v>
+    <v>-0.04</v>
+    <v>-8.8709999999999993E-4</v>
+    <v>3811</v>
   </rv>
   <rv s="2">
-    <v>164</v>
+    <v>167</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=buizm7&amp;q=BVMF%3aRBHG11&amp;form=skydnc</v>
@@ -3663,25 +3715,25 @@
     <v>84.95</v>
     <v>71.87</v>
     <v>BVMF</v>
-    <v>84.95</v>
-    <v>82.04</v>
+    <v>83.89</v>
+    <v>82.4</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>83.6</v>
-    <v>45072.947962962964</v>
-    <v>166</v>
+    <v>82.6</v>
+    <v>45075.833333333336</v>
+    <v>169</v>
     <v>BRL</v>
     <v>RIO BRAVO CREDITO IMOB IV FII</v>
-    <v>83.18</v>
     <v>82.6</v>
+    <v>82.9</v>
     <v>RBHG11</v>
     <v>Fundos mais negociados</v>
     <v>RIO BRAVO CREDITO IMOB IV FII (BVMF:RBHG11)</v>
-    <v>-1</v>
-    <v>-1.1961999999999999E-2</v>
-    <v>13756</v>
+    <v>0.3</v>
+    <v>3.6320000000000002E-3</v>
+    <v>6711</v>
   </rv>
   <rv s="2">
-    <v>167</v>
+    <v>170</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bjm5yc&amp;q=BVMF%3aRBRP11&amp;form=skydnc</v>
@@ -3703,25 +3755,25 @@
     <v>61.96</v>
     <v>43.1</v>
     <v>BVMF</v>
-    <v>58</v>
-    <v>56.05</v>
+    <v>57.5</v>
+    <v>55.77</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>57.1</v>
-    <v>45072.947962962964</v>
-    <v>169</v>
+    <v>56.5</v>
+    <v>45075.836805705469</v>
+    <v>172</v>
     <v>BRL</v>
     <v>FDO INV IMOB RBR PROPERTIES CF</v>
-    <v>56.71</v>
-    <v>56.5</v>
+    <v>56.65</v>
+    <v>56.39</v>
     <v>RBRP11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB RBR PROPERTIES CF (BVMF:RBRP11)</v>
-    <v>-0.6</v>
-    <v>-1.0508E-2</v>
-    <v>76750</v>
+    <v>-0.11</v>
+    <v>-1.9470000000000002E-3</v>
+    <v>15839</v>
   </rv>
   <rv s="2">
-    <v>170</v>
+    <v>173</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bjm627&amp;q=BVMF%3aRBRR11&amp;form=skydnc</v>
@@ -3743,25 +3795,25 @@
     <v>91.8</v>
     <v>75.44</v>
     <v>BVMF</v>
-    <v>91.5</v>
-    <v>89.43</v>
+    <v>90.29</v>
+    <v>89.51</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>90.43</v>
-    <v>45072.947962962964</v>
-    <v>172</v>
+    <v>90.21</v>
+    <v>45075.836806250001</v>
+    <v>175</v>
     <v>BRL</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF</v>
-    <v>90.43</v>
-    <v>90.21</v>
+    <v>90.29</v>
+    <v>89.85</v>
     <v>RBRR11</v>
     <v>Fundos mais negociados</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF (BVMF:RBRR11)</v>
-    <v>-0.22</v>
-    <v>-2.4329999999999998E-3</v>
-    <v>31090</v>
+    <v>-0.36</v>
+    <v>-3.9909999999999998E-3</v>
+    <v>22161</v>
   </rv>
   <rv s="2">
-    <v>173</v>
+    <v>176</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apmka2&amp;q=BVMF%3aRCRB11&amp;form=skydnc</v>
@@ -3783,25 +3835,25 @@
     <v>143.74</v>
     <v>103.64</v>
     <v>BVMF</v>
-    <v>138.22999999999999</v>
-    <v>135</v>
+    <v>138.26</v>
+    <v>135.12</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>134.99</v>
-    <v>45072.947962962964</v>
-    <v>175</v>
+    <v>137.99</v>
+    <v>45075.833333333336</v>
+    <v>178</v>
     <v>BRL</v>
     <v>FDO INV IMOB RIO BRAVO RENDA COR ETF</v>
-    <v>135</v>
     <v>137.99</v>
+    <v>136.63</v>
     <v>RCRB11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB RIO BRAVO RENDA COR ETF (BVMF:RCRB11)</v>
-    <v>3</v>
-    <v>2.2224000000000001E-2</v>
-    <v>3003</v>
+    <v>-1.36</v>
+    <v>-9.8560000000000002E-3</v>
+    <v>4351</v>
   </rv>
   <rv s="2">
-    <v>176</v>
+    <v>179</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bwn8hw&amp;q=BVMF%3aRRRP3&amp;form=skydnc</v>
@@ -3824,34 +3876,34 @@
     <v>25.94</v>
     <v>BVMF</v>
     <v>239897400</v>
-    <v>31.67</v>
+    <v>31.07</v>
     <v>2010</v>
-    <v>30.18</v>
+    <v>30.45</v>
     <v>1.7050000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7364852000</v>
+    <v>7331264544</v>
     <v>A 3R Petroleum Oleo e Gas SA, anteriormente conhecida como Ouro Preto Oleo e Gas SA, é uma empresa com sede no Brasil que atua no setor de petróleo e gás. A Empresa é uma holding que investe em empresas que atuam na exploração, produção e comercialização de petróleo e seus derivados, gás natural e outros hidrocarbonetos fluidos. A empresa se concentra no redesenvolvimento e revitalização de campos de produção maduros localizados em terra (onshore) e em águas rasas. A Firma possui diversas subsidiárias, tais como SPE 3R Petroleum SA, SPE Fazenda Belém SA, SPE Rio Ventura SA, Ouro Preto Energia Onshore SA e OP Energia Ltda e OP Pescada Oleo e Gas Ltda. Por meio de suas controladas, a Companhia atua nos estados da Bahia, Rio Grande do Norte e Ceará.</v>
     <v>BVMF</v>
-    <v>31.24</v>
-    <v>45072.947939814818</v>
-    <v>178</v>
-    <v>8780850</v>
+    <v>30.7</v>
+    <v>45075.838586816404</v>
+    <v>181</v>
+    <v>8899970</v>
     <v>BRL</v>
     <v>3R Petroleum Óleo e Gás S.A.</v>
     <v>3R Petroleum Óleo e Gás S.A.</v>
-    <v>31.51</v>
-    <v>30.7</v>
+    <v>30.69</v>
+    <v>30.56</v>
     <v>Rua Visconde de Ouro Preto, 5 Sala 601, Botafogo, Rio De Janeiro, RIO DE JANEIRO, 22.250-180 BR</v>
     <v>Oil &amp; Gas</v>
     <v>RRRP3</v>
     <v>Ações</v>
     <v>3R Petroleum Óleo e Gás S.A. (BVMF:RRRP3)</v>
-    <v>-0.54</v>
-    <v>-1.7285999999999999E-2</v>
-    <v>6499900</v>
+    <v>-0.14000000000000001</v>
+    <v>-4.5599999999999998E-3</v>
+    <v>2826600</v>
   </rv>
   <rv s="2">
-    <v>179</v>
+    <v>182</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=c5gxf2&amp;q=BVMF%3aRURA11&amp;form=skydnc</v>
@@ -3873,25 +3925,25 @@
     <v>10.82</v>
     <v>9.8000000000000007</v>
     <v>BVMF</v>
-    <v>10.35</v>
-    <v>10.23</v>
+    <v>10.43</v>
+    <v>10.26</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>10.24</v>
-    <v>45072.947928240741</v>
-    <v>181</v>
+    <v>10.31</v>
+    <v>45075.836806180472</v>
+    <v>184</v>
     <v>BRL</v>
     <v>ITAU ASSET RURAL FIAGRO CF</v>
     <v>10.27</v>
-    <v>10.31</v>
+    <v>10.43</v>
     <v>RURA11</v>
     <v>Fundos mais negociados</v>
     <v>ITAU ASSET RURAL FIAGRO CF (BVMF:RURA11)</v>
-    <v>7.0000000000000007E-2</v>
-    <v>6.8360000000000001E-3</v>
-    <v>119034</v>
+    <v>0.12</v>
+    <v>1.1639E-2</v>
+    <v>65551</v>
   </rv>
   <rv s="2">
-    <v>182</v>
+    <v>185</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=ay1qfr&amp;q=BVMF%3aSAPR11&amp;form=skydnc</v>
@@ -3913,25 +3965,25 @@
     <v>21.19</v>
     <v>15.44</v>
     <v>BVMF</v>
-    <v>21.19</v>
-    <v>20.64</v>
+    <v>21.12</v>
+    <v>20.65</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>21.04</v>
-    <v>45072.947928240741</v>
-    <v>184</v>
+    <v>20.87</v>
+    <v>45075.837500300782</v>
+    <v>187</v>
     <v>BRL</v>
     <v>CIA SANEAMENTO DO PARANA UNT</v>
-    <v>21.17</v>
-    <v>20.87</v>
+    <v>20.86</v>
+    <v>21.12</v>
     <v>SAPR11</v>
     <v>Fundos mais negociados</v>
     <v>CIA SANEAMENTO DO PARANA UNT (BVMF:SAPR11)</v>
-    <v>-0.17</v>
-    <v>-8.0800000000000004E-3</v>
-    <v>1075000</v>
+    <v>0.25</v>
+    <v>1.1979E-2</v>
+    <v>562800</v>
   </rv>
   <rv s="2">
-    <v>185</v>
+    <v>188</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bpryr7&amp;q=BVMF%3aSBFG3&amp;form=skydnc</v>
@@ -3954,35 +4006,35 @@
     <v>6.82</v>
     <v>BVMF</v>
     <v>243596100</v>
-    <v>10.31</v>
+    <v>10.11</v>
     <v>2011</v>
-    <v>9.85</v>
+    <v>9.67</v>
     <v>1.534</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>2450577000</v>
+    <v>2414037351</v>
     <v>O Grupo SBF SA é uma empresa sediada no Brasil que atua no setor de vestuário e vestuário. A empresa é especializada no varejo de roupas através de uma rede de lojas, bem como através do seu site na Internet. A Companhia oferece diferentes tipos de produtos dividindo-os em: esportes, homens, mulheres, crianças, calçados, acessórios, equipamentos e suplementos, entre outros. A Companhia também oferece seus produtos outlet, em uma seção especial onde oferece produtos antigos com desconto no preço. É vendido em mais de 180 lojas em regiões como Espírito Santo, São Paulo, Amazonas e Rio de Janeiro, dentro do território brasileiro. Também opera um serviço de personal trainer on-line chamado Bora.</v>
     <v>BVMF</v>
-    <v>9.7200000000000006</v>
+    <v>10.06</v>
     <v>8196</v>
-    <v>45072.947962962964</v>
-    <v>187</v>
-    <v>1850420</v>
+    <v>45075.838194652344</v>
+    <v>190</v>
+    <v>2075610</v>
     <v>BRL</v>
     <v>GRUPO SBF S.A.</v>
     <v>GRUPO SBF S.A.</v>
-    <v>9.89</v>
-    <v>10.06</v>
+    <v>10.1</v>
+    <v>9.91</v>
     <v>Av Dra Ruth Cardoso 7221 Andar Ed Birman 3, Pinheiros, PINHEIROS, SAO PAULO, 05.425-902 BR</v>
     <v>Specialty Retailers</v>
     <v>SBFG3</v>
     <v>Ações</v>
     <v>GRUPO SBF S.A. (BVMF:SBFG3)</v>
-    <v>0.34</v>
-    <v>3.4979000000000003E-2</v>
-    <v>3548700</v>
+    <v>-0.15</v>
+    <v>-1.4911000000000001E-2</v>
+    <v>1858300</v>
   </rv>
   <rv s="2">
-    <v>188</v>
+    <v>191</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bjm7ww&amp;q=BVMF%3aSMAL11&amp;form=skydnc</v>
@@ -4004,27 +4056,27 @@
     <v>117.5</v>
     <v>83</v>
     <v>BVMF</v>
-    <v>102.35</v>
-    <v>100.48</v>
+    <v>102.05</v>
+    <v>101.04</v>
     <v>1.1407</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>2698255668</v>
-    <v>100.67</v>
-    <v>45072.947916666664</v>
-    <v>190</v>
+    <v>101.45</v>
+    <v>45075.844444490627</v>
+    <v>193</v>
     <v>BRL</v>
     <v>IShares BM&amp;FBovespa Small Cap</v>
-    <v>101.8</v>
-    <v>101.45</v>
+    <v>101.74</v>
+    <v>101.57</v>
     <v>SMAL11</v>
     <v>Fundos mais negociados</v>
     <v>IShares BM&amp;FBovespa Small Cap (BVMF:SMAL11)</v>
-    <v>0.78</v>
-    <v>7.7480000000000005E-3</v>
-    <v>3025647</v>
+    <v>0.12</v>
+    <v>1.183E-3</v>
+    <v>1420925</v>
   </rv>
   <rv s="2">
-    <v>191</v>
+    <v>194</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bvkmhw&amp;q=BVMF%3aURPR11&amp;form=skydnc</v>
@@ -4046,77 +4098,76 @@
     <v>101</v>
     <v>85.96</v>
     <v>BVMF</v>
-    <v>97.2</v>
-    <v>96.18</v>
+    <v>97.35</v>
+    <v>96.33</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>96.15</v>
-    <v>45072.947962962964</v>
-    <v>193</v>
+    <v>96.83</v>
+    <v>45075.836806411717</v>
+    <v>196</v>
     <v>BRL</v>
     <v>URCA PRIME RENDA FII CF</v>
-    <v>96.3</v>
-    <v>96.83</v>
+    <v>96.8</v>
+    <v>97.24</v>
     <v>URPR11</v>
     <v>Fundos mais negociados</v>
     <v>URCA PRIME RENDA FII CF (BVMF:URPR11)</v>
-    <v>0.68</v>
-    <v>7.0720000000000002E-3</v>
-    <v>22778</v>
+    <v>0.41</v>
+    <v>4.2339999999999999E-3</v>
+    <v>22336</v>
   </rv>
   <rv s="2">
-    <v>194</v>
+    <v>197</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnjsm&amp;q=BVMF%3aVALE3&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="9">
+  <rv s="1">
     <v>pt-BR</v>
     <v>apnjsm</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
-    <v>22</v>
-    <v>23</v>
+    <v>0</v>
+    <v>1</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
     <v>3</v>
-    <v>24</v>
+    <v>4</v>
     <v>Finance</v>
-    <v>25</v>
+    <v>5</v>
     <v>96.18</v>
     <v>60.37</v>
     <v>BVMF</v>
     <v>4539008000</v>
-    <v>67.040000000000006</v>
+    <v>67.7</v>
     <v>1943</v>
-    <v>65.91</v>
+    <v>65.739999999999995</v>
     <v>0.53359999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>301072400000</v>
+    <v>298802896640</v>
     <v>A Vale S.A. é uma produtora global de minério de ferro e pelotas de minério de ferro, principais matérias-primas para a produção de aço e produtora de níquel. A Companhia também produz cobre, carvão metalúrgico e térmico, potássio, fosfatos e outros nutrientes fertilizantes, minério de manganês, ferroligas, metais do grupo da platina, ouro, prata e cobalto. Os segmentos da Companhia incluem minerais Ferrosos, que engloba a produção e extração de minerais ferrosos, como finos de minério de ferro, pelotas de minério de ferro e seus serviços de logística, manganês e ferroligas e outros produtos e serviços ferrosos; Carvão, que compreende a extração de carvão metalúrgico e térmico e seus serviços logísticos; Metais básicos, que incluem a produção e extração de minerais não-ferrosos, e são apresentados como níquel e seus derivados, e cobre (concentrado de cobre), e Outros, que engloba as vendas e despesas de outros produtos, serviços e investimentos em joint ventures e associar em outros negócios.</v>
     <v>BVMF</v>
-    <v>64.849999999999994</v>
+    <v>66.33</v>
     <v>64516</v>
-    <v>45072.947916666664</v>
-    <v>196</v>
-    <v>27802720</v>
+    <v>45075.838713240628</v>
+    <v>199</v>
+    <v>29868380</v>
     <v>BRL</v>
     <v>VALE S.A.</v>
     <v>VALE S.A.</v>
-    <v>66.75</v>
-    <v>66.33</v>
-    <v>66.95</v>
+    <v>67.34</v>
+    <v>65.83</v>
     <v>Pr Botafogo 00186 Sal 1101 Sal 1601 Sal 1701 Sal 1801, Botafogo, RIO DE JANEIRO, RIO DE JANEIRO, 22.250-145 BR</v>
     <v>Metals &amp; Mining</v>
     <v>VALE3</v>
     <v>Ações</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
-    <v>1.48</v>
-    <v>2.2821999999999999E-2</v>
-    <v>38148200</v>
+    <v>-0.5</v>
+    <v>-7.5380000000000004E-3</v>
+    <v>17137500</v>
   </rv>
   <rv s="2">
-    <v>197</v>
+    <v>200</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bpiutc&amp;q=BVMF%3aVILG11&amp;form=skydnc</v>
@@ -4138,25 +4189,25 @@
     <v>105.7</v>
     <v>81.95</v>
     <v>BVMF</v>
-    <v>98.7</v>
-    <v>98.17</v>
+    <v>98.58</v>
+    <v>98.05</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>98.7</v>
-    <v>45072.947962962964</v>
-    <v>199</v>
+    <v>98.58</v>
+    <v>45075.833333333336</v>
+    <v>202</v>
     <v>BRL</v>
     <v>FII VINCILOG ETF</v>
-    <v>98.7</v>
-    <v>98.58</v>
+    <v>98.43</v>
+    <v>98.4</v>
     <v>VILG11</v>
     <v>Fundos mais negociados</v>
     <v>FII VINCILOG ETF (BVMF:VILG11)</v>
-    <v>-0.12</v>
-    <v>-1.2160000000000001E-3</v>
-    <v>16090</v>
+    <v>-0.18</v>
+    <v>-1.8260000000000001E-3</v>
+    <v>16711</v>
   </rv>
   <rv s="2">
-    <v>200</v>
+    <v>203</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnkdm&amp;q=BVMF%3aVIVT3&amp;form=skydnc</v>
@@ -4175,39 +4226,39 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>49.77</v>
+    <v>49.21</v>
     <v>34.78</v>
     <v>BVMF</v>
     <v>1663557000</v>
-    <v>42.45</v>
+    <v>41.97</v>
     <v>1998</v>
-    <v>41.84</v>
+    <v>41.41</v>
     <v>0.1401</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>69653120000</v>
+    <v>69536682600</v>
     <v>A Telefonica Brasil S.A. é uma empresa de telecomunicações móveis no Brasil que oferece serviços móveis pós-pagos. A Companhia também atua como empresa de telecomunicações fixas no estado de São Paulo. A empresa comercializa seus serviços móveis sob a marca Vivo. Oferece aos seus clientes um portfólio de produtos, incluindo voz móvel e fixa, dados móveis, banda larga fixa, banda larga ultra-rápida, televisão por assinatura, tecnologia da informação e serviços digitais. Suas operações consistem em serviços de telefonia fixa local e de longa distância; serviços móveis, incluindo serviços de valor agregado; serviços de dados, incluindo serviços de banda larga e serviços de dados móveis; Serviços de televisão por assinatura direto para casa (DTH), televisão por protocolo de Internet (IPTV) e cabo; serviços de rede, como aluguel de instalações, bem como outros serviços; serviços de atacado, incluindo interconexão; serviços digitais; serviços projetados especificamente para clientes corporativos e a venda de dispositivos e acessórios sem fio.</v>
     <v>BVMF</v>
-    <v>42.16</v>
+    <v>41.87</v>
     <v>33000</v>
-    <v>45072.947939814818</v>
-    <v>202</v>
-    <v>2095620</v>
+    <v>45075.838695115628</v>
+    <v>205</v>
+    <v>2050540</v>
     <v>BRL</v>
     <v>TELEFÔNICA BRASIL S.A.</v>
     <v>TELEFÔNICA BRASIL S.A.</v>
-    <v>42.43</v>
     <v>41.87</v>
+    <v>41.8</v>
     <v>Av Engenheiro Luis Carlos Berrini, 1376 32 andar, Cidade Moncoes, SAO PAULO, SAO PAULO, 04.571-936 BR</v>
     <v>Telecommunications Services</v>
     <v>VIVT3</v>
     <v>Ações</v>
     <v>TELEFÔNICA BRASIL S.A. (BVMF:VIVT3)</v>
-    <v>-0.28999999999999998</v>
-    <v>-6.8789999999999997E-3</v>
-    <v>1700800</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-1.6719999999999999E-3</v>
+    <v>1029400</v>
   </rv>
   <rv s="2">
-    <v>203</v>
+    <v>206</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnl4c&amp;q=BVMF%3aVULC3&amp;form=skydnc</v>
@@ -4230,35 +4281,35 @@
     <v>9.41</v>
     <v>BVMF</v>
     <v>245916200</v>
-    <v>15.87</v>
+    <v>15.63</v>
     <v>1952</v>
-    <v>15.54</v>
+    <v>15.28</v>
     <v>1.0996999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>3855967000</v>
+    <v>3831374396</v>
     <v>A VULCABRAS AZALEIA S/A é uma holding com sede no Brasil, que se dedica principalmente à fabricação de calçados. A Empresa está envolvida na produção e comercialização de calçados esportivos e profissionais masculinos e femininos, bem como na fabricação de vestuário. A Empresa vende seus produtos sob várias marcas, incluindo Azaleia, Dijean, Funny, Opanka, Olympikus e Vulcabras. A Empresa também produz sapatos e roupas para a marca Reebok. Além disso, a Empresa fabrica, sob a marca Botas Vulcabras, botas de segurança para hospitais, laboratórios, bem como para indústrias de alimentos, construção, mineração, metalurgia e química. A Empresa exporta seus produtos para Argentina, Chile, Colômbia e Peru, entre outros. Em 31 de dezembro de 2011, a subsidiária direta da Empresa era a Vulcabras Azaleia CE Calçados e Artigos Esportivos SA.</v>
     <v>BVMF</v>
-    <v>15.6</v>
+    <v>15.68</v>
     <v>23878</v>
-    <v>45072.947928240741</v>
-    <v>205</v>
-    <v>1068980</v>
+    <v>45075.838693078127</v>
+    <v>208</v>
+    <v>1081010</v>
     <v>BRL</v>
     <v>VULCABRAS S.A.</v>
     <v>VULCABRAS S.A.</v>
-    <v>15.6</v>
-    <v>15.68</v>
+    <v>15.57</v>
+    <v>15.58</v>
     <v>Av. Antonio Frederico Ozanan,1440, Da Grama, JUNDIAI, SAO PAULO, 13.219-001 BR</v>
     <v>Textiles &amp; Apparel</v>
     <v>VULC3</v>
     <v>Ações</v>
     <v>VULCABRAS S.A. (BVMF:VULC3)</v>
-    <v>0.08</v>
-    <v>5.1280000000000006E-3</v>
-    <v>307400</v>
+    <v>-0.1</v>
+    <v>-6.378E-3</v>
+    <v>73600</v>
   </rv>
   <rv s="2">
-    <v>206</v>
+    <v>209</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnlim&amp;q=BVMF%3aWEGE3&amp;form=skydnc</v>
@@ -4281,35 +4332,35 @@
     <v>22.44</v>
     <v>BVMF</v>
     <v>4197318000</v>
-    <v>39.630000000000003</v>
+    <v>39.54</v>
     <v>1961</v>
-    <v>39.049999999999997</v>
+    <v>38.729999999999997</v>
     <v>0.56589999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>165836000000</v>
+    <v>163191723840</v>
     <v>A WEG SA é uma holding sediada no Brasil que tem por objetivo principal a fabricação de equipamentos e componentes elétricos. A Companhia atua, juntamente com suas subsidiárias, na fabricação e comercialização de mercadorias, tais como motores elétricos, geradores e transformadores; redutores, redutores de engrenagem, inversores de frequência, motores de partida e dispositivos de manobra; controle e proteção de circuitos elétricos e automação industrial; soluções de tração elétrica (terrestre e marítima); soluções para geração de energia renovável e distribuída, explorando todas as oportunidades em pequenas centrais hidrelétricas e fontes de biomassa térmica, eólica e solar; no-breaks e alternadores para grupos de geradores; subestações elétricas; sistemas de equipamentos elétricos e eletrônicos industriais e tintas e vernizes industriais. Atua no Brasil, Argentina, México, Estados Unidos, Portugal, Áustria, África do Sul, Índia e China. Opera por meio da Bluffton Motor Works LLC.</v>
     <v>BVMF</v>
-    <v>39.04</v>
+    <v>39.51</v>
     <v>39137</v>
-    <v>45072.947916666664</v>
-    <v>208</v>
-    <v>5867360</v>
+    <v>45075.838618113281</v>
+    <v>211</v>
+    <v>5971240</v>
     <v>BRL</v>
     <v>WEG S.A.</v>
     <v>WEG S.A.</v>
-    <v>39.380000000000003</v>
     <v>39.51</v>
+    <v>38.880000000000003</v>
     <v>Av. Prefeito Waldemar Grubba,3300, Centro, JARAGUA DO SUL, SANTA CATARINA, 89.256-900 BR</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>WEGE3</v>
     <v>Ações</v>
     <v>WEG S.A. (BVMF:WEGE3)</v>
-    <v>0.47</v>
-    <v>1.2038999999999999E-2</v>
-    <v>6507700</v>
+    <v>-0.63</v>
+    <v>-1.5945000000000001E-2</v>
+    <v>3435200</v>
   </rv>
   <rv s="2">
-    <v>209</v>
+    <v>212</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnmc7&amp;q=BVMF%3aXPCM11&amp;form=skydnc</v>
@@ -4331,25 +4382,25 @@
     <v>21.93</v>
     <v>11.42</v>
     <v>BVMF</v>
-    <v>14.1</v>
-    <v>13.89</v>
+    <v>14</v>
+    <v>13.61</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>13.9</v>
-    <v>45072.947962962964</v>
-    <v>211</v>
+    <v>14</v>
+    <v>45075.829764385941</v>
+    <v>214</v>
     <v>BRL</v>
     <v>FDO INV IMOB XP CORPORATE MACAE ETF</v>
-    <v>13.9</v>
     <v>14</v>
+    <v>13.76</v>
     <v>XPCM11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB XP CORPORATE MACAE ETF (BVMF:XPCM11)</v>
-    <v>0.1</v>
-    <v>7.1940000000000007E-3</v>
-    <v>3045</v>
+    <v>-0.24</v>
+    <v>-1.7142999999999999E-2</v>
+    <v>2504</v>
   </rv>
   <rv s="2">
-    <v>212</v>
+    <v>215</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=apmipr&amp;q=BVMF%3aYDUQ3&amp;form=skydnc</v>
@@ -4368,45 +4419,45 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>18.190000000000001</v>
+    <v>17.53</v>
     <v>6.48</v>
     <v>BVMF</v>
     <v>309088800</v>
-    <v>14.16</v>
+    <v>14.4</v>
     <v>2007</v>
-    <v>13.66</v>
+    <v>14</v>
     <v>1.8346</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>4351971000</v>
+    <v>4429242504</v>
     <v>A YDUQS Participações SA é uma empresa com sede no Brasil que se dedica à prestação de serviços educacionais. A empresa está focada no desenvolvimento de instituições de ensino superior. Sua gama de serviços abrange cursos presenciais e a distância com programas de pós-graduação e mestrado em administração de empresas (MBA), cursos profissionalizantes, preparatórios para exames, cursos de curta duração, além de treinamentos empresariais para profissionais, entre outros. Os cursos da Companhia oferecem desenvolvimento nas áreas jurídica, gestão, humanidades, saúde e tecnologia. Sua rede educacional é formada por universidades, campi, centros de ensino a distância e faculdades. A Companhia atua no Brasil por meio das marcas: Estácio, UniToledo, Adtalem (IBMEC, Wyden, Damasio Educacional, SJT Med e Clio).</v>
     <v>BVMF</v>
-    <v>13.85</v>
+    <v>14.08</v>
     <v>17882</v>
-    <v>45072.947939814818</v>
-    <v>214</v>
-    <v>6439860</v>
+    <v>45075.838761180472</v>
+    <v>217</v>
+    <v>5876900</v>
     <v>BRL</v>
     <v>YDUQS Participações S.A.</v>
     <v>YDUQS Participações S.A.</v>
-    <v>14.12</v>
-    <v>14.08</v>
+    <v>14.1</v>
+    <v>14.33</v>
     <v>Avenida Venezuela 43 6 andar, Saude, RIO DE JANEIRO, RIO DE JANEIRO, 20.081-311 BR</v>
     <v>School, College &amp; University</v>
     <v>YDUQ3</v>
     <v>Ações</v>
     <v>YDUQS Participações S.A. (BVMF:YDUQ3)</v>
-    <v>0.23</v>
-    <v>1.6605999999999999E-2</v>
-    <v>3124300</v>
+    <v>0.25</v>
+    <v>1.7756000000000001E-2</v>
+    <v>3629200</v>
   </rv>
   <rv s="2">
-    <v>215</v>
+    <v>218</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -4626,57 +4677,12 @@
     <k n="Variação (%)"/>
     <k n="Volume"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="_CanonicalPropertyNames" t="spb"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="52 semanas de alta"/>
-    <k n="52 semanas de baixa"/>
-    <k n="Abreviatura do câmbio" t="s"/>
-    <k n="Ações em circulação"/>
-    <k n="Alto"/>
-    <k n="Ano de incorporação"/>
-    <k n="Baixo"/>
-    <k n="Beta"/>
-    <k n="Bolsa" t="s"/>
-    <k n="Capitalização de mercado"/>
-    <k n="Descrição" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Fechamento anterior"/>
-    <k n="Funcionários"/>
-    <k n="Hora da última transação"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Média de volume"/>
-    <k n="Moeda" t="s"/>
-    <k n="Nome" t="s"/>
-    <k n="Nome oficial" t="s"/>
-    <k n="Pendência"/>
-    <k n="Preço"/>
-    <k n="Preço (Horário prolongado)"/>
-    <k n="Sede" t="s"/>
-    <k n="Setor" t="s"/>
-    <k n="Símbolo do ticker" t="s"/>
-    <k n="Tipo de instrumento" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Variação"/>
-    <k n="Variação (%)"/>
-    <k n="Volume"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="6">
+  <spbArrays count="5">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -4877,53 +4883,8 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="43">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">_CanonicalPropertyNames</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Nome</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Preço</v>
-      <v t="s">Preço (Horário prolongado)</v>
-      <v t="s">Bolsa</v>
-      <v t="s">Nome oficial</v>
-      <v t="s">Hora da última transação</v>
-      <v t="s">Símbolo do ticker</v>
-      <v t="s">Abreviatura do câmbio</v>
-      <v t="s">Variação</v>
-      <v t="s">Variação (%)</v>
-      <v t="s">Moeda</v>
-      <v t="s">Fechamento anterior</v>
-      <v t="s">Pendência</v>
-      <v t="s">Alto</v>
-      <v t="s">Baixo</v>
-      <v t="s">52 semanas de alta</v>
-      <v t="s">52 semanas de baixa</v>
-      <v t="s">Volume</v>
-      <v t="s">Média de volume</v>
-      <v t="s">Capitalização de mercado</v>
-      <v t="s">Beta</v>
-      <v t="s">Ações em circulação</v>
-      <v t="s">Descrição</v>
-      <v t="s">Funcionários</v>
-      <v t="s">Sede</v>
-      <v t="s">Setor</v>
-      <v t="s">Tipo de instrumento</v>
-      <v t="s">Ano de incorporação</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
   </spbArrays>
-  <spbData count="26">
+  <spbData count="22">
     <spb s="0">
       <v>High</v>
       <v>Beta</v>
@@ -5225,80 +5186,12 @@
     <spb s="17">
       <v>Da plataforma Refinitiv</v>
     </spb>
-    <spb s="18">
-      <v>High</v>
-      <v>Beta</v>
-      <v>Name</v>
-      <v>Headquarters</v>
-      <v>Low</v>
-      <v>Exchange</v>
-      <v>Currency</v>
-      <v>Price</v>
-      <v>Industry</v>
-      <v>Volume</v>
-      <v>Change</v>
-      <v>Description</v>
-      <v>Open</v>
-      <v>ExchangeID</v>
-      <v>UniqueName</v>
-      <v>Employees</v>
-      <v>Official name</v>
-      <v>Change (%)</v>
-      <v>%ProviderInfo</v>
-      <v>LearnMoreOnLink</v>
-      <v>Volume average</v>
-      <v>Ticker symbol</v>
-      <v>52 week high</v>
-      <v>52 week low</v>
-      <v>Year incorporated</v>
-      <v>Shares outstanding</v>
-      <v>Previous close</v>
-      <v>Instrument type</v>
-      <v>Exchange abbreviation</v>
-      <v>Market cap</v>
-      <v>Last trade time</v>
-      <v>Price (Extended hours)</v>
-    </spb>
-    <spb s="1">
-      <v>5</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="19">
-      <v>1</v>
-      <v>2</v>
-      <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>5</v>
-      <v>4</v>
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>7</v>
-      <v>4</v>
-      <v>1</v>
-      <v>8</v>
-      <v>9</v>
-      <v>1</v>
-    </spb>
-    <spb s="20">
-      <v xml:space="preserve">no fechamento </v>
-      <v xml:space="preserve">do fechamento anterior </v>
-      <v xml:space="preserve">do fechamento anterior </v>
-      <v>GMT</v>
-      <v>Atraso de 30 minutos</v>
-    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="21">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="18">
   <s>
     <k n="Alto" t="s"/>
     <k n="Beta" t="s"/>
@@ -5579,69 +5472,6 @@
   </s>
   <s>
     <k n="name" t="s"/>
-  </s>
-  <s>
-    <k n="Alto" t="s"/>
-    <k n="Beta" t="s"/>
-    <k n="Nome" t="s"/>
-    <k n="Sede" t="s"/>
-    <k n="Baixo" t="s"/>
-    <k n="Bolsa" t="s"/>
-    <k n="Moeda" t="s"/>
-    <k n="Preço" t="s"/>
-    <k n="Setor" t="s"/>
-    <k n="Volume" t="s"/>
-    <k n="Variação" t="s"/>
-    <k n="Descrição" t="s"/>
-    <k n="Pendência" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Funcionários" t="s"/>
-    <k n="Nome oficial" t="s"/>
-    <k n="Variação (%)" t="s"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="LearnMoreOnLink" t="s"/>
-    <k n="Média de volume" t="s"/>
-    <k n="Símbolo do ticker" t="s"/>
-    <k n="52 semanas de alta" t="s"/>
-    <k n="52 semanas de baixa" t="s"/>
-    <k n="Ano de incorporação" t="s"/>
-    <k n="Ações em circulação" t="s"/>
-    <k n="Fechamento anterior" t="s"/>
-    <k n="Tipo de instrumento" t="s"/>
-    <k n="Abreviatura do câmbio" t="s"/>
-    <k n="Capitalização de mercado" t="s"/>
-    <k n="Hora da última transação" t="s"/>
-    <k n="Preço (Horário prolongado)" t="s"/>
-  </s>
-  <s>
-    <k n="Alto" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="Nome" t="i"/>
-    <k n="Baixo" t="i"/>
-    <k n="Preço" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Variação" t="i"/>
-    <k n="Pendência" t="i"/>
-    <k n="Funcionários" t="i"/>
-    <k n="Variação (%)" t="i"/>
-    <k n="Média de volume" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="52 semanas de alta" t="i"/>
-    <k n="52 semanas de baixa" t="i"/>
-    <k n="Ano de incorporação" t="i"/>
-    <k n="Ações em circulação" t="i"/>
-    <k n="Fechamento anterior" t="i"/>
-    <k n="Capitalização de mercado" t="i"/>
-    <k n="Hora da última transação" t="i"/>
-    <k n="Preço (Horário prolongado)" t="i"/>
-  </s>
-  <s>
-    <k n="Preço" t="s"/>
-    <k n="Variação" t="s"/>
-    <k n="Variação (%)" t="s"/>
-    <k n="Hora da última transação" t="s"/>
-    <k n="Preço (Horário prolongado)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -5970,11 +5800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6024,7 +5854,7 @@
       </c>
       <c r="D2" s="14" cm="1">
         <f t="array" ref="D2">_FV(E2,"Preço")</f>
-        <v>10.39</v>
+        <v>10.41</v>
       </c>
       <c r="E2" s="5" t="e" vm="1">
         <v>#VALUE!</v>
@@ -6043,7 +5873,7 @@
       </c>
       <c r="D3" s="14" cm="1">
         <f t="array" ref="D3">_FV(E3,"Preço")</f>
-        <v>21.32</v>
+        <v>21.55</v>
       </c>
       <c r="E3" s="5" t="e" vm="2">
         <v>#VALUE!</v>
@@ -6062,7 +5892,7 @@
       </c>
       <c r="D4" s="14" cm="1">
         <f t="array" ref="D4">_FV(E4,"Preço")</f>
-        <v>11.4</v>
+        <v>11.52</v>
       </c>
       <c r="E4" s="5" t="e" vm="3">
         <v>#VALUE!</v>
@@ -6081,7 +5911,7 @@
       </c>
       <c r="D5" s="19" cm="1">
         <f t="array" ref="D5">_FV(E5,"Preço")</f>
-        <v>16.03</v>
+        <v>16.3</v>
       </c>
       <c r="E5" s="23" t="e" vm="4">
         <v>#VALUE!</v>
@@ -6100,7 +5930,7 @@
       </c>
       <c r="D6" s="14" cm="1">
         <f t="array" ref="D6">_FV(E6,"Preço")</f>
-        <v>13.66</v>
+        <v>13.53</v>
       </c>
       <c r="E6" s="5" t="e" vm="5">
         <v>#VALUE!</v>
@@ -6119,7 +5949,7 @@
       </c>
       <c r="D7" s="14" cm="1">
         <f t="array" ref="D7">_FV(E7,"Preço")</f>
-        <v>83.85</v>
+        <v>84.75</v>
       </c>
       <c r="E7" s="4" t="e" vm="6">
         <v>#VALUE!</v>
@@ -6138,7 +5968,7 @@
       </c>
       <c r="D8" s="14" cm="1">
         <f t="array" ref="D8">_FV(E8,"Preço")</f>
-        <v>44.4</v>
+        <v>44.32</v>
       </c>
       <c r="E8" s="6" t="e" vm="7">
         <v>#VALUE!</v>
@@ -6157,7 +5987,7 @@
       </c>
       <c r="D9" s="14" cm="1">
         <f t="array" ref="D9">_FV(E9,"Preço")</f>
-        <v>31.9</v>
+        <v>32.090000000000003</v>
       </c>
       <c r="E9" s="6" t="e" vm="8">
         <v>#VALUE!</v>
@@ -6176,7 +6006,7 @@
       </c>
       <c r="D10" s="14" cm="1">
         <f t="array" ref="D10">_FV(E10,"Preço")</f>
-        <v>87.88</v>
+        <v>87.63</v>
       </c>
       <c r="E10" s="5" t="e" vm="9">
         <v>#VALUE!</v>
@@ -6214,7 +6044,7 @@
       </c>
       <c r="D12" s="28" cm="1">
         <f t="array" ref="D12">_FV(E12,"Preço")</f>
-        <v>107.51</v>
+        <v>106.77</v>
       </c>
       <c r="E12" s="29" t="e" vm="11">
         <v>#VALUE!</v>
@@ -6233,7 +6063,7 @@
       </c>
       <c r="D13" s="14" cm="1">
         <f t="array" ref="D13">_FV(E13,"Preço")</f>
-        <v>27.14</v>
+        <v>27.3</v>
       </c>
       <c r="E13" s="5" t="e" vm="12">
         <v>#VALUE!</v>
@@ -6252,7 +6082,7 @@
       </c>
       <c r="D14" s="14" cm="1">
         <f t="array" ref="D14">_FV(E14,"Preço")</f>
-        <v>6.63</v>
+        <v>6.66</v>
       </c>
       <c r="E14" s="6" t="e" vm="13">
         <v>#VALUE!</v>
@@ -6271,7 +6101,7 @@
       </c>
       <c r="D15" s="14" cm="1">
         <f t="array" ref="D15">_FV(E15,"Preço")</f>
-        <v>58.49</v>
+        <v>58.56</v>
       </c>
       <c r="E15" s="5" t="e" vm="14">
         <v>#VALUE!</v>
@@ -6290,7 +6120,7 @@
       </c>
       <c r="D16" s="14" cm="1">
         <f t="array" ref="D16">_FV(E16,"Preço")</f>
-        <v>22.97</v>
+        <v>22.89</v>
       </c>
       <c r="E16" s="5" t="e" vm="15">
         <v>#VALUE!</v>
@@ -6309,7 +6139,7 @@
       </c>
       <c r="D17" s="14" cm="1">
         <f t="array" ref="D17">_FV(E17,"Preço")</f>
-        <v>12.09</v>
+        <v>12.4</v>
       </c>
       <c r="E17" s="6" t="e" vm="16">
         <v>#VALUE!</v>
@@ -6328,7 +6158,7 @@
       </c>
       <c r="D18" s="14" cm="1">
         <f t="array" ref="D18">_FV(E18,"Preço")</f>
-        <v>9.33</v>
+        <v>9.25</v>
       </c>
       <c r="E18" s="4" t="e" vm="17">
         <v>#VALUE!</v>
@@ -6347,7 +6177,7 @@
       </c>
       <c r="D19" s="14" cm="1">
         <f t="array" ref="D19">_FV(E19,"Preço")</f>
-        <v>98.22</v>
+        <v>97.63</v>
       </c>
       <c r="E19" s="6" t="e" vm="18">
         <v>#VALUE!</v>
@@ -6366,7 +6196,7 @@
       </c>
       <c r="D20" s="14" cm="1">
         <f t="array" ref="D20">_FV(E20,"Preço")</f>
-        <v>79.89</v>
+        <v>78.349999999999994</v>
       </c>
       <c r="E20" s="5" t="e" vm="19">
         <v>#VALUE!</v>
@@ -6385,7 +6215,7 @@
       </c>
       <c r="D21" s="14" cm="1">
         <f t="array" ref="D21">_FV(E21,"Preço")</f>
-        <v>106.2</v>
+        <v>106.49</v>
       </c>
       <c r="E21" s="4" t="e" vm="20">
         <v>#VALUE!</v>
@@ -6404,7 +6234,7 @@
       </c>
       <c r="D22" s="14" cm="1">
         <f t="array" ref="D22">_FV(E22,"Preço")</f>
-        <v>15.51</v>
+        <v>15.33</v>
       </c>
       <c r="E22" s="6" t="e" vm="21">
         <v>#VALUE!</v>
@@ -6423,7 +6253,7 @@
       </c>
       <c r="D23" s="19" cm="1">
         <f t="array" ref="D23">_FV(E23,"Preço")</f>
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="E23" s="20" t="e" vm="22">
         <v>#VALUE!</v>
@@ -6442,7 +6272,7 @@
       </c>
       <c r="D24" s="14" cm="1">
         <f t="array" ref="D24">_FV(E24,"Preço")</f>
-        <v>18.809999999999999</v>
+        <v>18.79</v>
       </c>
       <c r="E24" s="5" t="e" vm="23">
         <v>#VALUE!</v>
@@ -6461,7 +6291,7 @@
       </c>
       <c r="D25" s="14" cm="1">
         <f t="array" ref="D25">_FV(E25,"Preço")</f>
-        <v>17.62</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="E25" s="5" t="e" vm="24">
         <v>#VALUE!</v>
@@ -6480,7 +6310,7 @@
       </c>
       <c r="D26" s="14" cm="1">
         <f t="array" ref="D26">_FV(E26,"Preço")</f>
-        <v>39.32</v>
+        <v>38.89</v>
       </c>
       <c r="E26" s="6" t="e" vm="25">
         <v>#VALUE!</v>
@@ -6499,7 +6329,7 @@
       </c>
       <c r="D27" s="14" cm="1">
         <f t="array" ref="D27">_FV(E27,"Preço")</f>
-        <v>28.9</v>
+        <v>28.24</v>
       </c>
       <c r="E27" s="5" t="e" vm="26">
         <v>#VALUE!</v>
@@ -6518,7 +6348,7 @@
       </c>
       <c r="D28" s="14" cm="1">
         <f t="array" ref="D28">_FV(E28,"Preço")</f>
-        <v>9.64</v>
+        <v>9.65</v>
       </c>
       <c r="E28" s="5" t="e" vm="27">
         <v>#VALUE!</v>
@@ -6537,7 +6367,7 @@
       </c>
       <c r="D29" s="14" cm="1">
         <f t="array" ref="D29">_FV(E29,"Preço")</f>
-        <v>16.48</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E29" s="6" t="e" vm="28">
         <v>#VALUE!</v>
@@ -6556,7 +6386,7 @@
       </c>
       <c r="D30" s="14" cm="1">
         <f t="array" ref="D30">_FV(E30,"Preço")</f>
-        <v>8.6199999999999992</v>
+        <v>8.67</v>
       </c>
       <c r="E30" s="5" t="e" vm="29">
         <v>#VALUE!</v>
@@ -6594,7 +6424,7 @@
       </c>
       <c r="D32" s="14" cm="1">
         <f t="array" ref="D32">_FV(E32,"Preço")</f>
-        <v>89.48</v>
+        <v>89.8</v>
       </c>
       <c r="E32" s="4" t="e" vm="31">
         <v>#VALUE!</v>
@@ -6613,7 +6443,7 @@
       </c>
       <c r="D33" s="14" cm="1">
         <f t="array" ref="D33">_FV(E33,"Preço")</f>
-        <v>24.96</v>
+        <v>24.95</v>
       </c>
       <c r="E33" s="5" t="e" vm="32">
         <v>#VALUE!</v>
@@ -6632,7 +6462,7 @@
       </c>
       <c r="D34" s="14" cm="1">
         <f t="array" ref="D34">_FV(E34,"Preço")</f>
-        <v>11.66</v>
+        <v>11.62</v>
       </c>
       <c r="E34" s="25" t="e" vm="33">
         <v>#VALUE!</v>
@@ -6670,7 +6500,7 @@
       </c>
       <c r="D36" s="19" cm="1">
         <f t="array" ref="D36">_FV(E36,"Preço")</f>
-        <v>159.5</v>
+        <v>159.34</v>
       </c>
       <c r="E36" s="23" t="e" vm="35">
         <v>#VALUE!</v>
@@ -6697,7 +6527,7 @@
       </c>
       <c r="D37" s="14" cm="1">
         <f t="array" ref="D37">_FV(E37,"Preço")</f>
-        <v>124.83</v>
+        <v>124.79</v>
       </c>
       <c r="E37" s="5" t="e" vm="36">
         <v>#VALUE!</v>
@@ -6724,7 +6554,7 @@
       </c>
       <c r="D38" s="14" cm="1">
         <f t="array" ref="D38">_FV(E38,"Preço")</f>
-        <v>87.59</v>
+        <v>87.5</v>
       </c>
       <c r="E38" s="7" t="e" vm="37">
         <v>#VALUE!</v>
@@ -6751,7 +6581,7 @@
       </c>
       <c r="D39" s="14" cm="1">
         <f t="array" ref="D39">_FV(E39,"Preço")</f>
-        <v>87.78</v>
+        <v>86.9</v>
       </c>
       <c r="E39" s="7" t="e" vm="38">
         <v>#VALUE!</v>
@@ -6778,7 +6608,7 @@
       </c>
       <c r="D40" s="14" cm="1">
         <f t="array" ref="D40">_FV(E40,"Preço")</f>
-        <v>76.98</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4" t="e" vm="39">
         <v>#VALUE!</v>
@@ -6805,7 +6635,7 @@
       </c>
       <c r="D41" s="14" cm="1">
         <f t="array" ref="D41">_FV(E41,"Preço")</f>
-        <v>102.42</v>
+        <v>101.03</v>
       </c>
       <c r="E41" s="5" t="e" vm="40">
         <v>#VALUE!</v>
@@ -6832,7 +6662,7 @@
       </c>
       <c r="D42" s="14" cm="1">
         <f t="array" ref="D42">_FV(E42,"Preço")</f>
-        <v>8.98</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="E42" s="6" t="e" vm="41">
         <v>#VALUE!</v>
@@ -6847,21 +6677,21 @@
       <c r="M42" s="11"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="str" cm="1">
+      <c r="A43" s="26" t="str" cm="1">
         <f t="array" ref="A43">_FV(E43,"Símbolo do ticker",TRUE)</f>
-        <v>JGPX11</v>
-      </c>
-      <c r="B43" s="16">
-        <v>94.3</v>
-      </c>
-      <c r="C43" s="16">
-        <v>98.9</v>
-      </c>
-      <c r="D43" s="14" cm="1">
+        <v>IVVB11</v>
+      </c>
+      <c r="B43" s="27">
+        <v>206.5</v>
+      </c>
+      <c r="C43" s="27">
+        <v>243.5</v>
+      </c>
+      <c r="D43" s="28" cm="1">
         <f t="array" ref="D43">_FV(E43,"Preço")</f>
-        <v>97.1</v>
-      </c>
-      <c r="E43" s="5" t="e" vm="42">
+        <v>233.39</v>
+      </c>
+      <c r="E43" s="29" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
       <c r="F43" s="10"/>
@@ -6876,17 +6706,17 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="str" cm="1">
         <f t="array" ref="A44">_FV(E44,"Símbolo do ticker",TRUE)</f>
-        <v>JURO11</v>
+        <v>JGPX11</v>
       </c>
       <c r="B44" s="16">
-        <v>96.6</v>
+        <v>94.3</v>
       </c>
       <c r="C44" s="16">
-        <v>107.8</v>
+        <v>98.9</v>
       </c>
       <c r="D44" s="14" cm="1">
         <f t="array" ref="D44">_FV(E44,"Preço")</f>
-        <v>101.99</v>
+        <v>97.5</v>
       </c>
       <c r="E44" s="5" t="e" vm="43">
         <v>#VALUE!</v>
@@ -6903,17 +6733,17 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="str" cm="1">
         <f t="array" ref="A45">_FV(E45,"Símbolo do ticker",TRUE)</f>
-        <v>KDIF11</v>
+        <v>JURO11</v>
       </c>
       <c r="B45" s="16">
-        <v>123.35</v>
+        <v>96.6</v>
       </c>
       <c r="C45" s="16">
-        <v>137</v>
+        <v>107.8</v>
       </c>
       <c r="D45" s="14" cm="1">
         <f t="array" ref="D45">_FV(E45,"Preço")</f>
-        <v>130.04</v>
+        <v>101.58</v>
       </c>
       <c r="E45" s="5" t="e" vm="44">
         <v>#VALUE!</v>
@@ -6930,19 +6760,19 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="str" cm="1">
         <f t="array" ref="A46">_FV(E46,"Símbolo do ticker",TRUE)</f>
-        <v>KEPL3</v>
-      </c>
-      <c r="B46" s="15">
-        <v>6.75</v>
-      </c>
-      <c r="C46" s="15">
-        <v>14.5</v>
+        <v>KDIF11</v>
+      </c>
+      <c r="B46" s="16">
+        <v>123.35</v>
+      </c>
+      <c r="C46" s="16">
+        <v>137</v>
       </c>
       <c r="D46" s="14" cm="1">
         <f t="array" ref="D46">_FV(E46,"Preço")</f>
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="E46" s="6" t="e" vm="45">
+        <v>131.57</v>
+      </c>
+      <c r="E46" s="5" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
       <c r="F46" s="10"/>
@@ -6957,19 +6787,19 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="str" cm="1">
         <f t="array" ref="A47">_FV(E47,"Símbolo do ticker",TRUE)</f>
-        <v>KNCA11</v>
-      </c>
-      <c r="B47" s="16">
-        <v>103</v>
-      </c>
-      <c r="C47" s="16">
-        <v>109</v>
+        <v>KEPL3</v>
+      </c>
+      <c r="B47" s="15">
+        <v>6.75</v>
+      </c>
+      <c r="C47" s="15">
+        <v>14.5</v>
       </c>
       <c r="D47" s="14" cm="1">
         <f t="array" ref="D47">_FV(E47,"Preço")</f>
-        <v>105.97</v>
-      </c>
-      <c r="E47" s="4" t="e" vm="46">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E47" s="6" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
       <c r="F47" s="10"/>
@@ -6984,19 +6814,19 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="str" cm="1">
         <f t="array" ref="A48">_FV(E48,"Símbolo do ticker",TRUE)</f>
-        <v>KNSC11</v>
+        <v>KNCA11</v>
       </c>
       <c r="B48" s="16">
-        <v>83.5</v>
+        <v>103</v>
       </c>
       <c r="C48" s="16">
-        <v>94.19</v>
+        <v>109</v>
       </c>
       <c r="D48" s="14" cm="1">
         <f t="array" ref="D48">_FV(E48,"Preço")</f>
-        <v>89.44</v>
-      </c>
-      <c r="E48" s="7" t="e" vm="47">
+        <v>106.3</v>
+      </c>
+      <c r="E48" s="4" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
       <c r="F48" s="10"/>
@@ -7009,21 +6839,21 @@
       <c r="M48" s="11"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="str" cm="1">
+      <c r="A49" s="1" t="str" cm="1">
         <f t="array" ref="A49">_FV(E49,"Símbolo do ticker",TRUE)</f>
-        <v>LVTC3</v>
-      </c>
-      <c r="B49" s="18">
-        <v>4.92</v>
-      </c>
-      <c r="C49" s="18">
-        <v>8.9</v>
-      </c>
-      <c r="D49" s="19" cm="1">
+        <v>KNSC11</v>
+      </c>
+      <c r="B49" s="16">
+        <v>83.5</v>
+      </c>
+      <c r="C49" s="16">
+        <v>94.19</v>
+      </c>
+      <c r="D49" s="14" cm="1">
         <f t="array" ref="D49">_FV(E49,"Preço")</f>
-        <v>5.49</v>
-      </c>
-      <c r="E49" s="23" t="e" vm="48">
+        <v>90</v>
+      </c>
+      <c r="E49" s="7" t="e" vm="48">
         <v>#VALUE!</v>
       </c>
       <c r="F49" s="10"/>
@@ -7036,21 +6866,21 @@
       <c r="M49" s="11"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="str" cm="1">
+      <c r="A50" s="21" t="str" cm="1">
         <f t="array" ref="A50">_FV(E50,"Símbolo do ticker",TRUE)</f>
-        <v>MORE11</v>
-      </c>
-      <c r="B50" s="16">
-        <v>59.3</v>
-      </c>
-      <c r="C50" s="16">
-        <v>76.760000000000005</v>
-      </c>
-      <c r="D50" s="14" cm="1">
+        <v>LVTC3</v>
+      </c>
+      <c r="B50" s="18">
+        <v>4.92</v>
+      </c>
+      <c r="C50" s="18">
+        <v>8.9</v>
+      </c>
+      <c r="D50" s="19" cm="1">
         <f t="array" ref="D50">_FV(E50,"Preço")</f>
-        <v>66.53</v>
-      </c>
-      <c r="E50" s="8" t="e" vm="49">
+        <v>5.57</v>
+      </c>
+      <c r="E50" s="23" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
       <c r="F50" s="10"/>
@@ -7065,19 +6895,19 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="str" cm="1">
         <f t="array" ref="A51">_FV(E51,"Símbolo do ticker",TRUE)</f>
-        <v>MTRE3</v>
-      </c>
-      <c r="B51" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="C51" s="15">
-        <v>6</v>
+        <v>MORE11</v>
+      </c>
+      <c r="B51" s="16">
+        <v>59.3</v>
+      </c>
+      <c r="C51" s="16">
+        <v>76.760000000000005</v>
       </c>
       <c r="D51" s="14" cm="1">
         <f t="array" ref="D51">_FV(E51,"Preço")</f>
-        <v>5.32</v>
-      </c>
-      <c r="E51" s="5" t="e" vm="50">
+        <v>66.430000000000007</v>
+      </c>
+      <c r="E51" s="8" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
       <c r="F51" s="10"/>
@@ -7092,17 +6922,17 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="str" cm="1">
         <f t="array" ref="A52">_FV(E52,"Símbolo do ticker",TRUE)</f>
-        <v>NCHB11</v>
-      </c>
-      <c r="B52" s="16">
-        <v>76</v>
-      </c>
-      <c r="C52" s="16">
-        <v>97.91</v>
+        <v>MTRE3</v>
+      </c>
+      <c r="B52" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="C52" s="15">
+        <v>6</v>
       </c>
       <c r="D52" s="14" cm="1">
         <f t="array" ref="D52">_FV(E52,"Preço")</f>
-        <v>86.38</v>
+        <v>5.53</v>
       </c>
       <c r="E52" s="5" t="e" vm="51">
         <v>#VALUE!</v>
@@ -7111,74 +6941,74 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="str" cm="1">
         <f t="array" ref="A53">_FV(E53,"Símbolo do ticker",TRUE)</f>
-        <v>OIBR3</v>
-      </c>
-      <c r="B53" s="15">
-        <v>1</v>
-      </c>
-      <c r="C53" s="15">
-        <v>7.6</v>
+        <v>NCHB11</v>
+      </c>
+      <c r="B53" s="16">
+        <v>76</v>
+      </c>
+      <c r="C53" s="16">
+        <v>97.91</v>
       </c>
       <c r="D53" s="14" cm="1">
         <f t="array" ref="D53">_FV(E53,"Preço")</f>
-        <v>1.03</v>
-      </c>
-      <c r="E53" s="6" t="e" vm="52">
+        <v>86.5</v>
+      </c>
+      <c r="E53" s="5" t="e" vm="52">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="str" cm="1">
         <f t="array" ref="A54">_FV(E54,"Símbolo do ticker",TRUE)</f>
-        <v>PETR4</v>
+        <v>OIBR3</v>
       </c>
       <c r="B54" s="15">
-        <v>16</v>
+        <v>0.8</v>
       </c>
       <c r="C54" s="15">
-        <v>35</v>
+        <v>7.6</v>
       </c>
       <c r="D54" s="14" cm="1">
         <f t="array" ref="D54">_FV(E54,"Preço")</f>
-        <v>26.8</v>
-      </c>
-      <c r="E54" s="5" t="e" vm="53">
+        <v>1.02</v>
+      </c>
+      <c r="E54" s="6" t="e" vm="53">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="str" cm="1">
         <f t="array" ref="A55">_FV(E55,"Símbolo do ticker",TRUE)</f>
-        <v>QAGR11</v>
-      </c>
-      <c r="B55" s="16">
-        <v>41</v>
-      </c>
-      <c r="C55" s="16">
-        <v>47</v>
+        <v>PETR4</v>
+      </c>
+      <c r="B55" s="15">
+        <v>16</v>
+      </c>
+      <c r="C55" s="15">
+        <v>35</v>
       </c>
       <c r="D55" s="14" cm="1">
         <f t="array" ref="D55">_FV(E55,"Preço")</f>
-        <v>45.09</v>
-      </c>
-      <c r="E55" s="4" t="e" vm="54">
+        <v>26.69</v>
+      </c>
+      <c r="E55" s="5" t="e" vm="54">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="str" cm="1">
         <f t="array" ref="A56">_FV(E56,"Símbolo do ticker",TRUE)</f>
-        <v>RBHG11</v>
+        <v>QAGR11</v>
       </c>
       <c r="B56" s="16">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C56" s="16">
-        <v>90.6</v>
+        <v>47</v>
       </c>
       <c r="D56" s="14" cm="1">
         <f t="array" ref="D56">_FV(E56,"Preço")</f>
-        <v>82.6</v>
+        <v>45.05</v>
       </c>
       <c r="E56" s="4" t="e" vm="55">
         <v>#VALUE!</v>
@@ -7187,55 +7017,55 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="str" cm="1">
         <f t="array" ref="A57">_FV(E57,"Símbolo do ticker",TRUE)</f>
-        <v>RBRP11</v>
+        <v>RBHG11</v>
       </c>
       <c r="B57" s="16">
-        <v>43.5</v>
+        <v>80</v>
       </c>
       <c r="C57" s="16">
-        <v>64.599999999999994</v>
+        <v>90.6</v>
       </c>
       <c r="D57" s="14" cm="1">
         <f t="array" ref="D57">_FV(E57,"Preço")</f>
-        <v>56.5</v>
-      </c>
-      <c r="E57" s="9" t="e" vm="56">
+        <v>82.9</v>
+      </c>
+      <c r="E57" s="4" t="e" vm="56">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="str" cm="1">
         <f t="array" ref="A58">_FV(E58,"Símbolo do ticker",TRUE)</f>
-        <v>RBRR11</v>
+        <v>RBRP11</v>
       </c>
       <c r="B58" s="16">
-        <v>80.599999999999994</v>
+        <v>43.5</v>
       </c>
       <c r="C58" s="16">
-        <v>101.9</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="D58" s="14" cm="1">
         <f t="array" ref="D58">_FV(E58,"Preço")</f>
-        <v>90.21</v>
-      </c>
-      <c r="E58" s="5" t="e" vm="57">
+        <v>56.39</v>
+      </c>
+      <c r="E58" s="9" t="e" vm="57">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="str" cm="1">
         <f t="array" ref="A59">_FV(E59,"Símbolo do ticker",TRUE)</f>
-        <v>RCRB11</v>
+        <v>RBRR11</v>
       </c>
       <c r="B59" s="16">
-        <v>107.8</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="C59" s="16">
-        <v>149</v>
+        <v>101.9</v>
       </c>
       <c r="D59" s="14" cm="1">
         <f t="array" ref="D59">_FV(E59,"Preço")</f>
-        <v>137.99</v>
+        <v>89.85</v>
       </c>
       <c r="E59" s="5" t="e" vm="58">
         <v>#VALUE!</v>
@@ -7244,17 +7074,17 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="str" cm="1">
         <f t="array" ref="A60">_FV(E60,"Símbolo do ticker",TRUE)</f>
-        <v>RRRP3</v>
-      </c>
-      <c r="B60" s="15">
-        <v>27.15</v>
-      </c>
-      <c r="C60" s="15">
-        <v>55</v>
+        <v>RCRB11</v>
+      </c>
+      <c r="B60" s="16">
+        <v>107.8</v>
+      </c>
+      <c r="C60" s="16">
+        <v>149</v>
       </c>
       <c r="D60" s="14" cm="1">
         <f t="array" ref="D60">_FV(E60,"Preço")</f>
-        <v>30.7</v>
+        <v>136.63</v>
       </c>
       <c r="E60" s="5" t="e" vm="59">
         <v>#VALUE!</v>
@@ -7263,112 +7093,112 @@
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="str" cm="1">
         <f t="array" ref="A61">_FV(E61,"Símbolo do ticker",TRUE)</f>
-        <v>RURA11</v>
-      </c>
-      <c r="B61" s="16">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="C61" s="16">
-        <v>10.75</v>
+        <v>RRRP3</v>
+      </c>
+      <c r="B61" s="15">
+        <v>27.15</v>
+      </c>
+      <c r="C61" s="15">
+        <v>55</v>
       </c>
       <c r="D61" s="14" cm="1">
         <f t="array" ref="D61">_FV(E61,"Preço")</f>
-        <v>10.31</v>
-      </c>
-      <c r="E61" s="4" t="e" vm="60">
+        <v>30.56</v>
+      </c>
+      <c r="E61" s="5" t="e" vm="60">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="str" cm="1">
         <f t="array" ref="A62">_FV(E62,"Símbolo do ticker",TRUE)</f>
-        <v>SAPR11</v>
-      </c>
-      <c r="B62" s="15">
-        <v>15.8</v>
-      </c>
-      <c r="C62" s="15">
-        <v>22</v>
+        <v>RURA11</v>
+      </c>
+      <c r="B62" s="16">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="C62" s="16">
+        <v>10.75</v>
       </c>
       <c r="D62" s="14" cm="1">
         <f t="array" ref="D62">_FV(E62,"Preço")</f>
-        <v>20.87</v>
-      </c>
-      <c r="E62" s="6" t="e" vm="61">
+        <v>10.43</v>
+      </c>
+      <c r="E62" s="4" t="e" vm="61">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="str" cm="1">
         <f t="array" ref="A63">_FV(E63,"Símbolo do ticker",TRUE)</f>
-        <v>SBFG3</v>
+        <v>SAPR11</v>
       </c>
       <c r="B63" s="15">
-        <v>7.1</v>
+        <v>15.8</v>
       </c>
       <c r="C63" s="15">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D63" s="14" cm="1">
         <f t="array" ref="D63">_FV(E63,"Preço")</f>
-        <v>10.06</v>
-      </c>
-      <c r="E63" s="5" t="e" vm="62">
+        <v>21.12</v>
+      </c>
+      <c r="E63" s="6" t="e" vm="62">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="26" t="str" cm="1">
+      <c r="A64" s="1" t="str" cm="1">
         <f t="array" ref="A64">_FV(E64,"Símbolo do ticker",TRUE)</f>
-        <v>SMAL11</v>
-      </c>
-      <c r="B64" s="27">
-        <v>83</v>
-      </c>
-      <c r="C64" s="27">
-        <v>115</v>
-      </c>
-      <c r="D64" s="28" cm="1">
+        <v>SBFG3</v>
+      </c>
+      <c r="B64" s="15">
+        <v>7.1</v>
+      </c>
+      <c r="C64" s="15">
+        <v>27</v>
+      </c>
+      <c r="D64" s="14" cm="1">
         <f t="array" ref="D64">_FV(E64,"Preço")</f>
-        <v>101.45</v>
-      </c>
-      <c r="E64" s="29" t="e" vm="63">
+        <v>9.91</v>
+      </c>
+      <c r="E64" s="5" t="e" vm="63">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="str" cm="1">
+      <c r="A65" s="26" t="str" cm="1">
         <f t="array" ref="A65">_FV(E65,"Símbolo do ticker",TRUE)</f>
-        <v>URPR11</v>
-      </c>
-      <c r="B65" s="16">
-        <v>87.6</v>
-      </c>
-      <c r="C65" s="16">
+        <v>SMAL11</v>
+      </c>
+      <c r="B65" s="27">
+        <v>83</v>
+      </c>
+      <c r="C65" s="27">
         <v>115</v>
       </c>
-      <c r="D65" s="14" cm="1">
+      <c r="D65" s="28" cm="1">
         <f t="array" ref="D65">_FV(E65,"Preço")</f>
-        <v>96.83</v>
-      </c>
-      <c r="E65" s="5" t="e" vm="64">
+        <v>101.57</v>
+      </c>
+      <c r="E65" s="29" t="e" vm="64">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="str" cm="1">
         <f t="array" ref="A66">_FV(E66,"Símbolo do ticker",TRUE)</f>
-        <v>VALE3</v>
-      </c>
-      <c r="B66" s="15">
-        <v>64.5</v>
-      </c>
-      <c r="C66" s="15">
-        <v>96</v>
+        <v>URPR11</v>
+      </c>
+      <c r="B66" s="16">
+        <v>87.6</v>
+      </c>
+      <c r="C66" s="16">
+        <v>115</v>
       </c>
       <c r="D66" s="14" cm="1">
         <f t="array" ref="D66">_FV(E66,"Preço")</f>
-        <v>66.33</v>
+        <v>97.24</v>
       </c>
       <c r="E66" s="5" t="e" vm="65">
         <v>#VALUE!</v>
@@ -7377,55 +7207,55 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="str" cm="1">
         <f t="array" ref="A67">_FV(E67,"Símbolo do ticker",TRUE)</f>
-        <v>VILG11</v>
-      </c>
-      <c r="B67" s="16">
-        <v>83.2</v>
-      </c>
-      <c r="C67" s="16">
-        <v>110.75</v>
+        <v>VALE3</v>
+      </c>
+      <c r="B67" s="15">
+        <v>64.5</v>
+      </c>
+      <c r="C67" s="15">
+        <v>96</v>
       </c>
       <c r="D67" s="14" cm="1">
         <f t="array" ref="D67">_FV(E67,"Preço")</f>
-        <v>98.58</v>
-      </c>
-      <c r="E67" s="7" t="e" vm="66">
+        <v>65.83</v>
+      </c>
+      <c r="E67" s="5" t="e" vm="66">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="str" cm="1">
         <f t="array" ref="A68">_FV(E68,"Símbolo do ticker",TRUE)</f>
-        <v>VIVT3</v>
-      </c>
-      <c r="B68" s="15">
-        <v>35.47</v>
-      </c>
-      <c r="C68" s="15">
-        <v>52</v>
+        <v>VILG11</v>
+      </c>
+      <c r="B68" s="16">
+        <v>83.2</v>
+      </c>
+      <c r="C68" s="16">
+        <v>110.75</v>
       </c>
       <c r="D68" s="14" cm="1">
         <f t="array" ref="D68">_FV(E68,"Preço")</f>
-        <v>41.87</v>
-      </c>
-      <c r="E68" s="5" t="e" vm="67">
+        <v>98.4</v>
+      </c>
+      <c r="E68" s="7" t="e" vm="67">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="str" cm="1">
         <f t="array" ref="A69">_FV(E69,"Símbolo do ticker",TRUE)</f>
-        <v>VULC3</v>
+        <v>VIVT3</v>
       </c>
       <c r="B69" s="15">
-        <v>9.98</v>
+        <v>35.47</v>
       </c>
       <c r="C69" s="15">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D69" s="14" cm="1">
         <f t="array" ref="D69">_FV(E69,"Preço")</f>
-        <v>15.68</v>
+        <v>41.8</v>
       </c>
       <c r="E69" s="5" t="e" vm="68">
         <v>#VALUE!</v>
@@ -7434,17 +7264,17 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="str" cm="1">
         <f t="array" ref="A70">_FV(E70,"Símbolo do ticker",TRUE)</f>
-        <v>WEGE3</v>
+        <v>VULC3</v>
       </c>
       <c r="B70" s="15">
-        <v>22</v>
+        <v>9.98</v>
       </c>
       <c r="C70" s="15">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D70" s="14" cm="1">
         <f t="array" ref="D70">_FV(E70,"Preço")</f>
-        <v>39.51</v>
+        <v>15.58</v>
       </c>
       <c r="E70" s="5" t="e" vm="69">
         <v>#VALUE!</v>
@@ -7453,44 +7283,63 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="str" cm="1">
         <f t="array" ref="A71">_FV(E71,"Símbolo do ticker",TRUE)</f>
-        <v>XPCM11</v>
-      </c>
-      <c r="B71" s="16">
-        <v>12.23</v>
-      </c>
-      <c r="C71" s="16">
-        <v>21.71</v>
+        <v>WEGE3</v>
+      </c>
+      <c r="B71" s="15">
+        <v>22</v>
+      </c>
+      <c r="C71" s="15">
+        <v>42</v>
       </c>
       <c r="D71" s="14" cm="1">
         <f t="array" ref="D71">_FV(E71,"Preço")</f>
-        <v>14</v>
-      </c>
-      <c r="E71" s="8" t="e" vm="70">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="E71" s="5" t="e" vm="70">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="str" cm="1">
         <f t="array" ref="A72">_FV(E72,"Símbolo do ticker",TRUE)</f>
-        <v>YDUQ3</v>
-      </c>
-      <c r="B72" s="15">
-        <v>6.55</v>
-      </c>
-      <c r="C72" s="15">
-        <v>50.5</v>
+        <v>XPCM11</v>
+      </c>
+      <c r="B72" s="16">
+        <v>12.23</v>
+      </c>
+      <c r="C72" s="16">
+        <v>21.71</v>
       </c>
       <c r="D72" s="14" cm="1">
         <f t="array" ref="D72">_FV(E72,"Preço")</f>
-        <v>14.08</v>
-      </c>
-      <c r="E72" s="6" t="e" vm="71">
+        <v>13.76</v>
+      </c>
+      <c r="E72" s="8" t="e" vm="71">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="str" cm="1">
+        <f t="array" ref="A73">_FV(E73,"Símbolo do ticker",TRUE)</f>
+        <v>YDUQ3</v>
+      </c>
+      <c r="B73" s="15">
+        <v>6.55</v>
+      </c>
+      <c r="C73" s="15">
+        <v>50.5</v>
+      </c>
+      <c r="D73" s="14" cm="1">
+        <f t="array" ref="D73">_FV(E73,"Preço")</f>
+        <v>14.33</v>
+      </c>
+      <c r="E73" s="6" t="e" vm="72">
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E72">
-    <sortCondition ref="A1:A72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
+    <sortCondition ref="A1:A73"/>
   </sortState>
   <conditionalFormatting sqref="E35">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
@@ -7502,95 +7351,96 @@
       <formula>-0.33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C72">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C36:C73">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"COMPRAR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:M51">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:M51">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>-0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A31" r:id="rId1" display="https://statusinvest.com.br/fiagros/GCRA11" xr:uid="{37867A08-F78A-4F6C-AE22-5529606A07B7}"/>
-    <hyperlink ref="A56" r:id="rId2" display="https://statusinvest.com.br/fundos-imobiliarios/rbhg11" xr:uid="{C57A6842-7B6A-42D7-A134-A228444C6CCF}"/>
+    <hyperlink ref="A57" r:id="rId2" display="https://statusinvest.com.br/fundos-imobiliarios/rbhg11" xr:uid="{C57A6842-7B6A-42D7-A134-A228444C6CCF}"/>
     <hyperlink ref="A30" r:id="rId3" display="https://statusinvest.com.br/fundos-imobiliarios/game11" xr:uid="{D468A2B7-71E9-4926-8E1C-206BBC21689A}"/>
     <hyperlink ref="A32" r:id="rId4" display="https://statusinvest.com.br/fundos-imobiliarios/GCRI11" xr:uid="{242305FD-7004-4783-9516-F90217130C96}"/>
     <hyperlink ref="A21" r:id="rId5" display="https://statusinvest.com.br/fundos-imobiliarios/CACR11" xr:uid="{4C532622-0D38-4C86-93B9-63E02B43ECB9}"/>
     <hyperlink ref="A37" r:id="rId6" display="https://statusinvest.com.br/fundos-imobiliarios/hgru11" xr:uid="{4E9FFD31-8456-4251-BA5A-4F6205393CF3}"/>
-    <hyperlink ref="A57" r:id="rId7" display="https://statusinvest.com.br/fundos-imobiliarios/rbrp11" xr:uid="{C39CC258-8E89-4C26-8DEE-D16885A8A405}"/>
-    <hyperlink ref="A50" r:id="rId8" display="https://statusinvest.com.br/fundos-imobiliarios/more11" xr:uid="{CB801CCB-368F-408A-A583-7E603ADF1F5D}"/>
-    <hyperlink ref="A71" r:id="rId9" display="https://statusinvest.com.br/fundos-imobiliarios/xpcm11" xr:uid="{83CA8420-26D3-4C5A-B66B-05C68309C711}"/>
+    <hyperlink ref="A58" r:id="rId7" display="https://statusinvest.com.br/fundos-imobiliarios/rbrp11" xr:uid="{C39CC258-8E89-4C26-8DEE-D16885A8A405}"/>
+    <hyperlink ref="A51" r:id="rId8" display="https://statusinvest.com.br/fundos-imobiliarios/more11" xr:uid="{CB801CCB-368F-408A-A583-7E603ADF1F5D}"/>
+    <hyperlink ref="A72" r:id="rId9" display="https://statusinvest.com.br/fundos-imobiliarios/xpcm11" xr:uid="{83CA8420-26D3-4C5A-B66B-05C68309C711}"/>
     <hyperlink ref="A28" r:id="rId10" display="https://statusinvest.com.br/fiagros/fgaa11" xr:uid="{00025C9C-6A7C-42B7-A77C-CED9AE28FCB2}"/>
-    <hyperlink ref="A59" r:id="rId11" display="https://statusinvest.com.br/fundos-imobiliarios/RCRB11" xr:uid="{3B81E834-8955-4F98-A47E-F0EAB1522405}"/>
-    <hyperlink ref="A45" r:id="rId12" display="https://statusinvest.com.br/fiinfras/kdif11" xr:uid="{525201B5-BAC2-4A07-B3B3-CA010AAB112F}"/>
+    <hyperlink ref="A60" r:id="rId11" display="https://statusinvest.com.br/fundos-imobiliarios/RCRB11" xr:uid="{3B81E834-8955-4F98-A47E-F0EAB1522405}"/>
+    <hyperlink ref="A46" r:id="rId12" display="https://statusinvest.com.br/fiinfras/kdif11" xr:uid="{525201B5-BAC2-4A07-B3B3-CA010AAB112F}"/>
     <hyperlink ref="A36" r:id="rId13" display="https://statusinvest.com.br/fundos-imobiliarios/HGLG11" xr:uid="{6B72F58D-76EE-46EC-BA4E-CEA9CD1356B3}"/>
-    <hyperlink ref="A67" r:id="rId14" display="https://statusinvest.com.br/fundos-imobiliarios/VILG11" xr:uid="{B530E056-71ED-406A-BDCF-577711F8BAF6}"/>
+    <hyperlink ref="A68" r:id="rId14" display="https://statusinvest.com.br/fundos-imobiliarios/VILG11" xr:uid="{B530E056-71ED-406A-BDCF-577711F8BAF6}"/>
     <hyperlink ref="A10" r:id="rId15" display="https://statusinvest.com.br/fiinfras/bdif11" xr:uid="{929CAF35-5F95-4D9C-B740-9A89A7A3EC2D}"/>
     <hyperlink ref="A41" r:id="rId16" display="https://statusinvest.com.br/fiinfras/ifra11" xr:uid="{6B02CAB3-5A31-467C-99B9-41244A564962}"/>
-    <hyperlink ref="A47" r:id="rId17" display="https://statusinvest.com.br/fiagros/knca11" xr:uid="{0A2F9697-938B-4CDE-B6FF-97C4F10B5BC7}"/>
-    <hyperlink ref="A61" r:id="rId18" display="https://statusinvest.com.br/fiagros/rura11" xr:uid="{2734B0CE-2173-4B5C-9DA9-FEA46A903CF9}"/>
-    <hyperlink ref="A55" r:id="rId19" display="https://statusinvest.com.br/fundos-imobiliarios/QAGR11" xr:uid="{18AF0959-2CCE-4B44-B953-F5698FADC0D5}"/>
+    <hyperlink ref="A48" r:id="rId17" display="https://statusinvest.com.br/fiagros/knca11" xr:uid="{0A2F9697-938B-4CDE-B6FF-97C4F10B5BC7}"/>
+    <hyperlink ref="A62" r:id="rId18" display="https://statusinvest.com.br/fiagros/rura11" xr:uid="{2734B0CE-2173-4B5C-9DA9-FEA46A903CF9}"/>
+    <hyperlink ref="A56" r:id="rId19" display="https://statusinvest.com.br/fundos-imobiliarios/QAGR11" xr:uid="{18AF0959-2CCE-4B44-B953-F5698FADC0D5}"/>
     <hyperlink ref="A15" r:id="rId20" display="https://statusinvest.com.br/fundos-imobiliarios/BRCR11" xr:uid="{8DAABA98-FEBD-4F54-AF75-9C7BA8E6E5AF}"/>
     <hyperlink ref="A39" r:id="rId21" display="https://statusinvest.com.br/fundos-imobiliarios/HSML11" xr:uid="{9AA6E87B-4161-434A-BB49-24BC875537B9}"/>
-    <hyperlink ref="A65" r:id="rId22" display="https://statusinvest.com.br/fundos-imobiliarios/URPR11" xr:uid="{A600BD23-1718-43E6-8159-577C95919379}"/>
-    <hyperlink ref="A58" r:id="rId23" display="https://statusinvest.com.br/fundos-imobiliarios/RBRR11" xr:uid="{EDF1B14D-389E-4028-AB5D-B0C9AD515737}"/>
-    <hyperlink ref="A52" r:id="rId24" display="https://statusinvest.com.br/fundos-imobiliarios/NCHB11" xr:uid="{5C3AC67A-06C5-4B8F-B4E2-031E17E4E49C}"/>
-    <hyperlink ref="A48" r:id="rId25" display="https://statusinvest.com.br/fundos-imobiliarios/KNSC11" xr:uid="{2E399481-DB67-4583-A530-CC875A26BF79}"/>
+    <hyperlink ref="A66" r:id="rId22" display="https://statusinvest.com.br/fundos-imobiliarios/URPR11" xr:uid="{A600BD23-1718-43E6-8159-577C95919379}"/>
+    <hyperlink ref="A59" r:id="rId23" display="https://statusinvest.com.br/fundos-imobiliarios/RBRR11" xr:uid="{EDF1B14D-389E-4028-AB5D-B0C9AD515737}"/>
+    <hyperlink ref="A53" r:id="rId24" display="https://statusinvest.com.br/fundos-imobiliarios/NCHB11" xr:uid="{5C3AC67A-06C5-4B8F-B4E2-031E17E4E49C}"/>
+    <hyperlink ref="A49" r:id="rId25" display="https://statusinvest.com.br/fundos-imobiliarios/KNSC11" xr:uid="{2E399481-DB67-4583-A530-CC875A26BF79}"/>
     <hyperlink ref="A40" r:id="rId26" display="https://statusinvest.com.br/fundos-imobiliarios/IBCR11" xr:uid="{CC4B5516-1CFF-4EDF-BC1F-A3DE51595036}"/>
     <hyperlink ref="A18" r:id="rId27" display="https://statusinvest.com.br/fundos-imobiliarios/BTCI11" xr:uid="{989B0B80-25E4-409C-9198-9C8CA4A7A40C}"/>
     <hyperlink ref="A7" r:id="rId28" display="https://statusinvest.com.br/fundos-imobiliarios/BARI11" xr:uid="{D95B514D-9EFE-4D76-A950-EE74A3AA0702}"/>
     <hyperlink ref="A38" r:id="rId29" display="https://statusinvest.com.br/fundos-imobiliarios/HSLG11" xr:uid="{337B5A0D-D5EA-4273-B801-CE72464A6C36}"/>
     <hyperlink ref="A19" r:id="rId30" display="https://statusinvest.com.br/fundos-imobiliarios/BTLG11" xr:uid="{72EF9BA3-B870-4588-AA92-247E85872037}"/>
-    <hyperlink ref="A44" r:id="rId31" display="https://statusinvest.com.br/fiinfras/juro11" xr:uid="{F8A07419-0E63-45BA-BAC0-F92D165A03E3}"/>
+    <hyperlink ref="A45" r:id="rId31" display="https://statusinvest.com.br/fiinfras/juro11" xr:uid="{F8A07419-0E63-45BA-BAC0-F92D165A03E3}"/>
     <hyperlink ref="A11" r:id="rId32" display="https://statusinvest.com.br/fiinfras/bidb11" xr:uid="{6943DD87-C5C0-4010-BE56-61C490ECB08A}"/>
-    <hyperlink ref="A43" r:id="rId33" display="https://statusinvest.com.br/fiagros/JGPX11" xr:uid="{16E3E585-AD99-4111-A70B-881BC3A4EBE2}"/>
+    <hyperlink ref="A44" r:id="rId33" display="https://statusinvest.com.br/fiagros/JGPX11" xr:uid="{16E3E585-AD99-4111-A70B-881BC3A4EBE2}"/>
     <hyperlink ref="A20" r:id="rId34" display="https://statusinvest.com.br/fundos-imobiliarios/BTRA11" xr:uid="{6DBF7909-4C03-4D60-A684-D1D19EF8887D}"/>
     <hyperlink ref="A5" r:id="rId35" display="https://statusinvest.com.br/acoes/azul4" xr:uid="{EDF8C745-6B43-4592-A0E6-0706B44C914C}"/>
     <hyperlink ref="A9" r:id="rId36" display="https://statusinvest.com.br/acoes/bbse3" xr:uid="{75263A59-7312-4BD6-8075-5C1C77814BAA}"/>
     <hyperlink ref="A14" r:id="rId37" display="https://statusinvest.com.br/acoes/bpan4" xr:uid="{DE70F0E2-7CFB-485D-B5F4-FF08EE8BF212}"/>
     <hyperlink ref="A17" r:id="rId38" display="https://statusinvest.com.br/acoes/brsr6" xr:uid="{9FEA3403-AAB5-4DCC-82C9-7C42E96FA3E6}"/>
     <hyperlink ref="A42" r:id="rId39" display="https://statusinvest.com.br/acoes/itsa4" xr:uid="{AD38701C-1B6B-4259-823B-7F13DD90C54B}"/>
-    <hyperlink ref="A66" r:id="rId40" display="https://statusinvest.com.br/acoes/vale3" xr:uid="{B9659F77-5F95-46DB-AA9A-FC4573812602}"/>
-    <hyperlink ref="A68" r:id="rId41" display="https://statusinvest.com.br/acoes/vivt3" xr:uid="{7D7B8583-77DA-409E-AAB3-E42308A90AD6}"/>
+    <hyperlink ref="A67" r:id="rId40" display="https://statusinvest.com.br/acoes/vale3" xr:uid="{B9659F77-5F95-46DB-AA9A-FC4573812602}"/>
+    <hyperlink ref="A69" r:id="rId41" display="https://statusinvest.com.br/acoes/vivt3" xr:uid="{7D7B8583-77DA-409E-AAB3-E42308A90AD6}"/>
     <hyperlink ref="A8" r:id="rId42" display="https://statusinvest.com.br/acoes/bbas3" xr:uid="{0AC3C98A-A3D7-49E7-9AF0-7E4E625ECB4C}"/>
     <hyperlink ref="A29" r:id="rId43" display="https://statusinvest.com.br/acoes/flry3" xr:uid="{334846D2-C70B-4B11-81DE-8EFC570D9ED0}"/>
-    <hyperlink ref="A46" r:id="rId44" display="https://statusinvest.com.br/acoes/kepl3" xr:uid="{1F8612F6-407D-4249-BF01-90AB4F41E738}"/>
-    <hyperlink ref="A49" r:id="rId45" display="https://statusinvest.com.br/acoes/lvtc3" xr:uid="{5A99156C-9CD7-46D7-A948-04A12F03ECE5}"/>
-    <hyperlink ref="A53" r:id="rId46" display="https://statusinvest.com.br/acoes/oibr3" xr:uid="{39273C70-C106-495D-AA4C-13E1688B2D49}"/>
-    <hyperlink ref="A72" r:id="rId47" display="https://statusinvest.com.br/acoes/yduq3" xr:uid="{9AEBED09-18D6-4F0D-9A89-A6B5577666DB}"/>
+    <hyperlink ref="A47" r:id="rId44" display="https://statusinvest.com.br/acoes/kepl3" xr:uid="{1F8612F6-407D-4249-BF01-90AB4F41E738}"/>
+    <hyperlink ref="A50" r:id="rId45" display="https://statusinvest.com.br/acoes/lvtc3" xr:uid="{5A99156C-9CD7-46D7-A948-04A12F03ECE5}"/>
+    <hyperlink ref="A54" r:id="rId46" display="https://statusinvest.com.br/acoes/oibr3" xr:uid="{39273C70-C106-495D-AA4C-13E1688B2D49}"/>
+    <hyperlink ref="A73" r:id="rId47" display="https://statusinvest.com.br/acoes/yduq3" xr:uid="{9AEBED09-18D6-4F0D-9A89-A6B5577666DB}"/>
     <hyperlink ref="A22" r:id="rId48" display="https://statusinvest.com.br/acoes/csan3" xr:uid="{4872D92D-C6F6-4F74-9FA6-BB0F636B57E7}"/>
     <hyperlink ref="A26" r:id="rId49" display="https://statusinvest.com.br/acoes/elet6" xr:uid="{4432EC44-A14E-48AB-9C89-E738CFC30AAA}"/>
-    <hyperlink ref="A62" r:id="rId50" display="https://statusinvest.com.br/acoes/sapr11" xr:uid="{9B6A5FEF-6371-4D46-8683-A633FC987288}"/>
-    <hyperlink ref="A51" r:id="rId51" display="https://statusinvest.com.br/acoes/mtre3" xr:uid="{E2962A99-34B9-4A3E-A6BC-BD7A9E6BD40A}"/>
+    <hyperlink ref="A63" r:id="rId50" display="https://statusinvest.com.br/acoes/sapr11" xr:uid="{9B6A5FEF-6371-4D46-8683-A633FC987288}"/>
+    <hyperlink ref="A52" r:id="rId51" display="https://statusinvest.com.br/acoes/mtre3" xr:uid="{E2962A99-34B9-4A3E-A6BC-BD7A9E6BD40A}"/>
     <hyperlink ref="A34" r:id="rId52" display="https://statusinvest.com.br/acoes/yduq3" xr:uid="{C8B692C5-6D12-4398-93F2-BDD2A5DD3F99}"/>
     <hyperlink ref="A27" r:id="rId53" display="https://statusinvest.com.br/acoes/eqtl3" xr:uid="{ABD703DF-458A-4EB5-9CD8-47267CFC026B}"/>
     <hyperlink ref="A25" r:id="rId54" display="https://statusinvest.com.br/acoes/dirr3" xr:uid="{455AFD04-B9EC-4601-BCA6-8420E200A748}"/>
     <hyperlink ref="A13" r:id="rId55" display="https://statusinvest.com.br/acoes/bpac11" xr:uid="{20679E3D-C58A-4C7B-B37D-3A2CCBEC3A93}"/>
     <hyperlink ref="A6" r:id="rId56" display="https://statusinvest.com.br/acoes/b3sa3" xr:uid="{DDE1A9C9-4750-4C99-A6D5-B9E00894F216}"/>
-    <hyperlink ref="A60" r:id="rId57" display="https://statusinvest.com.br/acoes/rrrp3" xr:uid="{AE8A2F8E-6411-450A-8E6F-1A48CD9359D7}"/>
-    <hyperlink ref="A63" r:id="rId58" display="https://statusinvest.com.br/acoes/sbfg3" xr:uid="{846E3C8E-F09A-4DE2-B881-0E55AADA01C3}"/>
+    <hyperlink ref="A61" r:id="rId57" display="https://statusinvest.com.br/acoes/rrrp3" xr:uid="{AE8A2F8E-6411-450A-8E6F-1A48CD9359D7}"/>
+    <hyperlink ref="A64" r:id="rId58" display="https://statusinvest.com.br/acoes/sbfg3" xr:uid="{846E3C8E-F09A-4DE2-B881-0E55AADA01C3}"/>
     <hyperlink ref="A4" r:id="rId59" display="https://statusinvest.com.br/acoes/asai3" xr:uid="{591F7942-6527-482E-B3BF-78E59EDC4D6B}"/>
     <hyperlink ref="A35" r:id="rId60" display="https://statusinvest.com.br/acoes/HAPV3" xr:uid="{A6693376-7E36-4042-A992-DEFC1A0C6698}"/>
     <hyperlink ref="A23" r:id="rId61" display="https://statusinvest.com.br/acoes/cvcb3" xr:uid="{1AFCD120-6403-4505-969F-76A060D9E178}"/>
     <hyperlink ref="A24" r:id="rId62" display="https://statusinvest.com.br/acoes/cyre3" xr:uid="{C6B0D33D-24C4-4F93-93CD-AD093E4F2069}"/>
     <hyperlink ref="A33" r:id="rId63" display="https://statusinvest.com.br/acoes/ggbr4" xr:uid="{8D8DAD5B-D019-46A4-A4EF-495A52CDABE2}"/>
-    <hyperlink ref="A54" r:id="rId64" display="https://statusinvest.com.br/acoes/petr4" xr:uid="{30A84BFA-32BD-4E92-A833-E257EA0F6365}"/>
-    <hyperlink ref="A69" r:id="rId65" display="https://statusinvest.com.br/acoes/vulc3" xr:uid="{79DA46FF-C296-4EBB-8FBF-586B30460E66}"/>
+    <hyperlink ref="A55" r:id="rId64" display="https://statusinvest.com.br/acoes/petr4" xr:uid="{30A84BFA-32BD-4E92-A833-E257EA0F6365}"/>
+    <hyperlink ref="A70" r:id="rId65" display="https://statusinvest.com.br/acoes/vulc3" xr:uid="{79DA46FF-C296-4EBB-8FBF-586B30460E66}"/>
     <hyperlink ref="A3" r:id="rId66" display="https://statusinvest.com.br/acoes/also3" xr:uid="{72FCB423-8119-495C-875F-F4B404131D71}"/>
-    <hyperlink ref="A70" r:id="rId67" display="https://statusinvest.com.br/acoes/wege3" xr:uid="{79168ED7-1AA0-4BF5-95AD-AEAC3D9B6922}"/>
+    <hyperlink ref="A71" r:id="rId67" display="https://statusinvest.com.br/acoes/wege3" xr:uid="{79168ED7-1AA0-4BF5-95AD-AEAC3D9B6922}"/>
     <hyperlink ref="A2" r:id="rId68" display="https://statusinvest.com.br/acoes/alpa4" xr:uid="{059142EF-4E24-47AC-826D-5CCE10D0D4FF}"/>
     <hyperlink ref="A16" r:id="rId69" display="https://statusinvest.com.br/acoes/alpa4" xr:uid="{DAD6187A-3AB2-40BC-B943-D6E5A47D4C3C}"/>
-    <hyperlink ref="A64" r:id="rId70" display="https://statusinvest.com.br/etfs/smal11" xr:uid="{FDBE839A-BF3D-414D-B614-927523E17584}"/>
+    <hyperlink ref="A65" r:id="rId70" display="https://statusinvest.com.br/etfs/smal11" xr:uid="{FDBE839A-BF3D-414D-B614-927523E17584}"/>
     <hyperlink ref="A12" r:id="rId71" display="https://statusinvest.com.br/etfs/bova11" xr:uid="{59F123E8-AFFE-4263-B5E3-2BC3C533453D}"/>
+    <hyperlink ref="A43" r:id="rId72" display="https://statusinvest.com.br/etfs/ivvb11" xr:uid="{4E80C367-0CCC-4B1C-9387-745C347327FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
--- a/ativos.xlsx
+++ b/ativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebili\github\cotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E7AD3B-AD57-41DC-90B6-332EB7D1361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6821DFE9-AA85-4050-BD92-110504D520E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5803,8 +5803,8 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ativos.xlsx
+++ b/ativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebili\github\cotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6821DFE9-AA85-4050-BD92-110504D520E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C5C7FF-58C7-4BCE-AB42-77CED0BF8C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1208,32 +1208,32 @@
     <v>6.81</v>
     <v>BVMF</v>
     <v>683062200</v>
-    <v>10.48</v>
+    <v>10.59</v>
     <v>1907</v>
     <v>10.3</v>
-    <v>1.0880000000000001</v>
+    <v>1.0885</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7195475000</v>
+    <v>7273643000</v>
     <v>A Alpargatas SA, antiga São Paulo Alpargatas SA, é uma empresa com sede no Brasil que se dedica à produção de calçados, vestuário e artigos esportivos. A Companhia fabrica e comercializa calçados e seus componentes; confecções; produtos têxteis; couro, resina e produtos de borracha natural ou artificial e artigos esportivos. O portfólio de marcas da Companhia inclui Havaianas e Dupe, que fabrica sandálias; Sete Leguas, oferecendo botas de borracha; Timberland, fornecimento de vestuário e calçado para exterior; Topper e Mizuno, com produção de artigos esportivos, calçados e roupas, e Osklen, marca de moda. A empresa também vende produtos esportivos por meio da rede de lojas Meggashop. Opera por meio de diversas subsidiárias no Brasil, Argentina, Estados Unidos, Espanha e França, entre outras. A Companhia é controlada por um grupo de investidores (Consórcio), formado pela Brasil Warrant Administração de Bens e Empresas SA, uma unidade do Grupo Moreira Salles, Itausa Investimentos Itau SA e Cambuhy Investimentos Ltda.</v>
     <v>BVMF</v>
-    <v>10.39</v>
+    <v>10.41</v>
     <v>17000</v>
-    <v>45075.838835971874</v>
+    <v>45076.947928240741</v>
     <v>0</v>
-    <v>11539720</v>
+    <v>11479950</v>
     <v>BRL</v>
     <v>ALPARGATAS S.A.</v>
     <v>ALPARGATAS S.A.</v>
-    <v>10.4</v>
-    <v>10.41</v>
+    <v>10.47</v>
+    <v>10.46</v>
     <v>Av. das Nacoes Unidas, 14.261, Vila Gertrudes, SAO PAULO, SAO PAULO, 04.794-000 BR</v>
     <v>Textiles &amp; Apparel</v>
     <v>ALPA4</v>
     <v>Ações</v>
     <v>ALPARGATAS S.A. (BVMF:ALPA4)</v>
-    <v>0.02</v>
-    <v>1.9250000000000001E-3</v>
-    <v>2823600</v>
+    <v>0.05</v>
+    <v>4.803E-3</v>
+    <v>5816200</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -1259,32 +1259,32 @@
     <v>14.92</v>
     <v>BVMF</v>
     <v>573936900</v>
-    <v>21.67</v>
+    <v>21.85</v>
     <v>2003</v>
-    <v>21.15</v>
-    <v>1.2397</v>
+    <v>21.42</v>
+    <v>1.2421</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>12236330000</v>
+    <v>12431473254</v>
     <v>A Aliansce Sonae Shopping Centers SA, anteriormente conhecida como Sonae Sierra Brasil SA, é uma empresa sediada no Brasil que se dedica principalmente ao desenvolvimento e operação de shopping centers no Brasil. Por meio de suas subsidiárias, a Companhia atua no desenvolvimento de projetos de shopping centers, construção de edifícios comerciais, gestão de imóveis comerciais, serviços de corretagem, locação de espaços para varejistas, locação de espaços comerciais para publicidade e promoção e operação de estacionamentos. A Companhia possui subsidiárias como Sierra Investimentos Brasil Ltda e Unishopping Administradora Ltda., Através das quais opera diversos centros comerciais no Brasil, incluindo o Parque D Pedro, o Metrópole, Manauara, Penha, Tivoli, Campo Limpo e Franca, entre outros. É uma subsidiária da Sierra Brazil 1 BV.</v>
     <v>BVMF</v>
-    <v>21.32</v>
+    <v>21.55</v>
     <v>440</v>
-    <v>45075.838799409372</v>
+    <v>45076.947928240741</v>
     <v>3</v>
-    <v>5442210</v>
+    <v>5310570</v>
     <v>BRL</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A.</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A.</v>
-    <v>21.33</v>
-    <v>21.55</v>
+    <v>21.7</v>
+    <v>21.66</v>
     <v>R Dias Ferreira 00190 Sal 301, Leblon, RIO DE JANEIRO, RIO DE JANEIRO, 22.431-050 BR</v>
     <v>Real Estate Operations</v>
     <v>ALSO3</v>
     <v>Ações</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A. (BVMF:ALSO3)</v>
-    <v>0.23</v>
-    <v>1.0787999999999999E-2</v>
-    <v>2213800</v>
+    <v>0.11</v>
+    <v>5.104E-3</v>
+    <v>4482200</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -1310,32 +1310,32 @@
     <v>10.38</v>
     <v>BVMF</v>
     <v>1349225000</v>
-    <v>11.69</v>
+    <v>11.97</v>
     <v>2003</v>
-    <v>11.34</v>
+    <v>11.07</v>
     <v>0.80700000000000005</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>15543072000</v>
+    <v>15543080000</v>
     <v>A Sendas Distribuidora SA, também conhecida como Assai Atacadista, é uma empresa com sede no Brasil que atua principalmente no setor de distribuição de alimentos. As atividades da Empresa estão divididas em dois segmentos operacionais: Cash &amp; Carry e Varejo. Por meio do segmento de Cash &amp; Carry, a Companhia oferece alimentos, artigos de bazar e outros produtos para o atacado, por meio de lojas de autoatendimento operadas no Brasil com a marca Assai. O segmento de Varejo inclui operações de hipermercados, supermercados e lojas de conveniência sob as seguintes marcas: Exito, Carulla, Surtimaorista, Surtimax, Super Inter e Viva Malls na Colômbia; Devoto, Disco e Geant no Uruguai; e Libertad, Mini Libertad e Paseo Libertad Malls na Argentina.</v>
     <v>BVMF</v>
-    <v>11.4</v>
+    <v>11.52</v>
     <v>76000</v>
-    <v>45075.838797082812</v>
+    <v>45076.947916666664</v>
     <v>6</v>
-    <v>17523910</v>
+    <v>17662340</v>
     <v>BRL</v>
     <v>SENDAS DISTRIBUIDORA S/A</v>
     <v>SENDAS DISTRIBUIDORA S/A</v>
-    <v>11.34</v>
-    <v>11.52</v>
+    <v>11.61</v>
+    <v>11.22</v>
     <v>Avenida Ayrton Senna, 6.000 Jacarepagua, RIO DE JANEIRO, RIO DE JANEIRO, 22.775-005 BR</v>
     <v>Food &amp; Drug Retailing</v>
     <v>ASAI3</v>
     <v>Ações</v>
     <v>SENDAS DISTRIBUIDORA S/A (BVMF:ASAI3)</v>
-    <v>0.12</v>
-    <v>1.0526000000000001E-2</v>
-    <v>13585100</v>
+    <v>-0.3</v>
+    <v>-2.6041999999999999E-2</v>
+    <v>21293400</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1361,32 +1361,32 @@
     <v>6.71</v>
     <v>BVMF</v>
     <v>335623400</v>
-    <v>16.41</v>
+    <v>16.82</v>
     <v>2008</v>
-    <v>15.86</v>
-    <v>1.972</v>
+    <v>15.78</v>
+    <v>1.9765999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5470661420</v>
+    <v>5386755570</v>
     <v>A Azul S.A. é uma empresa brasileira dedicada à prestação de serviços de transporte de passageiros. A Companhia atua principalmente como operadora de companhia aérea sob a marca Azul, fornecendo voos regulares entre diversas cidades do Brasil, incluindo São Paulo, Brasília, Rio de Janeiro, Belo Horizonte, Porto Alegre, Curitiba, Fortaleza e Salvador, entre outros. Além disso, sua rede aérea compreende rotas internacionais para os Estados Unidos, Europa e outros países da América Latina. Por meio de seu negócio de pacotes de viagens, a Azul Viagens, além de passagens aéreas, a Companhia oferece acomodações, transfers, passeios e aluguel de veículos. Sua oferta inclui também o Azul Cargo Express, um serviço de transporte de carga agendado com entrega de aeroporto a aeroporto e porta a porta. A Companhia possui várias subsidiárias, como a Azul Linhas Aéreas Brasileiras SA, que opera todas as atividades de voo e TudoAzul SA, que gerencia o programa de fidelidade.</v>
     <v>BVMF</v>
-    <v>16.03</v>
+    <v>16.3</v>
     <v>13651</v>
-    <v>45075.838634837499</v>
+    <v>45076.947916666664</v>
     <v>9</v>
-    <v>19980010</v>
+    <v>17655140</v>
     <v>BRL</v>
     <v>Azul S.A.</v>
     <v>Azul S.A.</v>
-    <v>16.190000000000001</v>
-    <v>16.3</v>
+    <v>16.71</v>
+    <v>16.05</v>
     <v>Avenida Marcos Penteado de Ulhoa Rodrigues 939 8 andar, Tambore, BARUERI, SAO PAULO, 06.460-040 BR</v>
     <v>Passenger Transportation Services</v>
     <v>AZUL4</v>
     <v>Ações</v>
     <v>Azul S.A. (BVMF:AZUL4)</v>
-    <v>0.27</v>
-    <v>1.6843E-2</v>
-    <v>9297000</v>
+    <v>-0.25</v>
+    <v>-1.5337E-2</v>
+    <v>11516000</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -1412,32 +1412,32 @@
     <v>9.5</v>
     <v>BVMF</v>
     <v>6099000000</v>
-    <v>13.71</v>
+    <v>13.79</v>
     <v>2007</v>
-    <v>13.45</v>
-    <v>1.1378999999999999</v>
+    <v>13.29</v>
+    <v>1.1357999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>82519470000</v>
+    <v>81421650000</v>
     <v>B3 SA Brasil Bolsa Balcão, anteriormente BM &amp; F Bovespa SA Bolsa de Valores Mercadorias e Futuros, é uma fornecedora de infra-estruturaa de mercado financeiro no Brasil. As ofertas de serviços da Companhia varia entre negociação cambial, compensação e outros serviços pós-negociação e registro de transações de balcão (OTC). A Companhia também fornece um serviço de listagem e atua como depósito central de valores mobiliários (CSD). Desenvolve soluções de software e oferece serviços de licenciamento de índice. Seu negócio está dividido em quatro segmentos: Bovespa, que abrange a negociação, compensação e liquidação de ações e derivativos patrimoniais; BM &amp; F, que abrange a negociação, compensação e liquidação de derivativos financeiros e de mercadorias (commodities); Cetip Securities (Cetip UTVM), cobrindo os sistemas de registro, compensação, liquidação e custódia de títulos de renda fixa e derivados OTC e Cetip Financing (Cetip UFIN), que fornece um sistema eletrônico privado integrado para registro de empréstimos de veículos e imóveis.</v>
     <v>BVMF</v>
-    <v>13.66</v>
+    <v>13.53</v>
     <v>2135</v>
-    <v>45075.838864351565</v>
+    <v>45076.947916666664</v>
     <v>12</v>
-    <v>47176630</v>
+    <v>45917240</v>
     <v>BRL</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão</v>
-    <v>13.65</v>
-    <v>13.53</v>
+    <v>13.7</v>
+    <v>13.35</v>
     <v>Praca Antonio Prado, 48 7 andar, Centro, SAO PAULO, SAO PAULO, 01.010-901 BR</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>B3SA3</v>
     <v>Ações</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão (BVMF:B3SA3)</v>
-    <v>-0.13</v>
-    <v>-9.5169999999999994E-3</v>
-    <v>13626700</v>
+    <v>-0.18</v>
+    <v>-1.3304E-2</v>
+    <v>32051700</v>
   </rv>
   <rv s="2">
     <v>13</v>
@@ -1462,22 +1462,22 @@
     <v>90.66</v>
     <v>75.81</v>
     <v>BVMF</v>
+    <v>85.5</v>
+    <v>83.51</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>84.75</v>
-    <v>83.3</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>83.85</v>
-    <v>45075.836805890627</v>
+    <v>45076.947997685187</v>
     <v>15</v>
     <v>BRL</v>
     <v>FII BARIGUI RENDI CF</v>
-    <v>84.19</v>
-    <v>84.75</v>
+    <v>84.74</v>
+    <v>85.47</v>
     <v>BARI11</v>
     <v>Fundos mais negociados</v>
     <v>FII BARIGUI RENDI CF (BVMF:BARI11)</v>
-    <v>0.9</v>
-    <v>1.0732999999999999E-2</v>
-    <v>5245</v>
+    <v>0.72</v>
+    <v>8.4960000000000001E-3</v>
+    <v>7950</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -1503,32 +1503,32 @@
     <v>29.24</v>
     <v>BVMF</v>
     <v>2865417000</v>
-    <v>44.56</v>
+    <v>44.86</v>
     <v>1808</v>
-    <v>44.01</v>
-    <v>1.1757</v>
+    <v>44.21</v>
+    <v>1.1754</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>126995281440</v>
+    <v>128084139900</v>
     <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
     <v>BVMF</v>
-    <v>44.4</v>
+    <v>44.32</v>
     <v>85953</v>
-    <v>45075.838645404685</v>
+    <v>45076.947916666664</v>
     <v>18</v>
-    <v>14604790</v>
+    <v>14075170</v>
     <v>BRL</v>
     <v>BANCO DO BRASIL S.A.</v>
     <v>BANCO DO BRASIL S.A.</v>
-    <v>44.56</v>
-    <v>44.32</v>
+    <v>44.8</v>
+    <v>44.7</v>
     <v>SAUN QD 5 LT B, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Banking Services</v>
     <v>BBAS3</v>
     <v>Ações</v>
     <v>BANCO DO BRASIL S.A. (BVMF:BBAS3)</v>
-    <v>-0.08</v>
-    <v>-1.802E-3</v>
-    <v>3305100</v>
+    <v>0.38</v>
+    <v>8.574E-3</v>
+    <v>18403400</v>
   </rv>
   <rv s="2">
     <v>19</v>
@@ -1554,32 +1554,32 @@
     <v>22.19</v>
     <v>BVMF</v>
     <v>2000000000</v>
-    <v>32.32</v>
+    <v>32.28</v>
     <v>2012</v>
-    <v>31.84</v>
-    <v>0.67100000000000004</v>
+    <v>31.6</v>
+    <v>0.67200000000000004</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>64180000000</v>
+    <v>63380000000</v>
     <v>A BB Seguridade Participações S.A. é uma empresa brasileira que atua no setor de seguros. As atividades da empresa se dividem em dois segmentos: Seguros e Corretagem. A divisão Seguros oferece seguros de vida, propriedade e acidentes, veículos, riscos especiais, financeiro e transporte, planos odontológicos, de previdência privada e de capitalização, bem como resseguro. A divisão Corretagem concentra-se na corretagem de seguros, gestão dos planos de previdência e capitalização, bem como na promoção de produtos de seguros e resseguros. Além disso, presta consultoria relacionada à seleção de seguros. As subsidiárias da empresa incluem a BB Seguros Participações S.A. e a BB Cor Participações S.A. A empresa é controlada pelo BANCO DO BRASIL S.A.</v>
     <v>BVMF</v>
-    <v>31.9</v>
+    <v>32.090000000000003</v>
     <v>223</v>
-    <v>45075.838597152346</v>
+    <v>45076.947916666664</v>
     <v>21</v>
-    <v>8773200</v>
+    <v>7135460</v>
     <v>BRL</v>
     <v>BB Seguridade Participações S.A.</v>
     <v>BB Seguridade Participações S.A.</v>
-    <v>31.99</v>
-    <v>32.090000000000003</v>
+    <v>32.25</v>
+    <v>31.69</v>
     <v>SAUN, Quadra 05, Bloco B, 3 andar Edificio Banco do Br, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Insurance</v>
     <v>BBSE3</v>
     <v>Ações</v>
     <v>BB Seguridade Participações S.A. (BVMF:BBSE3)</v>
-    <v>0.19</v>
-    <v>5.9560000000000004E-3</v>
-    <v>2418100</v>
+    <v>-0.4</v>
+    <v>-1.2464999999999999E-2</v>
+    <v>4764500</v>
   </rv>
   <rv s="2">
     <v>22</v>
@@ -1604,22 +1604,22 @@
     <v>100.01</v>
     <v>82</v>
     <v>BVMF</v>
-    <v>88.41</v>
-    <v>87.3</v>
+    <v>88.31</v>
+    <v>87.55</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>87.88</v>
-    <v>45075.836806481253</v>
+    <v>87.63</v>
+    <v>45076.947916666664</v>
     <v>24</v>
     <v>BRL</v>
     <v>BTG PACTUAL DIV INFR FIC FII INFRA RF</v>
-    <v>87.9</v>
     <v>87.63</v>
+    <v>88.31</v>
     <v>BDIF11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL DIV INFR FIC FII INFRA RF (BVMF:BDIF11)</v>
-    <v>-0.25</v>
-    <v>-2.8449999999999999E-3</v>
-    <v>13845</v>
+    <v>0.68</v>
+    <v>7.7600000000000004E-3</v>
+    <v>9788</v>
   </rv>
   <rv s="2">
     <v>25</v>
@@ -1645,21 +1645,21 @@
     <v>83.5</v>
     <v>BVMF</v>
     <v>90</v>
-    <v>88.5</v>
+    <v>88.78</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>90</v>
-    <v>45075.833333333336</v>
+    <v>45076.947916666664</v>
     <v>27</v>
     <v>BRL</v>
     <v>INTER INFRA FIC RENDA FIXA CREDIT CF</v>
-    <v>89.88</v>
     <v>90</v>
+    <v>89.74</v>
     <v>BIDB11</v>
     <v>Fundos mais negociados</v>
     <v>INTER INFRA FIC RENDA FIXA CREDIT CF (BVMF:BIDB11)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>2766</v>
+    <v>-0.26</v>
+    <v>-2.8890000000000001E-3</v>
+    <v>1752</v>
   </rv>
   <rv s="2">
     <v>28</v>
@@ -1684,24 +1684,24 @@
     <v>116.61</v>
     <v>91.9</v>
     <v>BVMF</v>
-    <v>107.59</v>
-    <v>106.62</v>
+    <v>107.78</v>
+    <v>105.12</v>
     <v>0.99819999999999998</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>12877822988</v>
-    <v>107.51</v>
-    <v>45075.846503506247</v>
+    <v>106.77</v>
+    <v>45076.947928240741</v>
     <v>30</v>
     <v>BRL</v>
     <v>iShares Ibovespa Fundo Indice</v>
-    <v>107.25</v>
-    <v>106.77</v>
+    <v>107.54</v>
+    <v>105.38</v>
     <v>BOVA11</v>
     <v>Fundos mais negociados</v>
     <v>iShares Ibovespa Fundo Indice (BVMF:BOVA11)</v>
-    <v>-0.74</v>
-    <v>-6.8830000000000002E-3</v>
-    <v>6600371</v>
+    <v>-1.39</v>
+    <v>-1.3019000000000001E-2</v>
+    <v>5935395</v>
   </rv>
   <rv s="2">
     <v>31</v>
@@ -1726,22 +1726,22 @@
     <v>29.52</v>
     <v>17.93</v>
     <v>BVMF</v>
-    <v>27.56</v>
-    <v>26.94</v>
+    <v>27.77</v>
+    <v>26.33</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>27.14</v>
-    <v>45075.838577904688</v>
+    <v>27.3</v>
+    <v>45076.947916666664</v>
     <v>33</v>
     <v>BRL</v>
     <v>BCO BTG PACTUAL UNT</v>
-    <v>27.21</v>
-    <v>27.3</v>
+    <v>27.28</v>
+    <v>26.62</v>
     <v>BPAC11</v>
     <v>Fundos mais negociados</v>
     <v>BCO BTG PACTUAL UNT (BVMF:BPAC11)</v>
-    <v>0.16</v>
-    <v>5.8950000000000001E-3</v>
-    <v>7793800</v>
+    <v>-0.68</v>
+    <v>-2.4908E-2</v>
+    <v>14732200</v>
   </rv>
   <rv s="2">
     <v>34</v>
@@ -1767,32 +1767,32 @@
     <v>4.57</v>
     <v>BVMF</v>
     <v>615638600</v>
-    <v>6.73</v>
+    <v>6.71</v>
     <v>1966</v>
-    <v>6.57</v>
-    <v>1.4358</v>
+    <v>6.54</v>
+    <v>1.4368000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>4100153076</v>
+    <v>4050901988</v>
     <v>O BANCO PAN S.A., anteriormente Banco Panamericano S.A., é um banco comercial brasileiro. O Banco oferece uma variedade de serviços e produtos financeiros, incluindo empréstimos ao consumidor, leasing de veículos de passageiros e financiamento de vendas, entre outros. A empresa atua através de cinco segmentos principais: Financeiro, que oferece créditos ao consumidor, cartões de crédito, leasing e serviços de investimento; Consórcio, que se dedica à gestão de bens de terceiros, como automóveis, motocicletas, aparelhos eletrônicos e imóveis; Securitização de recebíveis; Promoção de vendas; e Outros. A empresa oferece seus serviços para clientes individuais e corporativos.</v>
     <v>BVMF</v>
-    <v>6.63</v>
+    <v>6.66</v>
     <v>2433</v>
-    <v>45075.837500057809</v>
+    <v>45076.947928240741</v>
     <v>36</v>
-    <v>2498950</v>
+    <v>2387740</v>
     <v>BRL</v>
     <v>BANCO PAN S.A.</v>
     <v>BANCO PAN S.A.</v>
-    <v>6.6</v>
-    <v>6.66</v>
+    <v>6.64</v>
+    <v>6.58</v>
     <v>Avenida Paulista, 1374 16 andar, Bela Vista, SAO PAULO, SAO PAULO, 01.310-100 BR</v>
     <v>Banking Services</v>
     <v>BPAN4</v>
     <v>Ações</v>
     <v>BANCO PAN S.A. (BVMF:BPAN4)</v>
-    <v>0.03</v>
-    <v>4.5250000000000004E-3</v>
-    <v>1019900</v>
+    <v>-0.08</v>
+    <v>-1.2012E-2</v>
+    <v>3212900</v>
   </rv>
   <rv s="2">
     <v>37</v>
@@ -1817,22 +1817,22 @@
     <v>66.72</v>
     <v>49.47</v>
     <v>BVMF</v>
-    <v>59.02</v>
-    <v>58.33</v>
+    <v>58.76</v>
+    <v>58.34</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>58.49</v>
-    <v>45075.836805786719</v>
+    <v>58.56</v>
+    <v>45076.947997685187</v>
     <v>39</v>
     <v>BRL</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
-    <v>58.49</v>
     <v>58.56</v>
+    <v>58.66</v>
     <v>BRCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
-    <v>7.0000000000000007E-2</v>
-    <v>1.1969999999999999E-3</v>
-    <v>18918</v>
+    <v>0.1</v>
+    <v>1.7080000000000001E-3</v>
+    <v>20032</v>
   </rv>
   <rv s="2">
     <v>40</v>
@@ -1858,32 +1858,32 @@
     <v>16.47</v>
     <v>BVMF</v>
     <v>797207800</v>
-    <v>23.34</v>
+    <v>23.18</v>
     <v>1972</v>
-    <v>22.86</v>
-    <v>0.80740000000000001</v>
+    <v>22.45</v>
+    <v>0.80659999999999998</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>18435480000</v>
+    <v>18409060000</v>
     <v>A Braskem S.A. produz resinas termoplásticas. Os segmentos da Companhia são Petroquímicos Básicos, Poliolefinas, Vinílicos, Estados Unidos e Europa e Distribuição Química. Também se dedica à importação e exportação de produtos químicos, petroquímicos e combustíveis, produção, fornecimento e venda de utilidades como vapor, água, ar comprimido, gases industriais, prestação de serviços industriais e produção, fornecimento e venda de Energia elétrica. Também investe em outras empresas, seja como sócia ou como acionista. Opera mais de 40 unidades industriais, das quais mais de 30 estão localizadas nos estados brasileiros de Alagoas, Bahia, Rio de Janeiro, Rio Grande do Sul e São Paulo; mais de cinco estão localizadas nos Estados Unidos, nos estados da Pensilvânia, Texas e West Virginia, e mais de duas estão localizadas na Alemanha, nas cidades de Wesseling e Schkopau. Essas unidades produzem resinas termoplásticas - polietileno, polipropileno e cloreto de polivinila, além de petroquímicos básicos.</v>
     <v>BVMF</v>
-    <v>22.97</v>
+    <v>22.89</v>
     <v>8126</v>
-    <v>45075.838707580471</v>
+    <v>45076.947928240741</v>
     <v>42</v>
-    <v>5070880</v>
+    <v>4243210</v>
     <v>BRL</v>
     <v>BRASKEM S.A.</v>
     <v>BRASKEM S.A.</v>
-    <v>23.15</v>
-    <v>22.89</v>
+    <v>23.17</v>
+    <v>22.7</v>
     <v>Rua Eteno, N 1561, Polo petroquimico, Copec, CAMACARI, BAHIA, 42.816-200 BR</v>
     <v>Chemicals</v>
     <v>BRKM5</v>
     <v>Ações</v>
     <v>BRASKEM S.A. (BVMF:BRKM5)</v>
-    <v>-0.08</v>
-    <v>-3.483E-3</v>
-    <v>1724800</v>
+    <v>-0.19</v>
+    <v>-8.3009999999999994E-3</v>
+    <v>2996800</v>
   </rv>
   <rv s="2">
     <v>43</v>
@@ -1905,36 +1905,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>12.44</v>
+    <v>12.5</v>
     <v>8.4499999999999993</v>
     <v>BVMF</v>
     <v>408974500</v>
-    <v>12.44</v>
+    <v>12.5</v>
     <v>1928</v>
-    <v>12.01</v>
-    <v>1.0497000000000001</v>
+    <v>12.28</v>
+    <v>1.0551999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5136763000</v>
+    <v>5220056000</v>
     <v>O Banco do Estado do Rio Grande do Sul S.A. é um banco comercial brasileiro que presta serviços bancários pessoais e corporativos. O Banrisul oferece uma variedade de produtos e serviços financeiros, como empréstimos pessoais e imobiliários, cartões de crédito e de débito, corretagem de títulos, gestão de portfólio, locação de veículos e equipamentos, serviços de investimento, apoio ao comércio internacional, e seguros de vida e patrimonial, entre outros.</v>
     <v>BVMF</v>
-    <v>12.09</v>
+    <v>12.4</v>
     <v>8804</v>
-    <v>45075.837500022659</v>
+    <v>45076.947928240741</v>
     <v>45</v>
-    <v>1906700</v>
+    <v>1953730</v>
     <v>BRL</v>
     <v>Banco do Estado do Rio Grande do Sul S.A.</v>
     <v>Banco do Estado do Rio Grande do Sul S.A.</v>
-    <v>12.01</v>
-    <v>12.4</v>
+    <v>12.39</v>
+    <v>12.31</v>
     <v>Rua Capitao Montanha, 177, Centro, PORTO ALEGRE, RIO GRANDE DO SUL, 90.018-900 BR</v>
     <v>Banking Services</v>
     <v>BRSR6</v>
     <v>Ações</v>
     <v>Banco do Estado do Rio Grande do Sul S.A. (BVMF:BRSR6)</v>
-    <v>0.31</v>
-    <v>2.5640999999999997E-2</v>
-    <v>2166000</v>
+    <v>-0.09</v>
+    <v>-7.2579999999999997E-3</v>
+    <v>2813800</v>
   </rv>
   <rv s="2">
     <v>46</v>
@@ -1959,22 +1959,22 @@
     <v>9.5500000000000007</v>
     <v>8.1300000000000008</v>
     <v>BVMF</v>
-    <v>9.35</v>
-    <v>9.2100000000000009</v>
+    <v>9.2899999999999991</v>
+    <v>9.1999999999999993</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.33</v>
-    <v>45075.83680571719</v>
+    <v>9.25</v>
+    <v>45076.947997685187</v>
     <v>48</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII BTG PACTUAL FUNDO DE CRI CF</v>
-    <v>9.34</v>
-    <v>9.25</v>
+    <v>9.27</v>
+    <v>9.2200000000000006</v>
     <v>BTCI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII BTG PACTUAL FUNDO DE CRI CF (BVMF:BTCI11)</v>
-    <v>-0.08</v>
-    <v>-8.574E-3</v>
-    <v>161309</v>
+    <v>-0.03</v>
+    <v>-3.2429999999999998E-3</v>
+    <v>151563</v>
   </rv>
   <rv s="2">
     <v>49</v>
@@ -1999,22 +1999,22 @@
     <v>99.5</v>
     <v>88.29</v>
     <v>BVMF</v>
-    <v>98.11</v>
-    <v>97.22</v>
+    <v>98</v>
+    <v>97.63</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>98.22</v>
-    <v>45075.836806284373</v>
+    <v>97.63</v>
+    <v>45076.947997685187</v>
     <v>51</v>
     <v>BRL</v>
     <v>BTG PACTUAL LOGISTICA FDO INV IMOB - FII ETF</v>
+    <v>97.63</v>
     <v>97.99</v>
-    <v>97.63</v>
     <v>BTLG11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL LOGISTICA FDO INV IMOB - FII ETF (BVMF:BTLG11)</v>
-    <v>-0.59</v>
-    <v>-6.0070000000000002E-3</v>
-    <v>30422</v>
+    <v>0.36</v>
+    <v>3.6870000000000002E-3</v>
+    <v>24934</v>
   </rv>
   <rv s="2">
     <v>52</v>
@@ -2039,22 +2039,22 @@
     <v>92.28</v>
     <v>67.72</v>
     <v>BVMF</v>
-    <v>79.87</v>
-    <v>78.3</v>
+    <v>79.13</v>
+    <v>77.8</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>79.89</v>
-    <v>45075.836805751562</v>
+    <v>78.349999999999994</v>
+    <v>45076.947997685187</v>
     <v>54</v>
     <v>BRL</v>
     <v>FII BTG PACTUAL TERRAS AGRICOLAS CEF</v>
-    <v>79.86</v>
-    <v>78.349999999999994</v>
+    <v>78.7</v>
+    <v>77.8</v>
     <v>BTRA11</v>
     <v>Fundos mais negociados</v>
     <v>FII BTG PACTUAL TERRAS AGRICOLAS CEF (BVMF:BTRA11)</v>
-    <v>-1.54</v>
-    <v>-1.9276999999999999E-2</v>
-    <v>10013</v>
+    <v>-0.55000000000000004</v>
+    <v>-7.0199999999999993E-3</v>
+    <v>9340</v>
   </rv>
   <rv s="2">
     <v>55</v>
@@ -2076,25 +2076,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>106.5</v>
+    <v>106.65</v>
     <v>84.46</v>
     <v>BVMF</v>
-    <v>106.5</v>
-    <v>106.2</v>
+    <v>106.65</v>
+    <v>106.17</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>106.2</v>
-    <v>45075.829861111109</v>
+    <v>106.49</v>
+    <v>45076.947997685187</v>
     <v>57</v>
     <v>BRL</v>
     <v>SUPERNOVA FII- RECEB IMOB.</v>
-    <v>106.2</v>
     <v>106.49</v>
+    <v>106.5</v>
     <v>CACR11</v>
     <v>Fundos mais negociados</v>
     <v>SUPERNOVA FII- RECEB IMOB. (BVMF:CACR11)</v>
-    <v>0.28999999999999998</v>
-    <v>2.7309999999999999E-3</v>
-    <v>1858</v>
+    <v>0.01</v>
+    <v>9.391E-5</v>
+    <v>5021</v>
   </rv>
   <rv s="2">
     <v>58</v>
@@ -2120,32 +2120,32 @@
     <v>13.09</v>
     <v>BVMF</v>
     <v>1874071000</v>
-    <v>15.58</v>
+    <v>15.51</v>
     <v>1966</v>
-    <v>15.3</v>
-    <v>1.0498000000000001</v>
+    <v>14.92</v>
+    <v>1.0475000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>28729508430</v>
+    <v>28862970000</v>
     <v>A Cosan SA, anteriormente conhecida como Cosan SA Indústria e Comércio, é uma empresa sediada no Brasil que atua principalmente no setor de marketing de petróleo. As atividades da Companhia estão divididas em seis segmentos de negócios: Raizen Energia, que produz e distribui derivados de cana-de-açúcar, como açúcar bruto e etanol hidratado, e co-gera energia a partir do bagaço de cana; Raizen Combustiveis, que distribui combustível, principalmente através de uma rede de postos de gasolina sob a marca Shell; Comgas, que se concentra na distribuição de gás natural no estado de São Paulo, Brasil; Radar, responsável pela compra, venda, gerenciamento e arrendamento de terras agrícolas; Lubrificantes, que fabrica e vende lubrificantes sob a marca Mobil no mercado latino-americano, bem como a marca Comma no mercado europeu e asiático, e Outros, que inclui investimentos em outros negócios. A Companhia é uma subsidiária da Cosan Ltd.</v>
     <v>BVMF</v>
-    <v>15.51</v>
+    <v>15.33</v>
     <v>53498</v>
-    <v>45075.838733946097</v>
+    <v>45076.947916666664</v>
     <v>60</v>
-    <v>9008450</v>
+    <v>8821490</v>
     <v>BRL</v>
     <v>COSAN S.A.</v>
     <v>COSAN S.A.</v>
-    <v>15.56</v>
-    <v>15.33</v>
+    <v>15.5</v>
+    <v>15.06</v>
     <v>Av. Brigadeiro Faria Lima, 4.100 / 15 andar, Itaim Bibi, SAO PAULO, SAO PAULO, 04.538-132 BR</v>
     <v>Oil &amp; Gas</v>
     <v>CSAN3</v>
     <v>Ações</v>
     <v>COSAN S.A. (BVMF:CSAN3)</v>
-    <v>-0.18</v>
-    <v>-1.1605000000000001E-2</v>
-    <v>5286400</v>
+    <v>-0.27</v>
+    <v>-1.7613E-2</v>
+    <v>10277800</v>
   </rv>
   <rv s="2">
     <v>61</v>
@@ -2171,32 +2171,32 @@
     <v>2.52</v>
     <v>BVMF</v>
     <v>277247300</v>
-    <v>3.13</v>
+    <v>3.25</v>
     <v>2009</v>
-    <v>2.9</v>
-    <v>2.1589</v>
+    <v>2.97</v>
+    <v>2.1671</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>859466630</v>
+    <v>826196954</v>
     <v>A CVC Brasil Operadora e Agência de Viagens SA é uma empresa sediada no Brasil, envolvida no setor de turismo. A Companhia oferece pacotes turísticos nacionais e internacionais, cruzeiros, estadias em hotéis e resorts, passagens aéreas e passeios turísticos. Seus pacotes de viagem combinam passagens aéreas, transporte terrestre, acomodações, seguro de viagem, guias turísticos e outros serviços complementares de viagem. Além disso, organiza intercâmbios internacionais, acampamentos de idiomas e viagens para adolescentes. A Companhia vende produtos e serviços através de lojas próprias, plataformas de distribuição online e agentes independentes autorizados. Seus destinos incluem principalmente a Europa e as Américas. A Companhia possui várias subsidiárias no Brasil e na Argentina, como CVC Serviços Agencia de Viagens Ltda e CVC Turismo SAU, entre outras.</v>
     <v>BVMF</v>
-    <v>2.98</v>
+    <v>3.1</v>
     <v>2000</v>
-    <v>45075.838724953122</v>
+    <v>45076.947916666664</v>
     <v>63</v>
-    <v>29195260</v>
+    <v>31505860</v>
     <v>BRL</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A.</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A.</v>
-    <v>3</v>
-    <v>3.1</v>
+    <v>3.11</v>
+    <v>2.98</v>
     <v>Rua da Catequese, 227, 11 andar, sala 111, Bairro Jardim, SANTO ANDRE, SAO PAULO, 09.090-401 BR</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>CVCB3</v>
     <v>Ações</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A. (BVMF:CVCB3)</v>
-    <v>0.12</v>
-    <v>4.0267999999999998E-2</v>
-    <v>38164600</v>
+    <v>-0.12</v>
+    <v>-3.8710000000000001E-2</v>
+    <v>35245400</v>
   </rv>
   <rv s="2">
     <v>64</v>
@@ -2222,31 +2222,31 @@
     <v>11.16</v>
     <v>BVMF</v>
     <v>399742800</v>
-    <v>19.03</v>
+    <v>19.149999999999999</v>
     <v>1993</v>
-    <v>18.62</v>
-    <v>1.6551</v>
+    <v>18.440000000000001</v>
+    <v>1.6548</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7511167212</v>
+    <v>7415228940</v>
     <v>A Cyrela Brazil Realty S.A. Empreendimentos e Participações, anteriormente denominada Cyrela Brasil Realty SA Empreendimentos e Participações, é uma empresa brasileira envolvida no setor imobiliário. A Empresa está envolvida principalmente na construção, incorporação, corretagem e venda de imóveis residenciais. Além disso, ela fornece serviços de desmembramento de terrenos e serviços complementares para seus clientes. Em 31 de dezembro de 2011, a Empresa possuía diversas subsidiárias, incluindo a ABC Realty de Investimento Imobiliário Ltda., a Andorra Empreendimentos Imobiliários Ltda., a BR-Serviços e Investimentos Ltda.-Bahamas, a Barão de Miracema Empreendimentos Imobiliários Ltda., a Boa Vista Empreendimentos Imobiliários Spe Ltda., a Bretanha Empreendimentos Imobiliários Ltda. e a Cabo Frio Empreendimentos Imobiliários Ltda., entre outras.</v>
     <v>BVMF</v>
-    <v>18.809999999999999</v>
-    <v>45075.838726376562</v>
+    <v>18.79</v>
+    <v>45076.947928240741</v>
     <v>66</v>
-    <v>6029400</v>
+    <v>6067820</v>
     <v>BRL</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações</v>
-    <v>19</v>
-    <v>18.79</v>
+    <v>18.88</v>
+    <v>18.55</v>
     <v>Rua do Rocio,109, 2 andar, Vila Olimpia, SAO PAULO, SAO PAULO, 04.552-000 BR</v>
     <v>Real Estate Operations</v>
     <v>CYRE3</v>
     <v>Ações</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações (BVMF:CYRE3)</v>
-    <v>-0.02</v>
-    <v>-1.0630000000000001E-3</v>
-    <v>4253400</v>
+    <v>-0.24</v>
+    <v>-1.2773000000000001E-2</v>
+    <v>5617600</v>
   </rv>
   <rv s="2">
     <v>67</v>
@@ -2272,32 +2272,32 @@
     <v>8.26</v>
     <v>BVMF</v>
     <v>150000000</v>
-    <v>17.73</v>
+    <v>17.440000000000001</v>
     <v>1981</v>
-    <v>17.13</v>
-    <v>1.3416999999999999</v>
+    <v>17.100000000000001</v>
+    <v>1.3366</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>2578500000</v>
+    <v>2599499999</v>
     <v>A DIRECIONAL ENGENHARIA S.A. é uma empresa do setor imobiliário residencial estabelecida no Brasil. A empresa se concentra no desenvolvimento e na construção de projetos habitacionais residenciais, com foco no segmento de baixa renda. Constrói principalmente casas multifamiliares, que formam um bairro residencial. A empresa desenvolve suas atividades por meio de parcerias especiais (SCPs) e entidades com finalidade especial (SPEs), que atuam exclusivamente no setor imobiliário. Opera nos seguintes estados do Brasil, dentre outros: Rio de Janeiro, São Paulo, Rio Grande do Sul, Minas Gerais, Pará e Amazonas. A empresa detém inúmeras subsidiárias, como a Direcional Taguatinga Engenharia Ltda., Ametista Empreendimentos Imobiliários Ltda. e Malaquita Empreendimentos Imobiliários Ltda.</v>
     <v>BVMF</v>
-    <v>17.62</v>
+    <v>17.190000000000001</v>
     <v>745</v>
-    <v>45075.837500068752</v>
+    <v>45076.947928240741</v>
     <v>69</v>
-    <v>2155330</v>
+    <v>2203270</v>
     <v>BRL</v>
     <v>DIRECIONAL ENGENHARIA S.A.</v>
     <v>DIRECIONAL ENGENHARIA S.A.</v>
-    <v>17.690000000000001</v>
-    <v>17.190000000000001</v>
+    <v>17.27</v>
+    <v>17.329999999999998</v>
     <v>Rua dos Otoni, 177, Santa Efigenia, BELO HORIZONTE, MINAS GERAIS, 30.150-270 BR</v>
     <v>Real Estate Operations</v>
     <v>DIRR3</v>
     <v>Ações</v>
     <v>DIRECIONAL ENGENHARIA S.A. (BVMF:DIRR3)</v>
-    <v>-0.43</v>
-    <v>-2.4403999999999999E-2</v>
-    <v>1827300</v>
+    <v>0.14000000000000001</v>
+    <v>8.1440000000000002E-3</v>
+    <v>1451400</v>
   </rv>
   <rv s="2">
     <v>70</v>
@@ -2343,33 +2343,33 @@
     <v>31.35</v>
     <v>BVMF</v>
     <v>2301228000</v>
-    <v>39.4</v>
+    <v>39.200000000000003</v>
     <v>1962</v>
-    <v>38.520000000000003</v>
-    <v>1.1729000000000001</v>
+    <v>38.53</v>
+    <v>1.1706000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>82767700000</v>
+    <v>81192100000</v>
     <v>A Centrais Elétricas Brasileiras S.A. é uma empresa de energia elétrica. A Empresa atua nos segmentos de geração, transmissão, distribuição e comercialização. A Empresa opera por intermédio de várias empresas, incluindo a holding Eletrobrás, CGTEE, Chesf, Eletronorte, Eletronuclear, Eletrosul, Furnas, Amazonas Energia, Distribuição Acre, Distribuição Alagoas, Distribuição Piauí, Distribuição Rondônia, Distribuição Roraima e metade do capital da Itaipu Binacional. A Empresa tem uma capacidade total instalada para geração de mais de 44.150 megawatts. Possui uma rede nacional de linhas de transmissão de aproximadamente 60.500 quilômetros de extensão. A Usina Megawatt Solar da Eletrobrás Eletrosul tem mais de 4.000 painéis fotovoltaicos, totalizando uma área de aproximadamente 8.300 metros quadrados. A Usina Megawatt Solar da Eletrobrás Eletrosul tem uma capacidade instalada de aproximadamente 1 megawatt-pico (MWp), e a Usina Megawatt Solar pode produzir aproximadamente 1,2 gigawatt/hora (GWh).</v>
     <v>BVMF</v>
-    <v>39.32</v>
+    <v>38.89</v>
     <v>9529</v>
-    <v>45075.838749536721</v>
+    <v>45076.947928240741</v>
     <v>75</v>
     <v>76</v>
-    <v>2740350</v>
+    <v>2543250</v>
     <v>BRL</v>
     <v>Centrais Elétricas Brasileiras S.A.</v>
     <v>Centrais Elétricas Brasileiras S.A.</v>
-    <v>39.4</v>
-    <v>38.89</v>
+    <v>39.090000000000003</v>
+    <v>38.82</v>
     <v>Rua da Quitanda, 196 Lj A, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.091-005 BR</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>ELET6</v>
     <v>Ações</v>
     <v>Centrais Elétricas Brasileiras S.A. (BVMF:ELET6)</v>
-    <v>-0.43</v>
-    <v>-1.0936E-2</v>
-    <v>1145500</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-1.8E-3</v>
+    <v>2283700</v>
   </rv>
   <rv s="2">
     <v>77</v>
@@ -2394,33 +2394,33 @@
     <v>30.06</v>
     <v>21.56</v>
     <v>BVMF</v>
-    <v>1144722000</v>
-    <v>29.04</v>
+    <v>1129315000</v>
+    <v>28.5</v>
     <v>1999</v>
-    <v>28.23</v>
-    <v>0.93989999999999996</v>
+    <v>28.02</v>
+    <v>0.93530000000000002</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>32326949280</v>
+    <v>31891870000</v>
     <v>A Equatorial Energia SA (Equatorial) é uma empresa sediada no Brasil que atua no setor de energia. A Companhia tem participação acionária em outras empresas, todas no ramo de energia elétrica, principalmente com operações relacionadas à geração ou distribuição de energia elétrica. As atividades da Companhia estão divididas em quatro segmentos: distribuição, responsável pela distribuição de energia nos estados do Maranhão e Pará; geração, gerando eletricidade por meio de usinas termoelétricas; serviços/vendas, oferecendo comercialização de energia elétrica, serviços de faturamento, bem como manutenção de instalações elétricas, entre outros; e gestão central, incluindo de operações corporativas e administrativas. A Companhia opera por meio de várias subsidiárias, como a Companhia Energética do Maranhão (CEMAR), a Centrais Elétricas do Pará S.A. (CELPA), Geradora de Energia do Norte S.A. (Getamar), a Companhia Energética do Piauí e a Equatorial Soluções S.A.</v>
     <v>BVMF</v>
-    <v>28.9</v>
+    <v>28.24</v>
     <v>1178</v>
-    <v>45075.838723089844</v>
+    <v>45076.947928240741</v>
     <v>79</v>
-    <v>7769090</v>
+    <v>7930300</v>
     <v>BRL</v>
     <v>EQUATORIAL ENERGIA S.A.</v>
     <v>EQUATORIAL ENERGIA S.A.</v>
-    <v>28.85</v>
-    <v>28.24</v>
+    <v>28.41</v>
+    <v>28.1</v>
     <v>Alameda A, Quadra SQS, n 100, Loteamento Quitandinha,Anexo A, sala 31, Altos do Calhau, SAO LUIS, MARANHAO, 65.070-900 BR</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>EQTL3</v>
     <v>Ações</v>
     <v>EQUATORIAL ENERGIA S.A. (BVMF:EQTL3)</v>
-    <v>-0.66</v>
-    <v>-2.2837E-2</v>
-    <v>7221400</v>
+    <v>-0.14000000000000001</v>
+    <v>-4.9580000000000006E-3</v>
+    <v>10612800</v>
   </rv>
   <rv s="2">
     <v>80</v>
@@ -2445,22 +2445,22 @@
     <v>10.84</v>
     <v>9.44</v>
     <v>BVMF</v>
-    <v>9.66</v>
+    <v>9.67</v>
     <v>9.58</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.64</v>
-    <v>45075.836805844534</v>
+    <v>9.65</v>
+    <v>45076.947916666664</v>
     <v>82</v>
     <v>BRL</v>
     <v>FGAGRO FII FIAGRO CF</v>
-    <v>9.65</v>
-    <v>9.65</v>
+    <v>9.66</v>
+    <v>9.66</v>
     <v>FGAA11</v>
     <v>Fundos mais negociados</v>
     <v>FGAGRO FII FIAGRO CF (BVMF:FGAA11)</v>
     <v>0.01</v>
-    <v>1.0369999999999999E-3</v>
-    <v>133374</v>
+    <v>1.036E-3</v>
+    <v>95113</v>
   </rv>
   <rv s="2">
     <v>83</v>
@@ -2486,32 +2486,32 @@
     <v>13.45</v>
     <v>BVMF</v>
     <v>367197100</v>
-    <v>16.510000000000002</v>
+    <v>16.34</v>
     <v>1964</v>
-    <v>16.03</v>
-    <v>0.65269999999999995</v>
+    <v>15.81</v>
+    <v>0.64780000000000004</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5911873310</v>
+    <v>5853121774</v>
     <v>A Fleury SA é uma empresa sediada no Brasil que presta serviços de laboratório médico. As atividades da Companhia estão divididas em três linhas de negócios: Centros de Atendimento ao Paciente (PSC), B2B e Diagnóstico Odontológico. A divisão PCS oferece diagnóstico médico privado. A divisão B2B é responsável pela análise clínica e diagnóstico por imagem em hospitais parceiros, além de testes para laboratórios, hospitais e clínicas em todo o Brasil. A divisão de Diagnóstico Odontológico fornece imagens de diagnóstico odontológico por meio da Papaiz Associados Diagnosticos por Imagem SA, uma joint venture com a Odontoprev SA. A Companhia opera através de várias marcas, como Fleury Medicina e Saúde, Clínica Felippe Mattoso e Weinmann, a + Medicina Diagnóstica, Diagnoson a +, Diagmax e Inlab, entre outras.</v>
     <v>BVMF</v>
-    <v>16.48</v>
+    <v>16.100000000000001</v>
     <v>16700</v>
-    <v>45075.838626642966</v>
+    <v>45076.947928240741</v>
     <v>85</v>
-    <v>3882890</v>
+    <v>3924250</v>
     <v>BRL</v>
     <v>Fleury S.A.</v>
     <v>Fleury S.A.</v>
-    <v>16.5</v>
-    <v>16.100000000000001</v>
+    <v>16.21</v>
+    <v>15.94</v>
     <v>Av. General Valdomiro de Lima, 508, Jabaquara, SAO PAULO, SAO PAULO, 04.344-070 BR</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>FLRY3</v>
     <v>Ações</v>
     <v>Fleury S.A. (BVMF:FLRY3)</v>
-    <v>-0.38</v>
-    <v>-2.3058000000000002E-2</v>
-    <v>2769200</v>
+    <v>-0.16</v>
+    <v>-9.9380000000000007E-3</v>
+    <v>4007400</v>
   </rv>
   <rv s="2">
     <v>86</v>
@@ -2536,22 +2536,22 @@
     <v>9.07</v>
     <v>8.02</v>
     <v>BVMF</v>
-    <v>8.69</v>
-    <v>8.59</v>
+    <v>8.6999999999999993</v>
+    <v>8.61</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>8.6199999999999992</v>
-    <v>45075.836806168751</v>
+    <v>8.67</v>
+    <v>45076.947997685187</v>
     <v>88</v>
     <v>BRL</v>
     <v>FII GUARDIAN MULTIESTRATEGIA I CF</v>
-    <v>8.6199999999999992</v>
     <v>8.67</v>
+    <v>8.65</v>
     <v>GAME11</v>
     <v>Fundos mais negociados</v>
     <v>FII GUARDIAN MULTIESTRATEGIA I CF (BVMF:GAME11)</v>
-    <v>0.05</v>
-    <v>5.7999999999999996E-3</v>
-    <v>20451</v>
+    <v>-0.02</v>
+    <v>-2.307E-3</v>
+    <v>8805</v>
   </rv>
   <rv s="2">
     <v>89</v>
@@ -2576,22 +2576,22 @@
     <v>105.56</v>
     <v>89</v>
     <v>BVMF</v>
-    <v>93.99</v>
-    <v>93.4</v>
+    <v>93.79</v>
+    <v>93.32</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>93.54</v>
-    <v>45075.824166666665</v>
+    <v>45076.947916666664</v>
     <v>91</v>
     <v>BRL</v>
     <v>GALAPAGOS CAPITAL INV E PARTICIP CEF</v>
     <v>93.54</v>
-    <v>93.54</v>
+    <v>93.75</v>
     <v>GCRA11</v>
     <v>Fundos mais negociados</v>
     <v>GALAPAGOS CAPITAL INV E PARTICIP CEF (BVMF:GCRA11)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>3542</v>
+    <v>0.21</v>
+    <v>2.245E-3</v>
+    <v>1158</v>
   </rv>
   <rv s="2">
     <v>92</v>
@@ -2616,22 +2616,22 @@
     <v>91.92</v>
     <v>83.15</v>
     <v>BVMF</v>
-    <v>91.08</v>
-    <v>89.5</v>
+    <v>91.54</v>
+    <v>89.78</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.48</v>
-    <v>45075.815439814818</v>
+    <v>89.8</v>
+    <v>45076.947997685187</v>
     <v>94</v>
     <v>BRL</v>
     <v>GALAPAGOS RECEBIVEIS IMOB FII CF</v>
-    <v>90.78</v>
-    <v>89.8</v>
+    <v>89.78</v>
+    <v>89.89</v>
     <v>GCRI11</v>
     <v>Fundos mais negociados</v>
     <v>GALAPAGOS RECEBIVEIS IMOB FII CF (BVMF:GCRI11)</v>
-    <v>0.32</v>
-    <v>3.5759999999999998E-3</v>
-    <v>3146</v>
+    <v>0.09</v>
+    <v>1.0020000000000001E-3</v>
+    <v>3067</v>
   </rv>
   <rv s="2">
     <v>95</v>
@@ -2657,32 +2657,32 @@
     <v>17.809999999999999</v>
     <v>BVMF</v>
     <v>1757067000</v>
-    <v>25.47</v>
+    <v>25.17</v>
     <v>1961</v>
-    <v>24.9</v>
-    <v>1.0730999999999999</v>
+    <v>24.22</v>
+    <v>1.073</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>41808600000</v>
+    <v>41664920000</v>
     <v>A Gerdau S.A. (Gerdau) é uma fabricante de aços longos nas Américas do Norte e do Sul. A Companhia atua na produção e comercialização de produtos siderúrgicos em geral, através de suas usinas localizadas na Argentina, Brasil, Canadá, Chile, Colômbia, Espanha, Estados Unidos, Guatemala, Índia, México, Peru, República Dominicana, Uruguai e Venezuela. Seus segmentos são Operações Brasil, que incluem operações de ferro e aço no Brasil, com exceção de Aços Especiais, e a operação de carvão metalúrgico e coque na Colômbia; Operações na América do Norte, que incluem todas as operações na América do Norte, exceto as do México e Aços Especiais; Operações na América do Sul, que incluem todas as operações na América do Sul, exceto Brasil e a operação de carvão metalúrgico e coque na Colômbia; e Operações Aços Especiais, incluindo operações de aços especiais no Brasil, Espanha, Estados Unidos e Índia. Fornece aos seus clientes uma gama de produtos, incluindo produtos semi-acabados de minério de ferro.</v>
     <v>BVMF</v>
-    <v>24.96</v>
+    <v>24.95</v>
     <v>40061</v>
-    <v>45075.838728378905</v>
+    <v>45076.947916666664</v>
     <v>97</v>
-    <v>12267050</v>
+    <v>11789200</v>
     <v>BRL</v>
     <v>GERDAU S.A.</v>
     <v>GERDAU S.A.</v>
-    <v>25.23</v>
-    <v>24.95</v>
+    <v>25.17</v>
+    <v>24.32</v>
     <v>Avenida Doutora Ruth Cardoso, 8.501, 8 andar, Pinheiros, SAO PAULO, SAO PAULO, 05.425-070 BR</v>
     <v>Metals &amp; Mining</v>
     <v>GGBR4</v>
     <v>Ações</v>
     <v>GERDAU S.A. (BVMF:GGBR4)</v>
-    <v>-0.01</v>
-    <v>-4.0059999999999998E-4</v>
-    <v>4567700</v>
+    <v>-0.63</v>
+    <v>-2.5251000000000003E-2</v>
+    <v>8756900</v>
   </rv>
   <rv s="2">
     <v>98</v>
@@ -2708,32 +2708,32 @@
     <v>8.18</v>
     <v>BVMF</v>
     <v>1033841000</v>
-    <v>11.85</v>
+    <v>11.72</v>
     <v>1901</v>
-    <v>11.59</v>
-    <v>1.1244000000000001</v>
+    <v>11.29</v>
+    <v>1.1236999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>11835520000</v>
+    <v>11750350000</v>
     <v>A Metalúrgica Gerdau S.A., anteriormente Metalúrgica Hugo Gerdau S.A., é uma empresa brasileira que se dedica ao setor de produção de aço. A Empresa se concentra na fabricação de itens de aço longo e plano, essencialmente através do processo de fabricação em fornos elétricos, a partir de sucata de metal e ferro-gusa comprado, bem como na produção de aço a partir de minério de ferro em alto-forno e por redução direta. Suas atividades se dividem em quatro segmentos: Operações no Brasil, Operações na América do Norte, Operações na América Latina e Unidade de aço especial. Seus produtos são distribuídos em diversos setores, como da construção civil, agricultura e indústria automotiva, e a Empresa opera fábricas no Brasil, Argentina, Chile, Colômbia, México, Peru, Venezuela, Estados Unidos, Canadá, Espanha e Índia, entre outros.</v>
     <v>BVMF</v>
-    <v>11.66</v>
+    <v>11.62</v>
     <v>45000</v>
-    <v>45075.83872520781</v>
+    <v>45076.947916666664</v>
     <v>100</v>
-    <v>7488430</v>
+    <v>7130850</v>
     <v>BRL</v>
     <v>METALURGICA GERDAU S.A.</v>
     <v>METALURGICA GERDAU S.A.</v>
-    <v>11.78</v>
-    <v>11.62</v>
+    <v>11.72</v>
+    <v>11.34</v>
     <v>Avenida Doutora Ruth Cardoso, 8.501,8 andar, Pinheiros, SAO PAULO, SAO PAULO, 05.425-070 BR</v>
     <v>Metals &amp; Mining</v>
     <v>GOAU4</v>
     <v>Ações</v>
     <v>METALURGICA GERDAU S.A. (BVMF:GOAU4)</v>
-    <v>-0.04</v>
-    <v>-3.431E-3</v>
-    <v>3563300</v>
+    <v>-0.28000000000000003</v>
+    <v>-2.4096000000000003E-2</v>
+    <v>6409600</v>
   </rv>
   <rv s="2">
     <v>101</v>
@@ -2759,31 +2759,31 @@
     <v>1.93</v>
     <v>BVMF</v>
     <v>7473595000</v>
-    <v>3.98</v>
+    <v>4.1100000000000003</v>
     <v>2001</v>
     <v>3.88</v>
     <v>1.1480999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>29147020500</v>
+    <v>30342795699</v>
     <v>Hapvida Participacoes e Investimentos SA (Hapvida) é uma holding brasileira de saúde. A Companhia e suas controladas têm como atividades principais a cobertura de custos de assistência médica, hospitalar e odontológica de seus associados, a prestação de serviços médicos, hospitalares e odontológicos e exames e diagnósticos por imagem. A Hapvida tem diferentes instalações de saúde, como hospitais, clínicas ou unidades de diagnóstico por imagem. A Companhia opera no Nordeste do Brasil, em mais de 10 estados, como Alagoas, Amazonas, Bahia, Pernambuco, Rio Grande do Norte, Sergipe, entre outros.</v>
     <v>BVMF</v>
     <v>3.9</v>
-    <v>45075.838565335158</v>
+    <v>45076.947916666664</v>
     <v>103</v>
-    <v>142526750</v>
+    <v>134583330</v>
     <v>BRL</v>
     <v>Hapvida Participações e Investimentos S/A</v>
     <v>Hapvida Participações e Investimentos S/A</v>
-    <v>3.95</v>
-    <v>3.9</v>
+    <v>3.96</v>
+    <v>4.0599999999999996</v>
     <v>Avenida Heraclito Graca n 406, Centro, FORTALEZA, CEARA, 60.140-060 BR</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>HAPV3</v>
     <v>Ações</v>
     <v>Hapvida Participações e Investimentos S/A (BVMF:HAPV3)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>47590800</v>
+    <v>0.16</v>
+    <v>4.1026E-2</v>
+    <v>107804400</v>
   </rv>
   <rv s="2">
     <v>104</v>
@@ -2808,22 +2808,22 @@
     <v>164.49</v>
     <v>142.03</v>
     <v>BVMF</v>
-    <v>159.69999999999999</v>
-    <v>159.11000000000001</v>
+    <v>159.37</v>
+    <v>158.74</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>159.5</v>
-    <v>45075.837500392969</v>
+    <v>159.34</v>
+    <v>45076.947997685187</v>
     <v>106</v>
     <v>BRL</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF</v>
-    <v>159.5</v>
-    <v>159.34</v>
+    <v>159.35</v>
+    <v>159.08000000000001</v>
     <v>HGLG11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF (BVMF:HGLG11)</v>
-    <v>-0.16</v>
-    <v>-1.003E-3</v>
-    <v>65123</v>
+    <v>-0.26</v>
+    <v>-1.6320000000000002E-3</v>
+    <v>71072</v>
   </rv>
   <rv s="2">
     <v>107</v>
@@ -2848,22 +2848,22 @@
     <v>125</v>
     <v>106.01</v>
     <v>BVMF</v>
-    <v>125</v>
-    <v>123.65</v>
+    <v>124.92</v>
+    <v>124</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>124.83</v>
-    <v>45075.8368060875</v>
+    <v>124.79</v>
+    <v>45076.947997685187</v>
     <v>109</v>
     <v>BRL</v>
     <v>CSHG RENDA URBANA FII CF</v>
     <v>124.79</v>
-    <v>124.79</v>
+    <v>124.54</v>
     <v>HGRU11</v>
     <v>Fundos mais negociados</v>
     <v>CSHG RENDA URBANA FII CF (BVMF:HGRU11)</v>
-    <v>-0.04</v>
-    <v>-3.2039999999999998E-4</v>
-    <v>26020</v>
+    <v>-0.25</v>
+    <v>-2.003E-3</v>
+    <v>24293</v>
   </rv>
   <rv s="2">
     <v>110</v>
@@ -2888,22 +2888,22 @@
     <v>93.28</v>
     <v>72.510000000000005</v>
     <v>BVMF</v>
-    <v>88.7</v>
-    <v>87.05</v>
+    <v>88.1</v>
+    <v>86.31</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>87.59</v>
-    <v>45075.836806573439</v>
+    <v>87.5</v>
+    <v>45076.947997685187</v>
     <v>112</v>
     <v>BRL</v>
     <v>HSI LOGISTICA FDO INV IMOB CF</v>
-    <v>88.7</v>
     <v>87.5</v>
+    <v>86.75</v>
     <v>HSLG11</v>
     <v>Fundos mais negociados</v>
     <v>HSI LOGISTICA FDO INV IMOB CF (BVMF:HSLG11)</v>
-    <v>-0.09</v>
-    <v>-1.0280000000000001E-3</v>
-    <v>8668</v>
+    <v>-0.75</v>
+    <v>-8.5710000000000005E-3</v>
+    <v>10356</v>
   </rv>
   <rv s="2">
     <v>113</v>
@@ -2928,22 +2928,22 @@
     <v>89.35</v>
     <v>69.66</v>
     <v>BVMF</v>
-    <v>87.99</v>
-    <v>86.68</v>
+    <v>87.53</v>
+    <v>86.52</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>87.78</v>
-    <v>45075.836805902341</v>
+    <v>86.9</v>
+    <v>45076.947997685187</v>
     <v>115</v>
     <v>BRL</v>
     <v>HSI MALLS FI IMOBILIARIO ETF</v>
-    <v>86.7</v>
-    <v>86.9</v>
+    <v>86.99</v>
+    <v>87.1</v>
     <v>HSML11</v>
     <v>Fundos mais negociados</v>
     <v>HSI MALLS FI IMOBILIARIO ETF (BVMF:HSML11)</v>
-    <v>-0.88</v>
-    <v>-1.0024999999999999E-2</v>
-    <v>28313</v>
+    <v>0.2</v>
+    <v>2.3010000000000001E-3</v>
+    <v>24448</v>
   </rv>
   <rv s="2">
     <v>116</v>
@@ -2968,22 +2968,22 @@
     <v>86.06</v>
     <v>66.64</v>
     <v>BVMF</v>
-    <v>77.290000000000006</v>
-    <v>75.010000000000005</v>
+    <v>77.27</v>
+    <v>76.52</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>76.98</v>
-    <v>45075.823252314818</v>
+    <v>77</v>
+    <v>45076.947997685187</v>
     <v>118</v>
     <v>BRL</v>
     <v>FDO DE INV IMOBILIARIO DE CRI INTEGRAL BREI CF</v>
-    <v>76.98</v>
-    <v>77</v>
+    <v>77.260000000000005</v>
+    <v>76.7</v>
     <v>IBCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO DE INV IMOBILIARIO DE CRI INTEGRAL BREI CF (BVMF:IBCR11)</v>
-    <v>0.02</v>
-    <v>2.5979999999999997E-4</v>
-    <v>673</v>
+    <v>-0.3</v>
+    <v>-3.8960000000000002E-3</v>
+    <v>1028</v>
   </rv>
   <rv s="2">
     <v>119</v>
@@ -3008,22 +3008,22 @@
     <v>110.96</v>
     <v>93.63</v>
     <v>BVMF</v>
-    <v>102.15</v>
+    <v>101.98</v>
+    <v>101.21</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>101.03</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>102.42</v>
-    <v>45075.836805995314</v>
+    <v>45076.947916666664</v>
     <v>121</v>
     <v>BRL</v>
     <v>ITAU FDO INV EM COTAS DE FIDC DE INFRAESTRUTURA</v>
-    <v>102.15</v>
-    <v>101.03</v>
+    <v>101.48</v>
+    <v>101.75</v>
     <v>IFRA11</v>
     <v>Fundos mais negociados</v>
     <v>ITAU FDO INV EM COTAS DE FIDC DE INFRAESTRUTURA (BVMF:IFRA11)</v>
-    <v>-1.39</v>
-    <v>-1.3571999999999999E-2</v>
-    <v>5144</v>
+    <v>0.72</v>
+    <v>7.1269999999999997E-3</v>
+    <v>6384</v>
   </rv>
   <rv s="2">
     <v>122</v>
@@ -3049,32 +3049,32 @@
     <v>6.87</v>
     <v>BVMF</v>
     <v>9701410000</v>
-    <v>9.01</v>
+    <v>9.0500000000000007</v>
     <v>1966</v>
-    <v>8.89</v>
-    <v>1.008</v>
+    <v>8.82</v>
+    <v>1.0078</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>87385380000</v>
+    <v>87288360000</v>
     <v>Itausa Investimentos Itau SA é uma empresa sediada no Brasil e tem como atividade principal o setor bancário. As atividades da Companhia estão divididas em dois segmentos de negócios: Financeiro e Industrial. A divisão Financeiral concentra-se na gestão do Itau Unibanco Holding SA, uma instituição bancária que oferece produtos e serviços financeiros, como empréstimos, cartões de crédito, contas correntes, apólices de seguros, ferramentas de investimento, corretagem de valores mobiliários, consultoria de tesouraria e investimentos para clientes individuais e empresas. A divisão Industrial é responsável pela operação da Itautec SA, que fabrica equipamentos de automação comercial e bancária, além de prestar serviços de tecnologia da informação (TI); Duratex SA, que produz painéis de madeira, louças sanitárias e metais sanitários, e Alpargatas, que produz calçados sob as marcas Juntas, Havaianas e Dupe, entre outros.</v>
     <v>BVMF</v>
-    <v>8.98</v>
+    <v>8.9700000000000006</v>
     <v>127000</v>
-    <v>45075.838777962497</v>
+    <v>45076.947916666664</v>
     <v>124</v>
-    <v>21130520</v>
+    <v>19260830</v>
     <v>BRL</v>
     <v>ITAUSA S.A.</v>
     <v>ITAUSA S.A.</v>
-    <v>8.9499999999999993</v>
-    <v>8.9700000000000006</v>
+    <v>9.0500000000000007</v>
+    <v>8.8800000000000008</v>
     <v>Avenida Paulista, 1938, 5Th Floor, Bela Vista, SAO PAULO, SAO PAULO, 01.310-200 BR</v>
     <v>Banking Services</v>
     <v>ITSA4</v>
     <v>Ações</v>
     <v>ITAUSA S.A. (BVMF:ITSA4)</v>
-    <v>-0.01</v>
-    <v>-1.114E-3</v>
-    <v>9857600</v>
+    <v>-0.09</v>
+    <v>-1.0033E-2</v>
+    <v>23570400</v>
   </rv>
   <rv s="2">
     <v>125</v>
@@ -3099,24 +3099,24 @@
     <v>243.98</v>
     <v>204.11</v>
     <v>BVMF</v>
-    <v>233.39</v>
-    <v>231.01</v>
+    <v>236.16</v>
+    <v>233.74</v>
     <v>1.0201</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>3105013970</v>
-    <v>231.6</v>
-    <v>45075.846489582815</v>
+    <v>233.39</v>
+    <v>45076.947928240741</v>
     <v>127</v>
     <v>BRL</v>
     <v>iShares S&amp;P 500 FIC FI IE</v>
-    <v>231.59</v>
-    <v>233.39</v>
+    <v>235.33</v>
+    <v>234</v>
     <v>IVVB11</v>
     <v>Fundos mais negociados</v>
     <v>iShares S&amp;P 500 FIC FI IE (BVMF:IVVB11)</v>
-    <v>1.79</v>
-    <v>7.7290000000000006E-3</v>
-    <v>134926</v>
+    <v>0.61</v>
+    <v>2.614E-3</v>
+    <v>360247</v>
   </rv>
   <rv s="2">
     <v>128</v>
@@ -3141,22 +3141,22 @@
     <v>103</v>
     <v>93.03</v>
     <v>BVMF</v>
-    <v>103</v>
-    <v>96.55</v>
+    <v>98.67</v>
+    <v>97.09</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>97.1</v>
-    <v>45075.892384259256</v>
+    <v>97.5</v>
+    <v>45076.947916666664</v>
     <v>130</v>
     <v>BRL</v>
     <v>FI DAS CADEIAS PROD AGRO JGP CRED CEF</v>
-    <v>97.49</v>
-    <v>97.5</v>
+    <v>98.67</v>
+    <v>97.43</v>
     <v>JGPX11</v>
     <v>Fundos mais negociados</v>
     <v>FI DAS CADEIAS PROD AGRO JGP CRED CEF (BVMF:JGPX11)</v>
-    <v>0.4</v>
-    <v>4.1190000000000003E-3</v>
-    <v>6246</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-7.1790000000000005E-4</v>
+    <v>491</v>
   </rv>
   <rv s="2">
     <v>131</v>
@@ -3181,22 +3181,22 @@
     <v>110</v>
     <v>90.46</v>
     <v>BVMF</v>
-    <v>102.16</v>
-    <v>101.35</v>
+    <v>102.5</v>
+    <v>101.27</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>101.99</v>
-    <v>45075.837500068752</v>
+    <v>101.58</v>
+    <v>45076.947916666664</v>
     <v>133</v>
     <v>BRL</v>
     <v>SPARTA INFRA FIC FI INFRA RF CP</v>
-    <v>102</v>
-    <v>101.58</v>
+    <v>102.1</v>
+    <v>102.43</v>
     <v>JURO11</v>
     <v>Fundos mais negociados</v>
     <v>SPARTA INFRA FIC FI INFRA RF CP (BVMF:JURO11)</v>
-    <v>-0.41</v>
-    <v>-4.0200000000000001E-3</v>
-    <v>13308</v>
+    <v>0.85</v>
+    <v>8.3680000000000004E-3</v>
+    <v>9892</v>
   </rv>
   <rv s="2">
     <v>134</v>
@@ -3222,21 +3222,21 @@
     <v>123.12</v>
     <v>BVMF</v>
     <v>132</v>
-    <v>130.65</v>
+    <v>130</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>130.04</v>
-    <v>45075.836806400002</v>
+    <v>131.57</v>
+    <v>45076.947916666664</v>
     <v>136</v>
     <v>BRL</v>
     <v>KINEA INFRA FDO INV EM COTAS DE FIDC IE</v>
-    <v>130.69</v>
     <v>131.57</v>
+    <v>130.68</v>
     <v>KDIF11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA INFRA FDO INV EM COTAS DE FIDC IE (BVMF:KDIF11)</v>
-    <v>1.53</v>
-    <v>1.1766E-2</v>
-    <v>15991</v>
+    <v>-0.89</v>
+    <v>-6.764E-3</v>
+    <v>13485</v>
   </rv>
   <rv s="2">
     <v>137</v>
@@ -3262,32 +3262,32 @@
     <v>6</v>
     <v>BVMF</v>
     <v>179720100</v>
-    <v>8.9</v>
+    <v>8.81</v>
     <v>1936</v>
-    <v>8.65</v>
+    <v>8.16</v>
     <v>0.93630000000000002</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1565362071</v>
+    <v>1480893624</v>
     <v>A Kepler Weber S.A., anteriormente Kepler Weber S.A. Indústria Comércio Importação e Exportação, é uma empresa brasileira que se dedica essencialmente à produção de sistemas de armazenamento de grãos. Através de suas subsidiárias, a Empresa atua no desenvolvimento, fabricação e distribuição de equipamentos para armazenamento e conservação de grãos. O portfólio da Empresa inclui silos metálicos, com fundo em forma de funil ou plano, secadores, máquinas de limpeza e pré-limpeza de grãos e transportadores de grãos, entre outros. A Empresa também desenvolve e produz sistemas e equipamentos para terminais portuários e estocagem de malte. Além disso, a Kepler Weber fornece peças de reposição e serviços de reparação e manutenção para seus produtos. Em 31 de dezembro de 2011, as subsidiárias da Empresa eram a Kepler Weber Industrial S.A. e a Kepler Weber Peças e Serviços Ltda.</v>
     <v>BVMF</v>
     <v>8.7100000000000009</v>
     <v>1925</v>
-    <v>45075.838194964846</v>
+    <v>45076.94798611111</v>
     <v>139</v>
-    <v>2147610</v>
+    <v>2103910</v>
     <v>BRL</v>
     <v>Kepler Weber S.A.</v>
     <v>Kepler Weber S.A.</v>
-    <v>8.8000000000000007</v>
-    <v>8.7100000000000009</v>
+    <v>8.75</v>
+    <v>8.24</v>
     <v>Rua do Rocio n 84, 3 andar, Vila Olimpia, SAO PAULO, SAO PAULO, 04.552-000 BR</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>KEPL3</v>
     <v>Ações</v>
     <v>Kepler Weber S.A. (BVMF:KEPL3)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>1374300</v>
+    <v>-0.47</v>
+    <v>-5.3960999999999995E-2</v>
+    <v>2362700</v>
   </rv>
   <rv s="2">
     <v>140</v>
@@ -3312,22 +3312,22 @@
     <v>113.68</v>
     <v>102.5</v>
     <v>BVMF</v>
-    <v>106.5</v>
-    <v>105.36</v>
+    <v>106.79</v>
+    <v>106.35</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>105.97</v>
-    <v>45075.837500000001</v>
+    <v>106.3</v>
+    <v>45076.947916666664</v>
     <v>142</v>
     <v>BRL</v>
     <v>KINEA CREDITO AGRO FIAGRO IMOB CEF</v>
-    <v>106</v>
-    <v>106.3</v>
+    <v>106.35</v>
+    <v>106.75</v>
     <v>KNCA11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA CREDITO AGRO FIAGRO IMOB CEF (BVMF:KNCA11)</v>
-    <v>0.33</v>
-    <v>3.114E-3</v>
-    <v>31916</v>
+    <v>0.45</v>
+    <v>4.2329999999999998E-3</v>
+    <v>17577</v>
   </rv>
   <rv s="2">
     <v>143</v>
@@ -3349,25 +3349,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
+    <v>90.71</v>
+    <v>78.040000000000006</v>
+    <v>BVMF</v>
+    <v>90.71</v>
+    <v>89.15</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>90</v>
-    <v>78.040000000000006</v>
-    <v>BVMF</v>
-    <v>90</v>
-    <v>88.9</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>89.44</v>
-    <v>45075.836806214844</v>
+    <v>45076.833333356248</v>
     <v>145</v>
     <v>BRL</v>
     <v>KINEA SECURITIES FDO DE INV IMOB CF</v>
-    <v>89.4</v>
-    <v>90</v>
+    <v>89.94</v>
+    <v>90.71</v>
     <v>KNSC11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA SECURITIES FDO DE INV IMOB CF (BVMF:KNSC11)</v>
-    <v>0.56000000000000005</v>
-    <v>6.2610000000000001E-3</v>
-    <v>19227</v>
+    <v>0.71</v>
+    <v>7.8890000000000002E-3</v>
+    <v>26459</v>
   </rv>
   <rv s="2">
     <v>146</v>
@@ -3393,31 +3393,31 @@
     <v>4.66</v>
     <v>BVMF</v>
     <v>64663060</v>
-    <v>5.58</v>
+    <v>5.62</v>
     <v>2003</v>
-    <v>5.13</v>
+    <v>5.21</v>
     <v>1.4610000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>360173244</v>
+    <v>344654109</v>
     <v>A Livetech da Bahia Industria e Comercio SA (WDC Networks) é uma empresa de fornecimento de equipamentos e de soluções de Telecom, Tecnologia da Informação (TI), e Energia Solar sediada no Brasil que atende uma variada gama de clientes nacionalmente e na Colômbia, Estados Unidos e Panamá. A Companhia desenvolveu um modelo de negócio de locação de equipamentos, transformando Capex em Opex, denominado como TaaS (Technology as a Service). A Companhia fornece serviços e produtos, incluindo infraestrutura de banda larga, câmeras de vigilância, sistemas de controle de acesso, Cibersegurança, data center, automação, e geradores de energia solar.</v>
     <v>BVMF</v>
-    <v>5.49</v>
-    <v>45075.833333333336</v>
+    <v>5.57</v>
+    <v>45076.94798611111</v>
     <v>148</v>
-    <v>95670</v>
+    <v>102060</v>
     <v>BRL</v>
     <v>Livetech da Bahia Indústria e Comércio S.A.</v>
     <v>Livetech da Bahia Indústria e Comércio S.A.</v>
-    <v>5.58</v>
     <v>5.57</v>
+    <v>5.33</v>
     <v>Rodovia BA-262, Ilheus x Urucuca, s/n, Km 2,8 Quadra A, Polo de Informatica, Iguape, ILHEUS, BAHIA, 45.658-335 BR</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>LVTC3</v>
     <v>Ações</v>
     <v>Livetech da Bahia Indústria e Comércio S.A. (BVMF:LVTC3)</v>
-    <v>0.08</v>
-    <v>1.4572E-2</v>
-    <v>104800</v>
+    <v>-0.24</v>
+    <v>-4.3087999999999994E-2</v>
+    <v>105500</v>
   </rv>
   <rv s="2">
     <v>149</v>
@@ -3442,22 +3442,22 @@
     <v>71.540000000000006</v>
     <v>57.7</v>
     <v>BVMF</v>
-    <v>67.39</v>
-    <v>65.459999999999994</v>
+    <v>66.430000000000007</v>
+    <v>65.510000000000005</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>66.53</v>
-    <v>45075.833333333336</v>
+    <v>66.430000000000007</v>
+    <v>45076.947997685187</v>
     <v>151</v>
     <v>BRL</v>
     <v>MORE REAL ESTATE FOF FII</v>
-    <v>66.53</v>
-    <v>66.430000000000007</v>
+    <v>65.790000000000006</v>
+    <v>65.89</v>
     <v>MORE11</v>
     <v>Fundos mais negociados</v>
     <v>MORE REAL ESTATE FOF FII (BVMF:MORE11)</v>
-    <v>-0.1</v>
-    <v>-1.503E-3</v>
-    <v>4080</v>
+    <v>-0.54</v>
+    <v>-8.1289999999999991E-3</v>
+    <v>2682</v>
   </rv>
   <rv s="2">
     <v>152</v>
@@ -3483,32 +3483,32 @@
     <v>3.05</v>
     <v>BVMF</v>
     <v>105774800</v>
-    <v>5.6</v>
+    <v>5.73</v>
     <v>2005</v>
-    <v>5.26</v>
+    <v>5.29</v>
     <v>1.4370000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>584934644</v>
+    <v>592338880</v>
     <v>A Mitre Realty Empreendimentos e Participações SA (Mitre Realty) é uma construtora com sede no Brasil. A Sociedade tem por objeto a incorporação, construção e comercialização de unidades imobiliárias residenciais na Cidade de São Paulo. Seus produtos são divididos em duas linhas: Raizes, voltada para clientes de classe média e Haus Mitre, voltada para clientes de classe média alta. O portfólio da empresa é composto por mais de 20 edifícios que oferecem apartamentos com serviços exclusivos, pontos de acesso e áreas comuns. A Mitre Realty possui várias subsidiárias, como Amaro Bezerra Empreendimentos e Participações Ltda, Mitre Le Champs Empreendimentos e Participações Ltda, Mitre Vendas Corretagem de Imóveis Ltda e MJF Construções Ltda, entre outras.</v>
     <v>BVMF</v>
-    <v>5.32</v>
+    <v>5.53</v>
     <v>159</v>
-    <v>45075.838194999997</v>
+    <v>45076.94798611111</v>
     <v>154</v>
-    <v>1474450</v>
+    <v>1468170</v>
     <v>BRL</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A.</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A.</v>
-    <v>5.26</v>
-    <v>5.53</v>
+    <v>5.62</v>
+    <v>5.6</v>
     <v>Alameda Santos, 700, 5 Andar, Jardim Paulista, SAO PAULO, SAO PAULO, 01.418-002 BR</v>
     <v>Homebuilding &amp; Construction Supplies</v>
     <v>MTRE3</v>
     <v>Ações</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A. (BVMF:MTRE3)</v>
-    <v>0.21</v>
-    <v>3.9474000000000002E-2</v>
-    <v>1211100</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.2658000000000001E-2</v>
+    <v>840300</v>
   </rv>
   <rv s="2">
     <v>155</v>
@@ -3533,22 +3533,22 @@
     <v>87.2</v>
     <v>74.3</v>
     <v>BVMF</v>
-    <v>86.51</v>
-    <v>86</v>
+    <v>86.74</v>
+    <v>85.15</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>86.38</v>
-    <v>45075.828958333332</v>
+    <v>86.5</v>
+    <v>45076.947997685187</v>
     <v>157</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII NCH BRASIL RECEBIVEIS IMOB CF</v>
-    <v>86.29</v>
-    <v>86.5</v>
+    <v>86.2</v>
+    <v>86.3</v>
     <v>NCHB11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII NCH BRASIL RECEBIVEIS IMOB CF (BVMF:NCHB11)</v>
-    <v>0.12</v>
-    <v>1.389E-3</v>
-    <v>2129</v>
+    <v>-0.2</v>
+    <v>-2.3119999999999998E-3</v>
+    <v>2440</v>
   </rv>
   <rv s="2">
     <v>158</v>
@@ -3574,32 +3574,32 @@
     <v>0.97</v>
     <v>BVMF</v>
     <v>660303800</v>
-    <v>1.04</v>
+    <v>1.03</v>
     <v>1963</v>
-    <v>0.97</v>
+    <v>1</v>
     <v>1.4356</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>701563800</v>
+    <v>695118500</v>
     <v>Oi SA em Recuperacao Judicial, anteriormente Oi S.A., constituída em 27 de novembro de 1963, é uma prestadora de serviços integrados de telecomunicações no Brasil. A Companhia é uma concessionária de serviços de telefonia fixa comutada (STFC). Atua no fornecimento de STFC como operadora de longa distância local e intra-regional. Seus segmentos incluem Serviços Residenciais, Mobilidade Pessoal e PMEs / Empresas. Oferece uma gama de serviços integrados de telecomunicações que incluem serviços de telefonia fixa e móvel, banda larga, televisão paga (TV), transmissão de dados e provedores de Internet. O segmento de Serviços Residenciais da Companhia é focado na venda de serviços de telefonia fixa, incluindo serviços de voz, serviços de comunicação de dados (banda larga) e televisão paga (TV). O segmento de Mobilidade Pessoal está focado na venda de serviços de telefonia móvel para assinantes e clientes pré-pagos e clientes de banda larga móvel. O segmento de PMEs / Empresas inclui soluções corporativas oferecidas a seus pequenas, médias e grandes empresas.</v>
     <v>BVMF</v>
-    <v>1.03</v>
+    <v>1.02</v>
     <v>6558</v>
-    <v>45075.892627314817</v>
+    <v>45076.947916666664</v>
     <v>160</v>
-    <v>72510</v>
+    <v>73920</v>
     <v>BRL</v>
     <v>Oi S.A. – Em Recuperação Judicial</v>
     <v>Oi S.A. – Em Recuperação Judicial</v>
-    <v>1.04</v>
     <v>1.02</v>
+    <v>1.01</v>
     <v>Rua do Lavradio, 71,2 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.230-070 BR</v>
     <v>Telecommunications Services</v>
     <v>OIBR3</v>
     <v>Ações</v>
     <v>Oi S.A. – Em Recuperação Judicial (BVMF:OIBR3)</v>
     <v>-0.01</v>
-    <v>-9.7090000000000006E-3</v>
-    <v>13592800</v>
+    <v>-9.8040000000000002E-3</v>
+    <v>8285800</v>
   </rv>
   <rv s="2">
     <v>161</v>
@@ -3625,32 +3625,32 @@
     <v>16.52</v>
     <v>BVMF</v>
     <v>13044500000</v>
-    <v>26.82</v>
+    <v>26.8</v>
     <v>1953</v>
-    <v>26.56</v>
-    <v>1.4388000000000001</v>
+    <v>26.26</v>
+    <v>1.4379</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>373706100000</v>
+    <v>371675800000</v>
     <v>A PETRÓLEO BRASILEIRO S.A. - PETROBRAS é uma empresa especializada na indústria de petróleo, gás natural e energia. A Empresa está envolvida na prospecção, perfuração, refinação, transformação, comercialização e transporte de petróleo bruto proveniente da produção de campos petrolíferos onshore e offshore e de xisto ou outras rochas. Seus segmentos incluem Exploração e Produção, que abrange as atividades de exploração, desenvolvimento e produção de petróleo bruto, gás natural líquido e gás natural; Refinação, Transporte e Marketing, que abrange as atividades de refinação, logística, transporte e comercialização de petróleo, exportação de etanol e extração e processamento de xistos; Gás e Energia, que se dedica ao transporte e comercialização de gás natural produzido no Brasil e gás natural importado; Biocombustíveis, que abrange as atividades de produção de biodiesel e seus co-produtos, e atividades relacionadas ao etanol; Distribuição, que inclui as atividades de sua subsidiária Petrobras Distribuidora S.A. e Corporativa.</v>
     <v>BVMF</v>
-    <v>26.8</v>
+    <v>26.69</v>
     <v>45149</v>
-    <v>45075.838811029687</v>
+    <v>45076.947916666664</v>
     <v>163</v>
-    <v>67584690</v>
+    <v>61190020</v>
     <v>BRL</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
-    <v>26.75</v>
-    <v>26.69</v>
+    <v>26.72</v>
+    <v>26.39</v>
     <v>Av. Republica do Chile, n 65, 24 andar, Centro, Rio de Janeiro, RIO DE JANEIRO, 20.031-912 BR</v>
     <v>Oil &amp; Gas</v>
     <v>PETR4</v>
     <v>Ações</v>
     <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
-    <v>-0.11</v>
-    <v>-4.104E-3</v>
-    <v>17917700</v>
+    <v>-0.3</v>
+    <v>-1.1240000000000002E-2</v>
+    <v>45649600</v>
   </rv>
   <rv s="2">
     <v>164</v>
@@ -3672,25 +3672,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>45.09</v>
+    <v>45.55</v>
     <v>39.56</v>
     <v>BVMF</v>
-    <v>45.09</v>
-    <v>44.91</v>
+    <v>45.55</v>
+    <v>45.06</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>45.09</v>
-    <v>45075.828344907408</v>
+    <v>45.05</v>
+    <v>45076.947997685187</v>
     <v>166</v>
     <v>BRL</v>
     <v>QUASAR AGRO - FDO INV. IMOB. ETF</v>
-    <v>45</v>
-    <v>45.05</v>
+    <v>45.1</v>
+    <v>45.35</v>
     <v>QAGR11</v>
     <v>Fundos mais negociados</v>
     <v>QUASAR AGRO - FDO INV. IMOB. ETF (BVMF:QAGR11)</v>
-    <v>-0.04</v>
-    <v>-8.8709999999999993E-4</v>
-    <v>3811</v>
+    <v>0.3</v>
+    <v>6.6590000000000009E-3</v>
+    <v>3042</v>
   </rv>
   <rv s="2">
     <v>167</v>
@@ -3715,22 +3715,22 @@
     <v>84.95</v>
     <v>71.87</v>
     <v>BVMF</v>
-    <v>83.89</v>
-    <v>82.4</v>
+    <v>83.88</v>
+    <v>82.9</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>82.6</v>
-    <v>45075.833333333336</v>
+    <v>82.9</v>
+    <v>45076.836806376559</v>
     <v>169</v>
     <v>BRL</v>
     <v>RIO BRAVO CREDITO IMOB IV FII</v>
-    <v>82.6</v>
-    <v>82.9</v>
+    <v>83.48</v>
+    <v>83.88</v>
     <v>RBHG11</v>
     <v>Fundos mais negociados</v>
     <v>RIO BRAVO CREDITO IMOB IV FII (BVMF:RBHG11)</v>
-    <v>0.3</v>
-    <v>3.6320000000000002E-3</v>
-    <v>6711</v>
+    <v>0.98</v>
+    <v>1.1821E-2</v>
+    <v>1992</v>
   </rv>
   <rv s="2">
     <v>170</v>
@@ -3755,22 +3755,22 @@
     <v>61.96</v>
     <v>43.1</v>
     <v>BVMF</v>
-    <v>57.5</v>
-    <v>55.77</v>
+    <v>56.2</v>
+    <v>54.74</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>56.5</v>
-    <v>45075.836805705469</v>
+    <v>56.39</v>
+    <v>45076.947997685187</v>
     <v>172</v>
     <v>BRL</v>
     <v>FDO INV IMOB RBR PROPERTIES CF</v>
-    <v>56.65</v>
-    <v>56.39</v>
+    <v>56.2</v>
+    <v>54.8</v>
     <v>RBRP11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB RBR PROPERTIES CF (BVMF:RBRP11)</v>
-    <v>-0.11</v>
-    <v>-1.9470000000000002E-3</v>
-    <v>15839</v>
+    <v>-1.59</v>
+    <v>-2.8195999999999999E-2</v>
+    <v>10880</v>
   </rv>
   <rv s="2">
     <v>173</v>
@@ -3796,21 +3796,21 @@
     <v>75.44</v>
     <v>BVMF</v>
     <v>90.29</v>
-    <v>89.51</v>
+    <v>89.81</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>90.21</v>
-    <v>45075.836806250001</v>
+    <v>89.85</v>
+    <v>45076.947997685187</v>
     <v>175</v>
     <v>BRL</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF</v>
-    <v>90.29</v>
-    <v>89.85</v>
+    <v>90</v>
+    <v>89.86</v>
     <v>RBRR11</v>
     <v>Fundos mais negociados</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF (BVMF:RBRR11)</v>
-    <v>-0.36</v>
-    <v>-3.9909999999999998E-3</v>
-    <v>22161</v>
+    <v>0.01</v>
+    <v>1.1129999999999999E-4</v>
+    <v>20776</v>
   </rv>
   <rv s="2">
     <v>176</v>
@@ -3835,22 +3835,22 @@
     <v>143.74</v>
     <v>103.64</v>
     <v>BVMF</v>
-    <v>138.26</v>
-    <v>135.12</v>
+    <v>138.5</v>
+    <v>130.06</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>137.99</v>
-    <v>45075.833333333336</v>
+    <v>136.63</v>
+    <v>45076.947997685187</v>
     <v>178</v>
     <v>BRL</v>
     <v>FDO INV IMOB RIO BRAVO RENDA COR ETF</v>
-    <v>137.99</v>
-    <v>136.63</v>
+    <v>138.5</v>
+    <v>132.69999999999999</v>
     <v>RCRB11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB RIO BRAVO RENDA COR ETF (BVMF:RCRB11)</v>
-    <v>-1.36</v>
-    <v>-9.8560000000000002E-3</v>
-    <v>4351</v>
+    <v>-3.93</v>
+    <v>-2.8763999999999998E-2</v>
+    <v>7486</v>
   </rv>
   <rv s="2">
     <v>179</v>
@@ -3876,31 +3876,31 @@
     <v>25.94</v>
     <v>BVMF</v>
     <v>239897400</v>
-    <v>31.07</v>
+    <v>30.6</v>
     <v>2010</v>
-    <v>30.45</v>
+    <v>29.5</v>
     <v>1.7050000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7331264544</v>
+    <v>7153740468</v>
     <v>A 3R Petroleum Oleo e Gas SA, anteriormente conhecida como Ouro Preto Oleo e Gas SA, é uma empresa com sede no Brasil que atua no setor de petróleo e gás. A Empresa é uma holding que investe em empresas que atuam na exploração, produção e comercialização de petróleo e seus derivados, gás natural e outros hidrocarbonetos fluidos. A empresa se concentra no redesenvolvimento e revitalização de campos de produção maduros localizados em terra (onshore) e em águas rasas. A Firma possui diversas subsidiárias, tais como SPE 3R Petroleum SA, SPE Fazenda Belém SA, SPE Rio Ventura SA, Ouro Preto Energia Onshore SA e OP Energia Ltda e OP Pescada Oleo e Gas Ltda. Por meio de suas controladas, a Companhia atua nos estados da Bahia, Rio Grande do Norte e Ceará.</v>
     <v>BVMF</v>
-    <v>30.7</v>
-    <v>45075.838586816404</v>
+    <v>30.56</v>
+    <v>45076.947928240741</v>
     <v>181</v>
-    <v>8899970</v>
+    <v>8566840</v>
     <v>BRL</v>
     <v>3R Petroleum Óleo e Gás S.A.</v>
     <v>3R Petroleum Óleo e Gás S.A.</v>
-    <v>30.69</v>
-    <v>30.56</v>
+    <v>30.42</v>
+    <v>29.82</v>
     <v>Rua Visconde de Ouro Preto, 5 Sala 601, Botafogo, Rio De Janeiro, RIO DE JANEIRO, 22.250-180 BR</v>
     <v>Oil &amp; Gas</v>
     <v>RRRP3</v>
     <v>Ações</v>
     <v>3R Petroleum Óleo e Gás S.A. (BVMF:RRRP3)</v>
-    <v>-0.14000000000000001</v>
-    <v>-4.5599999999999998E-3</v>
-    <v>2826600</v>
+    <v>-0.74</v>
+    <v>-2.4215E-2</v>
+    <v>6254700</v>
   </rv>
   <rv s="2">
     <v>182</v>
@@ -3925,22 +3925,22 @@
     <v>10.82</v>
     <v>9.8000000000000007</v>
     <v>BVMF</v>
+    <v>10.44</v>
+    <v>10.25</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>10.43</v>
-    <v>10.26</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>10.31</v>
-    <v>45075.836806180472</v>
+    <v>45076.947916666664</v>
     <v>184</v>
     <v>BRL</v>
     <v>ITAU ASSET RURAL FIAGRO CF</v>
-    <v>10.27</v>
     <v>10.43</v>
+    <v>10.36</v>
     <v>RURA11</v>
     <v>Fundos mais negociados</v>
     <v>ITAU ASSET RURAL FIAGRO CF (BVMF:RURA11)</v>
-    <v>0.12</v>
-    <v>1.1639E-2</v>
-    <v>65551</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-6.711E-3</v>
+    <v>101238</v>
   </rv>
   <rv s="2">
     <v>185</v>
@@ -3965,22 +3965,22 @@
     <v>21.19</v>
     <v>15.44</v>
     <v>BVMF</v>
+    <v>21.15</v>
+    <v>20.56</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>21.12</v>
-    <v>20.65</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>20.87</v>
-    <v>45075.837500300782</v>
+    <v>45076.947951388887</v>
     <v>187</v>
     <v>BRL</v>
     <v>CIA SANEAMENTO DO PARANA UNT</v>
-    <v>20.86</v>
-    <v>21.12</v>
+    <v>21.08</v>
+    <v>20.75</v>
     <v>SAPR11</v>
     <v>Fundos mais negociados</v>
     <v>CIA SANEAMENTO DO PARANA UNT (BVMF:SAPR11)</v>
-    <v>0.25</v>
-    <v>1.1979E-2</v>
-    <v>562800</v>
+    <v>-0.37</v>
+    <v>-1.7519E-2</v>
+    <v>827500</v>
   </rv>
   <rv s="2">
     <v>188</v>
@@ -4006,32 +4006,32 @@
     <v>6.82</v>
     <v>BVMF</v>
     <v>243596100</v>
-    <v>10.11</v>
+    <v>10.18</v>
     <v>2011</v>
-    <v>9.67</v>
-    <v>1.534</v>
+    <v>9.7100000000000009</v>
+    <v>1.5296000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>2414037351</v>
+    <v>2406729468</v>
     <v>O Grupo SBF SA é uma empresa sediada no Brasil que atua no setor de vestuário e vestuário. A empresa é especializada no varejo de roupas através de uma rede de lojas, bem como através do seu site na Internet. A Companhia oferece diferentes tipos de produtos dividindo-os em: esportes, homens, mulheres, crianças, calçados, acessórios, equipamentos e suplementos, entre outros. A Companhia também oferece seus produtos outlet, em uma seção especial onde oferece produtos antigos com desconto no preço. É vendido em mais de 180 lojas em regiões como Espírito Santo, São Paulo, Amazonas e Rio de Janeiro, dentro do território brasileiro. Também opera um serviço de personal trainer on-line chamado Bora.</v>
     <v>BVMF</v>
-    <v>10.06</v>
+    <v>9.91</v>
     <v>8196</v>
-    <v>45075.838194652344</v>
+    <v>45076.94798611111</v>
     <v>190</v>
-    <v>2075610</v>
+    <v>2092750</v>
     <v>BRL</v>
     <v>GRUPO SBF S.A.</v>
     <v>GRUPO SBF S.A.</v>
-    <v>10.1</v>
-    <v>9.91</v>
+    <v>10.050000000000001</v>
+    <v>9.8800000000000008</v>
     <v>Av Dra Ruth Cardoso 7221 Andar Ed Birman 3, Pinheiros, PINHEIROS, SAO PAULO, 05.425-902 BR</v>
     <v>Specialty Retailers</v>
     <v>SBFG3</v>
     <v>Ações</v>
     <v>GRUPO SBF S.A. (BVMF:SBFG3)</v>
-    <v>-0.15</v>
-    <v>-1.4911000000000001E-2</v>
-    <v>1858300</v>
+    <v>-0.03</v>
+    <v>-3.0270000000000002E-3</v>
+    <v>2209300</v>
   </rv>
   <rv s="2">
     <v>191</v>
@@ -4056,24 +4056,24 @@
     <v>117.5</v>
     <v>83</v>
     <v>BVMF</v>
-    <v>102.05</v>
-    <v>101.04</v>
+    <v>102.75</v>
+    <v>99.68</v>
     <v>1.1407</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>2698255668</v>
-    <v>101.45</v>
-    <v>45075.844444490627</v>
+    <v>101.57</v>
+    <v>45076.947928240741</v>
     <v>193</v>
     <v>BRL</v>
     <v>IShares BM&amp;FBovespa Small Cap</v>
-    <v>101.74</v>
-    <v>101.57</v>
+    <v>102.5</v>
+    <v>100.6</v>
     <v>SMAL11</v>
     <v>Fundos mais negociados</v>
     <v>IShares BM&amp;FBovespa Small Cap (BVMF:SMAL11)</v>
-    <v>0.12</v>
-    <v>1.183E-3</v>
-    <v>1420925</v>
+    <v>-0.97</v>
+    <v>-9.5499999999999995E-3</v>
+    <v>3002700</v>
   </rv>
   <rv s="2">
     <v>194</v>
@@ -4098,22 +4098,22 @@
     <v>101</v>
     <v>85.96</v>
     <v>BVMF</v>
-    <v>97.35</v>
-    <v>96.33</v>
+    <v>97.36</v>
+    <v>96.53</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>96.83</v>
-    <v>45075.836806411717</v>
+    <v>97.24</v>
+    <v>45076.947997685187</v>
     <v>196</v>
     <v>BRL</v>
     <v>URCA PRIME RENDA FII CF</v>
-    <v>96.8</v>
-    <v>97.24</v>
+    <v>97.2</v>
+    <v>97.36</v>
     <v>URPR11</v>
     <v>Fundos mais negociados</v>
     <v>URCA PRIME RENDA FII CF (BVMF:URPR11)</v>
-    <v>0.41</v>
-    <v>4.2339999999999999E-3</v>
-    <v>22336</v>
+    <v>0.12</v>
+    <v>1.2339999999999999E-3</v>
+    <v>18248</v>
   </rv>
   <rv s="2">
     <v>197</v>
@@ -4122,49 +4122,50 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnjsm&amp;q=BVMF%3aVALE3&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
+  <rv s="9">
     <v>pt-BR</v>
     <v>apnjsm</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
-    <v>0</v>
-    <v>1</v>
+    <v>22</v>
+    <v>23</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
     <v>3</v>
-    <v>4</v>
+    <v>24</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>25</v>
     <v>96.18</v>
     <v>60.37</v>
     <v>BVMF</v>
     <v>4539008000</v>
-    <v>67.7</v>
+    <v>66.319999999999993</v>
     <v>1943</v>
-    <v>65.739999999999995</v>
-    <v>0.53359999999999996</v>
+    <v>63.87</v>
+    <v>0.53239999999999998</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>298802896640</v>
+    <v>291767434240</v>
     <v>A Vale S.A. é uma produtora global de minério de ferro e pelotas de minério de ferro, principais matérias-primas para a produção de aço e produtora de níquel. A Companhia também produz cobre, carvão metalúrgico e térmico, potássio, fosfatos e outros nutrientes fertilizantes, minério de manganês, ferroligas, metais do grupo da platina, ouro, prata e cobalto. Os segmentos da Companhia incluem minerais Ferrosos, que engloba a produção e extração de minerais ferrosos, como finos de minério de ferro, pelotas de minério de ferro e seus serviços de logística, manganês e ferroligas e outros produtos e serviços ferrosos; Carvão, que compreende a extração de carvão metalúrgico e térmico e seus serviços logísticos; Metais básicos, que incluem a produção e extração de minerais não-ferrosos, e são apresentados como níquel e seus derivados, e cobre (concentrado de cobre), e Outros, que engloba as vendas e despesas de outros produtos, serviços e investimentos em joint ventures e associar em outros negócios.</v>
     <v>BVMF</v>
-    <v>66.33</v>
+    <v>65.83</v>
     <v>64516</v>
-    <v>45075.838713240628</v>
+    <v>45076.947928240741</v>
     <v>199</v>
-    <v>29868380</v>
+    <v>29493830</v>
     <v>BRL</v>
     <v>VALE S.A.</v>
     <v>VALE S.A.</v>
-    <v>67.34</v>
-    <v>65.83</v>
+    <v>66.319999999999993</v>
+    <v>64.28</v>
+    <v>64.81</v>
     <v>Pr Botafogo 00186 Sal 1101 Sal 1601 Sal 1701 Sal 1801, Botafogo, RIO DE JANEIRO, RIO DE JANEIRO, 22.250-145 BR</v>
     <v>Metals &amp; Mining</v>
     <v>VALE3</v>
     <v>Ações</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
-    <v>-0.5</v>
-    <v>-7.5380000000000004E-3</v>
-    <v>17137500</v>
+    <v>-1.55</v>
+    <v>-2.3544999999999996E-2</v>
+    <v>39802200</v>
   </rv>
   <rv s="2">
     <v>200</v>
@@ -4189,22 +4190,22 @@
     <v>105.7</v>
     <v>81.95</v>
     <v>BVMF</v>
-    <v>98.58</v>
-    <v>98.05</v>
+    <v>98.59</v>
+    <v>97.55</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>98.58</v>
-    <v>45075.833333333336</v>
+    <v>98.4</v>
+    <v>45076.947997685187</v>
     <v>202</v>
     <v>BRL</v>
     <v>FII VINCILOG ETF</v>
-    <v>98.43</v>
-    <v>98.4</v>
+    <v>98.45</v>
+    <v>97.61</v>
     <v>VILG11</v>
     <v>Fundos mais negociados</v>
     <v>FII VINCILOG ETF (BVMF:VILG11)</v>
-    <v>-0.18</v>
-    <v>-1.8260000000000001E-3</v>
-    <v>16711</v>
+    <v>-0.79</v>
+    <v>-8.0280000000000004E-3</v>
+    <v>18116</v>
   </rv>
   <rv s="2">
     <v>203</v>
@@ -4230,32 +4231,32 @@
     <v>34.78</v>
     <v>BVMF</v>
     <v>1663557000</v>
-    <v>41.97</v>
+    <v>42.12</v>
     <v>1998</v>
-    <v>41.41</v>
-    <v>0.1401</v>
+    <v>41.04</v>
+    <v>0.13980000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>69536682600</v>
+    <v>68272379280</v>
     <v>A Telefonica Brasil S.A. é uma empresa de telecomunicações móveis no Brasil que oferece serviços móveis pós-pagos. A Companhia também atua como empresa de telecomunicações fixas no estado de São Paulo. A empresa comercializa seus serviços móveis sob a marca Vivo. Oferece aos seus clientes um portfólio de produtos, incluindo voz móvel e fixa, dados móveis, banda larga fixa, banda larga ultra-rápida, televisão por assinatura, tecnologia da informação e serviços digitais. Suas operações consistem em serviços de telefonia fixa local e de longa distância; serviços móveis, incluindo serviços de valor agregado; serviços de dados, incluindo serviços de banda larga e serviços de dados móveis; Serviços de televisão por assinatura direto para casa (DTH), televisão por protocolo de Internet (IPTV) e cabo; serviços de rede, como aluguel de instalações, bem como outros serviços; serviços de atacado, incluindo interconexão; serviços digitais; serviços projetados especificamente para clientes corporativos e a venda de dispositivos e acessórios sem fio.</v>
     <v>BVMF</v>
-    <v>41.87</v>
+    <v>41.8</v>
     <v>33000</v>
-    <v>45075.838695115628</v>
+    <v>45076.947928240741</v>
     <v>205</v>
-    <v>2050540</v>
+    <v>2018280</v>
     <v>BRL</v>
     <v>TELEFÔNICA BRASIL S.A.</v>
     <v>TELEFÔNICA BRASIL S.A.</v>
-    <v>41.87</v>
-    <v>41.8</v>
+    <v>42.02</v>
+    <v>41.04</v>
     <v>Av Engenheiro Luis Carlos Berrini, 1376 32 andar, Cidade Moncoes, SAO PAULO, SAO PAULO, 04.571-936 BR</v>
     <v>Telecommunications Services</v>
     <v>VIVT3</v>
     <v>Ações</v>
     <v>TELEFÔNICA BRASIL S.A. (BVMF:VIVT3)</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-1.6719999999999999E-3</v>
-    <v>1029400</v>
+    <v>-0.76</v>
+    <v>-1.8182E-2</v>
+    <v>2611600</v>
   </rv>
   <rv s="2">
     <v>206</v>
@@ -4281,32 +4282,32 @@
     <v>9.41</v>
     <v>BVMF</v>
     <v>245916200</v>
-    <v>15.63</v>
+    <v>15.8</v>
     <v>1952</v>
-    <v>15.28</v>
-    <v>1.0996999999999999</v>
+    <v>15.54</v>
+    <v>1.0983000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>3831374396</v>
+    <v>3883016798</v>
     <v>A VULCABRAS AZALEIA S/A é uma holding com sede no Brasil, que se dedica principalmente à fabricação de calçados. A Empresa está envolvida na produção e comercialização de calçados esportivos e profissionais masculinos e femininos, bem como na fabricação de vestuário. A Empresa vende seus produtos sob várias marcas, incluindo Azaleia, Dijean, Funny, Opanka, Olympikus e Vulcabras. A Empresa também produz sapatos e roupas para a marca Reebok. Além disso, a Empresa fabrica, sob a marca Botas Vulcabras, botas de segurança para hospitais, laboratórios, bem como para indústrias de alimentos, construção, mineração, metalurgia e química. A Empresa exporta seus produtos para Argentina, Chile, Colômbia e Peru, entre outros. Em 31 de dezembro de 2011, a subsidiária direta da Empresa era a Vulcabras Azaleia CE Calçados e Artigos Esportivos SA.</v>
     <v>BVMF</v>
-    <v>15.68</v>
+    <v>15.58</v>
     <v>23878</v>
-    <v>45075.838693078127</v>
+    <v>45076.947951388887</v>
     <v>208</v>
-    <v>1081010</v>
+    <v>1063610</v>
     <v>BRL</v>
     <v>VULCABRAS S.A.</v>
     <v>VULCABRAS S.A.</v>
-    <v>15.57</v>
-    <v>15.58</v>
+    <v>15.67</v>
+    <v>15.79</v>
     <v>Av. Antonio Frederico Ozanan,1440, Da Grama, JUNDIAI, SAO PAULO, 13.219-001 BR</v>
     <v>Textiles &amp; Apparel</v>
     <v>VULC3</v>
     <v>Ações</v>
     <v>VULCABRAS S.A. (BVMF:VULC3)</v>
-    <v>-0.1</v>
-    <v>-6.378E-3</v>
-    <v>73600</v>
+    <v>0.21</v>
+    <v>1.3479000000000001E-2</v>
+    <v>299800</v>
   </rv>
   <rv s="2">
     <v>209</v>
@@ -4332,32 +4333,32 @@
     <v>22.44</v>
     <v>BVMF</v>
     <v>4197318000</v>
-    <v>39.54</v>
+    <v>39.26</v>
     <v>1961</v>
-    <v>38.729999999999997</v>
-    <v>0.56589999999999996</v>
+    <v>38.229999999999997</v>
+    <v>0.56299999999999994</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>163191723840</v>
+    <v>160925172120</v>
     <v>A WEG SA é uma holding sediada no Brasil que tem por objetivo principal a fabricação de equipamentos e componentes elétricos. A Companhia atua, juntamente com suas subsidiárias, na fabricação e comercialização de mercadorias, tais como motores elétricos, geradores e transformadores; redutores, redutores de engrenagem, inversores de frequência, motores de partida e dispositivos de manobra; controle e proteção de circuitos elétricos e automação industrial; soluções de tração elétrica (terrestre e marítima); soluções para geração de energia renovável e distribuída, explorando todas as oportunidades em pequenas centrais hidrelétricas e fontes de biomassa térmica, eólica e solar; no-breaks e alternadores para grupos de geradores; subestações elétricas; sistemas de equipamentos elétricos e eletrônicos industriais e tintas e vernizes industriais. Atua no Brasil, Argentina, México, Estados Unidos, Portugal, Áustria, África do Sul, Índia e China. Opera por meio da Bluffton Motor Works LLC.</v>
     <v>BVMF</v>
-    <v>39.51</v>
+    <v>38.880000000000003</v>
     <v>39137</v>
-    <v>45075.838618113281</v>
+    <v>45076.947916666664</v>
     <v>211</v>
-    <v>5971240</v>
+    <v>5757160</v>
     <v>BRL</v>
     <v>WEG S.A.</v>
     <v>WEG S.A.</v>
-    <v>39.51</v>
-    <v>38.880000000000003</v>
+    <v>39.18</v>
+    <v>38.340000000000003</v>
     <v>Av. Prefeito Waldemar Grubba,3300, Centro, JARAGUA DO SUL, SANTA CATARINA, 89.256-900 BR</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>WEGE3</v>
     <v>Ações</v>
     <v>WEG S.A. (BVMF:WEGE3)</v>
-    <v>-0.63</v>
-    <v>-1.5945000000000001E-2</v>
-    <v>3435200</v>
+    <v>-0.54</v>
+    <v>-1.3889E-2</v>
+    <v>6336900</v>
   </rv>
   <rv s="2">
     <v>212</v>
@@ -4382,22 +4383,22 @@
     <v>21.93</v>
     <v>11.42</v>
     <v>BVMF</v>
-    <v>14</v>
-    <v>13.61</v>
+    <v>13.91</v>
+    <v>13.7</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>14</v>
-    <v>45075.829764385941</v>
+    <v>13.76</v>
+    <v>45076.947997685187</v>
     <v>214</v>
     <v>BRL</v>
     <v>FDO INV IMOB XP CORPORATE MACAE ETF</v>
-    <v>14</v>
     <v>13.76</v>
+    <v>13.73</v>
     <v>XPCM11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB XP CORPORATE MACAE ETF (BVMF:XPCM11)</v>
-    <v>-0.24</v>
-    <v>-1.7142999999999999E-2</v>
-    <v>2504</v>
+    <v>-0.03</v>
+    <v>-2.1800000000000001E-3</v>
+    <v>2130</v>
   </rv>
   <rv s="2">
     <v>215</v>
@@ -4423,32 +4424,32 @@
     <v>6.48</v>
     <v>BVMF</v>
     <v>309088800</v>
-    <v>14.4</v>
+    <v>14.58</v>
     <v>2007</v>
-    <v>14</v>
-    <v>1.8346</v>
+    <v>14.16</v>
+    <v>1.8404</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>4429242504</v>
+    <v>4385970072</v>
     <v>A YDUQS Participações SA é uma empresa com sede no Brasil que se dedica à prestação de serviços educacionais. A empresa está focada no desenvolvimento de instituições de ensino superior. Sua gama de serviços abrange cursos presenciais e a distância com programas de pós-graduação e mestrado em administração de empresas (MBA), cursos profissionalizantes, preparatórios para exames, cursos de curta duração, além de treinamentos empresariais para profissionais, entre outros. Os cursos da Companhia oferecem desenvolvimento nas áreas jurídica, gestão, humanidades, saúde e tecnologia. Sua rede educacional é formada por universidades, campi, centros de ensino a distância e faculdades. A Companhia atua no Brasil por meio das marcas: Estácio, UniToledo, Adtalem (IBMEC, Wyden, Damasio Educacional, SJT Med e Clio).</v>
     <v>BVMF</v>
-    <v>14.08</v>
+    <v>14.33</v>
     <v>17882</v>
-    <v>45075.838761180472</v>
+    <v>45076.947928240741</v>
     <v>217</v>
-    <v>5876900</v>
+    <v>5635560</v>
     <v>BRL</v>
     <v>YDUQS Participações S.A.</v>
     <v>YDUQS Participações S.A.</v>
-    <v>14.1</v>
-    <v>14.33</v>
+    <v>14.42</v>
+    <v>14.19</v>
     <v>Avenida Venezuela 43 6 andar, Saude, RIO DE JANEIRO, RIO DE JANEIRO, 20.081-311 BR</v>
     <v>School, College &amp; University</v>
     <v>YDUQ3</v>
     <v>Ações</v>
     <v>YDUQS Participações S.A. (BVMF:YDUQ3)</v>
-    <v>0.25</v>
-    <v>1.7756000000000001E-2</v>
-    <v>3629200</v>
+    <v>-0.14000000000000001</v>
+    <v>-9.7699999999999992E-3</v>
+    <v>5230000</v>
   </rv>
   <rv s="2">
     <v>218</v>
@@ -4457,7 +4458,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -4677,12 +4678,57 @@
     <k n="Variação (%)"/>
     <k n="Volume"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_CanonicalPropertyNames" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 semanas de alta"/>
+    <k n="52 semanas de baixa"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Ações em circulação"/>
+    <k n="Alto"/>
+    <k n="Ano de incorporação"/>
+    <k n="Baixo"/>
+    <k n="Beta"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Capitalização de mercado"/>
+    <k n="Descrição" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Fechamento anterior"/>
+    <k n="Funcionários"/>
+    <k n="Hora da última transação"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Média de volume"/>
+    <k n="Moeda" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Nome oficial" t="s"/>
+    <k n="Pendência"/>
+    <k n="Preço"/>
+    <k n="Preço (Horário prolongado)"/>
+    <k n="Sede" t="s"/>
+    <k n="Setor" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Variação"/>
+    <k n="Variação (%)"/>
+    <k n="Volume"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="5">
+  <spbArrays count="6">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -4883,8 +4929,53 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="43">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">_CanonicalPropertyNames</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Nome</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Preço</v>
+      <v t="s">Preço (Horário prolongado)</v>
+      <v t="s">Bolsa</v>
+      <v t="s">Nome oficial</v>
+      <v t="s">Hora da última transação</v>
+      <v t="s">Símbolo do ticker</v>
+      <v t="s">Abreviatura do câmbio</v>
+      <v t="s">Variação</v>
+      <v t="s">Variação (%)</v>
+      <v t="s">Moeda</v>
+      <v t="s">Fechamento anterior</v>
+      <v t="s">Pendência</v>
+      <v t="s">Alto</v>
+      <v t="s">Baixo</v>
+      <v t="s">52 semanas de alta</v>
+      <v t="s">52 semanas de baixa</v>
+      <v t="s">Volume</v>
+      <v t="s">Média de volume</v>
+      <v t="s">Capitalização de mercado</v>
+      <v t="s">Beta</v>
+      <v t="s">Ações em circulação</v>
+      <v t="s">Descrição</v>
+      <v t="s">Funcionários</v>
+      <v t="s">Sede</v>
+      <v t="s">Setor</v>
+      <v t="s">Tipo de instrumento</v>
+      <v t="s">Ano de incorporação</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="22">
+  <spbData count="26">
     <spb s="0">
       <v>High</v>
       <v>Beta</v>
@@ -5186,12 +5277,80 @@
     <spb s="17">
       <v>Da plataforma Refinitiv</v>
     </spb>
+    <spb s="18">
+      <v>High</v>
+      <v>Beta</v>
+      <v>Name</v>
+      <v>Headquarters</v>
+      <v>Low</v>
+      <v>Exchange</v>
+      <v>Currency</v>
+      <v>Price</v>
+      <v>Industry</v>
+      <v>Volume</v>
+      <v>Change</v>
+      <v>Description</v>
+      <v>Open</v>
+      <v>ExchangeID</v>
+      <v>UniqueName</v>
+      <v>Employees</v>
+      <v>Official name</v>
+      <v>Change (%)</v>
+      <v>%ProviderInfo</v>
+      <v>LearnMoreOnLink</v>
+      <v>Volume average</v>
+      <v>Ticker symbol</v>
+      <v>52 week high</v>
+      <v>52 week low</v>
+      <v>Year incorporated</v>
+      <v>Shares outstanding</v>
+      <v>Previous close</v>
+      <v>Instrument type</v>
+      <v>Exchange abbreviation</v>
+      <v>Market cap</v>
+      <v>Last trade time</v>
+      <v>Price (Extended hours)</v>
+    </spb>
+    <spb s="1">
+      <v>5</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="19">
+      <v>1</v>
+      <v>2</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>4</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>7</v>
+      <v>4</v>
+      <v>1</v>
+      <v>8</v>
+      <v>9</v>
+      <v>1</v>
+    </spb>
+    <spb s="20">
+      <v xml:space="preserve">no fechamento </v>
+      <v xml:space="preserve">do fechamento anterior </v>
+      <v xml:space="preserve">do fechamento anterior </v>
+      <v>GMT</v>
+      <v>Atraso de 30 minutos</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="18">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="21">
   <s>
     <k n="Alto" t="s"/>
     <k n="Beta" t="s"/>
@@ -5472,6 +5631,69 @@
   </s>
   <s>
     <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="Alto" t="s"/>
+    <k n="Beta" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Sede" t="s"/>
+    <k n="Baixo" t="s"/>
+    <k n="Bolsa" t="s"/>
+    <k n="Moeda" t="s"/>
+    <k n="Preço" t="s"/>
+    <k n="Setor" t="s"/>
+    <k n="Volume" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Descrição" t="s"/>
+    <k n="Pendência" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Funcionários" t="s"/>
+    <k n="Nome oficial" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="LearnMoreOnLink" t="s"/>
+    <k n="Média de volume" t="s"/>
+    <k n="Símbolo do ticker" t="s"/>
+    <k n="52 semanas de alta" t="s"/>
+    <k n="52 semanas de baixa" t="s"/>
+    <k n="Ano de incorporação" t="s"/>
+    <k n="Ações em circulação" t="s"/>
+    <k n="Fechamento anterior" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="Abreviatura do câmbio" t="s"/>
+    <k n="Capitalização de mercado" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+    <k n="Preço (Horário prolongado)" t="s"/>
+  </s>
+  <s>
+    <k n="Alto" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="Nome" t="i"/>
+    <k n="Baixo" t="i"/>
+    <k n="Preço" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Variação" t="i"/>
+    <k n="Pendência" t="i"/>
+    <k n="Funcionários" t="i"/>
+    <k n="Variação (%)" t="i"/>
+    <k n="Média de volume" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="52 semanas de alta" t="i"/>
+    <k n="52 semanas de baixa" t="i"/>
+    <k n="Ano de incorporação" t="i"/>
+    <k n="Ações em circulação" t="i"/>
+    <k n="Fechamento anterior" t="i"/>
+    <k n="Capitalização de mercado" t="i"/>
+    <k n="Hora da última transação" t="i"/>
+    <k n="Preço (Horário prolongado)" t="i"/>
+  </s>
+  <s>
+    <k n="Preço" t="s"/>
+    <k n="Variação" t="s"/>
+    <k n="Variação (%)" t="s"/>
+    <k n="Hora da última transação" t="s"/>
+    <k n="Preço (Horário prolongado)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -5803,8 +6025,8 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5854,7 +6076,7 @@
       </c>
       <c r="D2" s="14" cm="1">
         <f t="array" ref="D2">_FV(E2,"Preço")</f>
-        <v>10.41</v>
+        <v>10.46</v>
       </c>
       <c r="E2" s="5" t="e" vm="1">
         <v>#VALUE!</v>
@@ -5873,7 +6095,7 @@
       </c>
       <c r="D3" s="14" cm="1">
         <f t="array" ref="D3">_FV(E3,"Preço")</f>
-        <v>21.55</v>
+        <v>21.66</v>
       </c>
       <c r="E3" s="5" t="e" vm="2">
         <v>#VALUE!</v>
@@ -5892,7 +6114,7 @@
       </c>
       <c r="D4" s="14" cm="1">
         <f t="array" ref="D4">_FV(E4,"Preço")</f>
-        <v>11.52</v>
+        <v>11.22</v>
       </c>
       <c r="E4" s="5" t="e" vm="3">
         <v>#VALUE!</v>
@@ -5911,7 +6133,7 @@
       </c>
       <c r="D5" s="19" cm="1">
         <f t="array" ref="D5">_FV(E5,"Preço")</f>
-        <v>16.3</v>
+        <v>16.05</v>
       </c>
       <c r="E5" s="23" t="e" vm="4">
         <v>#VALUE!</v>
@@ -5930,7 +6152,7 @@
       </c>
       <c r="D6" s="14" cm="1">
         <f t="array" ref="D6">_FV(E6,"Preço")</f>
-        <v>13.53</v>
+        <v>13.35</v>
       </c>
       <c r="E6" s="5" t="e" vm="5">
         <v>#VALUE!</v>
@@ -5949,7 +6171,7 @@
       </c>
       <c r="D7" s="14" cm="1">
         <f t="array" ref="D7">_FV(E7,"Preço")</f>
-        <v>84.75</v>
+        <v>85.47</v>
       </c>
       <c r="E7" s="4" t="e" vm="6">
         <v>#VALUE!</v>
@@ -5968,7 +6190,7 @@
       </c>
       <c r="D8" s="14" cm="1">
         <f t="array" ref="D8">_FV(E8,"Preço")</f>
-        <v>44.32</v>
+        <v>44.7</v>
       </c>
       <c r="E8" s="6" t="e" vm="7">
         <v>#VALUE!</v>
@@ -5987,7 +6209,7 @@
       </c>
       <c r="D9" s="14" cm="1">
         <f t="array" ref="D9">_FV(E9,"Preço")</f>
-        <v>32.090000000000003</v>
+        <v>31.69</v>
       </c>
       <c r="E9" s="6" t="e" vm="8">
         <v>#VALUE!</v>
@@ -6006,7 +6228,7 @@
       </c>
       <c r="D10" s="14" cm="1">
         <f t="array" ref="D10">_FV(E10,"Preço")</f>
-        <v>87.63</v>
+        <v>88.31</v>
       </c>
       <c r="E10" s="5" t="e" vm="9">
         <v>#VALUE!</v>
@@ -6025,7 +6247,7 @@
       </c>
       <c r="D11" s="14" cm="1">
         <f t="array" ref="D11">_FV(E11,"Preço")</f>
-        <v>90</v>
+        <v>89.74</v>
       </c>
       <c r="E11" s="5" t="e" vm="10">
         <v>#VALUE!</v>
@@ -6044,7 +6266,7 @@
       </c>
       <c r="D12" s="28" cm="1">
         <f t="array" ref="D12">_FV(E12,"Preço")</f>
-        <v>106.77</v>
+        <v>105.38</v>
       </c>
       <c r="E12" s="29" t="e" vm="11">
         <v>#VALUE!</v>
@@ -6063,7 +6285,7 @@
       </c>
       <c r="D13" s="14" cm="1">
         <f t="array" ref="D13">_FV(E13,"Preço")</f>
-        <v>27.3</v>
+        <v>26.62</v>
       </c>
       <c r="E13" s="5" t="e" vm="12">
         <v>#VALUE!</v>
@@ -6082,7 +6304,7 @@
       </c>
       <c r="D14" s="14" cm="1">
         <f t="array" ref="D14">_FV(E14,"Preço")</f>
-        <v>6.66</v>
+        <v>6.58</v>
       </c>
       <c r="E14" s="6" t="e" vm="13">
         <v>#VALUE!</v>
@@ -6101,7 +6323,7 @@
       </c>
       <c r="D15" s="14" cm="1">
         <f t="array" ref="D15">_FV(E15,"Preço")</f>
-        <v>58.56</v>
+        <v>58.66</v>
       </c>
       <c r="E15" s="5" t="e" vm="14">
         <v>#VALUE!</v>
@@ -6120,7 +6342,7 @@
       </c>
       <c r="D16" s="14" cm="1">
         <f t="array" ref="D16">_FV(E16,"Preço")</f>
-        <v>22.89</v>
+        <v>22.7</v>
       </c>
       <c r="E16" s="5" t="e" vm="15">
         <v>#VALUE!</v>
@@ -6139,7 +6361,7 @@
       </c>
       <c r="D17" s="14" cm="1">
         <f t="array" ref="D17">_FV(E17,"Preço")</f>
-        <v>12.4</v>
+        <v>12.31</v>
       </c>
       <c r="E17" s="6" t="e" vm="16">
         <v>#VALUE!</v>
@@ -6158,7 +6380,7 @@
       </c>
       <c r="D18" s="14" cm="1">
         <f t="array" ref="D18">_FV(E18,"Preço")</f>
-        <v>9.25</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="E18" s="4" t="e" vm="17">
         <v>#VALUE!</v>
@@ -6177,7 +6399,7 @@
       </c>
       <c r="D19" s="14" cm="1">
         <f t="array" ref="D19">_FV(E19,"Preço")</f>
-        <v>97.63</v>
+        <v>97.99</v>
       </c>
       <c r="E19" s="6" t="e" vm="18">
         <v>#VALUE!</v>
@@ -6196,7 +6418,7 @@
       </c>
       <c r="D20" s="14" cm="1">
         <f t="array" ref="D20">_FV(E20,"Preço")</f>
-        <v>78.349999999999994</v>
+        <v>77.8</v>
       </c>
       <c r="E20" s="5" t="e" vm="19">
         <v>#VALUE!</v>
@@ -6215,7 +6437,7 @@
       </c>
       <c r="D21" s="14" cm="1">
         <f t="array" ref="D21">_FV(E21,"Preço")</f>
-        <v>106.49</v>
+        <v>106.5</v>
       </c>
       <c r="E21" s="4" t="e" vm="20">
         <v>#VALUE!</v>
@@ -6234,7 +6456,7 @@
       </c>
       <c r="D22" s="14" cm="1">
         <f t="array" ref="D22">_FV(E22,"Preço")</f>
-        <v>15.33</v>
+        <v>15.06</v>
       </c>
       <c r="E22" s="6" t="e" vm="21">
         <v>#VALUE!</v>
@@ -6253,7 +6475,7 @@
       </c>
       <c r="D23" s="19" cm="1">
         <f t="array" ref="D23">_FV(E23,"Preço")</f>
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="E23" s="20" t="e" vm="22">
         <v>#VALUE!</v>
@@ -6272,7 +6494,7 @@
       </c>
       <c r="D24" s="14" cm="1">
         <f t="array" ref="D24">_FV(E24,"Preço")</f>
-        <v>18.79</v>
+        <v>18.55</v>
       </c>
       <c r="E24" s="5" t="e" vm="23">
         <v>#VALUE!</v>
@@ -6291,7 +6513,7 @@
       </c>
       <c r="D25" s="14" cm="1">
         <f t="array" ref="D25">_FV(E25,"Preço")</f>
-        <v>17.190000000000001</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="E25" s="5" t="e" vm="24">
         <v>#VALUE!</v>
@@ -6310,7 +6532,7 @@
       </c>
       <c r="D26" s="14" cm="1">
         <f t="array" ref="D26">_FV(E26,"Preço")</f>
-        <v>38.89</v>
+        <v>38.82</v>
       </c>
       <c r="E26" s="6" t="e" vm="25">
         <v>#VALUE!</v>
@@ -6329,7 +6551,7 @@
       </c>
       <c r="D27" s="14" cm="1">
         <f t="array" ref="D27">_FV(E27,"Preço")</f>
-        <v>28.24</v>
+        <v>28.1</v>
       </c>
       <c r="E27" s="5" t="e" vm="26">
         <v>#VALUE!</v>
@@ -6348,7 +6570,7 @@
       </c>
       <c r="D28" s="14" cm="1">
         <f t="array" ref="D28">_FV(E28,"Preço")</f>
-        <v>9.65</v>
+        <v>9.66</v>
       </c>
       <c r="E28" s="5" t="e" vm="27">
         <v>#VALUE!</v>
@@ -6367,7 +6589,7 @@
       </c>
       <c r="D29" s="14" cm="1">
         <f t="array" ref="D29">_FV(E29,"Preço")</f>
-        <v>16.100000000000001</v>
+        <v>15.94</v>
       </c>
       <c r="E29" s="6" t="e" vm="28">
         <v>#VALUE!</v>
@@ -6386,7 +6608,7 @@
       </c>
       <c r="D30" s="14" cm="1">
         <f t="array" ref="D30">_FV(E30,"Preço")</f>
-        <v>8.67</v>
+        <v>8.65</v>
       </c>
       <c r="E30" s="5" t="e" vm="29">
         <v>#VALUE!</v>
@@ -6405,7 +6627,7 @@
       </c>
       <c r="D31" s="14" cm="1">
         <f t="array" ref="D31">_FV(E31,"Preço")</f>
-        <v>93.54</v>
+        <v>93.75</v>
       </c>
       <c r="E31" s="5" t="e" vm="30">
         <v>#VALUE!</v>
@@ -6424,7 +6646,7 @@
       </c>
       <c r="D32" s="14" cm="1">
         <f t="array" ref="D32">_FV(E32,"Preço")</f>
-        <v>89.8</v>
+        <v>89.89</v>
       </c>
       <c r="E32" s="4" t="e" vm="31">
         <v>#VALUE!</v>
@@ -6443,7 +6665,7 @@
       </c>
       <c r="D33" s="14" cm="1">
         <f t="array" ref="D33">_FV(E33,"Preço")</f>
-        <v>24.95</v>
+        <v>24.32</v>
       </c>
       <c r="E33" s="5" t="e" vm="32">
         <v>#VALUE!</v>
@@ -6462,7 +6684,7 @@
       </c>
       <c r="D34" s="14" cm="1">
         <f t="array" ref="D34">_FV(E34,"Preço")</f>
-        <v>11.62</v>
+        <v>11.34</v>
       </c>
       <c r="E34" s="25" t="e" vm="33">
         <v>#VALUE!</v>
@@ -6481,7 +6703,7 @@
       </c>
       <c r="D35" s="14" cm="1">
         <f t="array" ref="D35">_FV(E35,"Preço")</f>
-        <v>3.9</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E35" s="5" t="e" vm="34">
         <v>#VALUE!</v>
@@ -6500,7 +6722,7 @@
       </c>
       <c r="D36" s="19" cm="1">
         <f t="array" ref="D36">_FV(E36,"Preço")</f>
-        <v>159.34</v>
+        <v>159.08000000000001</v>
       </c>
       <c r="E36" s="23" t="e" vm="35">
         <v>#VALUE!</v>
@@ -6527,7 +6749,7 @@
       </c>
       <c r="D37" s="14" cm="1">
         <f t="array" ref="D37">_FV(E37,"Preço")</f>
-        <v>124.79</v>
+        <v>124.54</v>
       </c>
       <c r="E37" s="5" t="e" vm="36">
         <v>#VALUE!</v>
@@ -6554,7 +6776,7 @@
       </c>
       <c r="D38" s="14" cm="1">
         <f t="array" ref="D38">_FV(E38,"Preço")</f>
-        <v>87.5</v>
+        <v>86.75</v>
       </c>
       <c r="E38" s="7" t="e" vm="37">
         <v>#VALUE!</v>
@@ -6581,7 +6803,7 @@
       </c>
       <c r="D39" s="14" cm="1">
         <f t="array" ref="D39">_FV(E39,"Preço")</f>
-        <v>86.9</v>
+        <v>87.1</v>
       </c>
       <c r="E39" s="7" t="e" vm="38">
         <v>#VALUE!</v>
@@ -6608,7 +6830,7 @@
       </c>
       <c r="D40" s="14" cm="1">
         <f t="array" ref="D40">_FV(E40,"Preço")</f>
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="E40" s="4" t="e" vm="39">
         <v>#VALUE!</v>
@@ -6635,7 +6857,7 @@
       </c>
       <c r="D41" s="14" cm="1">
         <f t="array" ref="D41">_FV(E41,"Preço")</f>
-        <v>101.03</v>
+        <v>101.75</v>
       </c>
       <c r="E41" s="5" t="e" vm="40">
         <v>#VALUE!</v>
@@ -6662,7 +6884,7 @@
       </c>
       <c r="D42" s="14" cm="1">
         <f t="array" ref="D42">_FV(E42,"Preço")</f>
-        <v>8.9700000000000006</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="E42" s="6" t="e" vm="41">
         <v>#VALUE!</v>
@@ -6689,7 +6911,7 @@
       </c>
       <c r="D43" s="28" cm="1">
         <f t="array" ref="D43">_FV(E43,"Preço")</f>
-        <v>233.39</v>
+        <v>234</v>
       </c>
       <c r="E43" s="29" t="e" vm="42">
         <v>#VALUE!</v>
@@ -6716,7 +6938,7 @@
       </c>
       <c r="D44" s="14" cm="1">
         <f t="array" ref="D44">_FV(E44,"Preço")</f>
-        <v>97.5</v>
+        <v>97.43</v>
       </c>
       <c r="E44" s="5" t="e" vm="43">
         <v>#VALUE!</v>
@@ -6743,7 +6965,7 @@
       </c>
       <c r="D45" s="14" cm="1">
         <f t="array" ref="D45">_FV(E45,"Preço")</f>
-        <v>101.58</v>
+        <v>102.43</v>
       </c>
       <c r="E45" s="5" t="e" vm="44">
         <v>#VALUE!</v>
@@ -6770,7 +6992,7 @@
       </c>
       <c r="D46" s="14" cm="1">
         <f t="array" ref="D46">_FV(E46,"Preço")</f>
-        <v>131.57</v>
+        <v>130.68</v>
       </c>
       <c r="E46" s="5" t="e" vm="45">
         <v>#VALUE!</v>
@@ -6797,7 +7019,7 @@
       </c>
       <c r="D47" s="14" cm="1">
         <f t="array" ref="D47">_FV(E47,"Preço")</f>
-        <v>8.7100000000000009</v>
+        <v>8.24</v>
       </c>
       <c r="E47" s="6" t="e" vm="46">
         <v>#VALUE!</v>
@@ -6824,7 +7046,7 @@
       </c>
       <c r="D48" s="14" cm="1">
         <f t="array" ref="D48">_FV(E48,"Preço")</f>
-        <v>106.3</v>
+        <v>106.75</v>
       </c>
       <c r="E48" s="4" t="e" vm="47">
         <v>#VALUE!</v>
@@ -6851,7 +7073,7 @@
       </c>
       <c r="D49" s="14" cm="1">
         <f t="array" ref="D49">_FV(E49,"Preço")</f>
-        <v>90</v>
+        <v>90.71</v>
       </c>
       <c r="E49" s="7" t="e" vm="48">
         <v>#VALUE!</v>
@@ -6878,7 +7100,7 @@
       </c>
       <c r="D50" s="19" cm="1">
         <f t="array" ref="D50">_FV(E50,"Preço")</f>
-        <v>5.57</v>
+        <v>5.33</v>
       </c>
       <c r="E50" s="23" t="e" vm="49">
         <v>#VALUE!</v>
@@ -6905,7 +7127,7 @@
       </c>
       <c r="D51" s="14" cm="1">
         <f t="array" ref="D51">_FV(E51,"Preço")</f>
-        <v>66.430000000000007</v>
+        <v>65.89</v>
       </c>
       <c r="E51" s="8" t="e" vm="50">
         <v>#VALUE!</v>
@@ -6932,7 +7154,7 @@
       </c>
       <c r="D52" s="14" cm="1">
         <f t="array" ref="D52">_FV(E52,"Preço")</f>
-        <v>5.53</v>
+        <v>5.6</v>
       </c>
       <c r="E52" s="5" t="e" vm="51">
         <v>#VALUE!</v>
@@ -6951,7 +7173,7 @@
       </c>
       <c r="D53" s="14" cm="1">
         <f t="array" ref="D53">_FV(E53,"Preço")</f>
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="E53" s="5" t="e" vm="52">
         <v>#VALUE!</v>
@@ -6970,7 +7192,7 @@
       </c>
       <c r="D54" s="14" cm="1">
         <f t="array" ref="D54">_FV(E54,"Preço")</f>
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E54" s="6" t="e" vm="53">
         <v>#VALUE!</v>
@@ -6989,7 +7211,7 @@
       </c>
       <c r="D55" s="14" cm="1">
         <f t="array" ref="D55">_FV(E55,"Preço")</f>
-        <v>26.69</v>
+        <v>26.39</v>
       </c>
       <c r="E55" s="5" t="e" vm="54">
         <v>#VALUE!</v>
@@ -7008,7 +7230,7 @@
       </c>
       <c r="D56" s="14" cm="1">
         <f t="array" ref="D56">_FV(E56,"Preço")</f>
-        <v>45.05</v>
+        <v>45.35</v>
       </c>
       <c r="E56" s="4" t="e" vm="55">
         <v>#VALUE!</v>
@@ -7027,7 +7249,7 @@
       </c>
       <c r="D57" s="14" cm="1">
         <f t="array" ref="D57">_FV(E57,"Preço")</f>
-        <v>82.9</v>
+        <v>83.88</v>
       </c>
       <c r="E57" s="4" t="e" vm="56">
         <v>#VALUE!</v>
@@ -7046,7 +7268,7 @@
       </c>
       <c r="D58" s="14" cm="1">
         <f t="array" ref="D58">_FV(E58,"Preço")</f>
-        <v>56.39</v>
+        <v>54.8</v>
       </c>
       <c r="E58" s="9" t="e" vm="57">
         <v>#VALUE!</v>
@@ -7065,7 +7287,7 @@
       </c>
       <c r="D59" s="14" cm="1">
         <f t="array" ref="D59">_FV(E59,"Preço")</f>
-        <v>89.85</v>
+        <v>89.86</v>
       </c>
       <c r="E59" s="5" t="e" vm="58">
         <v>#VALUE!</v>
@@ -7084,7 +7306,7 @@
       </c>
       <c r="D60" s="14" cm="1">
         <f t="array" ref="D60">_FV(E60,"Preço")</f>
-        <v>136.63</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="E60" s="5" t="e" vm="59">
         <v>#VALUE!</v>
@@ -7103,7 +7325,7 @@
       </c>
       <c r="D61" s="14" cm="1">
         <f t="array" ref="D61">_FV(E61,"Preço")</f>
-        <v>30.56</v>
+        <v>29.82</v>
       </c>
       <c r="E61" s="5" t="e" vm="60">
         <v>#VALUE!</v>
@@ -7122,7 +7344,7 @@
       </c>
       <c r="D62" s="14" cm="1">
         <f t="array" ref="D62">_FV(E62,"Preço")</f>
-        <v>10.43</v>
+        <v>10.36</v>
       </c>
       <c r="E62" s="4" t="e" vm="61">
         <v>#VALUE!</v>
@@ -7141,7 +7363,7 @@
       </c>
       <c r="D63" s="14" cm="1">
         <f t="array" ref="D63">_FV(E63,"Preço")</f>
-        <v>21.12</v>
+        <v>20.75</v>
       </c>
       <c r="E63" s="6" t="e" vm="62">
         <v>#VALUE!</v>
@@ -7160,7 +7382,7 @@
       </c>
       <c r="D64" s="14" cm="1">
         <f t="array" ref="D64">_FV(E64,"Preço")</f>
-        <v>9.91</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="E64" s="5" t="e" vm="63">
         <v>#VALUE!</v>
@@ -7179,7 +7401,7 @@
       </c>
       <c r="D65" s="28" cm="1">
         <f t="array" ref="D65">_FV(E65,"Preço")</f>
-        <v>101.57</v>
+        <v>100.6</v>
       </c>
       <c r="E65" s="29" t="e" vm="64">
         <v>#VALUE!</v>
@@ -7198,7 +7420,7 @@
       </c>
       <c r="D66" s="14" cm="1">
         <f t="array" ref="D66">_FV(E66,"Preço")</f>
-        <v>97.24</v>
+        <v>97.36</v>
       </c>
       <c r="E66" s="5" t="e" vm="65">
         <v>#VALUE!</v>
@@ -7210,14 +7432,14 @@
         <v>VALE3</v>
       </c>
       <c r="B67" s="15">
-        <v>64.5</v>
+        <v>60</v>
       </c>
       <c r="C67" s="15">
         <v>96</v>
       </c>
       <c r="D67" s="14" cm="1">
         <f t="array" ref="D67">_FV(E67,"Preço")</f>
-        <v>65.83</v>
+        <v>64.28</v>
       </c>
       <c r="E67" s="5" t="e" vm="66">
         <v>#VALUE!</v>
@@ -7236,7 +7458,7 @@
       </c>
       <c r="D68" s="14" cm="1">
         <f t="array" ref="D68">_FV(E68,"Preço")</f>
-        <v>98.4</v>
+        <v>97.61</v>
       </c>
       <c r="E68" s="7" t="e" vm="67">
         <v>#VALUE!</v>
@@ -7255,7 +7477,7 @@
       </c>
       <c r="D69" s="14" cm="1">
         <f t="array" ref="D69">_FV(E69,"Preço")</f>
-        <v>41.8</v>
+        <v>41.04</v>
       </c>
       <c r="E69" s="5" t="e" vm="68">
         <v>#VALUE!</v>
@@ -7274,7 +7496,7 @@
       </c>
       <c r="D70" s="14" cm="1">
         <f t="array" ref="D70">_FV(E70,"Preço")</f>
-        <v>15.58</v>
+        <v>15.79</v>
       </c>
       <c r="E70" s="5" t="e" vm="69">
         <v>#VALUE!</v>
@@ -7293,7 +7515,7 @@
       </c>
       <c r="D71" s="14" cm="1">
         <f t="array" ref="D71">_FV(E71,"Preço")</f>
-        <v>38.880000000000003</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="E71" s="5" t="e" vm="70">
         <v>#VALUE!</v>
@@ -7312,7 +7534,7 @@
       </c>
       <c r="D72" s="14" cm="1">
         <f t="array" ref="D72">_FV(E72,"Preço")</f>
-        <v>13.76</v>
+        <v>13.73</v>
       </c>
       <c r="E72" s="8" t="e" vm="71">
         <v>#VALUE!</v>
@@ -7331,7 +7553,7 @@
       </c>
       <c r="D73" s="14" cm="1">
         <f t="array" ref="D73">_FV(E73,"Preço")</f>
-        <v>14.33</v>
+        <v>14.19</v>
       </c>
       <c r="E73" s="6" t="e" vm="72">
         <v>#VALUE!</v>

--- a/ativos.xlsx
+++ b/ativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebili\github\cotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C5C7FF-58C7-4BCE-AB42-77CED0BF8C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727954C-8E02-4F3F-9471-37891F50D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1208,32 +1208,32 @@
     <v>6.81</v>
     <v>BVMF</v>
     <v>683062200</v>
-    <v>10.59</v>
+    <v>10.83</v>
     <v>1907</v>
-    <v>10.3</v>
-    <v>1.0885</v>
+    <v>10.38</v>
+    <v>1.0698000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7273643000</v>
+    <v>7222918000</v>
     <v>A Alpargatas SA, antiga São Paulo Alpargatas SA, é uma empresa com sede no Brasil que se dedica à produção de calçados, vestuário e artigos esportivos. A Companhia fabrica e comercializa calçados e seus componentes; confecções; produtos têxteis; couro, resina e produtos de borracha natural ou artificial e artigos esportivos. O portfólio de marcas da Companhia inclui Havaianas e Dupe, que fabrica sandálias; Sete Leguas, oferecendo botas de borracha; Timberland, fornecimento de vestuário e calçado para exterior; Topper e Mizuno, com produção de artigos esportivos, calçados e roupas, e Osklen, marca de moda. A empresa também vende produtos esportivos por meio da rede de lojas Meggashop. Opera por meio de diversas subsidiárias no Brasil, Argentina, Estados Unidos, Espanha e França, entre outras. A Companhia é controlada por um grupo de investidores (Consórcio), formado pela Brasil Warrant Administração de Bens e Empresas SA, uma unidade do Grupo Moreira Salles, Itausa Investimentos Itau SA e Cambuhy Investimentos Ltda.</v>
     <v>BVMF</v>
-    <v>10.41</v>
+    <v>10.46</v>
     <v>17000</v>
-    <v>45076.947928240741</v>
+    <v>45077.758032407408</v>
     <v>0</v>
     <v>11479950</v>
     <v>BRL</v>
     <v>ALPARGATAS S.A.</v>
     <v>ALPARGATAS S.A.</v>
-    <v>10.47</v>
     <v>10.46</v>
+    <v>10.57</v>
     <v>Av. das Nacoes Unidas, 14.261, Vila Gertrudes, SAO PAULO, SAO PAULO, 04.794-000 BR</v>
     <v>Textiles &amp; Apparel</v>
     <v>ALPA4</v>
     <v>Ações</v>
     <v>ALPARGATAS S.A. (BVMF:ALPA4)</v>
-    <v>0.05</v>
-    <v>4.803E-3</v>
-    <v>5816200</v>
+    <v>0.11</v>
+    <v>1.0516000000000001E-2</v>
+    <v>7145000</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -1255,36 +1255,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>22.13</v>
+    <v>22.15</v>
     <v>14.92</v>
     <v>BVMF</v>
     <v>573936900</v>
-    <v>21.85</v>
+    <v>22.15</v>
     <v>2003</v>
-    <v>21.42</v>
-    <v>1.2421</v>
+    <v>21.49</v>
+    <v>1.2382</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>12431473254</v>
+    <v>12684005490</v>
     <v>A Aliansce Sonae Shopping Centers SA, anteriormente conhecida como Sonae Sierra Brasil SA, é uma empresa sediada no Brasil que se dedica principalmente ao desenvolvimento e operação de shopping centers no Brasil. Por meio de suas subsidiárias, a Companhia atua no desenvolvimento de projetos de shopping centers, construção de edifícios comerciais, gestão de imóveis comerciais, serviços de corretagem, locação de espaços para varejistas, locação de espaços comerciais para publicidade e promoção e operação de estacionamentos. A Companhia possui subsidiárias como Sierra Investimentos Brasil Ltda e Unishopping Administradora Ltda., Através das quais opera diversos centros comerciais no Brasil, incluindo o Parque D Pedro, o Metrópole, Manauara, Penha, Tivoli, Campo Limpo e Franca, entre outros. É uma subsidiária da Sierra Brazil 1 BV.</v>
     <v>BVMF</v>
-    <v>21.55</v>
+    <v>21.66</v>
     <v>440</v>
-    <v>45076.947928240741</v>
+    <v>45077.758055555554</v>
     <v>3</v>
     <v>5310570</v>
     <v>BRL</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A.</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A.</v>
-    <v>21.7</v>
-    <v>21.66</v>
+    <v>21.71</v>
+    <v>22.1</v>
     <v>R Dias Ferreira 00190 Sal 301, Leblon, RIO DE JANEIRO, RIO DE JANEIRO, 22.431-050 BR</v>
     <v>Real Estate Operations</v>
     <v>ALSO3</v>
     <v>Ações</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A. (BVMF:ALSO3)</v>
-    <v>0.11</v>
-    <v>5.104E-3</v>
-    <v>4482200</v>
+    <v>0.44</v>
+    <v>2.0314000000000002E-2</v>
+    <v>2293600</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -1310,32 +1310,32 @@
     <v>10.38</v>
     <v>BVMF</v>
     <v>1349225000</v>
-    <v>11.97</v>
+    <v>11.24</v>
     <v>2003</v>
-    <v>11.07</v>
+    <v>10.69</v>
     <v>0.80700000000000005</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>15543080000</v>
+    <v>15138310000</v>
     <v>A Sendas Distribuidora SA, também conhecida como Assai Atacadista, é uma empresa com sede no Brasil que atua principalmente no setor de distribuição de alimentos. As atividades da Empresa estão divididas em dois segmentos operacionais: Cash &amp; Carry e Varejo. Por meio do segmento de Cash &amp; Carry, a Companhia oferece alimentos, artigos de bazar e outros produtos para o atacado, por meio de lojas de autoatendimento operadas no Brasil com a marca Assai. O segmento de Varejo inclui operações de hipermercados, supermercados e lojas de conveniência sob as seguintes marcas: Exito, Carulla, Surtimaorista, Surtimax, Super Inter e Viva Malls na Colômbia; Devoto, Disco e Geant no Uruguai; e Libertad, Mini Libertad e Paseo Libertad Malls na Argentina.</v>
     <v>BVMF</v>
-    <v>11.52</v>
+    <v>11.22</v>
     <v>76000</v>
-    <v>45076.947916666664</v>
+    <v>45077.758078310158</v>
     <v>6</v>
     <v>17662340</v>
     <v>BRL</v>
     <v>SENDAS DISTRIBUIDORA S/A</v>
     <v>SENDAS DISTRIBUIDORA S/A</v>
-    <v>11.61</v>
-    <v>11.22</v>
+    <v>11.24</v>
+    <v>10.87</v>
     <v>Avenida Ayrton Senna, 6.000 Jacarepagua, RIO DE JANEIRO, RIO DE JANEIRO, 22.775-005 BR</v>
     <v>Food &amp; Drug Retailing</v>
     <v>ASAI3</v>
     <v>Ações</v>
     <v>SENDAS DISTRIBUIDORA S/A (BVMF:ASAI3)</v>
-    <v>-0.3</v>
-    <v>-2.6041999999999999E-2</v>
-    <v>21293400</v>
+    <v>-0.35</v>
+    <v>-3.1194000000000003E-2</v>
+    <v>13450500</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1361,32 +1361,32 @@
     <v>6.71</v>
     <v>BVMF</v>
     <v>335623400</v>
-    <v>16.82</v>
+    <v>16.71</v>
     <v>2008</v>
     <v>15.78</v>
-    <v>1.9765999999999999</v>
+    <v>1.9535</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5386755570</v>
+    <v>5598198312</v>
     <v>A Azul S.A. é uma empresa brasileira dedicada à prestação de serviços de transporte de passageiros. A Companhia atua principalmente como operadora de companhia aérea sob a marca Azul, fornecendo voos regulares entre diversas cidades do Brasil, incluindo São Paulo, Brasília, Rio de Janeiro, Belo Horizonte, Porto Alegre, Curitiba, Fortaleza e Salvador, entre outros. Além disso, sua rede aérea compreende rotas internacionais para os Estados Unidos, Europa e outros países da América Latina. Por meio de seu negócio de pacotes de viagens, a Azul Viagens, além de passagens aéreas, a Companhia oferece acomodações, transfers, passeios e aluguel de veículos. Sua oferta inclui também o Azul Cargo Express, um serviço de transporte de carga agendado com entrega de aeroporto a aeroporto e porta a porta. A Companhia possui várias subsidiárias, como a Azul Linhas Aéreas Brasileiras SA, que opera todas as atividades de voo e TudoAzul SA, que gerencia o programa de fidelidade.</v>
     <v>BVMF</v>
-    <v>16.3</v>
+    <v>16.05</v>
     <v>13651</v>
-    <v>45076.947916666664</v>
+    <v>45077.758067129631</v>
     <v>9</v>
     <v>17655140</v>
     <v>BRL</v>
     <v>Azul S.A.</v>
     <v>Azul S.A.</v>
-    <v>16.71</v>
-    <v>16.05</v>
+    <v>16</v>
+    <v>16.68</v>
     <v>Avenida Marcos Penteado de Ulhoa Rodrigues 939 8 andar, Tambore, BARUERI, SAO PAULO, 06.460-040 BR</v>
     <v>Passenger Transportation Services</v>
     <v>AZUL4</v>
     <v>Ações</v>
     <v>Azul S.A. (BVMF:AZUL4)</v>
-    <v>-0.25</v>
-    <v>-1.5337E-2</v>
-    <v>11516000</v>
+    <v>0.63</v>
+    <v>3.9251999999999995E-2</v>
+    <v>9868600</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -1412,32 +1412,32 @@
     <v>9.5</v>
     <v>BVMF</v>
     <v>6099000000</v>
-    <v>13.79</v>
+    <v>13.58</v>
     <v>2007</v>
-    <v>13.29</v>
-    <v>1.1357999999999999</v>
+    <v>13.13</v>
+    <v>1.1314</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>81421650000</v>
+    <v>82702440000</v>
     <v>B3 SA Brasil Bolsa Balcão, anteriormente BM &amp; F Bovespa SA Bolsa de Valores Mercadorias e Futuros, é uma fornecedora de infra-estruturaa de mercado financeiro no Brasil. As ofertas de serviços da Companhia varia entre negociação cambial, compensação e outros serviços pós-negociação e registro de transações de balcão (OTC). A Companhia também fornece um serviço de listagem e atua como depósito central de valores mobiliários (CSD). Desenvolve soluções de software e oferece serviços de licenciamento de índice. Seu negócio está dividido em quatro segmentos: Bovespa, que abrange a negociação, compensação e liquidação de ações e derivativos patrimoniais; BM &amp; F, que abrange a negociação, compensação e liquidação de derivativos financeiros e de mercadorias (commodities); Cetip Securities (Cetip UTVM), cobrindo os sistemas de registro, compensação, liquidação e custódia de títulos de renda fixa e derivados OTC e Cetip Financing (Cetip UFIN), que fornece um sistema eletrônico privado integrado para registro de empréstimos de veículos e imóveis.</v>
     <v>BVMF</v>
-    <v>13.53</v>
+    <v>13.35</v>
     <v>2135</v>
-    <v>45076.947916666664</v>
+    <v>45077.758067870309</v>
     <v>12</v>
     <v>45917240</v>
     <v>BRL</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão</v>
-    <v>13.7</v>
-    <v>13.35</v>
+    <v>13.37</v>
+    <v>13.56</v>
     <v>Praca Antonio Prado, 48 7 andar, Centro, SAO PAULO, SAO PAULO, 01.010-901 BR</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>B3SA3</v>
     <v>Ações</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão (BVMF:B3SA3)</v>
-    <v>-0.18</v>
-    <v>-1.3304E-2</v>
-    <v>32051700</v>
+    <v>0.21</v>
+    <v>1.5730000000000001E-2</v>
+    <v>14321500</v>
   </rv>
   <rv s="2">
     <v>13</v>
@@ -1462,22 +1462,22 @@
     <v>90.66</v>
     <v>75.81</v>
     <v>BVMF</v>
-    <v>85.5</v>
-    <v>83.51</v>
+    <v>85.56</v>
+    <v>84.02</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>84.75</v>
-    <v>45076.947997685187</v>
+    <v>85.47</v>
+    <v>45077.757885960156</v>
     <v>15</v>
     <v>BRL</v>
     <v>FII BARIGUI RENDI CF</v>
-    <v>84.74</v>
-    <v>85.47</v>
+    <v>85.48</v>
+    <v>84.76</v>
     <v>BARI11</v>
     <v>Fundos mais negociados</v>
     <v>FII BARIGUI RENDI CF (BVMF:BARI11)</v>
-    <v>0.72</v>
-    <v>8.4960000000000001E-3</v>
-    <v>7950</v>
+    <v>-0.71</v>
+    <v>-8.3070000000000001E-3</v>
+    <v>6253</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -1503,32 +1503,32 @@
     <v>29.24</v>
     <v>BVMF</v>
     <v>2865417000</v>
-    <v>44.86</v>
+    <v>45.14</v>
     <v>1808</v>
-    <v>44.21</v>
-    <v>1.1754</v>
+    <v>44.52</v>
+    <v>1.1821999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>128084139900</v>
+    <v>129087035849</v>
     <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
     <v>BVMF</v>
-    <v>44.32</v>
+    <v>44.7</v>
     <v>85953</v>
-    <v>45076.947916666664</v>
+    <v>45077.758098390623</v>
     <v>18</v>
     <v>14075170</v>
     <v>BRL</v>
     <v>BANCO DO BRASIL S.A.</v>
     <v>BANCO DO BRASIL S.A.</v>
-    <v>44.8</v>
-    <v>44.7</v>
+    <v>44.74</v>
+    <v>45.05</v>
     <v>SAUN QD 5 LT B, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Banking Services</v>
     <v>BBAS3</v>
     <v>Ações</v>
     <v>BANCO DO BRASIL S.A. (BVMF:BBAS3)</v>
-    <v>0.38</v>
-    <v>8.574E-3</v>
-    <v>18403400</v>
+    <v>0.35</v>
+    <v>7.8300000000000002E-3</v>
+    <v>8586300</v>
   </rv>
   <rv s="2">
     <v>19</v>
@@ -1554,32 +1554,32 @@
     <v>22.19</v>
     <v>BVMF</v>
     <v>2000000000</v>
-    <v>32.28</v>
+    <v>31.6</v>
     <v>2012</v>
-    <v>31.6</v>
-    <v>0.67200000000000004</v>
+    <v>31.09</v>
+    <v>0.67949999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>63380000000</v>
+    <v>62380000000</v>
     <v>A BB Seguridade Participações S.A. é uma empresa brasileira que atua no setor de seguros. As atividades da empresa se dividem em dois segmentos: Seguros e Corretagem. A divisão Seguros oferece seguros de vida, propriedade e acidentes, veículos, riscos especiais, financeiro e transporte, planos odontológicos, de previdência privada e de capitalização, bem como resseguro. A divisão Corretagem concentra-se na corretagem de seguros, gestão dos planos de previdência e capitalização, bem como na promoção de produtos de seguros e resseguros. Além disso, presta consultoria relacionada à seleção de seguros. As subsidiárias da empresa incluem a BB Seguros Participações S.A. e a BB Cor Participações S.A. A empresa é controlada pelo BANCO DO BRASIL S.A.</v>
     <v>BVMF</v>
-    <v>32.090000000000003</v>
+    <v>31.69</v>
     <v>223</v>
-    <v>45076.947916666664</v>
+    <v>45077.7580787037</v>
     <v>21</v>
     <v>7135460</v>
     <v>BRL</v>
     <v>BB Seguridade Participações S.A.</v>
     <v>BB Seguridade Participações S.A.</v>
-    <v>32.25</v>
-    <v>31.69</v>
+    <v>31.6</v>
+    <v>31.19</v>
     <v>SAUN, Quadra 05, Bloco B, 3 andar Edificio Banco do Br, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Insurance</v>
     <v>BBSE3</v>
     <v>Ações</v>
     <v>BB Seguridade Participações S.A. (BVMF:BBSE3)</v>
-    <v>-0.4</v>
-    <v>-1.2464999999999999E-2</v>
-    <v>4764500</v>
+    <v>-0.5</v>
+    <v>-1.5778E-2</v>
+    <v>3010700</v>
   </rv>
   <rv s="2">
     <v>22</v>
@@ -1604,22 +1604,22 @@
     <v>100.01</v>
     <v>82</v>
     <v>BVMF</v>
+    <v>88.43</v>
+    <v>87.95</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>88.31</v>
-    <v>87.55</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>87.63</v>
-    <v>45076.947916666664</v>
+    <v>45077.755957685156</v>
     <v>24</v>
     <v>BRL</v>
     <v>BTG PACTUAL DIV INFR FIC FII INFRA RF</v>
-    <v>87.63</v>
     <v>88.31</v>
+    <v>88.4</v>
     <v>BDIF11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL DIV INFR FIC FII INFRA RF (BVMF:BDIF11)</v>
-    <v>0.68</v>
-    <v>7.7600000000000004E-3</v>
-    <v>9788</v>
+    <v>0.09</v>
+    <v>1.0189999999999999E-3</v>
+    <v>5061</v>
   </rv>
   <rv s="2">
     <v>25</v>
@@ -1645,21 +1645,21 @@
     <v>83.5</v>
     <v>BVMF</v>
     <v>90</v>
-    <v>88.78</v>
+    <v>89.61</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>90</v>
-    <v>45076.947916666664</v>
+    <v>89.74</v>
+    <v>45077.757476851853</v>
     <v>27</v>
     <v>BRL</v>
     <v>INTER INFRA FIC RENDA FIXA CREDIT CF</v>
-    <v>90</v>
     <v>89.74</v>
+    <v>89.99</v>
     <v>BIDB11</v>
     <v>Fundos mais negociados</v>
     <v>INTER INFRA FIC RENDA FIXA CREDIT CF (BVMF:BIDB11)</v>
-    <v>-0.26</v>
-    <v>-2.8890000000000001E-3</v>
-    <v>1752</v>
+    <v>0.25</v>
+    <v>2.7860000000000003E-3</v>
+    <v>511</v>
   </rv>
   <rv s="2">
     <v>28</v>
@@ -1684,24 +1684,24 @@
     <v>116.61</v>
     <v>91.9</v>
     <v>BVMF</v>
-    <v>107.78</v>
-    <v>105.12</v>
+    <v>105.71</v>
+    <v>104.78</v>
     <v>0.99819999999999998</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>12877822988</v>
-    <v>106.77</v>
-    <v>45076.947928240741</v>
+    <v>105.38</v>
+    <v>45077.758099258594</v>
     <v>30</v>
     <v>BRL</v>
     <v>iShares Ibovespa Fundo Indice</v>
-    <v>107.54</v>
-    <v>105.38</v>
+    <v>104.97</v>
+    <v>105.5</v>
     <v>BOVA11</v>
     <v>Fundos mais negociados</v>
     <v>iShares Ibovespa Fundo Indice (BVMF:BOVA11)</v>
-    <v>-1.39</v>
-    <v>-1.3019000000000001E-2</v>
-    <v>5935395</v>
+    <v>0.12</v>
+    <v>1.139E-3</v>
+    <v>3717181</v>
   </rv>
   <rv s="2">
     <v>31</v>
@@ -1726,22 +1726,22 @@
     <v>29.52</v>
     <v>17.93</v>
     <v>BVMF</v>
-    <v>27.77</v>
-    <v>26.33</v>
+    <v>26.69</v>
+    <v>26.14</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>27.3</v>
-    <v>45076.947916666664</v>
+    <v>26.62</v>
+    <v>45077.758090277777</v>
     <v>33</v>
     <v>BRL</v>
     <v>BCO BTG PACTUAL UNT</v>
-    <v>27.28</v>
-    <v>26.62</v>
+    <v>26.4</v>
+    <v>26.43</v>
     <v>BPAC11</v>
     <v>Fundos mais negociados</v>
     <v>BCO BTG PACTUAL UNT (BVMF:BPAC11)</v>
-    <v>-0.68</v>
-    <v>-2.4908E-2</v>
-    <v>14732200</v>
+    <v>-0.19</v>
+    <v>-7.1370000000000001E-3</v>
+    <v>5352800</v>
   </rv>
   <rv s="2">
     <v>34</v>
@@ -1767,32 +1767,32 @@
     <v>4.57</v>
     <v>BVMF</v>
     <v>615638600</v>
-    <v>6.71</v>
+    <v>6.61</v>
     <v>1966</v>
-    <v>6.54</v>
-    <v>1.4368000000000001</v>
+    <v>6.45</v>
+    <v>1.4305000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>4050901988</v>
+    <v>4032432830</v>
     <v>O BANCO PAN S.A., anteriormente Banco Panamericano S.A., é um banco comercial brasileiro. O Banco oferece uma variedade de serviços e produtos financeiros, incluindo empréstimos ao consumidor, leasing de veículos de passageiros e financiamento de vendas, entre outros. A empresa atua através de cinco segmentos principais: Financeiro, que oferece créditos ao consumidor, cartões de crédito, leasing e serviços de investimento; Consórcio, que se dedica à gestão de bens de terceiros, como automóveis, motocicletas, aparelhos eletrônicos e imóveis; Securitização de recebíveis; Promoção de vendas; e Outros. A empresa oferece seus serviços para clientes individuais e corporativos.</v>
     <v>BVMF</v>
-    <v>6.66</v>
+    <v>6.58</v>
     <v>2433</v>
-    <v>45076.947928240741</v>
+    <v>45077.758067129631</v>
     <v>36</v>
     <v>2387740</v>
     <v>BRL</v>
     <v>BANCO PAN S.A.</v>
     <v>BANCO PAN S.A.</v>
-    <v>6.64</v>
-    <v>6.58</v>
+    <v>6.52</v>
+    <v>6.55</v>
     <v>Avenida Paulista, 1374 16 andar, Bela Vista, SAO PAULO, SAO PAULO, 01.310-100 BR</v>
     <v>Banking Services</v>
     <v>BPAN4</v>
     <v>Ações</v>
     <v>BANCO PAN S.A. (BVMF:BPAN4)</v>
-    <v>-0.08</v>
-    <v>-1.2012E-2</v>
-    <v>3212900</v>
+    <v>-0.03</v>
+    <v>-4.5590000000000006E-3</v>
+    <v>817100</v>
   </rv>
   <rv s="2">
     <v>37</v>
@@ -1817,22 +1817,22 @@
     <v>66.72</v>
     <v>49.47</v>
     <v>BVMF</v>
-    <v>58.76</v>
-    <v>58.34</v>
+    <v>58.7</v>
+    <v>58.01</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>58.56</v>
-    <v>45076.947997685187</v>
+    <v>58.66</v>
+    <v>45077.758009259262</v>
     <v>39</v>
     <v>BRL</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
-    <v>58.56</v>
-    <v>58.66</v>
+    <v>58.62</v>
+    <v>58.69</v>
     <v>BRCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
-    <v>0.1</v>
-    <v>1.7080000000000001E-3</v>
-    <v>20032</v>
+    <v>0.03</v>
+    <v>5.1139999999999996E-4</v>
+    <v>14757</v>
   </rv>
   <rv s="2">
     <v>40</v>
@@ -1860,30 +1860,30 @@
     <v>797207800</v>
     <v>23.18</v>
     <v>1972</v>
-    <v>22.45</v>
-    <v>0.80659999999999998</v>
+    <v>22.55</v>
+    <v>0.8</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>18409060000</v>
+    <v>18171870000</v>
     <v>A Braskem S.A. produz resinas termoplásticas. Os segmentos da Companhia são Petroquímicos Básicos, Poliolefinas, Vinílicos, Estados Unidos e Europa e Distribuição Química. Também se dedica à importação e exportação de produtos químicos, petroquímicos e combustíveis, produção, fornecimento e venda de utilidades como vapor, água, ar comprimido, gases industriais, prestação de serviços industriais e produção, fornecimento e venda de Energia elétrica. Também investe em outras empresas, seja como sócia ou como acionista. Opera mais de 40 unidades industriais, das quais mais de 30 estão localizadas nos estados brasileiros de Alagoas, Bahia, Rio de Janeiro, Rio Grande do Sul e São Paulo; mais de cinco estão localizadas nos Estados Unidos, nos estados da Pensilvânia, Texas e West Virginia, e mais de duas estão localizadas na Alemanha, nas cidades de Wesseling e Schkopau. Essas unidades produzem resinas termoplásticas - polietileno, polipropileno e cloreto de polivinila, além de petroquímicos básicos.</v>
     <v>BVMF</v>
-    <v>22.89</v>
+    <v>22.7</v>
     <v>8126</v>
-    <v>45076.947928240741</v>
+    <v>45077.758106539062</v>
     <v>42</v>
     <v>4243210</v>
     <v>BRL</v>
     <v>BRASKEM S.A.</v>
     <v>BRASKEM S.A.</v>
-    <v>23.17</v>
-    <v>22.7</v>
+    <v>22.73</v>
+    <v>22.69</v>
     <v>Rua Eteno, N 1561, Polo petroquimico, Copec, CAMACARI, BAHIA, 42.816-200 BR</v>
     <v>Chemicals</v>
     <v>BRKM5</v>
     <v>Ações</v>
     <v>BRASKEM S.A. (BVMF:BRKM5)</v>
-    <v>-0.19</v>
-    <v>-8.3009999999999994E-3</v>
-    <v>2996800</v>
+    <v>-0.01</v>
+    <v>-4.4049999999999997E-4</v>
+    <v>2029300</v>
   </rv>
   <rv s="2">
     <v>43</v>
@@ -1905,36 +1905,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>12.5</v>
+    <v>12.52</v>
     <v>8.4499999999999993</v>
     <v>BVMF</v>
     <v>408974500</v>
-    <v>12.5</v>
+    <v>12.52</v>
     <v>1928</v>
-    <v>12.28</v>
-    <v>1.0551999999999999</v>
+    <v>12.19</v>
+    <v>1.0496000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5220056000</v>
+    <v>5214131000</v>
     <v>O Banco do Estado do Rio Grande do Sul S.A. é um banco comercial brasileiro que presta serviços bancários pessoais e corporativos. O Banrisul oferece uma variedade de produtos e serviços financeiros, como empréstimos pessoais e imobiliários, cartões de crédito e de débito, corretagem de títulos, gestão de portfólio, locação de veículos e equipamentos, serviços de investimento, apoio ao comércio internacional, e seguros de vida e patrimonial, entre outros.</v>
     <v>BVMF</v>
-    <v>12.4</v>
+    <v>12.31</v>
     <v>8804</v>
-    <v>45076.947928240741</v>
+    <v>45077.757966724217</v>
     <v>45</v>
     <v>1953730</v>
     <v>BRL</v>
     <v>Banco do Estado do Rio Grande do Sul S.A.</v>
     <v>Banco do Estado do Rio Grande do Sul S.A.</v>
-    <v>12.39</v>
-    <v>12.31</v>
+    <v>12.3</v>
+    <v>12.47</v>
     <v>Rua Capitao Montanha, 177, Centro, PORTO ALEGRE, RIO GRANDE DO SUL, 90.018-900 BR</v>
     <v>Banking Services</v>
     <v>BRSR6</v>
     <v>Ações</v>
     <v>Banco do Estado do Rio Grande do Sul S.A. (BVMF:BRSR6)</v>
-    <v>-0.09</v>
-    <v>-7.2579999999999997E-3</v>
-    <v>2813800</v>
+    <v>0.16</v>
+    <v>1.2998000000000001E-2</v>
+    <v>1458500</v>
   </rv>
   <rv s="2">
     <v>46</v>
@@ -1959,22 +1959,22 @@
     <v>9.5500000000000007</v>
     <v>8.1300000000000008</v>
     <v>BVMF</v>
-    <v>9.2899999999999991</v>
-    <v>9.1999999999999993</v>
+    <v>9.32</v>
+    <v>9.2100000000000009</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.25</v>
-    <v>45076.947997685187</v>
+    <v>9.2200000000000006</v>
+    <v>45077.7580787037</v>
     <v>48</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII BTG PACTUAL FUNDO DE CRI CF</v>
-    <v>9.27</v>
-    <v>9.2200000000000006</v>
+    <v>9.23</v>
+    <v>9.23</v>
     <v>BTCI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII BTG PACTUAL FUNDO DE CRI CF (BVMF:BTCI11)</v>
-    <v>-0.03</v>
-    <v>-3.2429999999999998E-3</v>
-    <v>151563</v>
+    <v>0.01</v>
+    <v>1.085E-3</v>
+    <v>143361</v>
   </rv>
   <rv s="2">
     <v>49</v>
@@ -1999,22 +1999,22 @@
     <v>99.5</v>
     <v>88.29</v>
     <v>BVMF</v>
-    <v>98</v>
-    <v>97.63</v>
+    <v>98.69</v>
+    <v>97.68</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>97.63</v>
-    <v>45076.947997685187</v>
+    <v>97.99</v>
+    <v>45077.757962962962</v>
     <v>51</v>
     <v>BRL</v>
     <v>BTG PACTUAL LOGISTICA FDO INV IMOB - FII ETF</v>
-    <v>97.63</v>
     <v>97.99</v>
+    <v>98.6</v>
     <v>BTLG11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL LOGISTICA FDO INV IMOB - FII ETF (BVMF:BTLG11)</v>
-    <v>0.36</v>
-    <v>3.6870000000000002E-3</v>
-    <v>24934</v>
+    <v>0.61</v>
+    <v>6.2250000000000005E-3</v>
+    <v>20912</v>
   </rv>
   <rv s="2">
     <v>52</v>
@@ -2039,22 +2039,22 @@
     <v>92.28</v>
     <v>67.72</v>
     <v>BVMF</v>
-    <v>79.13</v>
+    <v>79.19</v>
+    <v>77.81</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>77.8</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>78.349999999999994</v>
-    <v>45076.947997685187</v>
+    <v>45077.757141203707</v>
     <v>54</v>
     <v>BRL</v>
     <v>FII BTG PACTUAL TERRAS AGRICOLAS CEF</v>
-    <v>78.7</v>
-    <v>77.8</v>
+    <v>77.81</v>
+    <v>78.260000000000005</v>
     <v>BTRA11</v>
     <v>Fundos mais negociados</v>
     <v>FII BTG PACTUAL TERRAS AGRICOLAS CEF (BVMF:BTRA11)</v>
-    <v>-0.55000000000000004</v>
-    <v>-7.0199999999999993E-3</v>
-    <v>9340</v>
+    <v>0.46</v>
+    <v>5.9130000000000007E-3</v>
+    <v>3024</v>
   </rv>
   <rv s="2">
     <v>55</v>
@@ -2076,25 +2076,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>106.65</v>
+    <v>106.97</v>
     <v>84.46</v>
     <v>BVMF</v>
-    <v>106.65</v>
-    <v>106.17</v>
+    <v>106.97</v>
+    <v>106.5</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>106.49</v>
-    <v>45076.947997685187</v>
+    <v>106.5</v>
+    <v>45077.75756975625</v>
     <v>57</v>
     <v>BRL</v>
     <v>SUPERNOVA FII- RECEB IMOB.</v>
-    <v>106.49</v>
     <v>106.5</v>
+    <v>106.7</v>
     <v>CACR11</v>
     <v>Fundos mais negociados</v>
     <v>SUPERNOVA FII- RECEB IMOB. (BVMF:CACR11)</v>
-    <v>0.01</v>
-    <v>9.391E-5</v>
-    <v>5021</v>
+    <v>0.2</v>
+    <v>1.8779999999999999E-3</v>
+    <v>3235</v>
   </rv>
   <rv s="2">
     <v>58</v>
@@ -2120,32 +2120,32 @@
     <v>13.09</v>
     <v>BVMF</v>
     <v>1874071000</v>
-    <v>15.51</v>
+    <v>15.21</v>
     <v>1966</v>
-    <v>14.92</v>
-    <v>1.0475000000000001</v>
+    <v>14.95</v>
+    <v>1.0488999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>28862970000</v>
+    <v>28354694230</v>
     <v>A Cosan SA, anteriormente conhecida como Cosan SA Indústria e Comércio, é uma empresa sediada no Brasil que atua principalmente no setor de marketing de petróleo. As atividades da Companhia estão divididas em seis segmentos de negócios: Raizen Energia, que produz e distribui derivados de cana-de-açúcar, como açúcar bruto e etanol hidratado, e co-gera energia a partir do bagaço de cana; Raizen Combustiveis, que distribui combustível, principalmente através de uma rede de postos de gasolina sob a marca Shell; Comgas, que se concentra na distribuição de gás natural no estado de São Paulo, Brasil; Radar, responsável pela compra, venda, gerenciamento e arrendamento de terras agrícolas; Lubrificantes, que fabrica e vende lubrificantes sob a marca Mobil no mercado latino-americano, bem como a marca Comma no mercado europeu e asiático, e Outros, que inclui investimentos em outros negócios. A Companhia é uma subsidiária da Cosan Ltd.</v>
     <v>BVMF</v>
-    <v>15.33</v>
+    <v>15.06</v>
     <v>53498</v>
-    <v>45076.947916666664</v>
+    <v>45077.758091596872</v>
     <v>60</v>
     <v>8821490</v>
     <v>BRL</v>
     <v>COSAN S.A.</v>
     <v>COSAN S.A.</v>
-    <v>15.5</v>
-    <v>15.06</v>
+    <v>15.05</v>
+    <v>15.13</v>
     <v>Av. Brigadeiro Faria Lima, 4.100 / 15 andar, Itaim Bibi, SAO PAULO, SAO PAULO, 04.538-132 BR</v>
     <v>Oil &amp; Gas</v>
     <v>CSAN3</v>
     <v>Ações</v>
     <v>COSAN S.A. (BVMF:CSAN3)</v>
-    <v>-0.27</v>
-    <v>-1.7613E-2</v>
-    <v>10277800</v>
+    <v>7.0000000000000007E-2</v>
+    <v>4.6480000000000002E-3</v>
+    <v>3793800</v>
   </rv>
   <rv s="2">
     <v>61</v>
@@ -2171,32 +2171,32 @@
     <v>2.52</v>
     <v>BVMF</v>
     <v>277247300</v>
-    <v>3.25</v>
+    <v>3.15</v>
     <v>2009</v>
-    <v>2.97</v>
-    <v>2.1671</v>
+    <v>2.92</v>
+    <v>2.1634000000000002</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>826196954</v>
+    <v>867784049</v>
     <v>A CVC Brasil Operadora e Agência de Viagens SA é uma empresa sediada no Brasil, envolvida no setor de turismo. A Companhia oferece pacotes turísticos nacionais e internacionais, cruzeiros, estadias em hotéis e resorts, passagens aéreas e passeios turísticos. Seus pacotes de viagem combinam passagens aéreas, transporte terrestre, acomodações, seguro de viagem, guias turísticos e outros serviços complementares de viagem. Além disso, organiza intercâmbios internacionais, acampamentos de idiomas e viagens para adolescentes. A Companhia vende produtos e serviços através de lojas próprias, plataformas de distribuição online e agentes independentes autorizados. Seus destinos incluem principalmente a Europa e as Américas. A Companhia possui várias subsidiárias no Brasil e na Argentina, como CVC Serviços Agencia de Viagens Ltda e CVC Turismo SAU, entre outras.</v>
     <v>BVMF</v>
-    <v>3.1</v>
+    <v>2.98</v>
     <v>2000</v>
-    <v>45076.947916666664</v>
+    <v>45077.758008888282</v>
     <v>63</v>
     <v>31505860</v>
     <v>BRL</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A.</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A.</v>
-    <v>3.11</v>
-    <v>2.98</v>
+    <v>2.99</v>
+    <v>3.13</v>
     <v>Rua da Catequese, 227, 11 andar, sala 111, Bairro Jardim, SANTO ANDRE, SAO PAULO, 09.090-401 BR</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>CVCB3</v>
     <v>Ações</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A. (BVMF:CVCB3)</v>
-    <v>-0.12</v>
-    <v>-3.8710000000000001E-2</v>
-    <v>35245400</v>
+    <v>0.15</v>
+    <v>5.0335999999999999E-2</v>
+    <v>20716500</v>
   </rv>
   <rv s="2">
     <v>64</v>
@@ -2222,31 +2222,31 @@
     <v>11.16</v>
     <v>BVMF</v>
     <v>399742800</v>
-    <v>19.149999999999999</v>
+    <v>18.920000000000002</v>
     <v>1993</v>
-    <v>18.440000000000001</v>
-    <v>1.6548</v>
+    <v>18.28</v>
+    <v>1.6471</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7415228940</v>
+    <v>7547144064</v>
     <v>A Cyrela Brazil Realty S.A. Empreendimentos e Participações, anteriormente denominada Cyrela Brasil Realty SA Empreendimentos e Participações, é uma empresa brasileira envolvida no setor imobiliário. A Empresa está envolvida principalmente na construção, incorporação, corretagem e venda de imóveis residenciais. Além disso, ela fornece serviços de desmembramento de terrenos e serviços complementares para seus clientes. Em 31 de dezembro de 2011, a Empresa possuía diversas subsidiárias, incluindo a ABC Realty de Investimento Imobiliário Ltda., a Andorra Empreendimentos Imobiliários Ltda., a BR-Serviços e Investimentos Ltda.-Bahamas, a Barão de Miracema Empreendimentos Imobiliários Ltda., a Boa Vista Empreendimentos Imobiliários Spe Ltda., a Bretanha Empreendimentos Imobiliários Ltda. e a Cabo Frio Empreendimentos Imobiliários Ltda., entre outras.</v>
     <v>BVMF</v>
-    <v>18.79</v>
-    <v>45076.947928240741</v>
+    <v>18.55</v>
+    <v>45077.758067789066</v>
     <v>66</v>
     <v>6067820</v>
     <v>BRL</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações</v>
+    <v>18.399999999999999</v>
     <v>18.88</v>
-    <v>18.55</v>
     <v>Rua do Rocio,109, 2 andar, Vila Olimpia, SAO PAULO, SAO PAULO, 04.552-000 BR</v>
     <v>Real Estate Operations</v>
     <v>CYRE3</v>
     <v>Ações</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações (BVMF:CYRE3)</v>
-    <v>-0.24</v>
-    <v>-1.2773000000000001E-2</v>
-    <v>5617600</v>
+    <v>0.33</v>
+    <v>1.779E-2</v>
+    <v>5296900</v>
   </rv>
   <rv s="2">
     <v>67</v>
@@ -2272,32 +2272,32 @@
     <v>8.26</v>
     <v>BVMF</v>
     <v>150000000</v>
-    <v>17.440000000000001</v>
+    <v>17.510000000000002</v>
     <v>1981</v>
-    <v>17.100000000000001</v>
-    <v>1.3366</v>
+    <v>17.07</v>
+    <v>1.3412999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>2599499999</v>
+    <v>2616000000</v>
     <v>A DIRECIONAL ENGENHARIA S.A. é uma empresa do setor imobiliário residencial estabelecida no Brasil. A empresa se concentra no desenvolvimento e na construção de projetos habitacionais residenciais, com foco no segmento de baixa renda. Constrói principalmente casas multifamiliares, que formam um bairro residencial. A empresa desenvolve suas atividades por meio de parcerias especiais (SCPs) e entidades com finalidade especial (SPEs), que atuam exclusivamente no setor imobiliário. Opera nos seguintes estados do Brasil, dentre outros: Rio de Janeiro, São Paulo, Rio Grande do Sul, Minas Gerais, Pará e Amazonas. A empresa detém inúmeras subsidiárias, como a Direcional Taguatinga Engenharia Ltda., Ametista Empreendimentos Imobiliários Ltda. e Malaquita Empreendimentos Imobiliários Ltda.</v>
     <v>BVMF</v>
-    <v>17.190000000000001</v>
+    <v>17.329999999999998</v>
     <v>745</v>
-    <v>45076.947928240741</v>
+    <v>45077.757997685185</v>
     <v>69</v>
     <v>2203270</v>
     <v>BRL</v>
     <v>DIRECIONAL ENGENHARIA S.A.</v>
     <v>DIRECIONAL ENGENHARIA S.A.</v>
-    <v>17.27</v>
     <v>17.329999999999998</v>
+    <v>17.440000000000001</v>
     <v>Rua dos Otoni, 177, Santa Efigenia, BELO HORIZONTE, MINAS GERAIS, 30.150-270 BR</v>
     <v>Real Estate Operations</v>
     <v>DIRR3</v>
     <v>Ações</v>
     <v>DIRECIONAL ENGENHARIA S.A. (BVMF:DIRR3)</v>
-    <v>0.14000000000000001</v>
-    <v>8.1440000000000002E-3</v>
-    <v>1451400</v>
+    <v>0.11</v>
+    <v>6.3470000000000002E-3</v>
+    <v>767300</v>
   </rv>
   <rv s="2">
     <v>70</v>
@@ -2343,33 +2343,33 @@
     <v>31.35</v>
     <v>BVMF</v>
     <v>2301228000</v>
-    <v>39.200000000000003</v>
+    <v>39.78</v>
     <v>1962</v>
-    <v>38.53</v>
-    <v>1.1706000000000001</v>
+    <v>38.56</v>
+    <v>1.1745000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>81192100000</v>
+    <v>81273970000</v>
     <v>A Centrais Elétricas Brasileiras S.A. é uma empresa de energia elétrica. A Empresa atua nos segmentos de geração, transmissão, distribuição e comercialização. A Empresa opera por intermédio de várias empresas, incluindo a holding Eletrobrás, CGTEE, Chesf, Eletronorte, Eletronuclear, Eletrosul, Furnas, Amazonas Energia, Distribuição Acre, Distribuição Alagoas, Distribuição Piauí, Distribuição Rondônia, Distribuição Roraima e metade do capital da Itaipu Binacional. A Empresa tem uma capacidade total instalada para geração de mais de 44.150 megawatts. Possui uma rede nacional de linhas de transmissão de aproximadamente 60.500 quilômetros de extensão. A Usina Megawatt Solar da Eletrobrás Eletrosul tem mais de 4.000 painéis fotovoltaicos, totalizando uma área de aproximadamente 8.300 metros quadrados. A Usina Megawatt Solar da Eletrobrás Eletrosul tem uma capacidade instalada de aproximadamente 1 megawatt-pico (MWp), e a Usina Megawatt Solar pode produzir aproximadamente 1,2 gigawatt/hora (GWh).</v>
     <v>BVMF</v>
-    <v>38.89</v>
+    <v>38.82</v>
     <v>9529</v>
-    <v>45076.947928240741</v>
+    <v>45077.757987928126</v>
     <v>75</v>
     <v>76</v>
     <v>2543250</v>
     <v>BRL</v>
     <v>Centrais Elétricas Brasileiras S.A.</v>
     <v>Centrais Elétricas Brasileiras S.A.</v>
-    <v>39.090000000000003</v>
-    <v>38.82</v>
+    <v>38.85</v>
+    <v>39.700000000000003</v>
     <v>Rua da Quitanda, 196 Lj A, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.091-005 BR</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>ELET6</v>
     <v>Ações</v>
     <v>Centrais Elétricas Brasileiras S.A. (BVMF:ELET6)</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-1.8E-3</v>
-    <v>2283700</v>
+    <v>0.88</v>
+    <v>2.2669000000000002E-2</v>
+    <v>1626700</v>
   </rv>
   <rv s="2">
     <v>77</v>
@@ -2395,32 +2395,32 @@
     <v>21.56</v>
     <v>BVMF</v>
     <v>1129315000</v>
-    <v>28.5</v>
+    <v>28.3</v>
     <v>1999</v>
-    <v>28.02</v>
-    <v>0.93530000000000002</v>
+    <v>27.96</v>
+    <v>0.93820000000000003</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>31891870000</v>
+    <v>31869269300</v>
     <v>A Equatorial Energia SA (Equatorial) é uma empresa sediada no Brasil que atua no setor de energia. A Companhia tem participação acionária em outras empresas, todas no ramo de energia elétrica, principalmente com operações relacionadas à geração ou distribuição de energia elétrica. As atividades da Companhia estão divididas em quatro segmentos: distribuição, responsável pela distribuição de energia nos estados do Maranhão e Pará; geração, gerando eletricidade por meio de usinas termoelétricas; serviços/vendas, oferecendo comercialização de energia elétrica, serviços de faturamento, bem como manutenção de instalações elétricas, entre outros; e gestão central, incluindo de operações corporativas e administrativas. A Companhia opera por meio de várias subsidiárias, como a Companhia Energética do Maranhão (CEMAR), a Centrais Elétricas do Pará S.A. (CELPA), Geradora de Energia do Norte S.A. (Getamar), a Companhia Energética do Piauí e a Equatorial Soluções S.A.</v>
     <v>BVMF</v>
-    <v>28.24</v>
+    <v>28.1</v>
     <v>1178</v>
-    <v>45076.947928240741</v>
+    <v>45077.75810304375</v>
     <v>79</v>
     <v>7930300</v>
     <v>BRL</v>
     <v>EQUATORIAL ENERGIA S.A.</v>
     <v>EQUATORIAL ENERGIA S.A.</v>
-    <v>28.41</v>
-    <v>28.1</v>
+    <v>28.04</v>
+    <v>28.22</v>
     <v>Alameda A, Quadra SQS, n 100, Loteamento Quitandinha,Anexo A, sala 31, Altos do Calhau, SAO LUIS, MARANHAO, 65.070-900 BR</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>EQTL3</v>
     <v>Ações</v>
     <v>EQUATORIAL ENERGIA S.A. (BVMF:EQTL3)</v>
-    <v>-0.14000000000000001</v>
-    <v>-4.9580000000000006E-3</v>
-    <v>10612800</v>
+    <v>0.12</v>
+    <v>4.2699999999999995E-3</v>
+    <v>2284900</v>
   </rv>
   <rv s="2">
     <v>80</v>
@@ -2446,21 +2446,21 @@
     <v>9.44</v>
     <v>BVMF</v>
     <v>9.67</v>
-    <v>9.58</v>
+    <v>9.59</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.65</v>
-    <v>45076.947916666664</v>
+    <v>9.66</v>
+    <v>45077.7580787037</v>
     <v>82</v>
     <v>BRL</v>
     <v>FGAGRO FII FIAGRO CF</v>
     <v>9.66</v>
-    <v>9.66</v>
+    <v>9.6</v>
     <v>FGAA11</v>
     <v>Fundos mais negociados</v>
     <v>FGAGRO FII FIAGRO CF (BVMF:FGAA11)</v>
-    <v>0.01</v>
-    <v>1.036E-3</v>
-    <v>95113</v>
+    <v>-0.06</v>
+    <v>-6.2109999999999995E-3</v>
+    <v>64171</v>
   </rv>
   <rv s="2">
     <v>83</v>
@@ -2486,32 +2486,32 @@
     <v>13.45</v>
     <v>BVMF</v>
     <v>367197100</v>
-    <v>16.34</v>
+    <v>15.93</v>
     <v>1964</v>
-    <v>15.81</v>
-    <v>0.64780000000000004</v>
+    <v>15.54</v>
+    <v>0.6431</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5853121774</v>
+    <v>5750306586</v>
     <v>A Fleury SA é uma empresa sediada no Brasil que presta serviços de laboratório médico. As atividades da Companhia estão divididas em três linhas de negócios: Centros de Atendimento ao Paciente (PSC), B2B e Diagnóstico Odontológico. A divisão PCS oferece diagnóstico médico privado. A divisão B2B é responsável pela análise clínica e diagnóstico por imagem em hospitais parceiros, além de testes para laboratórios, hospitais e clínicas em todo o Brasil. A divisão de Diagnóstico Odontológico fornece imagens de diagnóstico odontológico por meio da Papaiz Associados Diagnosticos por Imagem SA, uma joint venture com a Odontoprev SA. A Companhia opera através de várias marcas, como Fleury Medicina e Saúde, Clínica Felippe Mattoso e Weinmann, a + Medicina Diagnóstica, Diagnoson a +, Diagmax e Inlab, entre outras.</v>
     <v>BVMF</v>
-    <v>16.100000000000001</v>
+    <v>15.94</v>
     <v>16700</v>
-    <v>45076.947928240741</v>
+    <v>45077.7580787037</v>
     <v>85</v>
     <v>3924250</v>
     <v>BRL</v>
     <v>Fleury S.A.</v>
     <v>Fleury S.A.</v>
-    <v>16.21</v>
-    <v>15.94</v>
+    <v>15.93</v>
+    <v>15.66</v>
     <v>Av. General Valdomiro de Lima, 508, Jabaquara, SAO PAULO, SAO PAULO, 04.344-070 BR</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>FLRY3</v>
     <v>Ações</v>
     <v>Fleury S.A. (BVMF:FLRY3)</v>
-    <v>-0.16</v>
-    <v>-9.9380000000000007E-3</v>
-    <v>4007400</v>
+    <v>-0.28000000000000003</v>
+    <v>-1.7565999999999998E-2</v>
+    <v>2276600</v>
   </rv>
   <rv s="2">
     <v>86</v>
@@ -2537,21 +2537,21 @@
     <v>8.02</v>
     <v>BVMF</v>
     <v>8.6999999999999993</v>
-    <v>8.61</v>
+    <v>8.65</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>8.67</v>
-    <v>45076.947997685187</v>
+    <v>8.65</v>
+    <v>45077.75794451328</v>
     <v>88</v>
     <v>BRL</v>
     <v>FII GUARDIAN MULTIESTRATEGIA I CF</v>
-    <v>8.67</v>
     <v>8.65</v>
+    <v>8.69</v>
     <v>GAME11</v>
     <v>Fundos mais negociados</v>
     <v>FII GUARDIAN MULTIESTRATEGIA I CF (BVMF:GAME11)</v>
-    <v>-0.02</v>
-    <v>-2.307E-3</v>
-    <v>8805</v>
+    <v>0.04</v>
+    <v>4.6239999999999996E-3</v>
+    <v>5448</v>
   </rv>
   <rv s="2">
     <v>89</v>
@@ -2576,22 +2576,22 @@
     <v>105.56</v>
     <v>89</v>
     <v>BVMF</v>
-    <v>93.79</v>
-    <v>93.32</v>
+    <v>93.9</v>
+    <v>93.4</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>93.54</v>
-    <v>45076.947916666664</v>
+    <v>93.75</v>
+    <v>45077.757708333331</v>
     <v>91</v>
     <v>BRL</v>
     <v>GALAPAGOS CAPITAL INV E PARTICIP CEF</v>
-    <v>93.54</v>
-    <v>93.75</v>
+    <v>93.9</v>
+    <v>93.55</v>
     <v>GCRA11</v>
     <v>Fundos mais negociados</v>
     <v>GALAPAGOS CAPITAL INV E PARTICIP CEF (BVMF:GCRA11)</v>
-    <v>0.21</v>
-    <v>2.245E-3</v>
-    <v>1158</v>
+    <v>-0.2</v>
+    <v>-2.1329999999999999E-3</v>
+    <v>2207</v>
   </rv>
   <rv s="2">
     <v>92</v>
@@ -2616,22 +2616,22 @@
     <v>91.92</v>
     <v>83.15</v>
     <v>BVMF</v>
-    <v>91.54</v>
-    <v>89.78</v>
+    <v>91.55</v>
+    <v>89.81</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.8</v>
-    <v>45076.947997685187</v>
+    <v>89.89</v>
+    <v>45077.756775034373</v>
     <v>94</v>
     <v>BRL</v>
     <v>GALAPAGOS RECEBIVEIS IMOB FII CF</v>
-    <v>89.78</v>
-    <v>89.89</v>
+    <v>90.14</v>
+    <v>89.9</v>
     <v>GCRI11</v>
     <v>Fundos mais negociados</v>
     <v>GALAPAGOS RECEBIVEIS IMOB FII CF (BVMF:GCRI11)</v>
-    <v>0.09</v>
-    <v>1.0020000000000001E-3</v>
-    <v>3067</v>
+    <v>0.01</v>
+    <v>1.1119999999999999E-4</v>
+    <v>1892</v>
   </rv>
   <rv s="2">
     <v>95</v>
@@ -2657,32 +2657,32 @@
     <v>17.809999999999999</v>
     <v>BVMF</v>
     <v>1757067000</v>
-    <v>25.17</v>
+    <v>24.35</v>
     <v>1961</v>
-    <v>24.22</v>
-    <v>1.073</v>
+    <v>23.85</v>
+    <v>1.0768</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>41664920000</v>
+    <v>40786160000</v>
     <v>A Gerdau S.A. (Gerdau) é uma fabricante de aços longos nas Américas do Norte e do Sul. A Companhia atua na produção e comercialização de produtos siderúrgicos em geral, através de suas usinas localizadas na Argentina, Brasil, Canadá, Chile, Colômbia, Espanha, Estados Unidos, Guatemala, Índia, México, Peru, República Dominicana, Uruguai e Venezuela. Seus segmentos são Operações Brasil, que incluem operações de ferro e aço no Brasil, com exceção de Aços Especiais, e a operação de carvão metalúrgico e coque na Colômbia; Operações na América do Norte, que incluem todas as operações na América do Norte, exceto as do México e Aços Especiais; Operações na América do Sul, que incluem todas as operações na América do Sul, exceto Brasil e a operação de carvão metalúrgico e coque na Colômbia; e Operações Aços Especiais, incluindo operações de aços especiais no Brasil, Espanha, Estados Unidos e Índia. Fornece aos seus clientes uma gama de produtos, incluindo produtos semi-acabados de minério de ferro.</v>
     <v>BVMF</v>
-    <v>24.95</v>
+    <v>24.32</v>
     <v>40061</v>
-    <v>45076.947916666664</v>
+    <v>45077.758109015624</v>
     <v>97</v>
     <v>11789200</v>
     <v>BRL</v>
     <v>GERDAU S.A.</v>
     <v>GERDAU S.A.</v>
-    <v>25.17</v>
-    <v>24.32</v>
+    <v>24.12</v>
+    <v>23.97</v>
     <v>Avenida Doutora Ruth Cardoso, 8.501, 8 andar, Pinheiros, SAO PAULO, SAO PAULO, 05.425-070 BR</v>
     <v>Metals &amp; Mining</v>
     <v>GGBR4</v>
     <v>Ações</v>
     <v>GERDAU S.A. (BVMF:GGBR4)</v>
-    <v>-0.63</v>
-    <v>-2.5251000000000003E-2</v>
-    <v>8756900</v>
+    <v>-0.35</v>
+    <v>-1.4391000000000001E-2</v>
+    <v>6296000</v>
   </rv>
   <rv s="2">
     <v>98</v>
@@ -2708,32 +2708,32 @@
     <v>8.18</v>
     <v>BVMF</v>
     <v>1033841000</v>
-    <v>11.72</v>
+    <v>11.32</v>
     <v>1901</v>
-    <v>11.29</v>
-    <v>1.1236999999999999</v>
+    <v>11.14</v>
+    <v>1.1271</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>11750350000</v>
+    <v>11490080000</v>
     <v>A Metalúrgica Gerdau S.A., anteriormente Metalúrgica Hugo Gerdau S.A., é uma empresa brasileira que se dedica ao setor de produção de aço. A Empresa se concentra na fabricação de itens de aço longo e plano, essencialmente através do processo de fabricação em fornos elétricos, a partir de sucata de metal e ferro-gusa comprado, bem como na produção de aço a partir de minério de ferro em alto-forno e por redução direta. Suas atividades se dividem em quatro segmentos: Operações no Brasil, Operações na América do Norte, Operações na América Latina e Unidade de aço especial. Seus produtos são distribuídos em diversos setores, como da construção civil, agricultura e indústria automotiva, e a Empresa opera fábricas no Brasil, Argentina, Chile, Colômbia, México, Peru, Venezuela, Estados Unidos, Canadá, Espanha e Índia, entre outros.</v>
     <v>BVMF</v>
-    <v>11.62</v>
+    <v>11.34</v>
     <v>45000</v>
-    <v>45076.947916666664</v>
+    <v>45077.758067129631</v>
     <v>100</v>
     <v>7130850</v>
     <v>BRL</v>
     <v>METALURGICA GERDAU S.A.</v>
     <v>METALURGICA GERDAU S.A.</v>
-    <v>11.72</v>
-    <v>11.34</v>
+    <v>11.25</v>
+    <v>11.21</v>
     <v>Avenida Doutora Ruth Cardoso, 8.501,8 andar, Pinheiros, SAO PAULO, SAO PAULO, 05.425-070 BR</v>
     <v>Metals &amp; Mining</v>
     <v>GOAU4</v>
     <v>Ações</v>
     <v>METALURGICA GERDAU S.A. (BVMF:GOAU4)</v>
-    <v>-0.28000000000000003</v>
-    <v>-2.4096000000000003E-2</v>
-    <v>6409600</v>
+    <v>-0.13</v>
+    <v>-1.1464E-2</v>
+    <v>3860400</v>
   </rv>
   <rv s="2">
     <v>101</v>
@@ -2759,31 +2759,31 @@
     <v>1.93</v>
     <v>BVMF</v>
     <v>7473595000</v>
-    <v>4.1100000000000003</v>
+    <v>4.09</v>
     <v>2001</v>
-    <v>3.88</v>
-    <v>1.1480999999999999</v>
+    <v>3.91</v>
+    <v>1.1351</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>30342795699</v>
+    <v>29670172150</v>
     <v>Hapvida Participacoes e Investimentos SA (Hapvida) é uma holding brasileira de saúde. A Companhia e suas controladas têm como atividades principais a cobertura de custos de assistência médica, hospitalar e odontológica de seus associados, a prestação de serviços médicos, hospitalares e odontológicos e exames e diagnósticos por imagem. A Hapvida tem diferentes instalações de saúde, como hospitais, clínicas ou unidades de diagnóstico por imagem. A Companhia opera no Nordeste do Brasil, em mais de 10 estados, como Alagoas, Amazonas, Bahia, Pernambuco, Rio Grande do Norte, Sergipe, entre outros.</v>
     <v>BVMF</v>
-    <v>3.9</v>
-    <v>45076.947916666664</v>
+    <v>4.0599999999999996</v>
+    <v>45077.7580787037</v>
     <v>103</v>
-    <v>134583330</v>
+    <v>119937120</v>
     <v>BRL</v>
     <v>Hapvida Participações e Investimentos S/A</v>
     <v>Hapvida Participações e Investimentos S/A</v>
-    <v>3.96</v>
-    <v>4.0599999999999996</v>
+    <v>4.05</v>
+    <v>3.97</v>
     <v>Avenida Heraclito Graca n 406, Centro, FORTALEZA, CEARA, 60.140-060 BR</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>HAPV3</v>
     <v>Ações</v>
     <v>Hapvida Participações e Investimentos S/A (BVMF:HAPV3)</v>
-    <v>0.16</v>
-    <v>4.1026E-2</v>
-    <v>107804400</v>
+    <v>-0.09</v>
+    <v>-2.2166999999999999E-2</v>
+    <v>48818000</v>
   </rv>
   <rv s="2">
     <v>104</v>
@@ -2808,22 +2808,22 @@
     <v>164.49</v>
     <v>142.03</v>
     <v>BVMF</v>
-    <v>159.37</v>
-    <v>158.74</v>
+    <v>159.06</v>
+    <v>158.55000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>159.34</v>
-    <v>45076.947997685187</v>
+    <v>159.08000000000001</v>
+    <v>45077.758043981485</v>
     <v>106</v>
     <v>BRL</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF</v>
-    <v>159.35</v>
-    <v>159.08000000000001</v>
+    <v>159</v>
+    <v>158.82</v>
     <v>HGLG11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF (BVMF:HGLG11)</v>
     <v>-0.26</v>
-    <v>-1.6320000000000002E-3</v>
-    <v>71072</v>
+    <v>-1.6339999999999998E-3</v>
+    <v>76119</v>
   </rv>
   <rv s="2">
     <v>107</v>
@@ -2845,25 +2845,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>125</v>
+    <v>125.47</v>
     <v>106.01</v>
     <v>BVMF</v>
-    <v>124.92</v>
-    <v>124</v>
+    <v>125.47</v>
+    <v>123.96</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>124.79</v>
-    <v>45076.947997685187</v>
+    <v>124.54</v>
+    <v>45077.758038367967</v>
     <v>109</v>
     <v>BRL</v>
     <v>CSHG RENDA URBANA FII CF</v>
-    <v>124.79</v>
     <v>124.54</v>
+    <v>125.38</v>
     <v>HGRU11</v>
     <v>Fundos mais negociados</v>
     <v>CSHG RENDA URBANA FII CF (BVMF:HGRU11)</v>
-    <v>-0.25</v>
-    <v>-2.003E-3</v>
-    <v>24293</v>
+    <v>0.84</v>
+    <v>6.7450000000000001E-3</v>
+    <v>22821</v>
   </rv>
   <rv s="2">
     <v>110</v>
@@ -2888,22 +2888,22 @@
     <v>93.28</v>
     <v>72.510000000000005</v>
     <v>BVMF</v>
-    <v>88.1</v>
-    <v>86.31</v>
+    <v>87.96</v>
+    <v>86.33</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>87.5</v>
-    <v>45076.947997685187</v>
+    <v>86.75</v>
+    <v>45077.757881944446</v>
     <v>112</v>
     <v>BRL</v>
     <v>HSI LOGISTICA FDO INV IMOB CF</v>
-    <v>87.5</v>
-    <v>86.75</v>
+    <v>86.86</v>
+    <v>87.39</v>
     <v>HSLG11</v>
     <v>Fundos mais negociados</v>
     <v>HSI LOGISTICA FDO INV IMOB CF (BVMF:HSLG11)</v>
-    <v>-0.75</v>
-    <v>-8.5710000000000005E-3</v>
-    <v>10356</v>
+    <v>0.64</v>
+    <v>7.378E-3</v>
+    <v>2969</v>
   </rv>
   <rv s="2">
     <v>113</v>
@@ -2928,22 +2928,22 @@
     <v>89.35</v>
     <v>69.66</v>
     <v>BVMF</v>
-    <v>87.53</v>
-    <v>86.52</v>
+    <v>88.21</v>
+    <v>87.3</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>86.9</v>
-    <v>45076.947997685187</v>
+    <v>87.1</v>
+    <v>45077.758057256251</v>
     <v>115</v>
     <v>BRL</v>
     <v>HSI MALLS FI IMOBILIARIO ETF</v>
-    <v>86.99</v>
-    <v>87.1</v>
+    <v>87.3</v>
+    <v>88.02</v>
     <v>HSML11</v>
     <v>Fundos mais negociados</v>
     <v>HSI MALLS FI IMOBILIARIO ETF (BVMF:HSML11)</v>
-    <v>0.2</v>
-    <v>2.3010000000000001E-3</v>
-    <v>24448</v>
+    <v>0.92</v>
+    <v>1.0562999999999999E-2</v>
+    <v>14564</v>
   </rv>
   <rv s="2">
     <v>116</v>
@@ -2968,22 +2968,22 @@
     <v>86.06</v>
     <v>66.64</v>
     <v>BVMF</v>
-    <v>77.27</v>
-    <v>76.52</v>
+    <v>77.3</v>
+    <v>76.72</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>77</v>
-    <v>45076.947997685187</v>
+    <v>76.7</v>
+    <v>45077.757685185185</v>
     <v>118</v>
     <v>BRL</v>
     <v>FDO DE INV IMOBILIARIO DE CRI INTEGRAL BREI CF</v>
-    <v>77.260000000000005</v>
-    <v>76.7</v>
+    <v>77.290000000000006</v>
+    <v>77.3</v>
     <v>IBCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO DE INV IMOBILIARIO DE CRI INTEGRAL BREI CF (BVMF:IBCR11)</v>
-    <v>-0.3</v>
-    <v>-3.8960000000000002E-3</v>
-    <v>1028</v>
+    <v>0.6</v>
+    <v>7.8230000000000001E-3</v>
+    <v>582</v>
   </rv>
   <rv s="2">
     <v>119</v>
@@ -3008,22 +3008,22 @@
     <v>110.96</v>
     <v>93.63</v>
     <v>BVMF</v>
-    <v>101.98</v>
-    <v>101.21</v>
+    <v>102.1</v>
+    <v>100.26</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>101.03</v>
-    <v>45076.947916666664</v>
+    <v>101.75</v>
+    <v>45077.758020833331</v>
     <v>121</v>
     <v>BRL</v>
     <v>ITAU FDO INV EM COTAS DE FIDC DE INFRAESTRUTURA</v>
-    <v>101.48</v>
-    <v>101.75</v>
+    <v>102</v>
+    <v>101.22</v>
     <v>IFRA11</v>
     <v>Fundos mais negociados</v>
     <v>ITAU FDO INV EM COTAS DE FIDC DE INFRAESTRUTURA (BVMF:IFRA11)</v>
-    <v>0.72</v>
-    <v>7.1269999999999997E-3</v>
-    <v>6384</v>
+    <v>-0.53</v>
+    <v>-5.2090000000000001E-3</v>
+    <v>17064</v>
   </rv>
   <rv s="2">
     <v>122</v>
@@ -3049,32 +3049,32 @@
     <v>6.87</v>
     <v>BVMF</v>
     <v>9701410000</v>
-    <v>9.0500000000000007</v>
+    <v>8.89</v>
     <v>1966</v>
-    <v>8.82</v>
-    <v>1.0078</v>
+    <v>8.75</v>
+    <v>1.0106999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>87288360000</v>
+    <v>86681950000</v>
     <v>Itausa Investimentos Itau SA é uma empresa sediada no Brasil e tem como atividade principal o setor bancário. As atividades da Companhia estão divididas em dois segmentos de negócios: Financeiro e Industrial. A divisão Financeiral concentra-se na gestão do Itau Unibanco Holding SA, uma instituição bancária que oferece produtos e serviços financeiros, como empréstimos, cartões de crédito, contas correntes, apólices de seguros, ferramentas de investimento, corretagem de valores mobiliários, consultoria de tesouraria e investimentos para clientes individuais e empresas. A divisão Industrial é responsável pela operação da Itautec SA, que fabrica equipamentos de automação comercial e bancária, além de prestar serviços de tecnologia da informação (TI); Duratex SA, que produz painéis de madeira, louças sanitárias e metais sanitários, e Alpargatas, que produz calçados sob as marcas Juntas, Havaianas e Dupe, entre outros.</v>
     <v>BVMF</v>
-    <v>8.9700000000000006</v>
+    <v>8.8800000000000008</v>
     <v>127000</v>
-    <v>45076.947916666664</v>
+    <v>45077.758089432813</v>
     <v>124</v>
     <v>19260830</v>
     <v>BRL</v>
     <v>ITAUSA S.A.</v>
     <v>ITAUSA S.A.</v>
-    <v>9.0500000000000007</v>
-    <v>8.8800000000000008</v>
+    <v>8.82</v>
+    <v>8.82</v>
     <v>Avenida Paulista, 1938, 5Th Floor, Bela Vista, SAO PAULO, SAO PAULO, 01.310-200 BR</v>
     <v>Banking Services</v>
     <v>ITSA4</v>
     <v>Ações</v>
     <v>ITAUSA S.A. (BVMF:ITSA4)</v>
-    <v>-0.09</v>
-    <v>-1.0033E-2</v>
-    <v>23570400</v>
+    <v>-0.06</v>
+    <v>-6.757E-3</v>
+    <v>7188500</v>
   </rv>
   <rv s="2">
     <v>125</v>
@@ -3099,24 +3099,24 @@
     <v>243.98</v>
     <v>204.11</v>
     <v>BVMF</v>
-    <v>236.16</v>
-    <v>233.74</v>
+    <v>236.2</v>
+    <v>234</v>
     <v>1.0201</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>3105013970</v>
-    <v>233.39</v>
-    <v>45076.947928240741</v>
+    <v>234</v>
+    <v>45077.758067129631</v>
     <v>127</v>
     <v>BRL</v>
     <v>iShares S&amp;P 500 FIC FI IE</v>
-    <v>235.33</v>
-    <v>234</v>
+    <v>234.11</v>
+    <v>234.77</v>
     <v>IVVB11</v>
     <v>Fundos mais negociados</v>
     <v>iShares S&amp;P 500 FIC FI IE (BVMF:IVVB11)</v>
-    <v>0.61</v>
-    <v>2.614E-3</v>
-    <v>360247</v>
+    <v>0.77</v>
+    <v>3.2910000000000001E-3</v>
+    <v>108675</v>
   </rv>
   <rv s="2">
     <v>128</v>
@@ -3141,22 +3141,22 @@
     <v>103</v>
     <v>93.03</v>
     <v>BVMF</v>
-    <v>98.67</v>
-    <v>97.09</v>
+    <v>97.7</v>
+    <v>96.65</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>97.5</v>
-    <v>45076.947916666664</v>
+    <v>97.43</v>
+    <v>45077.758043981485</v>
     <v>130</v>
     <v>BRL</v>
     <v>FI DAS CADEIAS PROD AGRO JGP CRED CEF</v>
-    <v>98.67</v>
-    <v>97.43</v>
+    <v>97.45</v>
+    <v>97.06</v>
     <v>JGPX11</v>
     <v>Fundos mais negociados</v>
     <v>FI DAS CADEIAS PROD AGRO JGP CRED CEF (BVMF:JGPX11)</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-7.1790000000000005E-4</v>
-    <v>491</v>
+    <v>-0.37</v>
+    <v>-3.7980000000000002E-3</v>
+    <v>1050</v>
   </rv>
   <rv s="2">
     <v>131</v>
@@ -3181,22 +3181,22 @@
     <v>110</v>
     <v>90.46</v>
     <v>BVMF</v>
-    <v>102.5</v>
-    <v>101.27</v>
+    <v>103.39</v>
+    <v>102.11</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>101.58</v>
-    <v>45076.947916666664</v>
+    <v>102.43</v>
+    <v>45077.757868217188</v>
     <v>133</v>
     <v>BRL</v>
     <v>SPARTA INFRA FIC FI INFRA RF CP</v>
-    <v>102.1</v>
-    <v>102.43</v>
+    <v>102.11</v>
+    <v>103.19</v>
     <v>JURO11</v>
     <v>Fundos mais negociados</v>
     <v>SPARTA INFRA FIC FI INFRA RF CP (BVMF:JURO11)</v>
-    <v>0.85</v>
-    <v>8.3680000000000004E-3</v>
-    <v>9892</v>
+    <v>0.76</v>
+    <v>7.4199999999999995E-3</v>
+    <v>13398</v>
   </rv>
   <rv s="2">
     <v>134</v>
@@ -3222,21 +3222,21 @@
     <v>123.12</v>
     <v>BVMF</v>
     <v>132</v>
-    <v>130</v>
+    <v>130.91</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>131.57</v>
-    <v>45076.947916666664</v>
+    <v>130.68</v>
+    <v>45077.758028923439</v>
     <v>136</v>
     <v>BRL</v>
     <v>KINEA INFRA FDO INV EM COTAS DE FIDC IE</v>
-    <v>131.57</v>
-    <v>130.68</v>
+    <v>132</v>
+    <v>132</v>
     <v>KDIF11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA INFRA FDO INV EM COTAS DE FIDC IE (BVMF:KDIF11)</v>
-    <v>-0.89</v>
-    <v>-6.764E-3</v>
-    <v>13485</v>
+    <v>1.32</v>
+    <v>1.0101000000000001E-2</v>
+    <v>8968</v>
   </rv>
   <rv s="2">
     <v>137</v>
@@ -3262,32 +3262,32 @@
     <v>6</v>
     <v>BVMF</v>
     <v>179720100</v>
-    <v>8.81</v>
+    <v>8.32</v>
     <v>1936</v>
-    <v>8.16</v>
-    <v>0.93630000000000002</v>
+    <v>8.08</v>
+    <v>0.92310000000000003</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1480893624</v>
+    <v>1468313217</v>
     <v>A Kepler Weber S.A., anteriormente Kepler Weber S.A. Indústria Comércio Importação e Exportação, é uma empresa brasileira que se dedica essencialmente à produção de sistemas de armazenamento de grãos. Através de suas subsidiárias, a Empresa atua no desenvolvimento, fabricação e distribuição de equipamentos para armazenamento e conservação de grãos. O portfólio da Empresa inclui silos metálicos, com fundo em forma de funil ou plano, secadores, máquinas de limpeza e pré-limpeza de grãos e transportadores de grãos, entre outros. A Empresa também desenvolve e produz sistemas e equipamentos para terminais portuários e estocagem de malte. Além disso, a Kepler Weber fornece peças de reposição e serviços de reparação e manutenção para seus produtos. Em 31 de dezembro de 2011, as subsidiárias da Empresa eram a Kepler Weber Industrial S.A. e a Kepler Weber Peças e Serviços Ltda.</v>
     <v>BVMF</v>
-    <v>8.7100000000000009</v>
+    <v>8.24</v>
     <v>1925</v>
-    <v>45076.94798611111</v>
+    <v>45077.758032407408</v>
     <v>139</v>
     <v>2103910</v>
     <v>BRL</v>
     <v>Kepler Weber S.A.</v>
     <v>Kepler Weber S.A.</v>
-    <v>8.75</v>
     <v>8.24</v>
+    <v>8.17</v>
     <v>Rua do Rocio n 84, 3 andar, Vila Olimpia, SAO PAULO, SAO PAULO, 04.552-000 BR</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>KEPL3</v>
     <v>Ações</v>
     <v>Kepler Weber S.A. (BVMF:KEPL3)</v>
-    <v>-0.47</v>
-    <v>-5.3960999999999995E-2</v>
-    <v>2362700</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-8.4950000000000008E-3</v>
+    <v>1315000</v>
   </rv>
   <rv s="2">
     <v>140</v>
@@ -3312,22 +3312,22 @@
     <v>113.68</v>
     <v>102.5</v>
     <v>BVMF</v>
-    <v>106.79</v>
-    <v>106.35</v>
+    <v>107</v>
+    <v>106.7</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>106.3</v>
-    <v>45076.947916666664</v>
+    <v>106.75</v>
+    <v>45077.757704015625</v>
     <v>142</v>
     <v>BRL</v>
     <v>KINEA CREDITO AGRO FIAGRO IMOB CEF</v>
-    <v>106.35</v>
-    <v>106.75</v>
+    <v>106.7</v>
+    <v>106.98</v>
     <v>KNCA11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA CREDITO AGRO FIAGRO IMOB CEF (BVMF:KNCA11)</v>
-    <v>0.45</v>
-    <v>4.2329999999999998E-3</v>
-    <v>17577</v>
+    <v>0.23</v>
+    <v>2.1549999999999998E-3</v>
+    <v>8967</v>
   </rv>
   <rv s="2">
     <v>143</v>
@@ -3349,25 +3349,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
+    <v>91.95</v>
+    <v>78.040000000000006</v>
+    <v>BVMF</v>
+    <v>91.95</v>
+    <v>90.18</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>90.71</v>
-    <v>78.040000000000006</v>
-    <v>BVMF</v>
-    <v>90.71</v>
-    <v>89.15</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>90</v>
-    <v>45076.833333356248</v>
+    <v>45077.7580787037</v>
     <v>145</v>
     <v>BRL</v>
     <v>KINEA SECURITIES FDO DE INV IMOB CF</v>
-    <v>89.94</v>
-    <v>90.71</v>
+    <v>90.69</v>
+    <v>91.43</v>
     <v>KNSC11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA SECURITIES FDO DE INV IMOB CF (BVMF:KNSC11)</v>
-    <v>0.71</v>
-    <v>7.8890000000000002E-3</v>
-    <v>26459</v>
+    <v>0.72</v>
+    <v>7.9369999999999996E-3</v>
+    <v>34264</v>
   </rv>
   <rv s="2">
     <v>146</v>
@@ -3393,31 +3393,31 @@
     <v>4.66</v>
     <v>BVMF</v>
     <v>64663060</v>
-    <v>5.62</v>
+    <v>5.47</v>
     <v>2003</v>
-    <v>5.21</v>
+    <v>5.29</v>
     <v>1.4610000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>344654109</v>
+    <v>347887262</v>
     <v>A Livetech da Bahia Industria e Comercio SA (WDC Networks) é uma empresa de fornecimento de equipamentos e de soluções de Telecom, Tecnologia da Informação (TI), e Energia Solar sediada no Brasil que atende uma variada gama de clientes nacionalmente e na Colômbia, Estados Unidos e Panamá. A Companhia desenvolveu um modelo de negócio de locação de equipamentos, transformando Capex em Opex, denominado como TaaS (Technology as a Service). A Companhia fornece serviços e produtos, incluindo infraestrutura de banda larga, câmeras de vigilância, sistemas de controle de acesso, Cibersegurança, data center, automação, e geradores de energia solar.</v>
     <v>BVMF</v>
-    <v>5.57</v>
-    <v>45076.94798611111</v>
+    <v>5.33</v>
+    <v>45077.753530092596</v>
     <v>148</v>
-    <v>102060</v>
+    <v>105260</v>
     <v>BRL</v>
     <v>Livetech da Bahia Indústria e Comércio S.A.</v>
     <v>Livetech da Bahia Indústria e Comércio S.A.</v>
-    <v>5.57</v>
-    <v>5.33</v>
+    <v>5.3</v>
+    <v>5.38</v>
     <v>Rodovia BA-262, Ilheus x Urucuca, s/n, Km 2,8 Quadra A, Polo de Informatica, Iguape, ILHEUS, BAHIA, 45.658-335 BR</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>LVTC3</v>
     <v>Ações</v>
     <v>Livetech da Bahia Indústria e Comércio S.A. (BVMF:LVTC3)</v>
-    <v>-0.24</v>
-    <v>-4.3087999999999994E-2</v>
-    <v>105500</v>
+    <v>0.05</v>
+    <v>9.3810000000000004E-3</v>
+    <v>9000</v>
   </rv>
   <rv s="2">
     <v>149</v>
@@ -3442,22 +3442,22 @@
     <v>71.540000000000006</v>
     <v>57.7</v>
     <v>BVMF</v>
-    <v>66.430000000000007</v>
-    <v>65.510000000000005</v>
+    <v>66.28</v>
+    <v>65.290000000000006</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>66.430000000000007</v>
-    <v>45076.947997685187</v>
+    <v>65.89</v>
+    <v>45077.758074096877</v>
     <v>151</v>
     <v>BRL</v>
     <v>MORE REAL ESTATE FOF FII</v>
-    <v>65.790000000000006</v>
     <v>65.89</v>
+    <v>65.959999999999994</v>
     <v>MORE11</v>
     <v>Fundos mais negociados</v>
     <v>MORE REAL ESTATE FOF FII (BVMF:MORE11)</v>
-    <v>-0.54</v>
-    <v>-8.1289999999999991E-3</v>
-    <v>2682</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.062E-3</v>
+    <v>6642</v>
   </rv>
   <rv s="2">
     <v>152</v>
@@ -3483,32 +3483,32 @@
     <v>3.05</v>
     <v>BVMF</v>
     <v>105774800</v>
-    <v>5.73</v>
+    <v>5.65</v>
     <v>2005</v>
-    <v>5.29</v>
+    <v>5.42</v>
     <v>1.4370000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>592338880</v>
     <v>A Mitre Realty Empreendimentos e Participações SA (Mitre Realty) é uma construtora com sede no Brasil. A Sociedade tem por objeto a incorporação, construção e comercialização de unidades imobiliárias residenciais na Cidade de São Paulo. Seus produtos são divididos em duas linhas: Raizes, voltada para clientes de classe média e Haus Mitre, voltada para clientes de classe média alta. O portfólio da empresa é composto por mais de 20 edifícios que oferecem apartamentos com serviços exclusivos, pontos de acesso e áreas comuns. A Mitre Realty possui várias subsidiárias, como Amaro Bezerra Empreendimentos e Participações Ltda, Mitre Le Champs Empreendimentos e Participações Ltda, Mitre Vendas Corretagem de Imóveis Ltda e MJF Construções Ltda, entre outras.</v>
     <v>BVMF</v>
-    <v>5.53</v>
+    <v>5.6</v>
     <v>159</v>
-    <v>45076.94798611111</v>
+    <v>45077.758090277777</v>
     <v>154</v>
     <v>1468170</v>
     <v>BRL</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A.</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A.</v>
-    <v>5.62</v>
+    <v>5.61</v>
     <v>5.6</v>
     <v>Alameda Santos, 700, 5 Andar, Jardim Paulista, SAO PAULO, SAO PAULO, 01.418-002 BR</v>
     <v>Homebuilding &amp; Construction Supplies</v>
     <v>MTRE3</v>
     <v>Ações</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A. (BVMF:MTRE3)</v>
-    <v>7.0000000000000007E-2</v>
-    <v>1.2658000000000001E-2</v>
-    <v>840300</v>
+    <v>0</v>
+    <v>0</v>
+    <v>399100</v>
   </rv>
   <rv s="2">
     <v>155</v>
@@ -3533,22 +3533,22 @@
     <v>87.2</v>
     <v>74.3</v>
     <v>BVMF</v>
-    <v>86.74</v>
-    <v>85.15</v>
+    <v>86.71</v>
+    <v>86.2</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>86.5</v>
-    <v>45076.947997685187</v>
+    <v>86.3</v>
+    <v>45077.756369073439</v>
     <v>157</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII NCH BRASIL RECEBIVEIS IMOB CF</v>
-    <v>86.2</v>
-    <v>86.3</v>
+    <v>86.5</v>
+    <v>86.62</v>
     <v>NCHB11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII NCH BRASIL RECEBIVEIS IMOB CF (BVMF:NCHB11)</v>
-    <v>-0.2</v>
-    <v>-2.3119999999999998E-3</v>
-    <v>2440</v>
+    <v>0.32</v>
+    <v>3.7080000000000004E-3</v>
+    <v>1808</v>
   </rv>
   <rv s="2">
     <v>158</v>
@@ -3574,32 +3574,32 @@
     <v>0.97</v>
     <v>BVMF</v>
     <v>660303800</v>
-    <v>1.03</v>
+    <v>1.01</v>
     <v>1963</v>
-    <v>1</v>
-    <v>1.4356</v>
+    <v>0.99</v>
+    <v>1.4442999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>695118500</v>
+    <v>688830900</v>
     <v>Oi SA em Recuperacao Judicial, anteriormente Oi S.A., constituída em 27 de novembro de 1963, é uma prestadora de serviços integrados de telecomunicações no Brasil. A Companhia é uma concessionária de serviços de telefonia fixa comutada (STFC). Atua no fornecimento de STFC como operadora de longa distância local e intra-regional. Seus segmentos incluem Serviços Residenciais, Mobilidade Pessoal e PMEs / Empresas. Oferece uma gama de serviços integrados de telecomunicações que incluem serviços de telefonia fixa e móvel, banda larga, televisão paga (TV), transmissão de dados e provedores de Internet. O segmento de Serviços Residenciais da Companhia é focado na venda de serviços de telefonia fixa, incluindo serviços de voz, serviços de comunicação de dados (banda larga) e televisão paga (TV). O segmento de Mobilidade Pessoal está focado na venda de serviços de telefonia móvel para assinantes e clientes pré-pagos e clientes de banda larga móvel. O segmento de PMEs / Empresas inclui soluções corporativas oferecidas a seus pequenas, médias e grandes empresas.</v>
     <v>BVMF</v>
-    <v>1.02</v>
+    <v>1.01</v>
     <v>6558</v>
-    <v>45076.947916666664</v>
+    <v>45077.757917221876</v>
     <v>160</v>
     <v>73920</v>
     <v>BRL</v>
     <v>Oi S.A. – Em Recuperação Judicial</v>
     <v>Oi S.A. – Em Recuperação Judicial</v>
-    <v>1.02</v>
     <v>1.01</v>
+    <v>1</v>
     <v>Rua do Lavradio, 71,2 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.230-070 BR</v>
     <v>Telecommunications Services</v>
     <v>OIBR3</v>
     <v>Ações</v>
     <v>Oi S.A. – Em Recuperação Judicial (BVMF:OIBR3)</v>
     <v>-0.01</v>
-    <v>-9.8040000000000002E-3</v>
-    <v>8285800</v>
+    <v>-9.9010000000000001E-3</v>
+    <v>4871300</v>
   </rv>
   <rv s="2">
     <v>161</v>
@@ -3625,32 +3625,32 @@
     <v>16.52</v>
     <v>BVMF</v>
     <v>13044500000</v>
-    <v>26.8</v>
+    <v>26.36</v>
     <v>1953</v>
-    <v>26.26</v>
-    <v>1.4379</v>
+    <v>25.87</v>
+    <v>1.4382999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>371675800000</v>
+    <v>367911300000</v>
     <v>A PETRÓLEO BRASILEIRO S.A. - PETROBRAS é uma empresa especializada na indústria de petróleo, gás natural e energia. A Empresa está envolvida na prospecção, perfuração, refinação, transformação, comercialização e transporte de petróleo bruto proveniente da produção de campos petrolíferos onshore e offshore e de xisto ou outras rochas. Seus segmentos incluem Exploração e Produção, que abrange as atividades de exploração, desenvolvimento e produção de petróleo bruto, gás natural líquido e gás natural; Refinação, Transporte e Marketing, que abrange as atividades de refinação, logística, transporte e comercialização de petróleo, exportação de etanol e extração e processamento de xistos; Gás e Energia, que se dedica ao transporte e comercialização de gás natural produzido no Brasil e gás natural importado; Biocombustíveis, que abrange as atividades de produção de biodiesel e seus co-produtos, e atividades relacionadas ao etanol; Distribuição, que inclui as atividades de sua subsidiária Petrobras Distribuidora S.A. e Corporativa.</v>
     <v>BVMF</v>
-    <v>26.69</v>
+    <v>26.39</v>
     <v>45149</v>
-    <v>45076.947916666664</v>
+    <v>45077.758081550783</v>
     <v>163</v>
     <v>61190020</v>
     <v>BRL</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
-    <v>26.72</v>
-    <v>26.39</v>
+    <v>26.27</v>
+    <v>26.21</v>
     <v>Av. Republica do Chile, n 65, 24 andar, Centro, Rio de Janeiro, RIO DE JANEIRO, 20.031-912 BR</v>
     <v>Oil &amp; Gas</v>
     <v>PETR4</v>
     <v>Ações</v>
     <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
-    <v>-0.3</v>
-    <v>-1.1240000000000002E-2</v>
-    <v>45649600</v>
+    <v>-0.18</v>
+    <v>-6.8210000000000007E-3</v>
+    <v>23114800</v>
   </rv>
   <rv s="2">
     <v>164</v>
@@ -3672,25 +3672,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>45.55</v>
+    <v>45.83</v>
     <v>39.56</v>
     <v>BVMF</v>
-    <v>45.55</v>
-    <v>45.06</v>
+    <v>45.83</v>
+    <v>45.25</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>45.05</v>
-    <v>45076.947997685187</v>
+    <v>45.35</v>
+    <v>45077.758020833331</v>
     <v>166</v>
     <v>BRL</v>
     <v>QUASAR AGRO - FDO INV. IMOB. ETF</v>
-    <v>45.1</v>
     <v>45.35</v>
+    <v>45.76</v>
     <v>QAGR11</v>
     <v>Fundos mais negociados</v>
     <v>QUASAR AGRO - FDO INV. IMOB. ETF (BVMF:QAGR11)</v>
-    <v>0.3</v>
-    <v>6.6590000000000009E-3</v>
-    <v>3042</v>
+    <v>0.41</v>
+    <v>9.0410000000000004E-3</v>
+    <v>4139</v>
   </rv>
   <rv s="2">
     <v>167</v>
@@ -3715,22 +3715,22 @@
     <v>84.95</v>
     <v>71.87</v>
     <v>BVMF</v>
+    <v>83.87</v>
+    <v>83.18</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>83.88</v>
-    <v>82.9</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>82.9</v>
-    <v>45076.836806376559</v>
+    <v>45077.754985416403</v>
     <v>169</v>
     <v>BRL</v>
     <v>RIO BRAVO CREDITO IMOB IV FII</v>
-    <v>83.48</v>
-    <v>83.88</v>
+    <v>83.87</v>
+    <v>83.56</v>
     <v>RBHG11</v>
     <v>Fundos mais negociados</v>
     <v>RIO BRAVO CREDITO IMOB IV FII (BVMF:RBHG11)</v>
-    <v>0.98</v>
-    <v>1.1821E-2</v>
-    <v>1992</v>
+    <v>-0.32</v>
+    <v>-3.8150000000000002E-3</v>
+    <v>5103</v>
   </rv>
   <rv s="2">
     <v>170</v>
@@ -3755,22 +3755,22 @@
     <v>61.96</v>
     <v>43.1</v>
     <v>BVMF</v>
-    <v>56.2</v>
-    <v>54.74</v>
+    <v>54.86</v>
+    <v>52.01</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>56.39</v>
-    <v>45076.947997685187</v>
+    <v>54.8</v>
+    <v>45077.757951388892</v>
     <v>172</v>
     <v>BRL</v>
     <v>FDO INV IMOB RBR PROPERTIES CF</v>
-    <v>56.2</v>
-    <v>54.8</v>
+    <v>54.86</v>
+    <v>52.63</v>
     <v>RBRP11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB RBR PROPERTIES CF (BVMF:RBRP11)</v>
-    <v>-1.59</v>
-    <v>-2.8195999999999999E-2</v>
-    <v>10880</v>
+    <v>-2.17</v>
+    <v>-3.9599000000000002E-2</v>
+    <v>14574</v>
   </rv>
   <rv s="2">
     <v>173</v>
@@ -3795,22 +3795,22 @@
     <v>91.8</v>
     <v>75.44</v>
     <v>BVMF</v>
-    <v>90.29</v>
-    <v>89.81</v>
+    <v>90.45</v>
+    <v>89.31</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.85</v>
-    <v>45076.947997685187</v>
+    <v>89.86</v>
+    <v>45077.758090277777</v>
     <v>175</v>
     <v>BRL</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF</v>
     <v>90</v>
-    <v>89.86</v>
+    <v>90.05</v>
     <v>RBRR11</v>
     <v>Fundos mais negociados</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF (BVMF:RBRR11)</v>
-    <v>0.01</v>
-    <v>1.1129999999999999E-4</v>
-    <v>20776</v>
+    <v>0.19</v>
+    <v>2.114E-3</v>
+    <v>18783</v>
   </rv>
   <rv s="2">
     <v>176</v>
@@ -3835,22 +3835,22 @@
     <v>143.74</v>
     <v>103.64</v>
     <v>BVMF</v>
-    <v>138.5</v>
-    <v>130.06</v>
+    <v>136</v>
+    <v>132.69</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>136.63</v>
-    <v>45076.947997685187</v>
+    <v>132.69999999999999</v>
+    <v>45077.757071759261</v>
     <v>178</v>
     <v>BRL</v>
     <v>FDO INV IMOB RIO BRAVO RENDA COR ETF</v>
-    <v>138.5</v>
-    <v>132.69999999999999</v>
+    <v>134.29</v>
+    <v>135.97</v>
     <v>RCRB11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB RIO BRAVO RENDA COR ETF (BVMF:RCRB11)</v>
-    <v>-3.93</v>
-    <v>-2.8763999999999998E-2</v>
-    <v>7486</v>
+    <v>3.27</v>
+    <v>2.4642000000000001E-2</v>
+    <v>1526</v>
   </rv>
   <rv s="2">
     <v>179</v>
@@ -3876,31 +3876,31 @@
     <v>25.94</v>
     <v>BVMF</v>
     <v>239897400</v>
-    <v>30.6</v>
+    <v>30.22</v>
     <v>2010</v>
-    <v>29.5</v>
+    <v>29.13</v>
     <v>1.7050000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7153740468</v>
+    <v>7204118922</v>
     <v>A 3R Petroleum Oleo e Gas SA, anteriormente conhecida como Ouro Preto Oleo e Gas SA, é uma empresa com sede no Brasil que atua no setor de petróleo e gás. A Empresa é uma holding que investe em empresas que atuam na exploração, produção e comercialização de petróleo e seus derivados, gás natural e outros hidrocarbonetos fluidos. A empresa se concentra no redesenvolvimento e revitalização de campos de produção maduros localizados em terra (onshore) e em águas rasas. A Firma possui diversas subsidiárias, tais como SPE 3R Petroleum SA, SPE Fazenda Belém SA, SPE Rio Ventura SA, Ouro Preto Energia Onshore SA e OP Energia Ltda e OP Pescada Oleo e Gas Ltda. Por meio de suas controladas, a Companhia atua nos estados da Bahia, Rio Grande do Norte e Ceará.</v>
     <v>BVMF</v>
-    <v>30.56</v>
-    <v>45076.947928240741</v>
+    <v>29.82</v>
+    <v>45077.7580787037</v>
     <v>181</v>
     <v>8566840</v>
     <v>BRL</v>
     <v>3R Petroleum Óleo e Gás S.A.</v>
     <v>3R Petroleum Óleo e Gás S.A.</v>
-    <v>30.42</v>
-    <v>29.82</v>
+    <v>29.3</v>
+    <v>30.03</v>
     <v>Rua Visconde de Ouro Preto, 5 Sala 601, Botafogo, Rio De Janeiro, RIO DE JANEIRO, 22.250-180 BR</v>
     <v>Oil &amp; Gas</v>
     <v>RRRP3</v>
     <v>Ações</v>
     <v>3R Petroleum Óleo e Gás S.A. (BVMF:RRRP3)</v>
-    <v>-0.74</v>
-    <v>-2.4215E-2</v>
-    <v>6254700</v>
+    <v>0.21</v>
+    <v>7.0420000000000005E-3</v>
+    <v>2165500</v>
   </rv>
   <rv s="2">
     <v>182</v>
@@ -3925,22 +3925,22 @@
     <v>10.82</v>
     <v>9.8000000000000007</v>
     <v>BVMF</v>
-    <v>10.44</v>
-    <v>10.25</v>
+    <v>10.42</v>
+    <v>10.35</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>10.43</v>
-    <v>45076.947916666664</v>
+    <v>10.36</v>
+    <v>45077.756736111114</v>
     <v>184</v>
     <v>BRL</v>
     <v>ITAU ASSET RURAL FIAGRO CF</v>
-    <v>10.43</v>
-    <v>10.36</v>
+    <v>10.38</v>
+    <v>10.4</v>
     <v>RURA11</v>
     <v>Fundos mais negociados</v>
     <v>ITAU ASSET RURAL FIAGRO CF (BVMF:RURA11)</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-6.711E-3</v>
-    <v>101238</v>
+    <v>0.04</v>
+    <v>3.8609999999999998E-3</v>
+    <v>22763</v>
   </rv>
   <rv s="2">
     <v>185</v>
@@ -3965,22 +3965,22 @@
     <v>21.19</v>
     <v>15.44</v>
     <v>BVMF</v>
-    <v>21.15</v>
-    <v>20.56</v>
+    <v>20.77</v>
+    <v>20.420000000000002</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>21.12</v>
-    <v>45076.947951388887</v>
+    <v>20.75</v>
+    <v>45077.75809692109</v>
     <v>187</v>
     <v>BRL</v>
     <v>CIA SANEAMENTO DO PARANA UNT</v>
-    <v>21.08</v>
-    <v>20.75</v>
+    <v>20.74</v>
+    <v>20.46</v>
     <v>SAPR11</v>
     <v>Fundos mais negociados</v>
     <v>CIA SANEAMENTO DO PARANA UNT (BVMF:SAPR11)</v>
-    <v>-0.37</v>
-    <v>-1.7519E-2</v>
-    <v>827500</v>
+    <v>-0.28999999999999998</v>
+    <v>-1.3975999999999999E-2</v>
+    <v>769700</v>
   </rv>
   <rv s="2">
     <v>188</v>
@@ -4006,32 +4006,32 @@
     <v>6.82</v>
     <v>BVMF</v>
     <v>243596100</v>
-    <v>10.18</v>
+    <v>10.48</v>
     <v>2011</v>
-    <v>9.7100000000000009</v>
-    <v>1.5296000000000001</v>
+    <v>9.7799999999999994</v>
+    <v>1.5173000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>2406729468</v>
+    <v>2533399440</v>
     <v>O Grupo SBF SA é uma empresa sediada no Brasil que atua no setor de vestuário e vestuário. A empresa é especializada no varejo de roupas através de uma rede de lojas, bem como através do seu site na Internet. A Companhia oferece diferentes tipos de produtos dividindo-os em: esportes, homens, mulheres, crianças, calçados, acessórios, equipamentos e suplementos, entre outros. A Companhia também oferece seus produtos outlet, em uma seção especial onde oferece produtos antigos com desconto no preço. É vendido em mais de 180 lojas em regiões como Espírito Santo, São Paulo, Amazonas e Rio de Janeiro, dentro do território brasileiro. Também opera um serviço de personal trainer on-line chamado Bora.</v>
     <v>BVMF</v>
-    <v>9.91</v>
+    <v>9.8800000000000008</v>
     <v>8196</v>
-    <v>45076.94798611111</v>
+    <v>45077.75806813594</v>
     <v>190</v>
     <v>2092750</v>
     <v>BRL</v>
     <v>GRUPO SBF S.A.</v>
     <v>GRUPO SBF S.A.</v>
-    <v>10.050000000000001</v>
-    <v>9.8800000000000008</v>
+    <v>9.7899999999999991</v>
+    <v>10.4</v>
     <v>Av Dra Ruth Cardoso 7221 Andar Ed Birman 3, Pinheiros, PINHEIROS, SAO PAULO, 05.425-902 BR</v>
     <v>Specialty Retailers</v>
     <v>SBFG3</v>
     <v>Ações</v>
     <v>GRUPO SBF S.A. (BVMF:SBFG3)</v>
-    <v>-0.03</v>
-    <v>-3.0270000000000002E-3</v>
-    <v>2209300</v>
+    <v>0.52</v>
+    <v>5.2632000000000005E-2</v>
+    <v>2408700</v>
   </rv>
   <rv s="2">
     <v>191</v>
@@ -4056,24 +4056,24 @@
     <v>117.5</v>
     <v>83</v>
     <v>BVMF</v>
-    <v>102.75</v>
-    <v>99.68</v>
+    <v>101.5</v>
+    <v>99.65</v>
     <v>1.1407</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>2698255668</v>
-    <v>101.57</v>
-    <v>45076.947928240741</v>
+    <v>100.6</v>
+    <v>45077.758067129631</v>
     <v>193</v>
     <v>BRL</v>
     <v>IShares BM&amp;FBovespa Small Cap</v>
-    <v>102.5</v>
-    <v>100.6</v>
+    <v>100.3</v>
+    <v>101.47</v>
     <v>SMAL11</v>
     <v>Fundos mais negociados</v>
     <v>IShares BM&amp;FBovespa Small Cap (BVMF:SMAL11)</v>
-    <v>-0.97</v>
-    <v>-9.5499999999999995E-3</v>
-    <v>3002700</v>
+    <v>0.87</v>
+    <v>8.6479999999999994E-3</v>
+    <v>2082138</v>
   </rv>
   <rv s="2">
     <v>194</v>
@@ -4098,22 +4098,22 @@
     <v>101</v>
     <v>85.96</v>
     <v>BVMF</v>
+    <v>97.45</v>
+    <v>96.8</v>
+    <v>B3 - Brazil Stock Exchange</v>
     <v>97.36</v>
-    <v>96.53</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>97.24</v>
-    <v>45076.947997685187</v>
+    <v>45077.758035126564</v>
     <v>196</v>
     <v>BRL</v>
     <v>URCA PRIME RENDA FII CF</v>
-    <v>97.2</v>
-    <v>97.36</v>
+    <v>97.24</v>
+    <v>97.4</v>
     <v>URPR11</v>
     <v>Fundos mais negociados</v>
     <v>URCA PRIME RENDA FII CF (BVMF:URPR11)</v>
-    <v>0.12</v>
-    <v>1.2339999999999999E-3</v>
-    <v>18248</v>
+    <v>0.04</v>
+    <v>4.1080000000000001E-4</v>
+    <v>22345</v>
   </rv>
   <rv s="2">
     <v>197</v>
@@ -4122,50 +4122,49 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=apnjsm&amp;q=BVMF%3aVALE3&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="9">
+  <rv s="1">
     <v>pt-BR</v>
     <v>apnjsm</v>
     <v>268435456</v>
     <v>1</v>
     <v>Da plataforma Refinitiv</v>
-    <v>22</v>
-    <v>23</v>
+    <v>0</v>
+    <v>1</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
     <v>3</v>
-    <v>24</v>
+    <v>4</v>
     <v>Finance</v>
-    <v>25</v>
+    <v>5</v>
     <v>96.18</v>
     <v>60.37</v>
     <v>BVMF</v>
     <v>4539008000</v>
-    <v>66.319999999999993</v>
+    <v>64.5</v>
     <v>1943</v>
-    <v>63.87</v>
-    <v>0.53239999999999998</v>
+    <v>63.51</v>
+    <v>0.53969999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>291767434240</v>
+    <v>291585873920</v>
     <v>A Vale S.A. é uma produtora global de minério de ferro e pelotas de minério de ferro, principais matérias-primas para a produção de aço e produtora de níquel. A Companhia também produz cobre, carvão metalúrgico e térmico, potássio, fosfatos e outros nutrientes fertilizantes, minério de manganês, ferroligas, metais do grupo da platina, ouro, prata e cobalto. Os segmentos da Companhia incluem minerais Ferrosos, que engloba a produção e extração de minerais ferrosos, como finos de minério de ferro, pelotas de minério de ferro e seus serviços de logística, manganês e ferroligas e outros produtos e serviços ferrosos; Carvão, que compreende a extração de carvão metalúrgico e térmico e seus serviços logísticos; Metais básicos, que incluem a produção e extração de minerais não-ferrosos, e são apresentados como níquel e seus derivados, e cobre (concentrado de cobre), e Outros, que engloba as vendas e despesas de outros produtos, serviços e investimentos em joint ventures e associar em outros negócios.</v>
     <v>BVMF</v>
-    <v>65.83</v>
+    <v>64.28</v>
     <v>64516</v>
-    <v>45076.947928240741</v>
+    <v>45077.758067638279</v>
     <v>199</v>
     <v>29493830</v>
     <v>BRL</v>
     <v>VALE S.A.</v>
     <v>VALE S.A.</v>
-    <v>66.319999999999993</v>
     <v>64.28</v>
-    <v>64.81</v>
+    <v>64.239999999999995</v>
     <v>Pr Botafogo 00186 Sal 1101 Sal 1601 Sal 1701 Sal 1801, Botafogo, RIO DE JANEIRO, RIO DE JANEIRO, 22.250-145 BR</v>
     <v>Metals &amp; Mining</v>
     <v>VALE3</v>
     <v>Ações</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
-    <v>-1.55</v>
-    <v>-2.3544999999999996E-2</v>
-    <v>39802200</v>
+    <v>-0.04</v>
+    <v>-6.223E-4</v>
+    <v>28016100</v>
   </rv>
   <rv s="2">
     <v>200</v>
@@ -4190,22 +4189,22 @@
     <v>105.7</v>
     <v>81.95</v>
     <v>BVMF</v>
-    <v>98.59</v>
-    <v>97.55</v>
+    <v>98.3</v>
+    <v>96.8</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>98.4</v>
-    <v>45076.947997685187</v>
+    <v>97.61</v>
+    <v>45077.758090277777</v>
     <v>202</v>
     <v>BRL</v>
     <v>FII VINCILOG ETF</v>
-    <v>98.45</v>
-    <v>97.61</v>
+    <v>97.63</v>
+    <v>98.1</v>
     <v>VILG11</v>
     <v>Fundos mais negociados</v>
     <v>FII VINCILOG ETF (BVMF:VILG11)</v>
-    <v>-0.79</v>
-    <v>-8.0280000000000004E-3</v>
-    <v>18116</v>
+    <v>0.49</v>
+    <v>5.0200000000000002E-3</v>
+    <v>19388</v>
   </rv>
   <rv s="2">
     <v>203</v>
@@ -4231,32 +4230,32 @@
     <v>34.78</v>
     <v>BVMF</v>
     <v>1663557000</v>
-    <v>42.12</v>
+    <v>41.16</v>
     <v>1998</v>
+    <v>40.19</v>
+    <v>0.13769999999999999</v>
+    <v>B3 - Brazil Stock Exchange</v>
+    <v>67357422930</v>
+    <v>A Telefonica Brasil S.A. é uma empresa de telecomunicações móveis no Brasil que oferece serviços móveis pós-pagos. A Companhia também atua como empresa de telecomunicações fixas no estado de São Paulo. A empresa comercializa seus serviços móveis sob a marca Vivo. Oferece aos seus clientes um portfólio de produtos, incluindo voz móvel e fixa, dados móveis, banda larga fixa, banda larga ultra-rápida, televisão por assinatura, tecnologia da informação e serviços digitais. Suas operações consistem em serviços de telefonia fixa local e de longa distância; serviços móveis, incluindo serviços de valor agregado; serviços de dados, incluindo serviços de banda larga e serviços de dados móveis; Serviços de televisão por assinatura direto para casa (DTH), televisão por protocolo de Internet (IPTV) e cabo; serviços de rede, como aluguel de instalações, bem como outros serviços; serviços de atacado, incluindo interconexão; serviços digitais; serviços projetados especificamente para clientes corporativos e a venda de dispositivos e acessórios sem fio.</v>
+    <v>BVMF</v>
     <v>41.04</v>
-    <v>0.13980000000000001</v>
-    <v>B3 - Brazil Stock Exchange</v>
-    <v>68272379280</v>
-    <v>A Telefonica Brasil S.A. é uma empresa de telecomunicações móveis no Brasil que oferece serviços móveis pós-pagos. A Companhia também atua como empresa de telecomunicações fixas no estado de São Paulo. A empresa comercializa seus serviços móveis sob a marca Vivo. Oferece aos seus clientes um portfólio de produtos, incluindo voz móvel e fixa, dados móveis, banda larga fixa, banda larga ultra-rápida, televisão por assinatura, tecnologia da informação e serviços digitais. Suas operações consistem em serviços de telefonia fixa local e de longa distância; serviços móveis, incluindo serviços de valor agregado; serviços de dados, incluindo serviços de banda larga e serviços de dados móveis; Serviços de televisão por assinatura direto para casa (DTH), televisão por protocolo de Internet (IPTV) e cabo; serviços de rede, como aluguel de instalações, bem como outros serviços; serviços de atacado, incluindo interconexão; serviços digitais; serviços projetados especificamente para clientes corporativos e a venda de dispositivos e acessórios sem fio.</v>
-    <v>BVMF</v>
-    <v>41.8</v>
     <v>33000</v>
-    <v>45076.947928240741</v>
+    <v>45077.758009259262</v>
     <v>205</v>
     <v>2018280</v>
     <v>BRL</v>
     <v>TELEFÔNICA BRASIL S.A.</v>
     <v>TELEFÔNICA BRASIL S.A.</v>
-    <v>42.02</v>
     <v>41.04</v>
+    <v>40.49</v>
     <v>Av Engenheiro Luis Carlos Berrini, 1376 32 andar, Cidade Moncoes, SAO PAULO, SAO PAULO, 04.571-936 BR</v>
     <v>Telecommunications Services</v>
     <v>VIVT3</v>
     <v>Ações</v>
     <v>TELEFÔNICA BRASIL S.A. (BVMF:VIVT3)</v>
-    <v>-0.76</v>
-    <v>-1.8182E-2</v>
-    <v>2611600</v>
+    <v>-0.55000000000000004</v>
+    <v>-1.3402000000000001E-2</v>
+    <v>2882000</v>
   </rv>
   <rv s="2">
     <v>206</v>
@@ -4278,36 +4277,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>15.87</v>
+    <v>16.059999999999999</v>
     <v>9.41</v>
     <v>BVMF</v>
     <v>245916200</v>
-    <v>15.8</v>
+    <v>16.059999999999999</v>
     <v>1952</v>
-    <v>15.54</v>
-    <v>1.0983000000000001</v>
+    <v>15.47</v>
+    <v>1.0962000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>3883016798</v>
+    <v>3929740876</v>
     <v>A VULCABRAS AZALEIA S/A é uma holding com sede no Brasil, que se dedica principalmente à fabricação de calçados. A Empresa está envolvida na produção e comercialização de calçados esportivos e profissionais masculinos e femininos, bem como na fabricação de vestuário. A Empresa vende seus produtos sob várias marcas, incluindo Azaleia, Dijean, Funny, Opanka, Olympikus e Vulcabras. A Empresa também produz sapatos e roupas para a marca Reebok. Além disso, a Empresa fabrica, sob a marca Botas Vulcabras, botas de segurança para hospitais, laboratórios, bem como para indústrias de alimentos, construção, mineração, metalurgia e química. A Empresa exporta seus produtos para Argentina, Chile, Colômbia e Peru, entre outros. Em 31 de dezembro de 2011, a subsidiária direta da Empresa era a Vulcabras Azaleia CE Calçados e Artigos Esportivos SA.</v>
     <v>BVMF</v>
-    <v>15.58</v>
+    <v>15.79</v>
     <v>23878</v>
-    <v>45076.947951388887</v>
+    <v>45077.758055555554</v>
     <v>208</v>
     <v>1063610</v>
     <v>BRL</v>
     <v>VULCABRAS S.A.</v>
     <v>VULCABRAS S.A.</v>
-    <v>15.67</v>
-    <v>15.79</v>
+    <v>15.6</v>
+    <v>15.98</v>
     <v>Av. Antonio Frederico Ozanan,1440, Da Grama, JUNDIAI, SAO PAULO, 13.219-001 BR</v>
     <v>Textiles &amp; Apparel</v>
     <v>VULC3</v>
     <v>Ações</v>
     <v>VULCABRAS S.A. (BVMF:VULC3)</v>
-    <v>0.21</v>
-    <v>1.3479000000000001E-2</v>
-    <v>299800</v>
+    <v>0.19</v>
+    <v>1.2033E-2</v>
+    <v>500500</v>
   </rv>
   <rv s="2">
     <v>209</v>
@@ -4333,32 +4332,32 @@
     <v>22.44</v>
     <v>BVMF</v>
     <v>4197318000</v>
-    <v>39.26</v>
+    <v>38.340000000000003</v>
     <v>1961</v>
-    <v>38.229999999999997</v>
-    <v>0.56299999999999994</v>
+    <v>37.630000000000003</v>
+    <v>0.57030000000000003</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>160925172120</v>
+    <v>159624003540</v>
     <v>A WEG SA é uma holding sediada no Brasil que tem por objetivo principal a fabricação de equipamentos e componentes elétricos. A Companhia atua, juntamente com suas subsidiárias, na fabricação e comercialização de mercadorias, tais como motores elétricos, geradores e transformadores; redutores, redutores de engrenagem, inversores de frequência, motores de partida e dispositivos de manobra; controle e proteção de circuitos elétricos e automação industrial; soluções de tração elétrica (terrestre e marítima); soluções para geração de energia renovável e distribuída, explorando todas as oportunidades em pequenas centrais hidrelétricas e fontes de biomassa térmica, eólica e solar; no-breaks e alternadores para grupos de geradores; subestações elétricas; sistemas de equipamentos elétricos e eletrônicos industriais e tintas e vernizes industriais. Atua no Brasil, Argentina, México, Estados Unidos, Portugal, Áustria, África do Sul, Índia e China. Opera por meio da Bluffton Motor Works LLC.</v>
     <v>BVMF</v>
-    <v>38.880000000000003</v>
+    <v>38.340000000000003</v>
     <v>39137</v>
-    <v>45076.947916666664</v>
+    <v>45077.7580787037</v>
     <v>211</v>
     <v>5757160</v>
     <v>BRL</v>
     <v>WEG S.A.</v>
     <v>WEG S.A.</v>
-    <v>39.18</v>
-    <v>38.340000000000003</v>
+    <v>38.21</v>
+    <v>38.03</v>
     <v>Av. Prefeito Waldemar Grubba,3300, Centro, JARAGUA DO SUL, SANTA CATARINA, 89.256-900 BR</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>WEGE3</v>
     <v>Ações</v>
     <v>WEG S.A. (BVMF:WEGE3)</v>
-    <v>-0.54</v>
-    <v>-1.3889E-2</v>
-    <v>6336900</v>
+    <v>-0.31</v>
+    <v>-8.0859999999999994E-3</v>
+    <v>2937300</v>
   </rv>
   <rv s="2">
     <v>212</v>
@@ -4383,22 +4382,22 @@
     <v>21.93</v>
     <v>11.42</v>
     <v>BVMF</v>
-    <v>13.91</v>
-    <v>13.7</v>
+    <v>13.75</v>
+    <v>13.72</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>13.76</v>
-    <v>45076.947997685187</v>
+    <v>13.73</v>
+    <v>45077.755960648145</v>
     <v>214</v>
     <v>BRL</v>
     <v>FDO INV IMOB XP CORPORATE MACAE ETF</v>
-    <v>13.76</v>
-    <v>13.73</v>
+    <v>13.74</v>
+    <v>13.75</v>
     <v>XPCM11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB XP CORPORATE MACAE ETF (BVMF:XPCM11)</v>
-    <v>-0.03</v>
-    <v>-2.1800000000000001E-3</v>
-    <v>2130</v>
+    <v>0.02</v>
+    <v>1.457E-3</v>
+    <v>984</v>
   </rv>
   <rv s="2">
     <v>215</v>
@@ -4424,32 +4423,32 @@
     <v>6.48</v>
     <v>BVMF</v>
     <v>309088800</v>
-    <v>14.58</v>
+    <v>14.35</v>
     <v>2007</v>
-    <v>14.16</v>
-    <v>1.8404</v>
+    <v>13.74</v>
+    <v>1.7995000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>4385970072</v>
+    <v>4355061192</v>
     <v>A YDUQS Participações SA é uma empresa com sede no Brasil que se dedica à prestação de serviços educacionais. A empresa está focada no desenvolvimento de instituições de ensino superior. Sua gama de serviços abrange cursos presenciais e a distância com programas de pós-graduação e mestrado em administração de empresas (MBA), cursos profissionalizantes, preparatórios para exames, cursos de curta duração, além de treinamentos empresariais para profissionais, entre outros. Os cursos da Companhia oferecem desenvolvimento nas áreas jurídica, gestão, humanidades, saúde e tecnologia. Sua rede educacional é formada por universidades, campi, centros de ensino a distância e faculdades. A Companhia atua no Brasil por meio das marcas: Estácio, UniToledo, Adtalem (IBMEC, Wyden, Damasio Educacional, SJT Med e Clio).</v>
     <v>BVMF</v>
-    <v>14.33</v>
+    <v>14.19</v>
     <v>17882</v>
-    <v>45076.947928240741</v>
+    <v>45077.758020833331</v>
     <v>217</v>
     <v>5635560</v>
     <v>BRL</v>
     <v>YDUQS Participações S.A.</v>
     <v>YDUQS Participações S.A.</v>
-    <v>14.42</v>
-    <v>14.19</v>
+    <v>14.11</v>
+    <v>14.09</v>
     <v>Avenida Venezuela 43 6 andar, Saude, RIO DE JANEIRO, RIO DE JANEIRO, 20.081-311 BR</v>
     <v>School, College &amp; University</v>
     <v>YDUQ3</v>
     <v>Ações</v>
     <v>YDUQS Participações S.A. (BVMF:YDUQ3)</v>
-    <v>-0.14000000000000001</v>
-    <v>-9.7699999999999992E-3</v>
-    <v>5230000</v>
+    <v>-0.1</v>
+    <v>-7.0470000000000003E-3</v>
+    <v>3096500</v>
   </rv>
   <rv s="2">
     <v>218</v>
@@ -4458,7 +4457,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -4678,57 +4677,12 @@
     <k n="Variação (%)"/>
     <k n="Volume"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="_CanonicalPropertyNames" t="spb"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="52 semanas de alta"/>
-    <k n="52 semanas de baixa"/>
-    <k n="Abreviatura do câmbio" t="s"/>
-    <k n="Ações em circulação"/>
-    <k n="Alto"/>
-    <k n="Ano de incorporação"/>
-    <k n="Baixo"/>
-    <k n="Beta"/>
-    <k n="Bolsa" t="s"/>
-    <k n="Capitalização de mercado"/>
-    <k n="Descrição" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Fechamento anterior"/>
-    <k n="Funcionários"/>
-    <k n="Hora da última transação"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Média de volume"/>
-    <k n="Moeda" t="s"/>
-    <k n="Nome" t="s"/>
-    <k n="Nome oficial" t="s"/>
-    <k n="Pendência"/>
-    <k n="Preço"/>
-    <k n="Preço (Horário prolongado)"/>
-    <k n="Sede" t="s"/>
-    <k n="Setor" t="s"/>
-    <k n="Símbolo do ticker" t="s"/>
-    <k n="Tipo de instrumento" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Variação"/>
-    <k n="Variação (%)"/>
-    <k n="Volume"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="6">
+  <spbArrays count="5">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -4929,53 +4883,8 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="43">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">_CanonicalPropertyNames</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Nome</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Preço</v>
-      <v t="s">Preço (Horário prolongado)</v>
-      <v t="s">Bolsa</v>
-      <v t="s">Nome oficial</v>
-      <v t="s">Hora da última transação</v>
-      <v t="s">Símbolo do ticker</v>
-      <v t="s">Abreviatura do câmbio</v>
-      <v t="s">Variação</v>
-      <v t="s">Variação (%)</v>
-      <v t="s">Moeda</v>
-      <v t="s">Fechamento anterior</v>
-      <v t="s">Pendência</v>
-      <v t="s">Alto</v>
-      <v t="s">Baixo</v>
-      <v t="s">52 semanas de alta</v>
-      <v t="s">52 semanas de baixa</v>
-      <v t="s">Volume</v>
-      <v t="s">Média de volume</v>
-      <v t="s">Capitalização de mercado</v>
-      <v t="s">Beta</v>
-      <v t="s">Ações em circulação</v>
-      <v t="s">Descrição</v>
-      <v t="s">Funcionários</v>
-      <v t="s">Sede</v>
-      <v t="s">Setor</v>
-      <v t="s">Tipo de instrumento</v>
-      <v t="s">Ano de incorporação</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
   </spbArrays>
-  <spbData count="26">
+  <spbData count="22">
     <spb s="0">
       <v>High</v>
       <v>Beta</v>
@@ -5277,80 +5186,12 @@
     <spb s="17">
       <v>Da plataforma Refinitiv</v>
     </spb>
-    <spb s="18">
-      <v>High</v>
-      <v>Beta</v>
-      <v>Name</v>
-      <v>Headquarters</v>
-      <v>Low</v>
-      <v>Exchange</v>
-      <v>Currency</v>
-      <v>Price</v>
-      <v>Industry</v>
-      <v>Volume</v>
-      <v>Change</v>
-      <v>Description</v>
-      <v>Open</v>
-      <v>ExchangeID</v>
-      <v>UniqueName</v>
-      <v>Employees</v>
-      <v>Official name</v>
-      <v>Change (%)</v>
-      <v>%ProviderInfo</v>
-      <v>LearnMoreOnLink</v>
-      <v>Volume average</v>
-      <v>Ticker symbol</v>
-      <v>52 week high</v>
-      <v>52 week low</v>
-      <v>Year incorporated</v>
-      <v>Shares outstanding</v>
-      <v>Previous close</v>
-      <v>Instrument type</v>
-      <v>Exchange abbreviation</v>
-      <v>Market cap</v>
-      <v>Last trade time</v>
-      <v>Price (Extended hours)</v>
-    </spb>
-    <spb s="1">
-      <v>5</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="19">
-      <v>1</v>
-      <v>2</v>
-      <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>5</v>
-      <v>4</v>
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>7</v>
-      <v>4</v>
-      <v>1</v>
-      <v>8</v>
-      <v>9</v>
-      <v>1</v>
-    </spb>
-    <spb s="20">
-      <v xml:space="preserve">no fechamento </v>
-      <v xml:space="preserve">do fechamento anterior </v>
-      <v xml:space="preserve">do fechamento anterior </v>
-      <v>GMT</v>
-      <v>Atraso de 30 minutos</v>
-    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="21">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="18">
   <s>
     <k n="Alto" t="s"/>
     <k n="Beta" t="s"/>
@@ -5631,69 +5472,6 @@
   </s>
   <s>
     <k n="name" t="s"/>
-  </s>
-  <s>
-    <k n="Alto" t="s"/>
-    <k n="Beta" t="s"/>
-    <k n="Nome" t="s"/>
-    <k n="Sede" t="s"/>
-    <k n="Baixo" t="s"/>
-    <k n="Bolsa" t="s"/>
-    <k n="Moeda" t="s"/>
-    <k n="Preço" t="s"/>
-    <k n="Setor" t="s"/>
-    <k n="Volume" t="s"/>
-    <k n="Variação" t="s"/>
-    <k n="Descrição" t="s"/>
-    <k n="Pendência" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Funcionários" t="s"/>
-    <k n="Nome oficial" t="s"/>
-    <k n="Variação (%)" t="s"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="LearnMoreOnLink" t="s"/>
-    <k n="Média de volume" t="s"/>
-    <k n="Símbolo do ticker" t="s"/>
-    <k n="52 semanas de alta" t="s"/>
-    <k n="52 semanas de baixa" t="s"/>
-    <k n="Ano de incorporação" t="s"/>
-    <k n="Ações em circulação" t="s"/>
-    <k n="Fechamento anterior" t="s"/>
-    <k n="Tipo de instrumento" t="s"/>
-    <k n="Abreviatura do câmbio" t="s"/>
-    <k n="Capitalização de mercado" t="s"/>
-    <k n="Hora da última transação" t="s"/>
-    <k n="Preço (Horário prolongado)" t="s"/>
-  </s>
-  <s>
-    <k n="Alto" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="Nome" t="i"/>
-    <k n="Baixo" t="i"/>
-    <k n="Preço" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Variação" t="i"/>
-    <k n="Pendência" t="i"/>
-    <k n="Funcionários" t="i"/>
-    <k n="Variação (%)" t="i"/>
-    <k n="Média de volume" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="52 semanas de alta" t="i"/>
-    <k n="52 semanas de baixa" t="i"/>
-    <k n="Ano de incorporação" t="i"/>
-    <k n="Ações em circulação" t="i"/>
-    <k n="Fechamento anterior" t="i"/>
-    <k n="Capitalização de mercado" t="i"/>
-    <k n="Hora da última transação" t="i"/>
-    <k n="Preço (Horário prolongado)" t="i"/>
-  </s>
-  <s>
-    <k n="Preço" t="s"/>
-    <k n="Variação" t="s"/>
-    <k n="Variação (%)" t="s"/>
-    <k n="Hora da última transação" t="s"/>
-    <k n="Preço (Horário prolongado)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -6025,8 +5803,8 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6076,7 +5854,7 @@
       </c>
       <c r="D2" s="14" cm="1">
         <f t="array" ref="D2">_FV(E2,"Preço")</f>
-        <v>10.46</v>
+        <v>10.57</v>
       </c>
       <c r="E2" s="5" t="e" vm="1">
         <v>#VALUE!</v>
@@ -6095,7 +5873,7 @@
       </c>
       <c r="D3" s="14" cm="1">
         <f t="array" ref="D3">_FV(E3,"Preço")</f>
-        <v>21.66</v>
+        <v>22.1</v>
       </c>
       <c r="E3" s="5" t="e" vm="2">
         <v>#VALUE!</v>
@@ -6114,7 +5892,7 @@
       </c>
       <c r="D4" s="14" cm="1">
         <f t="array" ref="D4">_FV(E4,"Preço")</f>
-        <v>11.22</v>
+        <v>10.87</v>
       </c>
       <c r="E4" s="5" t="e" vm="3">
         <v>#VALUE!</v>
@@ -6133,7 +5911,7 @@
       </c>
       <c r="D5" s="19" cm="1">
         <f t="array" ref="D5">_FV(E5,"Preço")</f>
-        <v>16.05</v>
+        <v>16.68</v>
       </c>
       <c r="E5" s="23" t="e" vm="4">
         <v>#VALUE!</v>
@@ -6152,7 +5930,7 @@
       </c>
       <c r="D6" s="14" cm="1">
         <f t="array" ref="D6">_FV(E6,"Preço")</f>
-        <v>13.35</v>
+        <v>13.56</v>
       </c>
       <c r="E6" s="5" t="e" vm="5">
         <v>#VALUE!</v>
@@ -6171,7 +5949,7 @@
       </c>
       <c r="D7" s="14" cm="1">
         <f t="array" ref="D7">_FV(E7,"Preço")</f>
-        <v>85.47</v>
+        <v>84.76</v>
       </c>
       <c r="E7" s="4" t="e" vm="6">
         <v>#VALUE!</v>
@@ -6186,11 +5964,11 @@
         <v>30</v>
       </c>
       <c r="C8" s="15">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" s="14" cm="1">
         <f t="array" ref="D8">_FV(E8,"Preço")</f>
-        <v>44.7</v>
+        <v>45.05</v>
       </c>
       <c r="E8" s="6" t="e" vm="7">
         <v>#VALUE!</v>
@@ -6209,7 +5987,7 @@
       </c>
       <c r="D9" s="14" cm="1">
         <f t="array" ref="D9">_FV(E9,"Preço")</f>
-        <v>31.69</v>
+        <v>31.19</v>
       </c>
       <c r="E9" s="6" t="e" vm="8">
         <v>#VALUE!</v>
@@ -6228,7 +6006,7 @@
       </c>
       <c r="D10" s="14" cm="1">
         <f t="array" ref="D10">_FV(E10,"Preço")</f>
-        <v>88.31</v>
+        <v>88.4</v>
       </c>
       <c r="E10" s="5" t="e" vm="9">
         <v>#VALUE!</v>
@@ -6247,7 +6025,7 @@
       </c>
       <c r="D11" s="14" cm="1">
         <f t="array" ref="D11">_FV(E11,"Preço")</f>
-        <v>89.74</v>
+        <v>89.99</v>
       </c>
       <c r="E11" s="5" t="e" vm="10">
         <v>#VALUE!</v>
@@ -6266,7 +6044,7 @@
       </c>
       <c r="D12" s="28" cm="1">
         <f t="array" ref="D12">_FV(E12,"Preço")</f>
-        <v>105.38</v>
+        <v>105.5</v>
       </c>
       <c r="E12" s="29" t="e" vm="11">
         <v>#VALUE!</v>
@@ -6285,7 +6063,7 @@
       </c>
       <c r="D13" s="14" cm="1">
         <f t="array" ref="D13">_FV(E13,"Preço")</f>
-        <v>26.62</v>
+        <v>26.43</v>
       </c>
       <c r="E13" s="5" t="e" vm="12">
         <v>#VALUE!</v>
@@ -6304,7 +6082,7 @@
       </c>
       <c r="D14" s="14" cm="1">
         <f t="array" ref="D14">_FV(E14,"Preço")</f>
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="E14" s="6" t="e" vm="13">
         <v>#VALUE!</v>
@@ -6323,7 +6101,7 @@
       </c>
       <c r="D15" s="14" cm="1">
         <f t="array" ref="D15">_FV(E15,"Preço")</f>
-        <v>58.66</v>
+        <v>58.69</v>
       </c>
       <c r="E15" s="5" t="e" vm="14">
         <v>#VALUE!</v>
@@ -6342,7 +6120,7 @@
       </c>
       <c r="D16" s="14" cm="1">
         <f t="array" ref="D16">_FV(E16,"Preço")</f>
-        <v>22.7</v>
+        <v>22.69</v>
       </c>
       <c r="E16" s="5" t="e" vm="15">
         <v>#VALUE!</v>
@@ -6361,7 +6139,7 @@
       </c>
       <c r="D17" s="14" cm="1">
         <f t="array" ref="D17">_FV(E17,"Preço")</f>
-        <v>12.31</v>
+        <v>12.47</v>
       </c>
       <c r="E17" s="6" t="e" vm="16">
         <v>#VALUE!</v>
@@ -6380,7 +6158,7 @@
       </c>
       <c r="D18" s="14" cm="1">
         <f t="array" ref="D18">_FV(E18,"Preço")</f>
-        <v>9.2200000000000006</v>
+        <v>9.23</v>
       </c>
       <c r="E18" s="4" t="e" vm="17">
         <v>#VALUE!</v>
@@ -6399,7 +6177,7 @@
       </c>
       <c r="D19" s="14" cm="1">
         <f t="array" ref="D19">_FV(E19,"Preço")</f>
-        <v>97.99</v>
+        <v>98.6</v>
       </c>
       <c r="E19" s="6" t="e" vm="18">
         <v>#VALUE!</v>
@@ -6418,7 +6196,7 @@
       </c>
       <c r="D20" s="14" cm="1">
         <f t="array" ref="D20">_FV(E20,"Preço")</f>
-        <v>77.8</v>
+        <v>78.260000000000005</v>
       </c>
       <c r="E20" s="5" t="e" vm="19">
         <v>#VALUE!</v>
@@ -6437,7 +6215,7 @@
       </c>
       <c r="D21" s="14" cm="1">
         <f t="array" ref="D21">_FV(E21,"Preço")</f>
-        <v>106.5</v>
+        <v>106.7</v>
       </c>
       <c r="E21" s="4" t="e" vm="20">
         <v>#VALUE!</v>
@@ -6456,7 +6234,7 @@
       </c>
       <c r="D22" s="14" cm="1">
         <f t="array" ref="D22">_FV(E22,"Preço")</f>
-        <v>15.06</v>
+        <v>15.13</v>
       </c>
       <c r="E22" s="6" t="e" vm="21">
         <v>#VALUE!</v>
@@ -6475,7 +6253,7 @@
       </c>
       <c r="D23" s="19" cm="1">
         <f t="array" ref="D23">_FV(E23,"Preço")</f>
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="E23" s="20" t="e" vm="22">
         <v>#VALUE!</v>
@@ -6494,7 +6272,7 @@
       </c>
       <c r="D24" s="14" cm="1">
         <f t="array" ref="D24">_FV(E24,"Preço")</f>
-        <v>18.55</v>
+        <v>18.88</v>
       </c>
       <c r="E24" s="5" t="e" vm="23">
         <v>#VALUE!</v>
@@ -6513,7 +6291,7 @@
       </c>
       <c r="D25" s="14" cm="1">
         <f t="array" ref="D25">_FV(E25,"Preço")</f>
-        <v>17.329999999999998</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="E25" s="5" t="e" vm="24">
         <v>#VALUE!</v>
@@ -6532,7 +6310,7 @@
       </c>
       <c r="D26" s="14" cm="1">
         <f t="array" ref="D26">_FV(E26,"Preço")</f>
-        <v>38.82</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E26" s="6" t="e" vm="25">
         <v>#VALUE!</v>
@@ -6551,7 +6329,7 @@
       </c>
       <c r="D27" s="14" cm="1">
         <f t="array" ref="D27">_FV(E27,"Preço")</f>
-        <v>28.1</v>
+        <v>28.22</v>
       </c>
       <c r="E27" s="5" t="e" vm="26">
         <v>#VALUE!</v>
@@ -6570,7 +6348,7 @@
       </c>
       <c r="D28" s="14" cm="1">
         <f t="array" ref="D28">_FV(E28,"Preço")</f>
-        <v>9.66</v>
+        <v>9.6</v>
       </c>
       <c r="E28" s="5" t="e" vm="27">
         <v>#VALUE!</v>
@@ -6589,7 +6367,7 @@
       </c>
       <c r="D29" s="14" cm="1">
         <f t="array" ref="D29">_FV(E29,"Preço")</f>
-        <v>15.94</v>
+        <v>15.66</v>
       </c>
       <c r="E29" s="6" t="e" vm="28">
         <v>#VALUE!</v>
@@ -6608,7 +6386,7 @@
       </c>
       <c r="D30" s="14" cm="1">
         <f t="array" ref="D30">_FV(E30,"Preço")</f>
-        <v>8.65</v>
+        <v>8.69</v>
       </c>
       <c r="E30" s="5" t="e" vm="29">
         <v>#VALUE!</v>
@@ -6627,7 +6405,7 @@
       </c>
       <c r="D31" s="14" cm="1">
         <f t="array" ref="D31">_FV(E31,"Preço")</f>
-        <v>93.75</v>
+        <v>93.55</v>
       </c>
       <c r="E31" s="5" t="e" vm="30">
         <v>#VALUE!</v>
@@ -6646,7 +6424,7 @@
       </c>
       <c r="D32" s="14" cm="1">
         <f t="array" ref="D32">_FV(E32,"Preço")</f>
-        <v>89.89</v>
+        <v>89.9</v>
       </c>
       <c r="E32" s="4" t="e" vm="31">
         <v>#VALUE!</v>
@@ -6665,7 +6443,7 @@
       </c>
       <c r="D33" s="14" cm="1">
         <f t="array" ref="D33">_FV(E33,"Preço")</f>
-        <v>24.32</v>
+        <v>23.97</v>
       </c>
       <c r="E33" s="5" t="e" vm="32">
         <v>#VALUE!</v>
@@ -6684,7 +6462,7 @@
       </c>
       <c r="D34" s="14" cm="1">
         <f t="array" ref="D34">_FV(E34,"Preço")</f>
-        <v>11.34</v>
+        <v>11.21</v>
       </c>
       <c r="E34" s="25" t="e" vm="33">
         <v>#VALUE!</v>
@@ -6703,7 +6481,7 @@
       </c>
       <c r="D35" s="14" cm="1">
         <f t="array" ref="D35">_FV(E35,"Preço")</f>
-        <v>4.0599999999999996</v>
+        <v>3.97</v>
       </c>
       <c r="E35" s="5" t="e" vm="34">
         <v>#VALUE!</v>
@@ -6722,7 +6500,7 @@
       </c>
       <c r="D36" s="19" cm="1">
         <f t="array" ref="D36">_FV(E36,"Preço")</f>
-        <v>159.08000000000001</v>
+        <v>158.82</v>
       </c>
       <c r="E36" s="23" t="e" vm="35">
         <v>#VALUE!</v>
@@ -6749,7 +6527,7 @@
       </c>
       <c r="D37" s="14" cm="1">
         <f t="array" ref="D37">_FV(E37,"Preço")</f>
-        <v>124.54</v>
+        <v>125.38</v>
       </c>
       <c r="E37" s="5" t="e" vm="36">
         <v>#VALUE!</v>
@@ -6776,7 +6554,7 @@
       </c>
       <c r="D38" s="14" cm="1">
         <f t="array" ref="D38">_FV(E38,"Preço")</f>
-        <v>86.75</v>
+        <v>87.39</v>
       </c>
       <c r="E38" s="7" t="e" vm="37">
         <v>#VALUE!</v>
@@ -6803,7 +6581,7 @@
       </c>
       <c r="D39" s="14" cm="1">
         <f t="array" ref="D39">_FV(E39,"Preço")</f>
-        <v>87.1</v>
+        <v>88.02</v>
       </c>
       <c r="E39" s="7" t="e" vm="38">
         <v>#VALUE!</v>
@@ -6830,7 +6608,7 @@
       </c>
       <c r="D40" s="14" cm="1">
         <f t="array" ref="D40">_FV(E40,"Preço")</f>
-        <v>76.7</v>
+        <v>77.3</v>
       </c>
       <c r="E40" s="4" t="e" vm="39">
         <v>#VALUE!</v>
@@ -6857,7 +6635,7 @@
       </c>
       <c r="D41" s="14" cm="1">
         <f t="array" ref="D41">_FV(E41,"Preço")</f>
-        <v>101.75</v>
+        <v>101.22</v>
       </c>
       <c r="E41" s="5" t="e" vm="40">
         <v>#VALUE!</v>
@@ -6884,7 +6662,7 @@
       </c>
       <c r="D42" s="14" cm="1">
         <f t="array" ref="D42">_FV(E42,"Preço")</f>
-        <v>8.8800000000000008</v>
+        <v>8.82</v>
       </c>
       <c r="E42" s="6" t="e" vm="41">
         <v>#VALUE!</v>
@@ -6911,7 +6689,7 @@
       </c>
       <c r="D43" s="28" cm="1">
         <f t="array" ref="D43">_FV(E43,"Preço")</f>
-        <v>234</v>
+        <v>234.77</v>
       </c>
       <c r="E43" s="29" t="e" vm="42">
         <v>#VALUE!</v>
@@ -6938,7 +6716,7 @@
       </c>
       <c r="D44" s="14" cm="1">
         <f t="array" ref="D44">_FV(E44,"Preço")</f>
-        <v>97.43</v>
+        <v>97.06</v>
       </c>
       <c r="E44" s="5" t="e" vm="43">
         <v>#VALUE!</v>
@@ -6965,7 +6743,7 @@
       </c>
       <c r="D45" s="14" cm="1">
         <f t="array" ref="D45">_FV(E45,"Preço")</f>
-        <v>102.43</v>
+        <v>103.19</v>
       </c>
       <c r="E45" s="5" t="e" vm="44">
         <v>#VALUE!</v>
@@ -6992,7 +6770,7 @@
       </c>
       <c r="D46" s="14" cm="1">
         <f t="array" ref="D46">_FV(E46,"Preço")</f>
-        <v>130.68</v>
+        <v>132</v>
       </c>
       <c r="E46" s="5" t="e" vm="45">
         <v>#VALUE!</v>
@@ -7019,7 +6797,7 @@
       </c>
       <c r="D47" s="14" cm="1">
         <f t="array" ref="D47">_FV(E47,"Preço")</f>
-        <v>8.24</v>
+        <v>8.17</v>
       </c>
       <c r="E47" s="6" t="e" vm="46">
         <v>#VALUE!</v>
@@ -7046,7 +6824,7 @@
       </c>
       <c r="D48" s="14" cm="1">
         <f t="array" ref="D48">_FV(E48,"Preço")</f>
-        <v>106.75</v>
+        <v>106.98</v>
       </c>
       <c r="E48" s="4" t="e" vm="47">
         <v>#VALUE!</v>
@@ -7073,7 +6851,7 @@
       </c>
       <c r="D49" s="14" cm="1">
         <f t="array" ref="D49">_FV(E49,"Preço")</f>
-        <v>90.71</v>
+        <v>91.43</v>
       </c>
       <c r="E49" s="7" t="e" vm="48">
         <v>#VALUE!</v>
@@ -7100,7 +6878,7 @@
       </c>
       <c r="D50" s="19" cm="1">
         <f t="array" ref="D50">_FV(E50,"Preço")</f>
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="E50" s="23" t="e" vm="49">
         <v>#VALUE!</v>
@@ -7127,7 +6905,7 @@
       </c>
       <c r="D51" s="14" cm="1">
         <f t="array" ref="D51">_FV(E51,"Preço")</f>
-        <v>65.89</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="E51" s="8" t="e" vm="50">
         <v>#VALUE!</v>
@@ -7173,7 +6951,7 @@
       </c>
       <c r="D53" s="14" cm="1">
         <f t="array" ref="D53">_FV(E53,"Preço")</f>
-        <v>86.3</v>
+        <v>86.62</v>
       </c>
       <c r="E53" s="5" t="e" vm="52">
         <v>#VALUE!</v>
@@ -7192,7 +6970,7 @@
       </c>
       <c r="D54" s="14" cm="1">
         <f t="array" ref="D54">_FV(E54,"Preço")</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E54" s="6" t="e" vm="53">
         <v>#VALUE!</v>
@@ -7211,7 +6989,7 @@
       </c>
       <c r="D55" s="14" cm="1">
         <f t="array" ref="D55">_FV(E55,"Preço")</f>
-        <v>26.39</v>
+        <v>26.21</v>
       </c>
       <c r="E55" s="5" t="e" vm="54">
         <v>#VALUE!</v>
@@ -7230,7 +7008,7 @@
       </c>
       <c r="D56" s="14" cm="1">
         <f t="array" ref="D56">_FV(E56,"Preço")</f>
-        <v>45.35</v>
+        <v>45.76</v>
       </c>
       <c r="E56" s="4" t="e" vm="55">
         <v>#VALUE!</v>
@@ -7249,7 +7027,7 @@
       </c>
       <c r="D57" s="14" cm="1">
         <f t="array" ref="D57">_FV(E57,"Preço")</f>
-        <v>83.88</v>
+        <v>83.56</v>
       </c>
       <c r="E57" s="4" t="e" vm="56">
         <v>#VALUE!</v>
@@ -7268,7 +7046,7 @@
       </c>
       <c r="D58" s="14" cm="1">
         <f t="array" ref="D58">_FV(E58,"Preço")</f>
-        <v>54.8</v>
+        <v>52.63</v>
       </c>
       <c r="E58" s="9" t="e" vm="57">
         <v>#VALUE!</v>
@@ -7287,7 +7065,7 @@
       </c>
       <c r="D59" s="14" cm="1">
         <f t="array" ref="D59">_FV(E59,"Preço")</f>
-        <v>89.86</v>
+        <v>90.05</v>
       </c>
       <c r="E59" s="5" t="e" vm="58">
         <v>#VALUE!</v>
@@ -7306,7 +7084,7 @@
       </c>
       <c r="D60" s="14" cm="1">
         <f t="array" ref="D60">_FV(E60,"Preço")</f>
-        <v>132.69999999999999</v>
+        <v>135.97</v>
       </c>
       <c r="E60" s="5" t="e" vm="59">
         <v>#VALUE!</v>
@@ -7325,7 +7103,7 @@
       </c>
       <c r="D61" s="14" cm="1">
         <f t="array" ref="D61">_FV(E61,"Preço")</f>
-        <v>29.82</v>
+        <v>30.03</v>
       </c>
       <c r="E61" s="5" t="e" vm="60">
         <v>#VALUE!</v>
@@ -7344,7 +7122,7 @@
       </c>
       <c r="D62" s="14" cm="1">
         <f t="array" ref="D62">_FV(E62,"Preço")</f>
-        <v>10.36</v>
+        <v>10.4</v>
       </c>
       <c r="E62" s="4" t="e" vm="61">
         <v>#VALUE!</v>
@@ -7363,7 +7141,7 @@
       </c>
       <c r="D63" s="14" cm="1">
         <f t="array" ref="D63">_FV(E63,"Preço")</f>
-        <v>20.75</v>
+        <v>20.46</v>
       </c>
       <c r="E63" s="6" t="e" vm="62">
         <v>#VALUE!</v>
@@ -7382,7 +7160,7 @@
       </c>
       <c r="D64" s="14" cm="1">
         <f t="array" ref="D64">_FV(E64,"Preço")</f>
-        <v>9.8800000000000008</v>
+        <v>10.4</v>
       </c>
       <c r="E64" s="5" t="e" vm="63">
         <v>#VALUE!</v>
@@ -7401,7 +7179,7 @@
       </c>
       <c r="D65" s="28" cm="1">
         <f t="array" ref="D65">_FV(E65,"Preço")</f>
-        <v>100.6</v>
+        <v>101.47</v>
       </c>
       <c r="E65" s="29" t="e" vm="64">
         <v>#VALUE!</v>
@@ -7420,7 +7198,7 @@
       </c>
       <c r="D66" s="14" cm="1">
         <f t="array" ref="D66">_FV(E66,"Preço")</f>
-        <v>97.36</v>
+        <v>97.4</v>
       </c>
       <c r="E66" s="5" t="e" vm="65">
         <v>#VALUE!</v>
@@ -7439,7 +7217,7 @@
       </c>
       <c r="D67" s="14" cm="1">
         <f t="array" ref="D67">_FV(E67,"Preço")</f>
-        <v>64.28</v>
+        <v>64.239999999999995</v>
       </c>
       <c r="E67" s="5" t="e" vm="66">
         <v>#VALUE!</v>
@@ -7458,7 +7236,7 @@
       </c>
       <c r="D68" s="14" cm="1">
         <f t="array" ref="D68">_FV(E68,"Preço")</f>
-        <v>97.61</v>
+        <v>98.1</v>
       </c>
       <c r="E68" s="7" t="e" vm="67">
         <v>#VALUE!</v>
@@ -7477,7 +7255,7 @@
       </c>
       <c r="D69" s="14" cm="1">
         <f t="array" ref="D69">_FV(E69,"Preço")</f>
-        <v>41.04</v>
+        <v>40.49</v>
       </c>
       <c r="E69" s="5" t="e" vm="68">
         <v>#VALUE!</v>
@@ -7496,7 +7274,7 @@
       </c>
       <c r="D70" s="14" cm="1">
         <f t="array" ref="D70">_FV(E70,"Preço")</f>
-        <v>15.79</v>
+        <v>15.98</v>
       </c>
       <c r="E70" s="5" t="e" vm="69">
         <v>#VALUE!</v>
@@ -7515,7 +7293,7 @@
       </c>
       <c r="D71" s="14" cm="1">
         <f t="array" ref="D71">_FV(E71,"Preço")</f>
-        <v>38.340000000000003</v>
+        <v>38.03</v>
       </c>
       <c r="E71" s="5" t="e" vm="70">
         <v>#VALUE!</v>
@@ -7534,7 +7312,7 @@
       </c>
       <c r="D72" s="14" cm="1">
         <f t="array" ref="D72">_FV(E72,"Preço")</f>
-        <v>13.73</v>
+        <v>13.75</v>
       </c>
       <c r="E72" s="8" t="e" vm="71">
         <v>#VALUE!</v>
@@ -7553,7 +7331,7 @@
       </c>
       <c r="D73" s="14" cm="1">
         <f t="array" ref="D73">_FV(E73,"Preço")</f>
-        <v>14.19</v>
+        <v>14.09</v>
       </c>
       <c r="E73" s="6" t="e" vm="72">
         <v>#VALUE!</v>

--- a/ativos.xlsx
+++ b/ativos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebili\github\cotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC62269-D9E0-41F3-861A-FC2FABEDFDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD939FC-A2D8-4CFB-94FC-B234421E5233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2128,36 +2128,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>23.89</v>
+    <v>22.51</v>
     <v>6.81</v>
     <v>BVMF</v>
     <v>683062200</v>
-    <v>8.8000000000000007</v>
+    <v>7.74</v>
     <v>1907</v>
-    <v>8.36</v>
-    <v>1.0254000000000001</v>
+    <v>7.51</v>
+    <v>0.98350000000000004</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>6010463000</v>
+    <v>5170256000</v>
     <v>A Alpargatas SA, antiga São Paulo Alpargatas SA, é uma empresa com sede no Brasil que se dedica à produção de calçados, vestuário e artigos esportivos. A Companhia fabrica e comercializa calçados e seus componentes; confecções; produtos têxteis; couro, resina e produtos de borracha natural ou artificial e artigos esportivos. O portfólio de marcas da Companhia inclui Havaianas e Dupe, que fabrica sandálias; Sete Leguas, oferecendo botas de borracha; Timberland, fornecimento de vestuário e calçado para exterior; Topper e Mizuno, com produção de artigos esportivos, calçados e roupas, e Osklen, marca de moda. A empresa também vende produtos esportivos por meio da rede de lojas Meggashop. Opera por meio de diversas subsidiárias no Brasil, Argentina, Estados Unidos, Espanha e França, entre outras. A Companhia é controlada por um grupo de investidores (Consórcio), formado pela Brasil Warrant Administração de Bens e Empresas SA, uma unidade do Grupo Moreira Salles, Itausa Investimentos Itau SA e Cambuhy Investimentos Ltda.</v>
     <v>BVMF</v>
-    <v>8.68</v>
+    <v>7.44</v>
     <v>17000</v>
-    <v>45184.784765046097</v>
+    <v>45223.556516203702</v>
     <v>0</v>
-    <v>6343300</v>
+    <v>6432470</v>
     <v>BRL</v>
     <v>ALPARGATAS S.A.</v>
     <v>ALPARGATAS S.A.</v>
-    <v>8.68</v>
-    <v>8.36</v>
+    <v>7.51</v>
+    <v>7.57</v>
     <v>Av. das Nacoes Unidas, 14.261, Vila Gertrudes, SAO PAULO, SAO PAULO, 04.794-000 BR</v>
     <v>Textiles &amp; Apparel</v>
     <v>ALPA4</v>
     <v>Ações</v>
     <v>ALPARGATAS S.A. (BVMF:ALPA4)</v>
-    <v>-0.32</v>
-    <v>-3.6865999999999996E-2</v>
-    <v>3685800</v>
+    <v>0.13</v>
+    <v>1.7473000000000002E-2</v>
+    <v>220600</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -2183,32 +2183,32 @@
     <v>14.92</v>
     <v>BVMF</v>
     <v>573936900</v>
-    <v>24.11</v>
+    <v>23.34</v>
     <v>2003</v>
-    <v>23.53</v>
-    <v>1.248</v>
+    <v>23.05</v>
+    <v>1.2239</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>13596565161</v>
+    <v>13372729770</v>
     <v>A Aliansce Sonae Shopping Centers SA, anteriormente conhecida como Sonae Sierra Brasil SA, é uma empresa sediada no Brasil que se dedica principalmente ao desenvolvimento e operação de shopping centers no Brasil. Por meio de suas subsidiárias, a Companhia atua no desenvolvimento de projetos de shopping centers, construção de edifícios comerciais, gestão de imóveis comerciais, serviços de corretagem, locação de espaços para varejistas, locação de espaços comerciais para publicidade e promoção e operação de estacionamentos. A Companhia possui subsidiárias como Sierra Investimentos Brasil Ltda e Unishopping Administradora Ltda., Através das quais opera diversos centros comerciais no Brasil, incluindo o Parque D Pedro, o Metrópole, Manauara, Penha, Tivoli, Campo Limpo e Franca, entre outros. É uma subsidiária da Sierra Brazil 1 BV.</v>
     <v>BVMF</v>
-    <v>24.12</v>
+    <v>22.86</v>
     <v>440</v>
-    <v>45184.784745370373</v>
+    <v>45223.556597222225</v>
     <v>3</v>
-    <v>4242670</v>
+    <v>5935000</v>
     <v>BRL</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A.</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A.</v>
-    <v>24.11</v>
-    <v>23.69</v>
+    <v>23.2</v>
+    <v>23.3</v>
     <v>R Dias Ferreira 00190 Sal 301, Leblon, RIO DE JANEIRO, RIO DE JANEIRO, 22.431-050 BR</v>
     <v>Real Estate Operations</v>
     <v>ALSO3</v>
     <v>Ações</v>
     <v>ALIANSCE SONAE SHOPPING CENTERS S.A. (BVMF:ALSO3)</v>
-    <v>-0.43</v>
-    <v>-1.7828E-2</v>
-    <v>1533900</v>
+    <v>0.44</v>
+    <v>1.9248000000000001E-2</v>
+    <v>226700</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -2225,7 +2225,7 @@
     <v>Da plataforma Refinitiv</v>
     <v>0</v>
     <v>1</v>
-    <v>SENDAS DISTRIBUIDORA S/A (BVMF:ASAI3)</v>
+    <v>Sendas Distribuidora S.A. (BVMF:ASAI3)</v>
     <v>3</v>
     <v>4</v>
     <v>Finance</v>
@@ -2234,32 +2234,32 @@
     <v>10.38</v>
     <v>BVMF</v>
     <v>1351464000</v>
-    <v>12.66</v>
+    <v>11.78</v>
     <v>2003</v>
-    <v>12.26</v>
-    <v>0.83299999999999996</v>
+    <v>11.65</v>
+    <v>0.84799999999999998</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>16758153600</v>
+    <v>15785099520</v>
     <v>A Sendas Distribuidora SA, também conhecida como Assai Atacadista, é uma empresa com sede no Brasil que atua principalmente no setor de distribuição de alimentos. As atividades da Empresa estão divididas em dois segmentos operacionais: Cash &amp; Carry e Varejo. Por meio do segmento de Cash &amp; Carry, a Companhia oferece alimentos, artigos de bazar e outros produtos para o atacado, por meio de lojas de autoatendimento operadas no Brasil com a marca Assai. O segmento de Varejo inclui operações de hipermercados, supermercados e lojas de conveniência sob as seguintes marcas: Exito, Carulla, Surtimaorista, Surtimax, Super Inter e Viva Malls na Colômbia; Devoto, Disco e Geant no Uruguai; e Libertad, Mini Libertad e Paseo Libertad Malls na Argentina.</v>
     <v>BVMF</v>
-    <v>12.62</v>
+    <v>11.52</v>
     <v>76000</v>
-    <v>45184.784756944442</v>
+    <v>45223.556585648148</v>
     <v>6</v>
-    <v>19140920</v>
+    <v>10588570</v>
     <v>BRL</v>
-    <v>SENDAS DISTRIBUIDORA S/A</v>
-    <v>SENDAS DISTRIBUIDORA S/A</v>
-    <v>12.62</v>
-    <v>12.4</v>
+    <v>Sendas Distribuidora S.A.</v>
+    <v>Sendas Distribuidora S.A.</v>
+    <v>11.68</v>
+    <v>11.68</v>
     <v>Avenida Ayrton Senna, 6.000 Jacarepagua, RIO DE JANEIRO, RIO DE JANEIRO, 22.775-005 BR</v>
     <v>Food &amp; Drug Retailing</v>
     <v>ASAI3</v>
     <v>Ações</v>
-    <v>SENDAS DISTRIBUIDORA S/A (BVMF:ASAI3)</v>
-    <v>-0.22</v>
-    <v>-1.7433000000000001E-2</v>
-    <v>6578900</v>
+    <v>Sendas Distribuidora S.A. (BVMF:ASAI3)</v>
+    <v>0.16</v>
+    <v>1.3889E-2</v>
+    <v>215300</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -2285,32 +2285,32 @@
     <v>6.71</v>
     <v>BVMF</v>
     <v>335697400</v>
-    <v>13.31</v>
+    <v>13.37</v>
     <v>2008</v>
-    <v>12.77</v>
-    <v>1.9682999999999999</v>
+    <v>13.1</v>
+    <v>1.9621999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>4447990550</v>
+    <v>4444633576</v>
     <v>A Azul S.A. é uma empresa brasileira dedicada à prestação de serviços de transporte de passageiros. A Companhia atua principalmente como operadora de companhia aérea sob a marca Azul, fornecendo voos regulares entre diversas cidades do Brasil, incluindo São Paulo, Brasília, Rio de Janeiro, Belo Horizonte, Porto Alegre, Curitiba, Fortaleza e Salvador, entre outros. Além disso, sua rede aérea compreende rotas internacionais para os Estados Unidos, Europa e outros países da América Latina. Por meio de seu negócio de pacotes de viagens, a Azul Viagens, além de passagens aéreas, a Companhia oferece acomodações, transfers, passeios e aluguel de veículos. Sua oferta inclui também o Azul Cargo Express, um serviço de transporte de carga agendado com entrega de aeroporto a aeroporto e porta a porta. A Companhia possui várias subsidiárias, como a Azul Linhas Aéreas Brasileiras SA, que opera todas as atividades de voo e TudoAzul SA, que gerencia o programa de fidelidade.</v>
     <v>BVMF</v>
-    <v>13.1</v>
+    <v>12.93</v>
     <v>14007</v>
-    <v>45184.784763425778</v>
+    <v>45223.556606053127</v>
     <v>9</v>
-    <v>8485430</v>
+    <v>13388670</v>
     <v>BRL</v>
     <v>Azul S.A.</v>
     <v>Azul S.A.</v>
     <v>13.1</v>
-    <v>13.25</v>
+    <v>13.24</v>
     <v>Avenida Marcos Penteado de Ulhoa Rodrigues 939 8 andar, Tambore, BARUERI, SAO PAULO, 06.460-040 BR</v>
     <v>Passenger Transportation Services</v>
     <v>AZUL4</v>
     <v>Ações</v>
     <v>Azul S.A. (BVMF:AZUL4)</v>
-    <v>0.15</v>
-    <v>1.145E-2</v>
-    <v>13600200</v>
+    <v>0.31</v>
+    <v>2.3975E-2</v>
+    <v>1295900</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -2332,36 +2332,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>15.6</v>
-    <v>10.050000000000001</v>
-    <v>BVMF</v>
-    <v>6099000000</v>
-    <v>13.39</v>
+    <v>15.47</v>
+    <v>9.9600000000000009</v>
+    <v>BVMF</v>
+    <v>5819000000</v>
+    <v>11.49</v>
     <v>2007</v>
-    <v>13.21</v>
-    <v>1.1158999999999999</v>
+    <v>11.31</v>
+    <v>1.1196999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>81116700000</v>
+    <v>66685740000</v>
     <v>B3 SA Brasil Bolsa Balcão, anteriormente BM &amp; F Bovespa SA Bolsa de Valores Mercadorias e Futuros, é uma fornecedora de infra-estruturaa de mercado financeiro no Brasil. As ofertas de serviços da Companhia varia entre negociação cambial, compensação e outros serviços pós-negociação e registro de transações de balcão (OTC). A Companhia também fornece um serviço de listagem e atua como depósito central de valores mobiliários (CSD). Desenvolve soluções de software e oferece serviços de licenciamento de índice. Seu negócio está dividido em quatro segmentos: Bovespa, que abrange a negociação, compensação e liquidação de ações e derivativos patrimoniais; BM &amp; F, que abrange a negociação, compensação e liquidação de derivativos financeiros e de mercadorias (commodities); Cetip Securities (Cetip UTVM), cobrindo os sistemas de registro, compensação, liquidação e custódia de títulos de renda fixa e derivados OTC e Cetip Financing (Cetip UFIN), que fornece um sistema eletrônico privado integrado para registro de empréstimos de veículos e imóveis.</v>
     <v>BVMF</v>
-    <v>13.3</v>
+    <v>11.31</v>
     <v>2135</v>
-    <v>45184.784768518519</v>
+    <v>45223.556608796294</v>
     <v>12</v>
-    <v>32863880</v>
+    <v>44147960</v>
     <v>BRL</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão</v>
-    <v>13.32</v>
-    <v>13.3</v>
+    <v>11.4</v>
+    <v>11.46</v>
     <v>Praca Antonio Prado, 48 7 andar, Centro, SAO PAULO, SAO PAULO, 01.010-901 BR</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>B3SA3</v>
     <v>Ações</v>
     <v>B3 S.A. - Brasil, Bolsa, Balcão (BVMF:B3SA3)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>13536800</v>
+    <v>0.15</v>
+    <v>1.3263E-2</v>
+    <v>3232100</v>
   </rv>
   <rv s="2">
     <v>13</v>
@@ -2387,32 +2387,32 @@
     <v>28.01</v>
     <v>BVMF</v>
     <v>2865417000</v>
-    <v>47.7</v>
+    <v>49.62</v>
     <v>1808</v>
-    <v>47.11</v>
-    <v>1.1653</v>
+    <v>49.35</v>
+    <v>1.0457000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>136365195030</v>
+    <v>141694870650</v>
     <v>O BANCO DO BRASIL S.A. é uma empresa brasileira dedicada sobretudo ao setor financeiro. As atividades da Empresa estão divididas em cinco segmentos: bancário, investimentos, gestão de ativos, segurança e tipos de pagamento. O Banco também participa de outras atividades econômicas, como leasing e suporte operacional. O Banco tem clientes individuais e corporativos. Oferece uma variedade de produtos e serviços financeiros, como depósitos, contas poupança, gestão de ativos, empréstimos, e seguros de saúde, de vida e patrimonial. Além disso, oferece transações financeiras em várias formas, incluindo operações cambiais e atividades complementares, com ênfase na previdência privada, capitalização, valores mobiliários, corretagem, administração de cartões de crédito e de débito, consórcios, fundos de investimento e portfólios de gestão. O BANCO DO BRASIL S.A. atua nos mercados nacional e internacional.</v>
     <v>BVMF</v>
-    <v>47.39</v>
+    <v>49.27</v>
     <v>85953</v>
-    <v>45184.784751863284</v>
+    <v>45223.556504629632</v>
     <v>15</v>
-    <v>7412550</v>
+    <v>9185550</v>
     <v>BRL</v>
     <v>BANCO DO BRASIL S.A.</v>
     <v>BANCO DO BRASIL S.A.</v>
-    <v>47.42</v>
-    <v>47.59</v>
+    <v>49.5</v>
+    <v>49.45</v>
     <v>SAUN QD 5 LT B, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Banking Services</v>
     <v>BBAS3</v>
     <v>Ações</v>
     <v>BANCO DO BRASIL S.A. (BVMF:BBAS3)</v>
-    <v>0.2</v>
-    <v>4.2199999999999998E-3</v>
-    <v>4131500</v>
+    <v>0.18</v>
+    <v>3.653E-3</v>
+    <v>391500</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -2435,35 +2435,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>34.549999999999997</v>
-    <v>23.38</v>
+    <v>25.12</v>
     <v>BVMF</v>
     <v>2000000000</v>
-    <v>31.83</v>
+    <v>31.6</v>
     <v>2012</v>
-    <v>31.51</v>
-    <v>0.66969999999999996</v>
+    <v>31.37</v>
+    <v>0.65820000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>63160000000</v>
+    <v>62840000000</v>
     <v>A BB Seguridade Participações S.A. é uma empresa brasileira que atua no setor de seguros. As atividades da empresa se dividem em dois segmentos: Seguros e Corretagem. A divisão Seguros oferece seguros de vida, propriedade e acidentes, veículos, riscos especiais, financeiro e transporte, planos odontológicos, de previdência privada e de capitalização, bem como resseguro. A divisão Corretagem concentra-se na corretagem de seguros, gestão dos planos de previdência e capitalização, bem como na promoção de produtos de seguros e resseguros. Além disso, presta consultoria relacionada à seleção de seguros. As subsidiárias da empresa incluem a BB Seguros Participações S.A. e a BB Cor Participações S.A. A empresa é controlada pelo BANCO DO BRASIL S.A.</v>
     <v>BVMF</v>
-    <v>31.7</v>
+    <v>31.36</v>
     <v>223</v>
-    <v>45184.784745370373</v>
+    <v>45223.556615914065</v>
     <v>18</v>
-    <v>4489170</v>
+    <v>4405020</v>
     <v>BRL</v>
     <v>BB Seguridade Participações S.A.</v>
     <v>BB Seguridade Participações S.A.</v>
-    <v>31.83</v>
-    <v>31.58</v>
+    <v>31.6</v>
+    <v>31.42</v>
     <v>SAUN, Quadra 05, Bloco B, 3 andar Edificio Banco do Br, Asa Norte, BRASILIA, DISTRITO FEDERAL, 70.040-912 BR</v>
     <v>Insurance</v>
     <v>BBSE3</v>
     <v>Ações</v>
     <v>BB Seguridade Participações S.A. (BVMF:BBSE3)</v>
-    <v>-0.12</v>
-    <v>-3.7850000000000002E-3</v>
-    <v>2181800</v>
+    <v>0.06</v>
+    <v>1.913E-3</v>
+    <v>411400</v>
   </rv>
   <rv s="2">
     <v>19</v>
@@ -2488,22 +2488,22 @@
     <v>34.06</v>
     <v>17.71</v>
     <v>BVMF</v>
-    <v>33.58</v>
-    <v>32.770000000000003</v>
+    <v>30.77</v>
+    <v>30.47</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>33.6</v>
-    <v>45184.784782267969</v>
+    <v>30.36</v>
+    <v>45223.556608796294</v>
     <v>21</v>
     <v>BRL</v>
     <v>BCO BTG PACTUAL UNT</v>
-    <v>33.549999999999997</v>
-    <v>32.97</v>
+    <v>30.47</v>
+    <v>30.58</v>
     <v>BPAC11</v>
     <v>Fundos mais negociados</v>
     <v>BCO BTG PACTUAL UNT (BVMF:BPAC11)</v>
-    <v>-0.63</v>
-    <v>-1.8749999999999999E-2</v>
-    <v>5273200</v>
+    <v>0.22</v>
+    <v>7.2459999999999998E-3</v>
+    <v>422600</v>
   </rv>
   <rv s="2">
     <v>22</v>
@@ -2529,32 +2529,32 @@
     <v>4.57</v>
     <v>BVMF</v>
     <v>615638600</v>
-    <v>9.1</v>
+    <v>7.81</v>
     <v>1966</v>
-    <v>8.9</v>
-    <v>1.532</v>
+    <v>7.71</v>
+    <v>1.5760000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5577685716</v>
+    <v>4765042764</v>
     <v>O BANCO PAN S.A., anteriormente Banco Panamericano S.A., é um banco comercial brasileiro. O Banco oferece uma variedade de serviços e produtos financeiros, incluindo empréstimos ao consumidor, leasing de veículos de passageiros e financiamento de vendas, entre outros. A empresa atua através de cinco segmentos principais: Financeiro, que oferece créditos ao consumidor, cartões de crédito, leasing e serviços de investimento; Consórcio, que se dedica à gestão de bens de terceiros, como automóveis, motocicletas, aparelhos eletrônicos e imóveis; Securitização de recebíveis; Promoção de vendas; e Outros. A empresa oferece seus serviços para clientes individuais e corporativos.</v>
     <v>BVMF</v>
-    <v>9</v>
+    <v>7.66</v>
     <v>2433</v>
-    <v>45184.784745370373</v>
+    <v>45223.556435185186</v>
     <v>24</v>
-    <v>1777170</v>
+    <v>2039730</v>
     <v>BRL</v>
     <v>BANCO PAN S.A.</v>
     <v>BANCO PAN S.A.</v>
-    <v>8.9700000000000006</v>
-    <v>9.06</v>
+    <v>7.74</v>
+    <v>7.74</v>
     <v>Avenida Paulista, 1374 16 andar, Bela Vista, SAO PAULO, SAO PAULO, 01.310-100 BR</v>
     <v>Banking Services</v>
     <v>BPAN4</v>
     <v>Ações</v>
     <v>BANCO PAN S.A. (BVMF:BPAN4)</v>
-    <v>0.06</v>
-    <v>6.6669999999999993E-3</v>
-    <v>1004200</v>
+    <v>0.08</v>
+    <v>1.0444E-2</v>
+    <v>29400</v>
   </rv>
   <rv s="2">
     <v>25</v>
@@ -2576,36 +2576,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>38.9</v>
+    <v>36</v>
     <v>16.47</v>
     <v>BVMF</v>
     <v>797207800</v>
-    <v>22.76</v>
+    <v>18.63</v>
     <v>1972</v>
-    <v>22.07</v>
-    <v>0.90610000000000002</v>
+    <v>18.39</v>
+    <v>0.98119999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>18550050000</v>
+    <v>14568440000</v>
     <v>A Braskem S.A. produz resinas termoplásticas. Os segmentos da Companhia são Petroquímicos Básicos, Poliolefinas, Vinílicos, Estados Unidos e Europa e Distribuição Química. Também se dedica à importação e exportação de produtos químicos, petroquímicos e combustíveis, produção, fornecimento e venda de utilidades como vapor, água, ar comprimido, gases industriais, prestação de serviços industriais e produção, fornecimento e venda de Energia elétrica. Também investe em outras empresas, seja como sócia ou como acionista. Opera mais de 40 unidades industriais, das quais mais de 30 estão localizadas nos estados brasileiros de Alagoas, Bahia, Rio de Janeiro, Rio Grande do Sul e São Paulo; mais de cinco estão localizadas nos Estados Unidos, nos estados da Pensilvânia, Texas e West Virginia, e mais de duas estão localizadas na Alemanha, nas cidades de Wesseling e Schkopau. Essas unidades produzem resinas termoplásticas - polietileno, polipropileno e cloreto de polivinila, além de petroquímicos básicos.</v>
     <v>BVMF</v>
-    <v>22.62</v>
+    <v>18.350000000000001</v>
     <v>8126</v>
-    <v>45184.784726053127</v>
+    <v>45223.556597222225</v>
     <v>27</v>
-    <v>3676700</v>
+    <v>2670340</v>
     <v>BRL</v>
     <v>BRASKEM S.A.</v>
     <v>BRASKEM S.A.</v>
-    <v>22.54</v>
-    <v>22.1</v>
+    <v>18.420000000000002</v>
+    <v>18.59</v>
     <v>R Eteno 1561, Polo Industrial De Camacari, CAMACARI, BAHIA, 42.816-200 BR</v>
     <v>Chemicals</v>
     <v>BRKM5</v>
     <v>Ações</v>
     <v>BRASKEM S.A. (BVMF:BRKM5)</v>
-    <v>-0.52</v>
-    <v>-2.2989000000000002E-2</v>
-    <v>2489000</v>
+    <v>0.24</v>
+    <v>1.3079E-2</v>
+    <v>79800</v>
   </rv>
   <rv s="2">
     <v>28</v>
@@ -2631,32 +2631,32 @@
     <v>8.3800000000000008</v>
     <v>BVMF</v>
     <v>408974500</v>
-    <v>12.63</v>
+    <v>11.09</v>
     <v>1928</v>
-    <v>12.42</v>
-    <v>1.1029</v>
+    <v>10.96</v>
+    <v>1.0343</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5168722000</v>
+    <v>4613188000</v>
     <v>O Banco do Estado do Rio Grande do Sul S.A. é um banco comercial brasileiro que presta serviços bancários pessoais e corporativos. O Banrisul oferece uma variedade de produtos e serviços financeiros, como empréstimos pessoais e imobiliários, cartões de crédito e de débito, corretagem de títulos, gestão de portfólio, locação de veículos e equipamentos, serviços de investimento, apoio ao comércio internacional, e seguros de vida e patrimonial, entre outros.</v>
     <v>BVMF</v>
-    <v>12.49</v>
+    <v>11</v>
     <v>8975</v>
-    <v>45184.784732858592</v>
+    <v>45223.556553865623</v>
     <v>30</v>
-    <v>1755450</v>
+    <v>1937390</v>
     <v>BRL</v>
     <v>Banco do Estado do Rio Grande do Sul S.A.</v>
     <v>Banco do Estado do Rio Grande do Sul S.A.</v>
-    <v>12.45</v>
-    <v>12.48</v>
+    <v>11.08</v>
+    <v>10.99</v>
     <v>Rua Capitao Montanha, 177, Centro, PORTO ALEGRE, RIO GRANDE DO SUL, 90.018-900 BR</v>
     <v>Banking Services</v>
     <v>BRSR6</v>
     <v>Ações</v>
     <v>Banco do Estado do Rio Grande do Sul S.A. (BVMF:BRSR6)</v>
     <v>-0.01</v>
-    <v>-8.0060000000000005E-4</v>
-    <v>946000</v>
+    <v>-9.0910000000000003E-4</v>
+    <v>49900</v>
   </rv>
   <rv s="2">
     <v>31</v>
@@ -2682,32 +2682,32 @@
     <v>13.09</v>
     <v>BVMF</v>
     <v>1874071000</v>
-    <v>18.82</v>
+    <v>16.23</v>
     <v>1966</v>
-    <v>18.38</v>
-    <v>1.1089</v>
+    <v>15.81</v>
+    <v>1.1617999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>35026386990</v>
+    <v>30284987360</v>
     <v>A Cosan SA, anteriormente conhecida como Cosan SA Indústria e Comércio, é uma empresa sediada no Brasil que atua principalmente no setor de marketing de petróleo. As atividades da Companhia estão divididas em seis segmentos de negócios: Raizen Energia, que produz e distribui derivados de cana-de-açúcar, como açúcar bruto e etanol hidratado, e co-gera energia a partir do bagaço de cana; Raizen Combustiveis, que distribui combustível, principalmente através de uma rede de postos de gasolina sob a marca Shell; Comgas, que se concentra na distribuição de gás natural no estado de São Paulo, Brasil; Radar, responsável pela compra, venda, gerenciamento e arrendamento de terras agrícolas; Lubrificantes, que fabrica e vende lubrificantes sob a marca Mobil no mercado latino-americano, bem como a marca Comma no mercado europeu e asiático, e Outros, que inclui investimentos em outros negócios. A Companhia é uma subsidiária da Cosan Ltd.</v>
     <v>BVMF</v>
-    <v>18.43</v>
+    <v>15.67</v>
     <v>53498</v>
-    <v>45184.784745370373</v>
+    <v>45223.556574074071</v>
     <v>33</v>
-    <v>5157860</v>
+    <v>7038430</v>
     <v>BRL</v>
     <v>Cosan S.A</v>
     <v>Cosan S.A</v>
-    <v>18.559999999999999</v>
-    <v>18.690000000000001</v>
+    <v>15.85</v>
+    <v>16.16</v>
     <v>Av. Brigadeiro Faria Lima, 4.100 / 15 andar, Itaim Bibi, SAO PAULO, SAO PAULO, 04.538-132 BR</v>
     <v>Oil &amp; Gas</v>
     <v>CSAN3</v>
     <v>Ações</v>
     <v>Cosan S.A (BVMF:CSAN3)</v>
-    <v>0.26</v>
-    <v>1.4107000000000001E-2</v>
-    <v>5703100</v>
+    <v>0.49</v>
+    <v>3.1269999999999999E-2</v>
+    <v>547600</v>
   </rv>
   <rv s="2">
     <v>34</v>
@@ -2729,36 +2729,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>7.52</v>
+    <v>7.29</v>
     <v>2.17</v>
     <v>BVMF</v>
     <v>443914000</v>
-    <v>2.4</v>
+    <v>2.85</v>
     <v>2009</v>
-    <v>2.27</v>
-    <v>2.2153999999999998</v>
+    <v>2.78</v>
+    <v>2.1511999999999998</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1060954000</v>
+    <v>1238520060</v>
     <v>A CVC Brasil Operadora e Agência de Viagens SA é uma empresa sediada no Brasil, envolvida no setor de turismo. A Companhia oferece pacotes turísticos nacionais e internacionais, cruzeiros, estadias em hotéis e resorts, passagens aéreas e passeios turísticos. Seus pacotes de viagem combinam passagens aéreas, transporte terrestre, acomodações, seguro de viagem, guias turísticos e outros serviços complementares de viagem. Além disso, organiza intercâmbios internacionais, acampamentos de idiomas e viagens para adolescentes. A Companhia vende produtos e serviços através de lojas próprias, plataformas de distribuição online e agentes independentes autorizados. Seus destinos incluem principalmente a Europa e as Américas. A Companhia possui várias subsidiárias no Brasil e na Argentina, como CVC Serviços Agencia de Viagens Ltda e CVC Turismo SAU, entre outras.</v>
     <v>BVMF</v>
-    <v>2.39</v>
+    <v>2.73</v>
     <v>2000</v>
-    <v>45184.78477361094</v>
+    <v>45223.556527777779</v>
     <v>36</v>
-    <v>27227930</v>
+    <v>21395420</v>
     <v>BRL</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A.</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A.</v>
-    <v>2.38</v>
-    <v>2.31</v>
+    <v>2.83</v>
+    <v>2.79</v>
     <v>Rua da Catequese, 227, 11 andar, sala 111, Bairro Jardim, SANTO ANDRE, SAO PAULO, 09.090-401 BR</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>CVCB3</v>
     <v>Ações</v>
     <v>CVC Brasil Operadora e Agência de Viagens S.A. (BVMF:CVCB3)</v>
-    <v>-0.08</v>
-    <v>-3.3473000000000003E-2</v>
-    <v>11312700</v>
+    <v>0.06</v>
+    <v>2.1978000000000001E-2</v>
+    <v>1960900</v>
   </rv>
   <rv s="2">
     <v>37</v>
@@ -2784,31 +2784,31 @@
     <v>11.19</v>
     <v>BVMF</v>
     <v>399742800</v>
-    <v>22.14</v>
+    <v>18.88</v>
     <v>1993</v>
-    <v>21.45</v>
-    <v>1.6605000000000001</v>
+    <v>18.690000000000001</v>
+    <v>1.6132</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>8650434192</v>
+    <v>7495177500</v>
     <v>A Cyrela Brazil Realty S.A. Empreendimentos e Participações, anteriormente denominada Cyrela Brasil Realty SA Empreendimentos e Participações, é uma empresa brasileira envolvida no setor imobiliário. A Empresa está envolvida principalmente na construção, incorporação, corretagem e venda de imóveis residenciais. Além disso, ela fornece serviços de desmembramento de terrenos e serviços complementares para seus clientes. Em 31 de dezembro de 2011, a Empresa possuía diversas subsidiárias, incluindo a ABC Realty de Investimento Imobiliário Ltda., a Andorra Empreendimentos Imobiliários Ltda., a BR-Serviços e Investimentos Ltda.-Bahamas, a Barão de Miracema Empreendimentos Imobiliários Ltda., a Boa Vista Empreendimentos Imobiliários Spe Ltda., a Bretanha Empreendimentos Imobiliários Ltda. e a Cabo Frio Empreendimentos Imobiliários Ltda., entre outras.</v>
     <v>BVMF</v>
-    <v>22.02</v>
-    <v>45184.784752638283</v>
+    <v>18.510000000000002</v>
+    <v>45223.556585648148</v>
     <v>39</v>
-    <v>5160900</v>
+    <v>5666060</v>
     <v>BRL</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações</v>
-    <v>22.01</v>
-    <v>21.64</v>
+    <v>18.7</v>
+    <v>18.75</v>
     <v>Rua do Rocio,109, 2 andar Sala01 Parte, Vila Olimpia, SAO PAULO, SAO PAULO, 04.552-000 BR</v>
     <v>Real Estate Operations</v>
     <v>CYRE3</v>
     <v>Ações</v>
     <v>Cyrela Brazil Realty S.A. Empreendimentos e Participações (BVMF:CYRE3)</v>
-    <v>-0.38</v>
-    <v>-1.7257000000000002E-2</v>
-    <v>3028200</v>
+    <v>0.24</v>
+    <v>1.2966E-2</v>
+    <v>189000</v>
   </rv>
   <rv s="2">
     <v>40</v>
@@ -2834,32 +2834,32 @@
     <v>11.76</v>
     <v>BVMF</v>
     <v>173500000</v>
-    <v>20.2</v>
+    <v>17.29</v>
     <v>1981</v>
-    <v>19.739999999999998</v>
-    <v>1.3292999999999999</v>
+    <v>16.920000000000002</v>
+    <v>1.3512999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>3466530000</v>
+    <v>2935620000</v>
     <v>A DIRECIONAL ENGENHARIA S.A. é uma empresa do setor imobiliário residencial estabelecida no Brasil. A empresa se concentra no desenvolvimento e na construção de projetos habitacionais residenciais, com foco no segmento de baixa renda. Constrói principalmente casas multifamiliares, que formam um bairro residencial. A empresa desenvolve suas atividades por meio de parcerias especiais (SCPs) e entidades com finalidade especial (SPEs), que atuam exclusivamente no setor imobiliário. Opera nos seguintes estados do Brasil, dentre outros: Rio de Janeiro, São Paulo, Rio Grande do Sul, Minas Gerais, Pará e Amazonas. A empresa detém inúmeras subsidiárias, como a Direcional Taguatinga Engenharia Ltda., Ametista Empreendimentos Imobiliários Ltda. e Malaquita Empreendimentos Imobiliários Ltda.</v>
     <v>BVMF</v>
-    <v>20.100000000000001</v>
+    <v>17.05</v>
     <v>745</v>
-    <v>45184.784756944442</v>
+    <v>45223.556574074071</v>
     <v>42</v>
-    <v>1762400</v>
+    <v>2846990</v>
     <v>BRL</v>
     <v>DIRECIONAL ENGENHARIA S.A.</v>
     <v>DIRECIONAL ENGENHARIA S.A.</v>
-    <v>20.079999999999998</v>
-    <v>19.98</v>
+    <v>17.18</v>
+    <v>16.920000000000002</v>
     <v>Rua dos Otoni, 177, Santa Efigenia, BELO HORIZONTE, MINAS GERAIS, 30.150-270 BR</v>
     <v>Real Estate Operations</v>
     <v>DIRR3</v>
     <v>Ações</v>
     <v>DIRECIONAL ENGENHARIA S.A. (BVMF:DIRR3)</v>
-    <v>-0.12</v>
-    <v>-5.9699999999999996E-3</v>
-    <v>1025200</v>
+    <v>-0.13</v>
+    <v>-7.6249999999999998E-3</v>
+    <v>81800</v>
   </rv>
   <rv s="2">
     <v>43</v>
@@ -2905,33 +2905,33 @@
     <v>31.35</v>
     <v>BVMF</v>
     <v>2307100000</v>
-    <v>39.08</v>
+    <v>38.6</v>
     <v>1962</v>
-    <v>38.5</v>
-    <v>1.0636000000000001</v>
+    <v>38.299999999999997</v>
+    <v>0.96560000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>85047420000</v>
+    <v>80000700000</v>
     <v>A Centrais Elétricas Brasileiras S.A. é uma empresa de energia elétrica. A Empresa atua nos segmentos de geração, transmissão, distribuição e comercialização. A Empresa opera por intermédio de várias empresas, incluindo a holding Eletrobrás, CGTEE, Chesf, Eletronorte, Eletronuclear, Eletrosul, Furnas, Amazonas Energia, Distribuição Acre, Distribuição Alagoas, Distribuição Piauí, Distribuição Rondônia, Distribuição Roraima e metade do capital da Itaipu Binacional. A Empresa tem uma capacidade total instalada para geração de mais de 44.150 megawatts. Possui uma rede nacional de linhas de transmissão de aproximadamente 60.500 quilômetros de extensão. A Usina Megawatt Solar da Eletrobrás Eletrosul tem mais de 4.000 painéis fotovoltaicos, totalizando uma área de aproximadamente 8.300 metros quadrados. A Usina Megawatt Solar da Eletrobrás Eletrosul tem uma capacidade instalada de aproximadamente 1 megawatt-pico (MWp), e a Usina Megawatt Solar pode produzir aproximadamente 1,2 gigawatt/hora (GWh).</v>
     <v>BVMF</v>
-    <v>39.06</v>
+    <v>38.24</v>
     <v>9529</v>
-    <v>45184.784745370373</v>
+    <v>45223.556562500002</v>
     <v>48</v>
     <v>49</v>
-    <v>1811590</v>
+    <v>1390660</v>
     <v>BRL</v>
     <v>Centrais Elétricas Brasileiras S.A.</v>
     <v>Centrais Elétricas Brasileiras S.A.</v>
-    <v>38.99</v>
-    <v>38.72</v>
+    <v>38.54</v>
+    <v>38.42</v>
     <v>Rua da Quitanda, 196 - Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.091-005 BR</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>ELET6</v>
     <v>Ações</v>
     <v>Centrais Elétricas Brasileiras S.A. (BVMF:ELET6)</v>
-    <v>-0.34</v>
-    <v>-8.7050000000000009E-3</v>
-    <v>615400</v>
+    <v>0.18</v>
+    <v>4.7070000000000002E-3</v>
+    <v>24400</v>
   </rv>
   <rv s="2">
     <v>50</v>
@@ -2954,35 +2954,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>34.869999999999997</v>
-    <v>23.6</v>
+    <v>23.82</v>
     <v>BVMF</v>
     <v>1145347000</v>
-    <v>34.340000000000003</v>
+    <v>31.98</v>
     <v>1999</v>
-    <v>33.31</v>
-    <v>0.95189999999999997</v>
+    <v>31.42</v>
+    <v>0.92630000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>39021972290</v>
+    <v>36078430500</v>
     <v>A Equatorial Energia SA (Equatorial) é uma empresa sediada no Brasil que atua no setor de energia. A Companhia tem participação acionária em outras empresas, todas no ramo de energia elétrica, principalmente com operações relacionadas à geração ou distribuição de energia elétrica. As atividades da Companhia estão divididas em quatro segmentos: distribuição, responsável pela distribuição de energia nos estados do Maranhão e Pará; geração, gerando eletricidade por meio de usinas termoelétricas; serviços/vendas, oferecendo comercialização de energia elétrica, serviços de faturamento, bem como manutenção de instalações elétricas, entre outros; e gestão central, incluindo de operações corporativas e administrativas. A Companhia opera por meio de várias subsidiárias, como a Companhia Energética do Maranhão (CEMAR), a Centrais Elétricas do Pará S.A. (CELPA), Geradora de Energia do Norte S.A. (Getamar), a Companhia Energética do Piauí e a Equatorial Soluções S.A.</v>
     <v>BVMF</v>
-    <v>33.39</v>
+    <v>31.45</v>
     <v>1178</v>
-    <v>45184.784752291409</v>
+    <v>45223.556527777779</v>
     <v>52</v>
-    <v>6634060</v>
+    <v>6506510</v>
     <v>BRL</v>
     <v>EQUATORIAL ENERGIA S.A.</v>
     <v>EQUATORIAL ENERGIA S.A.</v>
-    <v>33.409999999999997</v>
-    <v>34.07</v>
+    <v>31.75</v>
+    <v>31.5</v>
     <v>Alameda A, Quadra SQS, n 100, Loteamento Quitandinha,Anexo A, sala 31, Altos do Calhau, SAO LUIS, MARANHAO, 65.070-900 BR</v>
     <v>Electrical Utilities &amp; IPPs</v>
     <v>EQTL3</v>
     <v>Ações</v>
     <v>EQUATORIAL ENERGIA S.A. (BVMF:EQTL3)</v>
-    <v>0.68</v>
-    <v>2.0365000000000001E-2</v>
-    <v>23797500</v>
+    <v>0.05</v>
+    <v>1.5900000000000001E-3</v>
+    <v>129600</v>
   </rv>
   <rv s="2">
     <v>53</v>
@@ -3004,36 +3004,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>18.32</v>
+    <v>18.09</v>
     <v>12.89</v>
     <v>BVMF</v>
     <v>547191000</v>
-    <v>14.8</v>
+    <v>15.76</v>
     <v>1964</v>
-    <v>14.45</v>
-    <v>0.69720000000000004</v>
+    <v>15.53</v>
+    <v>0.72140000000000004</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>8054651520</v>
+    <v>8536179600</v>
     <v>A Fleury SA é uma empresa sediada no Brasil que presta serviços de laboratório médico. As atividades da Companhia estão divididas em três linhas de negócios: Centros de Atendimento ao Paciente (PSC), B2B e Diagnóstico Odontológico. A divisão PCS oferece diagnóstico médico privado. A divisão B2B é responsável pela análise clínica e diagnóstico por imagem em hospitais parceiros, além de testes para laboratórios, hospitais e clínicas em todo o Brasil. A divisão de Diagnóstico Odontológico fornece imagens de diagnóstico odontológico por meio da Papaiz Associados Diagnosticos por Imagem SA, uma joint venture com a Odontoprev SA. A Companhia opera através de várias marcas, como Fleury Medicina e Saúde, Clínica Felippe Mattoso e Weinmann, a + Medicina Diagnóstica, Diagnoson a +, Diagmax e Inlab, entre outras.</v>
     <v>BVMF</v>
-    <v>14.51</v>
+    <v>15.56</v>
     <v>27900</v>
-    <v>45184.784744328128</v>
+    <v>45223.556528008594</v>
     <v>55</v>
-    <v>3365040</v>
+    <v>3655490</v>
     <v>BRL</v>
     <v>Fleury S.A.</v>
     <v>Fleury S.A.</v>
-    <v>14.58</v>
-    <v>14.72</v>
+    <v>15.72</v>
+    <v>15.6</v>
     <v>Av. General Valdomiro de Lima, 508, Jabaquara, SAO PAULO, SAO PAULO, 04.344-070 BR</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>FLRY3</v>
     <v>Ações</v>
     <v>Fleury S.A. (BVMF:FLRY3)</v>
-    <v>0.21</v>
-    <v>1.4473E-2</v>
-    <v>1749600</v>
+    <v>0.04</v>
+    <v>2.5709999999999999E-3</v>
+    <v>172400</v>
   </rv>
   <rv s="2">
     <v>56</v>
@@ -3056,35 +3056,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>30.83</v>
-    <v>19</v>
+    <v>21.01</v>
     <v>BVMF</v>
     <v>1757067000</v>
-    <v>25.95</v>
+    <v>22.07</v>
     <v>1961</v>
-    <v>25.6</v>
-    <v>1.0450999999999999</v>
+    <v>21.84</v>
+    <v>1.1195999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>44089910000</v>
+    <v>37339000000</v>
     <v>A Gerdau S.A. (Gerdau) é uma fabricante de aços longos nas Américas do Norte e do Sul. A Companhia atua na produção e comercialização de produtos siderúrgicos em geral, através de suas usinas localizadas na Argentina, Brasil, Canadá, Chile, Colômbia, Espanha, Estados Unidos, Guatemala, Índia, México, Peru, República Dominicana, Uruguai e Venezuela. Seus segmentos são Operações Brasil, que incluem operações de ferro e aço no Brasil, com exceção de Aços Especiais, e a operação de carvão metalúrgico e coque na Colômbia; Operações na América do Norte, que incluem todas as operações na América do Norte, exceto as do México e Aços Especiais; Operações na América do Sul, que incluem todas as operações na América do Sul, exceto Brasil e a operação de carvão metalúrgico e coque na Colômbia; e Operações Aços Especiais, incluindo operações de aços especiais no Brasil, Espanha, Estados Unidos e Índia. Fornece aos seus clientes uma gama de produtos, incluindo produtos semi-acabados de minério de ferro.</v>
     <v>BVMF</v>
-    <v>25.65</v>
+    <v>21.76</v>
     <v>40061</v>
-    <v>45184.784745370373</v>
+    <v>45223.556597222225</v>
     <v>58</v>
-    <v>8319100</v>
+    <v>9048740</v>
     <v>BRL</v>
     <v>GERDAU S.A.</v>
     <v>GERDAU S.A.</v>
-    <v>25.78</v>
-    <v>25.67</v>
+    <v>22.07</v>
+    <v>21.85</v>
     <v>Avenida Doutora Ruth Cardoso, 8.501, 8 andar, Pinheiros, SAO PAULO, SAO PAULO, 05.425-070 BR</v>
     <v>Metals &amp; Mining</v>
     <v>GGBR4</v>
     <v>Ações</v>
     <v>GERDAU S.A. (BVMF:GGBR4)</v>
-    <v>0.02</v>
-    <v>7.7969999999999992E-4</v>
-    <v>5275000</v>
+    <v>0.09</v>
+    <v>4.1359999999999999E-3</v>
+    <v>236900</v>
   </rv>
   <rv s="2">
     <v>59</v>
@@ -3107,35 +3107,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>13.98</v>
-    <v>8.8800000000000008</v>
+    <v>9.83</v>
     <v>BVMF</v>
     <v>1033841000</v>
-    <v>11.98</v>
+    <v>10.35</v>
     <v>1901</v>
-    <v>11.83</v>
-    <v>1.0973999999999999</v>
+    <v>10.19</v>
+    <v>1.1534</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>12274730000</v>
+    <v>10508050000</v>
     <v>A Metalúrgica Gerdau S.A., anteriormente Metalúrgica Hugo Gerdau S.A., é uma empresa brasileira que se dedica ao setor de produção de aço. A Empresa se concentra na fabricação de itens de aço longo e plano, essencialmente através do processo de fabricação em fornos elétricos, a partir de sucata de metal e ferro-gusa comprado, bem como na produção de aço a partir de minério de ferro em alto-forno e por redução direta. Suas atividades se dividem em quatro segmentos: Operações no Brasil, Operações na América do Norte, Operações na América Latina e Unidade de aço especial. Seus produtos são distribuídos em diversos setores, como da construção civil, agricultura e indústria automotiva, e a Empresa opera fábricas no Brasil, Argentina, Chile, Colômbia, México, Peru, Venezuela, Estados Unidos, Canadá, Espanha e Índia, entre outros.</v>
     <v>BVMF</v>
-    <v>11.88</v>
+    <v>10.210000000000001</v>
     <v>45000</v>
-    <v>45184.784754363282</v>
+    <v>45223.556585648148</v>
     <v>61</v>
-    <v>6785590</v>
+    <v>8027400</v>
     <v>BRL</v>
     <v>METALURGICA GERDAU S.A.</v>
     <v>METALURGICA GERDAU S.A.</v>
-    <v>11.93</v>
-    <v>11.88</v>
+    <v>10.35</v>
+    <v>10.199999999999999</v>
     <v>Avenida Doutora Ruth Cardoso, 8.501,8 andar, Pinheiros, SAO PAULO, SAO PAULO, 05.425-070 BR</v>
     <v>Metals &amp; Mining</v>
     <v>GOAU4</v>
     <v>Ações</v>
     <v>METALURGICA GERDAU S.A. (BVMF:GOAU4)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>4217100</v>
+    <v>-0.01</v>
+    <v>-9.7940000000000006E-4</v>
+    <v>342900</v>
   </rv>
   <rv s="2">
     <v>62</v>
@@ -3157,35 +3157,35 @@
     <v>12</v>
     <v>Finance</v>
     <v>5</v>
-    <v>8.48</v>
+    <v>8.11</v>
     <v>1.93</v>
     <v>BVMF</v>
     <v>7539463000</v>
-    <v>4.53</v>
+    <v>4.13</v>
     <v>2001</v>
-    <v>4.38</v>
-    <v>1.2024999999999999</v>
+    <v>4.05</v>
+    <v>1.2370000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>33475215720</v>
+    <v>30911798299</v>
     <v>Hapvida Participacoes e Investimentos SA (Hapvida) é uma holding brasileira de saúde. A Companhia e suas controladas têm como atividades principais a cobertura de custos de assistência médica, hospitalar e odontológica de seus associados, a prestação de serviços médicos, hospitalares e odontológicos e exames e diagnósticos por imagem. A Hapvida tem diferentes instalações de saúde, como hospitais, clínicas ou unidades de diagnóstico por imagem. A Companhia opera no Nordeste do Brasil, em mais de 10 estados, como Alagoas, Amazonas, Bahia, Pernambuco, Rio Grande do Norte, Sergipe, entre outros.</v>
     <v>BVMF</v>
-    <v>4.5</v>
-    <v>45184.784779767971</v>
+    <v>4</v>
+    <v>45223.556562500002</v>
     <v>64</v>
-    <v>49391300</v>
+    <v>77999820</v>
     <v>BRL</v>
     <v>Hapvida Participações e Investimentos S/A</v>
     <v>Hapvida Participações e Investimentos S/A</v>
-    <v>4.5</v>
-    <v>4.4400000000000004</v>
+    <v>4.07</v>
+    <v>4.0999999999999996</v>
     <v>Avenida Heraclito Graca n 406, Centro, FORTALEZA, CEARA, 60.140-060 BR</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>HAPV3</v>
     <v>Ações</v>
     <v>Hapvida Participações e Investimentos S/A (BVMF:HAPV3)</v>
-    <v>-0.06</v>
-    <v>-1.3332999999999999E-2</v>
-    <v>16616300</v>
+    <v>0.1</v>
+    <v>2.5000000000000001E-2</v>
+    <v>3626200</v>
   </rv>
   <rv s="2">
     <v>65</v>
@@ -3207,36 +3207,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>9.9700000000000006</v>
-    <v>7.42</v>
+    <v>9.7899999999999991</v>
+    <v>7.29</v>
     <v>BVMF</v>
     <v>9836333000</v>
-    <v>9.39</v>
+    <v>8.7899999999999991</v>
     <v>1966</v>
-    <v>9.2799999999999994</v>
-    <v>0.98350000000000004</v>
+    <v>8.77</v>
+    <v>0.98050000000000004</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>92175570000</v>
+    <v>86378230000</v>
     <v>Itausa Investimentos Itau SA é uma empresa sediada no Brasil e tem como atividade principal o setor bancário. As atividades da Companhia estão divididas em dois segmentos de negócios: Financeiro e Industrial. A divisão Financeiral concentra-se na gestão do Itau Unibanco Holding SA, uma instituição bancária que oferece produtos e serviços financeiros, como empréstimos, cartões de crédito, contas correntes, apólices de seguros, ferramentas de investimento, corretagem de valores mobiliários, consultoria de tesouraria e investimentos para clientes individuais e empresas. A divisão Industrial é responsável pela operação da Itautec SA, que fabrica equipamentos de automação comercial e bancária, além de prestar serviços de tecnologia da informação (TI); Duratex SA, que produz painéis de madeira, louças sanitárias e metais sanitários, e Alpargatas, que produz calçados sob as marcas Juntas, Havaianas e Dupe, entre outros.</v>
     <v>BVMF</v>
-    <v>9.34</v>
+    <v>8.73</v>
     <v>127000</v>
-    <v>45184.784753182816</v>
+    <v>45223.556606435159</v>
     <v>67</v>
-    <v>18696170</v>
+    <v>20842720</v>
     <v>BRL</v>
     <v>ITAUSA S.A.</v>
     <v>ITAUSA S.A.</v>
-    <v>9.35</v>
-    <v>9.3000000000000007</v>
+    <v>8.7799999999999994</v>
+    <v>8.7899999999999991</v>
     <v>Avenida Paulista, 1938, 5Th Floor, Bela Vista, SAO PAULO, SAO PAULO, 01.310-200 BR</v>
     <v>Banking Services</v>
     <v>ITSA4</v>
     <v>Ações</v>
     <v>ITAUSA S.A. (BVMF:ITSA4)</v>
-    <v>-0.04</v>
-    <v>-4.2830000000000003E-3</v>
-    <v>9302000</v>
+    <v>0.06</v>
+    <v>6.8730000000000006E-3</v>
+    <v>786400</v>
   </rv>
   <rv s="2">
     <v>68</v>
@@ -3262,32 +3262,32 @@
     <v>6.71</v>
     <v>BVMF</v>
     <v>179720100</v>
-    <v>12.29</v>
+    <v>10.8</v>
     <v>1936</v>
-    <v>11.86</v>
-    <v>0.9143</v>
+    <v>10.65</v>
+    <v>0.86799999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>2142263592</v>
+    <v>1914019065</v>
     <v>A Kepler Weber S.A., anteriormente Kepler Weber S.A. Indústria Comércio Importação e Exportação, é uma empresa brasileira que se dedica essencialmente à produção de sistemas de armazenamento de grãos. Através de suas subsidiárias, a Empresa atua no desenvolvimento, fabricação e distribuição de equipamentos para armazenamento e conservação de grãos. O portfólio da Empresa inclui silos metálicos, com fundo em forma de funil ou plano, secadores, máquinas de limpeza e pré-limpeza de grãos e transportadores de grãos, entre outros. A Empresa também desenvolve e produz sistemas e equipamentos para terminais portuários e estocagem de malte. Além disso, a Kepler Weber fornece peças de reposição e serviços de reparação e manutenção para seus produtos. Em 31 de dezembro de 2011, as subsidiárias da Empresa eram a Kepler Weber Industrial S.A. e a Kepler Weber Peças e Serviços Ltda.</v>
     <v>BVMF</v>
-    <v>12.08</v>
+    <v>10.6</v>
     <v>1925</v>
-    <v>45184.78466435185</v>
+    <v>45223.556518414065</v>
     <v>70</v>
-    <v>1554070</v>
+    <v>841480</v>
     <v>BRL</v>
     <v>Kepler Weber S.A.</v>
     <v>Kepler Weber S.A.</v>
-    <v>12.08</v>
-    <v>11.92</v>
+    <v>10.8</v>
+    <v>10.65</v>
     <v>Rua do Rocio n 84, 3 andar, Vila Olimpia, SAO PAULO, SAO PAULO, 04.552-000 BR</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>KEPL3</v>
     <v>Ações</v>
     <v>Kepler Weber S.A. (BVMF:KEPL3)</v>
-    <v>-0.16</v>
-    <v>-1.3245E-2</v>
-    <v>753700</v>
+    <v>0.05</v>
+    <v>4.7169999999999998E-3</v>
+    <v>28600</v>
   </rv>
   <rv s="2">
     <v>71</v>
@@ -3310,34 +3310,34 @@
     <v>Finance</v>
     <v>5</v>
     <v>9.26</v>
-    <v>4.3600000000000003</v>
+    <v>3.87</v>
     <v>BVMF</v>
     <v>64663060</v>
-    <v>4.54</v>
+    <v>4.01</v>
     <v>2003</v>
-    <v>4.3600000000000003</v>
-    <v>1.516</v>
+    <v>4.01</v>
+    <v>1.486</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>283870833</v>
+    <v>259298870</v>
     <v>A Livetech da Bahia Industria e Comercio SA (WDC Networks) é uma empresa de fornecimento de equipamentos e de soluções de Telecom, Tecnologia da Informação (TI), e Energia Solar sediada no Brasil que atende uma variada gama de clientes nacionalmente e na Colômbia, Estados Unidos e Panamá. A Companhia desenvolveu um modelo de negócio de locação de equipamentos, transformando Capex em Opex, denominado como TaaS (Technology as a Service). A Companhia fornece serviços e produtos, incluindo infraestrutura de banda larga, câmeras de vigilância, sistemas de controle de acesso, Cibersegurança, data center, automação, e geradores de energia solar.</v>
     <v>BVMF</v>
-    <v>4.49</v>
-    <v>45184.783757650002</v>
+    <v>3.97</v>
+    <v>45223.554722222223</v>
     <v>73</v>
-    <v>36960</v>
+    <v>18990</v>
     <v>BRL</v>
     <v>Livetech da Bahia Indústria e Comércio S.A.</v>
     <v>Livetech da Bahia Indústria e Comércio S.A.</v>
-    <v>4.46</v>
-    <v>4.3899999999999997</v>
+    <v>4.01</v>
+    <v>4.01</v>
     <v>Rodovia BA-262, Ilheus x Urucuca, s/n, Km 2,8 Quadra A, Polo de Informatica, Iguape, ILHEUS, BAHIA, 45.658-335 BR</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>LVTC3</v>
     <v>Ações</v>
     <v>Livetech da Bahia Indústria e Comércio S.A. (BVMF:LVTC3)</v>
-    <v>-0.1</v>
-    <v>-2.2272E-2</v>
-    <v>31000</v>
+    <v>0.04</v>
+    <v>1.0076E-2</v>
+    <v>100</v>
   </rv>
   <rv s="2">
     <v>74</v>
@@ -3363,32 +3363,32 @@
     <v>2.82</v>
     <v>BVMF</v>
     <v>105774800</v>
-    <v>5.4</v>
+    <v>3.82</v>
     <v>2005</v>
-    <v>5.2</v>
-    <v>1.4510000000000001</v>
+    <v>3.68</v>
+    <v>1.4743999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>561664188</v>
+    <v>394540004</v>
     <v>A Mitre Realty Empreendimentos e Participações SA (Mitre Realty) é uma construtora com sede no Brasil. A Sociedade tem por objeto a incorporação, construção e comercialização de unidades imobiliárias residenciais na Cidade de São Paulo. Seus produtos são divididos em duas linhas: Raizes, voltada para clientes de classe média e Haus Mitre, voltada para clientes de classe média alta. O portfólio da empresa é composto por mais de 20 edifícios que oferecem apartamentos com serviços exclusivos, pontos de acesso e áreas comuns. A Mitre Realty possui várias subsidiárias, como Amaro Bezerra Empreendimentos e Participações Ltda, Mitre Le Champs Empreendimentos e Participações Ltda, Mitre Vendas Corretagem de Imóveis Ltda e MJF Construções Ltda, entre outras.</v>
     <v>BVMF</v>
-    <v>5.36</v>
+    <v>3.66</v>
     <v>159</v>
-    <v>45184.784699074073</v>
+    <v>45223.556489640629</v>
     <v>76</v>
-    <v>601520</v>
+    <v>1535230</v>
     <v>BRL</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A.</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A.</v>
-    <v>5.4</v>
-    <v>5.31</v>
+    <v>3.68</v>
+    <v>3.73</v>
     <v>Alameda Santos, 700, 5 Andar, Jardim Paulista, SAO PAULO, SAO PAULO, 01.418-002 BR</v>
     <v>Homebuilding &amp; Construction Supplies</v>
     <v>MTRE3</v>
     <v>Ações</v>
     <v>MITRE REALTY EMPREENDIMENTOS E PARTICIPAÇÕES S.A. (BVMF:MTRE3)</v>
-    <v>-0.05</v>
-    <v>-9.3279999999999995E-3</v>
-    <v>379000</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.9126000000000001E-2</v>
+    <v>154600</v>
   </rv>
   <rv s="2">
     <v>77</v>
@@ -3410,36 +3410,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>5.7</v>
-    <v>0.66</v>
+    <v>2.9</v>
+    <v>0.56999999999999995</v>
     <v>BVMF</v>
     <v>660303800</v>
-    <v>0.68</v>
+    <v>0.65</v>
     <v>1963</v>
-    <v>0.66</v>
-    <v>1.57</v>
+    <v>0.63</v>
+    <v>1.5274000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>472507900</v>
+    <v>436495900</v>
     <v>Oi SA em Recuperacao Judicial, anteriormente Oi S.A., constituída em 27 de novembro de 1963, é uma prestadora de serviços integrados de telecomunicações no Brasil. A Companhia é uma concessionária de serviços de telefonia fixa comutada (STFC). Atua no fornecimento de STFC como operadora de longa distância local e intra-regional. Seus segmentos incluem Serviços Residenciais, Mobilidade Pessoal e PMEs / Empresas. Oferece uma gama de serviços integrados de telecomunicações que incluem serviços de telefonia fixa e móvel, banda larga, televisão paga (TV), transmissão de dados e provedores de Internet. O segmento de Serviços Residenciais da Companhia é focado na venda de serviços de telefonia fixa, incluindo serviços de voz, serviços de comunicação de dados (banda larga) e televisão paga (TV). O segmento de Mobilidade Pessoal está focado na venda de serviços de telefonia móvel para assinantes e clientes pré-pagos e clientes de banda larga móvel. O segmento de PMEs / Empresas inclui soluções corporativas oferecidas a seus pequenas, médias e grandes empresas.</v>
     <v>BVMF</v>
-    <v>0.68</v>
+    <v>0.63</v>
     <v>6558</v>
-    <v>45184.78470747656</v>
+    <v>45223.556388888886</v>
     <v>79</v>
-    <v>115760</v>
+    <v>74060</v>
     <v>BRL</v>
     <v>Oi S.A. – Em Recuperação Judicial</v>
     <v>Oi S.A. – Em Recuperação Judicial</v>
-    <v>0.68</v>
-    <v>0.67</v>
+    <v>0.64</v>
+    <v>0.64</v>
     <v>Rua do Lavradio, 71,2 andar, Centro, RIO DE JANEIRO, RIO DE JANEIRO, 20.230-070 BR</v>
     <v>Telecommunications Services</v>
     <v>OIBR3</v>
     <v>Ações</v>
     <v>Oi S.A. – Em Recuperação Judicial (BVMF:OIBR3)</v>
-    <v>-0.01</v>
-    <v>-1.4705999999999999E-2</v>
-    <v>3298200</v>
+    <v>0.01</v>
+    <v>1.5872999999999998E-2</v>
+    <v>435600</v>
   </rv>
   <rv s="2">
     <v>80</v>
@@ -3461,36 +3461,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>34</v>
+    <v>38.86</v>
     <v>16.8</v>
     <v>BVMF</v>
     <v>13044500000</v>
-    <v>33.99</v>
+    <v>35.950000000000003</v>
     <v>1953</v>
-    <v>33.61</v>
-    <v>1.4171</v>
+    <v>35.24</v>
+    <v>1.36</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>468461100000</v>
+    <v>483450300000</v>
     <v>A PETRÓLEO BRASILEIRO S.A. - PETROBRAS é uma empresa especializada na indústria de petróleo, gás natural e energia. A Empresa está envolvida na prospecção, perfuração, refinação, transformação, comercialização e transporte de petróleo bruto proveniente da produção de campos petrolíferos onshore e offshore e de xisto ou outras rochas. Seus segmentos incluem Exploração e Produção, que abrange as atividades de exploração, desenvolvimento e produção de petróleo bruto, gás natural líquido e gás natural; Refinação, Transporte e Marketing, que abrange as atividades de refinação, logística, transporte e comercialização de petróleo, exportação de etanol e extração e processamento de xistos; Gás e Energia, que se dedica ao transporte e comercialização de gás natural produzido no Brasil e gás natural importado; Biocombustíveis, que abrange as atividades de produção de biodiesel e seus co-produtos, e atividades relacionadas ao etanol; Distribuição, que inclui as atividades de sua subsidiária Petrobras Distribuidora S.A. e Corporativa.</v>
     <v>BVMF</v>
-    <v>33.869999999999997</v>
+    <v>35.35</v>
     <v>45149</v>
-    <v>45184.784756944442</v>
+    <v>45223.556597222225</v>
     <v>82</v>
-    <v>43584970</v>
+    <v>60680720</v>
     <v>BRL</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
     <v>Petróleo Brasileiro S.A. (Petrobras)</v>
-    <v>33.869999999999997</v>
-    <v>33.770000000000003</v>
+    <v>35.65</v>
+    <v>35.479999999999997</v>
     <v>Av. Republica do Chile, n 65, 24 andar, Centro, Rio de Janeiro, RIO DE JANEIRO, 20.031-912 BR</v>
     <v>Oil &amp; Gas</v>
     <v>PETR4</v>
     <v>Ações</v>
     <v>Petróleo Brasileiro S.A. (Petrobras) (BVMF:PETR4)</v>
-    <v>-0.1</v>
-    <v>-2.9520000000000002E-3</v>
-    <v>25979900</v>
+    <v>0.13</v>
+    <v>3.6780000000000003E-3</v>
+    <v>10136900</v>
   </rv>
   <rv s="2">
     <v>83</v>
@@ -3516,32 +3516,32 @@
     <v>25.94</v>
     <v>BVMF</v>
     <v>239984900</v>
-    <v>33.18</v>
+    <v>32.94</v>
     <v>2010</v>
-    <v>32.46</v>
-    <v>1.702</v>
+    <v>32.53</v>
+    <v>1.728</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7909902304</v>
+    <v>7847506230</v>
     <v>A 3R Petroleum Oleo e Gas SA, anteriormente conhecida como Ouro Preto Oleo e Gas SA, é uma empresa com sede no Brasil que atua no setor de petróleo e gás. A Empresa é uma holding que investe em empresas que atuam na exploração, produção e comercialização de petróleo e seus derivados, gás natural e outros hidrocarbonetos fluidos. A empresa se concentra no redesenvolvimento e revitalização de campos de produção maduros localizados em terra (onshore) e em águas rasas. A Firma possui diversas subsidiárias, tais como SPE 3R Petroleum SA, SPE Fazenda Belém SA, SPE Rio Ventura SA, Ouro Preto Energia Onshore SA e OP Energia Ltda e OP Pescada Oleo e Gas Ltda. Por meio de suas controladas, a Companhia atua nos estados da Bahia, Rio Grande do Norte e Ceará.</v>
     <v>BVMF</v>
-    <v>32.89</v>
+    <v>32.1</v>
     <v>531</v>
-    <v>45184.784726330472</v>
+    <v>45223.556574074071</v>
     <v>85</v>
-    <v>4690910</v>
+    <v>6837400</v>
     <v>BRL</v>
     <v>3R Petroleum Óleo e Gás S.A.</v>
     <v>3R Petroleum Óleo e Gás S.A.</v>
-    <v>32.89</v>
-    <v>32.96</v>
-    <v>Rua Visconde de Ouro Preto, 5 Sala 601, Botafogo, Rio De Janeiro, RIO DE JANEIRO, 22.250-180 BR</v>
+    <v>32.630000000000003</v>
+    <v>32.700000000000003</v>
+    <v>Praia de Botafogo, 186, SL 1301, 1401, 1501, Botafogo, Rio De Janeiro, RIO DE JANEIRO, 22.250-145 BR</v>
     <v>Oil &amp; Gas</v>
     <v>RRRP3</v>
     <v>Ações</v>
     <v>3R Petroleum Óleo e Gás S.A. (BVMF:RRRP3)</v>
-    <v>7.0000000000000007E-2</v>
-    <v>2.1279999999999997E-3</v>
-    <v>4267800</v>
+    <v>0.6</v>
+    <v>1.8692E-2</v>
+    <v>133700</v>
   </rv>
   <rv s="2">
     <v>86</v>
@@ -3563,25 +3563,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>23.96</v>
+    <v>24.32</v>
     <v>14.8</v>
     <v>BVMF</v>
-    <v>23.78</v>
-    <v>23.45</v>
+    <v>23.17</v>
+    <v>22.89</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>23.6</v>
-    <v>45184.784778066409</v>
+    <v>22.82</v>
+    <v>45223.556481481479</v>
     <v>88</v>
     <v>BRL</v>
     <v>CIA SANEAMENTO DO PARANA UNT</v>
-    <v>23.6</v>
-    <v>23.54</v>
+    <v>22.89</v>
+    <v>23.12</v>
     <v>SAPR11</v>
     <v>Fundos mais negociados</v>
     <v>CIA SANEAMENTO DO PARANA UNT (BVMF:SAPR11)</v>
-    <v>-0.06</v>
-    <v>-2.542E-3</v>
-    <v>426100</v>
+    <v>0.3</v>
+    <v>1.3146E-2</v>
+    <v>47200</v>
   </rv>
   <rv s="2">
     <v>89</v>
@@ -3603,36 +3603,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>23.56</v>
-    <v>6.82</v>
+    <v>20.77</v>
+    <v>6.28</v>
     <v>BVMF</v>
     <v>243689000</v>
-    <v>8.06</v>
+    <v>7.29</v>
     <v>2011</v>
-    <v>7.37</v>
-    <v>1.645</v>
+    <v>7.15</v>
+    <v>1.627</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1844725730</v>
+    <v>1744813240</v>
     <v>O Grupo SBF SA é uma empresa sediada no Brasil que atua no setor de vestuário e vestuário. A empresa é especializada no varejo de roupas através de uma rede de lojas, bem como através do seu site na Internet. A Companhia oferece diferentes tipos de produtos dividindo-os em: esportes, homens, mulheres, crianças, calçados, acessórios, equipamentos e suplementos, entre outros. A Companhia também oferece seus produtos outlet, em uma seção especial onde oferece produtos antigos com desconto no preço. É vendido em mais de 180 lojas em regiões como Espírito Santo, São Paulo, Amazonas e Rio de Janeiro, dentro do território brasileiro. Também opera um serviço de personal trainer on-line chamado Bora.</v>
     <v>BVMF</v>
-    <v>7.79</v>
+    <v>7.1</v>
     <v>8196</v>
-    <v>45184.784745370373</v>
+    <v>45223.556585648148</v>
     <v>91</v>
-    <v>3319140</v>
+    <v>2185270</v>
     <v>BRL</v>
     <v>GRUPO SBF S.A.</v>
     <v>GRUPO SBF S.A.</v>
-    <v>7.87</v>
-    <v>7.57</v>
+    <v>7.25</v>
+    <v>7.16</v>
     <v>Av Dra Ruth Cardoso 7221 Andar Ed Birman 3, Pinheiros, PINHEIROS, SAO PAULO, 05.425-902 BR</v>
     <v>Specialty Retailers</v>
     <v>SBFG3</v>
     <v>Ações</v>
     <v>GRUPO SBF S.A. (BVMF:SBFG3)</v>
-    <v>-0.22</v>
-    <v>-2.8241000000000002E-2</v>
-    <v>3494100</v>
+    <v>0.06</v>
+    <v>8.4510000000000002E-3</v>
+    <v>67300</v>
   </rv>
   <rv s="2">
     <v>92</v>
@@ -3658,32 +3658,32 @@
     <v>61</v>
     <v>BVMF</v>
     <v>4539008000</v>
-    <v>71.23</v>
+    <v>64.27</v>
     <v>1943</v>
-    <v>69.790000000000006</v>
-    <v>0.51859999999999995</v>
+    <v>63.92</v>
+    <v>0.56230000000000002</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>318048290559</v>
+    <v>290451121920</v>
     <v>A Vale S.A. é uma produtora global de minério de ferro e pelotas de minério de ferro, principais matérias-primas para a produção de aço e produtora de níquel. A Companhia também produz cobre, carvão metalúrgico e térmico, potássio, fosfatos e outros nutrientes fertilizantes, minério de manganês, ferroligas, metais do grupo da platina, ouro, prata e cobalto. Os segmentos da Companhia incluem minerais Ferrosos, que engloba a produção e extração de minerais ferrosos, como finos de minério de ferro, pelotas de minério de ferro e seus serviços de logística, manganês e ferroligas e outros produtos e serviços ferrosos; Carvão, que compreende a extração de carvão metalúrgico e térmico e seus serviços logísticos; Metais básicos, que incluem a produção e extração de minerais não-ferrosos, e são apresentados como níquel e seus derivados, e cobre (concentrado de cobre), e Outros, que engloba as vendas e despesas de outros produtos, serviços e investimentos em joint ventures e associar em outros negócios.</v>
     <v>BVMF</v>
-    <v>70.12</v>
+    <v>62.56</v>
     <v>64516</v>
-    <v>45184.784768518519</v>
+    <v>45223.556597222225</v>
     <v>94</v>
-    <v>24839060</v>
+    <v>23693250</v>
     <v>BRL</v>
     <v>VALE S.A.</v>
     <v>VALE S.A.</v>
-    <v>71</v>
-    <v>70.069999999999993</v>
+    <v>64</v>
+    <v>63.99</v>
     <v>Pr Botafogo 00186 Sal 1101 Sal 1601 Sal 1701 Sal 1801, Botafogo, RIO DE JANEIRO, RIO DE JANEIRO, 22.250-145 BR</v>
     <v>Metals &amp; Mining</v>
     <v>VALE3</v>
     <v>Ações</v>
     <v>VALE S.A. (BVMF:VALE3)</v>
-    <v>-0.05</v>
-    <v>-7.1309999999999993E-4</v>
-    <v>18887600</v>
+    <v>1.43</v>
+    <v>2.2858E-2</v>
+    <v>2594600</v>
   </rv>
   <rv s="2">
     <v>95</v>
@@ -3705,36 +3705,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>44.1</v>
-    <v>34.270000000000003</v>
+    <v>46.83</v>
+    <v>34.18</v>
     <v>BVMF</v>
     <v>1663557000</v>
-    <v>43.56</v>
+    <v>45.45</v>
     <v>1998</v>
-    <v>43.26</v>
-    <v>0.19009999999999999</v>
+    <v>45.1</v>
+    <v>0.16450000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>71998746960</v>
+    <v>74993140000</v>
     <v>A Telefonica Brasil S.A. é uma empresa de telecomunicações móveis no Brasil que oferece serviços móveis pós-pagos. A Companhia também atua como empresa de telecomunicações fixas no estado de São Paulo. A empresa comercializa seus serviços móveis sob a marca Vivo. Oferece aos seus clientes um portfólio de produtos, incluindo voz móvel e fixa, dados móveis, banda larga fixa, banda larga ultra-rápida, televisão por assinatura, tecnologia da informação e serviços digitais. Suas operações consistem em serviços de telefonia fixa local e de longa distância; serviços móveis, incluindo serviços de valor agregado; serviços de dados, incluindo serviços de banda larga e serviços de dados móveis; Serviços de televisão por assinatura direto para casa (DTH), televisão por protocolo de Internet (IPTV) e cabo; serviços de rede, como aluguel de instalações, bem como outros serviços; serviços de atacado, incluindo interconexão; serviços digitais; serviços projetados especificamente para clientes corporativos e a venda de dispositivos e acessórios sem fio.</v>
     <v>BVMF</v>
-    <v>43.4</v>
+    <v>45</v>
     <v>33000</v>
-    <v>45184.7847578125</v>
+    <v>45223.556574074071</v>
     <v>97</v>
-    <v>2271060</v>
+    <v>2586630</v>
     <v>BRL</v>
     <v>TELEFÔNICA BRASIL S.A.</v>
     <v>TELEFÔNICA BRASIL S.A.</v>
-    <v>43.56</v>
-    <v>43.28</v>
+    <v>45.1</v>
+    <v>45.16</v>
     <v>Av Engenheiro Luis Carlos Berrini, 1376 32 andar, Cidade Moncoes, SAO PAULO, SAO PAULO, 04.571-936 BR</v>
     <v>Telecommunications Services</v>
     <v>VIVT3</v>
     <v>Ações</v>
     <v>TELEFÔNICA BRASIL S.A. (BVMF:VIVT3)</v>
-    <v>-0.12</v>
-    <v>-2.7650000000000001E-3</v>
-    <v>825500</v>
+    <v>0.16</v>
+    <v>3.5560000000000001E-3</v>
+    <v>30900</v>
   </rv>
   <rv s="2">
     <v>98</v>
@@ -3756,36 +3756,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>22.22</v>
-    <v>10.41</v>
+    <v>21.76</v>
+    <v>10.19</v>
     <v>BVMF</v>
     <v>245916200</v>
-    <v>22.09</v>
+    <v>18.57</v>
     <v>1952</v>
-    <v>21.73</v>
-    <v>1.1366000000000001</v>
+    <v>18.329999999999998</v>
+    <v>1.1045</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>5370809808</v>
+    <v>4539613052</v>
     <v>A VULCABRAS AZALEIA S/A é uma holding com sede no Brasil, que se dedica principalmente à fabricação de calçados. A Empresa está envolvida na produção e comercialização de calçados esportivos e profissionais masculinos e femininos, bem como na fabricação de vestuário. A Empresa vende seus produtos sob várias marcas, incluindo Azaleia, Dijean, Funny, Opanka, Olympikus e Vulcabras. A Empresa também produz sapatos e roupas para a marca Reebok. Além disso, a Empresa fabrica, sob a marca Botas Vulcabras, botas de segurança para hospitais, laboratórios, bem como para indústrias de alimentos, construção, mineração, metalurgia e química. A Empresa exporta seus produtos para Argentina, Chile, Colômbia e Peru, entre outros. Em 31 de dezembro de 2011, a subsidiária direta da Empresa era a Vulcabras Azaleia CE Calçados e Artigos Esportivos SA.</v>
     <v>BVMF</v>
-    <v>21.94</v>
+    <v>18.329999999999998</v>
     <v>23878</v>
-    <v>45184.784376515629</v>
+    <v>45223.55636574074</v>
     <v>100</v>
-    <v>518460</v>
+    <v>453550</v>
     <v>BRL</v>
     <v>VULCABRAS S.A.</v>
     <v>VULCABRAS S.A.</v>
-    <v>22.09</v>
-    <v>21.84</v>
+    <v>18.329999999999998</v>
+    <v>18.46</v>
     <v>Av. Antonio Frederico Ozanan,1440, Da Grama, JUNDIAI, SAO PAULO, 13.219-001 BR</v>
     <v>Textiles &amp; Apparel</v>
     <v>VULC3</v>
     <v>Ações</v>
     <v>VULCABRAS S.A. (BVMF:VULC3)</v>
-    <v>-0.1</v>
-    <v>-4.5579999999999996E-3</v>
-    <v>177200</v>
+    <v>0.13</v>
+    <v>7.0920000000000002E-3</v>
+    <v>10900</v>
   </rv>
   <rv s="2">
     <v>101</v>
@@ -3807,36 +3807,36 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>42.14</v>
-    <v>29.05</v>
+    <v>42.07</v>
+    <v>33.36</v>
     <v>BVMF</v>
     <v>4197318000</v>
-    <v>36.229999999999997</v>
+    <v>34.67</v>
     <v>1961</v>
-    <v>35.950000000000003</v>
-    <v>0.54420000000000002</v>
+    <v>34.36</v>
+    <v>0.61529999999999996</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>151271340720</v>
+    <v>145227202800</v>
     <v>A WEG SA é uma holding sediada no Brasil que tem por objetivo principal a fabricação de equipamentos e componentes elétricos. A Companhia atua, juntamente com suas subsidiárias, na fabricação e comercialização de mercadorias, tais como motores elétricos, geradores e transformadores; redutores, redutores de engrenagem, inversores de frequência, motores de partida e dispositivos de manobra; controle e proteção de circuitos elétricos e automação industrial; soluções de tração elétrica (terrestre e marítima); soluções para geração de energia renovável e distribuída, explorando todas as oportunidades em pequenas centrais hidrelétricas e fontes de biomassa térmica, eólica e solar; no-breaks e alternadores para grupos de geradores; subestações elétricas; sistemas de equipamentos elétricos e eletrônicos industriais e tintas e vernizes industriais. Atua no Brasil, Argentina, México, Estados Unidos, Portugal, Áustria, África do Sul, Índia e China. Opera por meio da Bluffton Motor Works LLC.</v>
     <v>BVMF</v>
-    <v>36.08</v>
+    <v>33.9</v>
     <v>39137</v>
-    <v>45184.784767082812</v>
+    <v>45223.556585648148</v>
     <v>103</v>
-    <v>6892430</v>
+    <v>5602940</v>
     <v>BRL</v>
     <v>WEG S.A.</v>
     <v>WEG S.A.</v>
-    <v>36.1</v>
-    <v>36.04</v>
-    <v>Av. Prefeito Waldemar Grubba,3300, Centro, JARAGUA DO SUL, SANTA CATARINA, 89.256-900 BR</v>
+    <v>34.54</v>
+    <v>34.6</v>
+    <v>Av. Prefeito Waldemar Grubba,3300, Vila Lalau, JARAGUA DO SUL, SANTA CATARINA, 89.256-900 BR</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>WEGE3</v>
     <v>Ações</v>
     <v>WEG S.A. (BVMF:WEGE3)</v>
-    <v>-0.04</v>
-    <v>-1.109E-3</v>
-    <v>3261700</v>
+    <v>0.7</v>
+    <v>2.0649000000000001E-2</v>
+    <v>1142000</v>
   </rv>
   <rv s="2">
     <v>104</v>
@@ -3862,32 +3862,32 @@
     <v>6.4</v>
     <v>BVMF</v>
     <v>309088800</v>
-    <v>21.03</v>
+    <v>18.829999999999998</v>
     <v>2007</v>
-    <v>20.420000000000002</v>
-    <v>1.88</v>
+    <v>18.309999999999999</v>
+    <v>1.9767999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>6330138624</v>
+    <v>5693415696</v>
     <v>A YDUQS Participações SA é uma empresa com sede no Brasil que se dedica à prestação de serviços educacionais. A empresa está focada no desenvolvimento de instituições de ensino superior. Sua gama de serviços abrange cursos presenciais e a distância com programas de pós-graduação e mestrado em administração de empresas (MBA), cursos profissionalizantes, preparatórios para exames, cursos de curta duração, além de treinamentos empresariais para profissionais, entre outros. Os cursos da Companhia oferecem desenvolvimento nas áreas jurídica, gestão, humanidades, saúde e tecnologia. Sua rede educacional é formada por universidades, campi, centros de ensino a distância e faculdades. A Companhia atua no Brasil por meio das marcas: Estácio, UniToledo, Adtalem (IBMEC, Wyden, Damasio Educacional, SJT Med e Clio).</v>
     <v>BVMF</v>
-    <v>20.9</v>
+    <v>18.440000000000001</v>
     <v>17882</v>
-    <v>45184.784728437502</v>
+    <v>45223.556527777779</v>
     <v>106</v>
-    <v>4572040</v>
+    <v>5830280</v>
     <v>BRL</v>
     <v>YDUQS Participações S.A.</v>
     <v>YDUQS Participações S.A.</v>
-    <v>20.96</v>
-    <v>20.48</v>
+    <v>18.829999999999998</v>
+    <v>18.420000000000002</v>
     <v>Avenida Venezuela 43 6 andar, Saude, RIO DE JANEIRO, RIO DE JANEIRO, 20.081-311 BR</v>
     <v>School, College &amp; University</v>
     <v>YDUQ3</v>
     <v>Ações</v>
     <v>YDUQS Participações S.A. (BVMF:YDUQ3)</v>
-    <v>-0.42</v>
-    <v>-2.0095999999999999E-2</v>
-    <v>3358700</v>
+    <v>-0.02</v>
+    <v>-1.085E-3</v>
+    <v>335700</v>
   </rv>
   <rv s="2">
     <v>107</v>
@@ -3913,32 +3913,32 @@
     <v>32.950000000000003</v>
     <v>BVMF</v>
     <v>15634230000</v>
-    <v>43.22</v>
+    <v>43.56</v>
     <v>1977</v>
-    <v>42.33</v>
-    <v>1.2782</v>
+    <v>43.43</v>
+    <v>1.3050999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>2747560000000</v>
+    <v>2704722000000</v>
     <v>A APPLE INC. projeta, fabrica e comercializa dispositivos móveis de comunicação e mídia, computadores pessoais e dispositivos digitais portáteis para reprodução de música. A Empresa vende uma variedade de software, serviços, acessórios, soluções de rede, conteúdo e aplicativos digitais de terceiros. Os segmentos da Empresa incluem as Américas, Europa, China Maior, Japão e o Restante da Ásia-Pacífico. O segmento das Américas inclui América do Norte e do Sul. O segmento Europa inclui os países europeus, Índia, Oriente Médio e África. O segmento China Maior inclui China, Hong Kong e Taiwan. O segmento Restante da Ásia-Pacífico inclui a Austrália e os países asiáticos não incluídos nos outros segmentos operacionais da Empresa. Seus produtos e serviços incluem iPhone, iPad, Mac, iPod, Apple Watch, Apple TV, um portfólio de aplicativos de software ao consumidor e profissionais, iPhone OS (iOS), sistemas operacionais OS X e watchOS, iCloud, Apple Pay e uma variedade de acessórios, serviços e ofertas de suporte.</v>
     <v>BVMF</v>
-    <v>42.9</v>
+    <v>43.27</v>
     <v>164000</v>
-    <v>45184.784756944442</v>
+    <v>45223.556608796294</v>
     <v>109</v>
-    <v>70617460</v>
+    <v>54380600</v>
     <v>BRL</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>42.98</v>
-    <v>42.45</v>
+    <v>43.45</v>
+    <v>43.47</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>AAPL34</v>
     <v>Ações</v>
     <v>APPLE INC. (BVMF:AAPL34)</v>
-    <v>-0.45</v>
-    <v>-1.0489999999999999E-2</v>
-    <v>293684</v>
+    <v>0.2</v>
+    <v>4.6220000000000002E-3</v>
+    <v>2904</v>
   </rv>
   <rv s="2">
     <v>110</v>
@@ -3964,32 +3964,32 @@
     <v>21.27</v>
     <v>BVMF</v>
     <v>10317750000</v>
-    <v>34.92</v>
+    <v>32.22</v>
     <v>1996</v>
-    <v>34.119999999999997</v>
-    <v>1.2329000000000001</v>
+    <v>32.119999999999997</v>
+    <v>1.1862999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1493185000000</v>
+    <v>1305815000000</v>
     <v>A Amazon.com, Inc. oferece uma variedade de produtos e serviços através de seus sites. Os produtos da empresa incluem mercadorias e conteúdo que compra para revenda de fornecedores e aqueles oferecidos por terceiros. Também fabrica e vende dispositivos eletrônicos. Opera em três segmentos: América do Norte, Internacional e Amazon Web Services (AWS). Seus produtos da AWS incluem análises, Amazon Athena, Amazon CloudSearch, Amazon EMR, Amazon Elasticsearch Service, Amazon Kinesis, Amazon Managed Streaming para Apache Kafka, Amazon Redshift, Amazon QuickSight, AWS Data Pipeline, AWS Glue e AWS Lake Formation. As soluções da AWS incluem machine learning, análises e lagos de dados, Internet das Coisas, computação sem servidor, contêineres, aplicativos corporativos e armazenamento. Além disso, a Companhia presta serviços, como publicidade. Também oferece o Amazon Prime, um programa de associação que inclui frete grátis, acesso a streaming de vários filmes e episódios de televisão (TV).</v>
     <v>BVMF</v>
-    <v>35.29</v>
+    <v>31.77</v>
     <v>1461000</v>
-    <v>45184.784733796296</v>
+    <v>45223.556527777779</v>
     <v>112</v>
-    <v>49299170</v>
+    <v>48477840</v>
     <v>BRL</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>34.92</v>
-    <v>34.22</v>
+    <v>32.200000000000003</v>
+    <v>32.17</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
     <v>Diversified Retail</v>
     <v>AMZO34</v>
     <v>Ações</v>
     <v>AMAZON.COM, INC. (BVMF:AMZO34)</v>
-    <v>-1.07</v>
-    <v>-3.032E-2</v>
-    <v>145494</v>
+    <v>0.4</v>
+    <v>1.2589999999999999E-2</v>
+    <v>2541</v>
   </rv>
   <rv s="2">
     <v>113</v>
@@ -4012,35 +4012,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>68.87</v>
-    <v>36.47</v>
+    <v>41.65</v>
     <v>BVMF</v>
     <v>403138200</v>
-    <v>54.2</v>
+    <v>53.9</v>
     <v>1994</v>
-    <v>52.68</v>
-    <v>1.5321</v>
+    <v>52.75</v>
+    <v>1.5435000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>234626500000</v>
+    <v>220556900000</v>
     <v>A ASML Holding N.V. é uma holding. A empresa é fabricante de equipamentos para fabricação de chips. A Companhia atua no desenvolvimento, produção, comercialização, venda e manutenção de sistemas de equipamentos semicondutores, consistindo em sistemas de litografia. Os produtos da empresa incluem sistemas e produtos e serviços básicos instalados. As principais operações da Companhia estão na Holanda, Estados Unidos e Ásia. A empresa oferece sistemas TWINSCAN, equipados com sistema de litografia com lâmpada de mercúrio como fonte de luz (i-line), fontes de luz Krypton Fluoride (KrF) e Argon Fluoride (ArF) para bolachas de processamento de 300 milímetros para ambientes de fabricação para os quais a imagem é pequena resolução é necessária. Os sistemas TWINSCAN também incluem sistemas de litografia de imersão (sistemas de imersão TWINSCAN). A empresa também oferece sistemas NXE, equipados com tecnologia de fonte de luz ultravioleta extrema (EUV). A empresa oferece o YieldStar, um sistema de metrologia de wafer.</v>
     <v>BVMF</v>
-    <v>55.2</v>
-    <v>41500</v>
-    <v>45184.784421296295</v>
+    <v>53.28</v>
+    <v>39850</v>
+    <v>45222.947916666664</v>
     <v>115</v>
-    <v>556560</v>
+    <v>678020</v>
     <v>BRL</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>54.2</v>
-    <v>52.68</v>
+    <v>53</v>
+    <v>53.68</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>ASML34</v>
     <v>Ações</v>
     <v>ASML Holding NV (BVMF:ASML34)</v>
-    <v>-2.52</v>
-    <v>-4.5651999999999998E-2</v>
-    <v>2122</v>
+    <v>0.4</v>
+    <v>7.5079999999999999E-3</v>
+    <v>301</v>
   </rv>
   <rv s="2">
     <v>116</v>
@@ -4063,35 +4063,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>70.040000000000006</v>
-    <v>48.95</v>
-    <v>BVMF</v>
-    <v>18155970</v>
-    <v>56.71</v>
+    <v>51.55</v>
+    <v>BVMF</v>
+    <v>17857000</v>
+    <v>56.31</v>
     <v>1991</v>
-    <v>56.71</v>
-    <v>0.66149999999999998</v>
+    <v>55.93</v>
+    <v>0.65080000000000005</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>46771590000</v>
+    <v>44438040000</v>
     <v>A AutoZone, Inc. é uma varejista e distribuidora de peças de reposição e acessórios automotivos nos Estados Unidos. A Companhia opera através do segmento de Auto Parts Locations. O segmento de Auto Parts Locations é um varejista e distribuidor de peças e acessórios automotivos. Em 10 de fevereiro de 2018, a Companhia operava em 6.088 locais nos Estados Unidos, Porto Rico, México e Brasil. As lojas da Companhia possuem linhas de produtos para automóveis, utilitários esportivos, vans e caminhões leves, incluindo peças duras automotivas novas e remanufaturadas, itens de manutenção, acessórios e produtos não automotivos. Os outros segmentos operacionais da Companhia incluem a ALLDATA, que produz, vende e mantém software de diagnóstico e reparo usado no setor de reparo automotivo, e E-commerce, que inclui vendas diretas aos clientes através do site www.autozone.com.</v>
     <v>BVMF</v>
-    <v>56.81</v>
+    <v>57.05</v>
     <v>69440</v>
-    <v>45184.784722222219</v>
+    <v>45222.836805555555</v>
     <v>118</v>
-    <v>124010</v>
+    <v>128280</v>
     <v>BRL</v>
     <v>AUTOZONE, INC.</v>
     <v>AUTOZONE, INC.</v>
-    <v>56.71</v>
-    <v>56.71</v>
+    <v>56.31</v>
+    <v>55.93</v>
     <v>123 S Front St, MEMPHIS, TN, 38103 US</v>
     <v>Specialty Retailers</v>
     <v>AZOI34</v>
     <v>Ações</v>
     <v>AUTOZONE, INC. (BVMF:AZOI34)</v>
-    <v>-0.1</v>
-    <v>-1.7599999999999998E-3</v>
-    <v>4</v>
+    <v>-1.1200000000000001</v>
+    <v>-1.9632E-2</v>
+    <v>50</v>
   </rv>
   <rv s="2">
     <v>119</v>
@@ -4114,35 +4114,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>91.6</v>
-    <v>68.8</v>
+    <v>71.239999999999995</v>
     <v>BVMF</v>
     <v>1447370</v>
-    <v>90.24</v>
+    <v>85.14</v>
     <v>1998</v>
-    <v>89.39</v>
-    <v>0.86550000000000005</v>
+    <v>84.39</v>
+    <v>0.87519999999999998</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>806512200000</v>
+    <v>735461900000</v>
     <v>A BERKSHIRE HATHAWAY INC. é uma empresa holding com subsidiárias envolvidas em várias atividades empresariais. A Empresa conduz negócios de seguros, tanto primários quanto de resseguro, transporte ferroviário de mercadorias e um grupo de negócios de serviços públicos e geração e distribuição de energia. Entre seus segmentos estão a GEICO, a General Re Corporation (General Re), a Berkshire Hathaway Reinsurance Group (BHRG), a Berkshire Hathaway Primary Group, Burlington Northern Santa Fe, LLC (BNSF), Berkshire Hathaway Energy, Manufacturing, McLane Company, Service and Retailing e Finance e produtos financeiros. Suas atividades de seguros e resseguros são realizadas por meio de diversas seguradoras nacionais e estrangeiras. Seus negócios de seguros fornecem seguro e resseguro de riscos à propriedade e de acidentes, além de resseguro de riscos de vida, acidentes e saúde em todo o mundo.</v>
     <v>BVMF</v>
-    <v>90.54</v>
+    <v>84.39</v>
     <v>383000</v>
-    <v>45184.784722222219</v>
+    <v>45223.556504629632</v>
     <v>121</v>
-    <v>8240</v>
+    <v>7740</v>
     <v>BRL</v>
     <v>BERKSHIRE HATHAWAY INC.,</v>
     <v>BERKSHIRE HATHAWAY INC.,</v>
-    <v>90.24</v>
-    <v>89.88</v>
+    <v>84.39</v>
+    <v>85.14</v>
     <v>3555 Farnam St, OMAHA, NE, 68131 US</v>
     <v>Consumer Goods Conglomerates</v>
     <v>BERK34</v>
     <v>Ações</v>
     <v>BERKSHIRE HATHAWAY INC., (BVMF:BERK34)</v>
-    <v>-0.66</v>
-    <v>-7.2899999999999996E-3</v>
-    <v>2386</v>
+    <v>0.75</v>
+    <v>8.8870000000000008E-3</v>
+    <v>47</v>
   </rv>
   <rv s="2">
     <v>122</v>
@@ -4165,35 +4165,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>91.9</v>
-    <v>48.56</v>
+    <v>52.52</v>
     <v>BVMF</v>
     <v>35692160</v>
-    <v>89</v>
+    <v>81.55</v>
     <v>1998</v>
-    <v>87.78</v>
-    <v>1.3452</v>
+    <v>79.2</v>
+    <v>1.3540000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>114127800000</v>
+    <v>98390420000</v>
     <v>A priceline.com Incorporated (priceline.com) é uma empresa de viagens on-line que oferece a seus clientes uma variedade de serviços de viagem, incluindo a oportunidade de comprar passagens aéreas, quartos de hotel, aluguel de carros, pacotes de férias e cruzeiros. O sistema Name Your Own Price da Companhia permite que seus clientes façam ofertas para serviços de viagem a preços que eles mesmos definiram. O sistema da Companhia permite que seus clientes usem a Internet para economizar dinheiro, ao mesmo tempo em que permite que os vendedores, que incluem muitas das principais companhias aéreas domésticas, hotéis e locadoras de veículos, gerem receita incremental. A priceline.com também oferece a seus clientes a possibilidade de adquirir serviços de viagem de uma maneira mais tradicional, com preços pré-estabelecidos. Além disso, a Companhia oferece serviços financeiros através da Priceline Mortgage Company LLC, fazendo negócios como pricelinemortgage.com, da qual a priceline.com detém 49% de participação. Em setembro de 2006, a Hutchison Whampoa Limited e a Cheung Kong (Holdings) Limited venderam cerca de 22% da participação na priceline.com.</v>
     <v>BVMF</v>
-    <v>89.99</v>
+    <v>79.2</v>
     <v>21600</v>
-    <v>45184.78466435185</v>
+    <v>45222.947916666664</v>
     <v>124</v>
-    <v>223060</v>
+    <v>273410</v>
     <v>BRL</v>
     <v>BOOKING HOLDINGS INC.</v>
     <v>BOOKING HOLDINGS INC.</v>
-    <v>88</v>
-    <v>87.95</v>
+    <v>79.2</v>
+    <v>81.12</v>
     <v>800 CONNECTICUT AVE, NORWALK, CT, 06854-1631 US</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>BKNG34</v>
     <v>Ações</v>
     <v>BOOKING HOLDINGS INC. (BVMF:BKNG34)</v>
-    <v>-2.04</v>
-    <v>-2.2669000000000002E-2</v>
-    <v>275</v>
+    <v>1.92</v>
+    <v>2.4242E-2</v>
+    <v>47795</v>
   </rv>
   <rv s="2">
     <v>125</v>
@@ -4215,36 +4215,36 @@
     <v>19</v>
     <v>Finance</v>
     <v>5</v>
-    <v>43.65</v>
+    <v>43.7</v>
     <v>22.06</v>
     <v>BVMF</v>
     <v>238788200</v>
-    <v>37.119999999999997</v>
+    <v>41.36</v>
     <v>2011</v>
-    <v>36.4</v>
-    <v>0.95720000000000005</v>
+    <v>40.32</v>
+    <v>0.92700000000000005</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>40768310000</v>
+    <v>42685780000</v>
     <v>A CrowdStrike Holdings, Inc. fornece soluções entregues em nuvem para proteção de carga de trabalho de ponto de extremidade e nuvem por meio de um modelo baseado em assinatura de software como serviço (SaaS). A Companhia oferece a plataforma Falcon em um modelo baseado em assinatura SaaS, que oferece tecnologias integradas que oferecem proteção e desempenho, ao mesmo tempo reduzindo a complexidade para o cliente. A plataforma Falcon da Companhia utiliza uma única arquitetura de lightweight-agent com módulos em nuvem integrados abrangendo vários mercados de segurança, incluindo segurança de carga de trabalho corporativa, serviços de segurança gerenciados, gerenciamento de segurança e vulnerabilidade, gerenciamento de operações de tecnologia da informação (TI), serviços de inteligência de ameaças, proteção de identidade e gerenciamento de registros. Ela também oferece aproximadamente 22 módulos em nuvem em sua plataforma Falcon, que incluem os Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight e outros.</v>
     <v>BVMF</v>
-    <v>38.049999999999997</v>
+    <v>40.840000000000003</v>
     <v>7586</v>
-    <v>45184.784641203703</v>
+    <v>45222.829768518517</v>
     <v>127</v>
-    <v>4007670</v>
+    <v>3066680</v>
     <v>BRL</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
     <v>CROWDSTRIKE HOLDINGS, INC.</v>
-    <v>37.119999999999997</v>
-    <v>36.520000000000003</v>
+    <v>40.32</v>
+    <v>41.13</v>
     <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
     <v>Software &amp; IT Services</v>
     <v>C2RW34</v>
     <v>Ações</v>
     <v>CROWDSTRIKE HOLDINGS, INC. (BVMF:C2RW34)</v>
-    <v>-1.53</v>
-    <v>-4.0209999999999996E-2</v>
-    <v>327</v>
+    <v>0.28999999999999998</v>
+    <v>7.1009999999999997E-3</v>
+    <v>59</v>
   </rv>
   <rv s="2">
     <v>128</v>
@@ -4270,32 +4270,32 @@
     <v>71.099999999999994</v>
     <v>BVMF</v>
     <v>1907598000</v>
-    <v>81.72</v>
+    <v>81.239999999999995</v>
     <v>1926</v>
-    <v>80.64</v>
-    <v>1.1719999999999999</v>
+    <v>80.8</v>
+    <v>1.1408</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>319007600000</v>
+    <v>306512800000</v>
     <v>A Chevron Corporation (Chevron) administra seus investimentos em subsidiárias e afiliadas e fornece suporte administrativo, financeiro, de gestão e tecnologia para os Estados Unidos e subsidiárias internacionais que atuam em operações integradas de energia e produtos químicos. A empresa opera por meio de dois segmentos de negócios: Upstream e Downstream. As operações upstream consistem principalmente na exploração, desenvolvimento e produção de petróleo bruto e gás natural; processamento, liquefação, transporte e regaseificação associados ao gás natural liquefeito; transporte de petróleo bruto por oleodutos internacionais de exportação de petróleo; processamento, transporte, armazenamento e comercialização de gás natural e uma planta de gás para líquidos. As operações downstream consistem principalmente no refino de petróleo bruto em produtos petrolíferos; comercialização de petróleo bruto, produtos refinados e lubrificantes; transporte de petróleo bruto e produtos refinados e fabricação e comercialização de commodities petroquímicas.</v>
     <v>BVMF</v>
-    <v>81.48</v>
+    <v>80.2</v>
     <v>43846</v>
-    <v>45184.784756944442</v>
+    <v>45223.556608796294</v>
     <v>130</v>
-    <v>7523840</v>
+    <v>8467380</v>
     <v>BRL</v>
     <v>CHEVRON CORPORATION</v>
     <v>CHEVRON CORPORATION</v>
-    <v>81.64</v>
-    <v>81.459999999999994</v>
+    <v>80.8</v>
+    <v>81.239999999999995</v>
     <v>6001 Bollinger Canyon Rd, SAN RAMON, CA, 94583 US</v>
     <v>Oil &amp; Gas</v>
     <v>CHVX34</v>
     <v>Ações</v>
     <v>CHEVRON CORPORATION (BVMF:CHVX34)</v>
-    <v>-0.02</v>
-    <v>-2.455E-4</v>
-    <v>3070</v>
+    <v>1.04</v>
+    <v>1.2968E-2</v>
+    <v>358</v>
   </rv>
   <rv s="2">
     <v>131</v>
@@ -4317,36 +4317,36 @@
     <v>19</v>
     <v>Finance</v>
     <v>5</v>
-    <v>84.63</v>
-    <v>68.14</v>
+    <v>84.72</v>
+    <v>73.53</v>
     <v>BVMF</v>
     <v>2006330000</v>
-    <v>75.319999999999993</v>
+    <v>76.05</v>
     <v>1978</v>
-    <v>74.959999999999994</v>
-    <v>1.2204999999999999</v>
+    <v>76.05</v>
+    <v>1.2025999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>62276480000</v>
+    <v>60510910000</v>
     <v>A CSX Corporation é uma empresa de transporte. A Companhia fornece serviços de transporte de carga baseados em trilhos, incluindo serviços ferroviários tradicionais e transporte de contêineres intermodais e reboques, bem como outros serviços de transporte, tais como transferências ferroviárias para caminhões e operações de mercadorias a granel. A empresa classifica seus produtos em três linhas principais de negócios: mercadorias, intermodal e carvão. O negócio intermodal da Companhia conecta os clientes às ferrovias através de caminhões e terminais. O negócio de mercadorias da Companhia consiste em embarques em mercados, como produtos agrícolas e alimentícios, fertilizantes, produtos químicos, automotivos, metais e equipamentos, minerais e produtos florestais. O negócio de carvão da Companhia transporta carvão, coque e minério de ferro nacionais para usinas geradoras de eletricidade, fabricantes de aço e plantas industriais, bem como exporta carvão para instalações portuárias de águas profundas.</v>
     <v>BVMF</v>
-    <v>75.73</v>
-    <v>22700</v>
-    <v>45184.78466435185</v>
+    <v>76.05</v>
+    <v>23000</v>
+    <v>45223.556574074071</v>
     <v>133</v>
-    <v>14375900</v>
+    <v>13429240</v>
     <v>BRL</v>
     <v>CSX Corporation</v>
     <v>CSX Corporation</v>
-    <v>75.319999999999993</v>
-    <v>74.959999999999994</v>
+    <v>76.05</v>
+    <v>76.05</v>
     <v>500 Water Street, 15th Floor, JACKSONVILLE, FL, 32202 US</v>
     <v>Freight &amp; Logistics Services</v>
     <v>CSXC34</v>
     <v>Ações</v>
     <v>CSX Corporation (BVMF:CSXC34)</v>
-    <v>-0.77</v>
-    <v>-1.0168E-2</v>
-    <v>10</v>
+    <v>0</v>
+    <v>0</v>
+    <v>2</v>
   </rv>
   <rv s="2">
     <v>134</v>
@@ -4392,33 +4392,33 @@
     <v>26.39</v>
     <v>BVMF</v>
     <v>1829779000</v>
-    <v>27.95</v>
+    <v>27.97</v>
     <v>2018</v>
-    <v>27.49</v>
-    <v>1.2847</v>
+    <v>27.93</v>
+    <v>1.3007</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>154579700000</v>
+    <v>152054600000</v>
     <v>The Walt Disney Company é uma empresa mundial de entretenimento. A empresa atua em quatro segmentos de negócios: Redes de Mídia, Parques, Experiências e Produtos, Studio Entertainment e Direct-To-Consumer (DTC) e International. O segmento de redes de mídia inclui redes de televisão a cabo e aberta, operações de produção e distribuição de televisão, estações de televisão nacionais e redes e estações de rádio. Os parques e experiências da empresa incluem parques temáticos, resorts, Disney Cruise Line e Disney Vacation Club. As operações de entretenimento do estúdio incluem produção e distribuição de filmes, desenvolvimento, produção e licenciamento de eventos de entretenimento ao vivo e produção e distribuição de música. Seus negócios DTC consistem em serviços de assinatura que fornecem streaming de vídeo de entretenimento geral, família e programação esportiva. Os Canais Internacionais da Empresa produzem programas locais ou adquirem direitos de seus estúdios nacionais e de terceiros.</v>
     <v>BVMF</v>
-    <v>27.49</v>
+    <v>27.8</v>
     <v>220000</v>
-    <v>45184.784756944442</v>
+    <v>45223.556574074071</v>
     <v>139</v>
     <v>140</v>
-    <v>17272990</v>
+    <v>10515190</v>
     <v>BRL</v>
     <v>THE WALT DISNEY COMPANY</v>
     <v>THE WALT DISNEY COMPANY</v>
-    <v>27.66</v>
-    <v>27.61</v>
+    <v>27.93</v>
+    <v>27.93</v>
     <v>500 S Buena Vista St, BURBANK, CA, 91521-0001 US</v>
     <v>Media &amp; Publishing</v>
     <v>DISB34</v>
     <v>Ações</v>
     <v>THE WALT DISNEY COMPANY (BVMF:DISB34)</v>
-    <v>0.12</v>
-    <v>4.365E-3</v>
-    <v>76066</v>
+    <v>0.13</v>
+    <v>4.6760000000000005E-3</v>
+    <v>857</v>
   </rv>
   <rv s="2">
     <v>141</v>
@@ -4440,36 +4440,36 @@
     <v>19</v>
     <v>Finance</v>
     <v>5</v>
-    <v>56.74</v>
+    <v>59.41</v>
     <v>35.270000000000003</v>
     <v>BVMF</v>
     <v>12609000000</v>
-    <v>56.01</v>
+    <v>58</v>
     <v>2015</v>
-    <v>55.33</v>
-    <v>1.0583</v>
+    <v>57.73</v>
+    <v>1.0351999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1746466000000</v>
+    <v>1729250000000</v>
     <v>A ALPHABET INC. é uma holding. A empresa detém participações no Google Inc. (Google). Os segmentos da empresa incluem Google e Other Bets. O segmento Google inclui produtos da Internet como produtos de Pesquisa, Anúncios, Comércio, Mapas, YouTube, Aplicativos, Nuvem, Android, Chrome, Google Play e produtos de hardware, incluindo o Chromecast, Chromebooks e Nexus, que são vendidos pela empresa. Sua infraestrutura técnica e Realidade Virtual também estão incluídas no segmento Google. O segmento Google está envolvido em publicidade, venda de conteúdo digital, aplicativos e serviços em nuvem, bem como a venda de hardware da marca Google. O segmento Other Bets consiste em vários segmentos operacionais e inclui negócios como Access/Google Fiber, Calico, Nest, Verily, GV, Google Capital, X e outras iniciativas. O segmento Other Bets está envolvido na venda de produtos de hardware Nest, serviços de Internet e televisão através do Google Fiber, além de serviços de licenciamento e pesquisa e desenvolvimento (P&amp;D) através da Verily.</v>
     <v>BVMF</v>
-    <v>56.01</v>
+    <v>57.25</v>
     <v>181798</v>
-    <v>45184.784756944442</v>
+    <v>45223.556574074071</v>
     <v>143</v>
-    <v>21678300</v>
+    <v>24894450</v>
     <v>BRL</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>56.01</v>
-    <v>55.56</v>
+    <v>57.99</v>
+    <v>57.79</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
     <v>Software &amp; IT Services</v>
     <v>GOGL34</v>
     <v>Ações</v>
     <v>ALPHABET INC. (BVMF:GOGL34)</v>
-    <v>-0.45</v>
-    <v>-8.0339999999999995E-3</v>
-    <v>54501</v>
+    <v>0.54</v>
+    <v>9.4320000000000011E-3</v>
+    <v>949</v>
   </rv>
   <rv s="2">
     <v>144</v>
@@ -4491,36 +4491,36 @@
     <v>19</v>
     <v>Finance</v>
     <v>5</v>
-    <v>73.22</v>
-    <v>48.04</v>
+    <v>73.260000000000005</v>
+    <v>52.33</v>
     <v>BVMF</v>
     <v>271988000</v>
-    <v>64.95</v>
+    <v>59.9</v>
     <v>2010</v>
-    <v>62.53</v>
-    <v>1.6132</v>
+    <v>56.19</v>
+    <v>1.6537999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>71690590000</v>
+    <v>65532790000</v>
     <v>A HCA Healthcare, Inc., anteriormente HCA Holdings, Inc., é uma holding. A Companhia, por meio de suas subsidiárias, possui e opera hospitais e entidades de saúde relacionadas. Em 31 de dezembro de 2016, a Companhia operava em dois grupos geograficamente organizados, incluindo os Grupos Nacional e Americano. Em 31 de dezembro de 2016, o Grupo Nacional incluía 84 hospitais, localizados no Alasca, Califórnia, Flórida, sul da Geórgia, Idaho, Indiana, norte do Kentucky, Nevada, New Hampshire, Carolina do Sul, Utah e Virgínia. Em 31 de dezembro de 2016, o Grupo Americano incluía 80 hospitais, localizados no Colorado, norte da Geórgia, Kansas, sul do Kentucky, Louisiana, Mississippi, Missouri, Oklahoma, Tennessee e Texas. Em 31 de dezembro de 2016, a Companhia operava seis hospitais na Inglaterra. A Companhia é proprietária, administra ou opera hospitais, centros de cirurgia independentes e instalações de atendimento de emergência independentes, clínicas de emergência, centros de diagnóstico e imagem, entre outros.</v>
     <v>BVMF</v>
-    <v>64.94</v>
+    <v>61.32</v>
     <v>207000</v>
-    <v>45184.783437500002</v>
+    <v>45223.556585648148</v>
     <v>146</v>
-    <v>1081450</v>
+    <v>1288110</v>
     <v>BRL</v>
     <v>HCA HEALTHCARE, INC.</v>
     <v>HCA HEALTHCARE, INC.</v>
-    <v>64.95</v>
-    <v>62.53</v>
+    <v>59.9</v>
+    <v>56.19</v>
     <v>1 Park Plz, NASHVILLE, TN, 37203-6527 US</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>H1CA34</v>
     <v>Ações</v>
     <v>HCA HEALTHCARE, INC. (BVMF:H1CA34)</v>
-    <v>-2.41</v>
-    <v>-3.7110999999999998E-2</v>
-    <v>27</v>
+    <v>-5.13</v>
+    <v>-8.3658999999999997E-2</v>
+    <v>104</v>
   </rv>
   <rv s="2">
     <v>147</v>
@@ -4542,36 +4542,36 @@
     <v>19</v>
     <v>Finance</v>
     <v>5</v>
-    <v>29.32</v>
-    <v>18.760000000000002</v>
+    <v>28.57</v>
+    <v>18</v>
     <v>BVMF</v>
     <v>380857500</v>
-    <v>20.440000000000001</v>
+    <v>18.12</v>
     <v>2006</v>
-    <v>20.260000000000002</v>
-    <v>0.77190000000000003</v>
+    <v>18</v>
+    <v>0.82509999999999994</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>6276532000</v>
+    <v>5533860000</v>
     <v>A Healthcare Realty Trust Inc, anteriormente Healthcare Trust of America Inc., é um fundo de investimento imobiliário. A Companhia possui, arrenda, administra, adquire, financia, desenvolve e reconstrói propriedades imobiliárias associadas principalmente à prestação de serviços de saúde ambulatoriais nos Estados Unidos. O portfólio da Companhia inclui o Pomerado Outpatient Pavilion, Porter Adventist Mob Portfolio, Taj Mahal Medical Center, Penrose Pavilion, Church Street Mobs, Parkway Professional Mob I e II, Clearview Mob I e Mob II e o Highmark Medical Center. A Companhia investiu em mais de 727 imóveis totalizando aproximadamente 4 milhões de metros quadrados e oferece serviços de locação e administração de propriedades para mais de 2,7 milhões de metros quadrados em todo o país. A Companhia também aluga e administra aproximadamente 3 milhões de metros quadrados de propriedades médicas.</v>
     <v>BVMF</v>
-    <v>20.46</v>
+    <v>18.579999999999998</v>
     <v>583</v>
-    <v>45181.829768518517</v>
+    <v>45222.829768518517</v>
     <v>149</v>
-    <v>2692210</v>
+    <v>3057600</v>
     <v>BRL</v>
     <v>HEALTHCARE REALTY TRUST INCORPORATED</v>
     <v>HEALTHCARE REALTY TRUST INCORPORATED</v>
-    <v>20.38</v>
-    <v>20.440000000000001</v>
+    <v>18</v>
+    <v>18.12</v>
     <v>3310 West End Avenue, Suite 700, NASHVILLE, TN, 37203 US</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>H2TA34</v>
     <v>Ações</v>
     <v>HEALTHCARE REALTY TRUST INCORPORATED (BVMF:H2TA34)</v>
-    <v>-0.02</v>
-    <v>-9.7750000000000007E-4</v>
-    <v>140</v>
+    <v>-0.46</v>
+    <v>-2.4757999999999999E-2</v>
+    <v>44</v>
   </rv>
   <rv s="2">
     <v>150</v>
@@ -4613,33 +4613,33 @@
     <v>105.21</v>
     <v>BVMF</v>
     <v>605687200</v>
-    <v>132.34</v>
+    <v>140.57</v>
     <v>2001</v>
-    <v>131.35</v>
-    <v>2.3753000000000002</v>
+    <v>140.57</v>
+    <v>2.3109000000000002</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>16553430000</v>
+    <v>17256030000</v>
     <v>A Marathon Oil Corporation é uma empresa de exploração e produção (E&amp;P). A Companhia opera em dois segmentos: Estados Unidos E&amp;P e International E&amp;P. O segmento de E&amp;P dos Estados Unidos explora, produz e comercializa petróleo bruto e condensado, líquidos de gás natural (LGN) e gás natural nos Estados Unidos. O segmento Internacional de E&amp;P explora, produz e comercializa petróleo bruto e condensado, LGN e gás natural fora dos Estados Unidos e produz e comercializa produtos fabricados a partir de gás natural, como gás natural liquefeito (GNL) e metanol, na Guiné Equatorial (por exemplo).</v>
     <v>BVMF</v>
-    <v>131.16999999999999</v>
+    <v>143.25</v>
     <v>1570</v>
-    <v>45184.78392361111</v>
+    <v>45222.829768518517</v>
     <v>154</v>
     <v>155</v>
-    <v>10797760</v>
+    <v>10672110</v>
     <v>BRL</v>
     <v>MARATHON OIL CORPORATION</v>
     <v>MARATHON OIL CORPORATION</v>
-    <v>132.16</v>
-    <v>131.35</v>
+    <v>140.57</v>
+    <v>140.57</v>
     <v>PO Box 3128, HOUSTON, TX, 77253-3128 US</v>
     <v>Oil &amp; Gas</v>
     <v>M1RO34</v>
     <v>Ações</v>
     <v>MARATHON OIL CORPORATION (BVMF:M1RO34)</v>
-    <v>0.18</v>
-    <v>1.372E-3</v>
-    <v>17</v>
+    <v>-2.68</v>
+    <v>-1.8709E-2</v>
+    <v>933</v>
   </rv>
   <rv s="2">
     <v>156</v>
@@ -4677,37 +4677,37 @@
     <v>21</v>
     <v>Finance</v>
     <v>5</v>
-    <v>74.7</v>
-    <v>59.01</v>
+    <v>74.819999999999993</v>
+    <v>62.4</v>
     <v>BVMF</v>
     <v>728763400</v>
-    <v>69.72</v>
+    <v>64.44</v>
     <v>1964</v>
-    <v>67.78</v>
-    <v>0.64300000000000002</v>
+    <v>64</v>
+    <v>0.70409999999999995</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>207522700000</v>
+    <v>185652500000</v>
     <v>A McDonald's Corporation (McDonald's) opera e franqueia os restaurantes McDonald's. Os restaurantes da Companhia servem um menu localmente relevante de alimentos e bebidas vendidos em vários pontos de preço em mais de 100 países. Os segmentos da Companhia incluem os EUA, os Principais Mercados Internacionais, Mercados de Alto Crescimento e Mercados Fundacionais e Corporativos. O segmento norte-americano se concentra em oferecer uma plataforma para ingredientes autênticos que permite aos clientes personalizar seus sanduíches. Seu segmento de Mercados de Alto Crescimento inclui suas operações em mercados como China, Itália, Coréia, Polônia, Rússia, Espanha, Suíça, Holanda e mercados relacionados. O segmento de Principais Mercados Internacionais inclui as operações da empresa em vários mercados, como Austrália, Canadá, França, Alemanha, Reino Unido e mercados relacionados. O segmento de Mercados Fundacionais e Corporativos está envolvido na operação de restaurantes e no aumento da conveniência para os clientes, inclusive através de drive-thru e entrega.</v>
     <v>BVMF</v>
-    <v>69.48</v>
+    <v>64</v>
     <v>150000</v>
-    <v>45184.784710648149</v>
+    <v>45223.555902777778</v>
     <v>160</v>
     <v>161</v>
-    <v>2414450</v>
+    <v>3502100</v>
     <v>BRL</v>
     <v>MCDONALD'S CORPORATION</v>
     <v>MCDONALD'S CORPORATION</v>
-    <v>69.48</v>
-    <v>67.78</v>
+    <v>64</v>
+    <v>64.430000000000007</v>
     <v>110 N Carpenter St, CHICAGO, IL, 60607-2104 US</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>MCDC34</v>
     <v>Ações</v>
     <v>MCDONALD'S CORPORATION (BVMF:MCDC34)</v>
-    <v>-1.7</v>
-    <v>-2.4466999999999999E-2</v>
-    <v>2306</v>
+    <v>0.43</v>
+    <v>6.7190000000000001E-3</v>
+    <v>35</v>
   </rv>
   <rv s="2">
     <v>162</v>
@@ -4745,37 +4745,37 @@
     <v>21</v>
     <v>Finance</v>
     <v>5</v>
-    <v>73.2</v>
-    <v>44.66</v>
-    <v>BVMF</v>
-    <v>7429764000</v>
-    <v>68.849999999999994</v>
+    <v>73.239999999999995</v>
+    <v>44.68</v>
+    <v>BVMF</v>
+    <v>7429031000</v>
+    <v>69.37</v>
     <v>1993</v>
-    <v>66.98</v>
-    <v>0.90339999999999998</v>
+    <v>69.099999999999994</v>
+    <v>0.89229999999999998</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>2516461000000</v>
+    <v>2446528000000</v>
     <v>A MICROSOFT CORPORATION é uma empresa de tecnologia. A Empresa desenvolve, licencia e oferece suporte a uma gama de produtos de software, serviços e dispositivos. Seus segmentos são Produtividade e Processos de Negócio, Nuvem Inteligente e Outras Soluções de Computação Pessoal. Seus produtos incluem sistemas operacionais; aplicativos de produtividade de dispositivos cruzados; aplicativos de servidor; aplicativos de soluções de negócio; ferramentas de gerenciamento de desktop e servidor; ferramentas de desenvolvimento de software; videojogos, e treinamento e certificação de integradores e desenvolvedores de sistemas de computador. Ela também projeta, fabrica e vende dispositivos, incluindo computadores pessoais, tablets, consoles para jogos e entretenimento, telefones, outros dispositivos inteligentes e acessórios relacionados, que se integram com suas ofertas baseadas em nuvem. Ela oferece uma variedade de serviços, incluindo soluções baseadas em nuvem, que fornecem aos clientes software, serviços, plataformas e conteúdo, além de oferecer serviços de suporte e consultoria de soluções. Ela também oferece publicidade online.</v>
     <v>BVMF</v>
-    <v>68.88</v>
+    <v>69.05</v>
     <v>221000</v>
-    <v>45184.78466435185</v>
+    <v>45223.556585648148</v>
     <v>166</v>
     <v>167</v>
-    <v>18633200</v>
+    <v>21912380</v>
     <v>BRL</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>68.849999999999994</v>
-    <v>67.010000000000005</v>
+    <v>69.16</v>
+    <v>69.260000000000005</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
     <v>Software &amp; IT Services</v>
     <v>MSFT34</v>
     <v>Ações</v>
     <v>MICROSOFT CORPORATION (BVMF:MSFT34)</v>
-    <v>-1.87</v>
-    <v>-2.7149E-2</v>
-    <v>56338</v>
+    <v>0.21</v>
+    <v>3.0409999999999999E-3</v>
+    <v>1974</v>
   </rv>
   <rv s="2">
     <v>168</v>
@@ -4797,36 +4797,36 @@
     <v>19</v>
     <v>Finance</v>
     <v>5</v>
-    <v>66.3</v>
-    <v>42.67</v>
-    <v>BVMF</v>
-    <v>1529972000</v>
-    <v>47.75</v>
+    <v>66.290000000000006</v>
+    <v>44.3</v>
+    <v>BVMF</v>
+    <v>1521910000</v>
+    <v>52</v>
     <v>1969</v>
-    <v>46.89</v>
-    <v>1.1233</v>
+    <v>51.56</v>
+    <v>1.0923</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>148697900000</v>
+    <v>156467600000</v>
     <v>A NIKE, Inc. dedica-se ao design, marketing e distribuição de calçados, roupas, equipamentos e acessórios esportivos para atividades esportivas e de condicionamento físico. Os segmentos operacionais da empresa incluem América do Norte, Europa, Oriente Médio e África, Grande China e Ásia-Pacífico e América Latina. Ela concentra suas ofertas de produtos da Marca NIKE em categorias como Running, NIKE Basquetebol, Jordan Brand, Futebol, Roupas esportivas e de treinamento. Também comercializa produtos projetados para crianças, bem como para outros usos atléticos e recreativos, como futebol americano, beisebol, críquete, golfe, lacrosse, skate, tênis, voleibol, caminhada, luta livre e outras atividades ao ar livre. Ela vende uma linha de equipamentos e acessórios de desempenho sob a marca NIKE, incluindo bolsas, meias, bolas esportivas, óculos, relógios, dispositivos digitais, morcegos, luvas, equipamentos de proteção e outros equipamentos projetados para atividades esportivas.</v>
     <v>BVMF</v>
-    <v>47.44</v>
+    <v>51.56</v>
     <v>83700</v>
-    <v>45184.783634259256</v>
+    <v>45223.556284722225</v>
     <v>170</v>
-    <v>7067150</v>
+    <v>8666900</v>
     <v>BRL</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>47.11</v>
-    <v>46.95</v>
+    <v>51.56</v>
+    <v>52</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
     <v>Textiles &amp; Apparel</v>
     <v>NIKE34</v>
     <v>Ações</v>
     <v>NIKE, INC. (BVMF:NIKE34)</v>
-    <v>-0.49</v>
-    <v>-1.0329E-2</v>
-    <v>5310</v>
+    <v>0.44</v>
+    <v>8.5339999999999999E-3</v>
+    <v>63</v>
   </rv>
   <rv s="2">
     <v>171</v>
@@ -4848,36 +4848,36 @@
     <v>19</v>
     <v>Finance</v>
     <v>5</v>
-    <v>279.02</v>
-    <v>187.41</v>
+    <v>280.19</v>
+    <v>188.2</v>
     <v>BVMF</v>
     <v>363000000</v>
-    <v>238.8</v>
+    <v>236.37</v>
     <v>1999</v>
-    <v>238.8</v>
-    <v>1.4031</v>
+    <v>236.37</v>
+    <v>1.3978999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>34579380000</v>
+    <v>34416030000</v>
     <v>Prudential Financial, Inc., é uma empresa de serviços financeiros. A Companhia, por meio de suas subsidiárias, oferece uma gama de produtos e serviços financeiros, que incluem seguros de vida, anuidades, serviços relacionados a aposentadoria, fundos mútuos e gestão de investimentos. As operações da Companhia são compostas por quatro divisões, que juntas englobam sete segmentos. A divisão de Soluções de Aposentadoria e Gerenciamento de Investimentos dos EUA consiste nos segmentos de Anuidades Individuais, Aposentadoria e Gerenciamento de Ativos. A divisão de Vida Individual e Seguro de Grupo dos EUA consiste nos segmentos de Vida Individual e Seguro de Grupo. A divisão de Seguro Internacional consiste no segmento de Seguro Internacional. A divisão de blocos fechados consiste no segmento de blocos fechados. A Companhia possui operações nos Estados Unidos, Ásia, Europa e América Latina.</v>
     <v>BVMF</v>
-    <v>219.96</v>
+    <v>236.37</v>
     <v>39854</v>
-    <v>45181.829768518517</v>
+    <v>45218.825949074075</v>
     <v>173</v>
-    <v>1511280</v>
+    <v>1267270</v>
     <v>BRL</v>
     <v>PRUDENTIAL FINANCIAL, INC.</v>
     <v>PRUDENTIAL FINANCIAL, INC.</v>
-    <v>238.8</v>
-    <v>238.8</v>
+    <v>236.37</v>
+    <v>236.37</v>
     <v>751 BROAD ST, NEWARK, NJ, 07102 US</v>
     <v>Insurance</v>
     <v>P1DT34</v>
     <v>Ações</v>
     <v>PRUDENTIAL FINANCIAL, INC. (BVMF:P1DT34)</v>
-    <v>18.84</v>
-    <v>8.5652000000000006E-2</v>
-    <v>35</v>
+    <v>0</v>
+    <v>0</v>
+    <v>9</v>
   </rv>
   <rv s="2">
     <v>174</v>
@@ -4899,36 +4899,36 @@
     <v>19</v>
     <v>Finance</v>
     <v>5</v>
-    <v>123.01</v>
-    <v>89.34</v>
+    <v>123.31</v>
+    <v>89.56</v>
     <v>BVMF</v>
     <v>153230100</v>
-    <v>107.69</v>
+    <v>97.9</v>
     <v>1901</v>
-    <v>107.69</v>
-    <v>1.3720000000000001</v>
+    <v>97.3</v>
+    <v>1.3411</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>13424480000</v>
+    <v>11939690000</v>
     <v>A Stanley Black &amp; Decker, Inc. é uma fornecedora global de ferramentas manuais, ferramentas elétricas e acessórios relacionados, soluções de acesso mecânico, como portas automáticas e sistemas de travamento comerciais, sistemas eletrônicos de segurança e monitoramento, soluções de saúde, sistemas de fixação projetados e produtos e serviços para várias aplicações industriais. Os segmentos da empresa incluem Ferramentas e Armazenamento, Segurança e Industrial. Seu segmento de Ferramentas e Armazenamento consiste nos negócios de Ferramentas Elétricas e Ferramentas Manuais, Acessórios e Armazenamento. Seu segmento de Segurança consiste nos negócios de Soluções de Segurança Convergente e Soluções de Acesso Mecânico. Seu segmento industrial consiste nos negócios de Fixação projetada e infraestrutura. Seu segmento industrial consiste nos negócios de Fixação projetada e infraestrutura.</v>
     <v>BVMF</v>
-    <v>106.89</v>
+    <v>98.4</v>
     <v>54200</v>
-    <v>45184.784432870372</v>
+    <v>45222.829791666663</v>
     <v>176</v>
-    <v>1166260</v>
+    <v>1393220</v>
     <v>BRL</v>
     <v>STANLEY BLACK &amp; DECKER, INC.</v>
     <v>STANLEY BLACK &amp; DECKER, INC.</v>
-    <v>107.69</v>
-    <v>107.69</v>
+    <v>97.7</v>
+    <v>97.9</v>
     <v>1000 Stanley Dr, PO Box 7000, NEW BRITAIN, CT, 06053-1675 US</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>S1WK34</v>
     <v>Ações</v>
     <v>STANLEY BLACK &amp; DECKER, INC. (BVMF:S1WK34)</v>
-    <v>0.8</v>
-    <v>7.4839999999999993E-3</v>
-    <v>6</v>
+    <v>-0.5</v>
+    <v>-5.0809999999999996E-3</v>
+    <v>8</v>
   </rv>
   <rv s="2">
     <v>177</v>
@@ -4950,36 +4950,36 @@
     <v>19</v>
     <v>Finance</v>
     <v>5</v>
-    <v>161.86000000000001</v>
-    <v>110.9</v>
+    <v>162.55000000000001</v>
+    <v>123.02</v>
     <v>BVMF</v>
     <v>327199000</v>
-    <v>142.52000000000001</v>
+    <v>132.35</v>
     <v>1998</v>
-    <v>142.24</v>
-    <v>1.5549999999999999</v>
+    <v>132.35</v>
+    <v>1.6148</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>38406630000</v>
+    <v>34424610000</v>
     <v>O Simon Property Group, Inc. é um fundo de investimento imobiliário auto-administrado e autogerido (REIT). A Companhia possui, desenvolve e administra propriedades imobiliárias de varejo, que consistem principalmente em shoppings, Premium Outlets e The Mills. A Simon Property Group, L.P. (Operating Partnership), é a subsidiária da sociedade que possui todos os seus imóveis e outros ativos. Em 31 de dezembro de 2016, a Companhia possuía ou possuía participação em 206 propriedades produtoras de renda nos Estados Unidos, que consistiam em 108 shoppings, 67 Premium Outlets, 14 Mills, quatro centros de estilo de vida e 13 outras propriedades de varejo em 37 estados e Porto Rico. Em 31 de dezembro de 2016, tinha projetos de revitalização e expansão, incluindo a adição de âncoras, inquilinos e restaurantes, em andamento em 27 propriedades nos Estados Unidos e tinha um outlet e outro projeto de varejo em desenvolvimento.</v>
     <v>BVMF</v>
-    <v>142.80000000000001</v>
+    <v>132.35</v>
     <v>2500</v>
-    <v>45184.78328703704</v>
+    <v>45223.556597222225</v>
     <v>179</v>
-    <v>1533610</v>
+    <v>1424230</v>
     <v>BRL</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
-    <v>142.30000000000001</v>
-    <v>142.24</v>
+    <v>132.35</v>
+    <v>132.35</v>
     <v>225 W Washington St, INDIANAPOLIS, IN, 46204-3438 US</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>SIMN34</v>
     <v>Ações</v>
     <v>SIMON PROPERTY GROUP, INC. (BVMF:SIMN34)</v>
-    <v>-0.56000000000000005</v>
-    <v>-3.9220000000000001E-3</v>
-    <v>26</v>
+    <v>0</v>
+    <v>0</v>
+    <v>10</v>
   </rv>
   <rv s="2">
     <v>180</v>
@@ -5001,36 +5001,36 @@
     <v>22</v>
     <v>Finance</v>
     <v>5</v>
-    <v>67.41</v>
-    <v>37.83</v>
+    <v>67.5</v>
+    <v>37.880000000000003</v>
     <v>BVMF</v>
     <v>25932070000</v>
-    <v>55.86</v>
+    <v>57.33</v>
     <v>1987</v>
-    <v>54.25</v>
-    <v>1.3635999999999999</v>
+    <v>56.91</v>
+    <v>1.3912</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>14262640000000</v>
+    <v>14107050000000</v>
     <v>A Taiwan Semiconductor Manufacturing Co., Ltd. está envolvida principalmente na fabricação e venda de circuitos integrados e produtos de semicondutores. A Companhia está envolvida principalmente no teste de fabricação, venda e embalagem de circuitos integrados e outros dispositivos semicondutores, fabricação de máscaras, bem como na prestação de serviços de design assistido por computador. Os produtos da Companhia são aplicados a computadores pessoais (PCs) e produtos periféricos, aplicativos de informação, sistemas de comunicação com e sem fio, equipamentos industriais, eletrônicos de consumo, como players de disco de vídeo digital, TVs digitais, consoles de jogos e câmeras digitais. A Companhia também está envolvida no desenvolvimento de tecnologia de processo de 5 nanômetros, tecnologia de máscara, tecnologia complementar de sensor de imagem semicondutor de óxido de metal (CMOS), sistema IC tridimensional (3D) e sistema TSMC em chips integrados (TSMC-SoIC), entre outros. A empresa distribui seus produtos para os Estados Unidos, Ásia e Europa.</v>
     <v>BVMF</v>
-    <v>55.9</v>
+    <v>56.9</v>
     <v>52045</v>
-    <v>45184.78466435185</v>
+    <v>45223.556585648148</v>
     <v>182</v>
-    <v>16095050</v>
+    <v>31937960</v>
     <v>BRL</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd.</v>
-    <v>55.86</v>
-    <v>54.25</v>
+    <v>56.91</v>
+    <v>57.33</v>
     <v>No.8, Li-Hsin 6th Road, Hsinchu Science Park, HSINCHU, HSINCHU, 300 TW</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>TSMC34</v>
     <v>Ações</v>
     <v>Taiwan Semiconductor Manufacturing Co., Ltd. (BVMF:TSMC34)</v>
-    <v>-1.65</v>
-    <v>-2.9517000000000002E-2</v>
-    <v>2913</v>
+    <v>0.43</v>
+    <v>7.5570000000000003E-3</v>
+    <v>60</v>
   </rv>
   <rv s="2">
     <v>183</v>
@@ -5055,24 +5055,24 @@
     <v>119.17</v>
     <v>93.81</v>
     <v>BVMF</v>
-    <v>116.03</v>
-    <v>115.02</v>
-    <v>0.99850000000000005</v>
+    <v>110.49</v>
+    <v>110.15</v>
+    <v>0.99839999999999995</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>12144845997.120001</v>
-    <v>115.59</v>
-    <v>45184.784756944442</v>
+    <v>12804645404.51</v>
+    <v>109.35</v>
+    <v>45223.556608796294</v>
     <v>185</v>
     <v>BRL</v>
     <v>iShares Ibovespa Fundo Indice</v>
-    <v>115.88</v>
-    <v>115.36</v>
+    <v>110.3</v>
+    <v>110.18</v>
     <v>BOVA11</v>
     <v>Fundos mais negociados</v>
     <v>iShares Ibovespa Fundo Indice (BVMF:BOVA11)</v>
-    <v>-0.23</v>
-    <v>-1.99E-3</v>
-    <v>3955173</v>
+    <v>0.83</v>
+    <v>7.5900000000000004E-3</v>
+    <v>416264</v>
   </rv>
   <rv s="2">
     <v>186</v>
@@ -5095,26 +5095,26 @@
     <v>Finance</v>
     <v>5</v>
     <v>248.84</v>
-    <v>204.11</v>
-    <v>BVMF</v>
-    <v>243.24</v>
-    <v>239.93</v>
-    <v>1.0325</v>
+    <v>205.39</v>
+    <v>BVMF</v>
+    <v>236.11</v>
+    <v>235.4</v>
+    <v>1.028</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>2800786753.73</v>
-    <v>243.5</v>
-    <v>45184.784770474216</v>
+    <v>2604483629.25</v>
+    <v>234.6</v>
+    <v>45223.556574074071</v>
     <v>188</v>
     <v>BRL</v>
     <v>iShares S&amp;P 500 FIC FI IE</v>
-    <v>242.84</v>
-    <v>240.32</v>
+    <v>235.95</v>
+    <v>235.72</v>
     <v>IVVB11</v>
     <v>Fundos mais negociados</v>
     <v>iShares S&amp;P 500 FIC FI IE (BVMF:IVVB11)</v>
-    <v>-3.18</v>
-    <v>-1.306E-2</v>
-    <v>97985</v>
+    <v>1.1200000000000001</v>
+    <v>4.7739999999999996E-3</v>
+    <v>1378</v>
   </rv>
   <rv s="2">
     <v>189</v>
@@ -5139,24 +5139,24 @@
     <v>117.5</v>
     <v>83</v>
     <v>BVMF</v>
-    <v>107.19</v>
-    <v>105.32</v>
-    <v>1.1580999999999999</v>
+    <v>97.18</v>
+    <v>96.45</v>
+    <v>1.1617999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>6126659662.8699999</v>
-    <v>106.55</v>
-    <v>45184.784756944442</v>
+    <v>5333150242.6899996</v>
+    <v>95.47</v>
+    <v>45223.556606573438</v>
     <v>191</v>
     <v>BRL</v>
     <v>IShares BM&amp;FBovespa Small Cap</v>
-    <v>107</v>
-    <v>105.77</v>
+    <v>96.84</v>
+    <v>96.45</v>
     <v>SMAL11</v>
     <v>Fundos mais negociados</v>
     <v>IShares BM&amp;FBovespa Small Cap (BVMF:SMAL11)</v>
-    <v>-0.78</v>
-    <v>-7.3209999999999994E-3</v>
-    <v>1031461</v>
+    <v>0.98</v>
+    <v>1.0265E-2</v>
+    <v>144619</v>
   </rv>
   <rv s="2">
     <v>192</v>
@@ -5178,25 +5178,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>101.99</v>
+    <v>100.98</v>
     <v>84</v>
     <v>BVMF</v>
-    <v>96.52</v>
-    <v>95.25</v>
+    <v>94.81</v>
+    <v>94.81</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>95.98</v>
-    <v>45184.784409722219</v>
+    <v>94.77</v>
+    <v>45223.551423611112</v>
     <v>194</v>
     <v>BRL</v>
     <v>BTG PACTUAL CREDITO AGRICOLA</v>
-    <v>95.98</v>
-    <v>96.22</v>
+    <v>94.81</v>
+    <v>94.81</v>
     <v>BTAG11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL CREDITO AGRICOLA (BVMF:BTAG11)</v>
-    <v>0.24</v>
-    <v>2.5009999999999998E-3</v>
-    <v>5450</v>
+    <v>0.04</v>
+    <v>4.2209999999999996E-4</v>
+    <v>1</v>
   </rv>
   <rv s="2">
     <v>195</v>
@@ -5217,21 +5217,21 @@
     <v>10.37</v>
     <v>9.0299999999999994</v>
     <v>BVMF</v>
-    <v>9.3699999999999992</v>
-    <v>9.2799999999999994</v>
+    <v>9.32</v>
+    <v>9.2899999999999991</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>9.3000000000000007</v>
-    <v>45184.784710648149</v>
+    <v>45223.556296296294</v>
     <v>BRL</v>
     <v>AZ QUEST SOLE FI CF</v>
-    <v>9.33</v>
-    <v>9.36</v>
+    <v>9.32</v>
+    <v>9.2899999999999991</v>
     <v>AAZQ11</v>
     <v>Fundos mais negociados</v>
     <v>AZ QUEST SOLE FI CF (BVMF:AAZQ11)</v>
-    <v>0.06</v>
-    <v>6.4520000000000003E-3</v>
-    <v>71511</v>
+    <v>-0.01</v>
+    <v>-1.075E-3</v>
+    <v>8463</v>
   </rv>
   <rv s="2">
     <v>197</v>
@@ -5253,25 +5253,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>96.17</v>
-    <v>78.430000000000007</v>
-    <v>BVMF</v>
-    <v>88.5</v>
-    <v>87.03</v>
+    <v>94.61</v>
+    <v>77.16</v>
+    <v>BVMF</v>
+    <v>84.16</v>
+    <v>83.11</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>88.5</v>
-    <v>45184.784699074073</v>
+    <v>83.35</v>
+    <v>45223.556574074071</v>
     <v>199</v>
     <v>BRL</v>
     <v>FII BTG PACTUAL AGRO LOGISTICA CF</v>
-    <v>88.5</v>
-    <v>87.21</v>
+    <v>83.5</v>
+    <v>83.27</v>
     <v>BTAL11</v>
     <v>Fundos mais negociados</v>
     <v>FII BTG PACTUAL AGRO LOGISTICA CF (BVMF:BTAL11)</v>
-    <v>-1.29</v>
-    <v>-1.4576E-2</v>
-    <v>9809</v>
+    <v>-0.08</v>
+    <v>-9.5979999999999991E-4</v>
+    <v>382</v>
   </rv>
   <rv s="2">
     <v>200</v>
@@ -5293,25 +5293,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>86.68</v>
-    <v>69.52</v>
-    <v>BVMF</v>
-    <v>71.5</v>
-    <v>70.569999999999993</v>
+    <v>83.34</v>
+    <v>64</v>
+    <v>BVMF</v>
+    <v>65.84</v>
+    <v>65.45</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>71.180000000000007</v>
-    <v>45184.784722222219</v>
+    <v>65.849999999999994</v>
+    <v>45223.555613425924</v>
     <v>202</v>
     <v>BRL</v>
     <v>FII BTG PACTUAL TERRAS AGRICOLAS CEF</v>
-    <v>71.180000000000007</v>
-    <v>71.010000000000005</v>
+    <v>65.5</v>
+    <v>65.489999999999995</v>
     <v>BTRA11</v>
     <v>Fundos mais negociados</v>
     <v>FII BTG PACTUAL TERRAS AGRICOLAS CEF (BVMF:BTRA11)</v>
-    <v>-0.17</v>
-    <v>-2.3879999999999999E-3</v>
-    <v>4637</v>
+    <v>-0.36</v>
+    <v>-5.4669999999999996E-3</v>
+    <v>137</v>
   </rv>
   <rv s="2">
     <v>203</v>
@@ -5334,22 +5334,22 @@
     <v>Finance</v>
     <v>5</v>
     <v>BVMF</v>
-    <v>96.41</v>
-    <v>96.38</v>
+    <v>9.57</v>
+    <v>9.57</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>96.7</v>
-    <v>45183.869364733597</v>
+    <v>9.52</v>
+    <v>45222.874756423436</v>
     <v>205</v>
     <v>BRL</v>
     <v>CAPITANIA AGRO STRATEGIES CF</v>
-    <v>96.41</v>
-    <v>96.38</v>
+    <v>9.57</v>
+    <v>9.57</v>
     <v>CPTR11</v>
     <v>Fundos mais negociados</v>
     <v>CAPITANIA AGRO STRATEGIES CF (BVMF:CPTR11)</v>
-    <v>-0.32</v>
-    <v>-3.3090000000000003E-3</v>
-    <v>13051</v>
+    <v>0.05</v>
+    <v>5.2519999999999997E-3</v>
+    <v>90506</v>
   </rv>
   <rv s="2">
     <v>206</v>
@@ -5374,22 +5374,22 @@
     <v>10.14</v>
     <v>9.44</v>
     <v>BVMF</v>
-    <v>10.08</v>
-    <v>9.9700000000000006</v>
+    <v>9.7799999999999994</v>
+    <v>9.75</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>10.029999999999999</v>
-    <v>45184.784720832809</v>
+    <v>9.7799999999999994</v>
+    <v>45223.556351411717</v>
     <v>208</v>
     <v>BRL</v>
     <v>FGAGRO FII FIAGRO CF</v>
-    <v>10.029999999999999</v>
-    <v>10.02</v>
+    <v>9.7799999999999994</v>
+    <v>9.77</v>
     <v>FGAA11</v>
     <v>Fundos mais negociados</v>
     <v>FGAGRO FII FIAGRO CF (BVMF:FGAA11)</v>
     <v>-0.01</v>
-    <v>-9.9700000000000006E-4</v>
-    <v>138733</v>
+    <v>-1.0219999999999999E-3</v>
+    <v>7818</v>
   </rv>
   <rv s="2">
     <v>209</v>
@@ -5411,25 +5411,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>102.5</v>
-    <v>89</v>
-    <v>BVMF</v>
-    <v>89.8</v>
-    <v>89.16</v>
+    <v>101.31</v>
+    <v>86.55</v>
+    <v>BVMF</v>
+    <v>86.96</v>
+    <v>86.95</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.25</v>
-    <v>45184.784722222219</v>
+    <v>86.69</v>
+    <v>45223.555972222224</v>
     <v>211</v>
     <v>BRL</v>
     <v>GALAPAGOS CAPITAL INV E PARTICIP CEF</v>
-    <v>89.5</v>
-    <v>89.53</v>
+    <v>86.96</v>
+    <v>86.96</v>
     <v>GCRA11</v>
     <v>Fundos mais negociados</v>
     <v>GALAPAGOS CAPITAL INV E PARTICIP CEF (BVMF:GCRA11)</v>
-    <v>0.28000000000000003</v>
-    <v>3.1369999999999996E-3</v>
-    <v>1356</v>
+    <v>0.27</v>
+    <v>3.1150000000000001E-3</v>
+    <v>63</v>
   </rv>
   <rv s="2">
     <v>212</v>
@@ -5454,22 +5454,22 @@
     <v>105.24</v>
     <v>93.03</v>
     <v>BVMF</v>
-    <v>102.29</v>
-    <v>101</v>
+    <v>95.49</v>
+    <v>95.37</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>101.06</v>
-    <v>45184.783966342191</v>
+    <v>95.99</v>
+    <v>45223.55327546296</v>
     <v>214</v>
     <v>BRL</v>
     <v>FI DAS CADEIAS PROD AGRO JGP CRED CEF</v>
-    <v>101.06</v>
-    <v>101.1</v>
+    <v>95.49</v>
+    <v>95.37</v>
     <v>JGPX11</v>
     <v>Fundos mais negociados</v>
     <v>FI DAS CADEIAS PROD AGRO JGP CRED CEF (BVMF:JGPX11)</v>
-    <v>0.04</v>
-    <v>3.9579999999999997E-4</v>
-    <v>1318</v>
+    <v>-0.62</v>
+    <v>-6.4590000000000003E-3</v>
+    <v>90</v>
   </rv>
   <rv s="2">
     <v>215</v>
@@ -5495,21 +5495,21 @@
     <v>102.5</v>
     <v>BVMF</v>
     <v>105.8</v>
-    <v>105.13</v>
+    <v>105.35</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>105.7</v>
-    <v>45184.784726990627</v>
+    <v>105.55</v>
+    <v>45223.556585648148</v>
     <v>217</v>
     <v>BRL</v>
     <v>KINEA CREDITO AGRO FIAGRO IMOB CEF</v>
-    <v>105.7</v>
-    <v>105.25</v>
+    <v>105.55</v>
+    <v>105.44</v>
     <v>KNCA11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA CREDITO AGRO FIAGRO IMOB CEF (BVMF:KNCA11)</v>
-    <v>-0.45</v>
-    <v>-4.2570000000000004E-3</v>
-    <v>27761</v>
+    <v>-0.11</v>
+    <v>-1.042E-3</v>
+    <v>4424</v>
   </rv>
   <rv s="2">
     <v>218</v>
@@ -5534,22 +5534,22 @@
     <v>10.82</v>
     <v>9.9499999999999993</v>
     <v>BVMF</v>
-    <v>10.47</v>
-    <v>10.4</v>
+    <v>10.69</v>
+    <v>10.65</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>10.46</v>
-    <v>45184.784683332815</v>
+    <v>10.67</v>
+    <v>45223.556539351855</v>
     <v>220</v>
     <v>BRL</v>
     <v>ITAU ASSET RURAL FIAGRO CF</v>
-    <v>10.46</v>
-    <v>10.43</v>
+    <v>10.67</v>
+    <v>10.68</v>
     <v>RURA11</v>
     <v>Fundos mais negociados</v>
     <v>ITAU ASSET RURAL FIAGRO CF (BVMF:RURA11)</v>
-    <v>-0.03</v>
-    <v>-2.8679999999999999E-3</v>
-    <v>100373</v>
+    <v>0.01</v>
+    <v>9.3720000000000001E-4</v>
+    <v>38104</v>
   </rv>
   <rv s="2">
     <v>221</v>
@@ -5571,25 +5571,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>10.65</v>
+    <v>10.54</v>
     <v>8.56</v>
     <v>BVMF</v>
-    <v>9.7100000000000009</v>
-    <v>9.6</v>
+    <v>9.7799999999999994</v>
+    <v>9.74</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.6199999999999992</v>
-    <v>45184.784769837497</v>
+    <v>9.77</v>
+    <v>45223.556538089841</v>
     <v>223</v>
     <v>BRL</v>
     <v>FI CADEIAS PROD AGRO RIZA FIAGRO CF</v>
-    <v>9.6199999999999992</v>
-    <v>9.6999999999999993</v>
+    <v>9.7799999999999994</v>
+    <v>9.7799999999999994</v>
     <v>RZAG11</v>
     <v>Fundos mais negociados</v>
     <v>FI CADEIAS PROD AGRO RIZA FIAGRO CF (BVMF:RZAG11)</v>
-    <v>0.08</v>
-    <v>8.3160000000000005E-3</v>
-    <v>263191</v>
+    <v>0.01</v>
+    <v>1.024E-3</v>
+    <v>32133</v>
   </rv>
   <rv s="2">
     <v>224</v>
@@ -5612,22 +5612,22 @@
     <v>Finance</v>
     <v>5</v>
     <v>BVMF</v>
-    <v>95.37</v>
-    <v>95.31</v>
+    <v>95.33</v>
+    <v>95.33</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>95.42</v>
-    <v>45183.868864594529</v>
+    <v>95.85</v>
+    <v>45222.874259259261</v>
     <v>226</v>
     <v>BRL</v>
     <v>VECTIS DATAGRO CR AGR FII CAD PR CF</v>
-    <v>95.37</v>
-    <v>95.31</v>
+    <v>95.33</v>
+    <v>95.33</v>
     <v>VCRA11</v>
     <v>Fundos mais negociados</v>
     <v>VECTIS DATAGRO CR AGR FII CAD PR CF (BVMF:VCRA11)</v>
-    <v>-0.11</v>
-    <v>-1.1529999999999999E-3</v>
-    <v>5692</v>
+    <v>-0.52</v>
+    <v>-5.4250000000000001E-3</v>
+    <v>3421</v>
   </rv>
   <rv s="2">
     <v>227</v>
@@ -5652,22 +5652,22 @@
     <v>10.68</v>
     <v>8.35</v>
     <v>BVMF</v>
-    <v>9.3699999999999992</v>
-    <v>9.33</v>
+    <v>9.35</v>
+    <v>9.32</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>9.32</v>
-    <v>45184.784722603908</v>
+    <v>45223.556615717185</v>
     <v>229</v>
     <v>BRL</v>
     <v>VALORA CRA FI PROD AGRO FIAGRO CF</v>
-    <v>9.33</v>
+    <v>9.32</v>
     <v>9.34</v>
     <v>VGIA11</v>
     <v>Fundos mais negociados</v>
     <v>VALORA CRA FI PROD AGRO FIAGRO CF (BVMF:VGIA11)</v>
     <v>0.02</v>
     <v>2.1460000000000003E-3</v>
-    <v>305361</v>
+    <v>20847</v>
   </rv>
   <rv s="2">
     <v>230</v>
@@ -5689,25 +5689,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>117.46</v>
-    <v>101.41</v>
-    <v>BVMF</v>
-    <v>117.01</v>
-    <v>116.25</v>
+    <v>116.15</v>
+    <v>99.97</v>
+    <v>BVMF</v>
+    <v>114.77</v>
+    <v>114.5</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>116.87</v>
-    <v>45184.784699074073</v>
+    <v>114.43</v>
+    <v>45223.556493055556</v>
     <v>232</v>
     <v>BRL</v>
     <v>FDO INV IMOB ALIANZA TRUST RENDA IMOB CF</v>
-    <v>116.88</v>
-    <v>116.5</v>
+    <v>114.5</v>
+    <v>114.7</v>
     <v>ALZR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB ALIANZA TRUST RENDA IMOB CF (BVMF:ALZR11)</v>
-    <v>-0.37</v>
-    <v>-3.166E-3</v>
-    <v>17160</v>
+    <v>0.27</v>
+    <v>2.3599999999999997E-3</v>
+    <v>898</v>
   </rv>
   <rv s="2">
     <v>233</v>
@@ -5729,25 +5729,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>87.94</v>
-    <v>72.900000000000006</v>
-    <v>BVMF</v>
-    <v>84.01</v>
-    <v>83.61</v>
+    <v>87.47</v>
+    <v>72.510000000000005</v>
+    <v>BVMF</v>
+    <v>80.510000000000005</v>
+    <v>80.39</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>83.88</v>
-    <v>45184.784444444442</v>
+    <v>80.52</v>
+    <v>45223.556550925925</v>
     <v>235</v>
     <v>BRL</v>
     <v>FII BARIGUI RENDI CF</v>
-    <v>83.67</v>
-    <v>84</v>
+    <v>80.510000000000005</v>
+    <v>80.5</v>
     <v>BARI11</v>
     <v>Fundos mais negociados</v>
     <v>FII BARIGUI RENDI CF (BVMF:BARI11)</v>
-    <v>0.12</v>
-    <v>1.431E-3</v>
-    <v>8741</v>
+    <v>-0.02</v>
+    <v>-2.4840000000000002E-4</v>
+    <v>542</v>
   </rv>
   <rv s="2">
     <v>236</v>
@@ -5769,25 +5769,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>128.04</v>
-    <v>85.83</v>
-    <v>BVMF</v>
-    <v>128.04</v>
-    <v>126.21</v>
+    <v>128.09</v>
+    <v>85.23</v>
+    <v>BVMF</v>
+    <v>123.29</v>
+    <v>123</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>126.21</v>
-    <v>45184.784687500003</v>
+    <v>123.29</v>
+    <v>45223.556562500002</v>
     <v>238</v>
     <v>BRL</v>
     <v>BRESCO LOGISTICA - FDO INV IMOB</v>
-    <v>126.22</v>
-    <v>127.72</v>
+    <v>123.02</v>
+    <v>123.2</v>
     <v>BRCO11</v>
     <v>Fundos mais negociados</v>
     <v>BRESCO LOGISTICA - FDO INV IMOB (BVMF:BRCO11)</v>
-    <v>1.51</v>
-    <v>1.1963999999999999E-2</v>
-    <v>28523</v>
+    <v>-0.09</v>
+    <v>-7.2999999999999996E-4</v>
+    <v>294</v>
   </rv>
   <rv s="2">
     <v>239</v>
@@ -5809,25 +5809,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>69.81</v>
-    <v>48.14</v>
-    <v>BVMF</v>
-    <v>63</v>
-    <v>62.39</v>
+    <v>69.33</v>
+    <v>47.8</v>
+    <v>BVMF</v>
+    <v>55.19</v>
+    <v>54.89</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>62.53</v>
-    <v>45184.784683414066</v>
+    <v>55.19</v>
+    <v>45223.556608796294</v>
     <v>241</v>
     <v>BRL</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
-    <v>62.5</v>
-    <v>62.85</v>
+    <v>55.11</v>
+    <v>55.02</v>
     <v>BRCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
-    <v>0.32</v>
-    <v>5.1180000000000002E-3</v>
-    <v>21056</v>
+    <v>-0.17</v>
+    <v>-3.0799999999999998E-3</v>
+    <v>4291</v>
   </rv>
   <rv s="2">
     <v>242</v>
@@ -5849,25 +5849,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>9.68</v>
-    <v>7.7</v>
-    <v>BVMF</v>
-    <v>9.67</v>
-    <v>9.6</v>
+    <v>9.91</v>
+    <v>7.62</v>
+    <v>BVMF</v>
+    <v>9.83</v>
+    <v>9.76</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.65</v>
-    <v>45184.784768518519</v>
+    <v>9.75</v>
+    <v>45223.556597325784</v>
     <v>244</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII BTG PACTUAL FUNDO DE CRI CF</v>
-    <v>9.66</v>
-    <v>9.6199999999999992</v>
+    <v>9.83</v>
+    <v>9.77</v>
     <v>BTCI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII BTG PACTUAL FUNDO DE CRI CF (BVMF:BTCI11)</v>
-    <v>-0.03</v>
-    <v>-3.1090000000000002E-3</v>
-    <v>242024</v>
+    <v>0.02</v>
+    <v>2.0509999999999999E-3</v>
+    <v>11719</v>
   </rv>
   <rv s="2">
     <v>245</v>
@@ -5889,25 +5889,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>106.56</v>
-    <v>86.35</v>
-    <v>BVMF</v>
-    <v>104.84</v>
-    <v>104.24</v>
+    <v>104.99</v>
+    <v>85.07</v>
+    <v>BVMF</v>
+    <v>100.14</v>
+    <v>99.88</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>104.72</v>
-    <v>45184.784722222219</v>
+    <v>99.97</v>
+    <v>45223.556574074071</v>
     <v>247</v>
     <v>BRL</v>
     <v>BTG PACTUAL LOGISTICA FDO INV IMOB - FII ETF</v>
-    <v>104.71</v>
-    <v>104.47</v>
+    <v>99.9</v>
+    <v>100.12</v>
     <v>BTLG11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL LOGISTICA FDO INV IMOB - FII ETF (BVMF:BTLG11)</v>
-    <v>-0.25</v>
-    <v>-2.3869999999999998E-3</v>
-    <v>54193</v>
+    <v>0.15</v>
+    <v>1.5E-3</v>
+    <v>4671</v>
   </rv>
   <rv s="2">
     <v>248</v>
@@ -5929,25 +5929,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>107.53</v>
-    <v>85.08</v>
-    <v>BVMF</v>
-    <v>106.46</v>
-    <v>105.02</v>
+    <v>106.09</v>
+    <v>85.26</v>
+    <v>BVMF</v>
+    <v>104.94</v>
+    <v>104.22</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>105.29</v>
-    <v>45184.783993657031</v>
+    <v>104.56</v>
+    <v>45223.555485173434</v>
     <v>250</v>
     <v>BRL</v>
     <v>SUPERNOVA FII- RECEB IMOB.</v>
-    <v>105.54</v>
-    <v>105.04</v>
+    <v>104.54</v>
+    <v>104.26</v>
     <v>CACR11</v>
     <v>Fundos mais negociados</v>
     <v>SUPERNOVA FII- RECEB IMOB. (BVMF:CACR11)</v>
-    <v>-0.25</v>
-    <v>-2.3739999999999998E-3</v>
-    <v>5431</v>
+    <v>-0.3</v>
+    <v>-2.869E-3</v>
+    <v>1074</v>
   </rv>
   <rv s="2">
     <v>251</v>
@@ -5969,25 +5969,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>90.64</v>
-    <v>70.040000000000006</v>
-    <v>BVMF</v>
-    <v>90.55</v>
-    <v>88.9</v>
+    <v>9.01</v>
+    <v>6.96</v>
+    <v>BVMF</v>
+    <v>8.17</v>
+    <v>8</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.49</v>
-    <v>45184.78478302031</v>
+    <v>8.09</v>
+    <v>45223.556600428128</v>
     <v>253</v>
     <v>BRL</v>
     <v>CAPITANIA SECURITIES II FII CF</v>
-    <v>89.5</v>
-    <v>90.37</v>
+    <v>8.1300000000000008</v>
+    <v>8.01</v>
     <v>CPTS11</v>
     <v>Fundos mais negociados</v>
     <v>CAPITANIA SECURITIES II FII CF (BVMF:CPTS11)</v>
-    <v>0.88</v>
-    <v>9.8340000000000007E-3</v>
-    <v>333259</v>
+    <v>-0.08</v>
+    <v>-9.8890000000000002E-3</v>
+    <v>88720</v>
   </rv>
   <rv s="2">
     <v>254</v>
@@ -6009,25 +6009,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>95.93</v>
-    <v>76.14</v>
-    <v>BVMF</v>
-    <v>93.6</v>
-    <v>92.3</v>
+    <v>95.21</v>
+    <v>75.569999999999993</v>
+    <v>BVMF</v>
+    <v>90.7</v>
+    <v>90.5</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>92.4</v>
-    <v>45184.784723471872</v>
+    <v>90.54</v>
+    <v>45223.556539351855</v>
     <v>256</v>
     <v>BRL</v>
     <v>FDO INV IMOB VBI CRI ETF</v>
-    <v>92.41</v>
-    <v>93.18</v>
+    <v>90.57</v>
+    <v>90.56</v>
     <v>CVBI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB VBI CRI ETF (BVMF:CVBI11)</v>
-    <v>0.78</v>
-    <v>8.4419999999999999E-3</v>
-    <v>21704</v>
+    <v>0.02</v>
+    <v>2.2089999999999998E-4</v>
+    <v>1295</v>
   </rv>
   <rv s="2">
     <v>257</v>
@@ -6049,25 +6049,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>9.26</v>
-    <v>7.67</v>
-    <v>BVMF</v>
-    <v>9.25</v>
-    <v>9.18</v>
+    <v>9.2100000000000009</v>
+    <v>7.59</v>
+    <v>BVMF</v>
+    <v>9.15</v>
+    <v>9.11</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.19</v>
-    <v>45184.784745370373</v>
+    <v>9.14</v>
+    <v>45223.556476122656</v>
     <v>259</v>
     <v>BRL</v>
     <v>FII GUARDIAN MULTIESTRATEGIA I CF</v>
-    <v>9.19</v>
-    <v>9.19</v>
+    <v>9.15</v>
+    <v>9.1300000000000008</v>
     <v>GAME11</v>
     <v>Fundos mais negociados</v>
     <v>FII GUARDIAN MULTIESTRATEGIA I CF (BVMF:GAME11)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>9256</v>
+    <v>-0.01</v>
+    <v>-1.0939999999999999E-3</v>
+    <v>1169</v>
   </rv>
   <rv s="2">
     <v>260</v>
@@ -6089,25 +6089,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>91.94</v>
-    <v>80.5</v>
-    <v>BVMF</v>
-    <v>88.6</v>
-    <v>88.1</v>
+    <v>90</v>
+    <v>78.790000000000006</v>
+    <v>BVMF</v>
+    <v>88.04</v>
+    <v>87.84</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>88.44</v>
-    <v>45184.783275462964</v>
+    <v>88.04</v>
+    <v>45223.548946759256</v>
     <v>262</v>
     <v>BRL</v>
     <v>GALAPAGOS RECEBIVEIS IMOB FII CF</v>
-    <v>88.47</v>
-    <v>88.44</v>
+    <v>88.04</v>
+    <v>87.84</v>
     <v>GCRI11</v>
     <v>Fundos mais negociados</v>
     <v>GALAPAGOS RECEBIVEIS IMOB FII CF (BVMF:GCRI11)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>2010</v>
+    <v>-0.2</v>
+    <v>-2.2720000000000001E-3</v>
+    <v>10</v>
   </rv>
   <rv s="2">
     <v>263</v>
@@ -6129,25 +6129,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>73.62</v>
-    <v>63.26</v>
-    <v>BVMF</v>
-    <v>68.8</v>
-    <v>68.02</v>
+    <v>72.47</v>
+    <v>62.6</v>
+    <v>BVMF</v>
+    <v>63.8</v>
+    <v>63.15</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>68.010000000000005</v>
-    <v>45184.782506620315</v>
+    <v>63.13</v>
+    <v>45223.553506944445</v>
     <v>265</v>
     <v>BRL</v>
     <v>PLURAL LOGISTICA FDO DE INV IMOB CF</v>
-    <v>68.8</v>
-    <v>68.709999999999994</v>
+    <v>63.8</v>
+    <v>63.15</v>
     <v>GLOG11</v>
     <v>Fundos mais negociados</v>
     <v>PLURAL LOGISTICA FDO DE INV IMOB CF (BVMF:GLOG11)</v>
-    <v>0.7</v>
-    <v>1.0293000000000002E-2</v>
-    <v>618</v>
+    <v>0.02</v>
+    <v>3.168E-4</v>
+    <v>29</v>
   </rv>
   <rv s="2">
     <v>266</v>
@@ -6169,25 +6169,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>233.69</v>
-    <v>165.63</v>
-    <v>BVMF</v>
-    <v>233.69</v>
-    <v>230.19</v>
+    <v>231.68</v>
+    <v>164.2</v>
+    <v>BVMF</v>
+    <v>228</v>
+    <v>227.5</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>232</v>
-    <v>45184.784742325784</v>
+    <v>228.03</v>
+    <v>45223.556619363284</v>
     <v>268</v>
     <v>BRL</v>
     <v>FDO INV IMOB HG BRASIL SHOPPING ETF</v>
-    <v>232</v>
-    <v>232.35</v>
+    <v>228</v>
+    <v>227.63</v>
     <v>HGBS11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB HG BRASIL SHOPPING ETF (BVMF:HGBS11)</v>
-    <v>0.35</v>
-    <v>1.5090000000000001E-3</v>
-    <v>135697</v>
+    <v>-0.4</v>
+    <v>-1.7539999999999999E-3</v>
+    <v>493</v>
   </rv>
   <rv s="2">
     <v>269</v>
@@ -6209,25 +6209,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>107.5</v>
-    <v>89.41</v>
-    <v>BVMF</v>
-    <v>107.5</v>
-    <v>106.5</v>
+    <v>107.65</v>
+    <v>88.5</v>
+    <v>BVMF</v>
+    <v>105.15</v>
+    <v>105.03</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>106.82</v>
-    <v>45184.784756944442</v>
+    <v>105.03</v>
+    <v>45223.556572615627</v>
     <v>271</v>
     <v>BRL</v>
     <v>FDO INV IMOB CSHG RECEBIVEIS CF</v>
-    <v>106.8</v>
-    <v>107.47</v>
+    <v>105.15</v>
+    <v>105.03</v>
     <v>HGCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB CSHG RECEBIVEIS CF (BVMF:HGCR11)</v>
-    <v>0.65</v>
-    <v>6.0850000000000001E-3</v>
-    <v>40288</v>
+    <v>0</v>
+    <v>0</v>
+    <v>772</v>
   </rv>
   <rv s="2">
     <v>272</v>
@@ -6249,25 +6249,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>166.22</v>
-    <v>148.09</v>
-    <v>BVMF</v>
-    <v>161.28</v>
-    <v>160.4</v>
+    <v>165.09</v>
+    <v>147.08000000000001</v>
+    <v>BVMF</v>
+    <v>158.59</v>
+    <v>158.1</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>160.74</v>
-    <v>45184.784768518519</v>
+    <v>158.30000000000001</v>
+    <v>45223.556571967187</v>
     <v>274</v>
     <v>BRL</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF</v>
-    <v>160.79</v>
-    <v>160.58000000000001</v>
+    <v>158.5</v>
+    <v>158.24</v>
     <v>HGLG11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB CSHG LOGISTICA CF (BVMF:HGLG11)</v>
-    <v>-0.16</v>
-    <v>-9.9540000000000002E-4</v>
-    <v>103467</v>
+    <v>-0.06</v>
+    <v>-3.7900000000000005E-4</v>
+    <v>5743</v>
   </rv>
   <rv s="2">
     <v>275</v>
@@ -6289,25 +6289,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>295.32</v>
-    <v>229.19</v>
-    <v>BVMF</v>
-    <v>277.64999999999998</v>
-    <v>272.19</v>
+    <v>293.73</v>
+    <v>227.96</v>
+    <v>BVMF</v>
+    <v>274.48</v>
+    <v>273.16000000000003</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>274.69</v>
-    <v>45184.783905231248</v>
+    <v>274.48</v>
+    <v>45223.556076388886</v>
     <v>277</v>
     <v>BRL</v>
     <v>CSHG PRIME OFFICES FDO INV IMOB CEF</v>
-    <v>274.72000000000003</v>
-    <v>274.99</v>
+    <v>274.48</v>
+    <v>273.16000000000003</v>
     <v>HGPO11</v>
     <v>Fundos mais negociados</v>
     <v>CSHG PRIME OFFICES FDO INV IMOB CEF (BVMF:HGPO11)</v>
-    <v>0.3</v>
-    <v>1.0920000000000001E-3</v>
-    <v>4803</v>
+    <v>-1.32</v>
+    <v>-4.8089999999999999E-3</v>
+    <v>29</v>
   </rv>
   <rv s="2">
     <v>278</v>
@@ -6329,25 +6329,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>142.97999999999999</v>
-    <v>102.78</v>
-    <v>BVMF</v>
-    <v>138.9</v>
-    <v>135.54</v>
+    <v>142.16</v>
+    <v>102.19</v>
+    <v>BVMF</v>
+    <v>124.97</v>
+    <v>123.06</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>136.47999999999999</v>
-    <v>45184.784722222219</v>
+    <v>124.63</v>
+    <v>45223.556608796294</v>
     <v>280</v>
     <v>BRL</v>
     <v>HG REAL ESTATE FDO INV IMOB CF</v>
-    <v>136.5</v>
-    <v>138.5</v>
+    <v>124.75</v>
+    <v>123.1</v>
     <v>HGRE11</v>
     <v>Fundos mais negociados</v>
     <v>HG REAL ESTATE FDO INV IMOB CF (BVMF:HGRE11)</v>
-    <v>2.02</v>
-    <v>1.4801E-2</v>
-    <v>13107</v>
+    <v>-1.53</v>
+    <v>-1.2276E-2</v>
+    <v>2300</v>
   </rv>
   <rv s="2">
     <v>281</v>
@@ -6369,25 +6369,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>139.76</v>
-    <v>106.12</v>
-    <v>BVMF</v>
-    <v>139.76</v>
-    <v>136.43</v>
+    <v>140.53</v>
+    <v>105.46</v>
+    <v>BVMF</v>
+    <v>129.66</v>
+    <v>128.76</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>136.71</v>
-    <v>45184.784756944442</v>
+    <v>129.08000000000001</v>
+    <v>45223.556562500002</v>
     <v>283</v>
     <v>BRL</v>
     <v>CSHG RENDA URBANA FII CF</v>
-    <v>136.69999999999999</v>
-    <v>139.46</v>
+    <v>129.09</v>
+    <v>128.9</v>
     <v>HGRU11</v>
     <v>Fundos mais negociados</v>
     <v>CSHG RENDA URBANA FII CF (BVMF:HGRU11)</v>
-    <v>2.75</v>
-    <v>2.0116000000000002E-2</v>
-    <v>139518</v>
+    <v>-0.18</v>
+    <v>-1.3940000000000001E-3</v>
+    <v>2406</v>
   </rv>
   <rv s="2">
     <v>284</v>
@@ -6409,25 +6409,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>100.1</v>
-    <v>70.260000000000005</v>
-    <v>BVMF</v>
-    <v>95.98</v>
-    <v>94.38</v>
+    <v>99.33</v>
+    <v>69.72</v>
+    <v>BVMF</v>
+    <v>90.3</v>
+    <v>90.06</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>94.38</v>
-    <v>45184.784363425926</v>
+    <v>90.07</v>
+    <v>45223.55641203704</v>
     <v>286</v>
     <v>BRL</v>
     <v>HSI LOGISTICA FDO INV IMOB CF</v>
-    <v>94.38</v>
-    <v>95.48</v>
+    <v>90.07</v>
+    <v>90.24</v>
     <v>HSLG11</v>
     <v>Fundos mais negociados</v>
     <v>HSI LOGISTICA FDO INV IMOB CF (BVMF:HSLG11)</v>
-    <v>1.1000000000000001</v>
-    <v>1.1655E-2</v>
-    <v>4460</v>
+    <v>0.17</v>
+    <v>1.887E-3</v>
+    <v>242</v>
   </rv>
   <rv s="2">
     <v>287</v>
@@ -6449,25 +6449,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>96.72</v>
-    <v>69.099999999999994</v>
-    <v>BVMF</v>
-    <v>94.98</v>
-    <v>93.99</v>
+    <v>95.96</v>
+    <v>68.56</v>
+    <v>BVMF</v>
+    <v>92.3</v>
+    <v>91.99</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>94.37</v>
-    <v>45184.784744131248</v>
+    <v>91.96</v>
+    <v>45223.556569293753</v>
     <v>289</v>
     <v>BRL</v>
     <v>HSI MALLS FI IMOBILIARIO ETF</v>
-    <v>94.51</v>
-    <v>94.05</v>
+    <v>91.99</v>
+    <v>92.2</v>
     <v>HSML11</v>
     <v>Fundos mais negociados</v>
     <v>HSI MALLS FI IMOBILIARIO ETF (BVMF:HSML11)</v>
-    <v>-0.32</v>
-    <v>-3.3909999999999999E-3</v>
-    <v>28338</v>
+    <v>0.24</v>
+    <v>2.6099999999999999E-3</v>
+    <v>1854</v>
   </rv>
   <rv s="2">
     <v>290</v>
@@ -6489,25 +6489,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>146.82</v>
-    <v>89.35</v>
-    <v>BVMF</v>
-    <v>145.5</v>
-    <v>143.52000000000001</v>
+    <v>160</v>
+    <v>87.58</v>
+    <v>BVMF</v>
+    <v>156.97</v>
+    <v>154.02000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>142.83000000000001</v>
-    <v>45184.784692626563</v>
+    <v>156.12</v>
+    <v>45223.556539351855</v>
     <v>292</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII HOTEL MAXINVEST CF</v>
-    <v>143.52000000000001</v>
-    <v>145.44</v>
+    <v>156.51</v>
+    <v>154.02000000000001</v>
     <v>HTMX11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII HOTEL MAXINVEST CF (BVMF:HTMX11)</v>
-    <v>2.61</v>
-    <v>1.8272999999999998E-2</v>
-    <v>2283</v>
+    <v>-2.1</v>
+    <v>-1.3450999999999999E-2</v>
+    <v>558</v>
   </rv>
   <rv s="2">
     <v>293</v>
@@ -6529,25 +6529,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>82</v>
-    <v>63.5</v>
-    <v>BVMF</v>
-    <v>76.900000000000006</v>
-    <v>76.2</v>
+    <v>80.41</v>
+    <v>62.71</v>
+    <v>BVMF</v>
+    <v>79.680000000000007</v>
+    <v>79.209999999999994</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>76.2</v>
-    <v>45184.784386574072</v>
+    <v>79.5</v>
+    <v>45223.553981481484</v>
     <v>295</v>
     <v>BRL</v>
     <v>FDO DE INV IMOBILIARIO DE CRI INTEGRAL BREI CF</v>
-    <v>76.2</v>
-    <v>76.27</v>
+    <v>79.680000000000007</v>
+    <v>79.209999999999994</v>
     <v>IBCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO DE INV IMOBILIARIO DE CRI INTEGRAL BREI CF (BVMF:IBCR11)</v>
-    <v>7.0000000000000007E-2</v>
-    <v>9.1859999999999999E-4</v>
-    <v>2077</v>
+    <v>-0.28999999999999998</v>
+    <v>-3.6480000000000002E-3</v>
+    <v>9</v>
   </rv>
   <rv s="2">
     <v>296</v>
@@ -6569,25 +6569,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>83.8</v>
-    <v>57.97</v>
-    <v>BVMF</v>
-    <v>77.77</v>
-    <v>76.11</v>
+    <v>80.81</v>
+    <v>57.62</v>
+    <v>BVMF</v>
+    <v>70.400000000000006</v>
+    <v>69.58</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>77.180000000000007</v>
-    <v>45184.784539224216</v>
+    <v>69.97</v>
+    <v>45223.556377314817</v>
     <v>298</v>
     <v>BRL</v>
     <v>FII JS REAL ESTATE MULTIGESTAO ETF</v>
-    <v>77.180000000000007</v>
-    <v>77.760000000000005</v>
+    <v>70</v>
+    <v>69.73</v>
     <v>JSRE11</v>
     <v>Fundos mais negociados</v>
     <v>FII JS REAL ESTATE MULTIGESTAO ETF (BVMF:JSRE11)</v>
-    <v>0.57999999999999996</v>
-    <v>7.5149999999999991E-3</v>
-    <v>52602</v>
+    <v>-0.24</v>
+    <v>-3.4300000000000003E-3</v>
+    <v>2693</v>
   </rv>
   <rv s="2">
     <v>299</v>
@@ -6609,25 +6609,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>99.81</v>
-    <v>86.43</v>
-    <v>BVMF</v>
-    <v>99.81</v>
-    <v>99.09</v>
+    <v>101.75</v>
+    <v>85.49</v>
+    <v>BVMF</v>
+    <v>101.5</v>
+    <v>101.15</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>99.1</v>
-    <v>45184.784729941406</v>
+    <v>101.37</v>
+    <v>45223.556585648148</v>
     <v>301</v>
     <v>BRL</v>
     <v>FDO INV IMOB KINEA RENDIMENTOS ETF</v>
-    <v>99.1</v>
-    <v>99.67</v>
+    <v>101.5</v>
+    <v>101.19</v>
     <v>KNCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB KINEA RENDIMENTOS ETF (BVMF:KNCR11)</v>
-    <v>0.56999999999999995</v>
-    <v>5.7520000000000002E-3</v>
-    <v>129693</v>
+    <v>-0.18</v>
+    <v>-1.776E-3</v>
+    <v>16047</v>
   </rv>
   <rv s="2">
     <v>302</v>
@@ -6649,25 +6649,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>164.75</v>
-    <v>127.12</v>
-    <v>BVMF</v>
-    <v>163.98</v>
-    <v>162.29</v>
+    <v>166.13</v>
+    <v>126.35</v>
+    <v>BVMF</v>
+    <v>159.65</v>
+    <v>158.85</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>162.29</v>
-    <v>45184.784733796296</v>
+    <v>158.78</v>
+    <v>45223.556562500002</v>
     <v>304</v>
     <v>BRL</v>
     <v>FDO INV IMOB KINEA RENDA IMOBILIARIA CF</v>
-    <v>162.29</v>
-    <v>163.95</v>
+    <v>158.85</v>
+    <v>159.33000000000001</v>
     <v>KNRI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB KINEA RENDA IMOBILIARIA CF (BVMF:KNRI11)</v>
-    <v>1.66</v>
-    <v>1.0228999999999999E-2</v>
-    <v>13429</v>
+    <v>0.55000000000000004</v>
+    <v>3.4640000000000001E-3</v>
+    <v>1097</v>
   </rv>
   <rv s="2">
     <v>305</v>
@@ -6689,25 +6689,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>91.79</v>
-    <v>75.17</v>
-    <v>BVMF</v>
-    <v>91.65</v>
-    <v>90.11</v>
+    <v>91.32</v>
+    <v>75.12</v>
+    <v>BVMF</v>
+    <v>89.22</v>
+    <v>88.89</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>90.5</v>
-    <v>45184.784723448436</v>
+    <v>88.98</v>
+    <v>45223.556585648148</v>
     <v>307</v>
     <v>BRL</v>
     <v>KINEA SECURITIES FDO DE INV IMOB CF</v>
-    <v>90.54</v>
-    <v>91.35</v>
+    <v>88.98</v>
+    <v>89</v>
     <v>KNSC11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA SECURITIES FDO DE INV IMOB CF (BVMF:KNSC11)</v>
-    <v>0.85</v>
-    <v>9.392000000000001E-3</v>
-    <v>41118</v>
+    <v>0.02</v>
+    <v>2.2479999999999999E-4</v>
+    <v>712</v>
   </rv>
   <rv s="2">
     <v>308</v>
@@ -6729,25 +6729,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>89.34</v>
-    <v>67.180000000000007</v>
-    <v>BVMF</v>
-    <v>86.25</v>
-    <v>85.6</v>
+    <v>88.68</v>
+    <v>66.69</v>
+    <v>BVMF</v>
+    <v>84.5</v>
+    <v>84.1</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>86.09</v>
-    <v>45184.784772626561</v>
+    <v>84.01</v>
+    <v>45223.556562500002</v>
     <v>310</v>
     <v>BRL</v>
     <v>LOGCP INTER FDO INV IMOB ETF</v>
-    <v>86.09</v>
-    <v>85.75</v>
+    <v>84.11</v>
+    <v>84.4</v>
     <v>LGCP11</v>
     <v>Fundos mais negociados</v>
     <v>LOGCP INTER FDO INV IMOB ETF (BVMF:LGCP11)</v>
-    <v>-0.34</v>
-    <v>-3.9489999999999994E-3</v>
-    <v>2362</v>
+    <v>0.39</v>
+    <v>4.6420000000000003E-3</v>
+    <v>101</v>
   </rv>
   <rv s="2">
     <v>311</v>
@@ -6769,25 +6769,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>119.49</v>
-    <v>87.14</v>
-    <v>BVMF</v>
-    <v>119</v>
-    <v>117.18</v>
+    <v>122</v>
+    <v>86.56</v>
+    <v>BVMF</v>
+    <v>117.8</v>
+    <v>117.7</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>117.27</v>
-    <v>45184.78470826328</v>
+    <v>117.75</v>
+    <v>45223.55641203704</v>
     <v>313</v>
     <v>BRL</v>
     <v>FDO INV IMOB VBI LOGISTICO ETF</v>
-    <v>117.27</v>
-    <v>118.19</v>
+    <v>117.75</v>
+    <v>117.73</v>
     <v>LVBI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB VBI LOGISTICO ETF (BVMF:LVBI11)</v>
-    <v>0.92</v>
-    <v>7.8449999999999995E-3</v>
-    <v>28670</v>
+    <v>-0.02</v>
+    <v>-1.6990000000000001E-4</v>
+    <v>364</v>
   </rv>
   <rv s="2">
     <v>314</v>
@@ -6809,25 +6809,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>118.98</v>
-    <v>91.52</v>
-    <v>BVMF</v>
-    <v>118.1</v>
-    <v>116.94</v>
+    <v>119.47</v>
+    <v>90.86</v>
+    <v>BVMF</v>
+    <v>115.4</v>
+    <v>114.81</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>117.68</v>
-    <v>45184.78467756875</v>
+    <v>115.03</v>
+    <v>45223.556574074071</v>
     <v>316</v>
     <v>BRL</v>
     <v>MALLS BRASIL PLURAL FDO INV IMOB CF</v>
-    <v>117.7</v>
-    <v>117</v>
+    <v>115</v>
+    <v>114.81</v>
     <v>MALL11</v>
     <v>Fundos mais negociados</v>
     <v>MALLS BRASIL PLURAL FDO INV IMOB CF (BVMF:MALL11)</v>
-    <v>-0.68</v>
-    <v>-5.7780000000000001E-3</v>
-    <v>16569</v>
+    <v>-0.22</v>
+    <v>-1.913E-3</v>
+    <v>1555</v>
   </rv>
   <rv s="2">
     <v>317</v>
@@ -6849,25 +6849,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>96.04</v>
-    <v>76.53</v>
-    <v>BVMF</v>
-    <v>95.49</v>
-    <v>93.11</v>
+    <v>95.12</v>
+    <v>75.8</v>
+    <v>BVMF</v>
+    <v>94.15</v>
+    <v>93.55</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>93.4</v>
-    <v>45184.784768518519</v>
+    <v>93.5</v>
+    <v>45223.556585648148</v>
     <v>319</v>
     <v>BRL</v>
     <v>FDO INV. MAUA CAPITAL RECEBIVEIS IMOB. - FII ETF</v>
-    <v>93.41</v>
-    <v>95.12</v>
+    <v>93.7</v>
+    <v>93.67</v>
     <v>MCCI11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV. MAUA CAPITAL RECEBIVEIS IMOB. - FII ETF (BVMF:MCCI11)</v>
-    <v>1.72</v>
-    <v>1.8415000000000001E-2</v>
-    <v>39419</v>
+    <v>0.17</v>
+    <v>1.818E-3</v>
+    <v>856</v>
   </rv>
   <rv s="2">
     <v>320</v>
@@ -6889,25 +6889,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>77.8</v>
-    <v>56.27</v>
-    <v>BVMF</v>
-    <v>76.8</v>
-    <v>75.540000000000006</v>
+    <v>76.510000000000005</v>
+    <v>55.34</v>
+    <v>BVMF</v>
+    <v>74.3</v>
+    <v>73.87</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>75.75</v>
-    <v>45184.784699374999</v>
+    <v>74.290000000000006</v>
+    <v>45223.555671296293</v>
     <v>322</v>
     <v>BRL</v>
     <v>MORE REAL ESTATE FOF FII</v>
-    <v>75.75</v>
-    <v>76.150000000000006</v>
+    <v>74.3</v>
+    <v>74.290000000000006</v>
     <v>MORE11</v>
     <v>Fundos mais negociados</v>
     <v>MORE REAL ESTATE FOF FII (BVMF:MORE11)</v>
-    <v>0.4</v>
-    <v>5.2810000000000001E-3</v>
-    <v>7353</v>
+    <v>0</v>
+    <v>0</v>
+    <v>38</v>
   </rv>
   <rv s="2">
     <v>323</v>
@@ -6929,25 +6929,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>86.66</v>
-    <v>70.98</v>
-    <v>BVMF</v>
-    <v>82.68</v>
-    <v>82.3</v>
+    <v>85.88</v>
+    <v>70.34</v>
+    <v>BVMF</v>
+    <v>80.05</v>
+    <v>80</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>82.31</v>
-    <v>45184.784756944442</v>
+    <v>80.150000000000006</v>
+    <v>45223.556597222225</v>
     <v>325</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII NCH BRASIL RECEBIVEIS IMOB CF</v>
-    <v>82.33</v>
-    <v>82.35</v>
+    <v>80.010000000000005</v>
+    <v>80.010000000000005</v>
     <v>NCHB11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII NCH BRASIL RECEBIVEIS IMOB CF (BVMF:NCHB11)</v>
-    <v>0.04</v>
-    <v>4.86E-4</v>
-    <v>4178</v>
+    <v>-0.14000000000000001</v>
+    <v>-1.7469999999999999E-3</v>
+    <v>221</v>
   </rv>
   <rv s="2">
     <v>326</v>
@@ -6969,25 +6969,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>114.54</v>
-    <v>81.819999999999993</v>
-    <v>BVMF</v>
-    <v>104.5</v>
-    <v>104.4</v>
+    <v>113.53</v>
+    <v>81.099999999999994</v>
+    <v>BVMF</v>
+    <v>108</v>
+    <v>107.99</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>104.49</v>
-    <v>45184.784388796092</v>
+    <v>107.99</v>
+    <v>45223.554097222222</v>
     <v>328</v>
     <v>BRL</v>
     <v>NEWPORT LOGI STICA FII CF</v>
-    <v>104.5</v>
-    <v>104.41</v>
+    <v>107.99</v>
+    <v>108</v>
     <v>NEWL11</v>
     <v>Fundos mais negociados</v>
     <v>NEWPORT LOGI STICA FII CF (BVMF:NEWL11)</v>
-    <v>-0.08</v>
-    <v>-7.6560000000000007E-4</v>
-    <v>259</v>
+    <v>0.01</v>
+    <v>9.2599999999999988E-5</v>
+    <v>34</v>
   </rv>
   <rv s="2">
     <v>329</v>
@@ -7009,25 +7009,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>77.56</v>
-    <v>55.29</v>
-    <v>BVMF</v>
-    <v>71.099999999999994</v>
-    <v>70.44</v>
+    <v>76.92</v>
+    <v>54.83</v>
+    <v>BVMF</v>
+    <v>69.37</v>
+    <v>69.03</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>70.599999999999994</v>
-    <v>45184.784745370373</v>
+    <v>69.38</v>
+    <v>45223.555891203701</v>
     <v>331</v>
     <v>BRL</v>
     <v>PATRIA LOGISTICA FDO DE INV IMOB CF</v>
-    <v>70.44</v>
-    <v>70.7</v>
+    <v>69.37</v>
+    <v>69.290000000000006</v>
     <v>PATL11</v>
     <v>Fundos mais negociados</v>
     <v>PATRIA LOGISTICA FDO DE INV IMOB CF (BVMF:PATL11)</v>
-    <v>0.1</v>
-    <v>1.4159999999999999E-3</v>
-    <v>3479</v>
+    <v>-0.09</v>
+    <v>-1.2970000000000002E-3</v>
+    <v>261</v>
   </rv>
   <rv s="2">
     <v>332</v>
@@ -7049,25 +7049,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>109.89</v>
-    <v>80.290000000000006</v>
-    <v>BVMF</v>
-    <v>109.89</v>
-    <v>106.5</v>
+    <v>109.17</v>
+    <v>79.760000000000005</v>
+    <v>BVMF</v>
+    <v>106.77</v>
+    <v>106.44</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>106.5</v>
-    <v>45184.784735925779</v>
+    <v>106.45</v>
+    <v>45223.556599640622</v>
     <v>334</v>
     <v>BRL</v>
     <v>FII VBI PRIME PROPERTIES CF</v>
-    <v>106.6</v>
-    <v>108.42</v>
+    <v>106.77</v>
+    <v>106.44</v>
     <v>PVBI11</v>
     <v>Fundos mais negociados</v>
     <v>FII VBI PRIME PROPERTIES CF (BVMF:PVBI11)</v>
-    <v>1.92</v>
-    <v>1.8027999999999999E-2</v>
-    <v>76812</v>
+    <v>-0.01</v>
+    <v>-9.3939999999999998E-5</v>
+    <v>1102</v>
   </rv>
   <rv s="2">
     <v>335</v>
@@ -7089,25 +7089,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>51.76</v>
-    <v>38.119999999999997</v>
-    <v>BVMF</v>
-    <v>50.67</v>
-    <v>50.29</v>
+    <v>51.32</v>
+    <v>37.799999999999997</v>
+    <v>BVMF</v>
+    <v>48.67</v>
+    <v>47.92</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>50.5</v>
-    <v>45184.78405104141</v>
+    <v>48.68</v>
+    <v>45223.556423611109</v>
     <v>337</v>
     <v>BRL</v>
     <v>QUASAR AGRO - FDO INV. IMOB. ETF</v>
-    <v>50.5</v>
-    <v>50.31</v>
+    <v>48.67</v>
+    <v>48.25</v>
     <v>QAGR11</v>
     <v>Fundos mais negociados</v>
     <v>QUASAR AGRO - FDO INV. IMOB. ETF (BVMF:QAGR11)</v>
-    <v>-0.19</v>
-    <v>-3.7619999999999997E-3</v>
-    <v>2037</v>
+    <v>-0.43</v>
+    <v>-8.8330000000000006E-3</v>
+    <v>843</v>
   </rv>
   <rv s="2">
     <v>338</v>
@@ -7129,25 +7129,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>90.45</v>
-    <v>73.459999999999994</v>
-    <v>BVMF</v>
-    <v>90.04</v>
-    <v>89.13</v>
+    <v>90.99</v>
+    <v>72.61</v>
+    <v>BVMF</v>
+    <v>90.54</v>
+    <v>90.14</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.13</v>
-    <v>45184.783141515625</v>
+    <v>90.5</v>
+    <v>45223.555601851855</v>
     <v>340</v>
     <v>BRL</v>
     <v>RIO BRAVO CREDITO IMOB IV FII</v>
-    <v>89.13</v>
-    <v>90</v>
+    <v>90.14</v>
+    <v>90.5</v>
     <v>RBHG11</v>
     <v>Fundos mais negociados</v>
     <v>RIO BRAVO CREDITO IMOB IV FII (BVMF:RBHG11)</v>
-    <v>0.87</v>
-    <v>9.7609999999999988E-3</v>
-    <v>2224</v>
+    <v>0</v>
+    <v>0</v>
+    <v>49</v>
   </rv>
   <rv s="2">
     <v>341</v>
@@ -7169,25 +7169,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>63.6</v>
-    <v>42.33</v>
-    <v>BVMF</v>
-    <v>58.91</v>
-    <v>57.5</v>
+    <v>63.3</v>
+    <v>42.14</v>
+    <v>BVMF</v>
+    <v>51.64</v>
+    <v>51.55</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>58.35</v>
-    <v>45184.784733796296</v>
+    <v>51.64</v>
+    <v>45223.556498610938</v>
     <v>343</v>
     <v>BRL</v>
     <v>FDO INV IMOB RBR PROPERTIES CF</v>
-    <v>58.8</v>
-    <v>57.68</v>
+    <v>51.64</v>
+    <v>51.6</v>
     <v>RBRP11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB RBR PROPERTIES CF (BVMF:RBRP11)</v>
-    <v>-0.67</v>
-    <v>-1.1482000000000001E-2</v>
-    <v>14099</v>
+    <v>-0.04</v>
+    <v>-7.7459999999999996E-4</v>
+    <v>642</v>
   </rv>
   <rv s="2">
     <v>344</v>
@@ -7209,25 +7209,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>91.34</v>
-    <v>72.86</v>
-    <v>BVMF</v>
-    <v>90.7</v>
-    <v>89.01</v>
+    <v>90.68</v>
+    <v>72.33</v>
+    <v>BVMF</v>
+    <v>89.45</v>
+    <v>89.1</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.2</v>
-    <v>45184.784747291407</v>
+    <v>89.41</v>
+    <v>45223.556539351855</v>
     <v>346</v>
     <v>BRL</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF</v>
-    <v>89.26</v>
-    <v>90.6</v>
+    <v>89.41</v>
+    <v>89.24</v>
     <v>RBRR11</v>
     <v>Fundos mais negociados</v>
     <v>FII RBR RENDIMENTO HIGH GRADE CF (BVMF:RBRR11)</v>
-    <v>1.4</v>
-    <v>1.5695000000000001E-2</v>
-    <v>53286</v>
+    <v>-0.17</v>
+    <v>-1.9009999999999999E-3</v>
+    <v>949</v>
   </rv>
   <rv s="2">
     <v>347</v>
@@ -7249,25 +7249,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>101.24</v>
-    <v>79.23</v>
-    <v>BVMF</v>
-    <v>100.9</v>
-    <v>99.58</v>
+    <v>101.38</v>
+    <v>78.28</v>
+    <v>BVMF</v>
+    <v>100.4</v>
+    <v>100.07</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>99.68</v>
-    <v>45184.784735462497</v>
+    <v>100.4</v>
+    <v>45223.556585323437</v>
     <v>349</v>
     <v>BRL</v>
     <v>FD INV IMOB RBR PVT CREDITO IMOB CEF</v>
-    <v>100</v>
-    <v>100.38</v>
+    <v>100.4</v>
+    <v>100.08</v>
     <v>RBRY11</v>
     <v>Fundos mais negociados</v>
     <v>FD INV IMOB RBR PVT CREDITO IMOB CEF (BVMF:RBRY11)</v>
-    <v>0.7</v>
-    <v>7.0220000000000005E-3</v>
-    <v>16078</v>
+    <v>-0.32</v>
+    <v>-3.1869999999999997E-3</v>
+    <v>452</v>
   </rv>
   <rv s="2">
     <v>350</v>
@@ -7289,25 +7289,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>156.69</v>
-    <v>101.5</v>
-    <v>BVMF</v>
-    <v>154.97999999999999</v>
-    <v>151</v>
+    <v>155.9</v>
+    <v>100.99</v>
+    <v>BVMF</v>
+    <v>150.4</v>
+    <v>150.15</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>152.01</v>
-    <v>45184.784677753909</v>
+    <v>149.22</v>
+    <v>45223.556608796294</v>
     <v>352</v>
     <v>BRL</v>
     <v>FDO INV IMOB RIO BRAVO RENDA COR ETF</v>
-    <v>152</v>
-    <v>151.91999999999999</v>
+    <v>150.37</v>
+    <v>150.30000000000001</v>
     <v>RCRB11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB RIO BRAVO RENDA COR ETF (BVMF:RCRB11)</v>
-    <v>-0.09</v>
-    <v>-5.9210000000000003E-4</v>
-    <v>9893</v>
+    <v>1.08</v>
+    <v>7.2379999999999996E-3</v>
+    <v>217</v>
   </rv>
   <rv s="2">
     <v>353</v>
@@ -7329,25 +7329,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>100.5</v>
-    <v>84.12</v>
-    <v>BVMF</v>
-    <v>100.48</v>
-    <v>100</v>
+    <v>100.28</v>
+    <v>83.58</v>
+    <v>BVMF</v>
+    <v>99.48</v>
+    <v>99.2</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>100.06</v>
-    <v>45184.784650937501</v>
+    <v>99.12</v>
+    <v>45223.556258772653</v>
     <v>355</v>
     <v>BRL</v>
     <v>SUNO RECEBIVEIS IMOB FII CEF</v>
-    <v>100.15</v>
-    <v>100.24</v>
+    <v>99.36</v>
+    <v>99.31</v>
     <v>SNCI11</v>
     <v>Fundos mais negociados</v>
     <v>SUNO RECEBIVEIS IMOB FII CEF (BVMF:SNCI11)</v>
-    <v>0.18</v>
-    <v>1.799E-3</v>
-    <v>6811</v>
+    <v>0.19</v>
+    <v>1.9170000000000001E-3</v>
+    <v>429</v>
   </rv>
   <rv s="2">
     <v>356</v>
@@ -7369,25 +7369,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>91.5</v>
-    <v>59.64</v>
-    <v>BVMF</v>
-    <v>90.88</v>
-    <v>88.99</v>
+    <v>95</v>
+    <v>59.26</v>
+    <v>BVMF</v>
+    <v>91.1</v>
+    <v>90.9</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.56</v>
-    <v>45184.78474283516</v>
+    <v>90.9</v>
+    <v>45223.55265046296</v>
     <v>358</v>
     <v>BRL</v>
     <v>SDI PROPERTIES - FDO INV IMOB ETF</v>
-    <v>89.56</v>
-    <v>90.75</v>
+    <v>90.9</v>
+    <v>91.1</v>
     <v>TEPP11</v>
     <v>Fundos mais negociados</v>
     <v>SDI PROPERTIES - FDO INV IMOB ETF (BVMF:TEPP11)</v>
-    <v>1.19</v>
-    <v>1.3287E-2</v>
-    <v>18815</v>
+    <v>0.2</v>
+    <v>2.2000000000000001E-3</v>
+    <v>30</v>
   </rv>
   <rv s="2">
     <v>359</v>
@@ -7409,25 +7409,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>124.97</v>
-    <v>102.4</v>
-    <v>BVMF</v>
-    <v>124.97</v>
-    <v>122.71</v>
+    <v>127.46</v>
+    <v>101.26</v>
+    <v>BVMF</v>
+    <v>121.82</v>
+    <v>121.5</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>122.6</v>
-    <v>45184.784768518519</v>
+    <v>121.7</v>
+    <v>45223.55655648125</v>
     <v>361</v>
     <v>BRL</v>
     <v>FDO INV IMOB TG ATIVO REAL CF</v>
-    <v>122.97</v>
-    <v>124.04</v>
+    <v>121.7</v>
+    <v>121.64</v>
     <v>TGAR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB TG ATIVO REAL CF (BVMF:TGAR11)</v>
-    <v>1.44</v>
-    <v>1.1746000000000001E-2</v>
-    <v>73378</v>
+    <v>-0.06</v>
+    <v>-4.9299999999999995E-4</v>
+    <v>2949</v>
   </rv>
   <rv s="2">
     <v>362</v>
@@ -7449,25 +7449,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>114</v>
-    <v>94.3</v>
-    <v>BVMF</v>
-    <v>113.36</v>
-    <v>112.28</v>
+    <v>113.09</v>
+    <v>93.55</v>
+    <v>BVMF</v>
+    <v>107.85</v>
+    <v>107.51</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>112.59</v>
-    <v>45184.784725520316</v>
+    <v>107.85</v>
+    <v>45223.556540995312</v>
     <v>364</v>
     <v>BRL</v>
     <v>TRX REAL ESTATE FII CF</v>
-    <v>112.59</v>
-    <v>112.51</v>
+    <v>107.84</v>
+    <v>107.85</v>
     <v>TRXF11</v>
     <v>Fundos mais negociados</v>
     <v>TRX REAL ESTATE FII CF (BVMF:TRXF11)</v>
-    <v>-0.08</v>
-    <v>-7.1049999999999998E-4</v>
-    <v>26236</v>
+    <v>0</v>
+    <v>0</v>
+    <v>1069</v>
   </rv>
   <rv s="2">
     <v>365</v>
@@ -7489,25 +7489,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>98.67</v>
-    <v>83.86</v>
-    <v>BVMF</v>
-    <v>94.7</v>
-    <v>94.03</v>
+    <v>97.44</v>
+    <v>82.81</v>
+    <v>BVMF</v>
+    <v>90.15</v>
+    <v>89.76</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>94.12</v>
-    <v>45184.784645810156</v>
+    <v>90</v>
+    <v>45223.556574074071</v>
     <v>367</v>
     <v>BRL</v>
     <v>URCA PRIME RENDA FII CF</v>
-    <v>94.12</v>
-    <v>94.37</v>
+    <v>90</v>
+    <v>89.82</v>
     <v>URPR11</v>
     <v>Fundos mais negociados</v>
     <v>URCA PRIME RENDA FII CF (BVMF:URPR11)</v>
-    <v>0.25</v>
-    <v>2.6559999999999999E-3</v>
-    <v>31506</v>
+    <v>-0.18</v>
+    <v>-2E-3</v>
+    <v>1530</v>
   </rv>
   <rv s="2">
     <v>368</v>
@@ -7529,25 +7529,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>86.95</v>
-    <v>61.7</v>
-    <v>BVMF</v>
-    <v>77.239999999999995</v>
-    <v>76.7</v>
+    <v>86.16</v>
+    <v>61.14</v>
+    <v>BVMF</v>
+    <v>74.989999999999995</v>
+    <v>73.010000000000005</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>76.97</v>
-    <v>45184.783205543747</v>
+    <v>73.84</v>
+    <v>45222.94798611111</v>
     <v>370</v>
     <v>BRL</v>
     <v>VECTIS RENDA RESIDENCIAL FII CEF</v>
-    <v>76.97</v>
-    <v>77.209999999999994</v>
+    <v>74.45</v>
+    <v>74.38</v>
     <v>VCRR11</v>
     <v>Fundos mais negociados</v>
     <v>VECTIS RENDA RESIDENCIAL FII CEF (BVMF:VCRR11)</v>
-    <v>0.24</v>
-    <v>3.1180000000000001E-3</v>
-    <v>671</v>
+    <v>0.54</v>
+    <v>7.3129999999999992E-3</v>
+    <v>4002</v>
   </rv>
   <rv s="2">
     <v>371</v>
@@ -7569,25 +7569,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>9.64</v>
-    <v>7.83</v>
-    <v>BVMF</v>
-    <v>9.59</v>
-    <v>9.51</v>
+    <v>9.66</v>
+    <v>7.75</v>
+    <v>BVMF</v>
+    <v>9.5</v>
+    <v>9.4499999999999993</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.49</v>
-    <v>45184.784768518519</v>
+    <v>9.4700000000000006</v>
+    <v>45223.556572152345</v>
     <v>373</v>
     <v>BRL</v>
     <v>VALORA HEDGE FUND FDO DE INV IMOB CF</v>
-    <v>9.51</v>
-    <v>9.5299999999999994</v>
+    <v>9.4700000000000006</v>
+    <v>9.4600000000000009</v>
     <v>VGHF11</v>
     <v>Fundos mais negociados</v>
     <v>VALORA HEDGE FUND FDO DE INV IMOB CF (BVMF:VGHF11)</v>
-    <v>0.04</v>
-    <v>4.215E-3</v>
-    <v>338492</v>
+    <v>-0.01</v>
+    <v>-1.0560000000000001E-3</v>
+    <v>29204</v>
   </rv>
   <rv s="2">
     <v>374</v>
@@ -7609,25 +7609,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>94.14</v>
-    <v>70.87</v>
-    <v>BVMF</v>
-    <v>91.89</v>
-    <v>90.81</v>
+    <v>93.3</v>
+    <v>70.239999999999995</v>
+    <v>BVMF</v>
+    <v>88</v>
+    <v>87.62</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>90.81</v>
-    <v>45184.784710648149</v>
+    <v>87.64</v>
+    <v>45223.555706018517</v>
     <v>376</v>
     <v>BRL</v>
     <v>VALORA CRI INDICE DE PRECO FII CF</v>
-    <v>90.81</v>
-    <v>91.16</v>
+    <v>87.64</v>
+    <v>87.85</v>
     <v>VGIP11</v>
     <v>Fundos mais negociados</v>
     <v>VALORA CRI INDICE DE PRECO FII CF (BVMF:VGIP11)</v>
-    <v>0.35</v>
-    <v>3.8540000000000002E-3</v>
-    <v>16990</v>
+    <v>0.21</v>
+    <v>2.3960000000000001E-3</v>
+    <v>547</v>
   </rv>
   <rv s="2">
     <v>377</v>
@@ -7649,25 +7649,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>9.77</v>
-    <v>8.3699999999999992</v>
-    <v>BVMF</v>
-    <v>9.73</v>
-    <v>9.61</v>
+    <v>9.9499999999999993</v>
+    <v>8.3800000000000008</v>
+    <v>BVMF</v>
+    <v>9.7799999999999994</v>
+    <v>9.7200000000000006</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.61</v>
-    <v>45184.784752198437</v>
+    <v>9.7899999999999991</v>
+    <v>45223.556576214847</v>
     <v>379</v>
     <v>BRL</v>
     <v>VALORA RE III FDO INV IMOB FII CF</v>
-    <v>9.6300000000000008</v>
-    <v>9.67</v>
+    <v>9.77</v>
+    <v>9.76</v>
     <v>VGIR11</v>
     <v>Fundos mais negociados</v>
     <v>VALORA RE III FDO INV IMOB FII CF (BVMF:VGIR11)</v>
-    <v>0.06</v>
-    <v>6.2429999999999994E-3</v>
-    <v>431186</v>
+    <v>-0.03</v>
+    <v>-3.0639999999999999E-3</v>
+    <v>18559</v>
   </rv>
   <rv s="2">
     <v>380</v>
@@ -7689,25 +7689,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>111.25</v>
-    <v>79.8</v>
-    <v>BVMF</v>
-    <v>109</v>
-    <v>106.5</v>
+    <v>110.52</v>
+    <v>79.28</v>
+    <v>BVMF</v>
+    <v>102.63</v>
+    <v>102</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>107.76</v>
-    <v>45184.784748310158</v>
+    <v>102.65</v>
+    <v>45223.556585648148</v>
     <v>382</v>
     <v>BRL</v>
     <v>FII VINCILOG ETF</v>
-    <v>107</v>
-    <v>108.13</v>
+    <v>102.63</v>
+    <v>102.4</v>
     <v>VILG11</v>
     <v>Fundos mais negociados</v>
     <v>FII VINCILOG ETF (BVMF:VILG11)</v>
-    <v>0.37</v>
-    <v>3.434E-3</v>
-    <v>18654</v>
+    <v>-0.25</v>
+    <v>-2.4350000000000001E-3</v>
+    <v>1033</v>
   </rv>
   <rv s="2">
     <v>383</v>
@@ -7729,25 +7729,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>127.37</v>
-    <v>94.03</v>
-    <v>BVMF</v>
-    <v>127.37</v>
-    <v>123.28</v>
+    <v>126.38</v>
+    <v>93.3</v>
+    <v>BVMF</v>
+    <v>117.73</v>
+    <v>116.9</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>123.69</v>
-    <v>45184.784763529686</v>
+    <v>117.4</v>
+    <v>45222.94798611111</v>
     <v>385</v>
     <v>BRL</v>
     <v>VINCI SHOPPING CENTERS FDO INVEST IMOB CF</v>
-    <v>123.66</v>
-    <v>126.28</v>
+    <v>117.39</v>
+    <v>117.1</v>
     <v>VISC11</v>
     <v>Fundos mais negociados</v>
     <v>VINCI SHOPPING CENTERS FDO INVEST IMOB CF (BVMF:VISC11)</v>
-    <v>2.59</v>
-    <v>2.0938999999999999E-2</v>
-    <v>306236</v>
+    <v>-0.3</v>
+    <v>-2.555E-3</v>
+    <v>37253</v>
   </rv>
   <rv s="2">
     <v>386</v>
@@ -7769,25 +7769,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>92.09</v>
-    <v>77.19</v>
-    <v>BVMF</v>
-    <v>90</v>
-    <v>89.62</v>
+    <v>91.37</v>
+    <v>76.59</v>
+    <v>BVMF</v>
+    <v>87.9</v>
+    <v>87.65</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>89.79</v>
-    <v>45184.784747303122</v>
+    <v>87.74</v>
+    <v>45223.556585648148</v>
     <v>388</v>
     <v>BRL</v>
     <v>FATOR VERITA FDO INV IMOB OF</v>
-    <v>89.79</v>
-    <v>89.95</v>
+    <v>87.74</v>
+    <v>87.85</v>
     <v>VRTA11</v>
     <v>Fundos mais negociados</v>
     <v>FATOR VERITA FDO INV IMOB OF (BVMF:VRTA11)</v>
-    <v>0.16</v>
-    <v>1.7819999999999999E-3</v>
-    <v>17641</v>
+    <v>0.11</v>
+    <v>1.2540000000000001E-3</v>
+    <v>2330</v>
   </rv>
   <rv s="2">
     <v>389</v>
@@ -7810,22 +7810,22 @@
     <v>Finance</v>
     <v>5</v>
     <v>BVMF</v>
-    <v>9.64</v>
-    <v>9.64</v>
+    <v>9.6300000000000008</v>
+    <v>9.6300000000000008</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>9.69</v>
-    <v>45183.874921099217</v>
+    <v>9.6300000000000008</v>
+    <v>45222.871539351851</v>
     <v>391</v>
     <v>BRL</v>
     <v>WHG REAL ESTATE FII CF</v>
-    <v>9.64</v>
-    <v>9.64</v>
+    <v>9.6300000000000008</v>
+    <v>9.6300000000000008</v>
     <v>WHGR11</v>
     <v>Fundos mais negociados</v>
     <v>WHG REAL ESTATE FII CF (BVMF:WHGR11)</v>
-    <v>-0.05</v>
-    <v>-5.1600000000000005E-3</v>
-    <v>54521</v>
+    <v>0</v>
+    <v>0</v>
+    <v>45087</v>
   </rv>
   <rv s="2">
     <v>392</v>
@@ -7847,25 +7847,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>21.45</v>
-    <v>11.63</v>
-    <v>BVMF</v>
-    <v>12.05</v>
-    <v>11.97</v>
+    <v>17.809999999999999</v>
+    <v>10</v>
+    <v>BVMF</v>
+    <v>10.26</v>
+    <v>10.210000000000001</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>12</v>
-    <v>45184.784634941403</v>
+    <v>10.199999999999999</v>
+    <v>45223.554050925923</v>
     <v>394</v>
     <v>BRL</v>
     <v>FDO INV IMOB XP CORPORATE MACAE ETF</v>
-    <v>12</v>
-    <v>12.02</v>
+    <v>10.26</v>
+    <v>10.26</v>
     <v>XPCM11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB XP CORPORATE MACAE ETF (BVMF:XPCM11)</v>
-    <v>0.02</v>
-    <v>1.6669999999999999E-3</v>
-    <v>2081</v>
+    <v>0.06</v>
+    <v>5.8819999999999992E-3</v>
+    <v>123</v>
   </rv>
   <rv s="2">
     <v>395</v>
@@ -7887,25 +7887,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>114.99</v>
-    <v>87.08</v>
-    <v>BVMF</v>
-    <v>113.64</v>
-    <v>112.48</v>
+    <v>113.26</v>
+    <v>85.77</v>
+    <v>BVMF</v>
+    <v>111.22</v>
+    <v>110.9</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>112.48</v>
-    <v>45184.784758101559</v>
+    <v>111.05</v>
+    <v>45223.556458333333</v>
     <v>397</v>
     <v>BRL</v>
     <v>XP MALLS FDO INV IMOB FII ETF</v>
-    <v>112.48</v>
-    <v>113.21</v>
+    <v>111.05</v>
+    <v>111.08</v>
     <v>XPML11</v>
     <v>Fundos mais negociados</v>
     <v>XP MALLS FDO INV IMOB FII ETF (BVMF:XPML11)</v>
-    <v>0.73</v>
-    <v>6.4900000000000001E-3</v>
-    <v>410884</v>
+    <v>0.03</v>
+    <v>2.7010000000000001E-4</v>
+    <v>5472</v>
   </rv>
   <rv s="2">
     <v>398</v>
@@ -7930,22 +7930,22 @@
     <v>128.29</v>
     <v>96.23</v>
     <v>BVMF</v>
-    <v>121</v>
-    <v>120.7</v>
+    <v>119</v>
+    <v>117.52</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>120.95</v>
-    <v>45184.784143518518</v>
+    <v>117.2</v>
+    <v>45223.556539351855</v>
     <v>400</v>
     <v>BRL</v>
     <v>BTG PACTUAL INFRA DIV FIP EM INFRA</v>
-    <v>120.99</v>
-    <v>120.99</v>
+    <v>119</v>
+    <v>117.52</v>
     <v>BDIV11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL INFRA DIV FIP EM INFRA (BVMF:BDIV11)</v>
-    <v>0.04</v>
-    <v>3.3070000000000002E-4</v>
-    <v>1568</v>
+    <v>0.32</v>
+    <v>2.7300000000000002E-3</v>
+    <v>571</v>
   </rv>
   <rv s="2">
     <v>401</v>
@@ -7970,22 +7970,22 @@
     <v>100.77</v>
     <v>66.36</v>
     <v>BVMF</v>
-    <v>94.8</v>
-    <v>94.2</v>
+    <v>89.92</v>
+    <v>89.44</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>94.23</v>
-    <v>45184.762787870313</v>
+    <v>89.94</v>
+    <v>45223.555138888885</v>
     <v>403</v>
     <v>BRL</v>
     <v>BRZ INFRA PORTOS FIP CF</v>
-    <v>94.55</v>
-    <v>94.49</v>
+    <v>89.44</v>
+    <v>89.71</v>
     <v>BRZP11</v>
     <v>Fundos mais negociados</v>
     <v>BRZ INFRA PORTOS FIP CF (BVMF:BRZP11)</v>
-    <v>0.26</v>
-    <v>2.7589999999999997E-3</v>
-    <v>4825</v>
+    <v>-0.23</v>
+    <v>-2.5569999999999998E-3</v>
+    <v>1168</v>
   </rv>
   <rv s="2">
     <v>404</v>
@@ -8010,22 +8010,22 @@
     <v>105.84</v>
     <v>81.52</v>
     <v>BVMF</v>
-    <v>102.45</v>
-    <v>101</v>
+    <v>101.7</v>
+    <v>99.95</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>100.81</v>
-    <v>45184.784351851849</v>
+    <v>101.8</v>
+    <v>45222.947916666664</v>
     <v>406</v>
     <v>BRL</v>
     <v>ENDURANCE DEBT FI PART INFRA CF</v>
-    <v>101.11</v>
-    <v>101</v>
+    <v>101.7</v>
+    <v>99.95</v>
     <v>ENDD11</v>
     <v>Fundos mais negociados</v>
     <v>ENDURANCE DEBT FI PART INFRA CF (BVMF:ENDD11)</v>
-    <v>0.19</v>
-    <v>1.885E-3</v>
-    <v>376</v>
+    <v>-1.85</v>
+    <v>-1.8172999999999998E-2</v>
+    <v>5612</v>
   </rv>
   <rv s="2">
     <v>407</v>
@@ -8050,22 +8050,22 @@
     <v>98.3</v>
     <v>82</v>
     <v>BVMF</v>
-    <v>97.97</v>
-    <v>96.58</v>
+    <v>92.98</v>
+    <v>92.8</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>97.94</v>
-    <v>45184.784756944442</v>
+    <v>92.92</v>
+    <v>45223.556539733596</v>
     <v>409</v>
     <v>BRL</v>
     <v>BTG PACTUAL DIV INFR FIC FII INFRA RF</v>
-    <v>97.4</v>
-    <v>96.8</v>
+    <v>92.98</v>
+    <v>92.97</v>
     <v>BDIF11</v>
     <v>Fundos mais negociados</v>
     <v>BTG PACTUAL DIV INFR FIC FII INFRA RF (BVMF:BDIF11)</v>
-    <v>-1.1399999999999999</v>
-    <v>-1.1639999999999999E-2</v>
-    <v>25647</v>
+    <v>0.05</v>
+    <v>5.3810000000000001E-4</v>
+    <v>1821</v>
   </rv>
   <rv s="2">
     <v>410</v>
@@ -8090,22 +8090,22 @@
     <v>91.1</v>
     <v>83.77</v>
     <v>BVMF</v>
-    <v>90.49</v>
-    <v>89.98</v>
+    <v>87.74</v>
+    <v>87.74</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>90</v>
-    <v>45184.7843354625</v>
+    <v>87.62</v>
+    <v>45223.54892361111</v>
     <v>412</v>
     <v>BRL</v>
     <v>INTER INFRA FIC RENDA FIXA CREDIT CF</v>
-    <v>90</v>
-    <v>90.39</v>
+    <v>87.74</v>
+    <v>87.74</v>
     <v>BIDB11</v>
     <v>Fundos mais negociados</v>
     <v>INTER INFRA FIC RENDA FIXA CREDIT CF (BVMF:BIDB11)</v>
-    <v>0.39</v>
-    <v>4.333E-3</v>
-    <v>1674</v>
+    <v>0.12</v>
+    <v>1.3700000000000001E-3</v>
+    <v>7</v>
   </rv>
   <rv s="2">
     <v>413</v>
@@ -8130,22 +8130,22 @@
     <v>104.5</v>
     <v>91.5</v>
     <v>BVMF</v>
-    <v>101.64</v>
-    <v>101.05</v>
+    <v>99</v>
+    <v>98.8</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>101.99</v>
-    <v>45184.784765358592</v>
+    <v>98.76</v>
+    <v>45223.556516203702</v>
     <v>415</v>
     <v>BRL</v>
     <v>CAPITANIA INFRA FIC FII INFRA RFCP</v>
-    <v>101.31</v>
-    <v>101.06</v>
+    <v>98.83</v>
+    <v>99</v>
     <v>CPTI11</v>
     <v>Fundos mais negociados</v>
     <v>CAPITANIA INFRA FIC FII INFRA RFCP (BVMF:CPTI11)</v>
-    <v>-0.93</v>
-    <v>-9.1190000000000004E-3</v>
-    <v>9292</v>
+    <v>0.24</v>
+    <v>2.4299999999999999E-3</v>
+    <v>771</v>
   </rv>
   <rv s="2">
     <v>416</v>
@@ -8167,25 +8167,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>108.97</v>
+    <v>106.25</v>
     <v>93.63</v>
     <v>BVMF</v>
-    <v>105.73</v>
-    <v>104.24</v>
+    <v>103.63</v>
+    <v>103.23</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>105.46</v>
-    <v>45184.784745370373</v>
+    <v>103</v>
+    <v>45223.556469907409</v>
     <v>418</v>
     <v>BRL</v>
     <v>ITAU FDO INV EM COTAS DE FIDC DE INFRAESTRUTURA</v>
-    <v>105.73</v>
-    <v>104.52</v>
+    <v>103.51</v>
+    <v>103.63</v>
     <v>IFRA11</v>
     <v>Fundos mais negociados</v>
     <v>ITAU FDO INV EM COTAS DE FIDC DE INFRAESTRUTURA (BVMF:IFRA11)</v>
-    <v>-0.94</v>
-    <v>-8.912999999999999E-3</v>
-    <v>13244</v>
+    <v>0.63</v>
+    <v>6.117E-3</v>
+    <v>32</v>
   </rv>
   <rv s="2">
     <v>419</v>
@@ -8207,25 +8207,25 @@
     <v>9</v>
     <v>Finance</v>
     <v>5</v>
-    <v>110</v>
+    <v>109.78</v>
     <v>90.46</v>
     <v>BVMF</v>
-    <v>107.89</v>
-    <v>107.08</v>
+    <v>106.18</v>
+    <v>105.96</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>107.51</v>
-    <v>45184.784720207812</v>
+    <v>105.9</v>
+    <v>45223.556565508596</v>
     <v>421</v>
     <v>BRL</v>
     <v>SPARTA INFRA FIC FI INFRA RF CP</v>
-    <v>107.55</v>
-    <v>107.46</v>
+    <v>105.96</v>
+    <v>106.12</v>
     <v>JURO11</v>
     <v>Fundos mais negociados</v>
     <v>SPARTA INFRA FIC FI INFRA RF CP (BVMF:JURO11)</v>
-    <v>-0.05</v>
-    <v>-4.6510000000000003E-4</v>
-    <v>15755</v>
+    <v>0.22</v>
+    <v>2.0769999999999999E-3</v>
+    <v>621</v>
   </rv>
   <rv s="2">
     <v>422</v>
@@ -8250,22 +8250,22 @@
     <v>137.71</v>
     <v>123.12</v>
     <v>BVMF</v>
-    <v>137</v>
-    <v>135.02000000000001</v>
+    <v>134.97</v>
+    <v>134.74</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>134.94999999999999</v>
-    <v>45184.784745370373</v>
+    <v>134.75</v>
+    <v>45223.556590763284</v>
     <v>424</v>
     <v>BRL</v>
     <v>KINEA INFRA FDO INV EM COTAS DE FIDC IE</v>
-    <v>135.37</v>
-    <v>137</v>
+    <v>134.74</v>
+    <v>134.91999999999999</v>
     <v>KDIF11</v>
     <v>Fundos mais negociados</v>
     <v>KINEA INFRA FDO INV EM COTAS DE FIDC IE (BVMF:KDIF11)</v>
-    <v>2.0499999999999998</v>
-    <v>1.5191E-2</v>
-    <v>19066</v>
+    <v>0.17</v>
+    <v>1.2620000000000001E-3</v>
+    <v>268</v>
   </rv>
   <rv s="2">
     <v>425</v>
@@ -8286,21 +8286,21 @@
     <v>102.7</v>
     <v>99.5</v>
     <v>BVMF</v>
-    <v>101.49</v>
-    <v>101.45</v>
+    <v>101.18</v>
+    <v>101.11</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>101.39</v>
-    <v>45184.784451562497</v>
+    <v>101.09</v>
+    <v>45223.556516203702</v>
     <v>BRL</v>
     <v>SUNO INFRA DEB FIC FDO INC IE RF CF</v>
-    <v>101.48</v>
-    <v>101.49</v>
+    <v>101.18</v>
+    <v>101.11</v>
     <v>SNID11</v>
     <v>Fundos mais negociados</v>
     <v>SUNO INFRA DEB FIC FDO INC IE RF CF (BVMF:SNID11)</v>
-    <v>0.1</v>
-    <v>9.8629999999999985E-4</v>
-    <v>2319</v>
+    <v>0.02</v>
+    <v>1.9779999999999998E-4</v>
+    <v>38</v>
   </rv>
   <rv s="2">
     <v>427</v>
@@ -8325,22 +8325,22 @@
     <v>92.5</v>
     <v>82.3</v>
     <v>BVMF</v>
-    <v>90.45</v>
-    <v>90.3</v>
+    <v>87.59</v>
+    <v>87.59</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>90.4</v>
-    <v>45184.781838506249</v>
+    <v>87.59</v>
+    <v>45223.553854166668</v>
     <v>429</v>
     <v>BRL</v>
     <v>XP FIC FDO INCENT DE INV EM INFRA RF</v>
-    <v>90.4</v>
-    <v>90.4</v>
+    <v>87.59</v>
+    <v>87.59</v>
     <v>XPID11</v>
     <v>Fundos mais negociados</v>
     <v>XP FIC FDO INCENT DE INV EM INFRA RF (BVMF:XPID11)</v>
     <v>0</v>
     <v>0</v>
-    <v>4876</v>
+    <v>1</v>
   </rv>
   <rv s="2">
     <v>430</v>
@@ -10044,8 +10044,8 @@
   <dimension ref="A1:S140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="B2" s="61">
         <f t="shared" ref="B2:B33" si="0">(E2-C2)/C2</f>
-        <v>0.1942857142857142</v>
+        <v>8.1428571428571475E-2</v>
       </c>
       <c r="C2" s="62">
         <v>7</v>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="E2" s="63" cm="1">
         <f t="array" ref="E2">_FV(K2,"Preço")</f>
-        <v>8.36</v>
+        <v>7.57</v>
       </c>
       <c r="F2" s="63">
         <v>7.1</v>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="H2" s="63">
         <f t="shared" ref="H2:H33" si="1">E2/G2</f>
-        <v>0.33439999999999998</v>
+        <v>0.30280000000000001</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>10</v>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="B3" s="61">
         <f t="shared" si="0"/>
-        <v>0.5283870967741936</v>
+        <v>0.50322580645161297</v>
       </c>
       <c r="C3" s="62">
         <v>15.5</v>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="E3" s="63" cm="1">
         <f t="array" ref="E3">_FV(K3,"Preço")</f>
-        <v>23.69</v>
+        <v>23.3</v>
       </c>
       <c r="F3" s="63">
         <v>15.15</v>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="H3" s="63">
         <f t="shared" si="1"/>
-        <v>0.84607142857142859</v>
+        <v>0.83214285714285718</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>10</v>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="B4" s="61">
         <f t="shared" si="0"/>
-        <v>0.18095238095238098</v>
+        <v>0.11238095238095236</v>
       </c>
       <c r="C4" s="62">
         <v>10.5</v>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="E4" s="63" cm="1">
         <f t="array" ref="E4">_FV(K4,"Preço")</f>
-        <v>12.4</v>
+        <v>11.68</v>
       </c>
       <c r="F4" s="63">
         <v>10.5</v>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="H4" s="63">
         <f t="shared" si="1"/>
-        <v>0.5636363636363636</v>
+        <v>0.53090909090909089</v>
       </c>
       <c r="I4" s="62" t="s">
         <v>10</v>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="B5" s="61">
         <f t="shared" si="0"/>
-        <v>0.8928571428571429</v>
+        <v>0.89142857142857146</v>
       </c>
       <c r="C5" s="62">
         <v>7</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="E5" s="63" cm="1">
         <f t="array" ref="E5">_FV(K5,"Preço")</f>
-        <v>13.25</v>
+        <v>13.24</v>
       </c>
       <c r="F5" s="63">
         <v>6.79</v>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="H5" s="63">
         <f t="shared" si="1"/>
-        <v>0.30813953488372092</v>
+        <v>0.30790697674418605</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>10</v>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="B6" s="61">
         <f t="shared" si="0"/>
-        <v>0.26666666666666672</v>
+        <v>9.1428571428571512E-2</v>
       </c>
       <c r="C6" s="62">
         <v>10.5</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E6" s="63" cm="1">
         <f t="array" ref="E6">_FV(K6,"Preço")</f>
-        <v>13.3</v>
+        <v>11.46</v>
       </c>
       <c r="F6" s="63">
         <v>6</v>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="H6" s="63">
         <f t="shared" si="1"/>
-        <v>0.47500000000000003</v>
+        <v>0.40928571428571431</v>
       </c>
       <c r="I6" s="62" t="s">
         <v>10</v>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="B7" s="61">
         <f t="shared" si="0"/>
-        <v>0.58633333333333348</v>
+        <v>0.64833333333333343</v>
       </c>
       <c r="C7" s="62">
         <v>30</v>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="E7" s="63" cm="1">
         <f t="array" ref="E7">_FV(K7,"Preço")</f>
-        <v>47.59</v>
+        <v>49.45</v>
       </c>
       <c r="F7" s="63">
         <v>17.71</v>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="H7" s="63">
         <f t="shared" si="1"/>
-        <v>0.8652727272727273</v>
+        <v>0.89909090909090916</v>
       </c>
       <c r="I7" s="62" t="s">
         <v>10</v>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="B8" s="61">
         <f t="shared" si="0"/>
-        <v>0.31858037578288095</v>
+        <v>0.31189979123173289</v>
       </c>
       <c r="C8" s="62">
         <v>23.95</v>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="E8" s="63" cm="1">
         <f t="array" ref="E8">_FV(K8,"Preço")</f>
-        <v>31.58</v>
+        <v>31.42</v>
       </c>
       <c r="F8" s="63">
         <v>15.5</v>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="H8" s="63">
         <f t="shared" si="1"/>
-        <v>0.9288235294117646</v>
+        <v>0.9241176470588236</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>10</v>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="B9" s="61">
         <f t="shared" si="0"/>
-        <v>0.78216216216216206</v>
+        <v>0.65297297297297285</v>
       </c>
       <c r="C9" s="62">
         <v>18.5</v>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="E9" s="63" cm="1">
         <f t="array" ref="E9">_FV(K9,"Preço")</f>
-        <v>32.97</v>
+        <v>30.58</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="63">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="H9" s="63">
         <f t="shared" si="1"/>
-        <v>0.94199999999999995</v>
+        <v>0.87371428571428567</v>
       </c>
       <c r="I9" s="62" t="s">
         <v>10</v>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="B10" s="61">
         <f t="shared" si="0"/>
-        <v>0.81200000000000006</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="C10" s="62">
         <v>5</v>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="E10" s="63" cm="1">
         <f t="array" ref="E10">_FV(K10,"Preço")</f>
-        <v>9.06</v>
+        <v>7.74</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="63">
@@ -10445,7 +10445,7 @@
       </c>
       <c r="H10" s="63">
         <f t="shared" si="1"/>
-        <v>0.60399999999999998</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="I10" s="62" t="s">
         <v>10</v>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="B11" s="61">
         <f t="shared" si="0"/>
-        <v>0.3000000000000001</v>
+        <v>9.3529411764705875E-2</v>
       </c>
       <c r="C11" s="62">
         <v>17</v>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="E11" s="63" cm="1">
         <f t="array" ref="E11">_FV(K11,"Preço")</f>
-        <v>22.1</v>
+        <v>18.59</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="63">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="H11" s="63">
         <f t="shared" si="1"/>
-        <v>0.47021276595744682</v>
+        <v>0.395531914893617</v>
       </c>
       <c r="I11" s="62" t="s">
         <v>10</v>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="B12" s="61">
         <f t="shared" si="0"/>
-        <v>0.38666666666666671</v>
+        <v>0.22111111111111115</v>
       </c>
       <c r="C12" s="62">
         <v>9</v>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="E12" s="63" cm="1">
         <f t="array" ref="E12">_FV(K12,"Preço")</f>
-        <v>12.48</v>
+        <v>10.99</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="63">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="H12" s="63">
         <f t="shared" si="1"/>
-        <v>0.78</v>
+        <v>0.68687500000000001</v>
       </c>
       <c r="I12" s="62" t="s">
         <v>10</v>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="B13" s="61">
         <f t="shared" si="0"/>
-        <v>0.38444444444444453</v>
+        <v>0.19703703703703704</v>
       </c>
       <c r="C13" s="62">
         <v>13.5</v>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="E13" s="63" cm="1">
         <f t="array" ref="E13">_FV(K13,"Preço")</f>
-        <v>18.690000000000001</v>
+        <v>16.16</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="63">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="H13" s="63">
         <f t="shared" si="1"/>
-        <v>0.8495454545454546</v>
+        <v>0.7345454545454545</v>
       </c>
       <c r="I13" s="62" t="s">
         <v>10</v>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="B14" s="61">
         <f t="shared" si="0"/>
-        <v>4.999999999999994E-2</v>
+        <v>0.26818181818181808</v>
       </c>
       <c r="C14" s="62">
         <v>2.2000000000000002</v>
@@ -10589,7 +10589,7 @@
       </c>
       <c r="E14" s="63" cm="1">
         <f t="array" ref="E14">_FV(K14,"Preço")</f>
-        <v>2.31</v>
+        <v>2.79</v>
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="63">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="H14" s="63">
         <f t="shared" si="1"/>
-        <v>0.1925</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="I14" s="62" t="s">
         <v>10</v>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="B15" s="61">
         <f t="shared" si="0"/>
-        <v>0.80333333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="C15" s="62">
         <v>12</v>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="E15" s="63" cm="1">
         <f t="array" ref="E15">_FV(K15,"Preço")</f>
-        <v>21.64</v>
+        <v>18.75</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="63">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="H15" s="63">
         <f t="shared" si="1"/>
-        <v>1.0820000000000001</v>
+        <v>0.9375</v>
       </c>
       <c r="I15" s="62" t="s">
         <v>10</v>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="B16" s="61">
         <f t="shared" si="0"/>
-        <v>0.59840000000000004</v>
+        <v>0.35360000000000014</v>
       </c>
       <c r="C16" s="62">
         <v>12.5</v>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="E16" s="63" cm="1">
         <f t="array" ref="E16">_FV(K16,"Preço")</f>
-        <v>19.98</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="63">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="H16" s="63">
         <f t="shared" si="1"/>
-        <v>0.999</v>
+        <v>0.84600000000000009</v>
       </c>
       <c r="I16" s="62" t="s">
         <v>10</v>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="B17" s="61">
         <f t="shared" si="0"/>
-        <v>0.20999999999999996</v>
+        <v>0.20062500000000005</v>
       </c>
       <c r="C17" s="62">
         <v>32</v>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="E17" s="63" cm="1">
         <f t="array" ref="E17">_FV(K17,"Preço")</f>
-        <v>38.72</v>
+        <v>38.42</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="63">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="H17" s="63">
         <f t="shared" si="1"/>
-        <v>0.74461538461538457</v>
+        <v>0.73884615384615393</v>
       </c>
       <c r="I17" s="62" t="s">
         <v>10</v>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="B18" s="61">
         <f t="shared" si="0"/>
-        <v>0.43151260504201677</v>
+        <v>0.32352941176470584</v>
       </c>
       <c r="C18" s="62">
         <v>23.8</v>
@@ -10741,7 +10741,7 @@
       </c>
       <c r="E18" s="63" cm="1">
         <f t="array" ref="E18">_FV(K18,"Preço")</f>
-        <v>34.07</v>
+        <v>31.5</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="63">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="H18" s="63">
         <f t="shared" si="1"/>
-        <v>1.0324242424242425</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="I18" s="62" t="s">
         <v>10</v>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="B19" s="61">
         <f t="shared" si="0"/>
-        <v>9.037037037037042E-2</v>
+        <v>0.15555555555555553</v>
       </c>
       <c r="C19" s="62">
         <v>13.5</v>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="E19" s="63" cm="1">
         <f t="array" ref="E19">_FV(K19,"Preço")</f>
-        <v>14.72</v>
+        <v>15.6</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="63">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="H19" s="63">
         <f t="shared" si="1"/>
-        <v>0.73599999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="I19" s="62" t="s">
         <v>10</v>
@@ -10807,7 +10807,7 @@
       </c>
       <c r="B20" s="61">
         <f t="shared" si="0"/>
-        <v>0.22238095238095246</v>
+        <v>4.0476190476190541E-2</v>
       </c>
       <c r="C20" s="62">
         <v>21</v>
@@ -10817,7 +10817,7 @@
       </c>
       <c r="E20" s="63" cm="1">
         <f t="array" ref="E20">_FV(K20,"Preço")</f>
-        <v>25.67</v>
+        <v>21.85</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="63">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="H20" s="63">
         <f t="shared" si="1"/>
-        <v>0.77787878787878795</v>
+        <v>0.66212121212121211</v>
       </c>
       <c r="I20" s="62" t="s">
         <v>10</v>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="B21" s="61">
         <f t="shared" si="0"/>
-        <v>0.29836065573770493</v>
+        <v>0.11475409836065562</v>
       </c>
       <c r="C21" s="62">
         <v>9.15</v>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E21" s="63" cm="1">
         <f t="array" ref="E21">_FV(K21,"Preço")</f>
-        <v>11.88</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="63">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="H21" s="63">
         <f t="shared" si="1"/>
-        <v>0.79200000000000004</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="I21" s="62" t="s">
         <v>10</v>
@@ -10883,7 +10883,7 @@
       </c>
       <c r="B22" s="61">
         <f t="shared" si="0"/>
-        <v>1.2200000000000002</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="C22" s="62">
         <v>2</v>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="E22" s="63" cm="1">
         <f t="array" ref="E22">_FV(K22,"Preço")</f>
-        <v>4.4400000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="63">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="H22" s="63">
         <f t="shared" si="1"/>
-        <v>0.44400000000000006</v>
+        <v>0.41</v>
       </c>
       <c r="I22" s="62" t="s">
         <v>10</v>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="B23" s="61">
         <f t="shared" si="0"/>
-        <v>0.21568627450980396</v>
+        <v>0.14901960784313709</v>
       </c>
       <c r="C23" s="62">
         <v>7.65</v>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="E23" s="63" cm="1">
         <f t="array" ref="E23">_FV(K23,"Preço")</f>
-        <v>9.3000000000000007</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="F23" s="63"/>
       <c r="G23" s="63">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="H23" s="63">
         <f t="shared" si="1"/>
-        <v>0.93</v>
+        <v>0.87899999999999989</v>
       </c>
       <c r="I23" s="62" t="s">
         <v>10</v>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="B24" s="61">
         <f t="shared" si="0"/>
-        <v>0.70285714285714285</v>
+        <v>0.52142857142857146</v>
       </c>
       <c r="C24" s="84">
         <v>7</v>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="E24" s="63" cm="1">
         <f t="array" ref="E24">_FV(K24,"Preço")</f>
-        <v>11.92</v>
+        <v>10.65</v>
       </c>
       <c r="F24" s="63">
         <v>4</v>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="H24" s="63">
         <f t="shared" si="1"/>
-        <v>0.79466666666666663</v>
+        <v>0.71000000000000008</v>
       </c>
       <c r="I24" s="62" t="s">
         <v>10</v>
@@ -10999,27 +10999,27 @@
       </c>
       <c r="B25" s="61">
         <f t="shared" si="0"/>
-        <v>2.0930232558139503E-2</v>
+        <v>4.1558441558441482E-2</v>
       </c>
       <c r="C25" s="84">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="D25" s="62">
         <v>8.9</v>
       </c>
       <c r="E25" s="63" cm="1">
         <f t="array" ref="E25">_FV(K25,"Preço")</f>
-        <v>4.3899999999999997</v>
+        <v>4.01</v>
       </c>
       <c r="F25" s="63">
-        <v>4.45</v>
+        <v>4.03</v>
       </c>
       <c r="G25" s="63">
         <v>9</v>
       </c>
       <c r="H25" s="63">
         <f t="shared" si="1"/>
-        <v>0.48777777777777775</v>
+        <v>0.44555555555555554</v>
       </c>
       <c r="I25" s="62" t="s">
         <v>10</v>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="B26" s="61">
         <f t="shared" si="0"/>
-        <v>0.76999999999999991</v>
+        <v>0.24333333333333332</v>
       </c>
       <c r="C26" s="62">
         <v>3</v>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="E26" s="63" cm="1">
         <f t="array" ref="E26">_FV(K26,"Preço")</f>
-        <v>5.31</v>
+        <v>3.73</v>
       </c>
       <c r="F26" s="63"/>
       <c r="G26" s="63">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="H26" s="63">
         <f t="shared" si="1"/>
-        <v>0.75857142857142856</v>
+        <v>0.53285714285714281</v>
       </c>
       <c r="I26" s="62" t="s">
         <v>10</v>
@@ -11077,17 +11077,17 @@
       </c>
       <c r="B27" s="61">
         <f t="shared" si="0"/>
-        <v>3.0769230769230795E-2</v>
+        <v>0.16363636363636358</v>
       </c>
       <c r="C27" s="62">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D27" s="62">
         <v>7.6</v>
       </c>
       <c r="E27" s="63" cm="1">
         <f t="array" ref="E27">_FV(K27,"Preço")</f>
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="F27" s="63">
         <v>0.65</v>
@@ -11097,7 +11097,7 @@
       </c>
       <c r="H27" s="63">
         <f t="shared" si="1"/>
-        <v>9.5714285714285724E-2</v>
+        <v>9.1428571428571428E-2</v>
       </c>
       <c r="I27" s="62" t="s">
         <v>10</v>
@@ -11117,17 +11117,17 @@
       </c>
       <c r="B28" s="61">
         <f t="shared" si="0"/>
-        <v>0.92971428571428594</v>
+        <v>1.0274285714285714</v>
       </c>
       <c r="C28" s="62">
         <v>17.5</v>
       </c>
       <c r="D28" s="62">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E28" s="63" cm="1">
         <f t="array" ref="E28">_FV(K28,"Preço")</f>
-        <v>33.770000000000003</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="F28" s="63"/>
       <c r="G28" s="63">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="H28" s="63">
         <f t="shared" si="1"/>
-        <v>0.96485714285714297</v>
+        <v>1.0137142857142856</v>
       </c>
       <c r="I28" s="62" t="s">
         <v>10</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="B29" s="61">
         <f t="shared" si="0"/>
-        <v>0.21399631675874781</v>
+        <v>0.2044198895027626</v>
       </c>
       <c r="C29" s="62">
         <v>27.15</v>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="E29" s="63" cm="1">
         <f t="array" ref="E29">_FV(K29,"Preço")</f>
-        <v>32.96</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="F29" s="63"/>
       <c r="G29" s="63">
@@ -11173,7 +11173,7 @@
       </c>
       <c r="H29" s="63">
         <f t="shared" si="1"/>
-        <v>0.59927272727272729</v>
+        <v>0.5945454545454546</v>
       </c>
       <c r="I29" s="62" t="s">
         <v>10</v>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="B30" s="61">
         <f t="shared" si="0"/>
-        <v>0.51870967741935481</v>
+        <v>0.49161290322580653</v>
       </c>
       <c r="C30" s="62">
         <v>15.5</v>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="E30" s="63" cm="1">
         <f t="array" ref="E30">_FV(K30,"Preço")</f>
-        <v>23.54</v>
+        <v>23.12</v>
       </c>
       <c r="F30" s="63"/>
       <c r="G30" s="63">
@@ -11211,7 +11211,7 @@
       </c>
       <c r="H30" s="63">
         <f t="shared" si="1"/>
-        <v>0.94159999999999999</v>
+        <v>0.92480000000000007</v>
       </c>
       <c r="I30" s="62" t="s">
         <v>10</v>
@@ -11231,27 +11231,27 @@
       </c>
       <c r="B31" s="61">
         <f t="shared" si="0"/>
-        <v>9.7101449275362309E-2</v>
+        <v>1.2030769230769232</v>
       </c>
       <c r="C31" s="84">
-        <v>6.9</v>
+        <v>3.25</v>
       </c>
       <c r="D31" s="62">
         <v>27</v>
       </c>
       <c r="E31" s="63" cm="1">
         <f t="array" ref="E31">_FV(K31,"Preço")</f>
-        <v>7.57</v>
+        <v>7.16</v>
       </c>
       <c r="F31" s="63">
-        <v>6.9</v>
+        <v>6.71</v>
       </c>
       <c r="G31" s="63">
         <v>27</v>
       </c>
       <c r="H31" s="63">
         <f t="shared" si="1"/>
-        <v>0.28037037037037038</v>
+        <v>0.26518518518518519</v>
       </c>
       <c r="I31" s="62" t="s">
         <v>10</v>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B32" s="61">
         <f t="shared" si="0"/>
-        <v>0.14868852459016382</v>
+        <v>4.9016393442622985E-2</v>
       </c>
       <c r="C32" s="84">
         <v>61</v>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="E32" s="63" cm="1">
         <f t="array" ref="E32">_FV(K32,"Preço")</f>
-        <v>70.069999999999993</v>
+        <v>63.99</v>
       </c>
       <c r="F32" s="63"/>
       <c r="G32" s="63">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="H32" s="63">
         <f t="shared" si="1"/>
-        <v>0.7298958333333333</v>
+        <v>0.66656250000000006</v>
       </c>
       <c r="I32" s="62" t="s">
         <v>10</v>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="B33" s="61">
         <f t="shared" si="0"/>
-        <v>0.2365714285714286</v>
+        <v>0.2902857142857142</v>
       </c>
       <c r="C33" s="62">
         <v>35</v>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="E33" s="63" cm="1">
         <f t="array" ref="E33">_FV(K33,"Preço")</f>
-        <v>43.28</v>
+        <v>45.16</v>
       </c>
       <c r="F33" s="63"/>
       <c r="G33" s="63">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="H33" s="63">
         <f t="shared" si="1"/>
-        <v>0.8323076923076923</v>
+        <v>0.8684615384615384</v>
       </c>
       <c r="I33" s="62" t="s">
         <v>10</v>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="B34" s="61">
         <f t="shared" ref="B34:B65" si="2">(E34-C34)/C34</f>
-        <v>1.0507042253521126</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="C34" s="67">
         <v>10.65</v>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="E34" s="63" cm="1">
         <f t="array" ref="E34">_FV(K34,"Preço")</f>
-        <v>21.84</v>
+        <v>18.46</v>
       </c>
       <c r="F34" s="68"/>
       <c r="G34" s="68">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="H34" s="63">
         <f t="shared" ref="H34:H65" si="3">E34/G34</f>
-        <v>1.2133333333333334</v>
+        <v>1.0255555555555556</v>
       </c>
       <c r="I34" s="67" t="s">
         <v>10</v>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="B35" s="61">
         <f t="shared" si="2"/>
-        <v>0.20133333333333331</v>
+        <v>0.15333333333333338</v>
       </c>
       <c r="C35" s="62">
         <v>30</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="E35" s="63" cm="1">
         <f t="array" ref="E35">_FV(K35,"Preço")</f>
-        <v>36.04</v>
+        <v>34.6</v>
       </c>
       <c r="F35" s="63"/>
       <c r="G35" s="63">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="H35" s="63">
         <f t="shared" si="3"/>
-        <v>0.85809523809523802</v>
+        <v>0.82380952380952388</v>
       </c>
       <c r="I35" s="62" t="s">
         <v>10</v>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="B36" s="61">
         <f t="shared" si="2"/>
-        <v>2.1267175572519084</v>
+        <v>1.8122137404580154</v>
       </c>
       <c r="C36" s="62">
         <v>6.55</v>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="E36" s="63" cm="1">
         <f t="array" ref="E36">_FV(K36,"Preço")</f>
-        <v>20.48</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="F36" s="63"/>
       <c r="G36" s="63">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="H36" s="63">
         <f t="shared" si="3"/>
-        <v>0.40960000000000002</v>
+        <v>0.36840000000000006</v>
       </c>
       <c r="I36" s="62" t="s">
         <v>10</v>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="B37" s="35">
         <f t="shared" si="2"/>
-        <v>0.27477477477477497</v>
+        <v>0.30540540540540551</v>
       </c>
       <c r="C37" s="20">
         <v>33.299999999999997</v>
@@ -11487,7 +11487,7 @@
       </c>
       <c r="E37" s="21" cm="1">
         <f t="array" ref="E37">_FV(K37,"Preço")</f>
-        <v>42.45</v>
+        <v>43.47</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="H37" s="63">
         <f t="shared" si="3"/>
-        <v>0.94333333333333336</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="I37" s="20" t="s">
         <v>12</v>
@@ -11523,7 +11523,7 @@
       </c>
       <c r="B38" s="30">
         <f t="shared" si="2"/>
-        <v>0.58867223769730737</v>
+        <v>0.49350046425255351</v>
       </c>
       <c r="C38" s="31">
         <v>21.54</v>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="E38" s="32" cm="1">
         <f t="array" ref="E38">_FV(K38,"Preço")</f>
-        <v>34.22</v>
+        <v>32.17</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="H38" s="63">
         <f t="shared" si="3"/>
-        <v>0.92486486486486486</v>
+        <v>0.86945945945945946</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>12</v>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="B39" s="30">
         <f t="shared" si="2"/>
-        <v>0.31831831831831831</v>
+        <v>0.34334334334334332</v>
       </c>
       <c r="C39" s="31">
         <v>39.96</v>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="E39" s="32" cm="1">
         <f t="array" ref="E39">_FV(K39,"Preço")</f>
-        <v>52.68</v>
+        <v>53.68</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="32">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="H39" s="63">
         <f t="shared" si="3"/>
-        <v>0.54309278350515466</v>
+        <v>0.55340206185567009</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>12</v>
@@ -11615,7 +11615,7 @@
       </c>
       <c r="B40" s="30">
         <f t="shared" si="2"/>
-        <v>0.10116504854368934</v>
+        <v>8.6019417475728152E-2</v>
       </c>
       <c r="C40" s="31">
         <v>51.5</v>
@@ -11625,7 +11625,7 @@
       </c>
       <c r="E40" s="32" cm="1">
         <f t="array" ref="E40">_FV(K40,"Preço")</f>
-        <v>56.71</v>
+        <v>55.93</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="32">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="H40" s="63">
         <f t="shared" si="3"/>
-        <v>0.84641791044776116</v>
+        <v>0.83477611940298502</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>12</v>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="B41" s="30">
         <f t="shared" si="2"/>
-        <v>0.30260869565217385</v>
+        <v>0.23391304347826089</v>
       </c>
       <c r="C41" s="31">
         <v>69</v>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="E41" s="32" cm="1">
         <f t="array" ref="E41">_FV(K41,"Preço")</f>
-        <v>89.88</v>
+        <v>85.14</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="32">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="H41" s="63">
         <f t="shared" si="3"/>
-        <v>1.0451162790697675</v>
+        <v>0.99</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>12</v>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="B42" s="30">
         <f t="shared" si="2"/>
-        <v>0.75900000000000001</v>
+        <v>0.62240000000000006</v>
       </c>
       <c r="C42" s="31">
         <v>50</v>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="E42" s="32" cm="1">
         <f t="array" ref="E42">_FV(K42,"Preço")</f>
-        <v>87.95</v>
+        <v>81.12</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="H42" s="63">
         <f t="shared" si="3"/>
-        <v>1.099375</v>
+        <v>1.014</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>12</v>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="B43" s="30">
         <f t="shared" si="2"/>
-        <v>0.62600178094390035</v>
+        <v>0.83125556544968837</v>
       </c>
       <c r="C43" s="31">
         <v>22.46</v>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="E43" s="32" cm="1">
         <f t="array" ref="E43">_FV(K43,"Preço")</f>
-        <v>36.520000000000003</v>
+        <v>41.13</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="H43" s="63">
         <f t="shared" si="3"/>
-        <v>0.77702127659574471</v>
+        <v>0.87510638297872345</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>12</v>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="B44" s="30">
         <f t="shared" si="2"/>
-        <v>0.12731801826736766</v>
+        <v>0.12427345696097411</v>
       </c>
       <c r="C44" s="31">
         <v>72.260000000000005</v>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="E44" s="32" cm="1">
         <f t="array" ref="E44">_FV(K44,"Preço")</f>
-        <v>81.459999999999994</v>
+        <v>81.239999999999995</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="32">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="H44" s="63">
         <f t="shared" si="3"/>
-        <v>0.8228282828282828</v>
+        <v>0.82060606060606056</v>
       </c>
       <c r="I44" s="31" t="s">
         <v>12</v>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="B45" s="30">
         <f t="shared" si="2"/>
-        <v>8.8427472048787412E-2</v>
+        <v>0.10425439233338162</v>
       </c>
       <c r="C45" s="31">
         <v>68.87</v>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="E45" s="32" cm="1">
         <f t="array" ref="E45">_FV(K45,"Preço")</f>
-        <v>74.959999999999994</v>
+        <v>76.05</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="32">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="H45" s="63">
         <f t="shared" si="3"/>
-        <v>0.86160919540229874</v>
+        <v>0.87413793103448267</v>
       </c>
       <c r="I45" s="31" t="s">
         <v>12</v>
@@ -11891,17 +11891,17 @@
       </c>
       <c r="B46" s="30">
         <f t="shared" si="2"/>
-        <v>3.0223880597014877E-2</v>
+        <v>4.6067415730337097E-2</v>
       </c>
       <c r="C46" s="31">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D46" s="31">
         <v>50</v>
       </c>
       <c r="E46" s="32" cm="1">
         <f t="array" ref="E46">_FV(K46,"Preço")</f>
-        <v>27.61</v>
+        <v>27.93</v>
       </c>
       <c r="F46" s="32">
         <v>26.8</v>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H46" s="63">
         <f t="shared" si="3"/>
-        <v>0.55220000000000002</v>
+        <v>0.55859999999999999</v>
       </c>
       <c r="I46" s="31" t="s">
         <v>12</v>
@@ -11939,17 +11939,17 @@
       </c>
       <c r="B47" s="30">
         <f t="shared" si="2"/>
-        <v>0.54806352744497078</v>
+        <v>0.61019782669267197</v>
       </c>
       <c r="C47" s="31">
         <v>35.89</v>
       </c>
       <c r="D47" s="31">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E47" s="32" cm="1">
         <f t="array" ref="E47">_FV(K47,"Preço")</f>
-        <v>55.56</v>
+        <v>57.79</v>
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="32">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="H47" s="63">
         <f t="shared" si="3"/>
-        <v>1.0684615384615386</v>
+        <v>1.1113461538461538</v>
       </c>
       <c r="I47" s="31" t="s">
         <v>12</v>
@@ -11985,17 +11985,17 @@
       </c>
       <c r="B48" s="30">
         <f t="shared" si="2"/>
-        <v>4.5652173913043548E-2</v>
+        <v>2.1636363636363596E-2</v>
       </c>
       <c r="C48" s="31">
-        <v>59.8</v>
+        <v>55</v>
       </c>
       <c r="D48" s="31">
         <v>76.930000000000007</v>
       </c>
       <c r="E48" s="32" cm="1">
         <f t="array" ref="E48">_FV(K48,"Preço")</f>
-        <v>62.53</v>
+        <v>56.19</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="32">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="H48" s="63">
         <f t="shared" si="3"/>
-        <v>0.82276315789473686</v>
+        <v>0.73934210526315791</v>
       </c>
       <c r="I48" s="31" t="s">
         <v>12</v>
@@ -12031,17 +12031,17 @@
       </c>
       <c r="B49" s="30">
         <f t="shared" si="2"/>
-        <v>4.8205128205128268E-2</v>
+        <v>3.5428571428571483E-2</v>
       </c>
       <c r="C49" s="31">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="D49" s="31">
         <v>39.35</v>
       </c>
       <c r="E49" s="32" cm="1">
         <f t="array" ref="E49">_FV(K49,"Preço")</f>
-        <v>20.440000000000001</v>
+        <v>18.12</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="32">
@@ -12049,7 +12049,7 @@
       </c>
       <c r="H49" s="63">
         <f t="shared" si="3"/>
-        <v>0.52410256410256417</v>
+        <v>0.46461538461538465</v>
       </c>
       <c r="I49" s="31" t="s">
         <v>12</v>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="B50" s="30">
         <f t="shared" si="2"/>
-        <v>0.25095238095238087</v>
+        <v>0.33876190476190471</v>
       </c>
       <c r="C50" s="31">
         <v>105</v>
@@ -12087,7 +12087,7 @@
       </c>
       <c r="E50" s="32" cm="1">
         <f t="array" ref="E50">_FV(K50,"Preço")</f>
-        <v>131.35</v>
+        <v>140.57</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="32">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="H50" s="63">
         <f t="shared" si="3"/>
-        <v>0.73792134831460676</v>
+        <v>0.78971910112359545</v>
       </c>
       <c r="I50" s="31" t="s">
         <v>12</v>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="B51" s="35">
         <f t="shared" si="2"/>
-        <v>0.12966666666666668</v>
+        <v>7.3833333333333445E-2</v>
       </c>
       <c r="C51" s="20">
         <v>60</v>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="E51" s="21" cm="1">
         <f t="array" ref="E51">_FV(K51,"Preço")</f>
-        <v>67.78</v>
+        <v>64.430000000000007</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="H51" s="63">
         <f t="shared" si="3"/>
-        <v>1.1488135593220339</v>
+        <v>1.0920338983050848</v>
       </c>
       <c r="I51" s="20" t="s">
         <v>12</v>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="B52" s="30">
         <f t="shared" si="2"/>
-        <v>0.39604166666666679</v>
+        <v>0.44291666666666679</v>
       </c>
       <c r="C52" s="31">
         <v>48</v>
@@ -12179,7 +12179,7 @@
       </c>
       <c r="E52" s="32" cm="1">
         <f t="array" ref="E52">_FV(K52,"Preço")</f>
-        <v>67.010000000000005</v>
+        <v>69.260000000000005</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="32">
@@ -12187,7 +12187,7 @@
       </c>
       <c r="H52" s="63">
         <f t="shared" si="3"/>
-        <v>0.89346666666666674</v>
+        <v>0.92346666666666677</v>
       </c>
       <c r="I52" s="31" t="s">
         <v>12</v>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="B53" s="30">
         <f t="shared" si="2"/>
-        <v>6.7045454545454616E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C53" s="31">
         <v>44</v>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="E53" s="32" cm="1">
         <f t="array" ref="E53">_FV(K53,"Preço")</f>
-        <v>46.95</v>
+        <v>52</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="32">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="H53" s="63">
         <f t="shared" si="3"/>
-        <v>0.68043478260869572</v>
+        <v>0.75362318840579712</v>
       </c>
       <c r="I53" s="31" t="s">
         <v>12</v>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="B54" s="30">
         <f t="shared" si="2"/>
-        <v>0.24375000000000005</v>
+        <v>0.23109375000000001</v>
       </c>
       <c r="C54" s="31">
         <v>192</v>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="E54" s="32" cm="1">
         <f t="array" ref="E54">_FV(K54,"Preço")</f>
-        <v>238.8</v>
+        <v>236.37</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="32">
@@ -12279,7 +12279,7 @@
       </c>
       <c r="H54" s="63">
         <f t="shared" si="3"/>
-        <v>0.82344827586206903</v>
+        <v>0.81506896551724139</v>
       </c>
       <c r="I54" s="31" t="s">
         <v>12</v>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="B55" s="30">
         <f t="shared" si="2"/>
-        <v>0.1579569892473118</v>
+        <v>5.2688172043010816E-2</v>
       </c>
       <c r="C55" s="31">
         <v>93</v>
@@ -12317,7 +12317,7 @@
       </c>
       <c r="E55" s="32" cm="1">
         <f t="array" ref="E55">_FV(K55,"Preço")</f>
-        <v>107.69</v>
+        <v>97.9</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="32">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="H55" s="63">
         <f t="shared" si="3"/>
-        <v>0.6772955974842767</v>
+        <v>0.61572327044025166</v>
       </c>
       <c r="I55" s="31" t="s">
         <v>12</v>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="B56" s="30">
         <f t="shared" si="2"/>
-        <v>0.20542372881355939</v>
+        <v>0.12161016949152538</v>
       </c>
       <c r="C56" s="31">
         <v>118</v>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="E56" s="32" cm="1">
         <f t="array" ref="E56">_FV(K56,"Preço")</f>
-        <v>142.24</v>
+        <v>132.35</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="32">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="H56" s="63">
         <f t="shared" si="3"/>
-        <v>0.84666666666666668</v>
+        <v>0.78779761904761902</v>
       </c>
       <c r="I56" s="31" t="s">
         <v>12</v>
@@ -12399,7 +12399,7 @@
       </c>
       <c r="B57" s="30">
         <f t="shared" si="2"/>
-        <v>0.35625000000000001</v>
+        <v>0.43324999999999997</v>
       </c>
       <c r="C57" s="31">
         <v>40</v>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="E57" s="32" cm="1">
         <f t="array" ref="E57">_FV(K57,"Preço")</f>
-        <v>54.25</v>
+        <v>57.33</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="32">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="H57" s="63">
         <f t="shared" si="3"/>
-        <v>0.77500000000000002</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="I57" s="31" t="s">
         <v>12</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="B58" s="35">
         <f t="shared" si="2"/>
-        <v>0.22074074074074074</v>
+        <v>0.165925925925926</v>
       </c>
       <c r="C58" s="20">
         <v>94.5</v>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="E58" s="21" cm="1">
         <f t="array" ref="E58">_FV(K58,"Preço")</f>
-        <v>115.36</v>
+        <v>110.18</v>
       </c>
       <c r="F58" s="21"/>
       <c r="G58" s="21">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="H58" s="63">
         <f t="shared" si="3"/>
-        <v>0.97762711864406782</v>
+        <v>0.93372881355932213</v>
       </c>
       <c r="I58" s="20" t="s">
         <v>11</v>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="B59" s="35">
         <f t="shared" si="2"/>
-        <v>0.1023853211009174</v>
+        <v>8.1284403669724767E-2</v>
       </c>
       <c r="C59" s="20">
         <v>218</v>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="E59" s="21" cm="1">
         <f t="array" ref="E59">_FV(K59,"Preço")</f>
-        <v>240.32</v>
+        <v>235.72</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="H59" s="63">
         <f t="shared" si="3"/>
-        <v>0.98491803278688517</v>
+        <v>0.96606557377049185</v>
       </c>
       <c r="I59" s="20" t="s">
         <v>11</v>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="B60" s="35">
         <f t="shared" si="2"/>
-        <v>0.26519138755980864</v>
+        <v>0.15370813397129199</v>
       </c>
       <c r="C60" s="20">
         <v>83.6</v>
@@ -12539,7 +12539,7 @@
       </c>
       <c r="E60" s="21" cm="1">
         <f t="array" ref="E60">_FV(K60,"Preço")</f>
-        <v>105.77</v>
+        <v>96.45</v>
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="21">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="H60" s="63">
         <f t="shared" si="3"/>
-        <v>0.91973913043478261</v>
+        <v>0.83869565217391306</v>
       </c>
       <c r="I60" s="20" t="s">
         <v>11</v>
@@ -12567,7 +12567,7 @@
       </c>
       <c r="B61" s="40">
         <f t="shared" si="2"/>
-        <v>0.1201396973224679</v>
+        <v>0.10372526193247958</v>
       </c>
       <c r="C61" s="41">
         <v>85.9</v>
@@ -12577,7 +12577,7 @@
       </c>
       <c r="E61" s="42" cm="1">
         <f t="array" ref="E61">_FV(K61,"Preço")</f>
-        <v>96.22</v>
+        <v>94.81</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="H61" s="63">
         <f t="shared" si="3"/>
-        <v>0.96123876123876129</v>
+        <v>0.9471528471528472</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>14</v>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="B62" s="70">
         <f t="shared" si="2"/>
-        <v>2.2950819672131046E-2</v>
+        <v>1.53005464480873E-2</v>
       </c>
       <c r="C62" s="73">
         <v>9.15</v>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="E62" s="72" cm="1">
         <f t="array" ref="E62">_FV(K62,"Preço")</f>
-        <v>9.36</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="F62" s="72"/>
       <c r="G62" s="72">
@@ -12623,7 +12623,7 @@
       </c>
       <c r="H62" s="63">
         <f t="shared" si="3"/>
-        <v>0.97601668404588104</v>
+        <v>0.96871741397288835</v>
       </c>
       <c r="I62" s="73" t="s">
         <v>8</v>
@@ -12643,7 +12643,7 @@
       </c>
       <c r="B63" s="23">
         <f t="shared" si="2"/>
-        <v>6.3536585365853576E-2</v>
+        <v>1.5487804878048732E-2</v>
       </c>
       <c r="C63" s="13">
         <v>82</v>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="E63" s="11" cm="1">
         <f t="array" ref="E63">_FV(K63,"Preço")</f>
-        <v>87.21</v>
+        <v>83.27</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="11">
@@ -12661,7 +12661,7 @@
       </c>
       <c r="H63" s="63">
         <f t="shared" si="3"/>
-        <v>0.82655672448109174</v>
+        <v>0.78921429248412467</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>8</v>
@@ -12681,25 +12681,27 @@
       </c>
       <c r="B64" s="77">
         <f t="shared" si="2"/>
-        <v>1.4428571428571502E-2</v>
+        <v>3.1338582677165272E-2</v>
       </c>
       <c r="C64" s="78">
-        <v>70</v>
+        <v>63.5</v>
       </c>
       <c r="D64" s="78">
         <v>102</v>
       </c>
       <c r="E64" s="79" cm="1">
         <f t="array" ref="E64">_FV(K64,"Preço")</f>
-        <v>71.010000000000005</v>
-      </c>
-      <c r="F64" s="79"/>
+        <v>65.489999999999995</v>
+      </c>
+      <c r="F64" s="79">
+        <v>68.150000000000006</v>
+      </c>
       <c r="G64" s="79">
         <v>118.4</v>
       </c>
       <c r="H64" s="79">
         <f t="shared" si="3"/>
-        <v>0.59974662162162162</v>
+        <v>0.55312499999999998</v>
       </c>
       <c r="I64" s="80" t="s">
         <v>8</v>
@@ -12719,17 +12721,17 @@
       </c>
       <c r="B65" s="70">
         <f t="shared" si="2"/>
-        <v>2.1623913504345896E-2</v>
+        <v>1.2698412698412804E-2</v>
       </c>
       <c r="C65" s="73">
-        <v>94.34</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="D65" s="73">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E65" s="72" cm="1">
         <f t="array" ref="E65">_FV(K65,"Preço")</f>
-        <v>96.38</v>
+        <v>9.57</v>
       </c>
       <c r="F65" s="72"/>
       <c r="G65" s="72">
@@ -12737,7 +12739,7 @@
       </c>
       <c r="H65" s="63">
         <f t="shared" si="3"/>
-        <v>0.97967066476926201</v>
+        <v>9.7275869079081118E-2</v>
       </c>
       <c r="I65" s="73" t="s">
         <v>8</v>
@@ -12757,7 +12759,7 @@
       </c>
       <c r="B66" s="70">
         <f t="shared" ref="B66:B97" si="4">(E66-C66)/C66</f>
-        <v>5.4736842105263112E-2</v>
+        <v>2.8421052631578902E-2</v>
       </c>
       <c r="C66" s="71">
         <v>9.5</v>
@@ -12767,7 +12769,7 @@
       </c>
       <c r="E66" s="72" cm="1">
         <f t="array" ref="E66">_FV(K66,"Preço")</f>
-        <v>10.02</v>
+        <v>9.77</v>
       </c>
       <c r="F66" s="72"/>
       <c r="G66" s="72">
@@ -12775,7 +12777,7 @@
       </c>
       <c r="H66" s="63">
         <f t="shared" ref="H66:H97" si="5">E66/G66</f>
-        <v>1.0415800415800416</v>
+        <v>1.0155925155925156</v>
       </c>
       <c r="I66" s="73" t="s">
         <v>8</v>
@@ -12795,27 +12797,27 @@
       </c>
       <c r="B67" s="70">
         <f t="shared" si="4"/>
-        <v>7.0866141732282952E-3</v>
+        <v>1.1162790697674346E-2</v>
       </c>
       <c r="C67" s="71">
-        <v>88.9</v>
+        <v>86</v>
       </c>
       <c r="D67" s="71">
         <v>104</v>
       </c>
       <c r="E67" s="72" cm="1">
         <f t="array" ref="E67">_FV(K67,"Preço")</f>
-        <v>89.53</v>
+        <v>86.96</v>
       </c>
       <c r="F67" s="72">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" s="72">
         <v>98.1</v>
       </c>
       <c r="H67" s="63">
         <f t="shared" si="5"/>
-        <v>0.91264016309887874</v>
+        <v>0.88644240570846078</v>
       </c>
       <c r="I67" s="73" t="s">
         <v>8</v>
@@ -12835,17 +12837,17 @@
       </c>
       <c r="B68" s="70">
         <f t="shared" si="4"/>
-        <v>7.2110286320254485E-2</v>
+        <v>1.1346765641569537E-2</v>
       </c>
       <c r="C68" s="71">
         <v>94.3</v>
       </c>
       <c r="D68" s="71">
-        <v>102.5</v>
+        <v>103</v>
       </c>
       <c r="E68" s="72" cm="1">
         <f t="array" ref="E68">_FV(K68,"Preço")</f>
-        <v>101.1</v>
+        <v>95.37</v>
       </c>
       <c r="F68" s="72"/>
       <c r="G68" s="72">
@@ -12853,7 +12855,7 @@
       </c>
       <c r="H68" s="63">
         <f t="shared" si="5"/>
-        <v>1.0482115085536547</v>
+        <v>0.98880248833592532</v>
       </c>
       <c r="I68" s="73" t="s">
         <v>8</v>
@@ -12873,7 +12875,7 @@
       </c>
       <c r="B69" s="70">
         <f t="shared" si="4"/>
-        <v>2.1844660194174758E-2</v>
+        <v>2.3689320388349491E-2</v>
       </c>
       <c r="C69" s="71">
         <v>103</v>
@@ -12883,7 +12885,7 @@
       </c>
       <c r="E69" s="72" cm="1">
         <f t="array" ref="E69">_FV(K69,"Preço")</f>
-        <v>105.25</v>
+        <v>105.44</v>
       </c>
       <c r="F69" s="72"/>
       <c r="G69" s="72">
@@ -12891,7 +12893,7 @@
       </c>
       <c r="H69" s="63">
         <f t="shared" si="5"/>
-        <v>1.0219438780464123</v>
+        <v>1.0237887173511993</v>
       </c>
       <c r="I69" s="73" t="s">
         <v>8</v>
@@ -12911,7 +12913,7 @@
       </c>
       <c r="B70" s="70">
         <f t="shared" si="4"/>
-        <v>4.2999999999999969E-2</v>
+        <v>6.7999999999999977E-2</v>
       </c>
       <c r="C70" s="71">
         <v>10</v>
@@ -12921,7 +12923,7 @@
       </c>
       <c r="E70" s="72" cm="1">
         <f t="array" ref="E70">_FV(K70,"Preço")</f>
-        <v>10.43</v>
+        <v>10.68</v>
       </c>
       <c r="F70" s="72"/>
       <c r="G70" s="72">
@@ -12929,7 +12931,7 @@
       </c>
       <c r="H70" s="63">
         <f t="shared" si="5"/>
-        <v>1.0357497517378351</v>
+        <v>1.0605759682224429</v>
       </c>
       <c r="I70" s="73" t="s">
         <v>8</v>
@@ -12949,7 +12951,7 @@
       </c>
       <c r="B71" s="70">
         <f t="shared" si="4"/>
-        <v>0.1149425287356322</v>
+        <v>0.12413793103448277</v>
       </c>
       <c r="C71" s="73">
         <v>8.6999999999999993</v>
@@ -12959,7 +12961,7 @@
       </c>
       <c r="E71" s="72" cm="1">
         <f t="array" ref="E71">_FV(K71,"Preço")</f>
-        <v>9.6999999999999993</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="F71" s="72"/>
       <c r="G71" s="72">
@@ -12967,7 +12969,7 @@
       </c>
       <c r="H71" s="63">
         <f t="shared" si="5"/>
-        <v>1.0210526315789472</v>
+        <v>1.0294736842105263</v>
       </c>
       <c r="I71" s="73" t="s">
         <v>8</v>
@@ -12987,7 +12989,7 @@
       </c>
       <c r="B72" s="70">
         <f t="shared" si="4"/>
-        <v>3.2631578947368662E-3</v>
+        <v>3.4736842105262977E-3</v>
       </c>
       <c r="C72" s="73">
         <v>95</v>
@@ -12997,7 +12999,7 @@
       </c>
       <c r="E72" s="72" cm="1">
         <f t="array" ref="E72">_FV(K72,"Preço")</f>
-        <v>95.31</v>
+        <v>95.33</v>
       </c>
       <c r="F72" s="72">
         <v>95</v>
@@ -13007,7 +13009,7 @@
       </c>
       <c r="H72" s="63">
         <f t="shared" si="5"/>
-        <v>0.92822360732372411</v>
+        <v>0.92841838722243852</v>
       </c>
       <c r="I72" s="73" t="s">
         <v>8</v>
@@ -13065,7 +13067,7 @@
       </c>
       <c r="B74" s="23">
         <f t="shared" si="4"/>
-        <v>6.8807339449541288E-2</v>
+        <v>5.22935779816514E-2</v>
       </c>
       <c r="C74" s="13">
         <v>109</v>
@@ -13075,7 +13077,7 @@
       </c>
       <c r="E74" s="11" cm="1">
         <f t="array" ref="E74">_FV(K74,"Preço")</f>
-        <v>116.5</v>
+        <v>114.7</v>
       </c>
       <c r="F74" s="11">
         <v>86</v>
@@ -13085,7 +13087,7 @@
       </c>
       <c r="H74" s="63">
         <f t="shared" si="5"/>
-        <v>1.0967802673696103</v>
+        <v>1.0798343061570326</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>7</v>
@@ -13105,7 +13107,7 @@
       </c>
       <c r="B75" s="35">
         <f t="shared" si="4"/>
-        <v>9.0909090909090912E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="C75" s="55">
         <v>77</v>
@@ -13115,7 +13117,7 @@
       </c>
       <c r="E75" s="21" cm="1">
         <f t="array" ref="E75">_FV(K75,"Preço")</f>
-        <v>84</v>
+        <v>80.5</v>
       </c>
       <c r="F75" s="21">
         <v>76.709999999999994</v>
@@ -13125,7 +13127,7 @@
       </c>
       <c r="H75" s="63">
         <f t="shared" si="5"/>
-        <v>0.87037612682623555</v>
+        <v>0.83411045487514246</v>
       </c>
       <c r="I75" s="20" t="s">
         <v>7</v>
@@ -13145,7 +13147,7 @@
       </c>
       <c r="B76" s="23">
         <f t="shared" si="4"/>
-        <v>0.4143964562569214</v>
+        <v>0.36434108527131792</v>
       </c>
       <c r="C76" s="13">
         <v>90.3</v>
@@ -13155,7 +13157,7 @@
       </c>
       <c r="E76" s="11" cm="1">
         <f t="array" ref="E76">_FV(K76,"Preço")</f>
-        <v>127.72</v>
+        <v>123.2</v>
       </c>
       <c r="F76" s="11">
         <v>84.5</v>
@@ -13165,7 +13167,7 @@
       </c>
       <c r="H76" s="63">
         <f t="shared" si="5"/>
-        <v>1.0618556701030928</v>
+        <v>1.0242766877286331</v>
       </c>
       <c r="I76" s="12" t="s">
         <v>7</v>
@@ -13185,7 +13187,7 @@
       </c>
       <c r="B77" s="35">
         <f t="shared" si="4"/>
-        <v>0.23964497041420113</v>
+        <v>8.5207100591715976E-2</v>
       </c>
       <c r="C77" s="55">
         <v>50.7</v>
@@ -13195,7 +13197,7 @@
       </c>
       <c r="E77" s="21" cm="1">
         <f t="array" ref="E77">_FV(K77,"Preço")</f>
-        <v>62.85</v>
+        <v>55.02</v>
       </c>
       <c r="F77" s="21">
         <v>50.45</v>
@@ -13205,7 +13207,7 @@
       </c>
       <c r="H77" s="63">
         <f t="shared" si="5"/>
-        <v>0.62524870672502986</v>
+        <v>0.54735376044568251</v>
       </c>
       <c r="I77" s="20" t="s">
         <v>7</v>
@@ -13225,17 +13227,17 @@
       </c>
       <c r="B78" s="35">
         <f t="shared" si="4"/>
-        <v>0.13176470588235284</v>
+        <v>0.1494117647058823</v>
       </c>
       <c r="C78" s="55">
         <v>8.5</v>
       </c>
       <c r="D78" s="55">
-        <v>9.85</v>
+        <v>10.1</v>
       </c>
       <c r="E78" s="21" cm="1">
         <f t="array" ref="E78">_FV(K78,"Preço")</f>
-        <v>9.6199999999999992</v>
+        <v>9.77</v>
       </c>
       <c r="F78" s="21">
         <v>8</v>
@@ -13245,7 +13247,7 @@
       </c>
       <c r="H78" s="63">
         <f t="shared" si="5"/>
-        <v>0.9385365853658536</v>
+        <v>0.95317073170731703</v>
       </c>
       <c r="I78" s="20" t="s">
         <v>7</v>
@@ -13265,7 +13267,7 @@
       </c>
       <c r="B79" s="23">
         <f t="shared" si="4"/>
-        <v>0.14299781181619248</v>
+        <v>9.5404814004376351E-2</v>
       </c>
       <c r="C79" s="13">
         <v>91.4</v>
@@ -13275,7 +13277,7 @@
       </c>
       <c r="E79" s="11" cm="1">
         <f t="array" ref="E79">_FV(K79,"Preço")</f>
-        <v>104.47</v>
+        <v>100.12</v>
       </c>
       <c r="F79" s="11">
         <v>64.400000000000006</v>
@@ -13285,7 +13287,7 @@
       </c>
       <c r="H79" s="63">
         <f t="shared" si="5"/>
-        <v>1.0600710299340437</v>
+        <v>1.0159309994926433</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>7</v>
@@ -13305,7 +13307,7 @@
       </c>
       <c r="B80" s="23">
         <f t="shared" si="4"/>
-        <v>5.4618473895582449E-2</v>
+        <v>4.6787148594377624E-2</v>
       </c>
       <c r="C80" s="13">
         <v>99.6</v>
@@ -13315,7 +13317,7 @@
       </c>
       <c r="E80" s="11" cm="1">
         <f t="array" ref="E80">_FV(K80,"Preço")</f>
-        <v>105.04</v>
+        <v>104.26</v>
       </c>
       <c r="F80" s="11">
         <v>95.7</v>
@@ -13325,7 +13327,7 @@
       </c>
       <c r="H80" s="63">
         <f t="shared" si="5"/>
-        <v>1.0196078431372551</v>
+        <v>1.0120364977674239</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>7</v>
@@ -13345,17 +13347,17 @@
       </c>
       <c r="B81" s="23">
         <f t="shared" si="4"/>
-        <v>0.20493333333333338</v>
+        <v>2.0382165605095561E-2</v>
       </c>
       <c r="C81" s="13">
-        <v>75</v>
+        <v>7.85</v>
       </c>
       <c r="D81" s="13">
-        <v>94.23</v>
+        <v>9</v>
       </c>
       <c r="E81" s="11" cm="1">
         <f t="array" ref="E81">_FV(K81,"Preço")</f>
-        <v>90.37</v>
+        <v>8.01</v>
       </c>
       <c r="F81" s="11">
         <v>74.86</v>
@@ -13365,7 +13367,7 @@
       </c>
       <c r="H81" s="63">
         <f t="shared" si="5"/>
-        <v>0.99253157605711151</v>
+        <v>8.7973640856672156E-2</v>
       </c>
       <c r="I81" s="12" t="s">
         <v>7</v>
@@ -13385,7 +13387,7 @@
       </c>
       <c r="B82" s="23">
         <f t="shared" si="4"/>
-        <v>0.10154864641210548</v>
+        <v>7.0575718169996443E-2</v>
       </c>
       <c r="C82" s="13">
         <v>84.59</v>
@@ -13395,7 +13397,7 @@
       </c>
       <c r="E82" s="11" cm="1">
         <f t="array" ref="E82">_FV(K82,"Preço")</f>
-        <v>93.18</v>
+        <v>90.56</v>
       </c>
       <c r="F82" s="11">
         <v>67.5</v>
@@ -13405,7 +13407,7 @@
       </c>
       <c r="H82" s="63">
         <f t="shared" si="5"/>
-        <v>0.97754930759546799</v>
+        <v>0.95006294586655482</v>
       </c>
       <c r="I82" s="12" t="s">
         <v>7</v>
@@ -13425,7 +13427,7 @@
       </c>
       <c r="B83" s="23">
         <f t="shared" si="4"/>
-        <v>0.12073170731707321</v>
+        <v>0.11341463414634166</v>
       </c>
       <c r="C83" s="13">
         <v>8.1999999999999993</v>
@@ -13435,7 +13437,7 @@
       </c>
       <c r="E83" s="11" cm="1">
         <f t="array" ref="E83">_FV(K83,"Preço")</f>
-        <v>9.19</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="F83" s="11">
         <v>8.1999999999999993</v>
@@ -13445,7 +13447,7 @@
       </c>
       <c r="H83" s="63">
         <f t="shared" si="5"/>
-        <v>0.91533864541832677</v>
+        <v>0.909362549800797</v>
       </c>
       <c r="I83" s="12" t="s">
         <v>7</v>
@@ -13465,17 +13467,17 @@
       </c>
       <c r="B84" s="23">
         <f t="shared" si="4"/>
-        <v>7.2892938496583208E-3</v>
+        <v>9.6551724137931422E-3</v>
       </c>
       <c r="C84" s="13">
-        <v>87.8</v>
+        <v>87</v>
       </c>
       <c r="D84" s="13">
         <v>99.6</v>
       </c>
       <c r="E84" s="11" cm="1">
         <f t="array" ref="E84">_FV(K84,"Preço")</f>
-        <v>88.44</v>
+        <v>87.84</v>
       </c>
       <c r="F84" s="11">
         <v>87.74</v>
@@ -13485,7 +13487,7 @@
       </c>
       <c r="H84" s="63">
         <f t="shared" si="5"/>
-        <v>0.92221063607924914</v>
+        <v>0.91595411887382694</v>
       </c>
       <c r="I84" s="12" t="s">
         <v>7</v>
@@ -13505,17 +13507,17 @@
       </c>
       <c r="B85" s="23">
         <f t="shared" si="4"/>
-        <v>5.7076923076922984E-2</v>
+        <v>5.2499999999999977E-2</v>
       </c>
       <c r="C85" s="13">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D85" s="13">
         <v>81</v>
       </c>
       <c r="E85" s="11" cm="1">
         <f t="array" ref="E85">_FV(K85,"Preço")</f>
-        <v>68.709999999999994</v>
+        <v>63.15</v>
       </c>
       <c r="F85" s="11">
         <v>66.05</v>
@@ -13525,7 +13527,7 @@
       </c>
       <c r="H85" s="63">
         <f t="shared" si="5"/>
-        <v>0.64589208497837935</v>
+        <v>0.59362662154540324</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>7</v>
@@ -13545,7 +13547,7 @@
       </c>
       <c r="B86" s="23">
         <f t="shared" si="4"/>
-        <v>0.31271186440677962</v>
+        <v>0.28604519774011294</v>
       </c>
       <c r="C86" s="13">
         <v>177</v>
@@ -13555,7 +13557,7 @@
       </c>
       <c r="E86" s="11" cm="1">
         <f t="array" ref="E86">_FV(K86,"Preço")</f>
-        <v>232.35</v>
+        <v>227.63</v>
       </c>
       <c r="F86" s="11">
         <v>155.55000000000001</v>
@@ -13565,7 +13567,7 @@
       </c>
       <c r="H86" s="63">
         <f t="shared" si="5"/>
-        <v>1.0513574660633485</v>
+        <v>1.03</v>
       </c>
       <c r="I86" s="12" t="s">
         <v>7</v>
@@ -13585,17 +13587,17 @@
       </c>
       <c r="B87" s="23">
         <f t="shared" si="4"/>
-        <v>9.3285859613428307E-2</v>
+        <v>6.8463886063072271E-2</v>
       </c>
       <c r="C87" s="13">
         <v>98.3</v>
       </c>
       <c r="D87" s="13">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" s="11" cm="1">
         <f t="array" ref="E87">_FV(K87,"Preço")</f>
-        <v>107.47</v>
+        <v>105.03</v>
       </c>
       <c r="F87" s="11">
         <v>87.8</v>
@@ -13605,7 +13607,7 @@
       </c>
       <c r="H87" s="63">
         <f t="shared" si="5"/>
-        <v>1.0454280155642024</v>
+        <v>1.0216926070038912</v>
       </c>
       <c r="I87" s="12" t="s">
         <v>7</v>
@@ -13625,17 +13627,17 @@
       </c>
       <c r="B88" s="34">
         <f t="shared" si="4"/>
-        <v>1.4403032217308914E-2</v>
+        <v>1.4358974358974418E-2</v>
       </c>
       <c r="C88" s="18">
-        <v>158.30000000000001</v>
+        <v>156</v>
       </c>
       <c r="D88" s="18">
         <v>174</v>
       </c>
       <c r="E88" s="16" cm="1">
         <f t="array" ref="E88">_FV(K88,"Preço")</f>
-        <v>160.58000000000001</v>
+        <v>158.24</v>
       </c>
       <c r="F88" s="16">
         <v>126.5</v>
@@ -13645,7 +13647,7 @@
       </c>
       <c r="H88" s="63">
         <f t="shared" si="5"/>
-        <v>1.0495424836601308</v>
+        <v>1.0342483660130719</v>
       </c>
       <c r="I88" s="15" t="s">
         <v>7</v>
@@ -13665,7 +13667,7 @@
       </c>
       <c r="B89" s="23">
         <f t="shared" si="4"/>
-        <v>0.15542016806722692</v>
+        <v>0.14773109243697488</v>
       </c>
       <c r="C89" s="13">
         <v>238</v>
@@ -13675,7 +13677,7 @@
       </c>
       <c r="E89" s="11" cm="1">
         <f t="array" ref="E89">_FV(K89,"Preço")</f>
-        <v>274.99</v>
+        <v>273.16000000000003</v>
       </c>
       <c r="F89" s="11">
         <v>178</v>
@@ -13685,7 +13687,7 @@
       </c>
       <c r="H89" s="63">
         <f t="shared" si="5"/>
-        <v>0.91969899665551846</v>
+        <v>0.91357859531772578</v>
       </c>
       <c r="I89" s="12" t="s">
         <v>7</v>
@@ -13705,7 +13707,7 @@
       </c>
       <c r="B90" s="23">
         <f t="shared" si="4"/>
-        <v>0.28969177763292669</v>
+        <v>0.14628922618493337</v>
       </c>
       <c r="C90" s="13">
         <v>107.39</v>
@@ -13715,7 +13717,7 @@
       </c>
       <c r="E90" s="11" cm="1">
         <f t="array" ref="E90">_FV(K90,"Preço")</f>
-        <v>138.5</v>
+        <v>123.1</v>
       </c>
       <c r="F90" s="11">
         <v>107.39</v>
@@ -13725,7 +13727,7 @@
       </c>
       <c r="H90" s="63">
         <f t="shared" si="5"/>
-        <v>0.88611644273832368</v>
+        <v>0.78758797184900819</v>
       </c>
       <c r="I90" s="12" t="s">
         <v>7</v>
@@ -13745,7 +13747,7 @@
       </c>
       <c r="B91" s="23">
         <f t="shared" si="4"/>
-        <v>0.22012248468941392</v>
+        <v>0.12773403324584434</v>
       </c>
       <c r="C91" s="13">
         <v>114.3</v>
@@ -13755,7 +13757,7 @@
       </c>
       <c r="E91" s="11" cm="1">
         <f t="array" ref="E91">_FV(K91,"Preço")</f>
-        <v>139.46</v>
+        <v>128.9</v>
       </c>
       <c r="F91" s="11">
         <v>101</v>
@@ -13765,7 +13767,7 @@
       </c>
       <c r="H91" s="63">
         <f t="shared" si="5"/>
-        <v>1.1254943103865709</v>
+        <v>1.040271164554919</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>7</v>
@@ -13785,7 +13787,7 @@
       </c>
       <c r="B92" s="23">
         <f t="shared" si="4"/>
-        <v>0.28506056527590856</v>
+        <v>0.21453566621803496</v>
       </c>
       <c r="C92" s="13">
         <v>74.3</v>
@@ -13795,7 +13797,7 @@
       </c>
       <c r="E92" s="11" cm="1">
         <f t="array" ref="E92">_FV(K92,"Preço")</f>
-        <v>95.48</v>
+        <v>90.24</v>
       </c>
       <c r="F92" s="11">
         <v>74.099999999999994</v>
@@ -13805,7 +13807,7 @@
       </c>
       <c r="H92" s="63">
         <f t="shared" si="5"/>
-        <v>0.91807692307692312</v>
+        <v>0.86769230769230765</v>
       </c>
       <c r="I92" s="12" t="s">
         <v>7</v>
@@ -13825,7 +13827,7 @@
       </c>
       <c r="B93" s="23">
         <f t="shared" si="4"/>
-        <v>0.26837491571139566</v>
+        <v>0.24342548887390419</v>
       </c>
       <c r="C93" s="13">
         <v>74.150000000000006</v>
@@ -13835,7 +13837,7 @@
       </c>
       <c r="E93" s="11" cm="1">
         <f t="array" ref="E93">_FV(K93,"Preço")</f>
-        <v>94.05</v>
+        <v>92.2</v>
       </c>
       <c r="F93" s="11">
         <v>70</v>
@@ -13845,7 +13847,7 @@
       </c>
       <c r="H93" s="63">
         <f t="shared" si="5"/>
-        <v>0.99</v>
+        <v>0.97052631578947368</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>7</v>
@@ -13865,17 +13867,17 @@
       </c>
       <c r="B94" s="23">
         <f t="shared" si="4"/>
-        <v>0.46909090909090906</v>
+        <v>0.55575757575757589</v>
       </c>
       <c r="C94" s="13">
         <v>99</v>
       </c>
       <c r="D94" s="13">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="E94" s="11" cm="1">
         <f t="array" ref="E94">_FV(K94,"Preço")</f>
-        <v>145.44</v>
+        <v>154.02000000000001</v>
       </c>
       <c r="F94" s="11">
         <v>73.3</v>
@@ -13885,7 +13887,7 @@
       </c>
       <c r="H94" s="63">
         <f t="shared" si="5"/>
-        <v>1.0539130434782609</v>
+        <v>1.1160869565217393</v>
       </c>
       <c r="I94" s="12" t="s">
         <v>7</v>
@@ -13905,7 +13907,7 @@
       </c>
       <c r="B95" s="35">
         <f t="shared" si="4"/>
-        <v>0.11018922852983978</v>
+        <v>0.15298398835516724</v>
       </c>
       <c r="C95" s="55">
         <v>68.7</v>
@@ -13915,7 +13917,7 @@
       </c>
       <c r="E95" s="21" cm="1">
         <f t="array" ref="E95">_FV(K95,"Preço")</f>
-        <v>76.27</v>
+        <v>79.209999999999994</v>
       </c>
       <c r="F95" s="21">
         <v>68.5</v>
@@ -13925,7 +13927,7 @@
       </c>
       <c r="H95" s="63">
         <f t="shared" si="5"/>
-        <v>0.79497602668334377</v>
+        <v>0.82562017927871578</v>
       </c>
       <c r="I95" s="20" t="s">
         <v>7</v>
@@ -13945,7 +13947,7 @@
       </c>
       <c r="B96" s="23">
         <f t="shared" si="4"/>
-        <v>0.27475409836065584</v>
+        <v>0.14311475409836072</v>
       </c>
       <c r="C96" s="13">
         <v>61</v>
@@ -13955,7 +13957,7 @@
       </c>
       <c r="E96" s="11" cm="1">
         <f t="array" ref="E96">_FV(K96,"Preço")</f>
-        <v>77.760000000000005</v>
+        <v>69.73</v>
       </c>
       <c r="F96" s="11">
         <v>61</v>
@@ -13965,7 +13967,7 @@
       </c>
       <c r="H96" s="63">
         <f t="shared" si="5"/>
-        <v>0.68985095812633079</v>
+        <v>0.61861249112845995</v>
       </c>
       <c r="I96" s="12" t="s">
         <v>7</v>
@@ -13985,7 +13987,7 @@
       </c>
       <c r="B97" s="23">
         <f t="shared" si="4"/>
-        <v>7.1720430107526906E-2</v>
+        <v>8.8064516129032239E-2</v>
       </c>
       <c r="C97" s="13">
         <v>93</v>
@@ -13995,7 +13997,7 @@
       </c>
       <c r="E97" s="11" cm="1">
         <f t="array" ref="E97">_FV(K97,"Preço")</f>
-        <v>99.67</v>
+        <v>101.19</v>
       </c>
       <c r="F97" s="11">
         <v>85.5</v>
@@ -14005,7 +14007,7 @@
       </c>
       <c r="H97" s="63">
         <f t="shared" si="5"/>
-        <v>0.98908405279349021</v>
+        <v>1.004167907115213</v>
       </c>
       <c r="I97" s="12" t="s">
         <v>7</v>
@@ -14064,7 +14066,7 @@
       </c>
       <c r="B99" s="35">
         <f t="shared" si="6"/>
-        <v>9.4011976047904122E-2</v>
+        <v>6.5868263473053898E-2</v>
       </c>
       <c r="C99" s="55">
         <v>83.5</v>
@@ -14074,7 +14076,7 @@
       </c>
       <c r="E99" s="21" cm="1">
         <f t="array" ref="E99">_FV(K99,"Preço")</f>
-        <v>91.35</v>
+        <v>89</v>
       </c>
       <c r="F99" s="21">
         <v>83.42</v>
@@ -14084,7 +14086,7 @@
       </c>
       <c r="H99" s="63">
         <f t="shared" si="7"/>
-        <v>1.0095038125759752</v>
+        <v>0.98353409216488019</v>
       </c>
       <c r="I99" s="20" t="s">
         <v>7</v>
@@ -14104,7 +14106,7 @@
       </c>
       <c r="B100" s="23">
         <f t="shared" si="6"/>
-        <v>0.20030795072788357</v>
+        <v>0.18141097424412106</v>
       </c>
       <c r="C100" s="13">
         <v>71.44</v>
@@ -14114,7 +14116,7 @@
       </c>
       <c r="E100" s="11" cm="1">
         <f t="array" ref="E100">_FV(K100,"Preço")</f>
-        <v>85.75</v>
+        <v>84.4</v>
       </c>
       <c r="F100" s="11">
         <v>71.44</v>
@@ -14124,7 +14126,7 @@
       </c>
       <c r="H100" s="63">
         <f t="shared" si="7"/>
-        <v>0.83365739840559983</v>
+        <v>0.82053276297880617</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>7</v>
@@ -14144,7 +14146,7 @@
       </c>
       <c r="B101" s="23">
         <f t="shared" si="6"/>
-        <v>0.28022097053726175</v>
+        <v>0.27523830155979218</v>
       </c>
       <c r="C101" s="13">
         <v>92.32</v>
@@ -14154,7 +14156,7 @@
       </c>
       <c r="E101" s="11" cm="1">
         <f t="array" ref="E101">_FV(K101,"Preço")</f>
-        <v>118.19</v>
+        <v>117.73</v>
       </c>
       <c r="F101" s="11">
         <v>86</v>
@@ -14164,7 +14166,7 @@
       </c>
       <c r="H101" s="63">
         <f t="shared" si="7"/>
-        <v>1.0232900432900434</v>
+        <v>1.0193073593073594</v>
       </c>
       <c r="I101" s="12" t="s">
         <v>7</v>
@@ -14184,7 +14186,7 @@
       </c>
       <c r="B102" s="23">
         <f t="shared" si="6"/>
-        <v>0.20593692022263455</v>
+        <v>0.18336425479282628</v>
       </c>
       <c r="C102" s="13">
         <v>97.02</v>
@@ -14194,7 +14196,7 @@
       </c>
       <c r="E102" s="11" cm="1">
         <f t="array" ref="E102">_FV(K102,"Preço")</f>
-        <v>117</v>
+        <v>114.81</v>
       </c>
       <c r="F102" s="11">
         <v>62.6</v>
@@ -14204,7 +14206,7 @@
       </c>
       <c r="H102" s="63">
         <f t="shared" si="7"/>
-        <v>0.97499999999999998</v>
+        <v>0.95674999999999999</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>7</v>
@@ -14224,7 +14226,7 @@
       </c>
       <c r="B103" s="23">
         <f t="shared" si="6"/>
-        <v>0.14602409638554223</v>
+        <v>0.1285542168674699</v>
       </c>
       <c r="C103" s="13">
         <v>83</v>
@@ -14234,7 +14236,7 @@
       </c>
       <c r="E103" s="11" cm="1">
         <f t="array" ref="E103">_FV(K103,"Preço")</f>
-        <v>95.12</v>
+        <v>93.67</v>
       </c>
       <c r="F103" s="11">
         <v>83.7</v>
@@ -14244,7 +14246,7 @@
       </c>
       <c r="H103" s="63">
         <f t="shared" si="7"/>
-        <v>1.0012631578947369</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>7</v>
@@ -14264,7 +14266,7 @@
       </c>
       <c r="B104" s="23">
         <f t="shared" si="6"/>
-        <v>0.28414839797639141</v>
+        <v>0.25278246205733573</v>
       </c>
       <c r="C104" s="13">
         <v>59.3</v>
@@ -14274,7 +14276,7 @@
       </c>
       <c r="E104" s="11" cm="1">
         <f t="array" ref="E104">_FV(K104,"Preço")</f>
-        <v>76.150000000000006</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="F104" s="11">
         <v>59.2</v>
@@ -14284,7 +14286,7 @@
       </c>
       <c r="H104" s="63">
         <f t="shared" si="7"/>
-        <v>0.94105289174493334</v>
+        <v>0.91806722689075637</v>
       </c>
       <c r="I104" s="12" t="s">
         <v>7</v>
@@ -14304,7 +14306,7 @@
       </c>
       <c r="B105" s="35">
         <f t="shared" si="6"/>
-        <v>8.3552631578947295E-2</v>
+        <v>5.2763157894736908E-2</v>
       </c>
       <c r="C105" s="55">
         <v>76</v>
@@ -14314,7 +14316,7 @@
       </c>
       <c r="E105" s="21" cm="1">
         <f t="array" ref="E105">_FV(K105,"Preço")</f>
-        <v>82.35</v>
+        <v>80.010000000000005</v>
       </c>
       <c r="F105" s="21">
         <v>75.989999999999995</v>
@@ -14324,7 +14326,7 @@
       </c>
       <c r="H105" s="63">
         <f t="shared" si="7"/>
-        <v>0.91499999999999992</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I105" s="20" t="s">
         <v>7</v>
@@ -14344,7 +14346,7 @@
       </c>
       <c r="B106" s="23">
         <f t="shared" si="6"/>
-        <v>0.13489130434782606</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="C106" s="13">
         <v>92</v>
@@ -14354,7 +14356,7 @@
       </c>
       <c r="E106" s="11" cm="1">
         <f t="array" ref="E106">_FV(K106,"Preço")</f>
-        <v>104.41</v>
+        <v>108</v>
       </c>
       <c r="F106" s="11">
         <v>83.5</v>
@@ -14364,7 +14366,7 @@
       </c>
       <c r="H106" s="63">
         <f t="shared" si="7"/>
-        <v>0.85877611449251523</v>
+        <v>0.88830399736798815</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>7</v>
@@ -14384,17 +14386,17 @@
       </c>
       <c r="B107" s="23">
         <f t="shared" si="6"/>
-        <v>0.19224283305227666</v>
+        <v>0.15483333333333343</v>
       </c>
       <c r="C107" s="13">
-        <v>59.3</v>
+        <v>60</v>
       </c>
       <c r="D107" s="13">
         <v>88</v>
       </c>
       <c r="E107" s="11" cm="1">
         <f t="array" ref="E107">_FV(K107,"Preço")</f>
-        <v>70.7</v>
+        <v>69.290000000000006</v>
       </c>
       <c r="F107" s="11">
         <v>59.18</v>
@@ -14404,7 +14406,7 @@
       </c>
       <c r="H107" s="63">
         <f t="shared" si="7"/>
-        <v>0.71988595866001437</v>
+        <v>0.70552896853680902</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>7</v>
@@ -14424,7 +14426,7 @@
       </c>
       <c r="B108" s="23">
         <f t="shared" si="6"/>
-        <v>0.27552941176470591</v>
+        <v>0.25223529411764706</v>
       </c>
       <c r="C108" s="13">
         <v>85</v>
@@ -14434,7 +14436,7 @@
       </c>
       <c r="E108" s="11" cm="1">
         <f t="array" ref="E108">_FV(K108,"Preço")</f>
-        <v>108.42</v>
+        <v>106.44</v>
       </c>
       <c r="F108" s="11">
         <v>82</v>
@@ -14444,7 +14446,7 @@
       </c>
       <c r="H108" s="63">
         <f t="shared" si="7"/>
-        <v>1.0613803230543317</v>
+        <v>1.0419970631424376</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>7</v>
@@ -14464,7 +14466,7 @@
       </c>
       <c r="B109" s="23">
         <f t="shared" si="6"/>
-        <v>0.22707317073170738</v>
+        <v>0.17682926829268292</v>
       </c>
       <c r="C109" s="13">
         <v>41</v>
@@ -14474,7 +14476,7 @@
       </c>
       <c r="E109" s="11" cm="1">
         <f t="array" ref="E109">_FV(K109,"Preço")</f>
-        <v>50.31</v>
+        <v>48.25</v>
       </c>
       <c r="F109" s="11">
         <v>40.96</v>
@@ -14484,7 +14486,7 @@
       </c>
       <c r="H109" s="63">
         <f t="shared" si="7"/>
-        <v>0.9</v>
+        <v>0.86314847942754924</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>7</v>
@@ -14504,7 +14506,7 @@
       </c>
       <c r="B110" s="23">
         <f t="shared" si="6"/>
-        <v>0.125</v>
+        <v>0.13125000000000001</v>
       </c>
       <c r="C110" s="13">
         <v>80</v>
@@ -14514,7 +14516,7 @@
       </c>
       <c r="E110" s="11" cm="1">
         <f t="array" ref="E110">_FV(K110,"Preço")</f>
-        <v>90</v>
+        <v>90.5</v>
       </c>
       <c r="F110" s="11"/>
       <c r="G110" s="11">
@@ -14522,7 +14524,7 @@
       </c>
       <c r="H110" s="63">
         <f t="shared" si="7"/>
-        <v>0.99108027750247762</v>
+        <v>0.99658627904415809</v>
       </c>
       <c r="I110" s="12" t="s">
         <v>7</v>
@@ -14542,7 +14544,7 @@
       </c>
       <c r="B111" s="35">
         <f t="shared" si="6"/>
-        <v>0.32597701149425284</v>
+        <v>0.18620689655172418</v>
       </c>
       <c r="C111" s="55">
         <v>43.5</v>
@@ -14552,7 +14554,7 @@
       </c>
       <c r="E111" s="21" cm="1">
         <f t="array" ref="E111">_FV(K111,"Preço")</f>
-        <v>57.68</v>
+        <v>51.6</v>
       </c>
       <c r="F111" s="21"/>
       <c r="G111" s="21">
@@ -14560,7 +14562,7 @@
       </c>
       <c r="H111" s="63">
         <f t="shared" si="7"/>
-        <v>0.72099999999999997</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="I111" s="20" t="s">
         <v>7</v>
@@ -14580,7 +14582,7 @@
       </c>
       <c r="B112" s="35">
         <f t="shared" si="6"/>
-        <v>0.12406947890818859</v>
+        <v>0.10719602977667496</v>
       </c>
       <c r="C112" s="55">
         <v>80.599999999999994</v>
@@ -14590,7 +14592,7 @@
       </c>
       <c r="E112" s="21" cm="1">
         <f t="array" ref="E112">_FV(K112,"Preço")</f>
-        <v>90.6</v>
+        <v>89.24</v>
       </c>
       <c r="F112" s="21"/>
       <c r="G112" s="21">
@@ -14598,7 +14600,7 @@
       </c>
       <c r="H112" s="63">
         <f t="shared" si="7"/>
-        <v>0.99440237076061899</v>
+        <v>0.97947535945560305</v>
       </c>
       <c r="I112" s="20" t="s">
         <v>7</v>
@@ -14618,7 +14620,7 @@
       </c>
       <c r="B113" s="23">
         <f t="shared" si="6"/>
-        <v>0.11150481674233188</v>
+        <v>0.10818292547890594</v>
       </c>
       <c r="C113" s="13">
         <v>90.31</v>
@@ -14628,15 +14630,17 @@
       </c>
       <c r="E113" s="11" cm="1">
         <f t="array" ref="E113">_FV(K113,"Preço")</f>
-        <v>100.38</v>
-      </c>
-      <c r="F113" s="11"/>
+        <v>100.08</v>
+      </c>
+      <c r="F113" s="11">
+        <v>90.31</v>
+      </c>
       <c r="G113" s="11">
         <v>99.2</v>
       </c>
       <c r="H113" s="63">
         <f t="shared" si="7"/>
-        <v>1.0118951612903224</v>
+        <v>1.0088709677419354</v>
       </c>
       <c r="I113" s="12" t="s">
         <v>7</v>
@@ -14656,7 +14660,7 @@
       </c>
       <c r="B114" s="23">
         <f t="shared" si="6"/>
-        <v>0.40927643784786633</v>
+        <v>0.39424860853432298</v>
       </c>
       <c r="C114" s="13">
         <v>107.8</v>
@@ -14666,7 +14670,7 @@
       </c>
       <c r="E114" s="11" cm="1">
         <f t="array" ref="E114">_FV(K114,"Preço")</f>
-        <v>151.91999999999999</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="F114" s="11"/>
       <c r="G114" s="11">
@@ -14674,7 +14678,7 @@
       </c>
       <c r="H114" s="63">
         <f t="shared" si="7"/>
-        <v>0.7282139775668679</v>
+        <v>0.72044866264020713</v>
       </c>
       <c r="I114" s="12" t="s">
         <v>7</v>
@@ -14694,7 +14698,7 @@
       </c>
       <c r="B115" s="23">
         <f t="shared" si="6"/>
-        <v>9.7918948521358143E-2</v>
+        <v>8.7732749178532368E-2</v>
       </c>
       <c r="C115" s="13">
         <v>91.3</v>
@@ -14704,7 +14708,7 @@
       </c>
       <c r="E115" s="11" cm="1">
         <f t="array" ref="E115">_FV(K115,"Preço")</f>
-        <v>100.24</v>
+        <v>99.31</v>
       </c>
       <c r="F115" s="11"/>
       <c r="G115" s="11">
@@ -14712,7 +14716,7 @@
       </c>
       <c r="H115" s="63">
         <f t="shared" si="7"/>
-        <v>1.0162206001622058</v>
+        <v>1.0067923763179238</v>
       </c>
       <c r="I115" s="12" t="s">
         <v>7</v>
@@ -14732,7 +14736,7 @@
       </c>
       <c r="B116" s="23">
         <f t="shared" si="6"/>
-        <v>0.39615384615384613</v>
+        <v>0.40153846153846146</v>
       </c>
       <c r="C116" s="13">
         <v>65</v>
@@ -14742,7 +14746,7 @@
       </c>
       <c r="E116" s="11" cm="1">
         <f t="array" ref="E116">_FV(K116,"Preço")</f>
-        <v>90.75</v>
+        <v>91.1</v>
       </c>
       <c r="F116" s="11"/>
       <c r="G116" s="11">
@@ -14750,7 +14754,7 @@
       </c>
       <c r="H116" s="63">
         <f t="shared" si="7"/>
-        <v>0.95225603357817423</v>
+        <v>0.95592864637985309</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>7</v>
@@ -14770,7 +14774,7 @@
       </c>
       <c r="B117" s="23">
         <f t="shared" si="6"/>
-        <v>0.14851851851851858</v>
+        <v>0.1262962962962963</v>
       </c>
       <c r="C117" s="13">
         <v>108</v>
@@ -14780,7 +14784,7 @@
       </c>
       <c r="E117" s="11" cm="1">
         <f t="array" ref="E117">_FV(K117,"Preço")</f>
-        <v>124.04</v>
+        <v>121.64</v>
       </c>
       <c r="F117" s="11"/>
       <c r="G117" s="11">
@@ -14788,7 +14792,7 @@
       </c>
       <c r="H117" s="63">
         <f t="shared" si="7"/>
-        <v>1.0302325581395348</v>
+        <v>1.0102990033222592</v>
       </c>
       <c r="I117" s="12" t="s">
         <v>7</v>
@@ -14808,7 +14812,7 @@
       </c>
       <c r="B118" s="23">
         <f t="shared" si="6"/>
-        <v>0.12510000000000004</v>
+        <v>7.8499999999999945E-2</v>
       </c>
       <c r="C118" s="13">
         <v>100</v>
@@ -14818,7 +14822,7 @@
       </c>
       <c r="E118" s="11" cm="1">
         <f t="array" ref="E118">_FV(K118,"Preço")</f>
-        <v>112.51</v>
+        <v>107.85</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="11">
@@ -14826,7 +14830,7 @@
       </c>
       <c r="H118" s="63">
         <f t="shared" si="7"/>
-        <v>1.0818269230769231</v>
+        <v>1.0370192307692307</v>
       </c>
       <c r="I118" s="12" t="s">
         <v>7</v>
@@ -14846,7 +14850,7 @@
       </c>
       <c r="B119" s="34">
         <f t="shared" si="6"/>
-        <v>7.7283105022831172E-2</v>
+        <v>2.5342465753424647E-2</v>
       </c>
       <c r="C119" s="18">
         <v>87.6</v>
@@ -14856,7 +14860,7 @@
       </c>
       <c r="E119" s="16" cm="1">
         <f t="array" ref="E119">_FV(K119,"Preço")</f>
-        <v>94.37</v>
+        <v>89.82</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16">
@@ -14864,7 +14868,7 @@
       </c>
       <c r="H119" s="63">
         <f t="shared" si="7"/>
-        <v>0.94370000000000009</v>
+        <v>0.89819999999999989</v>
       </c>
       <c r="I119" s="15" t="s">
         <v>7</v>
@@ -14884,7 +14888,7 @@
       </c>
       <c r="B120" s="23">
         <f t="shared" si="6"/>
-        <v>0.13294203961848844</v>
+        <v>9.1415994130594119E-2</v>
       </c>
       <c r="C120" s="13">
         <v>68.150000000000006</v>
@@ -14894,7 +14898,7 @@
       </c>
       <c r="E120" s="11" cm="1">
         <f t="array" ref="E120">_FV(K120,"Preço")</f>
-        <v>77.209999999999994</v>
+        <v>74.38</v>
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="11">
@@ -14902,7 +14906,7 @@
       </c>
       <c r="H120" s="63">
         <f t="shared" si="7"/>
-        <v>0.60127715909975854</v>
+        <v>0.57923837707343662</v>
       </c>
       <c r="I120" s="12" t="s">
         <v>7</v>
@@ -14922,7 +14926,7 @@
       </c>
       <c r="B121" s="23">
         <f t="shared" si="6"/>
-        <v>0.10173410404624265</v>
+        <v>9.3641618497109877E-2</v>
       </c>
       <c r="C121" s="13">
         <v>8.65</v>
@@ -14932,7 +14936,7 @@
       </c>
       <c r="E121" s="11" cm="1">
         <f t="array" ref="E121">_FV(K121,"Preço")</f>
-        <v>9.5299999999999994</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="F121" s="11"/>
       <c r="G121" s="11">
@@ -14940,7 +14944,7 @@
       </c>
       <c r="H121" s="63">
         <f t="shared" si="7"/>
-        <v>1.0258342303552206</v>
+        <v>1.0182992465016147</v>
       </c>
       <c r="I121" s="12" t="s">
         <v>7</v>
@@ -14960,7 +14964,7 @@
       </c>
       <c r="B122" s="23">
         <f t="shared" si="6"/>
-        <v>0.15101010101010093</v>
+        <v>0.1092171717171716</v>
       </c>
       <c r="C122" s="13">
         <v>79.2</v>
@@ -14970,7 +14974,7 @@
       </c>
       <c r="E122" s="11" cm="1">
         <f t="array" ref="E122">_FV(K122,"Preço")</f>
-        <v>91.16</v>
+        <v>87.85</v>
       </c>
       <c r="F122" s="11"/>
       <c r="G122" s="11">
@@ -14978,7 +14982,7 @@
       </c>
       <c r="H122" s="63">
         <f t="shared" si="7"/>
-        <v>0.98508752971687907</v>
+        <v>0.94931921331316171</v>
       </c>
       <c r="I122" s="12" t="s">
         <v>7</v>
@@ -14998,7 +15002,7 @@
       </c>
       <c r="B123" s="23">
         <f t="shared" si="6"/>
-        <v>6.2637362637362665E-2</v>
+        <v>7.2527472527472547E-2</v>
       </c>
       <c r="C123" s="13">
         <v>9.1</v>
@@ -15008,7 +15012,7 @@
       </c>
       <c r="E123" s="11" cm="1">
         <f t="array" ref="E123">_FV(K123,"Preço")</f>
-        <v>9.67</v>
+        <v>9.76</v>
       </c>
       <c r="F123" s="11"/>
       <c r="G123" s="11">
@@ -15016,7 +15020,7 @@
       </c>
       <c r="H123" s="63">
         <f t="shared" si="7"/>
-        <v>1.0051975051975053</v>
+        <v>1.0145530145530146</v>
       </c>
       <c r="I123" s="12" t="s">
         <v>7</v>
@@ -15036,7 +15040,7 @@
       </c>
       <c r="B124" s="23">
         <f t="shared" si="6"/>
-        <v>0.29963942307692298</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="C124" s="13">
         <v>83.2</v>
@@ -15046,7 +15050,7 @@
       </c>
       <c r="E124" s="11" cm="1">
         <f t="array" ref="E124">_FV(K124,"Preço")</f>
-        <v>108.13</v>
+        <v>102.4</v>
       </c>
       <c r="F124" s="11"/>
       <c r="G124" s="11">
@@ -15054,7 +15058,7 @@
       </c>
       <c r="H124" s="63">
         <f t="shared" si="7"/>
-        <v>0.9657913540550197</v>
+        <v>0.91461236155769932</v>
       </c>
       <c r="I124" s="12" t="s">
         <v>7</v>
@@ -15074,7 +15078,7 @@
       </c>
       <c r="B125" s="23">
         <f t="shared" si="6"/>
-        <v>0.28320292653185658</v>
+        <v>0.18991972360532464</v>
       </c>
       <c r="C125" s="13">
         <v>98.41</v>
@@ -15084,7 +15088,7 @@
       </c>
       <c r="E125" s="11" cm="1">
         <f t="array" ref="E125">_FV(K125,"Preço")</f>
-        <v>126.28</v>
+        <v>117.1</v>
       </c>
       <c r="F125" s="11"/>
       <c r="G125" s="11">
@@ -15092,7 +15096,7 @@
       </c>
       <c r="H125" s="63">
         <f t="shared" si="7"/>
-        <v>1.0523333333333333</v>
+        <v>0.97583333333333333</v>
       </c>
       <c r="I125" s="12" t="s">
         <v>7</v>
@@ -15112,7 +15116,7 @@
       </c>
       <c r="B126" s="23">
         <f t="shared" si="6"/>
-        <v>0.1061239547466799</v>
+        <v>8.0300049188391565E-2</v>
       </c>
       <c r="C126" s="13">
         <v>81.319999999999993</v>
@@ -15122,7 +15126,7 @@
       </c>
       <c r="E126" s="11" cm="1">
         <f t="array" ref="E126">_FV(K126,"Preço")</f>
-        <v>89.95</v>
+        <v>87.85</v>
       </c>
       <c r="F126" s="11"/>
       <c r="G126" s="11">
@@ -15130,7 +15134,7 @@
       </c>
       <c r="H126" s="63">
         <f t="shared" si="7"/>
-        <v>0.96720430107526889</v>
+        <v>0.94462365591397845</v>
       </c>
       <c r="I126" s="12" t="s">
         <v>7</v>
@@ -15150,7 +15154,7 @@
       </c>
       <c r="B127" s="23">
         <f t="shared" si="6"/>
-        <v>0.17704517704517719</v>
+        <v>0.175824175824176</v>
       </c>
       <c r="C127" s="13">
         <v>8.19</v>
@@ -15160,7 +15164,7 @@
       </c>
       <c r="E127" s="11" cm="1">
         <f t="array" ref="E127">_FV(K127,"Preço")</f>
-        <v>9.64</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="F127" s="11"/>
       <c r="G127" s="11">
@@ -15168,7 +15172,7 @@
       </c>
       <c r="H127" s="63">
         <f t="shared" si="7"/>
-        <v>0.95540138751238857</v>
+        <v>0.95441030723488607</v>
       </c>
       <c r="I127" s="12" t="s">
         <v>7</v>
@@ -15188,17 +15192,17 @@
       </c>
       <c r="B128" s="23">
         <f t="shared" si="6"/>
-        <v>1.8644067796610073E-2</v>
+        <v>2.5999999999999978E-2</v>
       </c>
       <c r="C128" s="85">
-        <v>11.8</v>
+        <v>10</v>
       </c>
       <c r="D128" s="13">
         <v>21.71</v>
       </c>
       <c r="E128" s="11" cm="1">
         <f t="array" ref="E128">_FV(K128,"Preço")</f>
-        <v>12.02</v>
+        <v>10.26</v>
       </c>
       <c r="F128" s="11">
         <v>11.9</v>
@@ -15208,7 +15212,7 @@
       </c>
       <c r="H128" s="63">
         <f t="shared" si="7"/>
-        <v>0.2809724170172978</v>
+        <v>0.23983169705469845</v>
       </c>
       <c r="I128" s="12" t="s">
         <v>7</v>
@@ -15228,7 +15232,7 @@
       </c>
       <c r="B129" s="23">
         <f t="shared" si="6"/>
-        <v>0.21080213903743308</v>
+        <v>0.18802139037433152</v>
       </c>
       <c r="C129" s="13">
         <v>93.5</v>
@@ -15238,7 +15242,7 @@
       </c>
       <c r="E129" s="11" cm="1">
         <f t="array" ref="E129">_FV(K129,"Preço")</f>
-        <v>113.21</v>
+        <v>111.08</v>
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="11">
@@ -15246,7 +15250,7 @@
       </c>
       <c r="H129" s="63">
         <f t="shared" si="7"/>
-        <v>1.1501574723153509</v>
+        <v>1.1285177283348571</v>
       </c>
       <c r="I129" s="12" t="s">
         <v>7</v>
@@ -15266,17 +15270,17 @@
       </c>
       <c r="B130" s="36">
         <f t="shared" ref="B130:B140" si="8">(E130-C130)/C130</f>
-        <v>0.29817596566523596</v>
+        <v>0.26094420600858359</v>
       </c>
       <c r="C130" s="37">
         <v>93.2</v>
       </c>
       <c r="D130" s="37">
-        <v>123.5</v>
+        <v>125</v>
       </c>
       <c r="E130" s="38" cm="1">
         <f t="array" ref="E130">_FV(K130,"Preço")</f>
-        <v>120.99</v>
+        <v>117.52</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38">
@@ -15284,7 +15288,7 @@
       </c>
       <c r="H130" s="63">
         <f t="shared" ref="H130:H140" si="9">E130/G130</f>
-        <v>1.2099</v>
+        <v>1.1752</v>
       </c>
       <c r="I130" s="39" t="s">
         <v>13</v>
@@ -15304,25 +15308,27 @@
       </c>
       <c r="B131" s="36">
         <f t="shared" si="8"/>
-        <v>0.39985185185185179</v>
+        <v>0.28157142857142847</v>
       </c>
       <c r="C131" s="37">
-        <v>67.5</v>
+        <v>70</v>
       </c>
       <c r="D131" s="37">
         <v>100</v>
       </c>
       <c r="E131" s="38" cm="1">
         <f t="array" ref="E131">_FV(K131,"Preço")</f>
-        <v>94.49</v>
-      </c>
-      <c r="F131" s="38"/>
+        <v>89.71</v>
+      </c>
+      <c r="F131" s="38">
+        <v>67.5</v>
+      </c>
       <c r="G131" s="38">
         <v>158</v>
       </c>
       <c r="H131" s="63">
         <f t="shared" si="9"/>
-        <v>0.59803797468354425</v>
+        <v>0.56778481012658222</v>
       </c>
       <c r="I131" s="39" t="s">
         <v>13</v>
@@ -15342,7 +15348,7 @@
       </c>
       <c r="B132" s="36">
         <f t="shared" si="8"/>
-        <v>0.23941587924898769</v>
+        <v>0.22653086268253786</v>
       </c>
       <c r="C132" s="37">
         <v>81.489999999999995</v>
@@ -15352,7 +15358,7 @@
       </c>
       <c r="E132" s="38" cm="1">
         <f t="array" ref="E132">_FV(K132,"Preço")</f>
-        <v>101</v>
+        <v>99.95</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38">
@@ -15360,7 +15366,7 @@
       </c>
       <c r="H132" s="63">
         <f t="shared" si="9"/>
-        <v>0.92119664356074427</v>
+        <v>0.91161984677125141</v>
       </c>
       <c r="I132" s="39" t="s">
         <v>13</v>
@@ -15380,7 +15386,7 @@
       </c>
       <c r="B133" s="24">
         <f t="shared" si="8"/>
-        <v>0.17333333333333331</v>
+        <v>0.12690909090909089</v>
       </c>
       <c r="C133" s="28">
         <v>82.5</v>
@@ -15390,7 +15396,7 @@
       </c>
       <c r="E133" s="26" cm="1">
         <f t="array" ref="E133">_FV(K133,"Preço")</f>
-        <v>96.8</v>
+        <v>92.97</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26">
@@ -15398,7 +15404,7 @@
       </c>
       <c r="H133" s="63">
         <f t="shared" si="9"/>
-        <v>1.0426540284360188</v>
+        <v>1.0014002585092632</v>
       </c>
       <c r="I133" s="25" t="s">
         <v>9</v>
@@ -15418,7 +15424,7 @@
       </c>
       <c r="B134" s="24">
         <f t="shared" si="8"/>
-        <v>7.6071428571428581E-2</v>
+        <v>4.4523809523809466E-2</v>
       </c>
       <c r="C134" s="28">
         <v>84</v>
@@ -15428,7 +15434,7 @@
       </c>
       <c r="E134" s="26" cm="1">
         <f t="array" ref="E134">_FV(K134,"Preço")</f>
-        <v>90.39</v>
+        <v>87.74</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26">
@@ -15436,7 +15442,7 @@
       </c>
       <c r="H134" s="63">
         <f t="shared" si="9"/>
-        <v>0.9880848272846523</v>
+        <v>0.95911674682990811</v>
       </c>
       <c r="I134" s="25" t="s">
         <v>9</v>
@@ -15456,7 +15462,7 @@
       </c>
       <c r="B135" s="24">
         <f t="shared" si="8"/>
-        <v>8.6666666666666697E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="C135" s="25">
         <v>93</v>
@@ -15466,7 +15472,7 @@
       </c>
       <c r="E135" s="26" cm="1">
         <f t="array" ref="E135">_FV(K135,"Preço")</f>
-        <v>101.06</v>
+        <v>99</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26">
@@ -15474,7 +15480,7 @@
       </c>
       <c r="H135" s="63">
         <f t="shared" si="9"/>
-        <v>1.0025793650793651</v>
+        <v>0.98214285714285721</v>
       </c>
       <c r="I135" s="25" t="s">
         <v>9</v>
@@ -15494,7 +15500,7 @@
       </c>
       <c r="B136" s="24">
         <f t="shared" si="8"/>
-        <v>0.1163088753604614</v>
+        <v>0.10680337498664959</v>
       </c>
       <c r="C136" s="28">
         <v>93.63</v>
@@ -15504,7 +15510,7 @@
       </c>
       <c r="E136" s="26" cm="1">
         <f t="array" ref="E136">_FV(K136,"Preço")</f>
-        <v>104.52</v>
+        <v>103.63</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26">
@@ -15512,7 +15518,7 @@
       </c>
       <c r="H136" s="63">
         <f t="shared" si="9"/>
-        <v>1.0079074252651881</v>
+        <v>0.99932497589199609</v>
       </c>
       <c r="I136" s="25" t="s">
         <v>9</v>
@@ -15532,7 +15538,7 @@
       </c>
       <c r="B137" s="24">
         <f t="shared" si="8"/>
-        <v>0.11242236024844721</v>
+        <v>9.8550724637681275E-2</v>
       </c>
       <c r="C137" s="28">
         <v>96.6</v>
@@ -15542,7 +15548,7 @@
       </c>
       <c r="E137" s="26" cm="1">
         <f t="array" ref="E137">_FV(K137,"Preço")</f>
-        <v>107.46</v>
+        <v>106.12</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26">
@@ -15550,7 +15556,7 @@
       </c>
       <c r="H137" s="63">
         <f t="shared" si="9"/>
-        <v>1.03926499032882</v>
+        <v>1.0263056092843328</v>
       </c>
       <c r="I137" s="25" t="s">
         <v>9</v>
@@ -15570,7 +15576,7 @@
       </c>
       <c r="B138" s="24">
         <f t="shared" si="8"/>
-        <v>0.11066072152411842</v>
+        <v>9.3798135387109793E-2</v>
       </c>
       <c r="C138" s="28">
         <v>123.35</v>
@@ -15580,7 +15586,7 @@
       </c>
       <c r="E138" s="26" cm="1">
         <f t="array" ref="E138">_FV(K138,"Preço")</f>
-        <v>137</v>
+        <v>134.91999999999999</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="26">
@@ -15588,7 +15594,7 @@
       </c>
       <c r="H138" s="63">
         <f t="shared" si="9"/>
-        <v>1.0170749814402376</v>
+        <v>1.0016332590942836</v>
       </c>
       <c r="I138" s="25" t="s">
         <v>9</v>
@@ -15608,7 +15614,7 @@
       </c>
       <c r="B139" s="24">
         <f t="shared" si="8"/>
-        <v>1.5915915915915808E-2</v>
+        <v>1.2112112112112048E-2</v>
       </c>
       <c r="C139" s="28">
         <v>99.9</v>
@@ -15618,15 +15624,15 @@
       </c>
       <c r="E139" s="26" cm="1">
         <f t="array" ref="E139">_FV(K139,"Preço")</f>
-        <v>101.49</v>
+        <v>101.11</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26">
-        <v>97.66</v>
+        <v>99.32</v>
       </c>
       <c r="H139" s="63">
         <f t="shared" si="9"/>
-        <v>1.0392176940405489</v>
+        <v>1.0180225533628675</v>
       </c>
       <c r="I139" s="25" t="s">
         <v>9</v>
@@ -15646,7 +15652,7 @@
       </c>
       <c r="B140" s="24">
         <f t="shared" si="8"/>
-        <v>9.1787439613526672E-2</v>
+        <v>5.7850241545893799E-2</v>
       </c>
       <c r="C140" s="28">
         <v>82.8</v>
@@ -15656,7 +15662,7 @@
       </c>
       <c r="E140" s="26" cm="1">
         <f t="array" ref="E140">_FV(K140,"Preço")</f>
-        <v>90.4</v>
+        <v>87.59</v>
       </c>
       <c r="F140" s="26"/>
       <c r="G140" s="26">
@@ -15664,7 +15670,7 @@
       </c>
       <c r="H140" s="63">
         <f t="shared" si="9"/>
-        <v>0.93980663270610254</v>
+        <v>0.91059361680008322</v>
       </c>
       <c r="I140" s="25" t="s">
         <v>9</v>
